--- a/classification-record/session-all-models-combined.xlsx
+++ b/classification-record/session-all-models-combined.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -59,6 +59,180 @@
     <t>Alex</t>
   </si>
   <si>
+    <t>I made an E-Cig (Box Mod)</t>
+  </si>
+  <si>
+    <t>GP0mOpG0Vck</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GP0mOpG0Vck</t>
+  </si>
+  <si>
+    <t>Simply Electronics</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Which E Cig Is Closest To A Real Tobacco Cigarette? (And Specifically Marlboro Reds)</t>
+  </si>
+  <si>
+    <t>e0vBqKcsTM8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=e0vBqKcsTM8</t>
+  </si>
+  <si>
+    <t>Martin Lotsberg</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>Pepega Edition Finale - HOW will it end?! | NFS MW KuruHS</t>
+  </si>
+  <si>
+    <t>0M4w8ZkAuIg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0M4w8ZkAuIg</t>
+  </si>
+  <si>
+    <t>KuruHS</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaming video </t>
+  </si>
+  <si>
+    <t>50 NEW End Updates we PAID for in Minecraft</t>
+  </si>
+  <si>
+    <t>ToMGTGig15g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ToMGTGig15g</t>
+  </si>
+  <si>
+    <t>Logdotzip</t>
+  </si>
+  <si>
+    <t>Minecraft video (end not ends)</t>
+  </si>
+  <si>
+    <t>iStick D by Eleaf - Best Disposable?</t>
+  </si>
+  <si>
+    <t>s9Y4VxsrrYU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s9Y4VxsrrYU</t>
+  </si>
+  <si>
+    <t>Matt From SMM</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>How to Rewick Smok Infinix Vape Pod</t>
+  </si>
+  <si>
+    <t>DjKGPpJXnYk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DjKGPpJXnYk</t>
+  </si>
+  <si>
+    <t>Pypson</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video is private. Coded from description and channel </t>
+  </si>
+  <si>
+    <t>12 states ban e-cigarettes, health ministry urges all to follow | Doctors claim Its  health risks</t>
+  </si>
+  <si>
+    <t>v-JU3r-lKos</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=v-JU3r-lKos</t>
+  </si>
+  <si>
+    <t>WeGYAN</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another unavailable video. coded on description. might want to drop </t>
+  </si>
+  <si>
+    <t>Report Release: Public Health Consequences of E Cigarettes</t>
+  </si>
+  <si>
+    <t>vifAY4YcVbQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vifAY4YcVbQ</t>
+  </si>
+  <si>
+    <t>NASEM Health and Medicine Division</t>
+  </si>
+  <si>
+    <t>Case Closed | Study Shows No Lung Damage from Vaping</t>
+  </si>
+  <si>
+    <t>2hcp6EEC4TM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2hcp6EEC4TM</t>
+  </si>
+  <si>
+    <t>Regulator Watch</t>
+  </si>
+  <si>
+    <t>1 2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Cigalike E cigs - Using Your Starter Kit Essential - 180 Smoke Visual Help Desk</t>
+  </si>
+  <si>
+    <t>nAWJWWzIiuU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nAWJWWzIiuU</t>
+  </si>
+  <si>
+    <t>180 SMOKE VAPE STORE</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>0 2</t>
+  </si>
+  <si>
     <t>SMOK RPM40: The Real Pod Mod?</t>
   </si>
   <si>
@@ -68,21 +242,6 @@
     <t>https://www.youtube.com/watch?v=2tv8YXPGq_4</t>
   </si>
   <si>
-    <t>180 SMOKE VAPE STORE</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0 1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>test comment</t>
   </si>
   <si>
@@ -98,18 +257,6 @@
     <t>Vaporleaf - Online Vape Shop</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>youtube channel for vaping review/information website</t>
   </si>
   <si>
@@ -135,36 +282,6 @@
   </si>
   <si>
     <t>msdcenter</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean: At World's End (2007) Official Trailer #1 - Johnny Depp Movie HD</t>
-  </si>
-  <si>
-    <t>HKSZtp_OGHY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HKSZtp_OGHY</t>
-  </si>
-  <si>
-    <t>Movieclips Classic Trailers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movie Trailer, account run by/for fandango </t>
-  </si>
-  <si>
-    <t>Red in Motion: Vaporized E-Cigarette Liquids Induce Ion Transport Dysfunction in Airway Epithelia</t>
-  </si>
-  <si>
-    <t>D1Lnl2PhAQ0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=D1Lnl2PhAQ0</t>
-  </si>
-  <si>
-    <t>American Thoracic Society</t>
   </si>
 </sst>
 </file>
@@ -517,7 +634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,10 +691,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44147.90281010147</v>
+        <v>44150.91491172801</v>
       </c>
       <c r="D2" t="n">
-        <v>1283</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -595,17 +712,15 @@
         <v>18</v>
       </c>
       <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
       <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="M2" t="s"/>
       <c r="N2" t="s"/>
     </row>
     <row r="3" spans="1:14">
@@ -616,38 +731,36 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44147.90575298981</v>
+        <v>44150.91587495893</v>
       </c>
       <c r="D3" t="n">
-        <v>2569</v>
+        <v>3291</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
+      <c r="M3" t="s"/>
       <c r="N3" t="s"/>
     </row>
     <row r="4" spans="1:14">
@@ -658,36 +771,38 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44147.90636120602</v>
+        <v>44150.91647944816</v>
       </c>
       <c r="D4" t="n">
-        <v>3552</v>
+        <v>2337</v>
       </c>
       <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" t="s"/>
       <c r="N4" t="s"/>
     </row>
     <row r="5" spans="1:14">
@@ -698,36 +813,38 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44147.90702556224</v>
+        <v>44150.91708795712</v>
       </c>
       <c r="D5" t="n">
-        <v>2926</v>
+        <v>3783</v>
       </c>
       <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
         <v>38</v>
       </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" t="s"/>
       <c r="N5" t="s"/>
     </row>
     <row r="6" spans="1:14">
@@ -738,81 +855,411 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44143.71446230324</v>
+        <v>44150.91861394361</v>
       </c>
       <c r="D6" t="n">
-        <v>1776</v>
+        <v>2088</v>
       </c>
       <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
         <v>43</v>
       </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3</v>
-      </c>
-      <c r="M6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44150.91975104062</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3686</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" t="s"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44150.92170523974</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2853</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" t="s"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>44150.9224604859</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2899</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>44150.92315710962</v>
+      </c>
+      <c r="D10" t="n">
+        <v>429</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>44150.92537696817</v>
+      </c>
+      <c r="D11" t="n">
+        <v>931</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>44147.90281010417</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1283</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>44143.71512505787</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2387</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="M12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
-        <v>4</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>44147.90575298611</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2569</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" t="n">
         <v>3</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>44147.90636120371</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3552</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>3</v>
       </c>
-      <c r="M7" t="s"/>
-      <c r="N7" t="n">
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s"/>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>44147.90702556713</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2926</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>9</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3</v>
+      </c>
+      <c r="M15" t="s"/>
+      <c r="N15" t="n">
         <v>0</v>
       </c>
     </row>

--- a/classification-record/session-all-models-combined.xlsx
+++ b/classification-record/session-all-models-combined.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
   <si>
     <t>Name</t>
   </si>
@@ -56,9 +56,159 @@
     <t>Unnamed: 0</t>
   </si>
   <si>
+    <t>Unnamed: 0.1</t>
+  </si>
+  <si>
     <t>Alex</t>
   </si>
   <si>
+    <t>E-Cigarettes: To Vape or Not To Vape?</t>
+  </si>
+  <si>
+    <t>_wAM3ql4HWs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_wAM3ql4HWs</t>
+  </si>
+  <si>
+    <t>Ontario Tobacco Research Unit</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Sniper: Assassin's End OFFICIAL TRAILER - Available on Blu-ray &amp; Digital 6/16</t>
+  </si>
+  <si>
+    <t>Ub9EikTkrTk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ub9EikTkrTk</t>
+  </si>
+  <si>
+    <t>Sony Pictures Entertainment</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie trailer. (End not ends) </t>
+  </si>
+  <si>
+    <t>Multi-Level Prevention Strategies to Address Teen E-Cigarette Use</t>
+  </si>
+  <si>
+    <t>QE8QyZW3Jqo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QE8QyZW3Jqo</t>
+  </si>
+  <si>
+    <t>SAMHSA</t>
+  </si>
+  <si>
+    <t>the best supplier for disposable vape pen</t>
+  </si>
+  <si>
+    <t>mi4oX34oGVk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mi4oX34oGVk</t>
+  </si>
+  <si>
+    <t>Tony Chou</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Vapourlites VL Micro Disposable E-Cigarette Review</t>
+  </si>
+  <si>
+    <t>JDfr8MBPaCM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JDfr8MBPaCM</t>
+  </si>
+  <si>
+    <t>TheVapourmists</t>
+  </si>
+  <si>
+    <t>Top E Juice Brands | Top 3 E Juice Brands</t>
+  </si>
+  <si>
+    <t>is4H_Qv7rVs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=is4H_Qv7rVs</t>
+  </si>
+  <si>
+    <t>iknowecigs</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>How The Fed Bubble Ends | What You MUST KNOW</t>
+  </si>
+  <si>
+    <t>sOHA1Y5tjJo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sOHA1Y5tjJo</t>
+  </si>
+  <si>
+    <t>Mark Moss</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video about market </t>
+  </si>
+  <si>
+    <t>What is E-Liquid?</t>
+  </si>
+  <si>
+    <t>-gf2xx8lXzE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-gf2xx8lXzE</t>
+  </si>
+  <si>
+    <t>Vaping360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vape review / information website </t>
+  </si>
+  <si>
+    <t>What Is Squonking (bottom feed mods)? A Vape Nerd Squonk Tutorial</t>
+  </si>
+  <si>
+    <t>vIww8ebeSEk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vIww8ebeSEk</t>
+  </si>
+  <si>
+    <t>FlavourVapour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vape review website / channel </t>
+  </si>
+  <si>
     <t>I made an E-Cig (Box Mod)</t>
   </si>
   <si>
@@ -71,12 +221,6 @@
     <t>Simply Electronics</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Which E Cig Is Closest To A Real Tobacco Cigarette? (And Specifically Marlboro Reds)</t>
   </si>
   <si>
@@ -89,12 +233,6 @@
     <t>Martin Lotsberg</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>0 1</t>
   </si>
   <si>
@@ -110,12 +248,6 @@
     <t>KuruHS</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gaming video </t>
   </si>
   <si>
@@ -146,9 +278,6 @@
     <t>Matt From SMM</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>How to Rewick Smok Infinix Vape Pod</t>
   </si>
   <si>
@@ -179,9 +308,6 @@
     <t>WeGYAN</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Another unavailable video. coded on description. might want to drop </t>
   </si>
   <si>
@@ -225,9 +351,6 @@
   </si>
   <si>
     <t>180 SMOKE VAPE STORE</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>0 2</t>
@@ -634,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,7 +765,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,183 +805,188 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44150.91491172801</v>
+        <v>44150.92973521506</v>
       </c>
       <c r="D2" t="n">
-        <v>219</v>
+        <v>3103</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s"/>
       <c r="N2" t="s"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="s"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44150.91587495893</v>
+        <v>44150.93092240579</v>
       </c>
       <c r="D3" t="n">
-        <v>3291</v>
+        <v>1754</v>
       </c>
       <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
       <c r="N3" t="s"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="s"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44150.91647944816</v>
+        <v>44150.93139513</v>
       </c>
       <c r="D4" t="n">
-        <v>2337</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44150.93208030776</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2062</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>44150.91708795712</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3783</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M5" t="s"/>
       <c r="N5" t="s"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="s"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44150.91861394361</v>
+        <v>44150.93366618855</v>
       </c>
       <c r="D6" t="n">
-        <v>2088</v>
+        <v>1509</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -873,393 +1001,810 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M6" t="s"/>
       <c r="N6" t="s"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="s"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44150.91975104062</v>
+        <v>44150.93590909512</v>
       </c>
       <c r="D7" t="n">
-        <v>3686</v>
+        <v>626</v>
       </c>
       <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>45</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>48</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44150.93629255984</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2214</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
         <v>49</v>
       </c>
-      <c r="N7" t="s"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>44150.92170523974</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2853</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
         <v>52</v>
       </c>
-      <c r="H8" t="s">
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
         <v>53</v>
       </c>
-      <c r="I8" t="s">
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>44150.93726997889</v>
+      </c>
+      <c r="D9" t="n">
+        <v>638</v>
+      </c>
+      <c r="E9" t="s">
         <v>54</v>
       </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" t="s">
         <v>19</v>
       </c>
-      <c r="L8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" t="s"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>44150.9224604859</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2899</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" t="s">
         <v>58</v>
       </c>
-      <c r="H9" t="s">
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>44150.93919015244</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3128</v>
+      </c>
+      <c r="E10" t="s">
         <v>59</v>
       </c>
-      <c r="I9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>44150.92315710962</v>
-      </c>
-      <c r="D10" t="n">
-        <v>429</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>60</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>61</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>62</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
         <v>63</v>
       </c>
-      <c r="I10" t="s">
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>44150.91491172454</v>
+      </c>
+      <c r="D11" t="n">
+        <v>219</v>
+      </c>
+      <c r="E11" t="s">
         <v>64</v>
       </c>
-      <c r="J10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="F11" t="s">
         <v>65</v>
       </c>
-      <c r="L10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" t="s"/>
-      <c r="N10" t="s"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>44150.92537696817</v>
-      </c>
-      <c r="D11" t="n">
-        <v>931</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>66</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>67</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" t="s"/>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>44150.9158749537</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3291</v>
+      </c>
+      <c r="E12" t="s">
         <v>68</v>
       </c>
-      <c r="H11" t="s">
+      <c r="F12" t="s">
         <v>69</v>
       </c>
-      <c r="I11" t="s">
+      <c r="G12" t="s">
         <v>70</v>
       </c>
-      <c r="J11" t="s">
+      <c r="H12" t="s">
         <v>71</v>
       </c>
-      <c r="K11" t="s">
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" t="s"/>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>44150.91647944444</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2337</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s">
         <v>26</v>
       </c>
-      <c r="L11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" t="s"/>
-      <c r="N11" t="s"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>44147.90281010417</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1283</v>
-      </c>
-      <c r="E12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>44150.91708795139</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3783</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" t="s">
         <v>26</v>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="s">
-        <v>75</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>44147.90575298611</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2569</v>
-      </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5</v>
-      </c>
-      <c r="K13" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3</v>
-      </c>
-      <c r="M13" t="s">
-        <v>80</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>44147.90636120371</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3552</v>
-      </c>
-      <c r="E14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" t="s">
         <v>82</v>
       </c>
-      <c r="G14" t="s">
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>44150.91861394676</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2088</v>
+      </c>
+      <c r="E15" t="s">
         <v>83</v>
       </c>
-      <c r="H14" t="s">
+      <c r="F15" t="s">
         <v>84</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3</v>
-      </c>
-      <c r="K14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s"/>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>44147.90702556713</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2926</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>85</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>86</v>
       </c>
-      <c r="G15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>9</v>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
       </c>
       <c r="M15" t="s"/>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>44150.91975104166</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3686</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>44150.92170524305</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2853</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" t="s">
+        <v>97</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>44150.92246048611</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2899</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" t="s"/>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>44150.92315710648</v>
+      </c>
+      <c r="D19" t="n">
+        <v>429</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" t="s"/>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>44150.92537696759</v>
+      </c>
+      <c r="D20" t="n">
+        <v>931</v>
+      </c>
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" t="s"/>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>44147.90281010417</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1283</v>
+      </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>116</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>44147.90575298611</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2569</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="s">
+        <v>121</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>44147.90636120371</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3552</v>
+      </c>
+      <c r="E23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s"/>
+      <c r="N23" t="n">
+        <v>2</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>44147.90702556713</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2926</v>
+      </c>
+      <c r="E24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>9</v>
+      </c>
+      <c r="K24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3</v>
+      </c>
+      <c r="M24" t="s"/>
+      <c r="N24" t="n">
+        <v>3</v>
+      </c>
+      <c r="O24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/classification-record/session-all-models-combined.xlsx
+++ b/classification-record/session-all-models-combined.xlsx
@@ -53,10 +53,10 @@
     <t>comment</t>
   </si>
   <si>
-    <t>Unnamed: 0</t>
-  </si>
-  <si>
     <t>Unnamed: 0.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1</t>
   </si>
   <si>
     <t>Alex</t>
@@ -757,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1194,39 +1194,37 @@
         <v>14</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44150.91491172454</v>
+        <v>44150.92973521991</v>
       </c>
       <c r="D11" t="n">
-        <v>219</v>
+        <v>3103</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="L11" t="s">
         <v>21</v>
       </c>
       <c r="M11" t="s"/>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
+      <c r="N11" t="s"/>
       <c r="O11" t="s"/>
     </row>
     <row r="12" spans="1:15">
@@ -1237,39 +1235,39 @@
         <v>14</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44150.9158749537</v>
+        <v>44150.93092240741</v>
       </c>
       <c r="D12" t="n">
-        <v>3291</v>
+        <v>1754</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>72</v>
-      </c>
-      <c r="M12" t="s"/>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" t="s"/>
       <c r="O12" t="s"/>
     </row>
     <row r="13" spans="1:15">
@@ -1280,41 +1278,37 @@
         <v>14</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44150.91647944444</v>
+        <v>44150.93139512731</v>
       </c>
       <c r="D13" t="n">
-        <v>2337</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
         <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="L13" t="s">
         <v>21</v>
       </c>
-      <c r="M13" t="s">
-        <v>77</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
       <c r="O13" t="s"/>
     </row>
     <row r="14" spans="1:15">
@@ -1325,41 +1319,37 @@
         <v>14</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44150.91708795139</v>
+        <v>44150.9320803125</v>
       </c>
       <c r="D14" t="n">
-        <v>3783</v>
+        <v>2062</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="L14" t="s">
         <v>21</v>
       </c>
-      <c r="M14" t="s">
-        <v>82</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
+      <c r="M14" t="s"/>
+      <c r="N14" t="s"/>
       <c r="O14" t="s"/>
     </row>
     <row r="15" spans="1:15">
@@ -1370,28 +1360,28 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44150.91861394676</v>
+        <v>44150.93366619213</v>
       </c>
       <c r="D15" t="n">
-        <v>2088</v>
+        <v>1509</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="I15" t="s">
         <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K15" t="s">
         <v>38</v>
@@ -1400,9 +1390,7 @@
         <v>21</v>
       </c>
       <c r="M15" t="s"/>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
+      <c r="N15" t="s"/>
       <c r="O15" t="s"/>
     </row>
     <row r="16" spans="1:15">
@@ -1413,41 +1401,37 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44150.91975104166</v>
+        <v>44150.93590909722</v>
       </c>
       <c r="D16" t="n">
-        <v>3686</v>
+        <v>626</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" t="s">
-        <v>92</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M16" t="s"/>
+      <c r="N16" t="s"/>
       <c r="O16" t="s"/>
     </row>
     <row r="17" spans="1:15">
@@ -1458,25 +1442,25 @@
         <v>14</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44150.92170524305</v>
+        <v>44150.93629255787</v>
       </c>
       <c r="D17" t="n">
-        <v>2853</v>
+        <v>2214</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J17" t="s">
         <v>20</v>
@@ -1488,11 +1472,9 @@
         <v>21</v>
       </c>
       <c r="M17" t="s">
-        <v>97</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="N17" t="s"/>
       <c r="O17" t="s"/>
     </row>
     <row r="18" spans="1:15">
@@ -1503,39 +1485,39 @@
         <v>14</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>44150.92246048611</v>
+        <v>44150.93726997685</v>
       </c>
       <c r="D18" t="n">
-        <v>2899</v>
+        <v>638</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H18" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="I18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" t="s">
         <v>19</v>
       </c>
-      <c r="J18" t="s">
-        <v>20</v>
-      </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L18" t="s">
         <v>21</v>
       </c>
-      <c r="M18" t="s"/>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
+      <c r="M18" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" t="s"/>
       <c r="O18" t="s"/>
     </row>
     <row r="19" spans="1:15">
@@ -1546,39 +1528,39 @@
         <v>14</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44150.92315710648</v>
+        <v>44150.93919015046</v>
       </c>
       <c r="D19" t="n">
-        <v>429</v>
+        <v>3128</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="H19" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="I19" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="L19" t="s">
         <v>21</v>
       </c>
-      <c r="M19" t="s"/>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
+      <c r="M19" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" t="s"/>
       <c r="O19" t="s"/>
     </row>
     <row r="20" spans="1:15">
@@ -1589,34 +1571,34 @@
         <v>14</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>44150.92537696759</v>
+        <v>44150.91491172454</v>
       </c>
       <c r="D20" t="n">
-        <v>931</v>
+        <v>219</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="K20" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="L20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M20" t="s"/>
       <c r="N20" t="n">
@@ -1632,44 +1614,40 @@
         <v>14</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>44147.90281010417</v>
+        <v>44150.9158749537</v>
       </c>
       <c r="D21" t="n">
-        <v>1283</v>
+        <v>3291</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="H21" t="s">
-        <v>111</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="I21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s">
+        <v>37</v>
       </c>
       <c r="K21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" t="s">
         <v>72</v>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="s">
-        <v>116</v>
-      </c>
+      <c r="M21" t="s"/>
       <c r="N21" t="n">
         <v>0</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
+      <c r="O21" t="s"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="n">
@@ -1679,44 +1657,42 @@
         <v>14</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>44147.90575298611</v>
+        <v>44150.91647944444</v>
       </c>
       <c r="D22" t="n">
-        <v>2569</v>
+        <v>2337</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s">
-        <v>120</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7</v>
-      </c>
-      <c r="J22" t="n">
-        <v>5</v>
+        <v>76</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
+        <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3</v>
+        <v>52</v>
+      </c>
+      <c r="L22" t="s">
+        <v>21</v>
       </c>
       <c r="M22" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O22" t="s"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="n">
@@ -1726,42 +1702,42 @@
         <v>14</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>44147.90636120371</v>
+        <v>44150.91708795139</v>
       </c>
       <c r="D23" t="n">
-        <v>3552</v>
+        <v>3783</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s">
-        <v>125</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3</v>
+        <v>81</v>
+      </c>
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" t="s">
+        <v>20</v>
       </c>
       <c r="K23" t="s">
         <v>52</v>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="s"/>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" t="s">
+        <v>82</v>
+      </c>
       <c r="N23" t="n">
-        <v>2</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O23" t="s"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="n">
@@ -1771,40 +1747,441 @@
         <v>14</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>44147.90702556713</v>
+        <v>44150.91861394676</v>
       </c>
       <c r="D24" t="n">
-        <v>2926</v>
+        <v>2088</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s">
-        <v>129</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>9</v>
+        <v>86</v>
+      </c>
+      <c r="I24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
       </c>
       <c r="K24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
       </c>
       <c r="M24" t="s"/>
       <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>44150.91975104166</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3686</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" t="s">
+        <v>92</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>44150.92170524305</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2853</v>
+      </c>
+      <c r="E26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>44150.92246048611</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2899</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" t="s"/>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>44150.92315710648</v>
+      </c>
+      <c r="D28" t="n">
+        <v>429</v>
+      </c>
+      <c r="E28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" t="s">
+        <v>107</v>
+      </c>
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" t="s"/>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>44150.92537696759</v>
+      </c>
+      <c r="D29" t="n">
+        <v>931</v>
+      </c>
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" t="s"/>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>44147.90281010417</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1283</v>
+      </c>
+      <c r="E30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>116</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>44147.90575298611</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2569</v>
+      </c>
+      <c r="E31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" t="n">
         <v>3</v>
       </c>
-      <c r="O24" t="n">
+      <c r="M31" t="s">
+        <v>121</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>44147.90636120371</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3552</v>
+      </c>
+      <c r="E32" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" t="s">
+        <v>124</v>
+      </c>
+      <c r="H32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3</v>
+      </c>
+      <c r="K32" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s"/>
+      <c r="N32" t="n">
+        <v>2</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>44147.90702556713</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2926</v>
+      </c>
+      <c r="E33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" t="s">
+        <v>128</v>
+      </c>
+      <c r="H33" t="s">
+        <v>129</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>9</v>
+      </c>
+      <c r="K33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3</v>
+      </c>
+      <c r="M33" t="s"/>
+      <c r="N33" t="n">
+        <v>3</v>
+      </c>
+      <c r="O33" t="n">
         <v>0</v>
       </c>
     </row>

--- a/classification-record/session-all-models-combined.xlsx
+++ b/classification-record/session-all-models-combined.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
   <si>
     <t>Name</t>
   </si>
@@ -62,6 +62,165 @@
     <t>Alex</t>
   </si>
   <si>
+    <t>Stratus - I Wonder How It'll End</t>
+  </si>
+  <si>
+    <t>Pwnt8Xj2K0s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pwnt8Xj2K0s</t>
+  </si>
+  <si>
+    <t>Valiant</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>music (end not ends)</t>
+  </si>
+  <si>
+    <t>Smok RPM160 Pod Mod Review</t>
+  </si>
+  <si>
+    <t>50dcs-taIIk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=50dcs-taIIk</t>
+  </si>
+  <si>
+    <t>Mike Vapes</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>SMOK TRINITY ALPHA VAPE / Replace Coils not Pods</t>
+  </si>
+  <si>
+    <t>vrfIcVhOD64</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vrfIcVhOD64</t>
+  </si>
+  <si>
+    <t>Zophie Reviews</t>
+  </si>
+  <si>
+    <t>The Njoy #recharge (for new folks)</t>
+  </si>
+  <si>
+    <t>_TOsaBblSjc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_TOsaBblSjc</t>
+  </si>
+  <si>
+    <t>Collections By Eric</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Mark Ten xl review also how to refill cartridge</t>
+  </si>
+  <si>
+    <t>03xEUNLz6rM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=03xEUNLz6rM</t>
+  </si>
+  <si>
+    <t>Vapor Aid Channel</t>
+  </si>
+  <si>
+    <t>E-Cigarette Summit 2015 - Theoretical health risks associated with e-cigarettes</t>
+  </si>
+  <si>
+    <t>zpz4C6CjyGw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zpz4C6CjyGw</t>
+  </si>
+  <si>
+    <t>theonlinecitizen toc</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel is not medical community, presenter is </t>
+  </si>
+  <si>
+    <t>How to Switch Flavors in a Tank / Review of Wat A Waffle / Flavor Switch</t>
+  </si>
+  <si>
+    <t>59pwHBGlfsY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=59pwHBGlfsY</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1 3</t>
+  </si>
+  <si>
+    <t>How to Clean Your Vape | Vape Mod and Vape Pen</t>
+  </si>
+  <si>
+    <t>CYYHo3XSY48</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CYYHo3XSY48</t>
+  </si>
+  <si>
+    <t>VapeWild</t>
+  </si>
+  <si>
+    <t>3 4</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>about tab: "If you're new to VapeWild, get a 120MLs of E-juice for $4.44 (including shipping)" which seems like a deal but not entirely sure. Store is down so cant check</t>
+  </si>
+  <si>
+    <t>Learning how to JUUL... (Doesn't end well)</t>
+  </si>
+  <si>
+    <t>VlWAGm2ruh4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VlWAGm2ruh4</t>
+  </si>
+  <si>
+    <t>Outlaw</t>
+  </si>
+  <si>
+    <t>7 9</t>
+  </si>
+  <si>
+    <t>4 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comedy video / informational? At least trying to be informative. I lost brain cells watching this </t>
+  </si>
+  <si>
     <t>E-Cigarettes: To Vape or Not To Vape?</t>
   </si>
   <si>
@@ -74,15 +233,6 @@
     <t>Ontario Tobacco Research Unit</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Sniper: Assassin's End OFFICIAL TRAILER - Available on Blu-ray &amp; Digital 6/16</t>
   </si>
   <si>
@@ -95,9 +245,6 @@
     <t>Sony Pictures Entertainment</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -128,12 +275,6 @@
     <t>Tony Chou</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Vapourlites VL Micro Disposable E-Cigarette Review</t>
   </si>
   <si>
@@ -158,9 +299,6 @@
     <t>iknowecigs</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>How The Fed Bubble Ends | What You MUST KNOW</t>
   </si>
   <si>
@@ -173,9 +311,6 @@
     <t>Mark Moss</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Video about market </t>
   </si>
   <si>
@@ -233,9 +368,6 @@
     <t>Martin Lotsberg</t>
   </si>
   <si>
-    <t>0 1</t>
-  </si>
-  <si>
     <t>Pepega Edition Finale - HOW will it end?! | NFS MW KuruHS</t>
   </si>
   <si>
@@ -336,9 +468,6 @@
   </si>
   <si>
     <t>1 2</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>Cigalike E cigs - Using Your Starter Kit Essential - 180 Smoke Visual Help Desk</t>
@@ -757,7 +886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,10 +946,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44150.92973521506</v>
+        <v>44151.7201696326</v>
       </c>
       <c r="D2" t="n">
-        <v>3103</v>
+        <v>1835</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -844,9 +973,11 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
       <c r="N2" t="s"/>
       <c r="O2" t="s"/>
     </row>
@@ -858,38 +989,36 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44150.93092240579</v>
+        <v>44151.72130056166</v>
       </c>
       <c r="D3" t="n">
-        <v>1754</v>
+        <v>1232</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="M3" t="s"/>
       <c r="N3" t="s"/>
       <c r="O3" t="s"/>
     </row>
@@ -901,34 +1030,34 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44150.93139513</v>
+        <v>44151.72318013394</v>
       </c>
       <c r="D4" t="n">
-        <v>41</v>
+        <v>729</v>
       </c>
       <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s"/>
       <c r="N4" t="s"/>
@@ -942,34 +1071,34 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44150.93208030776</v>
+        <v>44151.72479038616</v>
       </c>
       <c r="D5" t="n">
-        <v>2062</v>
+        <v>980</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
         <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>21</v>
       </c>
       <c r="M5" t="s"/>
       <c r="N5" t="s"/>
@@ -983,10 +1112,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44150.93366618855</v>
+        <v>44151.72624853069</v>
       </c>
       <c r="D6" t="n">
-        <v>1509</v>
+        <v>3296</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -1001,16 +1130,16 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s"/>
       <c r="N6" t="s"/>
@@ -1024,10 +1153,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44150.93590909512</v>
+        <v>44151.72745343392</v>
       </c>
       <c r="D7" t="n">
-        <v>626</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
@@ -1042,18 +1171,20 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
         <v>47</v>
       </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" t="s">
-        <v>19</v>
-      </c>
       <c r="L7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>48</v>
+      </c>
       <c r="N7" t="s"/>
       <c r="O7" t="s"/>
     </row>
@@ -1065,38 +1196,36 @@
         <v>14</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44150.93629255984</v>
+        <v>44151.72884155669</v>
       </c>
       <c r="D8" t="n">
-        <v>2214</v>
+        <v>500</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" t="s">
-        <v>53</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="M8" t="s"/>
       <c r="N8" t="s"/>
       <c r="O8" t="s"/>
     </row>
@@ -1108,10 +1237,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44150.93726997889</v>
+        <v>44151.73146354572</v>
       </c>
       <c r="D9" t="n">
-        <v>638</v>
+        <v>1964</v>
       </c>
       <c r="E9" t="s">
         <v>54</v>
@@ -1126,19 +1255,19 @@
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N9" t="s"/>
       <c r="O9" t="s"/>
@@ -1151,37 +1280,37 @@
         <v>14</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44150.93919015244</v>
+        <v>44151.7342753835</v>
       </c>
       <c r="D10" t="n">
-        <v>3128</v>
+        <v>321</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="J10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" t="s">
         <v>21</v>
       </c>
-      <c r="K10" t="s">
-        <v>27</v>
-      </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N10" t="s"/>
       <c r="O10" t="s"/>
@@ -1200,28 +1329,28 @@
         <v>3103</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M11" t="s"/>
       <c r="N11" t="s"/>
@@ -1241,31 +1370,31 @@
         <v>1754</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
         <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M12" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="N12" t="s"/>
       <c r="O12" t="s"/>
@@ -1284,28 +1413,28 @@
         <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
         <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M13" t="s"/>
       <c r="N13" t="s"/>
@@ -1325,28 +1454,28 @@
         <v>2062</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J14" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M14" t="s"/>
       <c r="N14" t="s"/>
@@ -1366,28 +1495,28 @@
         <v>1509</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M15" t="s"/>
       <c r="N15" t="s"/>
@@ -1407,28 +1536,28 @@
         <v>626</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L16" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M16" t="s"/>
       <c r="N16" t="s"/>
@@ -1448,31 +1577,31 @@
         <v>2214</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
         <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M17" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="N17" t="s"/>
       <c r="O17" t="s"/>
@@ -1491,31 +1620,31 @@
         <v>638</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M18" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="N18" t="s"/>
       <c r="O18" t="s"/>
@@ -1534,31 +1663,31 @@
         <v>3128</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K19" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M19" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="N19" t="s"/>
       <c r="O19" t="s"/>
@@ -1571,39 +1700,37 @@
         <v>14</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>44150.91491172454</v>
+        <v>44150.92973521991</v>
       </c>
       <c r="D20" t="n">
-        <v>219</v>
+        <v>3103</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="L20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M20" t="s"/>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
+      <c r="N20" t="s"/>
       <c r="O20" t="s"/>
     </row>
     <row r="21" spans="1:15">
@@ -1614,39 +1741,39 @@
         <v>14</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>44150.9158749537</v>
+        <v>44150.93092240741</v>
       </c>
       <c r="D21" t="n">
-        <v>3291</v>
+        <v>1754</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="L21" t="s">
-        <v>72</v>
-      </c>
-      <c r="M21" t="s"/>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="M21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21" t="s"/>
       <c r="O21" t="s"/>
     </row>
     <row r="22" spans="1:15">
@@ -1657,41 +1784,37 @@
         <v>14</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>44150.91647944444</v>
+        <v>44150.93139512731</v>
       </c>
       <c r="D22" t="n">
-        <v>2337</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s">
         <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="L22" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="M22" t="s"/>
+      <c r="N22" t="s"/>
       <c r="O22" t="s"/>
     </row>
     <row r="23" spans="1:15">
@@ -1702,41 +1825,37 @@
         <v>14</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>44150.91708795139</v>
+        <v>44150.9320803125</v>
       </c>
       <c r="D23" t="n">
-        <v>3783</v>
+        <v>2062</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="L23" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" t="s">
-        <v>82</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="M23" t="s"/>
+      <c r="N23" t="s"/>
       <c r="O23" t="s"/>
     </row>
     <row r="24" spans="1:15">
@@ -1747,39 +1866,37 @@
         <v>14</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>44150.91861394676</v>
+        <v>44150.93366619213</v>
       </c>
       <c r="D24" t="n">
-        <v>2088</v>
+        <v>1509</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I24" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K24" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M24" t="s"/>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
+      <c r="N24" t="s"/>
       <c r="O24" t="s"/>
     </row>
     <row r="25" spans="1:15">
@@ -1790,41 +1907,37 @@
         <v>14</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>44150.91975104166</v>
+        <v>44150.93590909722</v>
       </c>
       <c r="D25" t="n">
-        <v>3686</v>
+        <v>626</v>
       </c>
       <c r="E25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I25" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="J25" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="K25" t="s">
         <v>38</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" t="s">
-        <v>92</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="M25" t="s"/>
+      <c r="N25" t="s"/>
       <c r="O25" t="s"/>
     </row>
     <row r="26" spans="1:15">
@@ -1835,22 +1948,22 @@
         <v>14</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>44150.92170524305</v>
+        <v>44150.93629255787</v>
       </c>
       <c r="D26" t="n">
-        <v>2853</v>
+        <v>2214</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I26" t="s">
         <v>19</v>
@@ -1859,17 +1972,15 @@
         <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="L26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M26" t="s">
-        <v>97</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N26" t="s"/>
       <c r="O26" t="s"/>
     </row>
     <row r="27" spans="1:15">
@@ -1880,39 +1991,39 @@
         <v>14</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>44150.92246048611</v>
+        <v>44150.93726997685</v>
       </c>
       <c r="D27" t="n">
-        <v>2899</v>
+        <v>638</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K27" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="L27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M27" t="s"/>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="M27" t="s">
+        <v>103</v>
+      </c>
+      <c r="N27" t="s"/>
       <c r="O27" t="s"/>
     </row>
     <row r="28" spans="1:15">
@@ -1923,39 +2034,39 @@
         <v>14</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>44150.92315710648</v>
+        <v>44150.93919015046</v>
       </c>
       <c r="D28" t="n">
-        <v>429</v>
+        <v>3128</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I28" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="J28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="L28" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28" t="s"/>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="M28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N28" t="s"/>
       <c r="O28" t="s"/>
     </row>
     <row r="29" spans="1:15">
@@ -1966,34 +2077,34 @@
         <v>14</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>44150.92537696759</v>
+        <v>44150.91491172454</v>
       </c>
       <c r="D29" t="n">
-        <v>931</v>
+        <v>219</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I29" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="K29" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="L29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M29" t="s"/>
       <c r="N29" t="n">
@@ -2009,10 +2120,10 @@
         <v>14</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>44147.90281010417</v>
+        <v>44150.9158749537</v>
       </c>
       <c r="D30" t="n">
-        <v>1283</v>
+        <v>3291</v>
       </c>
       <c r="E30" t="s">
         <v>113</v>
@@ -2024,29 +2135,25 @@
         <v>115</v>
       </c>
       <c r="H30" t="s">
-        <v>111</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2</v>
+        <v>116</v>
+      </c>
+      <c r="I30" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" t="s">
+        <v>28</v>
       </c>
       <c r="K30" t="s">
-        <v>72</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="s">
-        <v>116</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M30" t="s"/>
       <c r="N30" t="n">
         <v>0</v>
       </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
+      <c r="O30" t="s"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1" t="n">
@@ -2056,10 +2163,10 @@
         <v>14</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>44147.90575298611</v>
+        <v>44150.91647944444</v>
       </c>
       <c r="D31" t="n">
-        <v>2569</v>
+        <v>2337</v>
       </c>
       <c r="E31" t="s">
         <v>117</v>
@@ -2073,27 +2180,25 @@
       <c r="H31" t="s">
         <v>120</v>
       </c>
-      <c r="I31" t="n">
-        <v>7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5</v>
+      <c r="I31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" t="s">
+        <v>20</v>
       </c>
       <c r="K31" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="L31" t="s">
+        <v>22</v>
       </c>
       <c r="M31" t="s">
         <v>121</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O31" t="s"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="n">
@@ -2103,10 +2208,10 @@
         <v>14</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>44147.90636120371</v>
+        <v>44150.91708795139</v>
       </c>
       <c r="D32" t="n">
-        <v>3552</v>
+        <v>3783</v>
       </c>
       <c r="E32" t="s">
         <v>122</v>
@@ -2120,25 +2225,25 @@
       <c r="H32" t="s">
         <v>125</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3</v>
+      <c r="I32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" t="s">
+        <v>20</v>
       </c>
       <c r="K32" t="s">
-        <v>52</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="L32" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" t="s">
+        <v>126</v>
+      </c>
       <c r="N32" t="n">
-        <v>2</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O32" t="s"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1" t="n">
@@ -2148,40 +2253,441 @@
         <v>14</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>44147.90702556713</v>
+        <v>44150.91861394676</v>
       </c>
       <c r="D33" t="n">
-        <v>2926</v>
+        <v>2088</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H33" t="s">
-        <v>129</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>9</v>
+        <v>130</v>
+      </c>
+      <c r="I33" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" t="s">
+        <v>76</v>
       </c>
       <c r="K33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="L33" t="s">
+        <v>22</v>
       </c>
       <c r="M33" t="s"/>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>44150.91975104166</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3686</v>
+      </c>
+      <c r="E34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" t="s">
+        <v>134</v>
+      </c>
+      <c r="I34" t="s">
+        <v>135</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" t="s">
+        <v>136</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>44150.92170524305</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2853</v>
+      </c>
+      <c r="E35" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" t="s">
+        <v>139</v>
+      </c>
+      <c r="H35" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" t="s">
+        <v>141</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>44150.92246048611</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2899</v>
+      </c>
+      <c r="E36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" t="s">
+        <v>145</v>
+      </c>
+      <c r="I36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" t="s"/>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>44150.92315710648</v>
+      </c>
+      <c r="D37" t="n">
+        <v>429</v>
+      </c>
+      <c r="E37" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" t="s">
+        <v>148</v>
+      </c>
+      <c r="H37" t="s">
+        <v>149</v>
+      </c>
+      <c r="I37" t="s">
+        <v>150</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s">
+        <v>47</v>
+      </c>
+      <c r="L37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M37" t="s"/>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>44150.92537696759</v>
+      </c>
+      <c r="D38" t="n">
+        <v>931</v>
+      </c>
+      <c r="E38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" t="s">
+        <v>152</v>
+      </c>
+      <c r="G38" t="s">
+        <v>153</v>
+      </c>
+      <c r="H38" t="s">
+        <v>154</v>
+      </c>
+      <c r="I38" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" t="s">
+        <v>155</v>
+      </c>
+      <c r="K38" t="s">
+        <v>59</v>
+      </c>
+      <c r="L38" t="s">
+        <v>38</v>
+      </c>
+      <c r="M38" t="s"/>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>44147.90281010417</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1283</v>
+      </c>
+      <c r="E39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" t="s">
+        <v>158</v>
+      </c>
+      <c r="H39" t="s">
+        <v>154</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" t="s">
+        <v>59</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>159</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>44147.90575298611</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2569</v>
+      </c>
+      <c r="E40" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" t="s">
+        <v>162</v>
+      </c>
+      <c r="H40" t="s">
+        <v>163</v>
+      </c>
+      <c r="I40" t="n">
+        <v>7</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5</v>
+      </c>
+      <c r="K40" t="s">
+        <v>76</v>
+      </c>
+      <c r="L40" t="n">
         <v>3</v>
       </c>
-      <c r="O33" t="n">
+      <c r="M40" t="s">
+        <v>164</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>44147.90636120371</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3552</v>
+      </c>
+      <c r="E41" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41" t="s">
+        <v>167</v>
+      </c>
+      <c r="H41" t="s">
+        <v>168</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s"/>
+      <c r="N41" t="n">
+        <v>2</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>44147.90702556713</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2926</v>
+      </c>
+      <c r="E42" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" t="s">
+        <v>171</v>
+      </c>
+      <c r="H42" t="s">
+        <v>172</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>9</v>
+      </c>
+      <c r="K42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3</v>
+      </c>
+      <c r="M42" t="s"/>
+      <c r="N42" t="n">
+        <v>3</v>
+      </c>
+      <c r="O42" t="n">
         <v>0</v>
       </c>
     </row>

--- a/classification-record/session-all-models-combined.xlsx
+++ b/classification-record/session-all-models-combined.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
   <si>
     <t>Name</t>
   </si>
@@ -53,6 +53,9 @@
     <t>comment</t>
   </si>
   <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
     <t>Unnamed: 0.1</t>
   </si>
   <si>
@@ -62,6 +65,69 @@
     <t>Alex</t>
   </si>
   <si>
+    <t>E-cigarette explodes on bus</t>
+  </si>
+  <si>
+    <t>EuYtGhLkSKk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuYtGhLkSKk</t>
+  </si>
+  <si>
+    <t>FOX 5 Atlanta</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>TUG Boat disposable vape pen</t>
+  </si>
+  <si>
+    <t>znZP0GyDgXM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=znZP0GyDgXM</t>
+  </si>
+  <si>
+    <t>Jeff Xiang</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>only a review in the loosest sense. I would say this is the bare minimum to still be a review</t>
+  </si>
+  <si>
+    <t>DISPOSABLE DAB PEN !?</t>
+  </si>
+  <si>
+    <t>Xq6Qsj-MCeU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Xq6Qsj-MCeU</t>
+  </si>
+  <si>
+    <t>LoudFam Productions</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>Stratus - I Wonder How It'll End</t>
   </si>
   <si>
@@ -77,15 +143,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>music (end not ends)</t>
   </si>
   <si>
@@ -101,12 +158,6 @@
     <t>Mike Vapes</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>SMOK TRINITY ALPHA VAPE / Replace Coils not Pods</t>
   </si>
   <si>
@@ -131,9 +182,6 @@
     <t>Collections By Eric</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Mark Ten xl review also how to refill cartridge</t>
   </si>
   <si>
@@ -158,9 +206,6 @@
     <t>theonlinecitizen toc</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Channel is not medical community, presenter is </t>
   </si>
   <si>
@@ -243,9 +288,6 @@
   </si>
   <si>
     <t>Sony Pictures Entertainment</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
   <si>
     <t xml:space="preserve">Movie trailer. (End not ends) </t>
@@ -886,7 +928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,7 +936,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -937,62 +979,64 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44151.7201696326</v>
+        <v>44151.74385678858</v>
       </c>
       <c r="D2" t="n">
-        <v>1835</v>
+        <v>2231</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M2" t="s"/>
       <c r="N2" t="s"/>
       <c r="O2" t="s"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" t="s"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44151.72130056166</v>
+        <v>44151.746086949</v>
       </c>
       <c r="D3" t="n">
-        <v>1232</v>
+        <v>2768</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
@@ -1010,657 +1054,701 @@
         <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
       <c r="N3" t="s"/>
       <c r="O3" t="s"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" t="s"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44151.72318013394</v>
+        <v>44151.74719898243</v>
       </c>
       <c r="D4" t="n">
-        <v>729</v>
+        <v>2788</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s"/>
       <c r="N4" t="s"/>
       <c r="O4" t="s"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" t="s"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44151.72479038616</v>
+        <v>44151.72016962963</v>
       </c>
       <c r="D5" t="n">
-        <v>980</v>
+        <v>1835</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
         <v>36</v>
       </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
       <c r="L5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
       <c r="O5" t="s"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" t="s"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44151.72624853069</v>
+        <v>44151.72130056713</v>
       </c>
       <c r="D6" t="n">
-        <v>3296</v>
+        <v>1232</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
         <v>28</v>
       </c>
       <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s"/>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44151.72318013889</v>
+      </c>
+      <c r="D7" t="n">
+        <v>729</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
         <v>28</v>
       </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s"/>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44151.72479038194</v>
+      </c>
+      <c r="D8" t="n">
+        <v>980</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s"/>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>44151.7262485301</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3296</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s"/>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>44151.7274534375</v>
+      </c>
+      <c r="D10" t="n">
+        <v>142</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
         <v>22</v>
       </c>
-      <c r="M6" t="s"/>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>44151.72745343392</v>
-      </c>
-      <c r="D7" t="n">
-        <v>142</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>44151.72884155092</v>
+      </c>
+      <c r="D11" t="n">
+        <v>500</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s">
         <v>20</v>
       </c>
-      <c r="K7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>44151.72884155669</v>
-      </c>
-      <c r="D8" t="n">
-        <v>500</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>44151.73146354572</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s"/>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>44151.73146354167</v>
+      </c>
+      <c r="D12" t="n">
         <v>1964</v>
       </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>44151.7342753835</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>44151.73427538195</v>
+      </c>
+      <c r="D13" t="n">
         <v>321</v>
       </c>
-      <c r="E10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>44150.92973521991</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3103</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" t="s">
         <v>21</v>
       </c>
-      <c r="L10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>44150.92973521991</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3103</v>
-      </c>
-      <c r="E11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" t="s"/>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2" t="n">
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" t="s"/>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="n">
         <v>44150.93092240741</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D15" t="n">
         <v>1754</v>
       </c>
-      <c r="E12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" t="s">
-        <v>77</v>
-      </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>44150.93139512731</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="E15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" t="s">
         <v>41</v>
       </c>
-      <c r="E13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" t="s"/>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>44150.9320803125</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2062</v>
-      </c>
-      <c r="E14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" t="s"/>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>44150.93366619213</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1509</v>
-      </c>
-      <c r="E15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" t="s">
-        <v>28</v>
-      </c>
       <c r="J15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
         <v>29</v>
       </c>
       <c r="L15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" t="s"/>
-      <c r="N15" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="M15" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
       <c r="O15" t="s"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" t="s"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>44150.93139512731</v>
+      </c>
+      <c r="D16" t="n">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" t="s"/>
+      <c r="N16" t="n">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>44150.9320803125</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2062</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" t="s"/>
+      <c r="N17" t="n">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>44150.93366619213</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1509</v>
+      </c>
+      <c r="E18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" t="s"/>
+      <c r="N18" t="n">
+        <v>4</v>
+      </c>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="n">
         <v>44150.93590909722</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D19" t="n">
         <v>626</v>
-      </c>
-      <c r="E16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" t="s">
-        <v>38</v>
-      </c>
-      <c r="L16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" t="s"/>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>44150.93629255787</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2214</v>
-      </c>
-      <c r="E17" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" t="s">
-        <v>98</v>
-      </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>44150.93726997685</v>
-      </c>
-      <c r="D18" t="n">
-        <v>638</v>
-      </c>
-      <c r="E18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" t="s">
-        <v>101</v>
-      </c>
-      <c r="H18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" t="s">
-        <v>76</v>
-      </c>
-      <c r="L18" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" t="s">
-        <v>103</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>44150.93919015046</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3128</v>
       </c>
       <c r="E19" t="s">
         <v>104</v>
@@ -1675,369 +1763,396 @@
         <v>107</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K19" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="L19" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" t="s"/>
+      <c r="N19" t="n">
+        <v>5</v>
+      </c>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>44150.93629255787</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2214</v>
+      </c>
+      <c r="E20" t="s">
         <v>108</v>
       </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="1" t="n">
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>44150.93726997685</v>
+      </c>
+      <c r="D21" t="n">
+        <v>638</v>
+      </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" t="s">
+        <v>117</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7</v>
+      </c>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>44150.93919015046</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3128</v>
+      </c>
+      <c r="E22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" t="s">
+        <v>122</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8</v>
+      </c>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>44150.92973521991</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3103</v>
+      </c>
+      <c r="E23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" t="s"/>
+      <c r="N23" t="n">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>44150.92973521991</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3103</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" t="s"/>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="2" t="n">
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2" t="n">
         <v>44150.93092240741</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D24" t="n">
         <v>1754</v>
       </c>
-      <c r="E21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L21" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" t="s">
-        <v>77</v>
-      </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>44150.93139512731</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" t="s">
         <v>41</v>
       </c>
-      <c r="E22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" t="s"/>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>44150.9320803125</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2062</v>
-      </c>
-      <c r="E23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" t="s"/>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>44150.93366619213</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1509</v>
-      </c>
-      <c r="E24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" t="s">
-        <v>88</v>
-      </c>
-      <c r="H24" t="s">
-        <v>89</v>
-      </c>
-      <c r="I24" t="s">
-        <v>28</v>
-      </c>
       <c r="J24" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K24" t="s">
         <v>29</v>
       </c>
       <c r="L24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>44150.93139512731</v>
+      </c>
+      <c r="D25" t="n">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" t="s"/>
+      <c r="N25" t="n">
+        <v>11</v>
+      </c>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>44150.9320803125</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2062</v>
+      </c>
+      <c r="E26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" t="s"/>
+      <c r="N26" t="n">
+        <v>12</v>
+      </c>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="M24" t="s"/>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="2" t="n">
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>44150.93366619213</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1509</v>
+      </c>
+      <c r="E27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" t="s"/>
+      <c r="N27" t="n">
+        <v>13</v>
+      </c>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2" t="n">
         <v>44150.93590909722</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D28" t="n">
         <v>626</v>
-      </c>
-      <c r="E25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H25" t="s">
-        <v>93</v>
-      </c>
-      <c r="I25" t="s">
-        <v>52</v>
-      </c>
-      <c r="J25" t="s">
-        <v>38</v>
-      </c>
-      <c r="K25" t="s">
-        <v>38</v>
-      </c>
-      <c r="L25" t="s">
-        <v>38</v>
-      </c>
-      <c r="M25" t="s"/>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>44150.93629255787</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2214</v>
-      </c>
-      <c r="E26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" t="s">
-        <v>97</v>
-      </c>
-      <c r="I26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" t="s">
-        <v>98</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>44150.93726997685</v>
-      </c>
-      <c r="D27" t="n">
-        <v>638</v>
-      </c>
-      <c r="E27" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" t="s">
-        <v>102</v>
-      </c>
-      <c r="I27" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" t="s">
-        <v>76</v>
-      </c>
-      <c r="L27" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" t="s">
-        <v>103</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>44150.93919015046</v>
-      </c>
-      <c r="D28" t="n">
-        <v>3128</v>
       </c>
       <c r="E28" t="s">
         <v>104</v>
@@ -2052,78 +2167,82 @@
         <v>107</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="J28" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K28" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="L28" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" t="s"/>
+      <c r="N28" t="n">
+        <v>14</v>
+      </c>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>44150.93629255787</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2214</v>
+      </c>
+      <c r="E29" t="s">
         <v>108</v>
       </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>44150.91491172454</v>
-      </c>
-      <c r="D29" t="n">
-        <v>219</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>109</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>110</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>111</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" t="s">
         <v>112</v>
       </c>
-      <c r="I29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" t="s"/>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O29" t="s"/>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" t="s"/>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>44150.9158749537</v>
+        <v>44150.93726997685</v>
       </c>
       <c r="D30" t="n">
-        <v>3291</v>
+        <v>638</v>
       </c>
       <c r="E30" t="s">
         <v>113</v>
@@ -2138,125 +2257,130 @@
         <v>116</v>
       </c>
       <c r="I30" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="J30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" t="s">
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>59</v>
-      </c>
-      <c r="M30" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="M30" t="s">
+        <v>117</v>
+      </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O30" t="s"/>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30" t="s"/>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>44150.91647944444</v>
+        <v>44150.93919015046</v>
       </c>
       <c r="D31" t="n">
-        <v>2337</v>
+        <v>3128</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="J31" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O31" t="s"/>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31" t="s"/>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="1" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>44150.91708795139</v>
+        <v>44150.91491172454</v>
       </c>
       <c r="D32" t="n">
-        <v>3783</v>
+        <v>219</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J32" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L32" t="s">
-        <v>22</v>
-      </c>
-      <c r="M32" t="s">
-        <v>126</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M32" t="s"/>
       <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="s"/>
-    </row>
-    <row r="33" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="s"/>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="1" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>44150.91861394676</v>
+        <v>44150.9158749537</v>
       </c>
       <c r="D33" t="n">
-        <v>2088</v>
+        <v>3291</v>
       </c>
       <c r="E33" t="s">
         <v>127</v>
@@ -2274,32 +2398,35 @@
         <v>28</v>
       </c>
       <c r="J33" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="K33" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L33" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="M33" t="s"/>
       <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="s"/>
-    </row>
-    <row r="34" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="s"/>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="1" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>44150.91975104166</v>
+        <v>44150.91647944444</v>
       </c>
       <c r="D34" t="n">
-        <v>3686</v>
+        <v>2337</v>
       </c>
       <c r="E34" t="s">
         <v>131</v>
@@ -2314,168 +2441,182 @@
         <v>134</v>
       </c>
       <c r="I34" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s">
         <v>21</v>
       </c>
       <c r="K34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" t="s">
+        <v>135</v>
+      </c>
+      <c r="N34" t="n">
+        <v>20</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="s"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>44150.91708795139</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3783</v>
+      </c>
+      <c r="E35" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" t="s">
+        <v>139</v>
+      </c>
+      <c r="I35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" t="s">
+        <v>140</v>
+      </c>
+      <c r="N35" t="n">
+        <v>21</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="s"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>44150.91861394676</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2088</v>
+      </c>
+      <c r="E36" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J36" t="s">
         <v>29</v>
       </c>
-      <c r="L34" t="s">
-        <v>22</v>
-      </c>
-      <c r="M34" t="s">
-        <v>136</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="s"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>44150.92170524305</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2853</v>
-      </c>
-      <c r="E35" t="s">
-        <v>137</v>
-      </c>
-      <c r="F35" t="s">
-        <v>138</v>
-      </c>
-      <c r="G35" t="s">
-        <v>139</v>
-      </c>
-      <c r="H35" t="s">
-        <v>140</v>
-      </c>
-      <c r="I35" t="s">
-        <v>38</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="K36" t="s">
         <v>20</v>
       </c>
-      <c r="K35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" t="s">
-        <v>22</v>
-      </c>
-      <c r="M35" t="s">
-        <v>141</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="s"/>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>44150.92246048611</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2899</v>
-      </c>
-      <c r="E36" t="s">
-        <v>142</v>
-      </c>
-      <c r="F36" t="s">
-        <v>143</v>
-      </c>
-      <c r="G36" t="s">
-        <v>144</v>
-      </c>
-      <c r="H36" t="s">
-        <v>145</v>
-      </c>
-      <c r="I36" t="s">
-        <v>38</v>
-      </c>
-      <c r="J36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" t="s">
-        <v>22</v>
-      </c>
       <c r="L36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M36" t="s"/>
       <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="s"/>
-    </row>
-    <row r="37" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="s"/>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="1" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>44150.92315710648</v>
+        <v>44150.91975104166</v>
       </c>
       <c r="D37" t="n">
-        <v>429</v>
+        <v>3686</v>
       </c>
       <c r="E37" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" t="s">
         <v>146</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>147</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>148</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>149</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
+        <v>36</v>
+      </c>
+      <c r="K37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" t="s">
         <v>150</v>
       </c>
-      <c r="J37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" t="s">
-        <v>47</v>
-      </c>
-      <c r="L37" t="s">
-        <v>22</v>
-      </c>
-      <c r="M37" t="s"/>
       <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="s"/>
-    </row>
-    <row r="38" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="s"/>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="1" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>44150.92537696759</v>
+        <v>44150.92170524305</v>
       </c>
       <c r="D38" t="n">
-        <v>931</v>
+        <v>2853</v>
       </c>
       <c r="E38" t="s">
         <v>151</v>
@@ -2490,35 +2631,40 @@
         <v>154</v>
       </c>
       <c r="I38" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="J38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" t="s">
         <v>155</v>
       </c>
-      <c r="K38" t="s">
-        <v>59</v>
-      </c>
-      <c r="L38" t="s">
-        <v>38</v>
-      </c>
-      <c r="M38" t="s"/>
       <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="s"/>
-    </row>
-    <row r="39" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="s"/>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="1" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>44147.90281010417</v>
+        <v>44150.92246048611</v>
       </c>
       <c r="D39" t="n">
-        <v>1283</v>
+        <v>2899</v>
       </c>
       <c r="E39" t="s">
         <v>156</v>
@@ -2530,42 +2676,41 @@
         <v>158</v>
       </c>
       <c r="H39" t="s">
-        <v>154</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2</v>
+        <v>159</v>
+      </c>
+      <c r="I39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" t="s">
+        <v>21</v>
       </c>
       <c r="K39" t="s">
-        <v>59</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="s">
-        <v>159</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="L39" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" t="s"/>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="P39" t="s"/>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="1" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>44147.90575298611</v>
+        <v>44150.92315710648</v>
       </c>
       <c r="D40" t="n">
-        <v>2569</v>
+        <v>429</v>
       </c>
       <c r="E40" t="s">
         <v>160</v>
@@ -2579,40 +2724,39 @@
       <c r="H40" t="s">
         <v>163</v>
       </c>
-      <c r="I40" t="n">
-        <v>7</v>
-      </c>
-      <c r="J40" t="n">
-        <v>5</v>
+      <c r="I40" t="s">
+        <v>164</v>
+      </c>
+      <c r="J40" t="s">
+        <v>21</v>
       </c>
       <c r="K40" t="s">
-        <v>76</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3</v>
-      </c>
-      <c r="M40" t="s">
-        <v>164</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="L40" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" t="s"/>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="P40" t="s"/>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="1" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>44147.90636120371</v>
+        <v>44150.92537696759</v>
       </c>
       <c r="D41" t="n">
-        <v>3552</v>
+        <v>931</v>
       </c>
       <c r="E41" t="s">
         <v>165</v>
@@ -2626,68 +2770,220 @@
       <c r="H41" t="s">
         <v>168</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3</v>
+      <c r="I41" t="s">
+        <v>67</v>
+      </c>
+      <c r="J41" t="s">
+        <v>169</v>
       </c>
       <c r="K41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="L41" t="s">
+        <v>30</v>
       </c>
       <c r="M41" t="s"/>
       <c r="N41" t="n">
+        <v>27</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="s"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>44147.90281010417</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1283</v>
+      </c>
+      <c r="E42" t="s">
+        <v>170</v>
+      </c>
+      <c r="F42" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42" t="s">
+        <v>172</v>
+      </c>
+      <c r="H42" t="s">
+        <v>168</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
         <v>2</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="1" t="n">
+      <c r="K42" t="s">
+        <v>74</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>173</v>
+      </c>
+      <c r="N42" t="n">
+        <v>28</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>44147.90575298611</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2569</v>
+      </c>
+      <c r="E43" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" t="s">
+        <v>175</v>
+      </c>
+      <c r="G43" t="s">
+        <v>176</v>
+      </c>
+      <c r="H43" t="s">
+        <v>177</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5</v>
+      </c>
+      <c r="K43" t="s">
+        <v>29</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3</v>
+      </c>
+      <c r="M43" t="s">
+        <v>178</v>
+      </c>
+      <c r="N43" t="n">
+        <v>29</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>44147.90636120371</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3552</v>
+      </c>
+      <c r="E44" t="s">
+        <v>179</v>
+      </c>
+      <c r="F44" t="s">
+        <v>180</v>
+      </c>
+      <c r="G44" t="s">
+        <v>181</v>
+      </c>
+      <c r="H44" t="s">
+        <v>182</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3</v>
+      </c>
+      <c r="K44" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s"/>
+      <c r="N44" t="n">
+        <v>30</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>44147.90702556713</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2926</v>
+      </c>
+      <c r="E45" t="s">
+        <v>183</v>
+      </c>
+      <c r="F45" t="s">
+        <v>184</v>
+      </c>
+      <c r="G45" t="s">
+        <v>185</v>
+      </c>
+      <c r="H45" t="s">
+        <v>186</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>9</v>
+      </c>
+      <c r="K45" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3</v>
+      </c>
+      <c r="M45" t="s"/>
+      <c r="N45" t="n">
         <v>31</v>
       </c>
-      <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>44147.90702556713</v>
-      </c>
-      <c r="D42" t="n">
-        <v>2926</v>
-      </c>
-      <c r="E42" t="s">
-        <v>169</v>
-      </c>
-      <c r="F42" t="s">
-        <v>170</v>
-      </c>
-      <c r="G42" t="s">
-        <v>171</v>
-      </c>
-      <c r="H42" t="s">
-        <v>172</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>9</v>
-      </c>
-      <c r="K42" t="s">
-        <v>22</v>
-      </c>
-      <c r="L42" t="n">
+      <c r="O45" t="n">
         <v>3</v>
       </c>
-      <c r="M42" t="s"/>
-      <c r="N42" t="n">
-        <v>3</v>
-      </c>
-      <c r="O42" t="n">
+      <c r="P45" t="n">
         <v>0</v>
       </c>
     </row>

--- a/classification-record/session-all-models-combined.xlsx
+++ b/classification-record/session-all-models-combined.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
   <si>
     <t>Name</t>
   </si>
@@ -62,9 +62,36 @@
     <t>Unnamed: 0.1.1</t>
   </si>
   <si>
+    <t>Unnamed: 0.1.1.1</t>
+  </si>
+  <si>
     <t>Alex</t>
   </si>
   <si>
+    <t>Yocan Uni How to / Review</t>
+  </si>
+  <si>
+    <t>24wn0nt93zw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=24wn0nt93zw</t>
+  </si>
+  <si>
+    <t>B2Sqrd</t>
+  </si>
+  <si>
+    <t>0 7</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
     <t>E-cigarette explodes on bus</t>
   </si>
   <si>
@@ -86,9 +113,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>TUG Boat disposable vape pen</t>
   </si>
   <si>
@@ -107,9 +131,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>only a review in the loosest sense. I would say this is the bare minimum to still be a review</t>
   </si>
   <si>
@@ -237,9 +258,6 @@
   </si>
   <si>
     <t>3 4</t>
-  </si>
-  <si>
-    <t>0 1</t>
   </si>
   <si>
     <t>about tab: "If you're new to VapeWild, get a 120MLs of E-juice for $4.44 (including shipping)" which seems like a deal but not entirely sure. Store is down so cant check</t>
@@ -928,7 +946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,7 +954,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -982,105 +1000,110 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44151.74385678858</v>
+        <v>44151.82177193619</v>
       </c>
       <c r="D2" t="n">
-        <v>2231</v>
+        <v>3147</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s"/>
       <c r="N2" t="s"/>
       <c r="O2" t="s"/>
       <c r="P2" t="s"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" t="s"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44151.746086949</v>
+        <v>44151.74385679398</v>
       </c>
       <c r="D3" t="n">
-        <v>2768</v>
+        <v>2231</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="M3" t="s"/>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" t="s"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44151.74719898243</v>
+        <v>44151.74608694445</v>
       </c>
       <c r="D4" t="n">
-        <v>2788</v>
+        <v>2768</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
@@ -1098,389 +1121,414 @@
         <v>36</v>
       </c>
       <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
         <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
       </c>
       <c r="L4" t="s">
         <v>23</v>
       </c>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" t="s"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44151.72016962963</v>
+        <v>44151.74719898148</v>
       </c>
       <c r="D5" t="n">
-        <v>1835</v>
+        <v>2788</v>
       </c>
       <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>42</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="M5" t="s"/>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" t="s"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="n">
+        <v>44151.72016962963</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1835</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>44151.72130056713</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1232</v>
       </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" t="s"/>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>44151.72318013889</v>
-      </c>
-      <c r="D7" t="n">
-        <v>729</v>
-      </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s"/>
       <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
       <c r="P7" t="s"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" t="s"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44151.72479038194</v>
+        <v>44151.72318013889</v>
       </c>
       <c r="D8" t="n">
-        <v>980</v>
+        <v>729</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M8" t="s"/>
       <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
       <c r="P8" t="s"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" t="s"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44151.7262485301</v>
+        <v>44151.72479038194</v>
       </c>
       <c r="D9" t="n">
-        <v>3296</v>
+        <v>980</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L9" t="s">
         <v>23</v>
       </c>
       <c r="M9" t="s"/>
       <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
       <c r="P9" t="s"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" t="s"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>44151.7262485301</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3296</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s"/>
+      <c r="N10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>44151.7274534375</v>
+      </c>
+      <c r="D11" t="n">
+        <v>142</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" t="n">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>44151.7274534375</v>
-      </c>
-      <c r="D10" t="n">
-        <v>142</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1" t="n">
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>44151.72884155092</v>
+      </c>
+      <c r="D12" t="n">
+        <v>500</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" t="s"/>
+      <c r="N12" t="n">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>44151.72884155092</v>
-      </c>
-      <c r="D11" t="n">
-        <v>500</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" t="s"/>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="n">
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="n">
         <v>44151.73146354167</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" t="n">
         <v>1964</v>
-      </c>
-      <c r="E12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12" t="s">
-        <v>75</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>44151.73427538195</v>
-      </c>
-      <c r="D13" t="n">
-        <v>321</v>
       </c>
       <c r="E13" t="s">
         <v>76</v>
@@ -1495,1128 +1543,1201 @@
         <v>79</v>
       </c>
       <c r="I13" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" t="s">
         <v>80</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" t="s">
         <v>81</v>
       </c>
-      <c r="K13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="N13" t="n">
+        <v>7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>44151.73427538195</v>
+      </c>
+      <c r="D14" t="n">
+        <v>321</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>44150.92973521991</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" t="s">
         <v>23</v>
       </c>
-      <c r="M13" t="s">
-        <v>82</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="1" t="n">
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" t="s"/>
+      <c r="N15" t="n">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>44150.92973521991</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3103</v>
-      </c>
-      <c r="E14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>44150.93092240741</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1754</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" t="s">
         <v>30</v>
       </c>
-      <c r="J14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="K16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" t="s">
+        <v>97</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>44150.93139512731</v>
+      </c>
+      <c r="D17" t="n">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" t="s">
         <v>23</v>
       </c>
-      <c r="L14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" t="s"/>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>44150.93092240741</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1754</v>
-      </c>
-      <c r="E15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" t="s">
-        <v>91</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" t="s"/>
-      <c r="P15" t="s"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>44150.93139512731</v>
-      </c>
-      <c r="D16" t="n">
-        <v>41</v>
-      </c>
-      <c r="E16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J17" t="s">
         <v>30</v>
       </c>
-      <c r="J16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" t="s"/>
-      <c r="N16" t="n">
-        <v>2</v>
-      </c>
-      <c r="O16" t="s"/>
-      <c r="P16" t="s"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>44150.9320803125</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2062</v>
-      </c>
-      <c r="E17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" t="s">
-        <v>29</v>
-      </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M17" t="s"/>
       <c r="N17" t="n">
-        <v>3</v>
-      </c>
-      <c r="O17" t="s"/>
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
       <c r="P17" t="s"/>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" t="s"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>44150.93366619213</v>
+        <v>44150.9320803125</v>
       </c>
       <c r="D18" t="n">
-        <v>1509</v>
+        <v>2062</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J18" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K18" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M18" t="s"/>
       <c r="N18" t="n">
-        <v>4</v>
-      </c>
-      <c r="O18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3</v>
+      </c>
       <c r="P18" t="s"/>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18" t="s"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44150.93590909722</v>
+        <v>44150.93366619213</v>
       </c>
       <c r="D19" t="n">
-        <v>626</v>
+        <v>1509</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M19" t="s"/>
       <c r="N19" t="n">
-        <v>5</v>
-      </c>
-      <c r="O19" t="s"/>
+        <v>13</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4</v>
+      </c>
       <c r="P19" t="s"/>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" t="s"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>44150.93629255787</v>
+        <v>44150.93590909722</v>
       </c>
       <c r="D20" t="n">
-        <v>2214</v>
+        <v>626</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L20" t="s">
         <v>23</v>
       </c>
-      <c r="M20" t="s">
-        <v>112</v>
-      </c>
+      <c r="M20" t="s"/>
       <c r="N20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O20" t="s"/>
+        <v>14</v>
+      </c>
+      <c r="O20" t="n">
+        <v>5</v>
+      </c>
       <c r="P20" t="s"/>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20" t="s"/>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>44150.93726997685</v>
+        <v>44150.93629255787</v>
       </c>
       <c r="D21" t="n">
-        <v>638</v>
+        <v>2214</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I21" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J21" t="s">
         <v>30</v>
       </c>
       <c r="K21" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="L21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N21" t="n">
-        <v>7</v>
-      </c>
-      <c r="O21" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="O21" t="n">
+        <v>6</v>
+      </c>
       <c r="P21" t="s"/>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21" t="s"/>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>44150.93919015046</v>
+        <v>44150.93726997685</v>
       </c>
       <c r="D22" t="n">
-        <v>3128</v>
+        <v>638</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I22" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" t="s">
+        <v>123</v>
+      </c>
+      <c r="N22" t="n">
+        <v>16</v>
+      </c>
+      <c r="O22" t="n">
+        <v>7</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>44150.93919015046</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3128</v>
+      </c>
+      <c r="E23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" t="s">
+        <v>128</v>
+      </c>
+      <c r="N23" t="n">
+        <v>17</v>
+      </c>
+      <c r="O23" t="n">
+        <v>8</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>44150.92973521991</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3103</v>
+      </c>
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" t="s">
         <v>23</v>
       </c>
-      <c r="M22" t="s">
-        <v>122</v>
-      </c>
-      <c r="N22" t="n">
-        <v>8</v>
-      </c>
-      <c r="O22" t="s"/>
-      <c r="P22" t="s"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="1" t="n">
+      <c r="J24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" t="s"/>
+      <c r="N24" t="n">
         <v>18</v>
       </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>44150.92973521991</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3103</v>
-      </c>
-      <c r="E23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" t="s">
-        <v>85</v>
-      </c>
-      <c r="H23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="O24" t="n">
+        <v>9</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>44150.93092240741</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1754</v>
+      </c>
+      <c r="E25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" t="s">
         <v>30</v>
       </c>
-      <c r="J23" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="K25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" t="s">
+        <v>97</v>
+      </c>
+      <c r="N25" t="n">
+        <v>19</v>
+      </c>
+      <c r="O25" t="n">
+        <v>10</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="L23" t="s">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>44150.93139512731</v>
+      </c>
+      <c r="D26" t="n">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" t="s">
         <v>23</v>
       </c>
-      <c r="M23" t="s"/>
-      <c r="N23" t="n">
-        <v>9</v>
-      </c>
-      <c r="O23" t="s"/>
-      <c r="P23" t="s"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>44150.93092240741</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1754</v>
-      </c>
-      <c r="E24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" t="s">
-        <v>91</v>
-      </c>
-      <c r="N24" t="n">
-        <v>10</v>
-      </c>
-      <c r="O24" t="s"/>
-      <c r="P24" t="s"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>44150.93139512731</v>
-      </c>
-      <c r="D25" t="n">
-        <v>41</v>
-      </c>
-      <c r="E25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" t="s">
-        <v>93</v>
-      </c>
-      <c r="G25" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J26" t="s">
         <v>30</v>
       </c>
-      <c r="J25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" t="s"/>
-      <c r="N25" t="n">
-        <v>11</v>
-      </c>
-      <c r="O25" t="s"/>
-      <c r="P25" t="s"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>44150.9320803125</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2062</v>
-      </c>
-      <c r="E26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" t="s">
-        <v>97</v>
-      </c>
-      <c r="G26" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" t="s">
-        <v>99</v>
-      </c>
-      <c r="I26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" t="s">
-        <v>29</v>
-      </c>
       <c r="K26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M26" t="s"/>
       <c r="N26" t="n">
-        <v>12</v>
-      </c>
-      <c r="O26" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="O26" t="n">
+        <v>11</v>
+      </c>
       <c r="P26" t="s"/>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26" t="s"/>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>44150.93366619213</v>
+        <v>44150.9320803125</v>
       </c>
       <c r="D27" t="n">
-        <v>1509</v>
+        <v>2062</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F27" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I27" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J27" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K27" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M27" t="s"/>
       <c r="N27" t="n">
-        <v>13</v>
-      </c>
-      <c r="O27" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="O27" t="n">
+        <v>12</v>
+      </c>
       <c r="P27" t="s"/>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27" t="s"/>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>44150.93590909722</v>
+        <v>44150.93366619213</v>
       </c>
       <c r="D28" t="n">
-        <v>626</v>
+        <v>1509</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="J28" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L28" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M28" t="s"/>
       <c r="N28" t="n">
-        <v>14</v>
-      </c>
-      <c r="O28" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="O28" t="n">
+        <v>13</v>
+      </c>
       <c r="P28" t="s"/>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28" t="s"/>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>44150.93629255787</v>
+        <v>44150.93590909722</v>
       </c>
       <c r="D29" t="n">
-        <v>2214</v>
+        <v>626</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F29" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H29" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="J29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K29" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L29" t="s">
         <v>23</v>
       </c>
-      <c r="M29" t="s">
-        <v>112</v>
-      </c>
+      <c r="M29" t="s"/>
       <c r="N29" t="n">
-        <v>15</v>
-      </c>
-      <c r="O29" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="O29" t="n">
+        <v>14</v>
+      </c>
       <c r="P29" t="s"/>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29" t="s"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>44150.93726997685</v>
+        <v>44150.93629255787</v>
       </c>
       <c r="D30" t="n">
-        <v>638</v>
+        <v>2214</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I30" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J30" t="s">
         <v>30</v>
       </c>
       <c r="K30" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="L30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N30" t="n">
-        <v>16</v>
-      </c>
-      <c r="O30" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="O30" t="n">
+        <v>15</v>
+      </c>
       <c r="P30" t="s"/>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30" t="s"/>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>44150.93919015046</v>
+        <v>44150.93726997685</v>
       </c>
       <c r="D31" t="n">
-        <v>3128</v>
+        <v>638</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I31" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s">
         <v>23</v>
       </c>
       <c r="K31" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" t="s">
+        <v>123</v>
+      </c>
+      <c r="N31" t="n">
+        <v>25</v>
+      </c>
+      <c r="O31" t="n">
+        <v>16</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="L31" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" t="s">
-        <v>122</v>
-      </c>
-      <c r="N31" t="n">
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>44150.93919015046</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3128</v>
+      </c>
+      <c r="E32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32" t="s">
+        <v>74</v>
+      </c>
+      <c r="J32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" t="s">
+        <v>128</v>
+      </c>
+      <c r="N32" t="n">
+        <v>26</v>
+      </c>
+      <c r="O32" t="n">
         <v>17</v>
       </c>
-      <c r="O31" t="s"/>
-      <c r="P31" t="s"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="2" t="n">
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="2" t="n">
         <v>44150.91491172454</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D33" t="n">
         <v>219</v>
       </c>
-      <c r="E32" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" t="s">
-        <v>124</v>
-      </c>
-      <c r="G32" t="s">
-        <v>125</v>
-      </c>
-      <c r="H32" t="s">
-        <v>126</v>
-      </c>
-      <c r="I32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" t="s">
-        <v>23</v>
-      </c>
-      <c r="M32" t="s"/>
-      <c r="N32" t="n">
-        <v>18</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="s"/>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>44150.9158749537</v>
-      </c>
-      <c r="D33" t="n">
-        <v>3291</v>
-      </c>
       <c r="E33" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G33" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I33" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="L33" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="M33" t="s"/>
       <c r="N33" t="n">
+        <v>27</v>
+      </c>
+      <c r="O33" t="n">
+        <v>18</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>44150.9158749537</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3291</v>
+      </c>
+      <c r="E34" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34" t="s">
+        <v>135</v>
+      </c>
+      <c r="H34" t="s">
+        <v>136</v>
+      </c>
+      <c r="I34" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" t="s"/>
+      <c r="N34" t="n">
+        <v>28</v>
+      </c>
+      <c r="O34" t="n">
         <v>19</v>
       </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="s"/>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="1" t="n">
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="s"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>44150.91647944444</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2337</v>
+      </c>
+      <c r="E35" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" t="s">
+        <v>139</v>
+      </c>
+      <c r="H35" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" t="s">
+        <v>141</v>
+      </c>
+      <c r="N35" t="n">
         <v>29</v>
       </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>44150.91647944444</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2337</v>
-      </c>
-      <c r="E34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F34" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" t="s">
-        <v>133</v>
-      </c>
-      <c r="H34" t="s">
-        <v>134</v>
-      </c>
-      <c r="I34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="O35" t="n">
+        <v>20</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="s"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>44150.91708795139</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3783</v>
+      </c>
+      <c r="E36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" t="s">
+        <v>145</v>
+      </c>
+      <c r="I36" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" t="s">
+        <v>43</v>
+      </c>
+      <c r="L36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" t="s">
+        <v>146</v>
+      </c>
+      <c r="N36" t="n">
+        <v>30</v>
+      </c>
+      <c r="O36" t="n">
         <v>21</v>
       </c>
-      <c r="K34" t="s">
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>44150.91861394676</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2088</v>
+      </c>
+      <c r="E37" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37" t="s">
+        <v>149</v>
+      </c>
+      <c r="H37" t="s">
+        <v>150</v>
+      </c>
+      <c r="I37" t="s">
         <v>36</v>
       </c>
-      <c r="L34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M34" t="s">
-        <v>135</v>
-      </c>
-      <c r="N34" t="n">
-        <v>20</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="s"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>44150.91708795139</v>
-      </c>
-      <c r="D35" t="n">
-        <v>3783</v>
-      </c>
-      <c r="E35" t="s">
-        <v>136</v>
-      </c>
-      <c r="F35" t="s">
-        <v>137</v>
-      </c>
-      <c r="G35" t="s">
-        <v>138</v>
-      </c>
-      <c r="H35" t="s">
-        <v>139</v>
-      </c>
-      <c r="I35" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" t="s">
-        <v>36</v>
-      </c>
-      <c r="L35" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" t="s">
-        <v>140</v>
-      </c>
-      <c r="N35" t="n">
-        <v>21</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="s"/>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="1" t="n">
+      <c r="J37" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M37" t="s"/>
+      <c r="N37" t="n">
         <v>31</v>
       </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>44150.91861394676</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2088</v>
-      </c>
-      <c r="E36" t="s">
-        <v>141</v>
-      </c>
-      <c r="F36" t="s">
-        <v>142</v>
-      </c>
-      <c r="G36" t="s">
-        <v>143</v>
-      </c>
-      <c r="H36" t="s">
-        <v>144</v>
-      </c>
-      <c r="I36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J36" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" t="s">
-        <v>23</v>
-      </c>
-      <c r="M36" t="s"/>
-      <c r="N36" t="n">
-        <v>22</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="s"/>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="2" t="n">
+      <c r="O37" t="n">
+        <v>22</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="s"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="2" t="n">
         <v>44150.91975104166</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D38" t="n">
         <v>3686</v>
-      </c>
-      <c r="E37" t="s">
-        <v>145</v>
-      </c>
-      <c r="F37" t="s">
-        <v>146</v>
-      </c>
-      <c r="G37" t="s">
-        <v>147</v>
-      </c>
-      <c r="H37" t="s">
-        <v>148</v>
-      </c>
-      <c r="I37" t="s">
-        <v>149</v>
-      </c>
-      <c r="J37" t="s">
-        <v>36</v>
-      </c>
-      <c r="K37" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" t="s">
-        <v>23</v>
-      </c>
-      <c r="M37" t="s">
-        <v>150</v>
-      </c>
-      <c r="N37" t="n">
-        <v>23</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="s"/>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>44150.92170524305</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2853</v>
       </c>
       <c r="E38" t="s">
         <v>151</v>
@@ -2631,359 +2752,434 @@
         <v>154</v>
       </c>
       <c r="I38" t="s">
+        <v>155</v>
+      </c>
+      <c r="J38" t="s">
+        <v>43</v>
+      </c>
+      <c r="K38" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" t="s">
+        <v>22</v>
+      </c>
+      <c r="M38" t="s">
+        <v>156</v>
+      </c>
+      <c r="N38" t="n">
+        <v>32</v>
+      </c>
+      <c r="O38" t="n">
+        <v>23</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="s"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>44150.92170524305</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2853</v>
+      </c>
+      <c r="E39" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H39" t="s">
+        <v>160</v>
+      </c>
+      <c r="I39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" t="s">
         <v>30</v>
       </c>
-      <c r="J38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" t="s">
-        <v>36</v>
-      </c>
-      <c r="L38" t="s">
+      <c r="K39" t="s">
+        <v>43</v>
+      </c>
+      <c r="L39" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" t="s">
+        <v>161</v>
+      </c>
+      <c r="N39" t="n">
+        <v>33</v>
+      </c>
+      <c r="O39" t="n">
+        <v>24</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="s"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>44150.92246048611</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2899</v>
+      </c>
+      <c r="E40" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" t="s">
+        <v>163</v>
+      </c>
+      <c r="G40" t="s">
+        <v>164</v>
+      </c>
+      <c r="H40" t="s">
+        <v>165</v>
+      </c>
+      <c r="I40" t="s">
         <v>23</v>
       </c>
-      <c r="M38" t="s">
-        <v>155</v>
-      </c>
-      <c r="N38" t="n">
-        <v>24</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="s"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>44150.92246048611</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2899</v>
-      </c>
-      <c r="E39" t="s">
-        <v>156</v>
-      </c>
-      <c r="F39" t="s">
-        <v>157</v>
-      </c>
-      <c r="G39" t="s">
-        <v>158</v>
-      </c>
-      <c r="H39" t="s">
-        <v>159</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="J40" t="s">
         <v>30</v>
       </c>
-      <c r="J39" t="s">
-        <v>21</v>
-      </c>
-      <c r="K39" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" t="s">
-        <v>23</v>
-      </c>
-      <c r="M39" t="s"/>
-      <c r="N39" t="n">
-        <v>25</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="s"/>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>44150.92315710648</v>
-      </c>
-      <c r="D40" t="n">
-        <v>429</v>
-      </c>
-      <c r="E40" t="s">
-        <v>160</v>
-      </c>
-      <c r="F40" t="s">
-        <v>161</v>
-      </c>
-      <c r="G40" t="s">
-        <v>162</v>
-      </c>
-      <c r="H40" t="s">
-        <v>163</v>
-      </c>
-      <c r="I40" t="s">
-        <v>164</v>
-      </c>
-      <c r="J40" t="s">
-        <v>21</v>
-      </c>
       <c r="K40" t="s">
         <v>22</v>
       </c>
       <c r="L40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M40" t="s"/>
       <c r="N40" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="s"/>
-    </row>
-    <row r="41" spans="1:16">
+        <v>25</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="s"/>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>44150.92537696759</v>
+        <v>44150.92315710648</v>
       </c>
       <c r="D41" t="n">
-        <v>931</v>
+        <v>429</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F41" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I41" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="J41" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="K41" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="L41" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M41" t="s"/>
       <c r="N41" t="n">
+        <v>35</v>
+      </c>
+      <c r="O41" t="n">
+        <v>26</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="s"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>44150.92537696759</v>
+      </c>
+      <c r="D42" t="n">
+        <v>931</v>
+      </c>
+      <c r="E42" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" t="s">
+        <v>173</v>
+      </c>
+      <c r="H42" t="s">
+        <v>174</v>
+      </c>
+      <c r="I42" t="s">
+        <v>74</v>
+      </c>
+      <c r="J42" t="s">
+        <v>175</v>
+      </c>
+      <c r="K42" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" t="s"/>
+      <c r="N42" t="n">
+        <v>36</v>
+      </c>
+      <c r="O42" t="n">
         <v>27</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="s"/>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="1" t="n">
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="s"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>44147.90281010417</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1283</v>
+      </c>
+      <c r="E43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F43" t="s">
+        <v>177</v>
+      </c>
+      <c r="G43" t="s">
+        <v>178</v>
+      </c>
+      <c r="H43" t="s">
+        <v>174</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>179</v>
+      </c>
+      <c r="N43" t="n">
         <v>37</v>
       </c>
-      <c r="B42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>44147.90281010417</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1283</v>
-      </c>
-      <c r="E42" t="s">
-        <v>170</v>
-      </c>
-      <c r="F42" t="s">
-        <v>171</v>
-      </c>
-      <c r="G42" t="s">
-        <v>172</v>
-      </c>
-      <c r="H42" t="s">
-        <v>168</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2</v>
-      </c>
-      <c r="K42" t="s">
-        <v>74</v>
-      </c>
-      <c r="L42" t="n">
+      <c r="O43" t="n">
+        <v>28</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>44147.90575298611</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2569</v>
+      </c>
+      <c r="E44" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" t="s">
+        <v>181</v>
+      </c>
+      <c r="G44" t="s">
+        <v>182</v>
+      </c>
+      <c r="H44" t="s">
+        <v>183</v>
+      </c>
+      <c r="I44" t="n">
+        <v>7</v>
+      </c>
+      <c r="J44" t="n">
+        <v>5</v>
+      </c>
+      <c r="K44" t="s">
+        <v>37</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3</v>
+      </c>
+      <c r="M44" t="s">
+        <v>184</v>
+      </c>
+      <c r="N44" t="n">
+        <v>38</v>
+      </c>
+      <c r="O44" t="n">
+        <v>29</v>
+      </c>
+      <c r="P44" t="n">
         <v>1</v>
       </c>
-      <c r="M42" t="s">
-        <v>173</v>
-      </c>
-      <c r="N42" t="n">
-        <v>28</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>44147.90575298611</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2569</v>
-      </c>
-      <c r="E43" t="s">
-        <v>174</v>
-      </c>
-      <c r="F43" t="s">
-        <v>175</v>
-      </c>
-      <c r="G43" t="s">
-        <v>176</v>
-      </c>
-      <c r="H43" t="s">
-        <v>177</v>
-      </c>
-      <c r="I43" t="n">
-        <v>7</v>
-      </c>
-      <c r="J43" t="n">
-        <v>5</v>
-      </c>
-      <c r="K43" t="s">
-        <v>29</v>
-      </c>
-      <c r="L43" t="n">
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>44147.90636120371</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3552</v>
+      </c>
+      <c r="E45" t="s">
+        <v>185</v>
+      </c>
+      <c r="F45" t="s">
+        <v>186</v>
+      </c>
+      <c r="G45" t="s">
+        <v>187</v>
+      </c>
+      <c r="H45" t="s">
+        <v>188</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
         <v>3</v>
       </c>
-      <c r="M43" t="s">
-        <v>178</v>
-      </c>
-      <c r="N43" t="n">
-        <v>29</v>
-      </c>
-      <c r="O43" t="n">
+      <c r="K45" t="s">
+        <v>43</v>
+      </c>
+      <c r="L45" t="n">
         <v>1</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>44147.90636120371</v>
-      </c>
-      <c r="D44" t="n">
-        <v>3552</v>
-      </c>
-      <c r="E44" t="s">
-        <v>179</v>
-      </c>
-      <c r="F44" t="s">
-        <v>180</v>
-      </c>
-      <c r="G44" t="s">
-        <v>181</v>
-      </c>
-      <c r="H44" t="s">
-        <v>182</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3</v>
-      </c>
-      <c r="K44" t="s">
-        <v>36</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="s"/>
-      <c r="N44" t="n">
-        <v>30</v>
-      </c>
-      <c r="O44" t="n">
-        <v>2</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>44147.90702556713</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2926</v>
-      </c>
-      <c r="E45" t="s">
-        <v>183</v>
-      </c>
-      <c r="F45" t="s">
-        <v>184</v>
-      </c>
-      <c r="G45" t="s">
-        <v>185</v>
-      </c>
-      <c r="H45" t="s">
-        <v>186</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>9</v>
-      </c>
-      <c r="K45" t="s">
-        <v>23</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3</v>
       </c>
       <c r="M45" t="s"/>
       <c r="N45" t="n">
+        <v>39</v>
+      </c>
+      <c r="O45" t="n">
+        <v>30</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>44147.90702556713</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2926</v>
+      </c>
+      <c r="E46" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" t="s">
+        <v>190</v>
+      </c>
+      <c r="G46" t="s">
+        <v>191</v>
+      </c>
+      <c r="H46" t="s">
+        <v>192</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>9</v>
+      </c>
+      <c r="K46" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3</v>
+      </c>
+      <c r="M46" t="s"/>
+      <c r="N46" t="n">
+        <v>40</v>
+      </c>
+      <c r="O46" t="n">
         <v>31</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P46" t="n">
         <v>3</v>
       </c>
-      <c r="P45" t="n">
+      <c r="Q46" t="n">
         <v>0</v>
       </c>
     </row>

--- a/classification-record/session-all-models-combined.xlsx
+++ b/classification-record/session-all-models-combined.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
   <si>
     <t>Name</t>
   </si>
@@ -68,6 +68,162 @@
     <t>Alex</t>
   </si>
   <si>
+    <t>Introducing VAEP archived</t>
+  </si>
+  <si>
+    <t>RMov1zrjW3s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RMov1zrjW3s</t>
+  </si>
+  <si>
+    <t>VAEPworld</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">website that produces content to help people quit smoking by switching to vaping </t>
+  </si>
+  <si>
+    <t>[BASS COVER] Metallica - Disposable Heroes</t>
+  </si>
+  <si>
+    <t>oetsiDKoDUY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oetsiDKoDUY</t>
+  </si>
+  <si>
+    <t>The Bass Channel</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bass video </t>
+  </si>
+  <si>
+    <t>Dinner Lady | Lemon Tart Review ( The Best Dessert E-Juice I Ever Had )</t>
+  </si>
+  <si>
+    <t>bAQMKunBEaI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bAQMKunBEaI</t>
+  </si>
+  <si>
+    <t>SeanTalksVaping</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>GÖST KASH - Vape Disposable Unbox &amp; Review</t>
+  </si>
+  <si>
+    <t>z5s46Ovp5Xs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z5s46Ovp5Xs</t>
+  </si>
+  <si>
+    <t>Teagardins TV</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>Vessel Brand Vape Pen Battery // Unboxing and Overview (featuring the Silver + Walnut Wood Series)</t>
+  </si>
+  <si>
+    <t>Bl1pPtKLkNY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Bl1pPtKLkNY</t>
+  </si>
+  <si>
+    <t>Vessel Brand</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0 1 6</t>
+  </si>
+  <si>
+    <t>in person store, online store, and manufacturer</t>
+  </si>
+  <si>
+    <t>Vaptio AirGo Pod | If Apple Made a Vape...</t>
+  </si>
+  <si>
+    <t>rG7TaSGanOk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rG7TaSGanOk</t>
+  </si>
+  <si>
+    <t>Vaping Bogan</t>
+  </si>
+  <si>
+    <t>How to Use Nicotine (Nic) Shots - Vape School</t>
+  </si>
+  <si>
+    <t>MmGOzS0TNXU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MmGOzS0TNXU</t>
+  </si>
+  <si>
+    <t>ZampleBox</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>How to use Smok Vape Pen 22 unboxing, review, how to charge, change coil, load fill tank</t>
+  </si>
+  <si>
+    <t>rUS5486L1kc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rUS5486L1kc</t>
+  </si>
+  <si>
+    <t>HookahTownUSA</t>
+  </si>
+  <si>
+    <t>0 7</t>
+  </si>
+  <si>
+    <t>2002 Le Defi Mark Ten Challenge</t>
+  </si>
+  <si>
+    <t>X10fPqJ4hc4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X10fPqJ4hc4</t>
+  </si>
+  <si>
+    <t>HITstrongman</t>
+  </si>
+  <si>
     <t>Yocan Uni How to / Review</t>
   </si>
   <si>
@@ -80,18 +236,6 @@
     <t>B2Sqrd</t>
   </si>
   <si>
-    <t>0 7</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0 1</t>
-  </si>
-  <si>
     <t>E-cigarette explodes on bus</t>
   </si>
   <si>
@@ -104,15 +248,6 @@
     <t>FOX 5 Atlanta</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>TUG Boat disposable vape pen</t>
   </si>
   <si>
@@ -125,12 +260,6 @@
     <t>Jeff Xiang</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>only a review in the loosest sense. I would say this is the bare minimum to still be a review</t>
   </si>
   <si>
@@ -146,9 +275,6 @@
     <t>LoudFam Productions</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Stratus - I Wonder How It'll End</t>
   </si>
   <si>
@@ -161,9 +287,6 @@
     <t>Valiant</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>music (end not ends)</t>
   </si>
   <si>
@@ -237,9 +360,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=59pwHBGlfsY</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>1 3</t>
@@ -946,7 +1066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,10 +1129,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44151.82177193619</v>
+        <v>44151.82759821303</v>
       </c>
       <c r="C2" t="n">
-        <v>3147</v>
+        <v>2868</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1038,7 +1158,9 @@
       <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s"/>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
       <c r="M2" t="s"/>
       <c r="N2" t="s"/>
       <c r="O2" t="s"/>
@@ -1049,39 +1171,39 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44151.74385679398</v>
+        <v>44151.82841722089</v>
       </c>
       <c r="C3" t="n">
-        <v>2231</v>
+        <v>1597</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s"/>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s"/>
       <c r="N3" t="s"/>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -1091,41 +1213,37 @@
         <v>16</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44151.74608694445</v>
+        <v>44151.82904937698</v>
       </c>
       <c r="C4" t="n">
-        <v>2768</v>
+        <v>2536</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
       <c r="N4" t="s"/>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -1135,10 +1253,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44151.74719898148</v>
+        <v>44151.83006247543</v>
       </c>
       <c r="C5" t="n">
-        <v>2788</v>
+        <v>1443</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
@@ -1153,21 +1271,19 @@
         <v>42</v>
       </c>
       <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
         <v>43</v>
       </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L5" t="s"/>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
+      <c r="M5" t="s"/>
       <c r="N5" t="s"/>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -1177,10 +1293,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44151.72016962963</v>
+        <v>44151.83185293891</v>
       </c>
       <c r="C6" t="n">
-        <v>1835</v>
+        <v>2693</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
@@ -1195,26 +1311,22 @@
         <v>47</v>
       </c>
       <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
         <v>48</v>
       </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
       <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
         <v>43</v>
       </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
       <c r="L6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s"/>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
     </row>
@@ -1223,42 +1335,38 @@
         <v>16</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44151.72130056713</v>
+        <v>44151.83362222641</v>
       </c>
       <c r="C7" t="n">
-        <v>1232</v>
+        <v>685</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
     </row>
@@ -1267,42 +1375,38 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44151.72318013889</v>
+        <v>44151.83487902153</v>
       </c>
       <c r="C8" t="n">
-        <v>729</v>
+        <v>3196</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s"/>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s"/>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
     </row>
@@ -1311,42 +1415,38 @@
         <v>16</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44151.72479038194</v>
+        <v>44151.83624468897</v>
       </c>
       <c r="C9" t="n">
-        <v>980</v>
+        <v>2029</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s"/>
-      <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
     </row>
@@ -1355,42 +1455,38 @@
         <v>16</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44151.7262485301</v>
+        <v>44151.83740932738</v>
       </c>
       <c r="C10" t="n">
-        <v>3296</v>
+        <v>1013</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s"/>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
     </row>
@@ -1399,44 +1495,38 @@
         <v>16</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44151.7274534375</v>
+        <v>44151.82177193287</v>
       </c>
       <c r="C11" t="n">
-        <v>142</v>
+        <v>3147</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" t="s">
-        <v>70</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
     </row>
@@ -1445,42 +1535,40 @@
         <v>16</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44151.72884155092</v>
+        <v>44151.74385679398</v>
       </c>
       <c r="C12" t="n">
-        <v>500</v>
+        <v>2231</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s"/>
       <c r="M12" t="n">
-        <v>6</v>
-      </c>
-      <c r="N12" t="n">
         <v>0</v>
       </c>
+      <c r="N12" t="s"/>
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
     </row>
@@ -1489,44 +1577,42 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44151.73146354167</v>
+        <v>44151.74608694445</v>
       </c>
       <c r="C13" t="n">
-        <v>1964</v>
+        <v>2768</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L13" t="s">
         <v>81</v>
       </c>
       <c r="M13" t="n">
-        <v>7</v>
-      </c>
-      <c r="N13" t="n">
         <v>0</v>
       </c>
+      <c r="N13" t="s"/>
       <c r="O13" t="s"/>
       <c r="P13" t="s"/>
     </row>
@@ -1535,10 +1621,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44151.73427538195</v>
+        <v>44151.74719898148</v>
       </c>
       <c r="C14" t="n">
-        <v>321</v>
+        <v>2788</v>
       </c>
       <c r="D14" t="s">
         <v>82</v>
@@ -1553,26 +1639,22 @@
         <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" t="s">
-        <v>88</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L14" t="s"/>
       <c r="M14" t="n">
-        <v>8</v>
-      </c>
-      <c r="N14" t="n">
         <v>0</v>
       </c>
+      <c r="N14" t="s"/>
       <c r="O14" t="s"/>
       <c r="P14" t="s"/>
     </row>
@@ -1581,38 +1663,40 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44150.92973521991</v>
+        <v>44151.72016962963</v>
       </c>
       <c r="C15" t="n">
-        <v>3103</v>
+        <v>1835</v>
       </c>
       <c r="D15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s">
         <v>89</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
         <v>90</v>
       </c>
-      <c r="F15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" t="s"/>
       <c r="M15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1625,43 +1709,41 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44150.93092240741</v>
+        <v>44151.72130056713</v>
       </c>
       <c r="C16" t="n">
-        <v>1754</v>
+        <v>1232</v>
       </c>
       <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
         <v>93</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>94</v>
       </c>
-      <c r="F16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" t="s">
-        <v>96</v>
-      </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" t="s">
-        <v>97</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L16" t="s"/>
       <c r="M16" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s"/>
       <c r="P16" t="s"/>
@@ -1671,41 +1753,41 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44150.93139512731</v>
+        <v>44151.72318013889</v>
       </c>
       <c r="C17" t="n">
-        <v>41</v>
+        <v>729</v>
       </c>
       <c r="D17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" t="s">
         <v>98</v>
       </c>
-      <c r="E17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" t="s">
-        <v>101</v>
-      </c>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L17" t="s"/>
       <c r="M17" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s"/>
       <c r="P17" t="s"/>
@@ -1715,41 +1797,41 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44150.9320803125</v>
+        <v>44151.72479038194</v>
       </c>
       <c r="C18" t="n">
-        <v>2062</v>
+        <v>980</v>
       </c>
       <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" t="s">
         <v>102</v>
       </c>
-      <c r="E18" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" t="s">
-        <v>105</v>
-      </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I18" t="s">
         <v>37</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L18" t="s"/>
       <c r="M18" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O18" t="s"/>
       <c r="P18" t="s"/>
@@ -1759,41 +1841,41 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44150.93366619213</v>
+        <v>44151.7262485301</v>
       </c>
       <c r="C19" t="n">
-        <v>1509</v>
+        <v>3296</v>
       </c>
       <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" t="s">
         <v>106</v>
       </c>
-      <c r="E19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" t="s">
-        <v>109</v>
-      </c>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L19" t="s"/>
       <c r="M19" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O19" t="s"/>
       <c r="P19" t="s"/>
@@ -1803,41 +1885,43 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44150.93590909722</v>
+        <v>44151.7274534375</v>
       </c>
       <c r="C20" t="n">
-        <v>626</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" t="s">
         <v>110</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" t="s">
         <v>111</v>
       </c>
-      <c r="F20" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" t="s"/>
       <c r="M20" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O20" t="s"/>
       <c r="P20" t="s"/>
@@ -1847,43 +1931,41 @@
         <v>16</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44150.93629255787</v>
+        <v>44151.72884155092</v>
       </c>
       <c r="C21" t="n">
-        <v>2214</v>
+        <v>500</v>
       </c>
       <c r="D21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s">
         <v>114</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" t="s">
         <v>115</v>
       </c>
-      <c r="F21" t="s">
-        <v>116</v>
-      </c>
-      <c r="G21" t="s">
-        <v>117</v>
-      </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" t="s">
-        <v>30</v>
-      </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" t="s">
-        <v>118</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L21" t="s"/>
       <c r="M21" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O21" t="s"/>
       <c r="P21" t="s"/>
@@ -1893,43 +1975,43 @@
         <v>16</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44150.93726997685</v>
+        <v>44151.73146354167</v>
       </c>
       <c r="C22" t="n">
-        <v>638</v>
+        <v>1964</v>
       </c>
       <c r="D22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" t="s">
         <v>119</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" t="s">
         <v>120</v>
       </c>
-      <c r="F22" t="s">
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" t="s">
         <v>121</v>
       </c>
-      <c r="G22" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" t="s">
-        <v>123</v>
-      </c>
       <c r="M22" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O22" t="s"/>
       <c r="P22" t="s"/>
@@ -1939,43 +2021,43 @@
         <v>16</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44150.93919015046</v>
+        <v>44151.73427538195</v>
       </c>
       <c r="C23" t="n">
-        <v>3128</v>
+        <v>321</v>
       </c>
       <c r="D23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" t="s">
         <v>124</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>125</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>126</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>127</v>
       </c>
-      <c r="H23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" t="s">
-        <v>22</v>
-      </c>
       <c r="J23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L23" t="s">
         <v>128</v>
       </c>
       <c r="M23" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O23" t="s"/>
       <c r="P23" t="s"/>
@@ -1991,35 +2073,35 @@
         <v>3103</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="G24" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L24" t="s"/>
       <c r="M24" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O24" t="s"/>
       <c r="P24" t="s"/>
@@ -2035,37 +2117,37 @@
         <v>1754</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="G25" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I25" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="M25" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O25" t="s"/>
       <c r="P25" t="s"/>
@@ -2081,35 +2163,35 @@
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="F26" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="G26" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="H26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L26" t="s"/>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N26" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="O26" t="s"/>
       <c r="P26" t="s"/>
@@ -2125,35 +2207,35 @@
         <v>2062</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="F27" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="G27" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="H27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L27" t="s"/>
       <c r="M27" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N27" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O27" t="s"/>
       <c r="P27" t="s"/>
@@ -2169,35 +2251,35 @@
         <v>1509</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="F28" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="G28" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="H28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L28" t="s"/>
       <c r="M28" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N28" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O28" t="s"/>
       <c r="P28" t="s"/>
@@ -2213,35 +2295,35 @@
         <v>626</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="F29" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="G29" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="H29" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L29" t="s"/>
       <c r="M29" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N29" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="O29" t="s"/>
       <c r="P29" t="s"/>
@@ -2257,37 +2339,37 @@
         <v>2214</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="F30" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="G30" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I30" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="K30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L30" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="M30" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N30" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O30" t="s"/>
       <c r="P30" t="s"/>
@@ -2303,37 +2385,37 @@
         <v>638</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="F31" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="G31" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="H31" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
         <v>23</v>
       </c>
-      <c r="J31" t="s">
-        <v>37</v>
-      </c>
       <c r="K31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L31" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="M31" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N31" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="O31" t="s"/>
       <c r="P31" t="s"/>
@@ -2349,37 +2431,37 @@
         <v>3128</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="F32" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="G32" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="H32" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J32" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L32" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="M32" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N32" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="O32" t="s"/>
       <c r="P32" t="s"/>
@@ -2389,10 +2471,10 @@
         <v>16</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>44150.91491172454</v>
+        <v>44150.92973521991</v>
       </c>
       <c r="C33" t="n">
-        <v>219</v>
+        <v>3103</v>
       </c>
       <c r="D33" t="s">
         <v>129</v>
@@ -2407,27 +2489,25 @@
         <v>132</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
         <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="K33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L33" t="s"/>
       <c r="M33" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N33" t="n">
-        <v>18</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="O33" t="s"/>
       <c r="P33" t="s"/>
     </row>
     <row r="34" spans="1:16">
@@ -2435,10 +2515,10 @@
         <v>16</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44150.9158749537</v>
+        <v>44150.93092240741</v>
       </c>
       <c r="C34" t="n">
-        <v>3291</v>
+        <v>1754</v>
       </c>
       <c r="D34" t="s">
         <v>133</v>
@@ -2453,27 +2533,27 @@
         <v>136</v>
       </c>
       <c r="H34" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I34" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K34" t="s">
         <v>24</v>
       </c>
-      <c r="L34" t="s"/>
+      <c r="L34" t="s">
+        <v>137</v>
+      </c>
       <c r="M34" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N34" t="n">
-        <v>19</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O34" t="s"/>
       <c r="P34" t="s"/>
     </row>
     <row r="35" spans="1:16">
@@ -2481,47 +2561,43 @@
         <v>16</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44150.91647944444</v>
+        <v>44150.93139512731</v>
       </c>
       <c r="C35" t="n">
-        <v>2337</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="K35" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" t="s">
-        <v>141</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L35" t="s"/>
       <c r="M35" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N35" t="n">
-        <v>20</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="O35" t="s"/>
       <c r="P35" t="s"/>
     </row>
     <row r="36" spans="1:16">
@@ -2529,10 +2605,10 @@
         <v>16</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44150.91708795139</v>
+        <v>44150.9320803125</v>
       </c>
       <c r="C36" t="n">
-        <v>3783</v>
+        <v>2062</v>
       </c>
       <c r="D36" t="s">
         <v>142</v>
@@ -2547,29 +2623,25 @@
         <v>145</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I36" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K36" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" t="s">
-        <v>146</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L36" t="s"/>
       <c r="M36" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N36" t="n">
-        <v>21</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="O36" t="s"/>
       <c r="P36" t="s"/>
     </row>
     <row r="37" spans="1:16">
@@ -2577,45 +2649,43 @@
         <v>16</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44150.91861394676</v>
+        <v>44150.93366619213</v>
       </c>
       <c r="C37" t="n">
-        <v>2088</v>
+        <v>1509</v>
       </c>
       <c r="D37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" t="s">
         <v>147</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>148</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>149</v>
       </c>
-      <c r="G37" t="s">
-        <v>150</v>
-      </c>
       <c r="H37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I37" t="s">
         <v>37</v>
       </c>
       <c r="J37" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K37" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L37" t="s"/>
       <c r="M37" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N37" t="n">
-        <v>22</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="O37" t="s"/>
       <c r="P37" t="s"/>
     </row>
     <row r="38" spans="1:16">
@@ -2623,47 +2693,43 @@
         <v>16</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>44150.91975104166</v>
+        <v>44150.93590909722</v>
       </c>
       <c r="C38" t="n">
-        <v>3686</v>
+        <v>626</v>
       </c>
       <c r="D38" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" t="s">
         <v>151</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>152</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>153</v>
       </c>
-      <c r="G38" t="s">
-        <v>154</v>
-      </c>
       <c r="H38" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K38" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" t="s">
-        <v>156</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="L38" t="s"/>
       <c r="M38" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N38" t="n">
-        <v>23</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="O38" t="s"/>
       <c r="P38" t="s"/>
     </row>
     <row r="39" spans="1:16">
@@ -2671,47 +2737,45 @@
         <v>16</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>44150.92170524305</v>
+        <v>44150.93629255787</v>
       </c>
       <c r="C39" t="n">
-        <v>2853</v>
+        <v>2214</v>
       </c>
       <c r="D39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39" t="s">
+        <v>156</v>
+      </c>
+      <c r="G39" t="s">
         <v>157</v>
       </c>
-      <c r="E39" t="s">
+      <c r="H39" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" t="s">
         <v>158</v>
       </c>
-      <c r="F39" t="s">
-        <v>159</v>
-      </c>
-      <c r="G39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H39" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" t="s">
-        <v>30</v>
-      </c>
-      <c r="J39" t="s">
-        <v>43</v>
-      </c>
-      <c r="K39" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" t="s">
-        <v>161</v>
-      </c>
       <c r="M39" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N39" t="n">
-        <v>24</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="O39" t="s"/>
       <c r="P39" t="s"/>
     </row>
     <row r="40" spans="1:16">
@@ -2719,45 +2783,45 @@
         <v>16</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44150.92246048611</v>
+        <v>44150.93726997685</v>
       </c>
       <c r="C40" t="n">
-        <v>2899</v>
+        <v>638</v>
       </c>
       <c r="D40" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" t="s">
         <v>162</v>
       </c>
-      <c r="E40" t="s">
+      <c r="H40" t="s">
+        <v>59</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" t="s">
         <v>163</v>
       </c>
-      <c r="F40" t="s">
-        <v>164</v>
-      </c>
-      <c r="G40" t="s">
-        <v>165</v>
-      </c>
-      <c r="H40" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" t="s">
-        <v>30</v>
-      </c>
-      <c r="J40" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" t="s"/>
       <c r="M40" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N40" t="n">
-        <v>25</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="O40" t="s"/>
       <c r="P40" t="s"/>
     </row>
     <row r="41" spans="1:16">
@@ -2765,45 +2829,45 @@
         <v>16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44150.92315710648</v>
+        <v>44150.93919015046</v>
       </c>
       <c r="C41" t="n">
-        <v>429</v>
+        <v>3128</v>
       </c>
       <c r="D41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" t="s">
         <v>166</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>167</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H41" t="s">
+        <v>59</v>
+      </c>
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" t="s">
         <v>168</v>
       </c>
-      <c r="G41" t="s">
-        <v>169</v>
-      </c>
-      <c r="H41" t="s">
-        <v>170</v>
-      </c>
-      <c r="I41" t="s">
-        <v>30</v>
-      </c>
-      <c r="J41" t="s">
-        <v>31</v>
-      </c>
-      <c r="K41" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41" t="s"/>
       <c r="M41" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N41" t="n">
-        <v>26</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="O41" t="s"/>
       <c r="P41" t="s"/>
     </row>
     <row r="42" spans="1:16">
@@ -2811,41 +2875,41 @@
         <v>16</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44150.92537696759</v>
+        <v>44150.91491172454</v>
       </c>
       <c r="C42" t="n">
-        <v>931</v>
+        <v>219</v>
       </c>
       <c r="D42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42" t="s">
+        <v>170</v>
+      </c>
+      <c r="F42" t="s">
         <v>171</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>172</v>
       </c>
-      <c r="F42" t="s">
-        <v>173</v>
-      </c>
-      <c r="G42" t="s">
-        <v>174</v>
-      </c>
       <c r="H42" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="I42" t="s">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="J42" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L42" t="s"/>
       <c r="M42" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N42" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2857,194 +2921,616 @@
         <v>16</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44147.90281010417</v>
+        <v>44150.9158749537</v>
       </c>
       <c r="C43" t="n">
-        <v>1283</v>
+        <v>3291</v>
       </c>
       <c r="D43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" t="s">
+        <v>175</v>
+      </c>
+      <c r="G43" t="s">
         <v>176</v>
       </c>
-      <c r="E43" t="s">
-        <v>177</v>
-      </c>
-      <c r="F43" t="s">
-        <v>178</v>
-      </c>
-      <c r="G43" t="s">
-        <v>174</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
+      <c r="H43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" t="s">
+        <v>37</v>
       </c>
       <c r="J43" t="s">
-        <v>24</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1</v>
-      </c>
-      <c r="L43" t="s">
-        <v>179</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="K43" t="s">
+        <v>43</v>
+      </c>
+      <c r="L43" t="s"/>
       <c r="M43" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N43" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
+      <c r="P43" t="s"/>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>16</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44147.90575298611</v>
+        <v>44150.91647944444</v>
       </c>
       <c r="C44" t="n">
-        <v>2569</v>
+        <v>2337</v>
       </c>
       <c r="D44" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" t="s">
+        <v>179</v>
+      </c>
+      <c r="G44" t="s">
         <v>180</v>
       </c>
-      <c r="E44" t="s">
+      <c r="H44" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" t="s">
+        <v>31</v>
+      </c>
+      <c r="K44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" t="s">
         <v>181</v>
       </c>
-      <c r="F44" t="s">
-        <v>182</v>
-      </c>
-      <c r="G44" t="s">
-        <v>183</v>
-      </c>
-      <c r="H44" t="n">
-        <v>7</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5</v>
-      </c>
-      <c r="J44" t="s">
-        <v>37</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3</v>
-      </c>
-      <c r="L44" t="s">
-        <v>184</v>
-      </c>
       <c r="M44" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N44" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="P44" t="s"/>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>16</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44147.90636120371</v>
+        <v>44150.91708795139</v>
       </c>
       <c r="C45" t="n">
-        <v>3552</v>
+        <v>3783</v>
       </c>
       <c r="D45" t="s">
+        <v>182</v>
+      </c>
+      <c r="E45" t="s">
+        <v>183</v>
+      </c>
+      <c r="F45" t="s">
+        <v>184</v>
+      </c>
+      <c r="G45" t="s">
         <v>185</v>
       </c>
-      <c r="E45" t="s">
+      <c r="H45" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" t="s">
+        <v>31</v>
+      </c>
+      <c r="K45" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" t="s">
         <v>186</v>
       </c>
-      <c r="F45" t="s">
-        <v>187</v>
-      </c>
-      <c r="G45" t="s">
-        <v>188</v>
-      </c>
-      <c r="H45" t="n">
+      <c r="M45" t="n">
+        <v>30</v>
+      </c>
+      <c r="N45" t="n">
+        <v>21</v>
+      </c>
+      <c r="O45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
-      <c r="J45" t="s">
-        <v>43</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" t="s"/>
-      <c r="M45" t="n">
-        <v>39</v>
-      </c>
-      <c r="N45" t="n">
-        <v>30</v>
-      </c>
-      <c r="O45" t="n">
-        <v>2</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
+      <c r="P45" t="s"/>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>16</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44147.90702556713</v>
+        <v>44150.91861394676</v>
       </c>
       <c r="C46" t="n">
-        <v>2926</v>
+        <v>2088</v>
       </c>
       <c r="D46" t="s">
+        <v>187</v>
+      </c>
+      <c r="E46" t="s">
+        <v>188</v>
+      </c>
+      <c r="F46" t="s">
         <v>189</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>190</v>
       </c>
-      <c r="F46" t="s">
-        <v>191</v>
-      </c>
-      <c r="G46" t="s">
-        <v>192</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>9</v>
+      <c r="H46" t="s">
+        <v>37</v>
+      </c>
+      <c r="I46" t="s">
+        <v>23</v>
       </c>
       <c r="J46" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="K46" t="s">
+        <v>24</v>
       </c>
       <c r="L46" t="s"/>
       <c r="M46" t="n">
+        <v>31</v>
+      </c>
+      <c r="N46" t="n">
+        <v>22</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="s"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>44150.91975104166</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3686</v>
+      </c>
+      <c r="D47" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" t="s">
+        <v>192</v>
+      </c>
+      <c r="F47" t="s">
+        <v>193</v>
+      </c>
+      <c r="G47" t="s">
+        <v>194</v>
+      </c>
+      <c r="H47" t="s">
+        <v>195</v>
+      </c>
+      <c r="I47" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" t="s">
+        <v>38</v>
+      </c>
+      <c r="K47" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" t="s">
+        <v>196</v>
+      </c>
+      <c r="M47" t="n">
+        <v>32</v>
+      </c>
+      <c r="N47" t="n">
+        <v>23</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="s"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>44150.92170524305</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2853</v>
+      </c>
+      <c r="D48" t="s">
+        <v>197</v>
+      </c>
+      <c r="E48" t="s">
+        <v>198</v>
+      </c>
+      <c r="F48" t="s">
+        <v>199</v>
+      </c>
+      <c r="G48" t="s">
+        <v>200</v>
+      </c>
+      <c r="H48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" t="s">
+        <v>201</v>
+      </c>
+      <c r="M48" t="n">
+        <v>33</v>
+      </c>
+      <c r="N48" t="n">
+        <v>24</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="s"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>44150.92246048611</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2899</v>
+      </c>
+      <c r="D49" t="s">
+        <v>202</v>
+      </c>
+      <c r="E49" t="s">
+        <v>203</v>
+      </c>
+      <c r="F49" t="s">
+        <v>204</v>
+      </c>
+      <c r="G49" t="s">
+        <v>205</v>
+      </c>
+      <c r="H49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" t="s"/>
+      <c r="M49" t="n">
+        <v>34</v>
+      </c>
+      <c r="N49" t="n">
+        <v>25</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="s"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>44150.92315710648</v>
+      </c>
+      <c r="C50" t="n">
+        <v>429</v>
+      </c>
+      <c r="D50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E50" t="s">
+        <v>207</v>
+      </c>
+      <c r="F50" t="s">
+        <v>208</v>
+      </c>
+      <c r="G50" t="s">
+        <v>209</v>
+      </c>
+      <c r="H50" t="s">
+        <v>210</v>
+      </c>
+      <c r="I50" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" t="s">
+        <v>48</v>
+      </c>
+      <c r="K50" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" t="s"/>
+      <c r="M50" t="n">
+        <v>35</v>
+      </c>
+      <c r="N50" t="n">
+        <v>26</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="s"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>44150.92537696759</v>
+      </c>
+      <c r="C51" t="n">
+        <v>931</v>
+      </c>
+      <c r="D51" t="s">
+        <v>211</v>
+      </c>
+      <c r="E51" t="s">
+        <v>212</v>
+      </c>
+      <c r="F51" t="s">
+        <v>213</v>
+      </c>
+      <c r="G51" t="s">
+        <v>214</v>
+      </c>
+      <c r="H51" t="s">
+        <v>59</v>
+      </c>
+      <c r="I51" t="s">
+        <v>215</v>
+      </c>
+      <c r="J51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>36</v>
+      </c>
+      <c r="N51" t="n">
+        <v>27</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="s"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>44147.90281010417</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1283</v>
+      </c>
+      <c r="D52" t="s">
+        <v>216</v>
+      </c>
+      <c r="E52" t="s">
+        <v>217</v>
+      </c>
+      <c r="F52" t="s">
+        <v>218</v>
+      </c>
+      <c r="G52" t="s">
+        <v>214</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2</v>
+      </c>
+      <c r="J52" t="s">
+        <v>43</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>219</v>
+      </c>
+      <c r="M52" t="n">
+        <v>37</v>
+      </c>
+      <c r="N52" t="n">
+        <v>28</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>44147.90575298611</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2569</v>
+      </c>
+      <c r="D53" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" t="s">
+        <v>221</v>
+      </c>
+      <c r="F53" t="s">
+        <v>222</v>
+      </c>
+      <c r="G53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5</v>
+      </c>
+      <c r="J53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3</v>
+      </c>
+      <c r="L53" t="s">
+        <v>224</v>
+      </c>
+      <c r="M53" t="n">
+        <v>38</v>
+      </c>
+      <c r="N53" t="n">
+        <v>29</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>44147.90636120371</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3552</v>
+      </c>
+      <c r="D54" t="s">
+        <v>225</v>
+      </c>
+      <c r="E54" t="s">
+        <v>226</v>
+      </c>
+      <c r="F54" t="s">
+        <v>227</v>
+      </c>
+      <c r="G54" t="s">
+        <v>228</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" t="s">
+        <v>31</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>39</v>
+      </c>
+      <c r="N54" t="n">
+        <v>30</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>44147.90702556713</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2926</v>
+      </c>
+      <c r="D55" t="s">
+        <v>229</v>
+      </c>
+      <c r="E55" t="s">
+        <v>230</v>
+      </c>
+      <c r="F55" t="s">
+        <v>231</v>
+      </c>
+      <c r="G55" t="s">
+        <v>232</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>9</v>
+      </c>
+      <c r="J55" t="s">
+        <v>24</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3</v>
+      </c>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
         <v>40</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N55" t="n">
         <v>31</v>
       </c>
-      <c r="O46" t="n">
+      <c r="O55" t="n">
         <v>3</v>
       </c>
-      <c r="P46" t="n">
+      <c r="P55" t="n">
         <v>0</v>
       </c>
     </row>

--- a/classification-record/session-all-models-combined.xlsx
+++ b/classification-record/session-all-models-combined.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
   <si>
     <t>Name</t>
   </si>
@@ -68,6 +68,171 @@
     <t>Alex</t>
   </si>
   <si>
+    <t>TURNING CONCENTRATES (DABS) INTO E-LIQUID!!</t>
+  </si>
+  <si>
+    <t>sNd00S1HX6s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sNd00S1HX6s</t>
+  </si>
+  <si>
+    <t>HighImCody_</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1 8</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dab rig </t>
+  </si>
+  <si>
+    <t>Beginner's Guide To Making E-Liquid - DIY Tutorial and Cost</t>
+  </si>
+  <si>
+    <t>lURb2gsWdcw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lURb2gsWdcw</t>
+  </si>
+  <si>
+    <t>Titan Vapes</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>INSANE VAPE JUICE EXPERIMENT</t>
+  </si>
+  <si>
+    <t>OBrECm-u_U4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OBrECm-u_U4</t>
+  </si>
+  <si>
+    <t>Ryan Hall</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entertainment, mixing a bunch of eliquids together for fun </t>
+  </si>
+  <si>
+    <t>Easy way to refill NJOY &amp; ALTO vape pods</t>
+  </si>
+  <si>
+    <t>Zqv90OrH5FU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Zqv90OrH5FU</t>
+  </si>
+  <si>
+    <t>MR. GOLD</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>Ordinary People try High-End Headphones - Part 1</t>
+  </si>
+  <si>
+    <t>y6z_nk6IbVo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y6z_nk6IbVo</t>
+  </si>
+  <si>
+    <t>Currawong</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>The BEST Mango E-Liquid? Vape Chemist Philippine Mango Review! VapingwithTwisted420</t>
+  </si>
+  <si>
+    <t>oxhIXVCqK3I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxhIXVCqK3I</t>
+  </si>
+  <si>
+    <t>VapingwithTwisted420</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Odin DNA250c 21700 By Vaping Bogan - Dovpo - Vaperz Cloud</t>
+  </si>
+  <si>
+    <t>cQVHn1AGQpI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cQVHn1AGQpI</t>
+  </si>
+  <si>
+    <t>Mike Vapes</t>
+  </si>
+  <si>
+    <t>VAPORLAX DISPOSABLES Review</t>
+  </si>
+  <si>
+    <t>HQM4P-vYjLc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HQM4P-vYjLc</t>
+  </si>
+  <si>
+    <t>steve's hypebeast and sneaker reviews</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Mr Fog Max Blue Raspberry Lemon Disposable Vape Review!</t>
+  </si>
+  <si>
+    <t>dwvDu-mDNjI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dwvDu-mDNjI</t>
+  </si>
+  <si>
+    <t>The CBD Professor</t>
+  </si>
+  <si>
+    <t>Pod Device Vape Hotbox! 💨</t>
+  </si>
+  <si>
+    <t>YbofWOrmBpM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YbofWOrmBpM</t>
+  </si>
+  <si>
+    <t>LiamsGhosts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vape car hotbox </t>
+  </si>
+  <si>
     <t>Introducing VAEP archived</t>
   </si>
   <si>
@@ -80,18 +245,6 @@
     <t>VAEPworld</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t xml:space="preserve">website that produces content to help people quit smoking by switching to vaping </t>
   </si>
   <si>
@@ -107,12 +260,6 @@
     <t>The Bass Channel</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t xml:space="preserve">bass video </t>
   </si>
   <si>
@@ -128,12 +275,6 @@
     <t>SeanTalksVaping</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>GÖST KASH - Vape Disposable Unbox &amp; Review</t>
   </si>
   <si>
@@ -146,9 +287,6 @@
     <t>Teagardins TV</t>
   </si>
   <si>
-    <t>0 1</t>
-  </si>
-  <si>
     <t>Vessel Brand Vape Pen Battery // Unboxing and Overview (featuring the Silver + Walnut Wood Series)</t>
   </si>
   <si>
@@ -194,9 +332,6 @@
     <t>ZampleBox</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>How to use Smok Vape Pen 22 unboxing, review, how to charge, change coil, load fill tank</t>
   </si>
   <si>
@@ -299,9 +434,6 @@
     <t>https://www.youtube.com/watch?v=50dcs-taIIk</t>
   </si>
   <si>
-    <t>Mike Vapes</t>
-  </si>
-  <si>
     <t>SMOK TRINITY ALPHA VAPE / Replace Coils not Pods</t>
   </si>
   <si>
@@ -600,9 +732,6 @@
   </si>
   <si>
     <t>Pypson</t>
-  </si>
-  <si>
-    <t>3 7</t>
   </si>
   <si>
     <t xml:space="preserve">Video is private. Coded from description and channel </t>
@@ -1066,7 +1195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1129,10 +1258,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44151.82759821303</v>
+        <v>44151.93301048483</v>
       </c>
       <c r="C2" t="n">
-        <v>2868</v>
+        <v>492</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1171,10 +1300,10 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44151.82841722089</v>
+        <v>44151.93445606962</v>
       </c>
       <c r="C3" t="n">
-        <v>1597</v>
+        <v>447</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -1192,17 +1321,15 @@
         <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
+      <c r="L3" t="s"/>
       <c r="M3" t="s"/>
       <c r="N3" t="s"/>
       <c r="O3" t="s"/>
@@ -1213,36 +1340,38 @@
         <v>16</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44151.82904937698</v>
+        <v>44151.93638105545</v>
       </c>
       <c r="C4" t="n">
-        <v>2536</v>
+        <v>2815</v>
       </c>
       <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s">
         <v>38</v>
       </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s"/>
       <c r="M4" t="s"/>
       <c r="N4" t="s"/>
       <c r="O4" t="s"/>
@@ -1253,10 +1382,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44151.83006247543</v>
+        <v>44151.93802754779</v>
       </c>
       <c r="C5" t="n">
-        <v>1443</v>
+        <v>718</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
@@ -1271,16 +1400,16 @@
         <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s"/>
       <c r="M5" t="s"/>
@@ -1293,10 +1422,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44151.83185293891</v>
+        <v>44151.94313411813</v>
       </c>
       <c r="C6" t="n">
-        <v>2693</v>
+        <v>2215</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
@@ -1311,20 +1440,18 @@
         <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" t="s">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L6" t="s"/>
       <c r="M6" t="s"/>
       <c r="N6" t="s"/>
       <c r="O6" t="s"/>
@@ -1335,34 +1462,34 @@
         <v>16</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44151.83362222641</v>
+        <v>44151.94442237922</v>
       </c>
       <c r="C7" t="n">
-        <v>685</v>
+        <v>535</v>
       </c>
       <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
         <v>51</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>53</v>
       </c>
-      <c r="G7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s"/>
       <c r="M7" t="s"/>
@@ -1375,34 +1502,34 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44151.83487902153</v>
+        <v>44151.94580213275</v>
       </c>
       <c r="C8" t="n">
-        <v>3196</v>
+        <v>806</v>
       </c>
       <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
         <v>55</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>56</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>57</v>
       </c>
-      <c r="G8" t="s">
-        <v>58</v>
-      </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L8" t="s"/>
       <c r="M8" t="s"/>
@@ -1415,34 +1542,34 @@
         <v>16</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44151.83624468897</v>
+        <v>44151.94637683562</v>
       </c>
       <c r="C9" t="n">
-        <v>2029</v>
+        <v>2791</v>
       </c>
       <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
         <v>60</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>61</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" t="s">
         <v>62</v>
       </c>
-      <c r="G9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" t="s">
-        <v>48</v>
-      </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L9" t="s"/>
       <c r="M9" t="s"/>
@@ -1455,34 +1582,34 @@
         <v>16</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44151.83740932738</v>
+        <v>44151.94748006016</v>
       </c>
       <c r="C10" t="n">
-        <v>1013</v>
+        <v>2766</v>
       </c>
       <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
         <v>65</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>66</v>
       </c>
-      <c r="F10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" t="s">
-        <v>68</v>
-      </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L10" t="s"/>
       <c r="M10" t="s"/>
@@ -1495,36 +1622,38 @@
         <v>16</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44151.82177193287</v>
+        <v>44151.94979227074</v>
       </c>
       <c r="C11" t="n">
-        <v>3147</v>
+        <v>3684</v>
       </c>
       <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
         <v>69</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>70</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" t="s">
         <v>71</v>
       </c>
-      <c r="G11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" t="s"/>
       <c r="M11" t="s"/>
       <c r="N11" t="s"/>
       <c r="O11" t="s"/>
@@ -1535,39 +1664,39 @@
         <v>16</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44151.74385679398</v>
+        <v>44151.82759821759</v>
       </c>
       <c r="C12" t="n">
-        <v>2231</v>
+        <v>2868</v>
       </c>
       <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
         <v>73</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>74</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>75</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" t="s">
         <v>76</v>
       </c>
-      <c r="H12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" t="s"/>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
+      <c r="M12" t="s"/>
       <c r="N12" t="s"/>
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
@@ -1577,10 +1706,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44151.74608694445</v>
+        <v>44151.82841722222</v>
       </c>
       <c r="C13" t="n">
-        <v>2768</v>
+        <v>1597</v>
       </c>
       <c r="D13" t="s">
         <v>77</v>
@@ -1595,23 +1724,21 @@
         <v>80</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L13" t="s">
         <v>81</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
+      <c r="M13" t="s"/>
       <c r="N13" t="s"/>
       <c r="O13" t="s"/>
       <c r="P13" t="s"/>
@@ -1621,10 +1748,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44151.74719898148</v>
+        <v>44151.829049375</v>
       </c>
       <c r="C14" t="n">
-        <v>2788</v>
+        <v>2536</v>
       </c>
       <c r="D14" t="s">
         <v>82</v>
@@ -1639,21 +1766,19 @@
         <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
         <v>23</v>
-      </c>
-      <c r="J14" t="s">
-        <v>38</v>
       </c>
       <c r="K14" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="s"/>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
+      <c r="M14" t="s"/>
       <c r="N14" t="s"/>
       <c r="O14" t="s"/>
       <c r="P14" t="s"/>
@@ -1663,10 +1788,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44151.72016962963</v>
+        <v>44151.83006247685</v>
       </c>
       <c r="C15" t="n">
-        <v>1835</v>
+        <v>1443</v>
       </c>
       <c r="D15" t="s">
         <v>86</v>
@@ -1681,26 +1806,20 @@
         <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K15" t="s">
         <v>24</v>
       </c>
-      <c r="L15" t="s">
-        <v>90</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
+      <c r="L15" t="s"/>
+      <c r="M15" t="s"/>
+      <c r="N15" t="s"/>
       <c r="O15" t="s"/>
       <c r="P15" t="s"/>
     </row>
@@ -1709,42 +1828,40 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44151.72130056713</v>
+        <v>44151.83185293982</v>
       </c>
       <c r="C16" t="n">
-        <v>1232</v>
+        <v>2693</v>
       </c>
       <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
         <v>91</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>92</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>93</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
         <v>94</v>
       </c>
-      <c r="H16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" t="s">
-        <v>24</v>
-      </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" t="s"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="L16" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" t="s"/>
+      <c r="N16" t="s"/>
       <c r="O16" t="s"/>
       <c r="P16" t="s"/>
     </row>
@@ -1753,42 +1870,38 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44151.72318013889</v>
+        <v>44151.83362222222</v>
       </c>
       <c r="C17" t="n">
-        <v>729</v>
+        <v>685</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L17" t="s"/>
-      <c r="M17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
+      <c r="M17" t="s"/>
+      <c r="N17" t="s"/>
       <c r="O17" t="s"/>
       <c r="P17" t="s"/>
     </row>
@@ -1797,42 +1910,38 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44151.72479038194</v>
+        <v>44151.83487901621</v>
       </c>
       <c r="C18" t="n">
-        <v>980</v>
+        <v>3196</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L18" t="s"/>
-      <c r="M18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
+      <c r="M18" t="s"/>
+      <c r="N18" t="s"/>
       <c r="O18" t="s"/>
       <c r="P18" t="s"/>
     </row>
@@ -1841,42 +1950,38 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44151.7262485301</v>
+        <v>44151.8362446875</v>
       </c>
       <c r="C19" t="n">
-        <v>3296</v>
+        <v>2029</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="J19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K19" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="s"/>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
+      <c r="M19" t="s"/>
+      <c r="N19" t="s"/>
       <c r="O19" t="s"/>
       <c r="P19" t="s"/>
     </row>
@@ -1885,44 +1990,38 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44151.7274534375</v>
+        <v>44151.83740932871</v>
       </c>
       <c r="C20" t="n">
-        <v>142</v>
+        <v>1013</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="K20" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20" t="s">
-        <v>111</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L20" t="s"/>
+      <c r="M20" t="s"/>
+      <c r="N20" t="s"/>
       <c r="O20" t="s"/>
       <c r="P20" t="s"/>
     </row>
@@ -1931,42 +2030,38 @@
         <v>16</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44151.72884155092</v>
+        <v>44151.82177193287</v>
       </c>
       <c r="C21" t="n">
-        <v>500</v>
+        <v>3147</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="H21" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="I21" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="K21" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L21" t="s"/>
-      <c r="M21" t="n">
-        <v>6</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
+      <c r="M21" t="s"/>
+      <c r="N21" t="s"/>
       <c r="O21" t="s"/>
       <c r="P21" t="s"/>
     </row>
@@ -1975,44 +2070,40 @@
         <v>16</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44151.73146354167</v>
+        <v>44151.74385679398</v>
       </c>
       <c r="C22" t="n">
-        <v>1964</v>
+        <v>2231</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H22" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="I22" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" t="s">
-        <v>121</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L22" t="s"/>
       <c r="M22" t="n">
-        <v>7</v>
-      </c>
-      <c r="N22" t="n">
         <v>0</v>
       </c>
+      <c r="N22" t="s"/>
       <c r="O22" t="s"/>
       <c r="P22" t="s"/>
     </row>
@@ -2021,10 +2112,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44151.73427538195</v>
+        <v>44151.74608694445</v>
       </c>
       <c r="C23" t="n">
-        <v>321</v>
+        <v>2768</v>
       </c>
       <c r="D23" t="s">
         <v>122</v>
@@ -2039,26 +2130,24 @@
         <v>125</v>
       </c>
       <c r="H23" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="I23" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="J23" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K23" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M23" t="n">
-        <v>8</v>
-      </c>
-      <c r="N23" t="n">
         <v>0</v>
       </c>
+      <c r="N23" t="s"/>
       <c r="O23" t="s"/>
       <c r="P23" t="s"/>
     </row>
@@ -2067,42 +2156,40 @@
         <v>16</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44150.92973521991</v>
+        <v>44151.74719898148</v>
       </c>
       <c r="C24" t="n">
-        <v>3103</v>
+        <v>2788</v>
       </c>
       <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" t="s">
         <v>129</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>130</v>
-      </c>
-      <c r="F24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" t="s">
-        <v>132</v>
       </c>
       <c r="H24" t="s">
         <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="J24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L24" t="s"/>
       <c r="M24" t="n">
-        <v>9</v>
-      </c>
-      <c r="N24" t="n">
         <v>0</v>
       </c>
+      <c r="N24" t="s"/>
       <c r="O24" t="s"/>
       <c r="P24" t="s"/>
     </row>
@@ -2111,43 +2198,43 @@
         <v>16</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44150.93092240741</v>
+        <v>44151.72016962963</v>
       </c>
       <c r="C25" t="n">
-        <v>1754</v>
+        <v>1835</v>
       </c>
       <c r="D25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" t="s">
         <v>133</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>134</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" t="s">
         <v>135</v>
       </c>
-      <c r="G25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" t="s">
-        <v>137</v>
-      </c>
       <c r="M25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="s"/>
       <c r="P25" t="s"/>
@@ -2157,41 +2244,41 @@
         <v>16</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44150.93139512731</v>
+        <v>44151.72130056713</v>
       </c>
       <c r="C26" t="n">
-        <v>41</v>
+        <v>1232</v>
       </c>
       <c r="D26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" t="s">
         <v>138</v>
       </c>
-      <c r="E26" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" t="s">
-        <v>140</v>
-      </c>
       <c r="G26" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K26" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L26" t="s"/>
       <c r="M26" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O26" t="s"/>
       <c r="P26" t="s"/>
@@ -2201,41 +2288,41 @@
         <v>16</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>44150.9320803125</v>
+        <v>44151.72318013889</v>
       </c>
       <c r="C27" t="n">
-        <v>2062</v>
+        <v>729</v>
       </c>
       <c r="D27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" t="s">
         <v>142</v>
       </c>
-      <c r="E27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G27" t="s">
-        <v>145</v>
-      </c>
       <c r="H27" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" t="s">
         <v>23</v>
       </c>
-      <c r="J27" t="s">
-        <v>38</v>
-      </c>
       <c r="K27" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L27" t="s"/>
       <c r="M27" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O27" t="s"/>
       <c r="P27" t="s"/>
@@ -2245,41 +2332,41 @@
         <v>16</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>44150.93366619213</v>
+        <v>44151.72479038194</v>
       </c>
       <c r="C28" t="n">
-        <v>1509</v>
+        <v>980</v>
       </c>
       <c r="D28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" t="s">
         <v>146</v>
       </c>
-      <c r="E28" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" t="s">
-        <v>148</v>
-      </c>
-      <c r="G28" t="s">
-        <v>149</v>
-      </c>
       <c r="H28" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="J28" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="K28" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="s"/>
       <c r="M28" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O28" t="s"/>
       <c r="P28" t="s"/>
@@ -2289,41 +2376,41 @@
         <v>16</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>44150.93590909722</v>
+        <v>44151.7262485301</v>
       </c>
       <c r="C29" t="n">
-        <v>626</v>
+        <v>3296</v>
       </c>
       <c r="D29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" t="s">
         <v>150</v>
       </c>
-      <c r="E29" t="s">
-        <v>151</v>
-      </c>
-      <c r="F29" t="s">
-        <v>152</v>
-      </c>
-      <c r="G29" t="s">
-        <v>153</v>
-      </c>
       <c r="H29" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K29" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L29" t="s"/>
       <c r="M29" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O29" t="s"/>
       <c r="P29" t="s"/>
@@ -2333,43 +2420,43 @@
         <v>16</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>44150.93629255787</v>
+        <v>44151.7274534375</v>
       </c>
       <c r="C30" t="n">
-        <v>2214</v>
+        <v>142</v>
       </c>
       <c r="D30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" t="s">
         <v>154</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" t="s">
+        <v>37</v>
+      </c>
+      <c r="L30" t="s">
         <v>155</v>
       </c>
-      <c r="F30" t="s">
-        <v>156</v>
-      </c>
-      <c r="G30" t="s">
-        <v>157</v>
-      </c>
-      <c r="H30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" t="s">
-        <v>31</v>
-      </c>
-      <c r="K30" t="s">
-        <v>24</v>
-      </c>
-      <c r="L30" t="s">
-        <v>158</v>
-      </c>
       <c r="M30" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O30" t="s"/>
       <c r="P30" t="s"/>
@@ -2379,43 +2466,41 @@
         <v>16</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>44150.93726997685</v>
+        <v>44151.72884155092</v>
       </c>
       <c r="C31" t="n">
-        <v>638</v>
+        <v>500</v>
       </c>
       <c r="D31" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" t="s">
         <v>159</v>
-      </c>
-      <c r="E31" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" t="s">
-        <v>161</v>
-      </c>
-      <c r="G31" t="s">
-        <v>162</v>
-      </c>
-      <c r="H31" t="s">
-        <v>59</v>
-      </c>
-      <c r="I31" t="s">
-        <v>21</v>
       </c>
       <c r="J31" t="s">
         <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>24</v>
-      </c>
-      <c r="L31" t="s">
-        <v>163</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L31" t="s"/>
       <c r="M31" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O31" t="s"/>
       <c r="P31" t="s"/>
@@ -2425,43 +2510,43 @@
         <v>16</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>44150.93919015046</v>
+        <v>44151.73146354167</v>
       </c>
       <c r="C32" t="n">
-        <v>3128</v>
+        <v>1964</v>
       </c>
       <c r="D32" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" t="s">
+        <v>163</v>
+      </c>
+      <c r="H32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" t="s">
         <v>164</v>
       </c>
-      <c r="E32" t="s">
+      <c r="J32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" t="s">
         <v>165</v>
       </c>
-      <c r="F32" t="s">
-        <v>166</v>
-      </c>
-      <c r="G32" t="s">
-        <v>167</v>
-      </c>
-      <c r="H32" t="s">
-        <v>59</v>
-      </c>
-      <c r="I32" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" t="s">
-        <v>168</v>
-      </c>
       <c r="M32" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N32" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O32" t="s"/>
       <c r="P32" t="s"/>
@@ -2471,41 +2556,43 @@
         <v>16</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>44150.92973521991</v>
+        <v>44151.73427538195</v>
       </c>
       <c r="C33" t="n">
-        <v>3103</v>
+        <v>321</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="G33" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="H33" t="s">
+        <v>170</v>
+      </c>
+      <c r="I33" t="s">
+        <v>171</v>
+      </c>
+      <c r="J33" t="s">
         <v>21</v>
       </c>
-      <c r="I33" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" t="s">
-        <v>24</v>
-      </c>
       <c r="K33" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="L33" t="s">
+        <v>172</v>
+      </c>
       <c r="M33" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N33" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O33" t="s"/>
       <c r="P33" t="s"/>
@@ -2515,43 +2602,41 @@
         <v>16</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44150.93092240741</v>
+        <v>44150.92973521991</v>
       </c>
       <c r="C34" t="n">
-        <v>1754</v>
+        <v>3103</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="E34" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="F34" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="G34" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="H34" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="J34" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="K34" t="s">
-        <v>24</v>
-      </c>
-      <c r="L34" t="s">
-        <v>137</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L34" t="s"/>
       <c r="M34" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N34" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O34" t="s"/>
       <c r="P34" t="s"/>
@@ -2561,41 +2646,43 @@
         <v>16</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44150.93139512731</v>
+        <v>44150.93092240741</v>
       </c>
       <c r="C35" t="n">
-        <v>41</v>
+        <v>1754</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="G35" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="J35" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="K35" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="L35" t="s">
+        <v>181</v>
+      </c>
       <c r="M35" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N35" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O35" t="s"/>
       <c r="P35" t="s"/>
@@ -2605,41 +2692,41 @@
         <v>16</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44150.9320803125</v>
+        <v>44150.93139512731</v>
       </c>
       <c r="C36" t="n">
-        <v>2062</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="E36" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="F36" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="G36" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="H36" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I36" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K36" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L36" t="s"/>
       <c r="M36" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N36" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="O36" t="s"/>
       <c r="P36" t="s"/>
@@ -2649,41 +2736,41 @@
         <v>16</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44150.93366619213</v>
+        <v>44150.9320803125</v>
       </c>
       <c r="C37" t="n">
-        <v>1509</v>
+        <v>2062</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="F37" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="G37" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="H37" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I37" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="J37" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="K37" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L37" t="s"/>
       <c r="M37" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="N37" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="O37" t="s"/>
       <c r="P37" t="s"/>
@@ -2693,41 +2780,41 @@
         <v>16</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>44150.93590909722</v>
+        <v>44150.93366619213</v>
       </c>
       <c r="C38" t="n">
-        <v>626</v>
+        <v>1509</v>
       </c>
       <c r="D38" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="E38" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="F38" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="G38" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I38" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K38" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L38" t="s"/>
       <c r="M38" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N38" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="O38" t="s"/>
       <c r="P38" t="s"/>
@@ -2737,43 +2824,41 @@
         <v>16</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>44150.93629255787</v>
+        <v>44150.93590909722</v>
       </c>
       <c r="C39" t="n">
-        <v>2214</v>
+        <v>626</v>
       </c>
       <c r="D39" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="E39" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="F39" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="G39" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="H39" t="s">
         <v>30</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J39" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K39" t="s">
         <v>24</v>
       </c>
-      <c r="L39" t="s">
-        <v>158</v>
-      </c>
+      <c r="L39" t="s"/>
       <c r="M39" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N39" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="O39" t="s"/>
       <c r="P39" t="s"/>
@@ -2783,43 +2868,43 @@
         <v>16</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44150.93726997685</v>
+        <v>44150.93629255787</v>
       </c>
       <c r="C40" t="n">
-        <v>638</v>
+        <v>2214</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="F40" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="G40" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" t="s">
         <v>21</v>
       </c>
-      <c r="J40" t="s">
-        <v>23</v>
-      </c>
       <c r="K40" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L40" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="M40" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N40" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="O40" t="s"/>
       <c r="P40" t="s"/>
@@ -2829,43 +2914,43 @@
         <v>16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44150.93919015046</v>
+        <v>44150.93726997685</v>
       </c>
       <c r="C41" t="n">
-        <v>3128</v>
+        <v>638</v>
       </c>
       <c r="D41" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="F41" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="G41" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I41" t="s">
         <v>24</v>
       </c>
       <c r="J41" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="K41" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L41" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="M41" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N41" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="O41" t="s"/>
       <c r="P41" t="s"/>
@@ -2875,45 +2960,45 @@
         <v>16</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44150.91491172454</v>
+        <v>44150.93919015046</v>
       </c>
       <c r="C42" t="n">
-        <v>219</v>
+        <v>3128</v>
       </c>
       <c r="D42" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="E42" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="F42" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="G42" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="H42" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I42" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J42" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="K42" t="s">
-        <v>24</v>
-      </c>
-      <c r="L42" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="L42" t="s">
+        <v>212</v>
+      </c>
       <c r="M42" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N42" t="n">
-        <v>18</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="O42" t="s"/>
       <c r="P42" t="s"/>
     </row>
     <row r="43" spans="1:16">
@@ -2921,10 +3006,10 @@
         <v>16</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44150.9158749537</v>
+        <v>44150.92973521991</v>
       </c>
       <c r="C43" t="n">
-        <v>3291</v>
+        <v>3103</v>
       </c>
       <c r="D43" t="s">
         <v>173</v>
@@ -2939,27 +3024,25 @@
         <v>176</v>
       </c>
       <c r="H43" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K43" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L43" t="s"/>
       <c r="M43" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N43" t="n">
-        <v>19</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="O43" t="s"/>
       <c r="P43" t="s"/>
     </row>
     <row r="44" spans="1:16">
@@ -2967,10 +3050,10 @@
         <v>16</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44150.91647944444</v>
+        <v>44150.93092240741</v>
       </c>
       <c r="C44" t="n">
-        <v>2337</v>
+        <v>1754</v>
       </c>
       <c r="D44" t="s">
         <v>177</v>
@@ -2985,29 +3068,27 @@
         <v>180</v>
       </c>
       <c r="H44" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="J44" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="K44" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L44" t="s">
         <v>181</v>
       </c>
       <c r="M44" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N44" t="n">
-        <v>20</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O44" t="s"/>
       <c r="P44" t="s"/>
     </row>
     <row r="45" spans="1:16">
@@ -3015,10 +3096,10 @@
         <v>16</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44150.91708795139</v>
+        <v>44150.93139512731</v>
       </c>
       <c r="C45" t="n">
-        <v>3783</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
         <v>182</v>
@@ -3033,29 +3114,25 @@
         <v>185</v>
       </c>
       <c r="H45" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I45" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="J45" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K45" t="s">
-        <v>24</v>
-      </c>
-      <c r="L45" t="s">
-        <v>186</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L45" t="s"/>
       <c r="M45" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N45" t="n">
-        <v>21</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="O45" t="s"/>
       <c r="P45" t="s"/>
     </row>
     <row r="46" spans="1:16">
@@ -3063,45 +3140,43 @@
         <v>16</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44150.91861394676</v>
+        <v>44150.9320803125</v>
       </c>
       <c r="C46" t="n">
-        <v>2088</v>
+        <v>2062</v>
       </c>
       <c r="D46" t="s">
+        <v>186</v>
+      </c>
+      <c r="E46" t="s">
         <v>187</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>188</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>189</v>
       </c>
-      <c r="G46" t="s">
-        <v>190</v>
-      </c>
       <c r="H46" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I46" t="s">
+        <v>62</v>
+      </c>
+      <c r="J46" t="s">
         <v>23</v>
       </c>
-      <c r="J46" t="s">
-        <v>38</v>
-      </c>
       <c r="K46" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L46" t="s"/>
       <c r="M46" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N46" t="n">
-        <v>22</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="O46" t="s"/>
       <c r="P46" t="s"/>
     </row>
     <row r="47" spans="1:16">
@@ -3109,47 +3184,43 @@
         <v>16</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44150.91975104166</v>
+        <v>44150.93366619213</v>
       </c>
       <c r="C47" t="n">
-        <v>3686</v>
+        <v>1509</v>
       </c>
       <c r="D47" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" t="s">
         <v>191</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>192</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>193</v>
       </c>
-      <c r="G47" t="s">
-        <v>194</v>
-      </c>
       <c r="H47" t="s">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="I47" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="J47" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="K47" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" t="s">
-        <v>196</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L47" t="s"/>
       <c r="M47" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N47" t="n">
-        <v>23</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="O47" t="s"/>
       <c r="P47" t="s"/>
     </row>
     <row r="48" spans="1:16">
@@ -3157,47 +3228,43 @@
         <v>16</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44150.92170524305</v>
+        <v>44150.93590909722</v>
       </c>
       <c r="C48" t="n">
-        <v>2853</v>
+        <v>626</v>
       </c>
       <c r="D48" t="s">
+        <v>194</v>
+      </c>
+      <c r="E48" t="s">
+        <v>195</v>
+      </c>
+      <c r="F48" t="s">
+        <v>196</v>
+      </c>
+      <c r="G48" t="s">
         <v>197</v>
       </c>
-      <c r="E48" t="s">
-        <v>198</v>
-      </c>
-      <c r="F48" t="s">
-        <v>199</v>
-      </c>
-      <c r="G48" t="s">
-        <v>200</v>
-      </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J48" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K48" t="s">
         <v>24</v>
       </c>
-      <c r="L48" t="s">
-        <v>201</v>
-      </c>
+      <c r="L48" t="s"/>
       <c r="M48" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N48" t="n">
-        <v>24</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="O48" t="s"/>
       <c r="P48" t="s"/>
     </row>
     <row r="49" spans="1:16">
@@ -3205,45 +3272,45 @@
         <v>16</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44150.92246048611</v>
+        <v>44150.93629255787</v>
       </c>
       <c r="C49" t="n">
-        <v>2899</v>
+        <v>2214</v>
       </c>
       <c r="D49" t="s">
+        <v>198</v>
+      </c>
+      <c r="E49" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49" t="s">
+        <v>200</v>
+      </c>
+      <c r="G49" t="s">
+        <v>201</v>
+      </c>
+      <c r="H49" t="s">
+        <v>48</v>
+      </c>
+      <c r="I49" t="s">
+        <v>35</v>
+      </c>
+      <c r="J49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" t="s">
+        <v>37</v>
+      </c>
+      <c r="L49" t="s">
         <v>202</v>
       </c>
-      <c r="E49" t="s">
-        <v>203</v>
-      </c>
-      <c r="F49" t="s">
-        <v>204</v>
-      </c>
-      <c r="G49" t="s">
-        <v>205</v>
-      </c>
-      <c r="H49" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="M49" t="n">
         <v>24</v>
       </c>
-      <c r="K49" t="s">
-        <v>24</v>
-      </c>
-      <c r="L49" t="s"/>
-      <c r="M49" t="n">
-        <v>34</v>
-      </c>
       <c r="N49" t="n">
-        <v>25</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="O49" t="s"/>
       <c r="P49" t="s"/>
     </row>
     <row r="50" spans="1:16">
@@ -3251,45 +3318,45 @@
         <v>16</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44150.92315710648</v>
+        <v>44150.93726997685</v>
       </c>
       <c r="C50" t="n">
-        <v>429</v>
+        <v>638</v>
       </c>
       <c r="D50" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" t="s">
+        <v>204</v>
+      </c>
+      <c r="F50" t="s">
+        <v>205</v>
+      </c>
+      <c r="G50" t="s">
         <v>206</v>
       </c>
-      <c r="E50" t="s">
+      <c r="H50" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" t="s">
+        <v>62</v>
+      </c>
+      <c r="K50" t="s">
+        <v>37</v>
+      </c>
+      <c r="L50" t="s">
         <v>207</v>
       </c>
-      <c r="F50" t="s">
-        <v>208</v>
-      </c>
-      <c r="G50" t="s">
-        <v>209</v>
-      </c>
-      <c r="H50" t="s">
-        <v>210</v>
-      </c>
-      <c r="I50" t="s">
-        <v>22</v>
-      </c>
-      <c r="J50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K50" t="s">
-        <v>24</v>
-      </c>
-      <c r="L50" t="s"/>
       <c r="M50" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N50" t="n">
-        <v>26</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="O50" t="s"/>
       <c r="P50" t="s"/>
     </row>
     <row r="51" spans="1:16">
@@ -3297,45 +3364,45 @@
         <v>16</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44150.92537696759</v>
+        <v>44150.93919015046</v>
       </c>
       <c r="C51" t="n">
-        <v>931</v>
+        <v>3128</v>
       </c>
       <c r="D51" t="s">
+        <v>208</v>
+      </c>
+      <c r="E51" t="s">
+        <v>209</v>
+      </c>
+      <c r="F51" t="s">
+        <v>210</v>
+      </c>
+      <c r="G51" t="s">
         <v>211</v>
       </c>
-      <c r="E51" t="s">
+      <c r="H51" t="s">
+        <v>30</v>
+      </c>
+      <c r="I51" t="s">
+        <v>37</v>
+      </c>
+      <c r="J51" t="s">
+        <v>62</v>
+      </c>
+      <c r="K51" t="s">
+        <v>37</v>
+      </c>
+      <c r="L51" t="s">
         <v>212</v>
       </c>
-      <c r="F51" t="s">
-        <v>213</v>
-      </c>
-      <c r="G51" t="s">
-        <v>214</v>
-      </c>
-      <c r="H51" t="s">
-        <v>59</v>
-      </c>
-      <c r="I51" t="s">
-        <v>215</v>
-      </c>
-      <c r="J51" t="s">
-        <v>43</v>
-      </c>
-      <c r="K51" t="s">
-        <v>21</v>
-      </c>
-      <c r="L51" t="s"/>
       <c r="M51" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N51" t="n">
-        <v>27</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="O51" t="s"/>
       <c r="P51" t="s"/>
     </row>
     <row r="52" spans="1:16">
@@ -3343,194 +3410,662 @@
         <v>16</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44147.90281010417</v>
+        <v>44150.91491172454</v>
       </c>
       <c r="C52" t="n">
-        <v>1283</v>
+        <v>219</v>
       </c>
       <c r="D52" t="s">
+        <v>213</v>
+      </c>
+      <c r="E52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F52" t="s">
+        <v>215</v>
+      </c>
+      <c r="G52" t="s">
         <v>216</v>
       </c>
-      <c r="E52" t="s">
-        <v>217</v>
-      </c>
-      <c r="F52" t="s">
-        <v>218</v>
-      </c>
-      <c r="G52" t="s">
-        <v>214</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2</v>
+      <c r="H52" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" t="s">
+        <v>37</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1</v>
-      </c>
-      <c r="L52" t="s">
-        <v>219</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K52" t="s">
+        <v>37</v>
+      </c>
+      <c r="L52" t="s"/>
       <c r="M52" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N52" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
       </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
+      <c r="P52" t="s"/>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44147.90575298611</v>
+        <v>44150.9158749537</v>
       </c>
       <c r="C53" t="n">
-        <v>2569</v>
+        <v>3291</v>
       </c>
       <c r="D53" t="s">
+        <v>217</v>
+      </c>
+      <c r="E53" t="s">
+        <v>218</v>
+      </c>
+      <c r="F53" t="s">
+        <v>219</v>
+      </c>
+      <c r="G53" t="s">
         <v>220</v>
       </c>
-      <c r="E53" t="s">
-        <v>221</v>
-      </c>
-      <c r="F53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G53" t="s">
-        <v>223</v>
-      </c>
-      <c r="H53" t="n">
-        <v>7</v>
-      </c>
-      <c r="I53" t="n">
-        <v>5</v>
+      <c r="H53" t="s">
+        <v>53</v>
+      </c>
+      <c r="I53" t="s">
+        <v>53</v>
       </c>
       <c r="J53" t="s">
         <v>23</v>
       </c>
-      <c r="K53" t="n">
-        <v>3</v>
-      </c>
-      <c r="L53" t="s">
-        <v>224</v>
-      </c>
+      <c r="K53" t="s">
+        <v>36</v>
+      </c>
+      <c r="L53" t="s"/>
       <c r="M53" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N53" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
-      </c>
-      <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="P53" t="s"/>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" t="s">
         <v>16</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44147.90636120371</v>
+        <v>44150.91647944444</v>
       </c>
       <c r="C54" t="n">
-        <v>3552</v>
+        <v>2337</v>
       </c>
       <c r="D54" t="s">
+        <v>221</v>
+      </c>
+      <c r="E54" t="s">
+        <v>222</v>
+      </c>
+      <c r="F54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G54" t="s">
+        <v>224</v>
+      </c>
+      <c r="H54" t="s">
+        <v>48</v>
+      </c>
+      <c r="I54" t="s">
+        <v>35</v>
+      </c>
+      <c r="J54" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" t="s">
+        <v>37</v>
+      </c>
+      <c r="L54" t="s">
         <v>225</v>
       </c>
-      <c r="E54" t="s">
-        <v>226</v>
-      </c>
-      <c r="F54" t="s">
-        <v>227</v>
-      </c>
-      <c r="G54" t="s">
-        <v>228</v>
-      </c>
-      <c r="H54" t="n">
+      <c r="M54" t="n">
+        <v>29</v>
+      </c>
+      <c r="N54" t="n">
+        <v>20</v>
+      </c>
+      <c r="O54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>3</v>
-      </c>
-      <c r="J54" t="s">
-        <v>31</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L54" t="s"/>
-      <c r="M54" t="n">
-        <v>39</v>
-      </c>
-      <c r="N54" t="n">
-        <v>30</v>
-      </c>
-      <c r="O54" t="n">
-        <v>2</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0</v>
-      </c>
+      <c r="P54" t="s"/>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" t="s">
         <v>16</v>
       </c>
       <c r="B55" s="2" t="n">
+        <v>44150.91708795139</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3783</v>
+      </c>
+      <c r="D55" t="s">
+        <v>226</v>
+      </c>
+      <c r="E55" t="s">
+        <v>227</v>
+      </c>
+      <c r="F55" t="s">
+        <v>228</v>
+      </c>
+      <c r="G55" t="s">
+        <v>229</v>
+      </c>
+      <c r="H55" t="s">
+        <v>48</v>
+      </c>
+      <c r="I55" t="s">
+        <v>35</v>
+      </c>
+      <c r="J55" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" t="s">
+        <v>37</v>
+      </c>
+      <c r="L55" t="s">
+        <v>230</v>
+      </c>
+      <c r="M55" t="n">
+        <v>30</v>
+      </c>
+      <c r="N55" t="n">
+        <v>21</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="s"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>44150.91861394676</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2088</v>
+      </c>
+      <c r="D56" t="s">
+        <v>231</v>
+      </c>
+      <c r="E56" t="s">
+        <v>232</v>
+      </c>
+      <c r="F56" t="s">
+        <v>233</v>
+      </c>
+      <c r="G56" t="s">
+        <v>234</v>
+      </c>
+      <c r="H56" t="s">
+        <v>53</v>
+      </c>
+      <c r="I56" t="s">
+        <v>62</v>
+      </c>
+      <c r="J56" t="s">
+        <v>23</v>
+      </c>
+      <c r="K56" t="s">
+        <v>37</v>
+      </c>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>31</v>
+      </c>
+      <c r="N56" t="n">
+        <v>22</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="s"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>44150.91975104166</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3686</v>
+      </c>
+      <c r="D57" t="s">
+        <v>235</v>
+      </c>
+      <c r="E57" t="s">
+        <v>236</v>
+      </c>
+      <c r="F57" t="s">
+        <v>237</v>
+      </c>
+      <c r="G57" t="s">
+        <v>238</v>
+      </c>
+      <c r="H57" t="s">
+        <v>43</v>
+      </c>
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" t="s">
+        <v>37</v>
+      </c>
+      <c r="L57" t="s">
+        <v>239</v>
+      </c>
+      <c r="M57" t="n">
+        <v>32</v>
+      </c>
+      <c r="N57" t="n">
+        <v>23</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="s"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>44150.92170524305</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2853</v>
+      </c>
+      <c r="D58" t="s">
+        <v>240</v>
+      </c>
+      <c r="E58" t="s">
+        <v>241</v>
+      </c>
+      <c r="F58" t="s">
+        <v>242</v>
+      </c>
+      <c r="G58" t="s">
+        <v>243</v>
+      </c>
+      <c r="H58" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" t="s">
+        <v>35</v>
+      </c>
+      <c r="J58" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" t="s">
+        <v>37</v>
+      </c>
+      <c r="L58" t="s">
+        <v>244</v>
+      </c>
+      <c r="M58" t="n">
+        <v>33</v>
+      </c>
+      <c r="N58" t="n">
+        <v>24</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="s"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>44150.92246048611</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2899</v>
+      </c>
+      <c r="D59" t="s">
+        <v>245</v>
+      </c>
+      <c r="E59" t="s">
+        <v>246</v>
+      </c>
+      <c r="F59" t="s">
+        <v>247</v>
+      </c>
+      <c r="G59" t="s">
+        <v>248</v>
+      </c>
+      <c r="H59" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" t="s">
+        <v>35</v>
+      </c>
+      <c r="J59" t="s">
+        <v>37</v>
+      </c>
+      <c r="K59" t="s">
+        <v>37</v>
+      </c>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>34</v>
+      </c>
+      <c r="N59" t="n">
+        <v>25</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="s"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>44150.92315710648</v>
+      </c>
+      <c r="C60" t="n">
+        <v>429</v>
+      </c>
+      <c r="D60" t="s">
+        <v>249</v>
+      </c>
+      <c r="E60" t="s">
+        <v>250</v>
+      </c>
+      <c r="F60" t="s">
+        <v>251</v>
+      </c>
+      <c r="G60" t="s">
+        <v>252</v>
+      </c>
+      <c r="H60" t="s">
+        <v>253</v>
+      </c>
+      <c r="I60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J60" t="s">
+        <v>94</v>
+      </c>
+      <c r="K60" t="s">
+        <v>37</v>
+      </c>
+      <c r="L60" t="s"/>
+      <c r="M60" t="n">
+        <v>35</v>
+      </c>
+      <c r="N60" t="n">
+        <v>26</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="s"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>44150.92537696759</v>
+      </c>
+      <c r="C61" t="n">
+        <v>931</v>
+      </c>
+      <c r="D61" t="s">
+        <v>254</v>
+      </c>
+      <c r="E61" t="s">
+        <v>255</v>
+      </c>
+      <c r="F61" t="s">
+        <v>256</v>
+      </c>
+      <c r="G61" t="s">
+        <v>257</v>
+      </c>
+      <c r="H61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" t="s">
+        <v>258</v>
+      </c>
+      <c r="J61" t="s">
+        <v>36</v>
+      </c>
+      <c r="K61" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>36</v>
+      </c>
+      <c r="N61" t="n">
+        <v>27</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="s"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>44147.90281010417</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1283</v>
+      </c>
+      <c r="D62" t="s">
+        <v>259</v>
+      </c>
+      <c r="E62" t="s">
+        <v>260</v>
+      </c>
+      <c r="F62" t="s">
+        <v>261</v>
+      </c>
+      <c r="G62" t="s">
+        <v>257</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
+        <v>262</v>
+      </c>
+      <c r="M62" t="n">
+        <v>37</v>
+      </c>
+      <c r="N62" t="n">
+        <v>28</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>44147.90575298611</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2569</v>
+      </c>
+      <c r="D63" t="s">
+        <v>263</v>
+      </c>
+      <c r="E63" t="s">
+        <v>264</v>
+      </c>
+      <c r="F63" t="s">
+        <v>265</v>
+      </c>
+      <c r="G63" t="s">
+        <v>266</v>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5</v>
+      </c>
+      <c r="J63" t="s">
+        <v>62</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3</v>
+      </c>
+      <c r="L63" t="s">
+        <v>267</v>
+      </c>
+      <c r="M63" t="n">
+        <v>38</v>
+      </c>
+      <c r="N63" t="n">
+        <v>29</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>44147.90636120371</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3552</v>
+      </c>
+      <c r="D64" t="s">
+        <v>268</v>
+      </c>
+      <c r="E64" t="s">
+        <v>269</v>
+      </c>
+      <c r="F64" t="s">
+        <v>270</v>
+      </c>
+      <c r="G64" t="s">
+        <v>271</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>39</v>
+      </c>
+      <c r="N64" t="n">
+        <v>30</v>
+      </c>
+      <c r="O64" t="n">
+        <v>2</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="2" t="n">
         <v>44147.90702556713</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C65" t="n">
         <v>2926</v>
       </c>
-      <c r="D55" t="s">
-        <v>229</v>
-      </c>
-      <c r="E55" t="s">
-        <v>230</v>
-      </c>
-      <c r="F55" t="s">
-        <v>231</v>
-      </c>
-      <c r="G55" t="s">
-        <v>232</v>
-      </c>
-      <c r="H55" t="n">
+      <c r="D65" t="s">
+        <v>272</v>
+      </c>
+      <c r="E65" t="s">
+        <v>273</v>
+      </c>
+      <c r="F65" t="s">
+        <v>274</v>
+      </c>
+      <c r="G65" t="s">
+        <v>275</v>
+      </c>
+      <c r="H65" t="n">
         <v>1</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I65" t="n">
         <v>9</v>
       </c>
-      <c r="J55" t="s">
-        <v>24</v>
-      </c>
-      <c r="K55" t="n">
+      <c r="J65" t="s">
+        <v>37</v>
+      </c>
+      <c r="K65" t="n">
         <v>3</v>
       </c>
-      <c r="L55" t="s"/>
-      <c r="M55" t="n">
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
         <v>40</v>
       </c>
-      <c r="N55" t="n">
+      <c r="N65" t="n">
         <v>31</v>
       </c>
-      <c r="O55" t="n">
+      <c r="O65" t="n">
         <v>3</v>
       </c>
-      <c r="P55" t="n">
+      <c r="P65" t="n">
         <v>0</v>
       </c>
     </row>

--- a/classification-record/session-all-models-combined.xlsx
+++ b/classification-record/session-all-models-combined.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="357">
   <si>
     <t>Name</t>
   </si>
@@ -68,6 +68,291 @@
     <t>Alex</t>
   </si>
   <si>
+    <t>CDC Finds Possible Cause For Vaping Illness | TODAY</t>
+  </si>
+  <si>
+    <t>1SN29DItlzU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1SN29DItlzU</t>
+  </si>
+  <si>
+    <t>TODAY</t>
+  </si>
+  <si>
+    <t>1 2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Difference PG vs VG Ejuice? Safe? Side Effects?</t>
+  </si>
+  <si>
+    <t>rN4tnJR4BcQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rN4tnJR4BcQ</t>
+  </si>
+  <si>
+    <t>VapePowered</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>vape review / information website (shut down)</t>
+  </si>
+  <si>
+    <t>Vape Dinner Lady Disposable E-Cigarette | Consumer Reactions – Vapers</t>
+  </si>
+  <si>
+    <t>nECVRD9vKow</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nECVRD9vKow</t>
+  </si>
+  <si>
+    <t>Vape Dinner Lady</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1 6</t>
+  </si>
+  <si>
+    <t>ejuice maker</t>
+  </si>
+  <si>
+    <t>How to clean and re-use your sub-ohm e-cig coils</t>
+  </si>
+  <si>
+    <t>IcUA3YmUzpk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IcUA3YmUzpk</t>
+  </si>
+  <si>
+    <t>Mr Baz Reviews</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>DNA250c Passthrough DIY Box Mod Build</t>
+  </si>
+  <si>
+    <t>O47rBfcwyFw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O47rBfcwyFw</t>
+  </si>
+  <si>
+    <t>Analog Box Mods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">also manufactures box mod kits </t>
+  </si>
+  <si>
+    <t>Top 5 Best Oil Vape Pens of 2019</t>
+  </si>
+  <si>
+    <t>OyDk3o2pDSA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OyDk3o2pDSA</t>
+  </si>
+  <si>
+    <t>TVAPE</t>
+  </si>
+  <si>
+    <t>Triple Seven 777 E-cigs: Standard Starter Kit Review</t>
+  </si>
+  <si>
+    <t>Sh-eBMxS8iU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Sh-eBMxS8iU</t>
+  </si>
+  <si>
+    <t>Darth Vapor Reviews</t>
+  </si>
+  <si>
+    <t>2 4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>TasteBuddies 42 - The "Future" of Vaping</t>
+  </si>
+  <si>
+    <t>Wha91NtcA78</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Wha91NtcA78</t>
+  </si>
+  <si>
+    <t>Jay and Luke are Bored</t>
+  </si>
+  <si>
+    <t>Q&amp;A: Top 7 Questions asked about Cartridge Vape Pens - Know your Oil Battery Better (2020)</t>
+  </si>
+  <si>
+    <t>5i_US9Kd7YI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5i_US9Kd7YI</t>
+  </si>
+  <si>
+    <t>Got Vape</t>
+  </si>
+  <si>
+    <t>What's The BEST Vape Pen Cartridge?</t>
+  </si>
+  <si>
+    <t>mx4TXGv56Ng</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mx4TXGv56Ng</t>
+  </si>
+  <si>
+    <t>That High Couple</t>
+  </si>
+  <si>
+    <t>Loyle Carner, Jorja Smith - Loose Ends (Audio)</t>
+  </si>
+  <si>
+    <t>Cunh5tei4Dg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Cunh5tei4Dg</t>
+  </si>
+  <si>
+    <t>LoyleCarnerVEVO</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">music video </t>
+  </si>
+  <si>
+    <t>Disposable Nano Vape Pod</t>
+  </si>
+  <si>
+    <t>9clMamb0wpI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9clMamb0wpI</t>
+  </si>
+  <si>
+    <t>Green Winch</t>
+  </si>
+  <si>
+    <t>Flavormax Disposable Oil Pen by HoneyStick | Disposable Oil Vaporizer  Features | How To Use</t>
+  </si>
+  <si>
+    <t>fvCQ-DDJT6c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fvCQ-DDJT6c</t>
+  </si>
+  <si>
+    <t>VapeHoneyStick</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>SCNDRL Vape Mod Battery Rattle Fix Scoundrel Mechanical Mod Team Knucklehead</t>
+  </si>
+  <si>
+    <t>s3Ho0lZ_6wU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s3Ho0lZ_6wU</t>
+  </si>
+  <si>
+    <t>Ralfy Knucklehead</t>
+  </si>
+  <si>
+    <t>Ohm Vape Ohm AIO Pod System Kit Unboxing&amp;Review (Vapesourcing Review)</t>
+  </si>
+  <si>
+    <t>D-YeaBsyKds</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D-YeaBsyKds</t>
+  </si>
+  <si>
+    <t>Vapesourcing</t>
+  </si>
+  <si>
+    <t>END - Necessary Death [OFFICIAL VIDEO]</t>
+  </si>
+  <si>
+    <t>ymTseMd56x4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ymTseMd56x4</t>
+  </si>
+  <si>
+    <t>Good Fight Music</t>
+  </si>
+  <si>
+    <t>small music conglomorate</t>
+  </si>
+  <si>
+    <t>The Smoker's Halo ECigarette: What's in the box, and how to use it</t>
+  </si>
+  <si>
+    <t>JDuu7LRzs-s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JDuu7LRzs-s</t>
+  </si>
+  <si>
+    <t>ECigaretteDirect</t>
+  </si>
+  <si>
+    <t>0 2</t>
+  </si>
+  <si>
+    <t>Ozzy Osbourne - Today Is The End (Audio)</t>
+  </si>
+  <si>
+    <t>5HFCItyjCig</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5HFCItyjCig</t>
+  </si>
+  <si>
+    <t>OzzyOsbourneVEVO</t>
+  </si>
+  <si>
+    <t>music video / personal music channel</t>
+  </si>
+  <si>
     <t>TURNING CONCENTRATES (DABS) INTO E-LIQUID!!</t>
   </si>
   <si>
@@ -80,18 +365,9 @@
     <t>HighImCody_</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>1 8</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t xml:space="preserve">dab rig </t>
   </si>
   <si>
@@ -107,9 +383,6 @@
     <t>Titan Vapes</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>INSANE VAPE JUICE EXPERIMENT</t>
   </si>
   <si>
@@ -122,15 +395,6 @@
     <t>Ryan Hall</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>0 1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t xml:space="preserve">entertainment, mixing a bunch of eliquids together for fun </t>
   </si>
   <si>
@@ -146,9 +410,6 @@
     <t>MR. GOLD</t>
   </si>
   <si>
-    <t>3 7</t>
-  </si>
-  <si>
     <t>Ordinary People try High-End Headphones - Part 1</t>
   </si>
   <si>
@@ -161,9 +422,6 @@
     <t>Currawong</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>The BEST Mango E-Liquid? Vape Chemist Philippine Mango Review! VapingwithTwisted420</t>
   </si>
   <si>
@@ -176,9 +434,6 @@
     <t>VapingwithTwisted420</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Odin DNA250c 21700 By Vaping Bogan - Dovpo - Vaperz Cloud</t>
   </si>
   <si>
@@ -203,9 +458,6 @@
     <t>steve's hypebeast and sneaker reviews</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Mr Fog Max Blue Raspberry Lemon Disposable Vape Review!</t>
   </si>
   <si>
@@ -299,9 +551,6 @@
     <t>Vessel Brand</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>0 1 6</t>
   </si>
   <si>
@@ -776,9 +1025,6 @@
     <t>Regulator Watch</t>
   </si>
   <si>
-    <t>1 2</t>
-  </si>
-  <si>
     <t>Cigalike E cigs - Using Your Starter Kit Essential - 180 Smoke Visual Help Desk</t>
   </si>
   <si>
@@ -789,9 +1035,6 @@
   </si>
   <si>
     <t>180 SMOKE VAPE STORE</t>
-  </si>
-  <si>
-    <t>0 2</t>
   </si>
   <si>
     <t>SMOK RPM40: The Real Pod Mod?</t>
@@ -1195,7 +1438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1258,10 +1501,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44151.93301048483</v>
+        <v>44152.72548279823</v>
       </c>
       <c r="C2" t="n">
-        <v>492</v>
+        <v>2161</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1287,9 +1530,7 @@
       <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
+      <c r="L2" t="s"/>
       <c r="M2" t="s"/>
       <c r="N2" t="s"/>
       <c r="O2" t="s"/>
@@ -1300,36 +1541,38 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44151.93445606962</v>
+        <v>44152.72664764315</v>
       </c>
       <c r="C3" t="n">
-        <v>447</v>
+        <v>543</v>
       </c>
       <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s"/>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
       <c r="M3" t="s"/>
       <c r="N3" t="s"/>
       <c r="O3" t="s"/>
@@ -1340,37 +1583,37 @@
         <v>16</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44151.93638105545</v>
+        <v>44152.72759101521</v>
       </c>
       <c r="C4" t="n">
-        <v>2815</v>
+        <v>1538</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s"/>
       <c r="N4" t="s"/>
@@ -1382,34 +1625,34 @@
         <v>16</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44151.93802754779</v>
+        <v>44152.72848204005</v>
       </c>
       <c r="C5" t="n">
-        <v>718</v>
+        <v>2414</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s"/>
       <c r="M5" t="s"/>
@@ -1422,36 +1665,38 @@
         <v>16</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44151.94313411813</v>
+        <v>44152.72958726111</v>
       </c>
       <c r="C6" t="n">
-        <v>2215</v>
+        <v>2605</v>
       </c>
       <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
       <c r="M6" t="s"/>
       <c r="N6" t="s"/>
       <c r="O6" t="s"/>
@@ -1462,34 +1707,34 @@
         <v>16</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44151.94442237922</v>
+        <v>44152.73096271472</v>
       </c>
       <c r="C7" t="n">
-        <v>535</v>
+        <v>1103</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s"/>
       <c r="M7" t="s"/>
@@ -1502,36 +1747,38 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44151.94580213275</v>
+        <v>44152.73173263772</v>
       </c>
       <c r="C8" t="n">
-        <v>806</v>
+        <v>3304</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>61</v>
+      </c>
       <c r="M8" t="s"/>
       <c r="N8" t="s"/>
       <c r="O8" t="s"/>
@@ -1542,34 +1789,34 @@
         <v>16</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44151.94637683562</v>
+        <v>44152.73314684335</v>
       </c>
       <c r="C9" t="n">
-        <v>2791</v>
+        <v>3288</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s">
         <v>60</v>
       </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s"/>
       <c r="M9" t="s"/>
@@ -1582,34 +1829,34 @@
         <v>16</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44151.94748006016</v>
+        <v>44152.73443137346</v>
       </c>
       <c r="C10" t="n">
-        <v>2766</v>
+        <v>2020</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s"/>
       <c r="M10" t="s"/>
@@ -1622,38 +1869,36 @@
         <v>16</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44151.94979227074</v>
+        <v>44152.73524858947</v>
       </c>
       <c r="C11" t="n">
-        <v>3684</v>
+        <v>1202</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" t="s">
-        <v>71</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L11" t="s"/>
       <c r="M11" t="s"/>
       <c r="N11" t="s"/>
       <c r="O11" t="s"/>
@@ -1664,37 +1909,37 @@
         <v>16</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44151.82759821759</v>
+        <v>44152.73578271185</v>
       </c>
       <c r="C12" t="n">
-        <v>2868</v>
+        <v>3204</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M12" t="s"/>
       <c r="N12" t="s"/>
@@ -1706,38 +1951,36 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44151.82841722222</v>
+        <v>44152.7364304142</v>
       </c>
       <c r="C13" t="n">
-        <v>1597</v>
+        <v>2287</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="K13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" t="s">
-        <v>81</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L13" t="s"/>
       <c r="M13" t="s"/>
       <c r="N13" t="s"/>
       <c r="O13" t="s"/>
@@ -1748,34 +1991,34 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44151.829049375</v>
+        <v>44152.7371413533</v>
       </c>
       <c r="C14" t="n">
-        <v>2536</v>
+        <v>3155</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L14" t="s"/>
       <c r="M14" t="s"/>
@@ -1788,31 +2031,31 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44151.83006247685</v>
+        <v>44152.73811591203</v>
       </c>
       <c r="C15" t="n">
-        <v>1443</v>
+        <v>2602</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K15" t="s">
         <v>24</v>
@@ -1828,38 +2071,36 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44151.83185293982</v>
+        <v>44152.73865416108</v>
       </c>
       <c r="C16" t="n">
-        <v>2693</v>
+        <v>3122</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="K16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" t="s">
-        <v>96</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="L16" t="s"/>
       <c r="M16" t="s"/>
       <c r="N16" t="s"/>
       <c r="O16" t="s"/>
@@ -1870,10 +2111,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44151.83362222222</v>
+        <v>44152.73931671747</v>
       </c>
       <c r="C17" t="n">
-        <v>685</v>
+        <v>1808</v>
       </c>
       <c r="D17" t="s">
         <v>97</v>
@@ -1888,18 +2129,20 @@
         <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K17" t="s">
-        <v>37</v>
-      </c>
-      <c r="L17" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="L17" t="s">
+        <v>101</v>
+      </c>
       <c r="M17" t="s"/>
       <c r="N17" t="s"/>
       <c r="O17" t="s"/>
@@ -1910,34 +2153,34 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44151.83487901621</v>
+        <v>44152.73997748257</v>
       </c>
       <c r="C18" t="n">
-        <v>3196</v>
+        <v>932</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" t="s">
         <v>30</v>
       </c>
-      <c r="I18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" t="s">
-        <v>24</v>
-      </c>
       <c r="K18" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L18" t="s"/>
       <c r="M18" t="s"/>
@@ -1950,36 +2193,38 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44151.8362446875</v>
+        <v>44152.74040916075</v>
       </c>
       <c r="C19" t="n">
-        <v>2029</v>
+        <v>1818</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K19" t="s">
         <v>24</v>
       </c>
-      <c r="L19" t="s"/>
+      <c r="L19" t="s">
+        <v>111</v>
+      </c>
       <c r="M19" t="s"/>
       <c r="N19" t="s"/>
       <c r="O19" t="s"/>
@@ -1990,36 +2235,38 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44151.83740932871</v>
+        <v>44151.93301048611</v>
       </c>
       <c r="C20" t="n">
-        <v>1013</v>
+        <v>492</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="J20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>37</v>
-      </c>
-      <c r="L20" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="L20" t="s">
+        <v>117</v>
+      </c>
       <c r="M20" t="s"/>
       <c r="N20" t="s"/>
       <c r="O20" t="s"/>
@@ -2030,34 +2277,34 @@
         <v>16</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44151.82177193287</v>
+        <v>44151.93445606482</v>
       </c>
       <c r="C21" t="n">
-        <v>3147</v>
+        <v>447</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G21" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H21" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J21" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="K21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L21" t="s"/>
       <c r="M21" t="s"/>
@@ -2070,39 +2317,39 @@
         <v>16</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44151.74385679398</v>
+        <v>44151.93638105324</v>
       </c>
       <c r="C22" t="n">
-        <v>2231</v>
+        <v>2815</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J22" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" t="s"/>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L22" t="s">
+        <v>126</v>
+      </c>
+      <c r="M22" t="s"/>
       <c r="N22" t="s"/>
       <c r="O22" t="s"/>
       <c r="P22" t="s"/>
@@ -2112,41 +2359,37 @@
         <v>16</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44151.74608694445</v>
+        <v>44151.9380275463</v>
       </c>
       <c r="C23" t="n">
-        <v>2768</v>
+        <v>718</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F23" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G23" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K23" t="s">
         <v>24</v>
       </c>
-      <c r="L23" t="s">
-        <v>126</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
+      <c r="L23" t="s"/>
+      <c r="M23" t="s"/>
       <c r="N23" t="s"/>
       <c r="O23" t="s"/>
       <c r="P23" t="s"/>
@@ -2156,39 +2399,37 @@
         <v>16</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44151.74719898148</v>
+        <v>44151.94313412037</v>
       </c>
       <c r="C24" t="n">
-        <v>2788</v>
+        <v>2215</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L24" t="s"/>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
+      <c r="M24" t="s"/>
       <c r="N24" t="s"/>
       <c r="O24" t="s"/>
       <c r="P24" t="s"/>
@@ -2198,44 +2439,38 @@
         <v>16</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44151.72016962963</v>
+        <v>44151.94442238426</v>
       </c>
       <c r="C25" t="n">
-        <v>1835</v>
+        <v>535</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I25" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="K25" t="s">
-        <v>37</v>
-      </c>
-      <c r="L25" t="s">
-        <v>135</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L25" t="s"/>
+      <c r="M25" t="s"/>
+      <c r="N25" t="s"/>
       <c r="O25" t="s"/>
       <c r="P25" t="s"/>
     </row>
@@ -2244,42 +2479,38 @@
         <v>16</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44151.72130056713</v>
+        <v>44151.94580212963</v>
       </c>
       <c r="C26" t="n">
-        <v>1232</v>
+        <v>806</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F26" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G26" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I26" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K26" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L26" t="s"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
+      <c r="M26" t="s"/>
+      <c r="N26" t="s"/>
       <c r="O26" t="s"/>
       <c r="P26" t="s"/>
     </row>
@@ -2288,42 +2519,38 @@
         <v>16</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>44151.72318013889</v>
+        <v>44151.94637684028</v>
       </c>
       <c r="C27" t="n">
-        <v>729</v>
+        <v>2791</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F27" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G27" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K27" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L27" t="s"/>
-      <c r="M27" t="n">
-        <v>2</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
+      <c r="M27" t="s"/>
+      <c r="N27" t="s"/>
       <c r="O27" t="s"/>
       <c r="P27" t="s"/>
     </row>
@@ -2332,42 +2559,38 @@
         <v>16</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>44151.72479038194</v>
+        <v>44151.94748005787</v>
       </c>
       <c r="C28" t="n">
-        <v>980</v>
+        <v>2766</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E28" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F28" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G28" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="J28" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K28" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="s"/>
-      <c r="M28" t="n">
-        <v>3</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
+      <c r="M28" t="s"/>
+      <c r="N28" t="s"/>
       <c r="O28" t="s"/>
       <c r="P28" t="s"/>
     </row>
@@ -2376,42 +2599,40 @@
         <v>16</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>44151.7262485301</v>
+        <v>44151.94979226852</v>
       </c>
       <c r="C29" t="n">
-        <v>3296</v>
+        <v>3684</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F29" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G29" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K29" t="s">
-        <v>37</v>
-      </c>
-      <c r="L29" t="s"/>
-      <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L29" t="s">
+        <v>155</v>
+      </c>
+      <c r="M29" t="s"/>
+      <c r="N29" t="s"/>
       <c r="O29" t="s"/>
       <c r="P29" t="s"/>
     </row>
@@ -2420,44 +2641,40 @@
         <v>16</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>44151.7274534375</v>
+        <v>44151.82759821759</v>
       </c>
       <c r="C30" t="n">
-        <v>142</v>
+        <v>2868</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F30" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G30" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H30" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I30" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="K30" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L30" t="s">
-        <v>155</v>
-      </c>
-      <c r="M30" t="n">
-        <v>5</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M30" t="s"/>
+      <c r="N30" t="s"/>
       <c r="O30" t="s"/>
       <c r="P30" t="s"/>
     </row>
@@ -2466,42 +2683,40 @@
         <v>16</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>44151.72884155092</v>
+        <v>44151.82841722222</v>
       </c>
       <c r="C31" t="n">
-        <v>500</v>
+        <v>1597</v>
       </c>
       <c r="D31" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F31" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G31" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="H31" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K31" t="s">
-        <v>37</v>
-      </c>
-      <c r="L31" t="s"/>
-      <c r="M31" t="n">
-        <v>6</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L31" t="s">
+        <v>165</v>
+      </c>
+      <c r="M31" t="s"/>
+      <c r="N31" t="s"/>
       <c r="O31" t="s"/>
       <c r="P31" t="s"/>
     </row>
@@ -2510,44 +2725,38 @@
         <v>16</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>44151.73146354167</v>
+        <v>44151.829049375</v>
       </c>
       <c r="C32" t="n">
-        <v>1964</v>
+        <v>2536</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E32" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F32" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G32" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="H32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s">
         <v>30</v>
       </c>
-      <c r="I32" t="s">
-        <v>164</v>
-      </c>
       <c r="J32" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="K32" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" t="s">
-        <v>165</v>
-      </c>
-      <c r="M32" t="n">
-        <v>7</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="L32" t="s"/>
+      <c r="M32" t="s"/>
+      <c r="N32" t="s"/>
       <c r="O32" t="s"/>
       <c r="P32" t="s"/>
     </row>
@@ -2556,44 +2765,38 @@
         <v>16</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>44151.73427538195</v>
+        <v>44151.83006247685</v>
       </c>
       <c r="C33" t="n">
-        <v>321</v>
+        <v>1443</v>
       </c>
       <c r="D33" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E33" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F33" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G33" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H33" t="s">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="I33" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s">
-        <v>37</v>
-      </c>
-      <c r="L33" t="s">
-        <v>172</v>
-      </c>
-      <c r="M33" t="n">
-        <v>8</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="L33" t="s"/>
+      <c r="M33" t="s"/>
+      <c r="N33" t="s"/>
       <c r="O33" t="s"/>
       <c r="P33" t="s"/>
     </row>
@@ -2602,42 +2805,40 @@
         <v>16</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44150.92973521991</v>
+        <v>44151.83185293982</v>
       </c>
       <c r="C34" t="n">
-        <v>3103</v>
+        <v>2693</v>
       </c>
       <c r="D34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H34" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J34" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="K34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L34" t="s"/>
-      <c r="M34" t="n">
-        <v>9</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="L34" t="s">
+        <v>179</v>
+      </c>
+      <c r="M34" t="s"/>
+      <c r="N34" t="s"/>
       <c r="O34" t="s"/>
       <c r="P34" t="s"/>
     </row>
@@ -2646,44 +2847,38 @@
         <v>16</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44150.93092240741</v>
+        <v>44151.83362222222</v>
       </c>
       <c r="C35" t="n">
-        <v>1754</v>
+        <v>685</v>
       </c>
       <c r="D35" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F35" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G35" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I35" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K35" t="s">
-        <v>37</v>
-      </c>
-      <c r="L35" t="s">
-        <v>181</v>
-      </c>
-      <c r="M35" t="n">
-        <v>10</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L35" t="s"/>
+      <c r="M35" t="s"/>
+      <c r="N35" t="s"/>
       <c r="O35" t="s"/>
       <c r="P35" t="s"/>
     </row>
@@ -2692,42 +2887,38 @@
         <v>16</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44150.93139512731</v>
+        <v>44151.83487901621</v>
       </c>
       <c r="C36" t="n">
-        <v>41</v>
+        <v>3196</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E36" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F36" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G36" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H36" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I36" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J36" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K36" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L36" t="s"/>
-      <c r="M36" t="n">
-        <v>11</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2</v>
-      </c>
+      <c r="M36" t="s"/>
+      <c r="N36" t="s"/>
       <c r="O36" t="s"/>
       <c r="P36" t="s"/>
     </row>
@@ -2736,42 +2927,38 @@
         <v>16</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44150.9320803125</v>
+        <v>44151.8362446875</v>
       </c>
       <c r="C37" t="n">
-        <v>2062</v>
+        <v>2029</v>
       </c>
       <c r="D37" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E37" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F37" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G37" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="I37" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="J37" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L37" t="s"/>
-      <c r="M37" t="n">
-        <v>12</v>
-      </c>
-      <c r="N37" t="n">
-        <v>3</v>
-      </c>
+      <c r="M37" t="s"/>
+      <c r="N37" t="s"/>
       <c r="O37" t="s"/>
       <c r="P37" t="s"/>
     </row>
@@ -2780,42 +2967,38 @@
         <v>16</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>44150.93366619213</v>
+        <v>44151.83740932871</v>
       </c>
       <c r="C38" t="n">
-        <v>1509</v>
+        <v>1013</v>
       </c>
       <c r="D38" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E38" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F38" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G38" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J38" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K38" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L38" t="s"/>
-      <c r="M38" t="n">
-        <v>13</v>
-      </c>
-      <c r="N38" t="n">
-        <v>4</v>
-      </c>
+      <c r="M38" t="s"/>
+      <c r="N38" t="s"/>
       <c r="O38" t="s"/>
       <c r="P38" t="s"/>
     </row>
@@ -2824,42 +3007,38 @@
         <v>16</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>44150.93590909722</v>
+        <v>44151.82177193287</v>
       </c>
       <c r="C39" t="n">
-        <v>626</v>
+        <v>3147</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F39" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G39" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H39" t="s">
+        <v>192</v>
+      </c>
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" t="s">
         <v>30</v>
       </c>
-      <c r="I39" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" t="s">
-        <v>24</v>
-      </c>
       <c r="K39" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="L39" t="s"/>
-      <c r="M39" t="n">
-        <v>14</v>
-      </c>
-      <c r="N39" t="n">
-        <v>5</v>
-      </c>
+      <c r="M39" t="s"/>
+      <c r="N39" t="s"/>
       <c r="O39" t="s"/>
       <c r="P39" t="s"/>
     </row>
@@ -2868,44 +3047,40 @@
         <v>16</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44150.93629255787</v>
+        <v>44151.74385679398</v>
       </c>
       <c r="C40" t="n">
-        <v>2214</v>
+        <v>2231</v>
       </c>
       <c r="D40" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E40" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G40" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I40" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K40" t="s">
-        <v>37</v>
-      </c>
-      <c r="L40" t="s">
-        <v>202</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L40" t="s"/>
       <c r="M40" t="n">
-        <v>15</v>
-      </c>
-      <c r="N40" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N40" t="s"/>
       <c r="O40" t="s"/>
       <c r="P40" t="s"/>
     </row>
@@ -2914,44 +3089,42 @@
         <v>16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44150.93726997685</v>
+        <v>44151.74608694445</v>
       </c>
       <c r="C41" t="n">
-        <v>638</v>
+        <v>2768</v>
       </c>
       <c r="D41" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E41" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F41" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G41" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" t="s">
+        <v>60</v>
+      </c>
+      <c r="K41" t="s">
         <v>30</v>
       </c>
-      <c r="I41" t="s">
-        <v>24</v>
-      </c>
-      <c r="J41" t="s">
-        <v>62</v>
-      </c>
-      <c r="K41" t="s">
-        <v>37</v>
-      </c>
       <c r="L41" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M41" t="n">
-        <v>16</v>
-      </c>
-      <c r="N41" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" t="s"/>
       <c r="O41" t="s"/>
       <c r="P41" t="s"/>
     </row>
@@ -2960,44 +3133,40 @@
         <v>16</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44150.93919015046</v>
+        <v>44151.74719898148</v>
       </c>
       <c r="C42" t="n">
-        <v>3128</v>
+        <v>2788</v>
       </c>
       <c r="D42" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F42" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G42" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H42" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I42" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K42" t="s">
-        <v>37</v>
-      </c>
-      <c r="L42" t="s">
-        <v>212</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L42" t="s"/>
       <c r="M42" t="n">
-        <v>17</v>
-      </c>
-      <c r="N42" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N42" t="s"/>
       <c r="O42" t="s"/>
       <c r="P42" t="s"/>
     </row>
@@ -3006,41 +3175,43 @@
         <v>16</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44150.92973521991</v>
+        <v>44151.72016962963</v>
       </c>
       <c r="C43" t="n">
-        <v>3103</v>
+        <v>1835</v>
       </c>
       <c r="D43" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="E43" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="F43" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="G43" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="H43" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J43" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K43" t="s">
-        <v>37</v>
-      </c>
-      <c r="L43" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="L43" t="s">
+        <v>218</v>
+      </c>
       <c r="M43" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O43" t="s"/>
       <c r="P43" t="s"/>
@@ -3050,43 +3221,41 @@
         <v>16</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44150.93092240741</v>
+        <v>44151.72130056713</v>
       </c>
       <c r="C44" t="n">
-        <v>1754</v>
+        <v>1232</v>
       </c>
       <c r="D44" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="E44" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="F44" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="G44" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I44" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K44" t="s">
-        <v>37</v>
-      </c>
-      <c r="L44" t="s">
-        <v>181</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L44" t="s"/>
       <c r="M44" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O44" t="s"/>
       <c r="P44" t="s"/>
@@ -3096,41 +3265,41 @@
         <v>16</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44150.93139512731</v>
+        <v>44151.72318013889</v>
       </c>
       <c r="C45" t="n">
-        <v>41</v>
+        <v>729</v>
       </c>
       <c r="D45" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="E45" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="F45" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="G45" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="H45" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I45" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J45" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="K45" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L45" t="s"/>
       <c r="M45" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="N45" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O45" t="s"/>
       <c r="P45" t="s"/>
@@ -3140,41 +3309,41 @@
         <v>16</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44150.9320803125</v>
+        <v>44151.72479038194</v>
       </c>
       <c r="C46" t="n">
-        <v>2062</v>
+        <v>980</v>
       </c>
       <c r="D46" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="E46" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="F46" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="G46" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="H46" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I46" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="J46" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K46" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L46" t="s"/>
       <c r="M46" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="N46" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O46" t="s"/>
       <c r="P46" t="s"/>
@@ -3184,41 +3353,41 @@
         <v>16</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44150.93366619213</v>
+        <v>44151.7262485301</v>
       </c>
       <c r="C47" t="n">
-        <v>1509</v>
+        <v>3296</v>
       </c>
       <c r="D47" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="E47" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="F47" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="G47" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="H47" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I47" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="J47" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K47" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L47" t="s"/>
       <c r="M47" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="N47" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O47" t="s"/>
       <c r="P47" t="s"/>
@@ -3228,41 +3397,43 @@
         <v>16</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44150.93590909722</v>
+        <v>44151.7274534375</v>
       </c>
       <c r="C48" t="n">
-        <v>626</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="E48" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="F48" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="G48" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="H48" t="s">
         <v>30</v>
       </c>
       <c r="I48" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K48" t="s">
         <v>24</v>
       </c>
-      <c r="L48" t="s"/>
+      <c r="L48" t="s">
+        <v>238</v>
+      </c>
       <c r="M48" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="N48" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O48" t="s"/>
       <c r="P48" t="s"/>
@@ -3272,43 +3443,41 @@
         <v>16</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44150.93629255787</v>
+        <v>44151.72884155092</v>
       </c>
       <c r="C49" t="n">
-        <v>2214</v>
+        <v>500</v>
       </c>
       <c r="D49" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="E49" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="F49" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="G49" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I49" t="s">
-        <v>35</v>
+        <v>242</v>
       </c>
       <c r="J49" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="K49" t="s">
-        <v>37</v>
-      </c>
-      <c r="L49" t="s">
-        <v>202</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L49" t="s"/>
       <c r="M49" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N49" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O49" t="s"/>
       <c r="P49" t="s"/>
@@ -3318,43 +3487,43 @@
         <v>16</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44150.93726997685</v>
+        <v>44151.73146354167</v>
       </c>
       <c r="C50" t="n">
-        <v>638</v>
+        <v>1964</v>
       </c>
       <c r="D50" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="E50" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="F50" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="G50" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" t="s">
+        <v>247</v>
+      </c>
+      <c r="J50" t="s">
         <v>30</v>
       </c>
-      <c r="I50" t="s">
-        <v>24</v>
-      </c>
-      <c r="J50" t="s">
-        <v>62</v>
-      </c>
       <c r="K50" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="L50" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="M50" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="N50" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O50" t="s"/>
       <c r="P50" t="s"/>
@@ -3364,43 +3533,43 @@
         <v>16</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44150.93919015046</v>
+        <v>44151.73427538195</v>
       </c>
       <c r="C51" t="n">
-        <v>3128</v>
+        <v>321</v>
       </c>
       <c r="D51" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="E51" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="F51" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="G51" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="H51" t="s">
-        <v>30</v>
+        <v>253</v>
       </c>
       <c r="I51" t="s">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="J51" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="K51" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L51" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="M51" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="N51" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O51" t="s"/>
       <c r="P51" t="s"/>
@@ -3410,45 +3579,43 @@
         <v>16</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44150.91491172454</v>
+        <v>44150.92973521991</v>
       </c>
       <c r="C52" t="n">
-        <v>219</v>
+        <v>3103</v>
       </c>
       <c r="D52" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="E52" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="F52" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="G52" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="H52" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I52" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J52" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K52" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L52" t="s"/>
       <c r="M52" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="N52" t="n">
-        <v>18</v>
-      </c>
-      <c r="O52" t="n">
         <v>0</v>
       </c>
+      <c r="O52" t="s"/>
       <c r="P52" t="s"/>
     </row>
     <row r="53" spans="1:16">
@@ -3456,45 +3623,45 @@
         <v>16</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44150.9158749537</v>
+        <v>44150.93092240741</v>
       </c>
       <c r="C53" t="n">
-        <v>3291</v>
+        <v>1754</v>
       </c>
       <c r="D53" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="E53" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="F53" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="G53" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="H53" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J53" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K53" t="s">
-        <v>36</v>
-      </c>
-      <c r="L53" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="L53" t="s">
+        <v>264</v>
+      </c>
       <c r="M53" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="N53" t="n">
-        <v>19</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O53" t="s"/>
       <c r="P53" t="s"/>
     </row>
     <row r="54" spans="1:16">
@@ -3502,47 +3669,43 @@
         <v>16</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44150.91647944444</v>
+        <v>44150.93139512731</v>
       </c>
       <c r="C54" t="n">
-        <v>2337</v>
+        <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="E54" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="F54" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="G54" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I54" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J54" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K54" t="s">
-        <v>37</v>
-      </c>
-      <c r="L54" t="s">
-        <v>225</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L54" t="s"/>
       <c r="M54" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="N54" t="n">
-        <v>20</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O54" t="s"/>
       <c r="P54" t="s"/>
     </row>
     <row r="55" spans="1:16">
@@ -3550,47 +3713,43 @@
         <v>16</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>44150.91708795139</v>
+        <v>44150.9320803125</v>
       </c>
       <c r="C55" t="n">
-        <v>3783</v>
+        <v>2062</v>
       </c>
       <c r="D55" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="E55" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="F55" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="G55" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I55" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J55" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="K55" t="s">
-        <v>37</v>
-      </c>
-      <c r="L55" t="s">
-        <v>230</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L55" t="s"/>
       <c r="M55" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N55" t="n">
-        <v>21</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O55" t="s"/>
       <c r="P55" t="s"/>
     </row>
     <row r="56" spans="1:16">
@@ -3598,45 +3757,43 @@
         <v>16</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44150.91861394676</v>
+        <v>44150.93366619213</v>
       </c>
       <c r="C56" t="n">
-        <v>2088</v>
+        <v>1509</v>
       </c>
       <c r="D56" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="E56" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="F56" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="G56" t="s">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="H56" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I56" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="J56" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K56" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L56" t="s"/>
       <c r="M56" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N56" t="n">
-        <v>22</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="O56" t="s"/>
       <c r="P56" t="s"/>
     </row>
     <row r="57" spans="1:16">
@@ -3644,47 +3801,43 @@
         <v>16</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44150.91975104166</v>
+        <v>44150.93590909722</v>
       </c>
       <c r="C57" t="n">
-        <v>3686</v>
+        <v>626</v>
       </c>
       <c r="D57" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="E57" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="F57" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="G57" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="H57" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="I57" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J57" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K57" t="s">
-        <v>37</v>
-      </c>
-      <c r="L57" t="s">
-        <v>239</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="L57" t="s"/>
       <c r="M57" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="N57" t="n">
-        <v>23</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="O57" t="s"/>
       <c r="P57" t="s"/>
     </row>
     <row r="58" spans="1:16">
@@ -3692,47 +3845,45 @@
         <v>16</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44150.92170524305</v>
+        <v>44150.93629255787</v>
       </c>
       <c r="C58" t="n">
-        <v>2853</v>
+        <v>2214</v>
       </c>
       <c r="D58" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="E58" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="F58" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="G58" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="H58" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="I58" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J58" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K58" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L58" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="M58" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N58" t="n">
-        <v>24</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="O58" t="s"/>
       <c r="P58" t="s"/>
     </row>
     <row r="59" spans="1:16">
@@ -3740,45 +3891,45 @@
         <v>16</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44150.92246048611</v>
+        <v>44150.93726997685</v>
       </c>
       <c r="C59" t="n">
-        <v>2899</v>
+        <v>638</v>
       </c>
       <c r="D59" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="E59" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="F59" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="G59" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="H59" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I59" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J59" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K59" t="s">
-        <v>37</v>
-      </c>
-      <c r="L59" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="L59" t="s">
+        <v>290</v>
+      </c>
       <c r="M59" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N59" t="n">
-        <v>25</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="O59" t="s"/>
       <c r="P59" t="s"/>
     </row>
     <row r="60" spans="1:16">
@@ -3786,45 +3937,45 @@
         <v>16</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44150.92315710648</v>
+        <v>44150.93919015046</v>
       </c>
       <c r="C60" t="n">
-        <v>429</v>
+        <v>3128</v>
       </c>
       <c r="D60" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="E60" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="F60" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="G60" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="H60" t="s">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="I60" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J60" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="K60" t="s">
-        <v>37</v>
-      </c>
-      <c r="L60" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="L60" t="s">
+        <v>295</v>
+      </c>
       <c r="M60" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N60" t="n">
-        <v>26</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="O60" t="s"/>
       <c r="P60" t="s"/>
     </row>
     <row r="61" spans="1:16">
@@ -3832,45 +3983,43 @@
         <v>16</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44150.92537696759</v>
+        <v>44150.92973521991</v>
       </c>
       <c r="C61" t="n">
-        <v>931</v>
+        <v>3103</v>
       </c>
       <c r="D61" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E61" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F61" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G61" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H61" t="s">
         <v>30</v>
       </c>
       <c r="I61" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="J61" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K61" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="s"/>
       <c r="M61" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N61" t="n">
-        <v>27</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="O61" t="s"/>
       <c r="P61" t="s"/>
     </row>
     <row r="62" spans="1:16">
@@ -3878,194 +4027,1022 @@
         <v>16</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44147.90281010417</v>
+        <v>44150.93092240741</v>
       </c>
       <c r="C62" t="n">
-        <v>1283</v>
+        <v>1754</v>
       </c>
       <c r="D62" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E62" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F62" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G62" t="s">
-        <v>257</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2</v>
+        <v>263</v>
+      </c>
+      <c r="H62" t="s">
+        <v>78</v>
+      </c>
+      <c r="I62" t="s">
+        <v>22</v>
       </c>
       <c r="J62" t="s">
-        <v>36</v>
-      </c>
-      <c r="K62" t="n">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="K62" t="s">
+        <v>24</v>
       </c>
       <c r="L62" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M62" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N62" t="n">
-        <v>28</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" t="s">
         <v>16</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44147.90575298611</v>
+        <v>44150.93139512731</v>
       </c>
       <c r="C63" t="n">
-        <v>2569</v>
+        <v>41</v>
       </c>
       <c r="D63" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E63" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F63" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G63" t="s">
-        <v>266</v>
-      </c>
-      <c r="H63" t="n">
-        <v>7</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5</v>
+        <v>268</v>
+      </c>
+      <c r="H63" t="s">
+        <v>30</v>
+      </c>
+      <c r="I63" t="s">
+        <v>22</v>
       </c>
       <c r="J63" t="s">
-        <v>62</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3</v>
-      </c>
-      <c r="L63" t="s">
-        <v>267</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="K63" t="s">
+        <v>24</v>
+      </c>
+      <c r="L63" t="s"/>
       <c r="M63" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N63" t="n">
-        <v>29</v>
-      </c>
-      <c r="O63" t="n">
-        <v>1</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" t="s">
         <v>16</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44147.90636120371</v>
+        <v>44150.9320803125</v>
       </c>
       <c r="C64" t="n">
-        <v>3552</v>
+        <v>2062</v>
       </c>
       <c r="D64" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E64" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F64" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G64" t="s">
-        <v>271</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3</v>
+        <v>272</v>
+      </c>
+      <c r="H64" t="s">
+        <v>37</v>
+      </c>
+      <c r="I64" t="s">
+        <v>31</v>
       </c>
       <c r="J64" t="s">
-        <v>21</v>
-      </c>
-      <c r="K64" t="n">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="K64" t="s">
+        <v>24</v>
       </c>
       <c r="L64" t="s"/>
       <c r="M64" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N64" t="n">
-        <v>30</v>
-      </c>
-      <c r="O64" t="n">
-        <v>2</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="O64" t="s"/>
+      <c r="P64" t="s"/>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" t="s">
         <v>16</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44147.90702556713</v>
+        <v>44150.93366619213</v>
       </c>
       <c r="C65" t="n">
-        <v>2926</v>
+        <v>1509</v>
       </c>
       <c r="D65" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E65" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F65" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G65" t="s">
-        <v>275</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>9</v>
+        <v>276</v>
+      </c>
+      <c r="H65" t="s">
+        <v>37</v>
+      </c>
+      <c r="I65" t="s">
+        <v>37</v>
       </c>
       <c r="J65" t="s">
-        <v>37</v>
-      </c>
-      <c r="K65" t="n">
-        <v>3</v>
+        <v>60</v>
+      </c>
+      <c r="K65" t="s">
+        <v>24</v>
       </c>
       <c r="L65" t="s"/>
       <c r="M65" t="n">
+        <v>22</v>
+      </c>
+      <c r="N65" t="n">
+        <v>13</v>
+      </c>
+      <c r="O65" t="s"/>
+      <c r="P65" t="s"/>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>44150.93590909722</v>
+      </c>
+      <c r="C66" t="n">
+        <v>626</v>
+      </c>
+      <c r="D66" t="s">
+        <v>277</v>
+      </c>
+      <c r="E66" t="s">
+        <v>278</v>
+      </c>
+      <c r="F66" t="s">
+        <v>279</v>
+      </c>
+      <c r="G66" t="s">
+        <v>280</v>
+      </c>
+      <c r="H66" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J66" t="s">
+        <v>30</v>
+      </c>
+      <c r="K66" t="s">
+        <v>30</v>
+      </c>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>23</v>
+      </c>
+      <c r="N66" t="n">
+        <v>14</v>
+      </c>
+      <c r="O66" t="s"/>
+      <c r="P66" t="s"/>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>44150.93629255787</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2214</v>
+      </c>
+      <c r="D67" t="s">
+        <v>281</v>
+      </c>
+      <c r="E67" t="s">
+        <v>282</v>
+      </c>
+      <c r="F67" t="s">
+        <v>283</v>
+      </c>
+      <c r="G67" t="s">
+        <v>284</v>
+      </c>
+      <c r="H67" t="s">
+        <v>78</v>
+      </c>
+      <c r="I67" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" t="s">
+        <v>45</v>
+      </c>
+      <c r="K67" t="s">
+        <v>24</v>
+      </c>
+      <c r="L67" t="s">
+        <v>285</v>
+      </c>
+      <c r="M67" t="n">
+        <v>24</v>
+      </c>
+      <c r="N67" t="n">
+        <v>15</v>
+      </c>
+      <c r="O67" t="s"/>
+      <c r="P67" t="s"/>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>44150.93726997685</v>
+      </c>
+      <c r="C68" t="n">
+        <v>638</v>
+      </c>
+      <c r="D68" t="s">
+        <v>286</v>
+      </c>
+      <c r="E68" t="s">
+        <v>287</v>
+      </c>
+      <c r="F68" t="s">
+        <v>288</v>
+      </c>
+      <c r="G68" t="s">
+        <v>289</v>
+      </c>
+      <c r="H68" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" t="s">
+        <v>30</v>
+      </c>
+      <c r="J68" t="s">
+        <v>31</v>
+      </c>
+      <c r="K68" t="s">
+        <v>24</v>
+      </c>
+      <c r="L68" t="s">
+        <v>290</v>
+      </c>
+      <c r="M68" t="n">
+        <v>25</v>
+      </c>
+      <c r="N68" t="n">
+        <v>16</v>
+      </c>
+      <c r="O68" t="s"/>
+      <c r="P68" t="s"/>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>44150.93919015046</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3128</v>
+      </c>
+      <c r="D69" t="s">
+        <v>291</v>
+      </c>
+      <c r="E69" t="s">
+        <v>292</v>
+      </c>
+      <c r="F69" t="s">
+        <v>293</v>
+      </c>
+      <c r="G69" t="s">
+        <v>294</v>
+      </c>
+      <c r="H69" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" t="s">
+        <v>24</v>
+      </c>
+      <c r="J69" t="s">
+        <v>31</v>
+      </c>
+      <c r="K69" t="s">
+        <v>24</v>
+      </c>
+      <c r="L69" t="s">
+        <v>295</v>
+      </c>
+      <c r="M69" t="n">
+        <v>26</v>
+      </c>
+      <c r="N69" t="n">
+        <v>17</v>
+      </c>
+      <c r="O69" t="s"/>
+      <c r="P69" t="s"/>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>44150.91491172454</v>
+      </c>
+      <c r="C70" t="n">
+        <v>219</v>
+      </c>
+      <c r="D70" t="s">
+        <v>296</v>
+      </c>
+      <c r="E70" t="s">
+        <v>297</v>
+      </c>
+      <c r="F70" t="s">
+        <v>298</v>
+      </c>
+      <c r="G70" t="s">
+        <v>299</v>
+      </c>
+      <c r="H70" t="s">
+        <v>24</v>
+      </c>
+      <c r="I70" t="s">
+        <v>24</v>
+      </c>
+      <c r="J70" t="s">
+        <v>45</v>
+      </c>
+      <c r="K70" t="s">
+        <v>24</v>
+      </c>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>27</v>
+      </c>
+      <c r="N70" t="n">
+        <v>18</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="s"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>44150.9158749537</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3291</v>
+      </c>
+      <c r="D71" t="s">
+        <v>300</v>
+      </c>
+      <c r="E71" t="s">
+        <v>301</v>
+      </c>
+      <c r="F71" t="s">
+        <v>302</v>
+      </c>
+      <c r="G71" t="s">
+        <v>303</v>
+      </c>
+      <c r="H71" t="s">
+        <v>37</v>
+      </c>
+      <c r="I71" t="s">
+        <v>37</v>
+      </c>
+      <c r="J71" t="s">
+        <v>60</v>
+      </c>
+      <c r="K71" t="s">
+        <v>88</v>
+      </c>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>28</v>
+      </c>
+      <c r="N71" t="n">
+        <v>19</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="s"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>44150.91647944444</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2337</v>
+      </c>
+      <c r="D72" t="s">
+        <v>304</v>
+      </c>
+      <c r="E72" t="s">
+        <v>305</v>
+      </c>
+      <c r="F72" t="s">
+        <v>306</v>
+      </c>
+      <c r="G72" t="s">
+        <v>307</v>
+      </c>
+      <c r="H72" t="s">
+        <v>78</v>
+      </c>
+      <c r="I72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" t="s">
+        <v>45</v>
+      </c>
+      <c r="K72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" t="s">
+        <v>308</v>
+      </c>
+      <c r="M72" t="n">
+        <v>29</v>
+      </c>
+      <c r="N72" t="n">
+        <v>20</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="s"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>44150.91708795139</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3783</v>
+      </c>
+      <c r="D73" t="s">
+        <v>309</v>
+      </c>
+      <c r="E73" t="s">
+        <v>310</v>
+      </c>
+      <c r="F73" t="s">
+        <v>311</v>
+      </c>
+      <c r="G73" t="s">
+        <v>312</v>
+      </c>
+      <c r="H73" t="s">
+        <v>78</v>
+      </c>
+      <c r="I73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" t="s">
+        <v>45</v>
+      </c>
+      <c r="K73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73" t="s">
+        <v>313</v>
+      </c>
+      <c r="M73" t="n">
+        <v>30</v>
+      </c>
+      <c r="N73" t="n">
+        <v>21</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="s"/>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>44150.91861394676</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2088</v>
+      </c>
+      <c r="D74" t="s">
+        <v>314</v>
+      </c>
+      <c r="E74" t="s">
+        <v>315</v>
+      </c>
+      <c r="F74" t="s">
+        <v>316</v>
+      </c>
+      <c r="G74" t="s">
+        <v>317</v>
+      </c>
+      <c r="H74" t="s">
+        <v>37</v>
+      </c>
+      <c r="I74" t="s">
+        <v>31</v>
+      </c>
+      <c r="J74" t="s">
+        <v>60</v>
+      </c>
+      <c r="K74" t="s">
+        <v>24</v>
+      </c>
+      <c r="L74" t="s"/>
+      <c r="M74" t="n">
+        <v>31</v>
+      </c>
+      <c r="N74" t="n">
+        <v>22</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="s"/>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>44150.91975104166</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3686</v>
+      </c>
+      <c r="D75" t="s">
+        <v>318</v>
+      </c>
+      <c r="E75" t="s">
+        <v>319</v>
+      </c>
+      <c r="F75" t="s">
+        <v>320</v>
+      </c>
+      <c r="G75" t="s">
+        <v>321</v>
+      </c>
+      <c r="H75" t="s">
+        <v>44</v>
+      </c>
+      <c r="I75" t="s">
+        <v>45</v>
+      </c>
+      <c r="J75" t="s">
+        <v>60</v>
+      </c>
+      <c r="K75" t="s">
+        <v>24</v>
+      </c>
+      <c r="L75" t="s">
+        <v>322</v>
+      </c>
+      <c r="M75" t="n">
+        <v>32</v>
+      </c>
+      <c r="N75" t="n">
+        <v>23</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="s"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>44150.92170524305</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2853</v>
+      </c>
+      <c r="D76" t="s">
+        <v>323</v>
+      </c>
+      <c r="E76" t="s">
+        <v>324</v>
+      </c>
+      <c r="F76" t="s">
+        <v>325</v>
+      </c>
+      <c r="G76" t="s">
+        <v>326</v>
+      </c>
+      <c r="H76" t="s">
+        <v>30</v>
+      </c>
+      <c r="I76" t="s">
+        <v>22</v>
+      </c>
+      <c r="J76" t="s">
+        <v>45</v>
+      </c>
+      <c r="K76" t="s">
+        <v>24</v>
+      </c>
+      <c r="L76" t="s">
+        <v>327</v>
+      </c>
+      <c r="M76" t="n">
+        <v>33</v>
+      </c>
+      <c r="N76" t="n">
+        <v>24</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="s"/>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>44150.92246048611</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2899</v>
+      </c>
+      <c r="D77" t="s">
+        <v>328</v>
+      </c>
+      <c r="E77" t="s">
+        <v>329</v>
+      </c>
+      <c r="F77" t="s">
+        <v>330</v>
+      </c>
+      <c r="G77" t="s">
+        <v>331</v>
+      </c>
+      <c r="H77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I77" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" t="s">
+        <v>24</v>
+      </c>
+      <c r="K77" t="s">
+        <v>24</v>
+      </c>
+      <c r="L77" t="s"/>
+      <c r="M77" t="n">
+        <v>34</v>
+      </c>
+      <c r="N77" t="n">
+        <v>25</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="s"/>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>44150.92315710648</v>
+      </c>
+      <c r="C78" t="n">
+        <v>429</v>
+      </c>
+      <c r="D78" t="s">
+        <v>332</v>
+      </c>
+      <c r="E78" t="s">
+        <v>333</v>
+      </c>
+      <c r="F78" t="s">
+        <v>334</v>
+      </c>
+      <c r="G78" t="s">
+        <v>335</v>
+      </c>
+      <c r="H78" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" t="s">
+        <v>23</v>
+      </c>
+      <c r="K78" t="s">
+        <v>24</v>
+      </c>
+      <c r="L78" t="s"/>
+      <c r="M78" t="n">
+        <v>35</v>
+      </c>
+      <c r="N78" t="n">
+        <v>26</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="s"/>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>44150.92537696759</v>
+      </c>
+      <c r="C79" t="n">
+        <v>931</v>
+      </c>
+      <c r="D79" t="s">
+        <v>336</v>
+      </c>
+      <c r="E79" t="s">
+        <v>337</v>
+      </c>
+      <c r="F79" t="s">
+        <v>338</v>
+      </c>
+      <c r="G79" t="s">
+        <v>339</v>
+      </c>
+      <c r="H79" t="s">
+        <v>29</v>
+      </c>
+      <c r="I79" t="s">
+        <v>106</v>
+      </c>
+      <c r="J79" t="s">
+        <v>88</v>
+      </c>
+      <c r="K79" t="s">
+        <v>30</v>
+      </c>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>36</v>
+      </c>
+      <c r="N79" t="n">
+        <v>27</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="s"/>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>44147.90281010417</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1283</v>
+      </c>
+      <c r="D80" t="s">
+        <v>340</v>
+      </c>
+      <c r="E80" t="s">
+        <v>341</v>
+      </c>
+      <c r="F80" t="s">
+        <v>342</v>
+      </c>
+      <c r="G80" t="s">
+        <v>339</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="s">
+        <v>88</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="s">
+        <v>343</v>
+      </c>
+      <c r="M80" t="n">
+        <v>37</v>
+      </c>
+      <c r="N80" t="n">
+        <v>28</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>44147.90575298611</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2569</v>
+      </c>
+      <c r="D81" t="s">
+        <v>344</v>
+      </c>
+      <c r="E81" t="s">
+        <v>345</v>
+      </c>
+      <c r="F81" t="s">
+        <v>346</v>
+      </c>
+      <c r="G81" t="s">
+        <v>347</v>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5</v>
+      </c>
+      <c r="J81" t="s">
+        <v>31</v>
+      </c>
+      <c r="K81" t="n">
+        <v>3</v>
+      </c>
+      <c r="L81" t="s">
+        <v>348</v>
+      </c>
+      <c r="M81" t="n">
+        <v>38</v>
+      </c>
+      <c r="N81" t="n">
+        <v>29</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>44147.90636120371</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3552</v>
+      </c>
+      <c r="D82" t="s">
+        <v>349</v>
+      </c>
+      <c r="E82" t="s">
+        <v>350</v>
+      </c>
+      <c r="F82" t="s">
+        <v>351</v>
+      </c>
+      <c r="G82" t="s">
+        <v>352</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3</v>
+      </c>
+      <c r="J82" t="s">
+        <v>45</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>39</v>
+      </c>
+      <c r="N82" t="n">
+        <v>30</v>
+      </c>
+      <c r="O82" t="n">
+        <v>2</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>44147.90702556713</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2926</v>
+      </c>
+      <c r="D83" t="s">
+        <v>353</v>
+      </c>
+      <c r="E83" t="s">
+        <v>354</v>
+      </c>
+      <c r="F83" t="s">
+        <v>355</v>
+      </c>
+      <c r="G83" t="s">
+        <v>356</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>9</v>
+      </c>
+      <c r="J83" t="s">
+        <v>24</v>
+      </c>
+      <c r="K83" t="n">
+        <v>3</v>
+      </c>
+      <c r="L83" t="s"/>
+      <c r="M83" t="n">
         <v>40</v>
       </c>
-      <c r="N65" t="n">
+      <c r="N83" t="n">
         <v>31</v>
       </c>
-      <c r="O65" t="n">
+      <c r="O83" t="n">
         <v>3</v>
       </c>
-      <c r="P65" t="n">
+      <c r="P83" t="n">
         <v>0</v>
       </c>
     </row>

--- a/classification-record/session-all-models-combined.xlsx
+++ b/classification-record/session-all-models-combined.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="368">
   <si>
     <t>Name</t>
   </si>
@@ -65,6 +65,57 @@
     <t>Unnamed: 0.1.1.1</t>
   </si>
   <si>
+    <t>ALEX</t>
+  </si>
+  <si>
+    <t>G Pen Nova Review: Grenco Science's Latest Vape Pen for Wax</t>
+  </si>
+  <si>
+    <t>_oTXHsNCQCc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_oTXHsNCQCc</t>
+  </si>
+  <si>
+    <t>DabConnection</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>0 1 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weed devices review website </t>
+  </si>
+  <si>
+    <t>Man suffers burns after e-cigarette explodes</t>
+  </si>
+  <si>
+    <t>G6EUB9hOn6k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=G6EUB9hOn6k</t>
+  </si>
+  <si>
+    <t>ABC15 Arizona</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Alex</t>
   </si>
   <si>
@@ -83,15 +134,6 @@
     <t>1 2</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Difference PG vs VG Ejuice? Safe? Side Effects?</t>
   </si>
   <si>
@@ -110,9 +152,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>vape review / information website (shut down)</t>
   </si>
   <si>
@@ -152,9 +191,6 @@
     <t>3 7</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>DNA250c Passthrough DIY Box Mod Build</t>
   </si>
   <si>
@@ -195,9 +231,6 @@
   </si>
   <si>
     <t>2 4</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>24</t>
@@ -1438,7 +1471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1501,10 +1534,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44152.72548279823</v>
+        <v>44152.9350460642</v>
       </c>
       <c r="C2" t="n">
-        <v>2161</v>
+        <v>1211</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1530,7 +1563,9 @@
       <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s"/>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
       <c r="M2" t="s"/>
       <c r="N2" t="s"/>
       <c r="O2" t="s"/>
@@ -1541,38 +1576,36 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44152.72664764315</v>
+        <v>44152.93587419215</v>
       </c>
       <c r="C3" t="n">
-        <v>543</v>
+        <v>3133</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L3" t="s"/>
       <c r="M3" t="s"/>
       <c r="N3" t="s"/>
       <c r="O3" t="s"/>
@@ -1580,41 +1613,39 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44152.72759101521</v>
+        <v>44152.72548280092</v>
       </c>
       <c r="C4" t="n">
-        <v>1538</v>
+        <v>2161</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L4" t="s"/>
       <c r="M4" t="s"/>
       <c r="N4" t="s"/>
       <c r="O4" t="s"/>
@@ -1622,39 +1653,41 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44152.72848204005</v>
+        <v>44152.72664763889</v>
       </c>
       <c r="C5" t="n">
-        <v>2414</v>
+        <v>543</v>
       </c>
       <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>41</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>42</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>43</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>44</v>
       </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
       <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
         <v>45</v>
       </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" t="s"/>
       <c r="M5" t="s"/>
       <c r="N5" t="s"/>
       <c r="O5" t="s"/>
@@ -1662,13 +1695,13 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44152.72958726111</v>
+        <v>44152.72759101852</v>
       </c>
       <c r="C6" t="n">
-        <v>2605</v>
+        <v>1538</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -1683,19 +1716,19 @@
         <v>49</v>
       </c>
       <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
         <v>44</v>
       </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M6" t="s"/>
       <c r="N6" t="s"/>
@@ -1704,37 +1737,37 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44152.73096271472</v>
+        <v>44152.72848203704</v>
       </c>
       <c r="C7" t="n">
-        <v>1103</v>
+        <v>2414</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s"/>
       <c r="M7" t="s"/>
@@ -1744,40 +1777,40 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44152.73173263772</v>
+        <v>44152.72958725694</v>
       </c>
       <c r="C8" t="n">
-        <v>3304</v>
+        <v>2605</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
         <v>57</v>
       </c>
-      <c r="G8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M8" t="s"/>
       <c r="N8" t="s"/>
@@ -1786,37 +1819,37 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44152.73314684335</v>
+        <v>44152.73096271991</v>
       </c>
       <c r="C9" t="n">
-        <v>3288</v>
+        <v>1103</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s"/>
       <c r="M9" t="s"/>
@@ -1826,39 +1859,41 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44152.73443137346</v>
+        <v>44152.73173263889</v>
       </c>
       <c r="C10" t="n">
-        <v>2020</v>
+        <v>3304</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="L10" t="s">
+        <v>72</v>
+      </c>
       <c r="M10" t="s"/>
       <c r="N10" t="s"/>
       <c r="O10" t="s"/>
@@ -1866,37 +1901,37 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44152.73524858947</v>
+        <v>44152.73314684028</v>
       </c>
       <c r="C11" t="n">
-        <v>1202</v>
+        <v>3288</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s"/>
       <c r="M11" t="s"/>
@@ -1906,41 +1941,39 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44152.73578271185</v>
+        <v>44152.73443137731</v>
       </c>
       <c r="C12" t="n">
-        <v>3204</v>
+        <v>2020</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" t="s">
-        <v>79</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L12" t="s"/>
       <c r="M12" t="s"/>
       <c r="N12" t="s"/>
       <c r="O12" t="s"/>
@@ -1948,37 +1981,37 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44152.7364304142</v>
+        <v>44152.73524858796</v>
       </c>
       <c r="C13" t="n">
-        <v>2287</v>
+        <v>1202</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L13" t="s"/>
       <c r="M13" t="s"/>
@@ -1988,39 +2021,41 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44152.7371413533</v>
+        <v>44152.73578270833</v>
       </c>
       <c r="C14" t="n">
-        <v>3155</v>
+        <v>3204</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s">
         <v>31</v>
       </c>
       <c r="J14" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>90</v>
+      </c>
       <c r="M14" t="s"/>
       <c r="N14" t="s"/>
       <c r="O14" t="s"/>
@@ -2028,37 +2063,37 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44152.73811591203</v>
+        <v>44152.73643041667</v>
       </c>
       <c r="C15" t="n">
-        <v>2602</v>
+        <v>2287</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
         <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L15" t="s"/>
       <c r="M15" t="s"/>
@@ -2068,37 +2103,37 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44152.73865416108</v>
+        <v>44152.73714135417</v>
       </c>
       <c r="C16" t="n">
-        <v>3122</v>
+        <v>3155</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="K16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L16" t="s"/>
       <c r="M16" t="s"/>
@@ -2108,41 +2143,39 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44152.73931671747</v>
+        <v>44152.73811591436</v>
       </c>
       <c r="C17" t="n">
-        <v>1808</v>
+        <v>2602</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
         <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" t="s">
-        <v>101</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L17" t="s"/>
       <c r="M17" t="s"/>
       <c r="N17" t="s"/>
       <c r="O17" t="s"/>
@@ -2150,37 +2183,37 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44152.73997748257</v>
+        <v>44152.73865416666</v>
       </c>
       <c r="C18" t="n">
-        <v>932</v>
+        <v>3122</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I18" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L18" t="s"/>
       <c r="M18" t="s"/>
@@ -2190,40 +2223,40 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44152.74040916075</v>
+        <v>44152.73931671296</v>
       </c>
       <c r="C19" t="n">
-        <v>1818</v>
+        <v>1808</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M19" t="s"/>
       <c r="N19" t="s"/>
@@ -2232,41 +2265,39 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44151.93301048611</v>
+        <v>44152.73997747685</v>
       </c>
       <c r="C20" t="n">
-        <v>492</v>
+        <v>932</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K20" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" t="s">
-        <v>117</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="L20" t="s"/>
       <c r="M20" t="s"/>
       <c r="N20" t="s"/>
       <c r="O20" t="s"/>
@@ -2274,13 +2305,13 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44151.93445606482</v>
+        <v>44152.74040915509</v>
       </c>
       <c r="C21" t="n">
-        <v>447</v>
+        <v>1818</v>
       </c>
       <c r="D21" t="s">
         <v>118</v>
@@ -2295,18 +2326,20 @@
         <v>121</v>
       </c>
       <c r="H21" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="I21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="L21" t="s">
+        <v>122</v>
+      </c>
       <c r="M21" t="s"/>
       <c r="N21" t="s"/>
       <c r="O21" t="s"/>
@@ -2314,40 +2347,40 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44151.93638105324</v>
+        <v>44151.93301048611</v>
       </c>
       <c r="C22" t="n">
-        <v>2815</v>
+        <v>492</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" t="s">
         <v>30</v>
       </c>
-      <c r="J22" t="s">
-        <v>88</v>
-      </c>
       <c r="K22" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="L22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M22" t="s"/>
       <c r="N22" t="s"/>
@@ -2356,37 +2389,37 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44151.9380275463</v>
+        <v>44151.93445606482</v>
       </c>
       <c r="C23" t="n">
-        <v>718</v>
+        <v>447</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s">
         <v>44</v>
       </c>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K23" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="L23" t="s"/>
       <c r="M23" t="s"/>
@@ -2396,39 +2429,41 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44151.94313412037</v>
+        <v>44151.93638105324</v>
       </c>
       <c r="C24" t="n">
-        <v>2215</v>
+        <v>2815</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H24" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="K24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="L24" t="s">
+        <v>137</v>
+      </c>
       <c r="M24" t="s"/>
       <c r="N24" t="s"/>
       <c r="O24" t="s"/>
@@ -2436,37 +2471,37 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44151.94442238426</v>
+        <v>44151.9380275463</v>
       </c>
       <c r="C25" t="n">
-        <v>535</v>
+        <v>718</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E25" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F25" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I25" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L25" t="s"/>
       <c r="M25" t="s"/>
@@ -2476,37 +2511,37 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44151.94580212963</v>
+        <v>44151.94313412037</v>
       </c>
       <c r="C26" t="n">
-        <v>806</v>
+        <v>2215</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F26" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G26" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H26" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="I26" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J26" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L26" t="s"/>
       <c r="M26" t="s"/>
@@ -2516,37 +2551,37 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>44151.94637684028</v>
+        <v>44151.94442238426</v>
       </c>
       <c r="C27" t="n">
-        <v>2791</v>
+        <v>535</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F27" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G27" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H27" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I27" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K27" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L27" t="s"/>
       <c r="M27" t="s"/>
@@ -2556,37 +2591,37 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>44151.94748005787</v>
+        <v>44151.94580212963</v>
       </c>
       <c r="C28" t="n">
-        <v>2766</v>
+        <v>806</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F28" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H28" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J28" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K28" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L28" t="s"/>
       <c r="M28" t="s"/>
@@ -2596,41 +2631,39 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>44151.94979226852</v>
+        <v>44151.94637684028</v>
       </c>
       <c r="C29" t="n">
-        <v>3684</v>
+        <v>2791</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E29" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F29" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G29" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H29" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="J29" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" t="s">
-        <v>155</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L29" t="s"/>
       <c r="M29" t="s"/>
       <c r="N29" t="s"/>
       <c r="O29" t="s"/>
@@ -2638,41 +2671,39 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>44151.82759821759</v>
+        <v>44151.94748005787</v>
       </c>
       <c r="C30" t="n">
-        <v>2868</v>
+        <v>2766</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F30" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H30" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" t="s">
         <v>30</v>
       </c>
-      <c r="I30" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" t="s">
-        <v>31</v>
-      </c>
       <c r="K30" t="s">
-        <v>24</v>
-      </c>
-      <c r="L30" t="s">
-        <v>160</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L30" t="s"/>
       <c r="M30" t="s"/>
       <c r="N30" t="s"/>
       <c r="O30" t="s"/>
@@ -2680,40 +2711,40 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>44151.82841722222</v>
+        <v>44151.94979226852</v>
       </c>
       <c r="C31" t="n">
-        <v>1597</v>
+        <v>3684</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H31" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="I31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K31" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M31" t="s"/>
       <c r="N31" t="s"/>
@@ -2722,39 +2753,41 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>44151.829049375</v>
+        <v>44151.82759821759</v>
       </c>
       <c r="C32" t="n">
-        <v>2536</v>
+        <v>2868</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H32" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J32" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>30</v>
-      </c>
-      <c r="L32" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="L32" t="s">
+        <v>171</v>
+      </c>
       <c r="M32" t="s"/>
       <c r="N32" t="s"/>
       <c r="O32" t="s"/>
@@ -2762,39 +2795,41 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>44151.83006247685</v>
+        <v>44151.82841722222</v>
       </c>
       <c r="C33" t="n">
-        <v>1443</v>
+        <v>1597</v>
       </c>
       <c r="D33" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H33" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s">
         <v>31</v>
       </c>
       <c r="J33" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="K33" t="s">
-        <v>30</v>
-      </c>
-      <c r="L33" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="L33" t="s">
+        <v>176</v>
+      </c>
       <c r="M33" t="s"/>
       <c r="N33" t="s"/>
       <c r="O33" t="s"/>
@@ -2802,41 +2837,39 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44151.83185293982</v>
+        <v>44151.829049375</v>
       </c>
       <c r="C34" t="n">
-        <v>2693</v>
+        <v>2536</v>
       </c>
       <c r="D34" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F34" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G34" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I34" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="K34" t="s">
-        <v>88</v>
-      </c>
-      <c r="L34" t="s">
-        <v>179</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="L34" t="s"/>
       <c r="M34" t="s"/>
       <c r="N34" t="s"/>
       <c r="O34" t="s"/>
@@ -2844,37 +2877,37 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44151.83362222222</v>
+        <v>44151.83006247685</v>
       </c>
       <c r="C35" t="n">
-        <v>685</v>
+        <v>1443</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H35" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I35" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="J35" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="K35" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="L35" t="s"/>
       <c r="M35" t="s"/>
@@ -2884,39 +2917,41 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44151.83487901621</v>
+        <v>44151.83185293982</v>
       </c>
       <c r="C36" t="n">
-        <v>3196</v>
+        <v>2693</v>
       </c>
       <c r="D36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H36" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="K36" t="s">
-        <v>30</v>
-      </c>
-      <c r="L36" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="L36" t="s">
+        <v>190</v>
+      </c>
       <c r="M36" t="s"/>
       <c r="N36" t="s"/>
       <c r="O36" t="s"/>
@@ -2924,37 +2959,37 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44151.8362446875</v>
+        <v>44151.83362222222</v>
       </c>
       <c r="C37" t="n">
-        <v>2029</v>
+        <v>685</v>
       </c>
       <c r="D37" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F37" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G37" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H37" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="I37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J37" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="K37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L37" t="s"/>
       <c r="M37" t="s"/>
@@ -2964,37 +2999,37 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>44151.83740932871</v>
+        <v>44151.83487901621</v>
       </c>
       <c r="C38" t="n">
-        <v>1013</v>
+        <v>3196</v>
       </c>
       <c r="D38" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E38" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F38" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G38" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H38" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J38" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K38" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="L38" t="s"/>
       <c r="M38" t="s"/>
@@ -3004,37 +3039,37 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>44151.82177193287</v>
+        <v>44151.8362446875</v>
       </c>
       <c r="C39" t="n">
-        <v>3147</v>
+        <v>2029</v>
       </c>
       <c r="D39" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F39" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G39" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H39" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="I39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J39" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="K39" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="L39" t="s"/>
       <c r="M39" t="s"/>
@@ -3044,123 +3079,117 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44151.74385679398</v>
+        <v>44151.83740932871</v>
       </c>
       <c r="C40" t="n">
-        <v>2231</v>
+        <v>1013</v>
       </c>
       <c r="D40" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E40" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F40" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G40" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="I40" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J40" t="s">
         <v>23</v>
       </c>
       <c r="K40" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L40" t="s"/>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
+      <c r="M40" t="s"/>
       <c r="N40" t="s"/>
       <c r="O40" t="s"/>
       <c r="P40" t="s"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44151.74608694445</v>
+        <v>44151.82177193287</v>
       </c>
       <c r="C41" t="n">
-        <v>2768</v>
+        <v>3147</v>
       </c>
       <c r="D41" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E41" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F41" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G41" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H41" t="s">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="I41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J41" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L41" t="s">
-        <v>209</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="L41" t="s"/>
+      <c r="M41" t="s"/>
       <c r="N41" t="s"/>
       <c r="O41" t="s"/>
       <c r="P41" t="s"/>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44151.74719898148</v>
+        <v>44151.74385679398</v>
       </c>
       <c r="C42" t="n">
-        <v>2788</v>
+        <v>2231</v>
       </c>
       <c r="D42" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E42" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F42" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G42" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H42" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I42" t="s">
         <v>31</v>
       </c>
       <c r="J42" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L42" t="s"/>
       <c r="M42" t="n">
@@ -3172,131 +3201,129 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44151.72016962963</v>
+        <v>44151.74608694445</v>
       </c>
       <c r="C43" t="n">
-        <v>1835</v>
+        <v>2768</v>
       </c>
       <c r="D43" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E43" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F43" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G43" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H43" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K43" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="L43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
+      <c r="N43" t="s"/>
       <c r="O43" t="s"/>
       <c r="P43" t="s"/>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44151.72130056713</v>
+        <v>44151.74719898148</v>
       </c>
       <c r="C44" t="n">
-        <v>1232</v>
+        <v>2788</v>
       </c>
       <c r="D44" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E44" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F44" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G44" t="s">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="H44" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J44" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K44" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L44" t="s"/>
       <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="n">
         <v>0</v>
       </c>
+      <c r="N44" t="s"/>
       <c r="O44" t="s"/>
       <c r="P44" t="s"/>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44151.72318013889</v>
+        <v>44151.72016962963</v>
       </c>
       <c r="C45" t="n">
-        <v>729</v>
+        <v>1835</v>
       </c>
       <c r="D45" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E45" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F45" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G45" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H45" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="I45" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J45" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="K45" t="s">
-        <v>24</v>
-      </c>
-      <c r="L45" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="L45" t="s">
+        <v>229</v>
+      </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -3306,41 +3333,41 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44151.72479038194</v>
+        <v>44151.72130056713</v>
       </c>
       <c r="C46" t="n">
-        <v>980</v>
+        <v>1232</v>
       </c>
       <c r="D46" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E46" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F46" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G46" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="H46" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I46" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J46" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L46" t="s"/>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -3350,41 +3377,41 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44151.7262485301</v>
+        <v>44151.72318013889</v>
       </c>
       <c r="C47" t="n">
-        <v>3296</v>
+        <v>729</v>
       </c>
       <c r="D47" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E47" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F47" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G47" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H47" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I47" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J47" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K47" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L47" t="s"/>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -3394,43 +3421,41 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44151.7274534375</v>
+        <v>44151.72479038194</v>
       </c>
       <c r="C48" t="n">
-        <v>142</v>
+        <v>980</v>
       </c>
       <c r="D48" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E48" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F48" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G48" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H48" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48" t="s">
+        <v>50</v>
+      </c>
+      <c r="J48" t="s">
         <v>30</v>
       </c>
-      <c r="I48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J48" t="s">
-        <v>23</v>
-      </c>
       <c r="K48" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" t="s">
-        <v>238</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="L48" t="s"/>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3440,41 +3465,41 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44151.72884155092</v>
+        <v>44151.7262485301</v>
       </c>
       <c r="C49" t="n">
-        <v>500</v>
+        <v>3296</v>
       </c>
       <c r="D49" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E49" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F49" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G49" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="H49" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I49" t="s">
-        <v>242</v>
+        <v>50</v>
       </c>
       <c r="J49" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K49" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L49" t="s"/>
       <c r="M49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3484,43 +3509,43 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44151.73146354167</v>
+        <v>44151.7274534375</v>
       </c>
       <c r="C50" t="n">
-        <v>1964</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E50" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F50" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G50" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H50" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I50" t="s">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="J50" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K50" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="L50" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M50" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3530,43 +3555,41 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44151.73427538195</v>
+        <v>44151.72884155092</v>
       </c>
       <c r="C51" t="n">
-        <v>321</v>
+        <v>500</v>
       </c>
       <c r="D51" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E51" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F51" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G51" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="H51" t="s">
+        <v>43</v>
+      </c>
+      <c r="I51" t="s">
         <v>253</v>
       </c>
-      <c r="I51" t="s">
-        <v>254</v>
-      </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K51" t="s">
-        <v>24</v>
-      </c>
-      <c r="L51" t="s">
-        <v>255</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L51" t="s"/>
       <c r="M51" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3576,41 +3599,43 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44150.92973521991</v>
+        <v>44151.73146354167</v>
       </c>
       <c r="C52" t="n">
-        <v>3103</v>
+        <v>1964</v>
       </c>
       <c r="D52" t="s">
+        <v>254</v>
+      </c>
+      <c r="E52" t="s">
+        <v>255</v>
+      </c>
+      <c r="F52" t="s">
         <v>256</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G52" t="s">
         <v>257</v>
       </c>
-      <c r="F52" t="s">
+      <c r="H52" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" t="s">
         <v>258</v>
       </c>
-      <c r="G52" t="s">
+      <c r="J52" t="s">
+        <v>44</v>
+      </c>
+      <c r="K52" t="s">
+        <v>99</v>
+      </c>
+      <c r="L52" t="s">
         <v>259</v>
       </c>
-      <c r="H52" t="s">
-        <v>30</v>
-      </c>
-      <c r="I52" t="s">
-        <v>22</v>
-      </c>
-      <c r="J52" t="s">
-        <v>24</v>
-      </c>
-      <c r="K52" t="s">
-        <v>24</v>
-      </c>
-      <c r="L52" t="s"/>
       <c r="M52" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3620,13 +3645,13 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44150.93092240741</v>
+        <v>44151.73427538195</v>
       </c>
       <c r="C53" t="n">
-        <v>1754</v>
+        <v>321</v>
       </c>
       <c r="D53" t="s">
         <v>260</v>
@@ -3641,881 +3666,877 @@
         <v>263</v>
       </c>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="I53" t="s">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="J53" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K53" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L53" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M53" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="s"/>
       <c r="P53" t="s"/>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44150.93139512731</v>
+        <v>44150.92973521991</v>
       </c>
       <c r="C54" t="n">
-        <v>41</v>
+        <v>3103</v>
       </c>
       <c r="D54" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E54" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F54" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G54" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H54" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J54" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K54" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L54" t="s"/>
       <c r="M54" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O54" t="s"/>
       <c r="P54" t="s"/>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>44150.9320803125</v>
+        <v>44150.93092240741</v>
       </c>
       <c r="C55" t="n">
-        <v>2062</v>
+        <v>1754</v>
       </c>
       <c r="D55" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E55" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F55" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G55" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H55" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="I55" t="s">
         <v>31</v>
       </c>
       <c r="J55" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="K55" t="s">
-        <v>24</v>
-      </c>
-      <c r="L55" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="L55" t="s">
+        <v>275</v>
+      </c>
       <c r="M55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O55" t="s"/>
       <c r="P55" t="s"/>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44150.93366619213</v>
+        <v>44150.93139512731</v>
       </c>
       <c r="C56" t="n">
-        <v>1509</v>
+        <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E56" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F56" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G56" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H56" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I56" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J56" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="K56" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L56" t="s"/>
       <c r="M56" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O56" t="s"/>
       <c r="P56" t="s"/>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44150.93590909722</v>
+        <v>44150.9320803125</v>
       </c>
       <c r="C57" t="n">
-        <v>626</v>
+        <v>2062</v>
       </c>
       <c r="D57" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E57" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F57" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G57" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H57" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I57" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J57" t="s">
         <v>30</v>
       </c>
       <c r="K57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L57" t="s"/>
       <c r="M57" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O57" t="s"/>
       <c r="P57" t="s"/>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44150.93629255787</v>
+        <v>44150.93366619213</v>
       </c>
       <c r="C58" t="n">
-        <v>2214</v>
+        <v>1509</v>
       </c>
       <c r="D58" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E58" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F58" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G58" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I58" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K58" t="s">
-        <v>24</v>
-      </c>
-      <c r="L58" t="s">
-        <v>285</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L58" t="s"/>
       <c r="M58" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N58" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O58" t="s"/>
       <c r="P58" t="s"/>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44150.93726997685</v>
+        <v>44150.93590909722</v>
       </c>
       <c r="C59" t="n">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="D59" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E59" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F59" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G59" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H59" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I59" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J59" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K59" t="s">
-        <v>24</v>
-      </c>
-      <c r="L59" t="s">
-        <v>290</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="L59" t="s"/>
       <c r="M59" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N59" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O59" t="s"/>
       <c r="P59" t="s"/>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44150.93919015046</v>
+        <v>44150.93629255787</v>
       </c>
       <c r="C60" t="n">
-        <v>3128</v>
+        <v>2214</v>
       </c>
       <c r="D60" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E60" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F60" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G60" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H60" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="I60" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J60" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K60" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L60" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N60" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O60" t="s"/>
       <c r="P60" t="s"/>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>44150.93726997685</v>
+      </c>
+      <c r="C61" t="n">
+        <v>638</v>
+      </c>
+      <c r="D61" t="s">
+        <v>297</v>
+      </c>
+      <c r="E61" t="s">
+        <v>298</v>
+      </c>
+      <c r="F61" t="s">
+        <v>299</v>
+      </c>
+      <c r="G61" t="s">
+        <v>300</v>
+      </c>
+      <c r="H61" t="s">
+        <v>43</v>
+      </c>
+      <c r="I61" t="s">
+        <v>44</v>
+      </c>
+      <c r="J61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" t="s">
+        <v>32</v>
+      </c>
+      <c r="L61" t="s">
+        <v>301</v>
+      </c>
+      <c r="M61" t="n">
         <v>16</v>
       </c>
-      <c r="B61" s="2" t="n">
-        <v>44150.92973521991</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3103</v>
-      </c>
-      <c r="D61" t="s">
-        <v>256</v>
-      </c>
-      <c r="E61" t="s">
-        <v>257</v>
-      </c>
-      <c r="F61" t="s">
-        <v>258</v>
-      </c>
-      <c r="G61" t="s">
-        <v>259</v>
-      </c>
-      <c r="H61" t="s">
-        <v>30</v>
-      </c>
-      <c r="I61" t="s">
-        <v>22</v>
-      </c>
-      <c r="J61" t="s">
-        <v>24</v>
-      </c>
-      <c r="K61" t="s">
-        <v>24</v>
-      </c>
-      <c r="L61" t="s"/>
-      <c r="M61" t="n">
-        <v>18</v>
-      </c>
       <c r="N61" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O61" t="s"/>
       <c r="P61" t="s"/>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44150.93092240741</v>
+        <v>44150.93919015046</v>
       </c>
       <c r="C62" t="n">
-        <v>1754</v>
+        <v>3128</v>
       </c>
       <c r="D62" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="E62" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="F62" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="G62" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="I62" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J62" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K62" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L62" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="M62" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N62" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O62" t="s"/>
       <c r="P62" t="s"/>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44150.93139512731</v>
+        <v>44150.92973521991</v>
       </c>
       <c r="C63" t="n">
-        <v>41</v>
+        <v>3103</v>
       </c>
       <c r="D63" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E63" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F63" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G63" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H63" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I63" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J63" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K63" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L63" t="s"/>
       <c r="M63" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N63" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O63" t="s"/>
       <c r="P63" t="s"/>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44150.9320803125</v>
+        <v>44150.93092240741</v>
       </c>
       <c r="C64" t="n">
-        <v>2062</v>
+        <v>1754</v>
       </c>
       <c r="D64" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E64" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F64" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G64" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H64" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="I64" t="s">
         <v>31</v>
       </c>
       <c r="J64" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="K64" t="s">
-        <v>24</v>
-      </c>
-      <c r="L64" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="L64" t="s">
+        <v>275</v>
+      </c>
       <c r="M64" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N64" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O64" t="s"/>
       <c r="P64" t="s"/>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44150.93366619213</v>
+        <v>44150.93139512731</v>
       </c>
       <c r="C65" t="n">
-        <v>1509</v>
+        <v>41</v>
       </c>
       <c r="D65" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E65" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F65" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G65" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H65" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I65" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J65" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="K65" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L65" t="s"/>
       <c r="M65" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N65" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O65" t="s"/>
       <c r="P65" t="s"/>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44150.93590909722</v>
+        <v>44150.9320803125</v>
       </c>
       <c r="C66" t="n">
-        <v>626</v>
+        <v>2062</v>
       </c>
       <c r="D66" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E66" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F66" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G66" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H66" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I66" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J66" t="s">
         <v>30</v>
       </c>
       <c r="K66" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L66" t="s"/>
       <c r="M66" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N66" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O66" t="s"/>
       <c r="P66" t="s"/>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44150.93629255787</v>
+        <v>44150.93366619213</v>
       </c>
       <c r="C67" t="n">
-        <v>2214</v>
+        <v>1509</v>
       </c>
       <c r="D67" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E67" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F67" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G67" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H67" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I67" t="s">
+        <v>50</v>
+      </c>
+      <c r="J67" t="s">
+        <v>30</v>
+      </c>
+      <c r="K67" t="s">
+        <v>32</v>
+      </c>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
         <v>22</v>
       </c>
-      <c r="J67" t="s">
-        <v>45</v>
-      </c>
-      <c r="K67" t="s">
-        <v>24</v>
-      </c>
-      <c r="L67" t="s">
-        <v>285</v>
-      </c>
-      <c r="M67" t="n">
-        <v>24</v>
-      </c>
       <c r="N67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O67" t="s"/>
       <c r="P67" t="s"/>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44150.93726997685</v>
+        <v>44150.93590909722</v>
       </c>
       <c r="C68" t="n">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="D68" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E68" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F68" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G68" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H68" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I68" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J68" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K68" t="s">
-        <v>24</v>
-      </c>
-      <c r="L68" t="s">
-        <v>290</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="L68" t="s"/>
       <c r="M68" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N68" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O68" t="s"/>
       <c r="P68" t="s"/>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44150.93919015046</v>
+        <v>44150.93629255787</v>
       </c>
       <c r="C69" t="n">
-        <v>3128</v>
+        <v>2214</v>
       </c>
       <c r="D69" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E69" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F69" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G69" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H69" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="I69" t="s">
+        <v>31</v>
+      </c>
+      <c r="J69" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" t="s">
+        <v>32</v>
+      </c>
+      <c r="L69" t="s">
+        <v>296</v>
+      </c>
+      <c r="M69" t="n">
         <v>24</v>
       </c>
-      <c r="J69" t="s">
-        <v>31</v>
-      </c>
-      <c r="K69" t="s">
-        <v>24</v>
-      </c>
-      <c r="L69" t="s">
-        <v>295</v>
-      </c>
-      <c r="M69" t="n">
-        <v>26</v>
-      </c>
       <c r="N69" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O69" t="s"/>
       <c r="P69" t="s"/>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>44150.93726997685</v>
+      </c>
+      <c r="C70" t="n">
+        <v>638</v>
+      </c>
+      <c r="D70" t="s">
+        <v>297</v>
+      </c>
+      <c r="E70" t="s">
+        <v>298</v>
+      </c>
+      <c r="F70" t="s">
+        <v>299</v>
+      </c>
+      <c r="G70" t="s">
+        <v>300</v>
+      </c>
+      <c r="H70" t="s">
+        <v>43</v>
+      </c>
+      <c r="I70" t="s">
+        <v>44</v>
+      </c>
+      <c r="J70" t="s">
+        <v>23</v>
+      </c>
+      <c r="K70" t="s">
+        <v>32</v>
+      </c>
+      <c r="L70" t="s">
+        <v>301</v>
+      </c>
+      <c r="M70" t="n">
+        <v>25</v>
+      </c>
+      <c r="N70" t="n">
         <v>16</v>
       </c>
-      <c r="B70" s="2" t="n">
-        <v>44150.91491172454</v>
-      </c>
-      <c r="C70" t="n">
-        <v>219</v>
-      </c>
-      <c r="D70" t="s">
-        <v>296</v>
-      </c>
-      <c r="E70" t="s">
-        <v>297</v>
-      </c>
-      <c r="F70" t="s">
-        <v>298</v>
-      </c>
-      <c r="G70" t="s">
-        <v>299</v>
-      </c>
-      <c r="H70" t="s">
-        <v>24</v>
-      </c>
-      <c r="I70" t="s">
-        <v>24</v>
-      </c>
-      <c r="J70" t="s">
-        <v>45</v>
-      </c>
-      <c r="K70" t="s">
-        <v>24</v>
-      </c>
-      <c r="L70" t="s"/>
-      <c r="M70" t="n">
-        <v>27</v>
-      </c>
-      <c r="N70" t="n">
-        <v>18</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0</v>
-      </c>
+      <c r="O70" t="s"/>
       <c r="P70" t="s"/>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44150.9158749537</v>
+        <v>44150.93919015046</v>
       </c>
       <c r="C71" t="n">
-        <v>3291</v>
+        <v>3128</v>
       </c>
       <c r="D71" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E71" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F71" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G71" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H71" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I71" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J71" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="K71" t="s">
-        <v>88</v>
-      </c>
-      <c r="L71" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="L71" t="s">
+        <v>306</v>
+      </c>
       <c r="M71" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N71" t="n">
-        <v>19</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="O71" t="s"/>
       <c r="P71" t="s"/>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44150.91647944444</v>
+        <v>44150.91491172454</v>
       </c>
       <c r="C72" t="n">
-        <v>2337</v>
+        <v>219</v>
       </c>
       <c r="D72" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E72" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F72" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G72" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H72" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="I72" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="K72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L72" t="s">
-        <v>308</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L72" t="s"/>
       <c r="M72" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N72" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -4524,46 +4545,44 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44150.91708795139</v>
+        <v>44150.9158749537</v>
       </c>
       <c r="C73" t="n">
-        <v>3783</v>
+        <v>3291</v>
       </c>
       <c r="D73" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E73" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F73" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G73" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H73" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I73" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K73" t="s">
-        <v>24</v>
-      </c>
-      <c r="L73" t="s">
-        <v>313</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="L73" t="s"/>
       <c r="M73" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N73" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -4572,44 +4591,46 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44150.91861394676</v>
+        <v>44150.91647944444</v>
       </c>
       <c r="C74" t="n">
-        <v>2088</v>
+        <v>2337</v>
       </c>
       <c r="D74" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E74" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F74" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G74" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H74" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="I74" t="s">
         <v>31</v>
       </c>
       <c r="J74" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="K74" t="s">
-        <v>24</v>
-      </c>
-      <c r="L74" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="L74" t="s">
+        <v>319</v>
+      </c>
       <c r="M74" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N74" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -4618,46 +4639,46 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44150.91975104166</v>
+        <v>44150.91708795139</v>
       </c>
       <c r="C75" t="n">
-        <v>3686</v>
+        <v>3783</v>
       </c>
       <c r="D75" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E75" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F75" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G75" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H75" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="I75" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="J75" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="K75" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L75" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M75" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -4666,46 +4687,44 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44150.92170524305</v>
+        <v>44150.91861394676</v>
       </c>
       <c r="C76" t="n">
-        <v>2853</v>
+        <v>2088</v>
       </c>
       <c r="D76" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E76" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F76" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G76" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H76" t="s">
+        <v>50</v>
+      </c>
+      <c r="I76" t="s">
+        <v>23</v>
+      </c>
+      <c r="J76" t="s">
         <v>30</v>
       </c>
-      <c r="I76" t="s">
+      <c r="K76" t="s">
+        <v>32</v>
+      </c>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>31</v>
+      </c>
+      <c r="N76" t="n">
         <v>22</v>
-      </c>
-      <c r="J76" t="s">
-        <v>45</v>
-      </c>
-      <c r="K76" t="s">
-        <v>24</v>
-      </c>
-      <c r="L76" t="s">
-        <v>327</v>
-      </c>
-      <c r="M76" t="n">
-        <v>33</v>
-      </c>
-      <c r="N76" t="n">
-        <v>24</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -4714,44 +4733,46 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44150.92246048611</v>
+        <v>44150.91975104166</v>
       </c>
       <c r="C77" t="n">
-        <v>2899</v>
+        <v>3686</v>
       </c>
       <c r="D77" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E77" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F77" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G77" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H77" t="s">
+        <v>57</v>
+      </c>
+      <c r="I77" t="s">
+        <v>21</v>
+      </c>
+      <c r="J77" t="s">
         <v>30</v>
       </c>
-      <c r="I77" t="s">
-        <v>22</v>
-      </c>
-      <c r="J77" t="s">
-        <v>24</v>
-      </c>
       <c r="K77" t="s">
-        <v>24</v>
-      </c>
-      <c r="L77" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="L77" t="s">
+        <v>333</v>
+      </c>
       <c r="M77" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N77" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -4760,44 +4781,46 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44150.92315710648</v>
+        <v>44150.92170524305</v>
       </c>
       <c r="C78" t="n">
-        <v>429</v>
+        <v>2853</v>
       </c>
       <c r="D78" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E78" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F78" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G78" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H78" t="s">
+        <v>44</v>
+      </c>
+      <c r="I78" t="s">
+        <v>31</v>
+      </c>
+      <c r="J78" t="s">
         <v>21</v>
       </c>
-      <c r="I78" t="s">
-        <v>22</v>
-      </c>
-      <c r="J78" t="s">
-        <v>23</v>
-      </c>
       <c r="K78" t="s">
+        <v>32</v>
+      </c>
+      <c r="L78" t="s">
+        <v>338</v>
+      </c>
+      <c r="M78" t="n">
+        <v>33</v>
+      </c>
+      <c r="N78" t="n">
         <v>24</v>
-      </c>
-      <c r="L78" t="s"/>
-      <c r="M78" t="n">
-        <v>35</v>
-      </c>
-      <c r="N78" t="n">
-        <v>26</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -4806,44 +4829,44 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>44150.92537696759</v>
+        <v>44150.92246048611</v>
       </c>
       <c r="C79" t="n">
-        <v>931</v>
+        <v>2899</v>
       </c>
       <c r="D79" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E79" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F79" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G79" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H79" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I79" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="J79" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="K79" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L79" t="s"/>
       <c r="M79" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N79" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -4852,147 +4875,141 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>44147.90281010417</v>
+        <v>44150.92315710648</v>
       </c>
       <c r="C80" t="n">
-        <v>1283</v>
+        <v>429</v>
       </c>
       <c r="D80" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E80" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F80" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G80" t="s">
-        <v>339</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>2</v>
+        <v>346</v>
+      </c>
+      <c r="H80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I80" t="s">
+        <v>31</v>
       </c>
       <c r="J80" t="s">
-        <v>88</v>
-      </c>
-      <c r="K80" t="n">
-        <v>1</v>
-      </c>
-      <c r="L80" t="s">
-        <v>343</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K80" t="s">
+        <v>32</v>
+      </c>
+      <c r="L80" t="s"/>
       <c r="M80" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N80" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
       </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
+      <c r="P80" t="s"/>
     </row>
     <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>44147.90575298611</v>
+        <v>44150.92537696759</v>
       </c>
       <c r="C81" t="n">
-        <v>2569</v>
+        <v>931</v>
       </c>
       <c r="D81" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E81" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F81" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G81" t="s">
-        <v>347</v>
-      </c>
-      <c r="H81" t="n">
-        <v>7</v>
-      </c>
-      <c r="I81" t="n">
-        <v>5</v>
+        <v>350</v>
+      </c>
+      <c r="H81" t="s">
+        <v>43</v>
+      </c>
+      <c r="I81" t="s">
+        <v>117</v>
       </c>
       <c r="J81" t="s">
-        <v>31</v>
-      </c>
-      <c r="K81" t="n">
-        <v>3</v>
-      </c>
-      <c r="L81" t="s">
-        <v>348</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="K81" t="s">
+        <v>44</v>
+      </c>
+      <c r="L81" t="s"/>
       <c r="M81" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N81" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O81" t="n">
-        <v>1</v>
-      </c>
-      <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="P81" t="s"/>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>44147.90636120371</v>
+        <v>44147.90281010417</v>
       </c>
       <c r="C82" t="n">
-        <v>3552</v>
+        <v>1283</v>
       </c>
       <c r="D82" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E82" t="s">
+        <v>352</v>
+      </c>
+      <c r="F82" t="s">
+        <v>353</v>
+      </c>
+      <c r="G82" t="s">
         <v>350</v>
-      </c>
-      <c r="F82" t="s">
-        <v>351</v>
-      </c>
-      <c r="G82" t="s">
-        <v>352</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="K82" t="n">
         <v>1</v>
       </c>
-      <c r="L82" t="s"/>
+      <c r="L82" t="s">
+        <v>354</v>
+      </c>
       <c r="M82" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N82" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P82" t="n">
         <v>0</v>
@@ -5000,49 +5017,147 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44147.90702556713</v>
+        <v>44147.90575298611</v>
       </c>
       <c r="C83" t="n">
-        <v>2926</v>
+        <v>2569</v>
       </c>
       <c r="D83" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E83" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F83" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G83" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I83" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K83" t="n">
         <v>3</v>
       </c>
-      <c r="L83" t="s"/>
+      <c r="L83" t="s">
+        <v>359</v>
+      </c>
       <c r="M83" t="n">
+        <v>38</v>
+      </c>
+      <c r="N83" t="n">
+        <v>29</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>44147.90636120371</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3552</v>
+      </c>
+      <c r="D84" t="s">
+        <v>360</v>
+      </c>
+      <c r="E84" t="s">
+        <v>361</v>
+      </c>
+      <c r="F84" t="s">
+        <v>362</v>
+      </c>
+      <c r="G84" t="s">
+        <v>363</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3</v>
+      </c>
+      <c r="J84" t="s">
+        <v>21</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="s"/>
+      <c r="M84" t="n">
+        <v>39</v>
+      </c>
+      <c r="N84" t="n">
+        <v>30</v>
+      </c>
+      <c r="O84" t="n">
+        <v>2</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>44147.90702556713</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2926</v>
+      </c>
+      <c r="D85" t="s">
+        <v>364</v>
+      </c>
+      <c r="E85" t="s">
+        <v>365</v>
+      </c>
+      <c r="F85" t="s">
+        <v>366</v>
+      </c>
+      <c r="G85" t="s">
+        <v>367</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>9</v>
+      </c>
+      <c r="J85" t="s">
+        <v>32</v>
+      </c>
+      <c r="K85" t="n">
+        <v>3</v>
+      </c>
+      <c r="L85" t="s"/>
+      <c r="M85" t="n">
         <v>40</v>
       </c>
-      <c r="N83" t="n">
+      <c r="N85" t="n">
         <v>31</v>
       </c>
-      <c r="O83" t="n">
+      <c r="O85" t="n">
         <v>3</v>
       </c>
-      <c r="P83" t="n">
+      <c r="P85" t="n">
         <v>0</v>
       </c>
     </row>

--- a/classification-record/session-all-models-combined.xlsx
+++ b/classification-record/session-all-models-combined.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="438">
   <si>
     <t>Name</t>
   </si>
@@ -65,6 +65,267 @@
     <t>Unnamed: 0.1.1.1</t>
   </si>
   <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>POSH PLUS MINTY LYCHEE DISPOSABLE VAPE REVIEW</t>
+  </si>
+  <si>
+    <t>30vI3BkfR0E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=30vI3BkfR0E</t>
+  </si>
+  <si>
+    <t>DisorderVapes</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Nicotine safety and safety of new nicotine delivery devices</t>
+  </si>
+  <si>
+    <t>oYnyHDG_vq8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oYnyHDG_vq8</t>
+  </si>
+  <si>
+    <t>Jon Derricott</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>BOX MODS VS PODS SYSTEMS WHICH ONE IS BETTER?? (EJUICE VS SALT NIXS)</t>
+  </si>
+  <si>
+    <t>DsP_pLKoq6I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DsP_pLKoq6I</t>
+  </si>
+  <si>
+    <t>Riley Lapointe</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3 5</t>
+  </si>
+  <si>
+    <t>Geek Vape Zeus Top Air Mesh Tank &amp; Aegis Legend Special Edition!</t>
+  </si>
+  <si>
+    <t>xlIlPeKZkoM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xlIlPeKZkoM</t>
+  </si>
+  <si>
+    <t>Matt From SMM</t>
+  </si>
+  <si>
+    <t>XTRA ORANGE DISPOSABLE VAPE REVIEW 1500 PUFFS</t>
+  </si>
+  <si>
+    <t>LYkA4AUWZA0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LYkA4AUWZA0</t>
+  </si>
+  <si>
+    <t>Difference of ecig vapor to cigarette smoke. A simple experiment</t>
+  </si>
+  <si>
+    <t>PUtqOMGMrt8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PUtqOMGMrt8</t>
+  </si>
+  <si>
+    <t>alter ego</t>
+  </si>
+  <si>
+    <t>1 7</t>
+  </si>
+  <si>
+    <t>One Of My Favorite Vape Mods! UWELL Crown IV Checkmate Kit!</t>
+  </si>
+  <si>
+    <t>qRMgSh0eq-g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qRMgSh0eq-g</t>
+  </si>
+  <si>
+    <t>RiP Trippers</t>
+  </si>
+  <si>
+    <t>Vape Video: How to refill and rewicking myblu  pod, liquid cartridges</t>
+  </si>
+  <si>
+    <t>CjdHB85S6YY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CjdHB85S6YY</t>
+  </si>
+  <si>
+    <t>The RHINO</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Vuse vs V2 vs NJOY: Best Most Realistic Cigalike E-Cigarettes</t>
+  </si>
+  <si>
+    <t>wObj-pL_BiE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wObj-pL_BiE</t>
+  </si>
+  <si>
+    <t>Martin Lotsberg</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>TAKE OFF Vape Liquid</t>
+  </si>
+  <si>
+    <t>HLsTYKAfJBU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HLsTYKAfJBU</t>
+  </si>
+  <si>
+    <t>Ryan Hall</t>
+  </si>
+  <si>
+    <t>MARIJUANA ESSENCE! - Cheeba Eliquid Review!</t>
+  </si>
+  <si>
+    <t>F6g-wc8LCb0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F6g-wc8LCb0</t>
+  </si>
+  <si>
+    <t>The Scots Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vape imagery merch </t>
+  </si>
+  <si>
+    <t>Disposable Face Mask instructions</t>
+  </si>
+  <si>
+    <t>fefHQydbpdQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fefHQydbpdQ</t>
+  </si>
+  <si>
+    <t>blueplanetsurf</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>blueplanet earth- makes "green" products</t>
+  </si>
+  <si>
+    <t>CE8 Clearomizer Review - IndoorSmokers</t>
+  </si>
+  <si>
+    <t>12_JkcJD9_0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=12_JkcJD9_0</t>
+  </si>
+  <si>
+    <t>IndoorSmokers</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Unbelievable Magical NIC BARS Flavors (Disposables)</t>
+  </si>
+  <si>
+    <t>-x8z_8AUXZE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-x8z_8AUXZE</t>
+  </si>
+  <si>
+    <t>Aegis Boost By Geek Vape Review (fantastic) - E Cig City Reviews &amp; Tutorials</t>
+  </si>
+  <si>
+    <t>_EdVMHhI450</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_EdVMHhI450</t>
+  </si>
+  <si>
+    <t>E Cig City UK</t>
+  </si>
+  <si>
+    <t>We did it! We Found the Perfect Vape Juice!</t>
+  </si>
+  <si>
+    <t>Cy-xqhsSdGo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Cy-xqhsSdGo</t>
+  </si>
+  <si>
+    <t>How to Clean Vape Pen Contacts &amp; Threads</t>
+  </si>
+  <si>
+    <t>H8wYfgp_YkI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H8wYfgp_YkI</t>
+  </si>
+  <si>
+    <t>VaporWarehouse</t>
+  </si>
+  <si>
+    <t>EON Charge | Smokers are switching to this? | #smartswitch</t>
+  </si>
+  <si>
+    <t>crMvSeeDDd8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=crMvSeeDDd8</t>
+  </si>
+  <si>
+    <t>DivPiv</t>
+  </si>
+  <si>
+    <t>0 7</t>
+  </si>
+  <si>
     <t>ALEX</t>
   </si>
   <si>
@@ -80,15 +341,6 @@
     <t>DabConnection</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>0 1 2</t>
   </si>
   <si>
@@ -107,18 +359,6 @@
     <t>ABC15 Arizona</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
     <t>CDC Finds Possible Cause For Vaping Illness | TODAY</t>
   </si>
   <si>
@@ -146,12 +386,6 @@
     <t>VapePowered</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>vape review / information website (shut down)</t>
   </si>
   <si>
@@ -167,9 +401,6 @@
     <t>Vape Dinner Lady</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>1 6</t>
   </si>
   <si>
@@ -188,9 +419,6 @@
     <t>Mr Baz Reviews</t>
   </si>
   <si>
-    <t>3 7</t>
-  </si>
-  <si>
     <t>DNA250c Passthrough DIY Box Mod Build</t>
   </si>
   <si>
@@ -284,9 +512,6 @@
     <t>LoyleCarnerVEVO</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t xml:space="preserve">music video </t>
   </si>
   <si>
@@ -314,9 +539,6 @@
     <t>VapeHoneyStick</t>
   </si>
   <si>
-    <t>0 1</t>
-  </si>
-  <si>
     <t>SCNDRL Vape Mod Battery Rattle Fix Scoundrel Mechanical Mod Team Knucklehead</t>
   </si>
   <si>
@@ -425,9 +647,6 @@
     <t>https://www.youtube.com/watch?v=OBrECm-u_U4</t>
   </si>
   <si>
-    <t>Ryan Hall</t>
-  </si>
-  <si>
     <t xml:space="preserve">entertainment, mixing a bunch of eliquids together for fun </t>
   </si>
   <si>
@@ -626,9 +845,6 @@
     <t>HookahTownUSA</t>
   </si>
   <si>
-    <t>0 7</t>
-  </si>
-  <si>
     <t>2002 Le Defi Mark Ten Challenge</t>
   </si>
   <si>
@@ -959,9 +1175,6 @@
     <t>https://www.youtube.com/watch?v=e0vBqKcsTM8</t>
   </si>
   <si>
-    <t>Martin Lotsberg</t>
-  </si>
-  <si>
     <t>Pepega Edition Finale - HOW will it end?! | NFS MW KuruHS</t>
   </si>
   <si>
@@ -999,9 +1212,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=s9Y4VxsrrYU</t>
-  </si>
-  <si>
-    <t>Matt From SMM</t>
   </si>
   <si>
     <t>How to Rewick Smok Infinix Vape Pod</t>
@@ -1471,7 +1681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1534,10 +1744,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44152.9350460642</v>
+        <v>44152.94488611087</v>
       </c>
       <c r="C2" t="n">
-        <v>1211</v>
+        <v>3736</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1563,9 +1773,7 @@
       <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
+      <c r="L2" t="s"/>
       <c r="M2" t="s"/>
       <c r="N2" t="s"/>
       <c r="O2" t="s"/>
@@ -1576,34 +1784,34 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44152.93587419215</v>
+        <v>44152.94543058294</v>
       </c>
       <c r="C3" t="n">
-        <v>3133</v>
+        <v>2910</v>
       </c>
       <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s"/>
       <c r="M3" t="s"/>
@@ -1613,37 +1821,37 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>44152.94605509117</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1014</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>44152.72548280092</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2161</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s"/>
       <c r="M4" t="s"/>
@@ -1653,41 +1861,39 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44152.72664763889</v>
+        <v>44152.94758678785</v>
       </c>
       <c r="C5" t="n">
-        <v>543</v>
+        <v>867</v>
       </c>
       <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
         <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" t="s">
-        <v>45</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="L5" t="s"/>
       <c r="M5" t="s"/>
       <c r="N5" t="s"/>
       <c r="O5" t="s"/>
@@ -1695,41 +1901,39 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44152.72759101852</v>
+        <v>44152.94781290205</v>
       </c>
       <c r="C6" t="n">
-        <v>1538</v>
+        <v>3173</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" t="s">
-        <v>52</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L6" t="s"/>
       <c r="M6" t="s"/>
       <c r="N6" t="s"/>
       <c r="O6" t="s"/>
@@ -1737,37 +1941,37 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44152.72848203704</v>
+        <v>44152.94933358913</v>
       </c>
       <c r="C7" t="n">
-        <v>2414</v>
+        <v>2421</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s"/>
       <c r="M7" t="s"/>
@@ -1777,41 +1981,39 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44152.72958725694</v>
+        <v>44152.9497333416</v>
       </c>
       <c r="C8" t="n">
-        <v>2605</v>
+        <v>774</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" t="s">
-        <v>62</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L8" t="s"/>
       <c r="M8" t="s"/>
       <c r="N8" t="s"/>
       <c r="O8" t="s"/>
@@ -1819,37 +2021,37 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44152.73096271991</v>
+        <v>44152.95061331084</v>
       </c>
       <c r="C9" t="n">
-        <v>1103</v>
+        <v>2288</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s"/>
       <c r="M9" t="s"/>
@@ -1859,41 +2061,39 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44152.73173263889</v>
+        <v>44152.95138321197</v>
       </c>
       <c r="C10" t="n">
-        <v>3304</v>
+        <v>241</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" t="s">
-        <v>72</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="L10" t="s"/>
       <c r="M10" t="s"/>
       <c r="N10" t="s"/>
       <c r="O10" t="s"/>
@@ -1901,37 +2101,37 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44152.73314684028</v>
+        <v>44152.95234161685</v>
       </c>
       <c r="C11" t="n">
-        <v>3288</v>
+        <v>504</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L11" t="s"/>
       <c r="M11" t="s"/>
@@ -1941,39 +2141,41 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44152.73443137731</v>
+        <v>44152.95328394514</v>
       </c>
       <c r="C12" t="n">
-        <v>2020</v>
+        <v>2960</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="L12" t="s">
+        <v>72</v>
+      </c>
       <c r="M12" t="s"/>
       <c r="N12" t="s"/>
       <c r="O12" t="s"/>
@@ -1981,39 +2183,41 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44152.73524858796</v>
+        <v>44152.95382481284</v>
       </c>
       <c r="C13" t="n">
-        <v>1202</v>
+        <v>2799</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s">
         <v>22</v>
       </c>
-      <c r="J13" t="s">
-        <v>30</v>
-      </c>
       <c r="K13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>78</v>
+      </c>
       <c r="M13" t="s"/>
       <c r="N13" t="s"/>
       <c r="O13" t="s"/>
@@ -2021,41 +2225,39 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44152.73578270833</v>
+        <v>44152.95462496238</v>
       </c>
       <c r="C14" t="n">
-        <v>3204</v>
+        <v>2367</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" t="s">
-        <v>90</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L14" t="s"/>
       <c r="M14" t="s"/>
       <c r="N14" t="s"/>
       <c r="O14" t="s"/>
@@ -2063,37 +2265,37 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44152.73643041667</v>
+        <v>44152.95536508891</v>
       </c>
       <c r="C15" t="n">
-        <v>2287</v>
+        <v>2789</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="K15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L15" t="s"/>
       <c r="M15" t="s"/>
@@ -2103,37 +2305,37 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44152.73714135417</v>
+        <v>44152.95599582139</v>
       </c>
       <c r="C16" t="n">
-        <v>3155</v>
+        <v>2945</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
         <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="L16" t="s"/>
       <c r="M16" t="s"/>
@@ -2143,37 +2345,37 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44152.73811591436</v>
+        <v>44152.95623634017</v>
       </c>
       <c r="C17" t="n">
-        <v>2602</v>
+        <v>634</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="K17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L17" t="s"/>
       <c r="M17" t="s"/>
@@ -2183,37 +2385,37 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44152.73865416666</v>
+        <v>44152.9572307054</v>
       </c>
       <c r="C18" t="n">
-        <v>3122</v>
+        <v>2670</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="L18" t="s"/>
       <c r="M18" t="s"/>
@@ -2223,41 +2425,39 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44152.73931671296</v>
+        <v>44152.96033954477</v>
       </c>
       <c r="C19" t="n">
-        <v>1808</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" t="s">
-        <v>112</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L19" t="s"/>
       <c r="M19" t="s"/>
       <c r="N19" t="s"/>
       <c r="O19" t="s"/>
@@ -2265,39 +2465,41 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44152.73997747685</v>
+        <v>44152.93504606481</v>
       </c>
       <c r="C20" t="n">
-        <v>932</v>
+        <v>1211</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F20" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="I20" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="L20" t="s">
+        <v>109</v>
+      </c>
       <c r="M20" t="s"/>
       <c r="N20" t="s"/>
       <c r="O20" t="s"/>
@@ -2305,41 +2507,39 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44152.74040915509</v>
+        <v>44152.93587418982</v>
       </c>
       <c r="C21" t="n">
-        <v>1818</v>
+        <v>3133</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G21" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="I21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" t="s">
-        <v>122</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L21" t="s"/>
       <c r="M21" t="s"/>
       <c r="N21" t="s"/>
       <c r="O21" t="s"/>
@@ -2347,41 +2547,39 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44151.93301048611</v>
+        <v>44152.72548280092</v>
       </c>
       <c r="C22" t="n">
-        <v>492</v>
+        <v>2161</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G22" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="I22" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="J22" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="K22" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" t="s">
-        <v>128</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L22" t="s"/>
       <c r="M22" t="s"/>
       <c r="N22" t="s"/>
       <c r="O22" t="s"/>
@@ -2389,39 +2587,41 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44151.93445606482</v>
+        <v>44152.72664763889</v>
       </c>
       <c r="C23" t="n">
-        <v>447</v>
+        <v>543</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G23" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="J23" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="L23" t="s">
+        <v>123</v>
+      </c>
       <c r="M23" t="s"/>
       <c r="N23" t="s"/>
       <c r="O23" t="s"/>
@@ -2429,40 +2629,40 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44151.93638105324</v>
+        <v>44152.72759101852</v>
       </c>
       <c r="C24" t="n">
-        <v>2815</v>
+        <v>1538</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G24" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="H24" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="J24" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="K24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L24" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="M24" t="s"/>
       <c r="N24" t="s"/>
@@ -2471,37 +2671,37 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44151.9380275463</v>
+        <v>44152.72848203704</v>
       </c>
       <c r="C25" t="n">
-        <v>718</v>
+        <v>2414</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G25" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H25" t="s">
         <v>57</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="K25" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L25" t="s"/>
       <c r="M25" t="s"/>
@@ -2511,39 +2711,41 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44151.94313412037</v>
+        <v>44152.72958725694</v>
       </c>
       <c r="C26" t="n">
-        <v>2215</v>
+        <v>2605</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F26" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H26" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="I26" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="K26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="L26" t="s">
+        <v>138</v>
+      </c>
       <c r="M26" t="s"/>
       <c r="N26" t="s"/>
       <c r="O26" t="s"/>
@@ -2551,37 +2753,37 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>44151.94442238426</v>
+        <v>44152.73096271991</v>
       </c>
       <c r="C27" t="n">
-        <v>535</v>
+        <v>1103</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F27" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G27" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="J27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L27" t="s"/>
       <c r="M27" t="s"/>
@@ -2591,39 +2793,41 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>44151.94580212963</v>
+        <v>44152.73173263889</v>
       </c>
       <c r="C28" t="n">
-        <v>806</v>
+        <v>3304</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F28" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G28" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="J28" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K28" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="L28" t="s">
+        <v>148</v>
+      </c>
       <c r="M28" t="s"/>
       <c r="N28" t="s"/>
       <c r="O28" t="s"/>
@@ -2631,37 +2835,37 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>44151.94637684028</v>
+        <v>44152.73314684028</v>
       </c>
       <c r="C29" t="n">
-        <v>2791</v>
+        <v>3288</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F29" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G29" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
         <v>23</v>
       </c>
-      <c r="J29" t="s">
-        <v>21</v>
-      </c>
       <c r="K29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L29" t="s"/>
       <c r="M29" t="s"/>
@@ -2671,37 +2875,37 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>44151.94748005787</v>
+        <v>44152.73443137731</v>
       </c>
       <c r="C30" t="n">
-        <v>2766</v>
+        <v>2020</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F30" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G30" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" t="s">
         <v>23</v>
       </c>
-      <c r="J30" t="s">
-        <v>30</v>
-      </c>
       <c r="K30" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L30" t="s"/>
       <c r="M30" t="s"/>
@@ -2711,41 +2915,39 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>44151.94979226852</v>
+        <v>44152.73524858796</v>
       </c>
       <c r="C31" t="n">
-        <v>3684</v>
+        <v>1202</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E31" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F31" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G31" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H31" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L31" t="s">
-        <v>166</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L31" t="s"/>
       <c r="M31" t="s"/>
       <c r="N31" t="s"/>
       <c r="O31" t="s"/>
@@ -2753,40 +2955,40 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>44151.82759821759</v>
+        <v>44152.73578270833</v>
       </c>
       <c r="C32" t="n">
-        <v>2868</v>
+        <v>3204</v>
       </c>
       <c r="D32" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F32" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G32" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H32" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="K32" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L32" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M32" t="s"/>
       <c r="N32" t="s"/>
@@ -2795,41 +2997,39 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>44151.82841722222</v>
+        <v>44152.73643041667</v>
       </c>
       <c r="C33" t="n">
-        <v>1597</v>
+        <v>2287</v>
       </c>
       <c r="D33" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E33" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F33" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G33" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H33" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K33" t="s">
-        <v>32</v>
-      </c>
-      <c r="L33" t="s">
-        <v>176</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L33" t="s"/>
       <c r="M33" t="s"/>
       <c r="N33" t="s"/>
       <c r="O33" t="s"/>
@@ -2837,37 +3037,37 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44151.829049375</v>
+        <v>44152.73714135417</v>
       </c>
       <c r="C34" t="n">
-        <v>2536</v>
+        <v>3155</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F34" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G34" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="K34" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="L34" t="s"/>
       <c r="M34" t="s"/>
@@ -2877,37 +3077,37 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44151.83006247685</v>
+        <v>44152.73811591436</v>
       </c>
       <c r="C35" t="n">
-        <v>1443</v>
+        <v>2602</v>
       </c>
       <c r="D35" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E35" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F35" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G35" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I35" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="J35" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="K35" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="L35" t="s"/>
       <c r="M35" t="s"/>
@@ -2917,41 +3117,39 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44151.83185293982</v>
+        <v>44152.73865416666</v>
       </c>
       <c r="C36" t="n">
-        <v>2693</v>
+        <v>3122</v>
       </c>
       <c r="D36" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E36" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F36" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G36" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H36" t="s">
         <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J36" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="K36" t="s">
-        <v>99</v>
-      </c>
-      <c r="L36" t="s">
-        <v>190</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L36" t="s"/>
       <c r="M36" t="s"/>
       <c r="N36" t="s"/>
       <c r="O36" t="s"/>
@@ -2959,39 +3157,41 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44151.83362222222</v>
+        <v>44152.73931671296</v>
       </c>
       <c r="C37" t="n">
-        <v>685</v>
+        <v>1808</v>
       </c>
       <c r="D37" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E37" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F37" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G37" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H37" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J37" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K37" t="s">
-        <v>32</v>
-      </c>
-      <c r="L37" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="L37" t="s">
+        <v>186</v>
+      </c>
       <c r="M37" t="s"/>
       <c r="N37" t="s"/>
       <c r="O37" t="s"/>
@@ -2999,37 +3199,37 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>44151.83487901621</v>
+        <v>44152.73997747685</v>
       </c>
       <c r="C38" t="n">
-        <v>3196</v>
+        <v>932</v>
       </c>
       <c r="D38" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E38" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F38" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G38" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H38" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I38" t="s">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="J38" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K38" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="L38" t="s"/>
       <c r="M38" t="s"/>
@@ -3039,39 +3239,41 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>44151.8362446875</v>
+        <v>44152.74040915509</v>
       </c>
       <c r="C39" t="n">
-        <v>2029</v>
+        <v>1818</v>
       </c>
       <c r="D39" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E39" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F39" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G39" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H39" t="s">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J39" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="K39" t="s">
-        <v>44</v>
-      </c>
-      <c r="L39" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="L39" t="s">
+        <v>196</v>
+      </c>
       <c r="M39" t="s"/>
       <c r="N39" t="s"/>
       <c r="O39" t="s"/>
@@ -3079,39 +3281,41 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44151.83740932871</v>
+        <v>44151.93301048611</v>
       </c>
       <c r="C40" t="n">
-        <v>1013</v>
+        <v>492</v>
       </c>
       <c r="D40" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F40" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G40" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H40" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="I40" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="J40" t="s">
         <v>23</v>
       </c>
       <c r="K40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L40" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="L40" t="s">
+        <v>202</v>
+      </c>
       <c r="M40" t="s"/>
       <c r="N40" t="s"/>
       <c r="O40" t="s"/>
@@ -3119,37 +3323,37 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44151.82177193287</v>
+        <v>44151.93445606482</v>
       </c>
       <c r="C41" t="n">
-        <v>3147</v>
+        <v>447</v>
       </c>
       <c r="D41" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E41" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F41" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G41" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H41" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="I41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="K41" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="L41" t="s"/>
       <c r="M41" t="s"/>
@@ -3159,2005 +3363,2735 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44151.74385679398</v>
+        <v>44151.93638105324</v>
       </c>
       <c r="C42" t="n">
-        <v>2231</v>
+        <v>2815</v>
       </c>
       <c r="D42" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E42" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F42" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G42" t="s">
-        <v>215</v>
+        <v>67</v>
       </c>
       <c r="H42" t="s">
         <v>30</v>
       </c>
       <c r="I42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J42" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="K42" t="s">
-        <v>32</v>
-      </c>
-      <c r="L42" t="s"/>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L42" t="s">
+        <v>210</v>
+      </c>
+      <c r="M42" t="s"/>
       <c r="N42" t="s"/>
       <c r="O42" t="s"/>
       <c r="P42" t="s"/>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44151.74608694445</v>
+        <v>44151.9380275463</v>
       </c>
       <c r="C43" t="n">
-        <v>2768</v>
+        <v>718</v>
       </c>
       <c r="D43" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E43" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G43" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H43" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I43" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="J43" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="K43" t="s">
-        <v>44</v>
-      </c>
-      <c r="L43" t="s">
-        <v>220</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L43" t="s"/>
+      <c r="M43" t="s"/>
       <c r="N43" t="s"/>
       <c r="O43" t="s"/>
       <c r="P43" t="s"/>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44151.74719898148</v>
+        <v>44151.94313412037</v>
       </c>
       <c r="C44" t="n">
-        <v>2788</v>
+        <v>2215</v>
       </c>
       <c r="D44" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E44" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F44" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G44" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J44" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="K44" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L44" t="s"/>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
+      <c r="M44" t="s"/>
       <c r="N44" t="s"/>
       <c r="O44" t="s"/>
       <c r="P44" t="s"/>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44151.72016962963</v>
+        <v>44151.94442238426</v>
       </c>
       <c r="C45" t="n">
-        <v>1835</v>
+        <v>535</v>
       </c>
       <c r="D45" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E45" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F45" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G45" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H45" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K45" t="s">
-        <v>32</v>
-      </c>
-      <c r="L45" t="s">
-        <v>229</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L45" t="s"/>
+      <c r="M45" t="s"/>
+      <c r="N45" t="s"/>
       <c r="O45" t="s"/>
       <c r="P45" t="s"/>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44151.72130056713</v>
+        <v>44151.94580212963</v>
       </c>
       <c r="C46" t="n">
-        <v>1232</v>
+        <v>806</v>
       </c>
       <c r="D46" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E46" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F46" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G46" t="s">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="H46" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J46" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K46" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L46" t="s"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
+      <c r="M46" t="s"/>
+      <c r="N46" t="s"/>
       <c r="O46" t="s"/>
       <c r="P46" t="s"/>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44151.72318013889</v>
+        <v>44151.94637684028</v>
       </c>
       <c r="C47" t="n">
-        <v>729</v>
+        <v>2791</v>
       </c>
       <c r="D47" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E47" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F47" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G47" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H47" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J47" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="K47" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L47" t="s"/>
-      <c r="M47" t="n">
-        <v>2</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
+      <c r="M47" t="s"/>
+      <c r="N47" t="s"/>
       <c r="O47" t="s"/>
       <c r="P47" t="s"/>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44151.72479038194</v>
+        <v>44151.94748005787</v>
       </c>
       <c r="C48" t="n">
-        <v>980</v>
+        <v>2766</v>
       </c>
       <c r="D48" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E48" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F48" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G48" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H48" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J48" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K48" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="L48" t="s"/>
-      <c r="M48" t="n">
-        <v>3</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
+      <c r="M48" t="s"/>
+      <c r="N48" t="s"/>
       <c r="O48" t="s"/>
       <c r="P48" t="s"/>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44151.7262485301</v>
+        <v>44151.94979226852</v>
       </c>
       <c r="C49" t="n">
-        <v>3296</v>
+        <v>3684</v>
       </c>
       <c r="D49" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E49" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F49" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G49" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H49" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I49" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="J49" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K49" t="s">
-        <v>32</v>
-      </c>
-      <c r="L49" t="s"/>
-      <c r="M49" t="n">
-        <v>4</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L49" t="s">
+        <v>239</v>
+      </c>
+      <c r="M49" t="s"/>
+      <c r="N49" t="s"/>
       <c r="O49" t="s"/>
       <c r="P49" t="s"/>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44151.7274534375</v>
+        <v>44151.82759821759</v>
       </c>
       <c r="C50" t="n">
-        <v>142</v>
+        <v>2868</v>
       </c>
       <c r="D50" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E50" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F50" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G50" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H50" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J50" t="s">
         <v>22</v>
       </c>
       <c r="K50" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L50" t="s">
-        <v>249</v>
-      </c>
-      <c r="M50" t="n">
-        <v>5</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="M50" t="s"/>
+      <c r="N50" t="s"/>
       <c r="O50" t="s"/>
       <c r="P50" t="s"/>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44151.72884155092</v>
+        <v>44151.82841722222</v>
       </c>
       <c r="C51" t="n">
-        <v>500</v>
+        <v>1597</v>
       </c>
       <c r="D51" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E51" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F51" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G51" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="H51" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I51" t="s">
-        <v>253</v>
+        <v>30</v>
       </c>
       <c r="J51" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="K51" t="s">
-        <v>32</v>
-      </c>
-      <c r="L51" t="s"/>
-      <c r="M51" t="n">
-        <v>6</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L51" t="s">
+        <v>249</v>
+      </c>
+      <c r="M51" t="s"/>
+      <c r="N51" t="s"/>
       <c r="O51" t="s"/>
       <c r="P51" t="s"/>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44151.73146354167</v>
+        <v>44151.829049375</v>
       </c>
       <c r="C52" t="n">
-        <v>1964</v>
+        <v>2536</v>
       </c>
       <c r="D52" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E52" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F52" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G52" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H52" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I52" t="s">
-        <v>258</v>
+        <v>29</v>
       </c>
       <c r="J52" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="K52" t="s">
-        <v>99</v>
-      </c>
-      <c r="L52" t="s">
-        <v>259</v>
-      </c>
-      <c r="M52" t="n">
-        <v>7</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L52" t="s"/>
+      <c r="M52" t="s"/>
+      <c r="N52" t="s"/>
       <c r="O52" t="s"/>
       <c r="P52" t="s"/>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44151.73427538195</v>
+        <v>44151.83006247685</v>
       </c>
       <c r="C53" t="n">
-        <v>321</v>
+        <v>1443</v>
       </c>
       <c r="D53" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E53" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F53" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G53" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H53" t="s">
-        <v>264</v>
+        <v>21</v>
       </c>
       <c r="I53" t="s">
-        <v>265</v>
+        <v>22</v>
       </c>
       <c r="J53" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="K53" t="s">
-        <v>32</v>
-      </c>
-      <c r="L53" t="s">
-        <v>266</v>
-      </c>
-      <c r="M53" t="n">
-        <v>8</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L53" t="s"/>
+      <c r="M53" t="s"/>
+      <c r="N53" t="s"/>
       <c r="O53" t="s"/>
       <c r="P53" t="s"/>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44150.92973521991</v>
+        <v>44151.83185293982</v>
       </c>
       <c r="C54" t="n">
-        <v>3103</v>
+        <v>2693</v>
       </c>
       <c r="D54" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E54" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F54" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G54" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="H54" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I54" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="J54" t="s">
-        <v>32</v>
+        <v>262</v>
       </c>
       <c r="K54" t="s">
-        <v>32</v>
-      </c>
-      <c r="L54" t="s"/>
-      <c r="M54" t="n">
-        <v>9</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="L54" t="s">
+        <v>263</v>
+      </c>
+      <c r="M54" t="s"/>
+      <c r="N54" t="s"/>
       <c r="O54" t="s"/>
       <c r="P54" t="s"/>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>44150.93092240741</v>
+        <v>44151.83362222222</v>
       </c>
       <c r="C55" t="n">
-        <v>1754</v>
+        <v>685</v>
       </c>
       <c r="D55" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E55" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F55" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G55" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="H55" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I55" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="J55" t="s">
         <v>23</v>
       </c>
       <c r="K55" t="s">
-        <v>32</v>
-      </c>
-      <c r="L55" t="s">
-        <v>275</v>
-      </c>
-      <c r="M55" t="n">
-        <v>10</v>
-      </c>
-      <c r="N55" t="n">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L55" t="s"/>
+      <c r="M55" t="s"/>
+      <c r="N55" t="s"/>
       <c r="O55" t="s"/>
       <c r="P55" t="s"/>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44150.93139512731</v>
+        <v>44151.83487901621</v>
       </c>
       <c r="C56" t="n">
-        <v>41</v>
+        <v>3196</v>
       </c>
       <c r="D56" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E56" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F56" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G56" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H56" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J56" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K56" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L56" t="s"/>
-      <c r="M56" t="n">
-        <v>11</v>
-      </c>
-      <c r="N56" t="n">
-        <v>2</v>
-      </c>
+      <c r="M56" t="s"/>
+      <c r="N56" t="s"/>
       <c r="O56" t="s"/>
       <c r="P56" t="s"/>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44150.9320803125</v>
+        <v>44151.8362446875</v>
       </c>
       <c r="C57" t="n">
-        <v>2062</v>
+        <v>2029</v>
       </c>
       <c r="D57" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E57" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F57" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G57" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H57" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="I57" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="J57" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="K57" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L57" t="s"/>
-      <c r="M57" t="n">
-        <v>12</v>
-      </c>
-      <c r="N57" t="n">
-        <v>3</v>
-      </c>
+      <c r="M57" t="s"/>
+      <c r="N57" t="s"/>
       <c r="O57" t="s"/>
       <c r="P57" t="s"/>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44150.93366619213</v>
+        <v>44151.83740932871</v>
       </c>
       <c r="C58" t="n">
-        <v>1509</v>
+        <v>1013</v>
       </c>
       <c r="D58" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E58" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F58" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G58" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="H58" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="I58" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J58" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K58" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L58" t="s"/>
-      <c r="M58" t="n">
-        <v>13</v>
-      </c>
-      <c r="N58" t="n">
-        <v>4</v>
-      </c>
+      <c r="M58" t="s"/>
+      <c r="N58" t="s"/>
       <c r="O58" t="s"/>
       <c r="P58" t="s"/>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44150.93590909722</v>
+        <v>44151.82177193287</v>
       </c>
       <c r="C59" t="n">
-        <v>626</v>
+        <v>3147</v>
       </c>
       <c r="D59" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="E59" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F59" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G59" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H59" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="I59" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K59" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="L59" t="s"/>
-      <c r="M59" t="n">
-        <v>14</v>
-      </c>
-      <c r="N59" t="n">
-        <v>5</v>
-      </c>
+      <c r="M59" t="s"/>
+      <c r="N59" t="s"/>
       <c r="O59" t="s"/>
       <c r="P59" t="s"/>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44150.93629255787</v>
+        <v>44151.74385679398</v>
       </c>
       <c r="C60" t="n">
-        <v>2214</v>
+        <v>2231</v>
       </c>
       <c r="D60" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E60" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F60" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G60" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H60" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="I60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J60" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="K60" t="s">
-        <v>32</v>
-      </c>
-      <c r="L60" t="s">
-        <v>296</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L60" t="s"/>
       <c r="M60" t="n">
-        <v>15</v>
-      </c>
-      <c r="N60" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N60" t="s"/>
       <c r="O60" t="s"/>
       <c r="P60" t="s"/>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44150.93726997685</v>
+        <v>44151.74608694445</v>
       </c>
       <c r="C61" t="n">
-        <v>638</v>
+        <v>2768</v>
       </c>
       <c r="D61" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E61" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="F61" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="G61" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="H61" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I61" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J61" t="s">
         <v>23</v>
       </c>
       <c r="K61" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L61" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="M61" t="n">
-        <v>16</v>
-      </c>
-      <c r="N61" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N61" t="s"/>
       <c r="O61" t="s"/>
       <c r="P61" t="s"/>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44150.93919015046</v>
+        <v>44151.74719898148</v>
       </c>
       <c r="C62" t="n">
-        <v>3128</v>
+        <v>2788</v>
       </c>
       <c r="D62" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E62" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F62" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G62" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="H62" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="I62" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J62" t="s">
         <v>23</v>
       </c>
       <c r="K62" t="s">
-        <v>32</v>
-      </c>
-      <c r="L62" t="s">
-        <v>306</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L62" t="s"/>
       <c r="M62" t="n">
-        <v>17</v>
-      </c>
-      <c r="N62" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N62" t="s"/>
       <c r="O62" t="s"/>
       <c r="P62" t="s"/>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44150.92973521991</v>
+        <v>44151.72016962963</v>
       </c>
       <c r="C63" t="n">
-        <v>3103</v>
+        <v>1835</v>
       </c>
       <c r="D63" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="E63" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="F63" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="G63" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="H63" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="I63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J63" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="K63" t="s">
-        <v>32</v>
-      </c>
-      <c r="L63" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="L63" t="s">
+        <v>301</v>
+      </c>
       <c r="M63" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O63" t="s"/>
       <c r="P63" t="s"/>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44150.93092240741</v>
+        <v>44151.72130056713</v>
       </c>
       <c r="C64" t="n">
-        <v>1754</v>
+        <v>1232</v>
       </c>
       <c r="D64" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="E64" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="F64" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="G64" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I64" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J64" t="s">
         <v>23</v>
       </c>
       <c r="K64" t="s">
-        <v>32</v>
-      </c>
-      <c r="L64" t="s">
-        <v>275</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L64" t="s"/>
       <c r="M64" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O64" t="s"/>
       <c r="P64" t="s"/>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44150.93139512731</v>
+        <v>44151.72318013889</v>
       </c>
       <c r="C65" t="n">
-        <v>41</v>
+        <v>729</v>
       </c>
       <c r="D65" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="E65" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="F65" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="G65" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="H65" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I65" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J65" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K65" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L65" t="s"/>
       <c r="M65" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="N65" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O65" t="s"/>
       <c r="P65" t="s"/>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44150.9320803125</v>
+        <v>44151.72479038194</v>
       </c>
       <c r="C66" t="n">
-        <v>2062</v>
+        <v>980</v>
       </c>
       <c r="D66" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="E66" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="F66" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="G66" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="H66" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66" t="s">
         <v>23</v>
       </c>
-      <c r="J66" t="s">
-        <v>30</v>
-      </c>
       <c r="K66" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L66" t="s"/>
       <c r="M66" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="N66" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O66" t="s"/>
       <c r="P66" t="s"/>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44150.93366619213</v>
+        <v>44151.7262485301</v>
       </c>
       <c r="C67" t="n">
-        <v>1509</v>
+        <v>3296</v>
       </c>
       <c r="D67" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="E67" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="F67" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="G67" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="H67" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I67" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="J67" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K67" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L67" t="s"/>
       <c r="M67" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="N67" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O67" t="s"/>
       <c r="P67" t="s"/>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44150.93590909722</v>
+        <v>44151.7274534375</v>
       </c>
       <c r="C68" t="n">
-        <v>626</v>
+        <v>142</v>
       </c>
       <c r="D68" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="E68" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="F68" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="G68" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="H68" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="I68" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="K68" t="s">
-        <v>44</v>
-      </c>
-      <c r="L68" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="L68" t="s">
+        <v>321</v>
+      </c>
       <c r="M68" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="N68" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O68" t="s"/>
       <c r="P68" t="s"/>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44150.93629255787</v>
+        <v>44151.72884155092</v>
       </c>
       <c r="C69" t="n">
-        <v>2214</v>
+        <v>500</v>
       </c>
       <c r="D69" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="E69" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="F69" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="G69" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="I69" t="s">
-        <v>31</v>
+        <v>325</v>
       </c>
       <c r="J69" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K69" t="s">
-        <v>32</v>
-      </c>
-      <c r="L69" t="s">
-        <v>296</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L69" t="s"/>
       <c r="M69" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N69" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O69" t="s"/>
       <c r="P69" t="s"/>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44150.93726997685</v>
+        <v>44151.73146354167</v>
       </c>
       <c r="C70" t="n">
-        <v>638</v>
+        <v>1964</v>
       </c>
       <c r="D70" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="E70" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="F70" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="G70" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="H70" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I70" t="s">
-        <v>44</v>
+        <v>330</v>
       </c>
       <c r="J70" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K70" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="L70" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="M70" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="N70" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O70" t="s"/>
       <c r="P70" t="s"/>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44150.93919015046</v>
+        <v>44151.73427538195</v>
       </c>
       <c r="C71" t="n">
-        <v>3128</v>
+        <v>321</v>
       </c>
       <c r="D71" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="E71" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="F71" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="G71" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="H71" t="s">
-        <v>43</v>
+        <v>336</v>
       </c>
       <c r="I71" t="s">
-        <v>32</v>
+        <v>337</v>
       </c>
       <c r="J71" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="K71" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L71" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="M71" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="N71" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O71" t="s"/>
       <c r="P71" t="s"/>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44150.91491172454</v>
+        <v>44150.92973521991</v>
       </c>
       <c r="C72" t="n">
-        <v>219</v>
+        <v>3103</v>
       </c>
       <c r="D72" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="E72" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="F72" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="G72" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="H72" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J72" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K72" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L72" t="s"/>
       <c r="M72" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="N72" t="n">
-        <v>18</v>
-      </c>
-      <c r="O72" t="n">
         <v>0</v>
       </c>
+      <c r="O72" t="s"/>
       <c r="P72" t="s"/>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44150.9158749537</v>
+        <v>44150.93092240741</v>
       </c>
       <c r="C73" t="n">
-        <v>3291</v>
+        <v>1754</v>
       </c>
       <c r="D73" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="E73" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="F73" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="G73" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="H73" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="I73" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J73" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K73" t="s">
-        <v>99</v>
-      </c>
-      <c r="L73" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="L73" t="s">
+        <v>347</v>
+      </c>
       <c r="M73" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="N73" t="n">
-        <v>19</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O73" t="s"/>
       <c r="P73" t="s"/>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44150.91647944444</v>
+        <v>44150.93139512731</v>
       </c>
       <c r="C74" t="n">
-        <v>2337</v>
+        <v>41</v>
       </c>
       <c r="D74" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="E74" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="F74" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="G74" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="H74" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="I74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J74" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K74" t="s">
-        <v>32</v>
-      </c>
-      <c r="L74" t="s">
-        <v>319</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L74" t="s"/>
       <c r="M74" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="N74" t="n">
-        <v>20</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O74" t="s"/>
       <c r="P74" t="s"/>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44150.91708795139</v>
+        <v>44150.9320803125</v>
       </c>
       <c r="C75" t="n">
-        <v>3783</v>
+        <v>2062</v>
       </c>
       <c r="D75" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="E75" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="F75" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="G75" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="H75" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I75" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J75" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K75" t="s">
-        <v>32</v>
-      </c>
-      <c r="L75" t="s">
-        <v>324</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L75" t="s"/>
       <c r="M75" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N75" t="n">
-        <v>21</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O75" t="s"/>
       <c r="P75" t="s"/>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44150.91861394676</v>
+        <v>44150.93366619213</v>
       </c>
       <c r="C76" t="n">
-        <v>2088</v>
+        <v>1509</v>
       </c>
       <c r="D76" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="E76" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="F76" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="G76" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="H76" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I76" t="s">
+        <v>21</v>
+      </c>
+      <c r="J76" t="s">
         <v>23</v>
       </c>
-      <c r="J76" t="s">
-        <v>30</v>
-      </c>
       <c r="K76" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L76" t="s"/>
       <c r="M76" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N76" t="n">
-        <v>22</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="O76" t="s"/>
       <c r="P76" t="s"/>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44150.91975104166</v>
+        <v>44150.93590909722</v>
       </c>
       <c r="C77" t="n">
-        <v>3686</v>
+        <v>626</v>
       </c>
       <c r="D77" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="E77" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="F77" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="G77" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="H77" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="I77" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K77" t="s">
-        <v>32</v>
-      </c>
-      <c r="L77" t="s">
-        <v>333</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L77" t="s"/>
       <c r="M77" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="N77" t="n">
-        <v>23</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="O77" t="s"/>
       <c r="P77" t="s"/>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44150.92170524305</v>
+        <v>44150.93629255787</v>
       </c>
       <c r="C78" t="n">
-        <v>2853</v>
+        <v>2214</v>
       </c>
       <c r="D78" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="E78" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="F78" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="G78" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="H78" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="I78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J78" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="K78" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L78" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="M78" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N78" t="n">
-        <v>24</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="O78" t="s"/>
       <c r="P78" t="s"/>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>44150.92246048611</v>
+        <v>44150.93726997685</v>
       </c>
       <c r="C79" t="n">
-        <v>2899</v>
+        <v>638</v>
       </c>
       <c r="D79" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="E79" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="F79" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="G79" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="H79" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J79" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K79" t="s">
-        <v>32</v>
-      </c>
-      <c r="L79" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="L79" t="s">
+        <v>373</v>
+      </c>
       <c r="M79" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N79" t="n">
-        <v>25</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="O79" t="s"/>
       <c r="P79" t="s"/>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>44150.92315710648</v>
+        <v>44150.93919015046</v>
       </c>
       <c r="C80" t="n">
-        <v>429</v>
+        <v>3128</v>
       </c>
       <c r="D80" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="E80" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="F80" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="G80" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="H80" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I80" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J80" t="s">
         <v>22</v>
       </c>
       <c r="K80" t="s">
-        <v>32</v>
-      </c>
-      <c r="L80" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="L80" t="s">
+        <v>378</v>
+      </c>
       <c r="M80" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N80" t="n">
-        <v>26</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="O80" t="s"/>
       <c r="P80" t="s"/>
     </row>
     <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>44150.92537696759</v>
+        <v>44150.92973521991</v>
       </c>
       <c r="C81" t="n">
-        <v>931</v>
+        <v>3103</v>
       </c>
       <c r="D81" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E81" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F81" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G81" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H81" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="I81" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="J81" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="K81" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="L81" t="s"/>
       <c r="M81" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N81" t="n">
-        <v>27</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="O81" t="s"/>
       <c r="P81" t="s"/>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>44147.90281010417</v>
+        <v>44150.93092240741</v>
       </c>
       <c r="C82" t="n">
-        <v>1283</v>
+        <v>1754</v>
       </c>
       <c r="D82" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E82" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F82" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G82" t="s">
-        <v>350</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2</v>
+        <v>346</v>
+      </c>
+      <c r="H82" t="s">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s">
+        <v>30</v>
       </c>
       <c r="J82" t="s">
-        <v>99</v>
-      </c>
-      <c r="K82" t="n">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="K82" t="s">
+        <v>24</v>
       </c>
       <c r="L82" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="M82" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N82" t="n">
-        <v>28</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O82" t="s"/>
+      <c r="P82" t="s"/>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44147.90575298611</v>
+        <v>44150.93139512731</v>
       </c>
       <c r="C83" t="n">
-        <v>2569</v>
+        <v>41</v>
       </c>
       <c r="D83" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E83" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F83" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G83" t="s">
-        <v>358</v>
-      </c>
-      <c r="H83" t="n">
-        <v>7</v>
-      </c>
-      <c r="I83" t="n">
-        <v>5</v>
+        <v>351</v>
+      </c>
+      <c r="H83" t="s">
+        <v>29</v>
+      </c>
+      <c r="I83" t="s">
+        <v>30</v>
       </c>
       <c r="J83" t="s">
-        <v>23</v>
-      </c>
-      <c r="K83" t="n">
-        <v>3</v>
-      </c>
-      <c r="L83" t="s">
-        <v>359</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="K83" t="s">
+        <v>24</v>
+      </c>
+      <c r="L83" t="s"/>
       <c r="M83" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N83" t="n">
-        <v>29</v>
-      </c>
-      <c r="O83" t="n">
-        <v>1</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="O83" t="s"/>
+      <c r="P83" t="s"/>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>44147.90636120371</v>
+        <v>44150.9320803125</v>
       </c>
       <c r="C84" t="n">
-        <v>3552</v>
+        <v>2062</v>
       </c>
       <c r="D84" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E84" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F84" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G84" t="s">
-        <v>363</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3</v>
+        <v>355</v>
+      </c>
+      <c r="H84" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" t="s">
+        <v>22</v>
       </c>
       <c r="J84" t="s">
-        <v>21</v>
-      </c>
-      <c r="K84" t="n">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K84" t="s">
+        <v>24</v>
       </c>
       <c r="L84" t="s"/>
       <c r="M84" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N84" t="n">
-        <v>30</v>
-      </c>
-      <c r="O84" t="n">
-        <v>2</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="O84" t="s"/>
+      <c r="P84" t="s"/>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>44147.90702556713</v>
+        <v>44150.93366619213</v>
       </c>
       <c r="C85" t="n">
-        <v>2926</v>
+        <v>1509</v>
       </c>
       <c r="D85" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E85" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F85" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G85" t="s">
-        <v>367</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>9</v>
+        <v>359</v>
+      </c>
+      <c r="H85" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" t="s">
+        <v>21</v>
       </c>
       <c r="J85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K85" t="n">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="K85" t="s">
+        <v>24</v>
       </c>
       <c r="L85" t="s"/>
       <c r="M85" t="n">
+        <v>22</v>
+      </c>
+      <c r="N85" t="n">
+        <v>13</v>
+      </c>
+      <c r="O85" t="s"/>
+      <c r="P85" t="s"/>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>44150.93590909722</v>
+      </c>
+      <c r="C86" t="n">
+        <v>626</v>
+      </c>
+      <c r="D86" t="s">
+        <v>360</v>
+      </c>
+      <c r="E86" t="s">
+        <v>361</v>
+      </c>
+      <c r="F86" t="s">
+        <v>362</v>
+      </c>
+      <c r="G86" t="s">
+        <v>363</v>
+      </c>
+      <c r="H86" t="s">
+        <v>35</v>
+      </c>
+      <c r="I86" t="s">
+        <v>29</v>
+      </c>
+      <c r="J86" t="s">
+        <v>29</v>
+      </c>
+      <c r="K86" t="s">
+        <v>29</v>
+      </c>
+      <c r="L86" t="s"/>
+      <c r="M86" t="n">
+        <v>23</v>
+      </c>
+      <c r="N86" t="n">
+        <v>14</v>
+      </c>
+      <c r="O86" t="s"/>
+      <c r="P86" t="s"/>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>44150.93629255787</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2214</v>
+      </c>
+      <c r="D87" t="s">
+        <v>364</v>
+      </c>
+      <c r="E87" t="s">
+        <v>365</v>
+      </c>
+      <c r="F87" t="s">
+        <v>366</v>
+      </c>
+      <c r="G87" t="s">
+        <v>367</v>
+      </c>
+      <c r="H87" t="s">
+        <v>77</v>
+      </c>
+      <c r="I87" t="s">
+        <v>30</v>
+      </c>
+      <c r="J87" t="s">
+        <v>58</v>
+      </c>
+      <c r="K87" t="s">
+        <v>24</v>
+      </c>
+      <c r="L87" t="s">
+        <v>368</v>
+      </c>
+      <c r="M87" t="n">
+        <v>24</v>
+      </c>
+      <c r="N87" t="n">
+        <v>15</v>
+      </c>
+      <c r="O87" t="s"/>
+      <c r="P87" t="s"/>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>44150.93726997685</v>
+      </c>
+      <c r="C88" t="n">
+        <v>638</v>
+      </c>
+      <c r="D88" t="s">
+        <v>369</v>
+      </c>
+      <c r="E88" t="s">
+        <v>370</v>
+      </c>
+      <c r="F88" t="s">
+        <v>371</v>
+      </c>
+      <c r="G88" t="s">
+        <v>372</v>
+      </c>
+      <c r="H88" t="s">
+        <v>35</v>
+      </c>
+      <c r="I88" t="s">
+        <v>29</v>
+      </c>
+      <c r="J88" t="s">
+        <v>22</v>
+      </c>
+      <c r="K88" t="s">
+        <v>24</v>
+      </c>
+      <c r="L88" t="s">
+        <v>373</v>
+      </c>
+      <c r="M88" t="n">
+        <v>25</v>
+      </c>
+      <c r="N88" t="n">
+        <v>16</v>
+      </c>
+      <c r="O88" t="s"/>
+      <c r="P88" t="s"/>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>44150.93919015046</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3128</v>
+      </c>
+      <c r="D89" t="s">
+        <v>374</v>
+      </c>
+      <c r="E89" t="s">
+        <v>375</v>
+      </c>
+      <c r="F89" t="s">
+        <v>376</v>
+      </c>
+      <c r="G89" t="s">
+        <v>377</v>
+      </c>
+      <c r="H89" t="s">
+        <v>35</v>
+      </c>
+      <c r="I89" t="s">
+        <v>24</v>
+      </c>
+      <c r="J89" t="s">
+        <v>22</v>
+      </c>
+      <c r="K89" t="s">
+        <v>24</v>
+      </c>
+      <c r="L89" t="s">
+        <v>378</v>
+      </c>
+      <c r="M89" t="n">
+        <v>26</v>
+      </c>
+      <c r="N89" t="n">
+        <v>17</v>
+      </c>
+      <c r="O89" t="s"/>
+      <c r="P89" t="s"/>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>44150.91491172454</v>
+      </c>
+      <c r="C90" t="n">
+        <v>219</v>
+      </c>
+      <c r="D90" t="s">
+        <v>379</v>
+      </c>
+      <c r="E90" t="s">
+        <v>380</v>
+      </c>
+      <c r="F90" t="s">
+        <v>381</v>
+      </c>
+      <c r="G90" t="s">
+        <v>382</v>
+      </c>
+      <c r="H90" t="s">
+        <v>24</v>
+      </c>
+      <c r="I90" t="s">
+        <v>24</v>
+      </c>
+      <c r="J90" t="s">
+        <v>58</v>
+      </c>
+      <c r="K90" t="s">
+        <v>24</v>
+      </c>
+      <c r="L90" t="s"/>
+      <c r="M90" t="n">
+        <v>27</v>
+      </c>
+      <c r="N90" t="n">
+        <v>18</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="s"/>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>44150.9158749537</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3291</v>
+      </c>
+      <c r="D91" t="s">
+        <v>383</v>
+      </c>
+      <c r="E91" t="s">
+        <v>384</v>
+      </c>
+      <c r="F91" t="s">
+        <v>385</v>
+      </c>
+      <c r="G91" t="s">
+        <v>62</v>
+      </c>
+      <c r="H91" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" t="s">
+        <v>21</v>
+      </c>
+      <c r="J91" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91" t="s">
+        <v>63</v>
+      </c>
+      <c r="L91" t="s"/>
+      <c r="M91" t="n">
+        <v>28</v>
+      </c>
+      <c r="N91" t="n">
+        <v>19</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="s"/>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>44150.91647944444</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2337</v>
+      </c>
+      <c r="D92" t="s">
+        <v>386</v>
+      </c>
+      <c r="E92" t="s">
+        <v>387</v>
+      </c>
+      <c r="F92" t="s">
+        <v>388</v>
+      </c>
+      <c r="G92" t="s">
+        <v>389</v>
+      </c>
+      <c r="H92" t="s">
+        <v>77</v>
+      </c>
+      <c r="I92" t="s">
+        <v>30</v>
+      </c>
+      <c r="J92" t="s">
+        <v>58</v>
+      </c>
+      <c r="K92" t="s">
+        <v>24</v>
+      </c>
+      <c r="L92" t="s">
+        <v>390</v>
+      </c>
+      <c r="M92" t="n">
+        <v>29</v>
+      </c>
+      <c r="N92" t="n">
+        <v>20</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="s"/>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>44150.91708795139</v>
+      </c>
+      <c r="C93" t="n">
+        <v>3783</v>
+      </c>
+      <c r="D93" t="s">
+        <v>391</v>
+      </c>
+      <c r="E93" t="s">
+        <v>392</v>
+      </c>
+      <c r="F93" t="s">
+        <v>393</v>
+      </c>
+      <c r="G93" t="s">
+        <v>394</v>
+      </c>
+      <c r="H93" t="s">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s">
+        <v>30</v>
+      </c>
+      <c r="J93" t="s">
+        <v>58</v>
+      </c>
+      <c r="K93" t="s">
+        <v>24</v>
+      </c>
+      <c r="L93" t="s">
+        <v>395</v>
+      </c>
+      <c r="M93" t="n">
+        <v>30</v>
+      </c>
+      <c r="N93" t="n">
+        <v>21</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="s"/>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>44150.91861394676</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2088</v>
+      </c>
+      <c r="D94" t="s">
+        <v>396</v>
+      </c>
+      <c r="E94" t="s">
+        <v>397</v>
+      </c>
+      <c r="F94" t="s">
+        <v>398</v>
+      </c>
+      <c r="G94" t="s">
         <v>40</v>
       </c>
-      <c r="N85" t="n">
+      <c r="H94" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" t="s">
+        <v>22</v>
+      </c>
+      <c r="J94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K94" t="s">
+        <v>24</v>
+      </c>
+      <c r="L94" t="s"/>
+      <c r="M94" t="n">
         <v>31</v>
       </c>
-      <c r="O85" t="n">
+      <c r="N94" t="n">
+        <v>22</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="s"/>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>44150.91975104166</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3686</v>
+      </c>
+      <c r="D95" t="s">
+        <v>399</v>
+      </c>
+      <c r="E95" t="s">
+        <v>400</v>
+      </c>
+      <c r="F95" t="s">
+        <v>401</v>
+      </c>
+      <c r="G95" t="s">
+        <v>402</v>
+      </c>
+      <c r="H95" t="s">
+        <v>57</v>
+      </c>
+      <c r="I95" t="s">
+        <v>58</v>
+      </c>
+      <c r="J95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K95" t="s">
+        <v>24</v>
+      </c>
+      <c r="L95" t="s">
+        <v>403</v>
+      </c>
+      <c r="M95" t="n">
+        <v>32</v>
+      </c>
+      <c r="N95" t="n">
+        <v>23</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="s"/>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>44150.92170524305</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2853</v>
+      </c>
+      <c r="D96" t="s">
+        <v>404</v>
+      </c>
+      <c r="E96" t="s">
+        <v>405</v>
+      </c>
+      <c r="F96" t="s">
+        <v>406</v>
+      </c>
+      <c r="G96" t="s">
+        <v>407</v>
+      </c>
+      <c r="H96" t="s">
+        <v>29</v>
+      </c>
+      <c r="I96" t="s">
+        <v>30</v>
+      </c>
+      <c r="J96" t="s">
+        <v>58</v>
+      </c>
+      <c r="K96" t="s">
+        <v>24</v>
+      </c>
+      <c r="L96" t="s">
+        <v>408</v>
+      </c>
+      <c r="M96" t="n">
+        <v>33</v>
+      </c>
+      <c r="N96" t="n">
+        <v>24</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="s"/>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>44150.92246048611</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2899</v>
+      </c>
+      <c r="D97" t="s">
+        <v>409</v>
+      </c>
+      <c r="E97" t="s">
+        <v>410</v>
+      </c>
+      <c r="F97" t="s">
+        <v>411</v>
+      </c>
+      <c r="G97" t="s">
+        <v>412</v>
+      </c>
+      <c r="H97" t="s">
+        <v>29</v>
+      </c>
+      <c r="I97" t="s">
+        <v>30</v>
+      </c>
+      <c r="J97" t="s">
+        <v>24</v>
+      </c>
+      <c r="K97" t="s">
+        <v>24</v>
+      </c>
+      <c r="L97" t="s"/>
+      <c r="M97" t="n">
+        <v>34</v>
+      </c>
+      <c r="N97" t="n">
+        <v>25</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="s"/>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>44150.92315710648</v>
+      </c>
+      <c r="C98" t="n">
+        <v>429</v>
+      </c>
+      <c r="D98" t="s">
+        <v>413</v>
+      </c>
+      <c r="E98" t="s">
+        <v>414</v>
+      </c>
+      <c r="F98" t="s">
+        <v>415</v>
+      </c>
+      <c r="G98" t="s">
+        <v>416</v>
+      </c>
+      <c r="H98" t="s">
+        <v>118</v>
+      </c>
+      <c r="I98" t="s">
+        <v>30</v>
+      </c>
+      <c r="J98" t="s">
+        <v>83</v>
+      </c>
+      <c r="K98" t="s">
+        <v>24</v>
+      </c>
+      <c r="L98" t="s"/>
+      <c r="M98" t="n">
+        <v>35</v>
+      </c>
+      <c r="N98" t="n">
+        <v>26</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="s"/>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>44150.92537696759</v>
+      </c>
+      <c r="C99" t="n">
+        <v>931</v>
+      </c>
+      <c r="D99" t="s">
+        <v>417</v>
+      </c>
+      <c r="E99" t="s">
+        <v>418</v>
+      </c>
+      <c r="F99" t="s">
+        <v>419</v>
+      </c>
+      <c r="G99" t="s">
+        <v>420</v>
+      </c>
+      <c r="H99" t="s">
+        <v>35</v>
+      </c>
+      <c r="I99" t="s">
+        <v>191</v>
+      </c>
+      <c r="J99" t="s">
+        <v>63</v>
+      </c>
+      <c r="K99" t="s">
+        <v>29</v>
+      </c>
+      <c r="L99" t="s"/>
+      <c r="M99" t="n">
+        <v>36</v>
+      </c>
+      <c r="N99" t="n">
+        <v>27</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="s"/>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>44147.90281010417</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1283</v>
+      </c>
+      <c r="D100" t="s">
+        <v>421</v>
+      </c>
+      <c r="E100" t="s">
+        <v>422</v>
+      </c>
+      <c r="F100" t="s">
+        <v>423</v>
+      </c>
+      <c r="G100" t="s">
+        <v>420</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="s">
+        <v>63</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="s">
+        <v>424</v>
+      </c>
+      <c r="M100" t="n">
+        <v>37</v>
+      </c>
+      <c r="N100" t="n">
+        <v>28</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>44147.90575298611</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2569</v>
+      </c>
+      <c r="D101" t="s">
+        <v>425</v>
+      </c>
+      <c r="E101" t="s">
+        <v>426</v>
+      </c>
+      <c r="F101" t="s">
+        <v>427</v>
+      </c>
+      <c r="G101" t="s">
+        <v>428</v>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+      <c r="I101" t="n">
+        <v>5</v>
+      </c>
+      <c r="J101" t="s">
+        <v>22</v>
+      </c>
+      <c r="K101" t="n">
         <v>3</v>
       </c>
-      <c r="P85" t="n">
+      <c r="L101" t="s">
+        <v>429</v>
+      </c>
+      <c r="M101" t="n">
+        <v>38</v>
+      </c>
+      <c r="N101" t="n">
+        <v>29</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>44147.90636120371</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3552</v>
+      </c>
+      <c r="D102" t="s">
+        <v>430</v>
+      </c>
+      <c r="E102" t="s">
+        <v>431</v>
+      </c>
+      <c r="F102" t="s">
+        <v>432</v>
+      </c>
+      <c r="G102" t="s">
+        <v>433</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3</v>
+      </c>
+      <c r="J102" t="s">
+        <v>58</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="s"/>
+      <c r="M102" t="n">
+        <v>39</v>
+      </c>
+      <c r="N102" t="n">
+        <v>30</v>
+      </c>
+      <c r="O102" t="n">
+        <v>2</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>44147.90702556713</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2926</v>
+      </c>
+      <c r="D103" t="s">
+        <v>434</v>
+      </c>
+      <c r="E103" t="s">
+        <v>435</v>
+      </c>
+      <c r="F103" t="s">
+        <v>436</v>
+      </c>
+      <c r="G103" t="s">
+        <v>437</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>9</v>
+      </c>
+      <c r="J103" t="s">
+        <v>24</v>
+      </c>
+      <c r="K103" t="n">
+        <v>3</v>
+      </c>
+      <c r="L103" t="s"/>
+      <c r="M103" t="n">
+        <v>40</v>
+      </c>
+      <c r="N103" t="n">
+        <v>31</v>
+      </c>
+      <c r="O103" t="n">
+        <v>3</v>
+      </c>
+      <c r="P103" t="n">
         <v>0</v>
       </c>
     </row>

--- a/classification-record/session-all-models-combined.xlsx
+++ b/classification-record/session-all-models-combined.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="331">
   <si>
     <t>Name</t>
   </si>
@@ -56,6 +56,507 @@
     <t>Alex</t>
   </si>
   <si>
+    <t>The Difference Between AIO &amp; Pod Devices</t>
+  </si>
+  <si>
+    <t>_giONKyyEHQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_giONKyyEHQ</t>
+  </si>
+  <si>
+    <t>FlavourVapour</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3 4 5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>vape review information website</t>
+  </si>
+  <si>
+    <t>Vapevent Brooklyn Vape Expo 2018 | Mike Vapes, Heathen, TVC, Ambitionz Vaper &amp; More!</t>
+  </si>
+  <si>
+    <t>L5QR4uqfNPU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L5QR4uqfNPU</t>
+  </si>
+  <si>
+    <t>Jai Haze</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vape event blog </t>
+  </si>
+  <si>
+    <t>The New MYBLU Pod Kit | The JUUL Killer? | IndoorSmokers</t>
+  </si>
+  <si>
+    <t>a0F_Wtq9WtI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a0F_Wtq9WtI</t>
+  </si>
+  <si>
+    <t>IndoorSmokers</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Prophecy Update End Times News Headlines  - 7/27/20</t>
+  </si>
+  <si>
+    <t>8minmJx5C04</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8minmJx5C04</t>
+  </si>
+  <si>
+    <t>Prophecy Update Videos</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some kind of modern biblical prophecy thing? I don't know </t>
+  </si>
+  <si>
+    <t>Disposable e-cig from Vapor Couture - review | Vapor Navigator</t>
+  </si>
+  <si>
+    <t>vXJpr5siYSE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vXJpr5siYSE</t>
+  </si>
+  <si>
+    <t>Vapor Navigator</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Why are E-Cigarettes exploding?</t>
+  </si>
+  <si>
+    <t>Ww9BlKd0L7M</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ww9BlKd0L7M</t>
+  </si>
+  <si>
+    <t>DashVapes</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>UK Official Made the Prettiest Cheapest High End Box Mod | Turnwood FX Cali Custom</t>
+  </si>
+  <si>
+    <t>sMk503mlLQU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sMk503mlLQU</t>
+  </si>
+  <si>
+    <t>JUUL, Vaping, and Electronic Cigarettes: A Public Health Crisis</t>
+  </si>
+  <si>
+    <t>oejwcRVK4yo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oejwcRVK4yo</t>
+  </si>
+  <si>
+    <t>AAPexperience</t>
+  </si>
+  <si>
+    <t>HOW SUSTAINABLE IS PAPER &amp; CARDBOARD? / paper vs plastic disposables</t>
+  </si>
+  <si>
+    <t>-7NuGgM5bLw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-7NuGgM5bLw</t>
+  </si>
+  <si>
+    <t>Gittemary Johansen</t>
+  </si>
+  <si>
+    <t>disposable cameras</t>
+  </si>
+  <si>
+    <t>Njoy disposable e-cig</t>
+  </si>
+  <si>
+    <t>Chfhm2kybi0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Chfhm2kybi0</t>
+  </si>
+  <si>
+    <t>jbanks4life</t>
+  </si>
+  <si>
+    <t>TOP 5 FAVORITE E-JUICE FLAVORS! 😍😍</t>
+  </si>
+  <si>
+    <t>on9QXxuu2T8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=on9QXxuu2T8</t>
+  </si>
+  <si>
+    <t>AVAndy</t>
+  </si>
+  <si>
+    <t>UNO MAS VAPE DISPOSABLE (1200 puffs)</t>
+  </si>
+  <si>
+    <t>ftNCSkZVCVg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ftNCSkZVCVg</t>
+  </si>
+  <si>
+    <t>ChaseSmokes</t>
+  </si>
+  <si>
+    <t>jeremy zucker - end (stripped.)</t>
+  </si>
+  <si>
+    <t>TLeLgq2_B40</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TLeLgq2_B40</t>
+  </si>
+  <si>
+    <t>Jeremy Zucker</t>
+  </si>
+  <si>
+    <t>music video (end in title)</t>
+  </si>
+  <si>
+    <t>Vaping at 190 watts | Kawasaki Update | Vaporesso Luxe Kit Unboxing</t>
+  </si>
+  <si>
+    <t>q8iuVGLh2hU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=q8iuVGLh2hU</t>
+  </si>
+  <si>
+    <t>Armaan Gupta</t>
+  </si>
+  <si>
+    <t>2 3</t>
+  </si>
+  <si>
+    <t>Student in Houston suddenly sick after vaping: Officials l ABC News</t>
+  </si>
+  <si>
+    <t>Fc2B-xh9Y0w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Fc2B-xh9Y0w</t>
+  </si>
+  <si>
+    <t>ABC News</t>
+  </si>
+  <si>
+    <t>2 6</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>The Best Fruit Vape of 2019? | SQZD E Liquid Review</t>
+  </si>
+  <si>
+    <t>AETGwMCTpEQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AETGwMCTpEQ</t>
+  </si>
+  <si>
+    <t>vape review webstie</t>
+  </si>
+  <si>
+    <t>My FAVORITE Vape Kit For 2018! The OBS Cube Mod And SubOhm Tank!</t>
+  </si>
+  <si>
+    <t>1RexziRowtg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1RexziRowtg</t>
+  </si>
+  <si>
+    <t>RiP Trippers</t>
+  </si>
+  <si>
+    <t>EASY TO FOLLOW &amp; best way how to make THC vape e-liquid from cannabis buds or weed</t>
+  </si>
+  <si>
+    <t>Yq1AT-2KuxM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Yq1AT-2KuxM</t>
+  </si>
+  <si>
+    <t>Golden Vape</t>
+  </si>
+  <si>
+    <t>Is It The Best MTL Eliquid | Dr Frost 50 50 Juice Range Review</t>
+  </si>
+  <si>
+    <t>jMlfodVPe94</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jMlfodVPe94</t>
+  </si>
+  <si>
+    <t>vape review website</t>
+  </si>
+  <si>
+    <t>DIY | How to Make E-Cigarette at Home - Atomizer + Mod</t>
+  </si>
+  <si>
+    <t>aPYWXCKQ5uA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aPYWXCKQ5uA</t>
+  </si>
+  <si>
+    <t>John's Crafting Lab</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>$600 extended unemployment benefits set to expire at the end of July, some say it's too soon</t>
+  </si>
+  <si>
+    <t>uUqMGlcX4XQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uUqMGlcX4XQ</t>
+  </si>
+  <si>
+    <t>Yahoo Finance</t>
+  </si>
+  <si>
+    <t>about covid unemployment benafits</t>
+  </si>
+  <si>
+    <t>Rythm Vanilla Lavender 1:1 Heal Disposable Pen Vape</t>
+  </si>
+  <si>
+    <t>E4yLIyhZTbA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=E4yLIyhZTbA</t>
+  </si>
+  <si>
+    <t>WojySmokes</t>
+  </si>
+  <si>
+    <t>How To Refill A Blu E-Cig Cartridge DIY Vape Cartomizer Disposable E-cigarette Save Money</t>
+  </si>
+  <si>
+    <t>y9DumE7kwzc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y9DumE7kwzc</t>
+  </si>
+  <si>
+    <t>TM R</t>
+  </si>
+  <si>
+    <t>V2 E-Cigs EX Is Big Deal For Cigalike E-Cigs - V2Cigs Leads By A HUGE Margin</t>
+  </si>
+  <si>
+    <t>fPaTH3nr968</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fPaTH3nr968</t>
+  </si>
+  <si>
+    <t>Ian Woods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecig ad of some kind </t>
+  </si>
+  <si>
+    <t>Vapor4Life Disposable E-Cigarette Review</t>
+  </si>
+  <si>
+    <t>9gpPVpIML-4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9gpPVpIML-4</t>
+  </si>
+  <si>
+    <t>Vapor4Life</t>
+  </si>
+  <si>
+    <t>Lost Vape Mirage DNA75C Review and Rundown | 18650/2x700 #simple</t>
+  </si>
+  <si>
+    <t>cAqmHw1npLY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cAqmHw1npLY</t>
+  </si>
+  <si>
+    <t>REVIEW OF THE DISPOSABLE E-CIGAR FROM E-CIGS.CO.UK</t>
+  </si>
+  <si>
+    <t>gC6es8OdYMI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gC6es8OdYMI</t>
+  </si>
+  <si>
+    <t>igetcha69</t>
+  </si>
+  <si>
+    <t>VAPE PEN FOR MARIJUANA WAX, SHATTER, BUTTER, &amp; DABS!</t>
+  </si>
+  <si>
+    <t>g2nIJb0JkrM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=g2nIJb0JkrM</t>
+  </si>
+  <si>
+    <t>Honeybee Vapes</t>
+  </si>
+  <si>
+    <t>10 Important Vaping Facts</t>
+  </si>
+  <si>
+    <t>Ucuw03jJV0c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ucuw03jJV0c</t>
+  </si>
+  <si>
+    <t>Fact Retriever</t>
+  </si>
+  <si>
+    <t>1 7</t>
+  </si>
+  <si>
+    <t>Green Day - Wake Me Up When September Ends (Cover by Dave Winkler)</t>
+  </si>
+  <si>
+    <t>NA7uRIzCygI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NA7uRIzCygI</t>
+  </si>
+  <si>
+    <t>Dave Winkler</t>
+  </si>
+  <si>
+    <t>green day cover</t>
+  </si>
+  <si>
+    <t>Vlog? The Future of Vaping - Rants &amp; Ramblings!</t>
+  </si>
+  <si>
+    <t>FITyxB34k-g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FITyxB34k-g</t>
+  </si>
+  <si>
+    <t>The CloudieVape</t>
+  </si>
+  <si>
+    <t>Vape Review | My Vape Pen Won't Work, Hit, or Heat up. | Fix Vape | Elegant Aware</t>
+  </si>
+  <si>
+    <t>tOEDV6xeSfM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tOEDV6xeSfM</t>
+  </si>
+  <si>
+    <t>Elegant Aware</t>
+  </si>
+  <si>
+    <t>Smoke Free Electronic Cigarette Review</t>
+  </si>
+  <si>
+    <t>r8FYq7FP9Xw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=r8FYq7FP9Xw</t>
+  </si>
+  <si>
+    <t>Martin Lotsberg</t>
+  </si>
+  <si>
+    <t>Naked 100 Lava Flow E Liquid Review Saturday Triple Play</t>
+  </si>
+  <si>
+    <t>V0l1998Y8HY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V0l1998Y8HY</t>
+  </si>
+  <si>
+    <t>VapeWithMe</t>
+  </si>
+  <si>
+    <t>The Kind Pen Variable Voltage Vape Battery Unboxing &amp; Review</t>
+  </si>
+  <si>
+    <t>XNhtRXU65js</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XNhtRXU65js</t>
+  </si>
+  <si>
+    <t>Nonya Biz</t>
+  </si>
+  <si>
+    <t>POWERFUL VAPE MOD &amp; RTA (IJOY ZENITH &amp; IJOY MAXO V12)</t>
+  </si>
+  <si>
+    <t>tvSDCowuFvo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tvSDCowuFvo</t>
+  </si>
+  <si>
+    <t>Adrian Lo Dejavu</t>
+  </si>
+  <si>
+    <t>0 7</t>
+  </si>
+  <si>
     <t>How to refil logic compact pod easy</t>
   </si>
   <si>
@@ -68,15 +569,6 @@
     <t>legendary_moe 521</t>
   </si>
   <si>
-    <t>3 7</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>How Does Vaping Work - Vape School</t>
   </si>
   <si>
@@ -89,15 +581,6 @@
     <t>ZampleBox</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0 1</t>
-  </si>
-  <si>
     <t>DIY SKITTLES E-JUICE (EASY WAY TO MAKE IT)</t>
   </si>
   <si>
@@ -110,9 +593,6 @@
     <t>Riley Lapointe</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>MAG P3 230W TC MOD By SMOK ~Vape Mod Review~</t>
   </si>
   <si>
@@ -125,9 +605,6 @@
     <t>MyFreedomSmokes</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Building The 62 AUSTIN HEALEY Sprite Front End Is SUPER EASY</t>
   </si>
   <si>
@@ -140,12 +617,6 @@
     <t>WatchJRGo</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>car build channel</t>
   </si>
   <si>
@@ -161,9 +632,6 @@
     <t>Brio E-Cigs by Clipper</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>ecig manufacturer youtube channel</t>
   </si>
   <si>
@@ -239,9 +707,6 @@
     <t>Smokazon</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>STARTER KITS - Jac Vapour V3i E-Cigarette range review</t>
   </si>
   <si>
@@ -422,9 +887,6 @@
     <t>https://www.youtube.com/watch?v=gGTsJDIBu4s</t>
   </si>
   <si>
-    <t>DashVapes</t>
-  </si>
-  <si>
     <t>San Francisco Set to Ban E-Cigs Leaving Traditional Cigarettes Legal</t>
   </si>
   <si>
@@ -546,9 +1008,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=BNQFr2FcJ3k</t>
-  </si>
-  <si>
-    <t>Yahoo Finance</t>
   </si>
 </sst>
 </file>
@@ -901,7 +1360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -952,10 +1411,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44154.66438097865</v>
+        <v>44154.6981956985</v>
       </c>
       <c r="C2" t="n">
-        <v>2555</v>
+        <v>702</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -976,82 +1435,86 @@
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44154.66514181912</v>
+        <v>44154.69934395586</v>
       </c>
       <c r="C3" t="n">
-        <v>2501</v>
+        <v>423</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44154.66558745125</v>
+        <v>44154.6998759152</v>
       </c>
       <c r="C4" t="n">
-        <v>2825</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s"/>
     </row>
@@ -1060,184 +1523,180 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44154.6663752645</v>
+        <v>44154.70088509866</v>
       </c>
       <c r="C5" t="n">
-        <v>3460</v>
+        <v>3419</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
       <c r="K5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44154.66675946829</v>
+        <v>44154.70140253229</v>
       </c>
       <c r="C6" t="n">
-        <v>1777</v>
+        <v>2074</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s">
-        <v>43</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="L6" t="s"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44154.66788681217</v>
+        <v>44154.70263351266</v>
       </c>
       <c r="C7" t="n">
-        <v>2772</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" t="s">
-        <v>49</v>
-      </c>
+      <c r="L7" t="s"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44154.66935013801</v>
+        <v>44154.70319071892</v>
       </c>
       <c r="C8" t="n">
-        <v>3641</v>
+        <v>847</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" t="s">
-        <v>55</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L8" t="s"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44154.67044814547</v>
+        <v>44154.70363350192</v>
       </c>
       <c r="C9" t="n">
-        <v>2487</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
         <v>56</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s"/>
     </row>
@@ -1246,108 +1705,108 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44154.67135246007</v>
+        <v>44154.70392996251</v>
       </c>
       <c r="C10" t="n">
-        <v>2638</v>
+        <v>1587</v>
       </c>
       <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
         <v>60</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>61</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
         <v>62</v>
       </c>
-      <c r="G10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" t="s"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44154.67172907506</v>
+        <v>44154.70447648756</v>
       </c>
       <c r="C11" t="n">
-        <v>3209</v>
+        <v>1510</v>
       </c>
       <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
         <v>65</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>66</v>
       </c>
-      <c r="F11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" t="s">
-        <v>68</v>
-      </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" t="s">
-        <v>69</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L11" t="s"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44154.67312696043</v>
+        <v>44154.70549010424</v>
       </c>
       <c r="C12" t="n">
-        <v>3711</v>
+        <v>631</v>
       </c>
       <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" t="s">
         <v>70</v>
       </c>
-      <c r="E12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" t="s">
-        <v>73</v>
-      </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s"/>
     </row>
@@ -1356,34 +1815,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44154.67364411418</v>
+        <v>44154.70597779064</v>
       </c>
       <c r="C13" t="n">
-        <v>3312</v>
+        <v>2198</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s"/>
     </row>
@@ -1392,108 +1851,108 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44154.67442512028</v>
+        <v>44154.70629576244</v>
       </c>
       <c r="C14" t="n">
+        <v>3797</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
         <v>78</v>
       </c>
-      <c r="D14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" t="s">
-        <v>83</v>
-      </c>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44154.67532738025</v>
+        <v>44154.70677895075</v>
       </c>
       <c r="C15" t="n">
-        <v>3031</v>
+        <v>275</v>
       </c>
       <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
         <v>84</v>
       </c>
-      <c r="E15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" t="s">
-        <v>25</v>
-      </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" t="s">
-        <v>88</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L15" t="s"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44154.67696158546</v>
+        <v>44154.70703077546</v>
       </c>
       <c r="C16" t="n">
-        <v>2035</v>
+        <v>392</v>
       </c>
       <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" t="s">
         <v>89</v>
       </c>
-      <c r="E16" t="s">
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
         <v>90</v>
       </c>
-      <c r="F16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" t="s">
-        <v>31</v>
-      </c>
       <c r="K16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L16" t="s"/>
     </row>
@@ -1502,37 +1961,37 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44154.67738247298</v>
+        <v>44154.7073674018</v>
       </c>
       <c r="C17" t="n">
-        <v>1784</v>
+        <v>1906</v>
       </c>
       <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" t="s">
         <v>93</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
         <v>94</v>
-      </c>
-      <c r="F17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1540,34 +1999,34 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44154.67845166587</v>
+        <v>44154.70763553694</v>
       </c>
       <c r="C18" t="n">
-        <v>116</v>
+        <v>2977</v>
       </c>
       <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" t="s">
         <v>98</v>
       </c>
-      <c r="E18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" t="s">
-        <v>101</v>
-      </c>
       <c r="H18" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L18" t="s"/>
     </row>
@@ -1576,149 +2035,147 @@
         <v>12</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44154.68068962533</v>
+        <v>44154.70829785211</v>
       </c>
       <c r="C19" t="n">
-        <v>1882</v>
+        <v>465</v>
       </c>
       <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" t="s">
         <v>102</v>
       </c>
-      <c r="E19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" t="s">
-        <v>105</v>
-      </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="K19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" t="s">
-        <v>106</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L19" t="s"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44154.68186581133</v>
+        <v>44154.70866862948</v>
       </c>
       <c r="C20" t="n">
-        <v>1175</v>
+        <v>566</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" t="s">
         <v>19</v>
       </c>
-      <c r="J20" t="s">
-        <v>26</v>
-      </c>
       <c r="K20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L20" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44154.6827021211</v>
+        <v>44154.70929016179</v>
       </c>
       <c r="C21" t="n">
-        <v>1528</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" t="s">
         <v>111</v>
       </c>
-      <c r="E21" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" t="s">
-        <v>24</v>
-      </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="K21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" t="s">
-        <v>114</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L21" t="s"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44154.6829627526</v>
+        <v>44154.70976986526</v>
       </c>
       <c r="C22" t="n">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" t="s">
         <v>115</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
         <v>116</v>
-      </c>
-      <c r="F22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" t="s">
-        <v>118</v>
-      </c>
-      <c r="H22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1726,34 +2183,34 @@
         <v>12</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44154.68356502741</v>
+        <v>44154.71052580474</v>
       </c>
       <c r="C23" t="n">
-        <v>1924</v>
+        <v>1446</v>
       </c>
       <c r="D23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" t="s">
         <v>120</v>
       </c>
-      <c r="E23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" t="s">
-        <v>123</v>
-      </c>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L23" t="s"/>
     </row>
@@ -1762,34 +2219,34 @@
         <v>12</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44154.68416406009</v>
+        <v>44154.71083821766</v>
       </c>
       <c r="C24" t="n">
-        <v>3611</v>
+        <v>1516</v>
       </c>
       <c r="D24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" t="s">
         <v>124</v>
       </c>
-      <c r="E24" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" t="s">
-        <v>126</v>
-      </c>
-      <c r="G24" t="s">
-        <v>127</v>
-      </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="I24" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L24" t="s"/>
     </row>
@@ -1798,70 +2255,72 @@
         <v>12</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44154.68457054679</v>
+        <v>44154.71164582957</v>
       </c>
       <c r="C25" t="n">
-        <v>1065</v>
+        <v>1975</v>
       </c>
       <c r="D25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" t="s">
         <v>128</v>
       </c>
-      <c r="E25" t="s">
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" t="s">
         <v>129</v>
       </c>
-      <c r="F25" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" t="s">
-        <v>131</v>
-      </c>
-      <c r="H25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" t="s">
-        <v>31</v>
-      </c>
-      <c r="K25" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" t="s"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44154.68556002568</v>
+        <v>44154.71525582059</v>
       </c>
       <c r="C26" t="n">
-        <v>2475</v>
+        <v>1508</v>
       </c>
       <c r="D26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" t="s">
         <v>132</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>133</v>
       </c>
-      <c r="F26" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" t="s">
-        <v>135</v>
-      </c>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J26" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="L26" t="s"/>
     </row>
@@ -1870,34 +2329,34 @@
         <v>12</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>44154.68630527492</v>
+        <v>44154.71736768984</v>
       </c>
       <c r="C27" t="n">
-        <v>3042</v>
+        <v>2973</v>
       </c>
       <c r="D27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" t="s">
         <v>136</v>
       </c>
-      <c r="E27" t="s">
-        <v>137</v>
-      </c>
-      <c r="F27" t="s">
-        <v>138</v>
-      </c>
       <c r="G27" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J27" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L27" t="s"/>
     </row>
@@ -1906,34 +2365,34 @@
         <v>12</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>44154.68673292911</v>
+        <v>44154.71784644274</v>
       </c>
       <c r="C28" t="n">
-        <v>1903</v>
+        <v>2202</v>
       </c>
       <c r="D28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" t="s">
         <v>140</v>
       </c>
-      <c r="E28" t="s">
-        <v>141</v>
-      </c>
-      <c r="F28" t="s">
-        <v>142</v>
-      </c>
-      <c r="G28" t="s">
-        <v>143</v>
-      </c>
       <c r="H28" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I28" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K28" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L28" t="s"/>
     </row>
@@ -1942,34 +2401,34 @@
         <v>12</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>44154.68780035542</v>
+        <v>44154.71844951768</v>
       </c>
       <c r="C29" t="n">
-        <v>615</v>
+        <v>3156</v>
       </c>
       <c r="D29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" t="s">
         <v>144</v>
       </c>
-      <c r="E29" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29" t="s">
-        <v>146</v>
-      </c>
-      <c r="G29" t="s">
-        <v>147</v>
-      </c>
       <c r="H29" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I29" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="J29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K29" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="L29" t="s"/>
     </row>
@@ -1978,34 +2437,34 @@
         <v>12</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>44154.68797761508</v>
+        <v>44154.71885400152</v>
       </c>
       <c r="C30" t="n">
-        <v>3195</v>
+        <v>2881</v>
       </c>
       <c r="D30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" t="s">
         <v>148</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
         <v>149</v>
       </c>
-      <c r="F30" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" t="s">
-        <v>151</v>
-      </c>
-      <c r="H30" t="s">
-        <v>41</v>
-      </c>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J30" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L30" t="s"/>
     </row>
@@ -2014,70 +2473,72 @@
         <v>12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>44154.68839364973</v>
+        <v>44154.71972351275</v>
       </c>
       <c r="C31" t="n">
-        <v>3134</v>
+        <v>3034</v>
       </c>
       <c r="D31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" t="s">
         <v>152</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>153</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" t="s">
         <v>154</v>
       </c>
-      <c r="G31" t="s">
-        <v>155</v>
-      </c>
-      <c r="H31" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" t="s">
-        <v>42</v>
-      </c>
-      <c r="J31" t="s">
-        <v>74</v>
-      </c>
-      <c r="K31" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" t="s"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>44154.68914657631</v>
+        <v>44154.72165902219</v>
       </c>
       <c r="C32" t="n">
-        <v>1023</v>
+        <v>986</v>
       </c>
       <c r="D32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" t="s">
         <v>156</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>157</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>158</v>
       </c>
-      <c r="G32" t="s">
-        <v>159</v>
-      </c>
       <c r="H32" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J32" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L32" t="s"/>
     </row>
@@ -2086,110 +2547,106 @@
         <v>12</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>44154.68949500634</v>
+        <v>44154.72335130918</v>
       </c>
       <c r="C33" t="n">
-        <v>3395</v>
+        <v>2031</v>
       </c>
       <c r="D33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" t="s">
         <v>160</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>161</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>162</v>
       </c>
-      <c r="G33" t="s">
-        <v>163</v>
-      </c>
       <c r="H33" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="K33" t="s">
-        <v>19</v>
-      </c>
-      <c r="L33" t="s">
-        <v>164</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="L33" t="s"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44154.68986455681</v>
+        <v>44154.72369153163</v>
       </c>
       <c r="C34" t="n">
-        <v>1760</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" t="s">
         <v>165</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>166</v>
       </c>
-      <c r="F34" t="s">
-        <v>167</v>
-      </c>
-      <c r="G34" t="s">
-        <v>168</v>
-      </c>
       <c r="H34" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K34" t="s">
-        <v>19</v>
-      </c>
-      <c r="L34" t="s">
-        <v>169</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L34" t="s"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44154.69036902675</v>
+        <v>44154.72404719206</v>
       </c>
       <c r="C35" t="n">
-        <v>1995</v>
+        <v>533</v>
       </c>
       <c r="D35" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" t="s">
         <v>170</v>
       </c>
-      <c r="E35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F35" t="s">
-        <v>172</v>
-      </c>
-      <c r="G35" t="s">
-        <v>173</v>
-      </c>
       <c r="H35" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I35" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K35" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L35" t="s"/>
     </row>
@@ -2198,36 +2655,1354 @@
         <v>12</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44154.69077488331</v>
+        <v>44154.72488016787</v>
       </c>
       <c r="C36" t="n">
+        <v>3716</v>
+      </c>
+      <c r="D36" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" t="s">
+        <v>174</v>
+      </c>
+      <c r="H36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L36" t="s"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>44154.72557752616</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2974</v>
+      </c>
+      <c r="D37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G37" t="s">
+        <v>178</v>
+      </c>
+      <c r="H37" t="s">
+        <v>179</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37" t="s"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>44154.6643809838</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2555</v>
+      </c>
+      <c r="D38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G38" t="s">
+        <v>183</v>
+      </c>
+      <c r="H38" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" t="s">
+        <v>34</v>
+      </c>
+      <c r="J38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" t="s"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>44154.66514181713</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2501</v>
+      </c>
+      <c r="D39" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" t="s">
+        <v>185</v>
+      </c>
+      <c r="F39" t="s">
+        <v>186</v>
+      </c>
+      <c r="G39" t="s">
+        <v>187</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K39" t="s">
+        <v>50</v>
+      </c>
+      <c r="L39" t="s"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>44154.6655874537</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2825</v>
+      </c>
+      <c r="D40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E40" t="s">
+        <v>189</v>
+      </c>
+      <c r="F40" t="s">
+        <v>190</v>
+      </c>
+      <c r="G40" t="s">
+        <v>191</v>
+      </c>
+      <c r="H40" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" t="s"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>44154.66637526621</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3460</v>
+      </c>
+      <c r="D41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E41" t="s">
+        <v>193</v>
+      </c>
+      <c r="F41" t="s">
+        <v>194</v>
+      </c>
+      <c r="G41" t="s">
+        <v>195</v>
+      </c>
+      <c r="H41" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
+        <v>45</v>
+      </c>
+      <c r="K41" t="s">
+        <v>45</v>
+      </c>
+      <c r="L41" t="s"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>44154.66675946759</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1777</v>
+      </c>
+      <c r="D42" t="s">
+        <v>196</v>
+      </c>
+      <c r="E42" t="s">
+        <v>197</v>
+      </c>
+      <c r="F42" t="s">
+        <v>198</v>
+      </c>
+      <c r="G42" t="s">
+        <v>199</v>
+      </c>
+      <c r="H42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" t="s">
+        <v>34</v>
+      </c>
+      <c r="K42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>44154.66788681713</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2772</v>
+      </c>
+      <c r="D43" t="s">
+        <v>201</v>
+      </c>
+      <c r="E43" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" t="s">
+        <v>203</v>
+      </c>
+      <c r="G43" t="s">
+        <v>204</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>44154.66935013889</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3641</v>
+      </c>
+      <c r="D44" t="s">
+        <v>206</v>
+      </c>
+      <c r="E44" t="s">
+        <v>207</v>
+      </c>
+      <c r="F44" t="s">
+        <v>208</v>
+      </c>
+      <c r="G44" t="s">
+        <v>209</v>
+      </c>
+      <c r="H44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" t="s">
+        <v>210</v>
+      </c>
+      <c r="J44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>44154.67044814815</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2487</v>
+      </c>
+      <c r="D45" t="s">
+        <v>212</v>
+      </c>
+      <c r="E45" t="s">
+        <v>213</v>
+      </c>
+      <c r="F45" t="s">
+        <v>214</v>
+      </c>
+      <c r="G45" t="s">
+        <v>215</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K45" t="s">
+        <v>45</v>
+      </c>
+      <c r="L45" t="s"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>44154.67135246528</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2638</v>
+      </c>
+      <c r="D46" t="s">
+        <v>216</v>
+      </c>
+      <c r="E46" t="s">
+        <v>217</v>
+      </c>
+      <c r="F46" t="s">
+        <v>218</v>
+      </c>
+      <c r="G46" t="s">
+        <v>219</v>
+      </c>
+      <c r="H46" t="s">
+        <v>220</v>
+      </c>
+      <c r="I46" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
+        <v>34</v>
+      </c>
+      <c r="K46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" t="s"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>44154.67172907407</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D47" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" t="s">
+        <v>222</v>
+      </c>
+      <c r="F47" t="s">
+        <v>223</v>
+      </c>
+      <c r="G47" t="s">
+        <v>224</v>
+      </c>
+      <c r="H47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" t="s">
+        <v>34</v>
+      </c>
+      <c r="K47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>44154.67312695602</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3711</v>
+      </c>
+      <c r="D48" t="s">
+        <v>226</v>
+      </c>
+      <c r="E48" t="s">
+        <v>227</v>
+      </c>
+      <c r="F48" t="s">
+        <v>228</v>
+      </c>
+      <c r="G48" t="s">
+        <v>229</v>
+      </c>
+      <c r="H48" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" t="s">
+        <v>90</v>
+      </c>
+      <c r="J48" t="s">
+        <v>45</v>
+      </c>
+      <c r="K48" t="s">
+        <v>45</v>
+      </c>
+      <c r="L48" t="s"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>44154.6736441088</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3312</v>
+      </c>
+      <c r="D49" t="s">
+        <v>230</v>
+      </c>
+      <c r="E49" t="s">
+        <v>231</v>
+      </c>
+      <c r="F49" t="s">
+        <v>232</v>
+      </c>
+      <c r="G49" t="s">
+        <v>233</v>
+      </c>
+      <c r="H49" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" t="s">
+        <v>234</v>
+      </c>
+      <c r="J49" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" t="s"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>44154.67442511574</v>
+      </c>
+      <c r="C50" t="n">
+        <v>78</v>
+      </c>
+      <c r="D50" t="s">
+        <v>235</v>
+      </c>
+      <c r="E50" t="s">
+        <v>236</v>
+      </c>
+      <c r="F50" t="s">
+        <v>237</v>
+      </c>
+      <c r="G50" t="s">
+        <v>238</v>
+      </c>
+      <c r="H50" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" t="s">
+        <v>90</v>
+      </c>
+      <c r="J50" t="s">
+        <v>34</v>
+      </c>
+      <c r="K50" t="s">
+        <v>45</v>
+      </c>
+      <c r="L50" t="s"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>44154.67532738426</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3031</v>
+      </c>
+      <c r="D51" t="s">
+        <v>239</v>
+      </c>
+      <c r="E51" t="s">
+        <v>240</v>
+      </c>
+      <c r="F51" t="s">
+        <v>241</v>
+      </c>
+      <c r="G51" t="s">
+        <v>242</v>
+      </c>
+      <c r="H51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I51" t="s">
+        <v>45</v>
+      </c>
+      <c r="J51" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51" t="s">
+        <v>27</v>
+      </c>
+      <c r="L51" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>44154.67696158565</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2035</v>
+      </c>
+      <c r="D52" t="s">
+        <v>244</v>
+      </c>
+      <c r="E52" t="s">
+        <v>245</v>
+      </c>
+      <c r="F52" t="s">
+        <v>246</v>
+      </c>
+      <c r="G52" t="s">
+        <v>247</v>
+      </c>
+      <c r="H52" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J52" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" t="s">
+        <v>45</v>
+      </c>
+      <c r="L52" t="s"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>44154.67738247685</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1784</v>
+      </c>
+      <c r="D53" t="s">
+        <v>248</v>
+      </c>
+      <c r="E53" t="s">
+        <v>249</v>
+      </c>
+      <c r="F53" t="s">
+        <v>250</v>
+      </c>
+      <c r="G53" t="s">
+        <v>251</v>
+      </c>
+      <c r="H53" t="s">
+        <v>39</v>
+      </c>
+      <c r="I53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>44154.67845166667</v>
+      </c>
+      <c r="C54" t="n">
+        <v>116</v>
+      </c>
+      <c r="D54" t="s">
+        <v>253</v>
+      </c>
+      <c r="E54" t="s">
+        <v>254</v>
+      </c>
+      <c r="F54" t="s">
+        <v>255</v>
+      </c>
+      <c r="G54" t="s">
+        <v>256</v>
+      </c>
+      <c r="H54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s">
+        <v>90</v>
+      </c>
+      <c r="J54" t="s">
+        <v>45</v>
+      </c>
+      <c r="K54" t="s">
+        <v>45</v>
+      </c>
+      <c r="L54" t="s"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>44154.68068962963</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1882</v>
+      </c>
+      <c r="D55" t="s">
+        <v>257</v>
+      </c>
+      <c r="E55" t="s">
+        <v>258</v>
+      </c>
+      <c r="F55" t="s">
+        <v>259</v>
+      </c>
+      <c r="G55" t="s">
+        <v>260</v>
+      </c>
+      <c r="H55" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" t="s">
+        <v>234</v>
+      </c>
+      <c r="K55" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>44154.68186581018</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1175</v>
+      </c>
+      <c r="D56" t="s">
+        <v>262</v>
+      </c>
+      <c r="E56" t="s">
+        <v>263</v>
+      </c>
+      <c r="F56" t="s">
+        <v>264</v>
+      </c>
+      <c r="G56" t="s">
+        <v>265</v>
+      </c>
+      <c r="H56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s">
+        <v>50</v>
+      </c>
+      <c r="K56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L56" t="s"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>44154.68270211806</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1528</v>
+      </c>
+      <c r="D57" t="s">
+        <v>266</v>
+      </c>
+      <c r="E57" t="s">
+        <v>267</v>
+      </c>
+      <c r="F57" t="s">
+        <v>268</v>
+      </c>
+      <c r="G57" t="s">
+        <v>204</v>
+      </c>
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>44154.68296275463</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1838</v>
+      </c>
+      <c r="D58" t="s">
+        <v>270</v>
+      </c>
+      <c r="E58" t="s">
+        <v>271</v>
+      </c>
+      <c r="F58" t="s">
+        <v>272</v>
+      </c>
+      <c r="G58" t="s">
+        <v>273</v>
+      </c>
+      <c r="H58" t="s">
+        <v>39</v>
+      </c>
+      <c r="I58" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58" t="s">
+        <v>34</v>
+      </c>
+      <c r="K58" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>44154.68356502315</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1924</v>
+      </c>
+      <c r="D59" t="s">
+        <v>275</v>
+      </c>
+      <c r="E59" t="s">
+        <v>276</v>
+      </c>
+      <c r="F59" t="s">
+        <v>277</v>
+      </c>
+      <c r="G59" t="s">
+        <v>278</v>
+      </c>
+      <c r="H59" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" t="s">
+        <v>45</v>
+      </c>
+      <c r="J59" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" t="s">
+        <v>45</v>
+      </c>
+      <c r="L59" t="s"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>44154.6841640625</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3611</v>
+      </c>
+      <c r="D60" t="s">
+        <v>279</v>
+      </c>
+      <c r="E60" t="s">
+        <v>280</v>
+      </c>
+      <c r="F60" t="s">
+        <v>281</v>
+      </c>
+      <c r="G60" t="s">
+        <v>282</v>
+      </c>
+      <c r="H60" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" t="s">
+        <v>34</v>
+      </c>
+      <c r="K60" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" t="s"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>44154.68457054398</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1065</v>
+      </c>
+      <c r="D61" t="s">
+        <v>283</v>
+      </c>
+      <c r="E61" t="s">
+        <v>284</v>
+      </c>
+      <c r="F61" t="s">
+        <v>285</v>
+      </c>
+      <c r="G61" t="s">
+        <v>286</v>
+      </c>
+      <c r="H61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" t="s">
+        <v>45</v>
+      </c>
+      <c r="L61" t="s"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>44154.68556002315</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2475</v>
+      </c>
+      <c r="D62" t="s">
+        <v>287</v>
+      </c>
+      <c r="E62" t="s">
+        <v>288</v>
+      </c>
+      <c r="F62" t="s">
+        <v>289</v>
+      </c>
+      <c r="G62" t="s">
+        <v>49</v>
+      </c>
+      <c r="H62" t="s">
+        <v>210</v>
+      </c>
+      <c r="I62" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" t="s">
+        <v>45</v>
+      </c>
+      <c r="K62" t="s">
+        <v>45</v>
+      </c>
+      <c r="L62" t="s"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>44154.68630527778</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3042</v>
+      </c>
+      <c r="D63" t="s">
+        <v>290</v>
+      </c>
+      <c r="E63" t="s">
+        <v>291</v>
+      </c>
+      <c r="F63" t="s">
+        <v>292</v>
+      </c>
+      <c r="G63" t="s">
+        <v>293</v>
+      </c>
+      <c r="H63" t="s">
+        <v>45</v>
+      </c>
+      <c r="I63" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" t="s"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>44154.68673292824</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1903</v>
+      </c>
+      <c r="D64" t="s">
+        <v>294</v>
+      </c>
+      <c r="E64" t="s">
+        <v>295</v>
+      </c>
+      <c r="F64" t="s">
+        <v>296</v>
+      </c>
+      <c r="G64" t="s">
+        <v>297</v>
+      </c>
+      <c r="H64" t="s">
+        <v>111</v>
+      </c>
+      <c r="I64" t="s">
+        <v>45</v>
+      </c>
+      <c r="J64" t="s">
+        <v>27</v>
+      </c>
+      <c r="K64" t="s">
+        <v>45</v>
+      </c>
+      <c r="L64" t="s"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>44154.6878003588</v>
+      </c>
+      <c r="C65" t="n">
+        <v>615</v>
+      </c>
+      <c r="D65" t="s">
+        <v>298</v>
+      </c>
+      <c r="E65" t="s">
+        <v>299</v>
+      </c>
+      <c r="F65" t="s">
+        <v>300</v>
+      </c>
+      <c r="G65" t="s">
+        <v>301</v>
+      </c>
+      <c r="H65" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+      <c r="J65" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" t="s"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>44154.68797761574</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3195</v>
+      </c>
+      <c r="D66" t="s">
+        <v>302</v>
+      </c>
+      <c r="E66" t="s">
+        <v>303</v>
+      </c>
+      <c r="F66" t="s">
+        <v>304</v>
+      </c>
+      <c r="G66" t="s">
+        <v>305</v>
+      </c>
+      <c r="H66" t="s">
+        <v>39</v>
+      </c>
+      <c r="I66" t="s">
+        <v>26</v>
+      </c>
+      <c r="J66" t="s">
+        <v>34</v>
+      </c>
+      <c r="K66" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" t="s"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>44154.68839364583</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3134</v>
+      </c>
+      <c r="D67" t="s">
+        <v>306</v>
+      </c>
+      <c r="E67" t="s">
+        <v>307</v>
+      </c>
+      <c r="F67" t="s">
+        <v>308</v>
+      </c>
+      <c r="G67" t="s">
+        <v>309</v>
+      </c>
+      <c r="H67" t="s">
+        <v>27</v>
+      </c>
+      <c r="I67" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" t="s">
+        <v>90</v>
+      </c>
+      <c r="K67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" t="s"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>44154.68914657408</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D68" t="s">
+        <v>310</v>
+      </c>
+      <c r="E68" t="s">
+        <v>311</v>
+      </c>
+      <c r="F68" t="s">
+        <v>312</v>
+      </c>
+      <c r="G68" t="s">
+        <v>313</v>
+      </c>
+      <c r="H68" t="s">
+        <v>33</v>
+      </c>
+      <c r="I68" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" t="s">
+        <v>27</v>
+      </c>
+      <c r="K68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" t="s"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>44154.68949501157</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3395</v>
+      </c>
+      <c r="D69" t="s">
+        <v>314</v>
+      </c>
+      <c r="E69" t="s">
+        <v>315</v>
+      </c>
+      <c r="F69" t="s">
+        <v>316</v>
+      </c>
+      <c r="G69" t="s">
+        <v>317</v>
+      </c>
+      <c r="H69" t="s">
+        <v>39</v>
+      </c>
+      <c r="I69" t="s">
+        <v>26</v>
+      </c>
+      <c r="J69" t="s">
+        <v>34</v>
+      </c>
+      <c r="K69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>44154.68986456018</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1760</v>
+      </c>
+      <c r="D70" t="s">
+        <v>319</v>
+      </c>
+      <c r="E70" t="s">
+        <v>320</v>
+      </c>
+      <c r="F70" t="s">
+        <v>321</v>
+      </c>
+      <c r="G70" t="s">
+        <v>322</v>
+      </c>
+      <c r="H70" t="s">
+        <v>39</v>
+      </c>
+      <c r="I70" t="s">
+        <v>26</v>
+      </c>
+      <c r="J70" t="s">
+        <v>34</v>
+      </c>
+      <c r="K70" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>44154.69036902778</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D71" t="s">
+        <v>324</v>
+      </c>
+      <c r="E71" t="s">
+        <v>325</v>
+      </c>
+      <c r="F71" t="s">
+        <v>326</v>
+      </c>
+      <c r="G71" t="s">
+        <v>327</v>
+      </c>
+      <c r="H71" t="s">
+        <v>111</v>
+      </c>
+      <c r="I71" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" t="s">
+        <v>45</v>
+      </c>
+      <c r="K71" t="s">
+        <v>45</v>
+      </c>
+      <c r="L71" t="s"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>44154.69077488426</v>
+      </c>
+      <c r="C72" t="n">
         <v>440</v>
       </c>
-      <c r="D36" t="s">
-        <v>174</v>
-      </c>
-      <c r="E36" t="s">
-        <v>175</v>
-      </c>
-      <c r="F36" t="s">
-        <v>176</v>
-      </c>
-      <c r="G36" t="s">
-        <v>177</v>
-      </c>
-      <c r="H36" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" t="s">
-        <v>42</v>
-      </c>
-      <c r="J36" t="s">
-        <v>74</v>
-      </c>
-      <c r="K36" t="s">
-        <v>19</v>
-      </c>
-      <c r="L36" t="s"/>
+      <c r="D72" t="s">
+        <v>328</v>
+      </c>
+      <c r="E72" t="s">
+        <v>329</v>
+      </c>
+      <c r="F72" t="s">
+        <v>330</v>
+      </c>
+      <c r="G72" t="s">
+        <v>115</v>
+      </c>
+      <c r="H72" t="s">
+        <v>45</v>
+      </c>
+      <c r="I72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J72" t="s">
+        <v>90</v>
+      </c>
+      <c r="K72" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models-combined.xlsx
+++ b/classification-record/session-all-models-combined.xlsx
@@ -1360,7 +1360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,100 +2727,104 @@
         <v>12</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>44154.6643809838</v>
+        <v>44154.69819569444</v>
       </c>
       <c r="C38" t="n">
-        <v>2555</v>
+        <v>702</v>
       </c>
       <c r="D38" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="H38" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K38" t="s">
         <v>20</v>
       </c>
-      <c r="L38" t="s"/>
+      <c r="L38" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>44154.66514181713</v>
+        <v>44154.69934395833</v>
       </c>
       <c r="C39" t="n">
-        <v>2501</v>
+        <v>423</v>
       </c>
       <c r="D39" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="E39" t="s">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="G39" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="H39" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="K39" t="s">
-        <v>50</v>
-      </c>
-      <c r="L39" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L39" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44154.6655874537</v>
+        <v>44154.69987591435</v>
       </c>
       <c r="C40" t="n">
-        <v>2825</v>
+        <v>211</v>
       </c>
       <c r="D40" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="H40" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J40" t="s">
         <v>27</v>
@@ -2835,184 +2839,180 @@
         <v>12</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44154.66637526621</v>
+        <v>44154.70088510417</v>
       </c>
       <c r="C41" t="n">
-        <v>3460</v>
+        <v>3419</v>
       </c>
       <c r="D41" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="E41" t="s">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="H41" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I41" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K41" t="s">
-        <v>45</v>
-      </c>
-      <c r="L41" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L41" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44154.66675946759</v>
+        <v>44154.70140253472</v>
       </c>
       <c r="C42" t="n">
-        <v>1777</v>
+        <v>2074</v>
       </c>
       <c r="D42" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>197</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="H42" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I42" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J42" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" t="s">
-        <v>200</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="L42" t="s"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44154.66788681713</v>
+        <v>44154.70263350695</v>
       </c>
       <c r="C43" t="n">
-        <v>2772</v>
+        <v>183</v>
       </c>
       <c r="D43" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
       <c r="F43" t="s">
-        <v>203</v>
+        <v>48</v>
       </c>
       <c r="G43" t="s">
-        <v>204</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J43" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="K43" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43" t="s">
-        <v>205</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="L43" t="s"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>12</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44154.66935013889</v>
+        <v>44154.70319071759</v>
       </c>
       <c r="C44" t="n">
-        <v>3641</v>
+        <v>847</v>
       </c>
       <c r="D44" t="s">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="E44" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="F44" t="s">
-        <v>208</v>
+        <v>53</v>
       </c>
       <c r="G44" t="s">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="H44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I44" t="s">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="J44" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K44" t="s">
         <v>20</v>
       </c>
-      <c r="L44" t="s">
-        <v>211</v>
-      </c>
+      <c r="L44" t="s"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44154.67044814815</v>
+        <v>44154.70363350694</v>
       </c>
       <c r="C45" t="n">
-        <v>2487</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>213</v>
+        <v>55</v>
       </c>
       <c r="F45" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="G45" t="s">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I45" t="s">
         <v>26</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="K45" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L45" t="s"/>
     </row>
@@ -3021,28 +3021,28 @@
         <v>12</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44154.67135246528</v>
+        <v>44154.70392996528</v>
       </c>
       <c r="C46" t="n">
-        <v>2638</v>
+        <v>1587</v>
       </c>
       <c r="D46" t="s">
-        <v>216</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>217</v>
+        <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>218</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="H46" t="s">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="I46" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J46" t="s">
         <v>34</v>
@@ -3050,35 +3050,37 @@
       <c r="K46" t="s">
         <v>20</v>
       </c>
-      <c r="L46" t="s"/>
+      <c r="L46" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44154.67172907407</v>
+        <v>44154.70447649305</v>
       </c>
       <c r="C47" t="n">
-        <v>3209</v>
+        <v>1510</v>
       </c>
       <c r="D47" t="s">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c r="E47" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="F47" t="s">
-        <v>223</v>
+        <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>224</v>
+        <v>66</v>
       </c>
       <c r="H47" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I47" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J47" t="s">
         <v>34</v>
@@ -3086,43 +3088,41 @@
       <c r="K47" t="s">
         <v>20</v>
       </c>
-      <c r="L47" t="s">
-        <v>225</v>
-      </c>
+      <c r="L47" t="s"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>12</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44154.67312695602</v>
+        <v>44154.70549010417</v>
       </c>
       <c r="C48" t="n">
-        <v>3711</v>
+        <v>631</v>
       </c>
       <c r="D48" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="E48" t="s">
-        <v>227</v>
+        <v>68</v>
       </c>
       <c r="F48" t="s">
-        <v>228</v>
+        <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>229</v>
+        <v>70</v>
       </c>
       <c r="H48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I48" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="K48" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L48" t="s"/>
     </row>
@@ -3131,28 +3131,28 @@
         <v>12</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44154.6736441088</v>
+        <v>44154.70597778935</v>
       </c>
       <c r="C49" t="n">
-        <v>3312</v>
+        <v>2198</v>
       </c>
       <c r="D49" t="s">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="E49" t="s">
-        <v>231</v>
+        <v>72</v>
       </c>
       <c r="F49" t="s">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="G49" t="s">
-        <v>233</v>
+        <v>74</v>
       </c>
       <c r="H49" t="s">
         <v>33</v>
       </c>
       <c r="I49" t="s">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="J49" t="s">
         <v>27</v>
@@ -3167,108 +3167,108 @@
         <v>12</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44154.67442511574</v>
+        <v>44154.70629576389</v>
       </c>
       <c r="C50" t="n">
+        <v>3797</v>
+      </c>
+      <c r="D50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50" t="s">
         <v>78</v>
       </c>
-      <c r="D50" t="s">
-        <v>235</v>
-      </c>
-      <c r="E50" t="s">
-        <v>236</v>
-      </c>
-      <c r="F50" t="s">
-        <v>237</v>
-      </c>
-      <c r="G50" t="s">
-        <v>238</v>
-      </c>
       <c r="H50" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I50" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="J50" t="s">
         <v>34</v>
       </c>
       <c r="K50" t="s">
-        <v>45</v>
-      </c>
-      <c r="L50" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L50" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44154.67532738426</v>
+        <v>44154.70677894676</v>
       </c>
       <c r="C51" t="n">
-        <v>3031</v>
+        <v>275</v>
       </c>
       <c r="D51" t="s">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="E51" t="s">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="F51" t="s">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s">
-        <v>242</v>
+        <v>83</v>
       </c>
       <c r="H51" t="s">
         <v>33</v>
       </c>
       <c r="I51" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="J51" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K51" t="s">
-        <v>27</v>
-      </c>
-      <c r="L51" t="s">
-        <v>243</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L51" t="s"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44154.67696158565</v>
+        <v>44154.70703077546</v>
       </c>
       <c r="C52" t="n">
-        <v>2035</v>
+        <v>392</v>
       </c>
       <c r="D52" t="s">
-        <v>244</v>
+        <v>85</v>
       </c>
       <c r="E52" t="s">
-        <v>245</v>
+        <v>86</v>
       </c>
       <c r="F52" t="s">
-        <v>246</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s">
-        <v>247</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" t="s">
         <v>90</v>
       </c>
-      <c r="J52" t="s">
-        <v>27</v>
-      </c>
       <c r="K52" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L52" t="s"/>
     </row>
@@ -3277,28 +3277,28 @@
         <v>12</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44154.67738247685</v>
+        <v>44154.70736740741</v>
       </c>
       <c r="C53" t="n">
-        <v>1784</v>
+        <v>1906</v>
       </c>
       <c r="D53" t="s">
-        <v>248</v>
+        <v>91</v>
       </c>
       <c r="E53" t="s">
-        <v>249</v>
+        <v>92</v>
       </c>
       <c r="F53" t="s">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="G53" t="s">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="H53" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I53" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="J53" t="s">
         <v>19</v>
@@ -3307,7 +3307,7 @@
         <v>20</v>
       </c>
       <c r="L53" t="s">
-        <v>252</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3315,34 +3315,34 @@
         <v>12</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44154.67845166667</v>
+        <v>44154.70763553241</v>
       </c>
       <c r="C54" t="n">
-        <v>116</v>
+        <v>2977</v>
       </c>
       <c r="D54" t="s">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>254</v>
+        <v>96</v>
       </c>
       <c r="F54" t="s">
-        <v>255</v>
+        <v>97</v>
       </c>
       <c r="G54" t="s">
-        <v>256</v>
+        <v>98</v>
       </c>
       <c r="H54" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I54" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="K54" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L54" t="s"/>
     </row>
@@ -3351,134 +3351,132 @@
         <v>12</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>44154.68068962963</v>
+        <v>44154.70829784722</v>
       </c>
       <c r="C55" t="n">
-        <v>1882</v>
+        <v>465</v>
       </c>
       <c r="D55" t="s">
-        <v>257</v>
+        <v>99</v>
       </c>
       <c r="E55" t="s">
-        <v>258</v>
+        <v>100</v>
       </c>
       <c r="F55" t="s">
-        <v>259</v>
+        <v>101</v>
       </c>
       <c r="G55" t="s">
-        <v>260</v>
+        <v>102</v>
       </c>
       <c r="H55" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I55" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="J55" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="K55" t="s">
-        <v>27</v>
-      </c>
-      <c r="L55" t="s">
-        <v>261</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L55" t="s"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>12</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44154.68186581018</v>
+        <v>44154.70866863426</v>
       </c>
       <c r="C56" t="n">
-        <v>1175</v>
+        <v>566</v>
       </c>
       <c r="D56" t="s">
-        <v>262</v>
+        <v>103</v>
       </c>
       <c r="E56" t="s">
-        <v>263</v>
+        <v>104</v>
       </c>
       <c r="F56" t="s">
-        <v>264</v>
+        <v>105</v>
       </c>
       <c r="G56" t="s">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="H56" t="s">
         <v>33</v>
       </c>
       <c r="I56" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K56" t="s">
-        <v>45</v>
-      </c>
-      <c r="L56" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L56" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>12</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44154.68270211806</v>
+        <v>44154.70929016203</v>
       </c>
       <c r="C57" t="n">
-        <v>1528</v>
+        <v>81</v>
       </c>
       <c r="D57" t="s">
-        <v>266</v>
+        <v>107</v>
       </c>
       <c r="E57" t="s">
-        <v>267</v>
+        <v>108</v>
       </c>
       <c r="F57" t="s">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="G57" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="H57" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="I57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J57" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="K57" t="s">
         <v>20</v>
       </c>
-      <c r="L57" t="s">
-        <v>269</v>
-      </c>
+      <c r="L57" t="s"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>12</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44154.68296275463</v>
+        <v>44154.70976986111</v>
       </c>
       <c r="C58" t="n">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D58" t="s">
-        <v>270</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
-        <v>271</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>272</v>
+        <v>114</v>
       </c>
       <c r="G58" t="s">
-        <v>273</v>
+        <v>115</v>
       </c>
       <c r="H58" t="s">
         <v>39</v>
@@ -3487,13 +3485,13 @@
         <v>26</v>
       </c>
       <c r="J58" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="K58" t="s">
         <v>20</v>
       </c>
       <c r="L58" t="s">
-        <v>274</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3501,34 +3499,34 @@
         <v>12</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44154.68356502315</v>
+        <v>44154.71052581019</v>
       </c>
       <c r="C59" t="n">
-        <v>1924</v>
+        <v>1446</v>
       </c>
       <c r="D59" t="s">
-        <v>275</v>
+        <v>117</v>
       </c>
       <c r="E59" t="s">
-        <v>276</v>
+        <v>118</v>
       </c>
       <c r="F59" t="s">
-        <v>277</v>
+        <v>119</v>
       </c>
       <c r="G59" t="s">
-        <v>278</v>
+        <v>120</v>
       </c>
       <c r="H59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I59" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J59" t="s">
         <v>27</v>
       </c>
       <c r="K59" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L59" t="s"/>
     </row>
@@ -3537,28 +3535,28 @@
         <v>12</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44154.6841640625</v>
+        <v>44154.71083821759</v>
       </c>
       <c r="C60" t="n">
-        <v>3611</v>
+        <v>1516</v>
       </c>
       <c r="D60" t="s">
-        <v>279</v>
+        <v>121</v>
       </c>
       <c r="E60" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
       <c r="F60" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
       <c r="G60" t="s">
-        <v>282</v>
+        <v>124</v>
       </c>
       <c r="H60" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="I60" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J60" t="s">
         <v>34</v>
@@ -3573,67 +3571,69 @@
         <v>12</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44154.68457054398</v>
+        <v>44154.71164583333</v>
       </c>
       <c r="C61" t="n">
-        <v>1065</v>
+        <v>1975</v>
       </c>
       <c r="D61" t="s">
-        <v>283</v>
+        <v>125</v>
       </c>
       <c r="E61" t="s">
-        <v>284</v>
+        <v>126</v>
       </c>
       <c r="F61" t="s">
-        <v>285</v>
+        <v>127</v>
       </c>
       <c r="G61" t="s">
-        <v>286</v>
+        <v>128</v>
       </c>
       <c r="H61" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I61" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J61" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K61" t="s">
-        <v>45</v>
-      </c>
-      <c r="L61" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="L61" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>12</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44154.68556002315</v>
+        <v>44154.71525582176</v>
       </c>
       <c r="C62" t="n">
-        <v>2475</v>
+        <v>1508</v>
       </c>
       <c r="D62" t="s">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="E62" t="s">
-        <v>288</v>
+        <v>131</v>
       </c>
       <c r="F62" t="s">
-        <v>289</v>
+        <v>132</v>
       </c>
       <c r="G62" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="H62" t="s">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="I62" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K62" t="s">
         <v>45</v>
@@ -3645,31 +3645,31 @@
         <v>12</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44154.68630527778</v>
+        <v>44154.71736768518</v>
       </c>
       <c r="C63" t="n">
-        <v>3042</v>
+        <v>2973</v>
       </c>
       <c r="D63" t="s">
-        <v>290</v>
+        <v>134</v>
       </c>
       <c r="E63" t="s">
-        <v>291</v>
+        <v>135</v>
       </c>
       <c r="F63" t="s">
-        <v>292</v>
+        <v>136</v>
       </c>
       <c r="G63" t="s">
-        <v>293</v>
+        <v>25</v>
       </c>
       <c r="H63" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I63" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J63" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K63" t="s">
         <v>20</v>
@@ -3681,34 +3681,34 @@
         <v>12</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44154.68673292824</v>
+        <v>44154.71784644676</v>
       </c>
       <c r="C64" t="n">
-        <v>1903</v>
+        <v>2202</v>
       </c>
       <c r="D64" t="s">
-        <v>294</v>
+        <v>137</v>
       </c>
       <c r="E64" t="s">
-        <v>295</v>
+        <v>138</v>
       </c>
       <c r="F64" t="s">
-        <v>296</v>
+        <v>139</v>
       </c>
       <c r="G64" t="s">
-        <v>297</v>
+        <v>140</v>
       </c>
       <c r="H64" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="I64" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="J64" t="s">
         <v>27</v>
       </c>
       <c r="K64" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L64" t="s"/>
     </row>
@@ -3717,25 +3717,25 @@
         <v>12</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44154.6878003588</v>
+        <v>44154.71844951389</v>
       </c>
       <c r="C65" t="n">
-        <v>615</v>
+        <v>3156</v>
       </c>
       <c r="D65" t="s">
-        <v>298</v>
+        <v>141</v>
       </c>
       <c r="E65" t="s">
-        <v>299</v>
+        <v>142</v>
       </c>
       <c r="F65" t="s">
-        <v>300</v>
+        <v>143</v>
       </c>
       <c r="G65" t="s">
-        <v>301</v>
+        <v>144</v>
       </c>
       <c r="H65" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I65" t="s">
         <v>90</v>
@@ -3744,7 +3744,7 @@
         <v>27</v>
       </c>
       <c r="K65" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="L65" t="s"/>
     </row>
@@ -3753,25 +3753,25 @@
         <v>12</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44154.68797761574</v>
+        <v>44154.71885400463</v>
       </c>
       <c r="C66" t="n">
-        <v>3195</v>
+        <v>2881</v>
       </c>
       <c r="D66" t="s">
-        <v>302</v>
+        <v>145</v>
       </c>
       <c r="E66" t="s">
-        <v>303</v>
+        <v>146</v>
       </c>
       <c r="F66" t="s">
-        <v>304</v>
+        <v>147</v>
       </c>
       <c r="G66" t="s">
-        <v>305</v>
+        <v>148</v>
       </c>
       <c r="H66" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="I66" t="s">
         <v>26</v>
@@ -3789,64 +3789,66 @@
         <v>12</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44154.68839364583</v>
+        <v>44154.71972351852</v>
       </c>
       <c r="C67" t="n">
-        <v>3134</v>
+        <v>3034</v>
       </c>
       <c r="D67" t="s">
-        <v>306</v>
+        <v>150</v>
       </c>
       <c r="E67" t="s">
-        <v>307</v>
+        <v>151</v>
       </c>
       <c r="F67" t="s">
-        <v>308</v>
+        <v>152</v>
       </c>
       <c r="G67" t="s">
-        <v>309</v>
+        <v>153</v>
       </c>
       <c r="H67" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I67" t="s">
         <v>26</v>
       </c>
       <c r="J67" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="K67" t="s">
         <v>20</v>
       </c>
-      <c r="L67" t="s"/>
+      <c r="L67" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>12</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44154.68914657408</v>
+        <v>44154.72165902777</v>
       </c>
       <c r="C68" t="n">
-        <v>1023</v>
+        <v>986</v>
       </c>
       <c r="D68" t="s">
-        <v>310</v>
+        <v>155</v>
       </c>
       <c r="E68" t="s">
-        <v>311</v>
+        <v>156</v>
       </c>
       <c r="F68" t="s">
-        <v>312</v>
+        <v>157</v>
       </c>
       <c r="G68" t="s">
-        <v>313</v>
+        <v>158</v>
       </c>
       <c r="H68" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I68" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J68" t="s">
         <v>27</v>
@@ -3861,110 +3863,106 @@
         <v>12</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44154.68949501157</v>
+        <v>44154.72335130787</v>
       </c>
       <c r="C69" t="n">
-        <v>3395</v>
+        <v>2031</v>
       </c>
       <c r="D69" t="s">
-        <v>314</v>
+        <v>159</v>
       </c>
       <c r="E69" t="s">
-        <v>315</v>
+        <v>160</v>
       </c>
       <c r="F69" t="s">
-        <v>316</v>
+        <v>161</v>
       </c>
       <c r="G69" t="s">
-        <v>317</v>
+        <v>162</v>
       </c>
       <c r="H69" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I69" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="J69" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K69" t="s">
-        <v>20</v>
-      </c>
-      <c r="L69" t="s">
-        <v>318</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="L69" t="s"/>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>12</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44154.68986456018</v>
+        <v>44154.72369152778</v>
       </c>
       <c r="C70" t="n">
-        <v>1760</v>
+        <v>67</v>
       </c>
       <c r="D70" t="s">
-        <v>319</v>
+        <v>163</v>
       </c>
       <c r="E70" t="s">
-        <v>320</v>
+        <v>164</v>
       </c>
       <c r="F70" t="s">
-        <v>321</v>
+        <v>165</v>
       </c>
       <c r="G70" t="s">
-        <v>322</v>
+        <v>166</v>
       </c>
       <c r="H70" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I70" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J70" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K70" t="s">
         <v>20</v>
       </c>
-      <c r="L70" t="s">
-        <v>323</v>
-      </c>
+      <c r="L70" t="s"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>12</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44154.69036902778</v>
+        <v>44154.7240471875</v>
       </c>
       <c r="C71" t="n">
-        <v>1995</v>
+        <v>533</v>
       </c>
       <c r="D71" t="s">
-        <v>324</v>
+        <v>167</v>
       </c>
       <c r="E71" t="s">
-        <v>325</v>
+        <v>168</v>
       </c>
       <c r="F71" t="s">
-        <v>326</v>
+        <v>169</v>
       </c>
       <c r="G71" t="s">
-        <v>327</v>
+        <v>170</v>
       </c>
       <c r="H71" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="I71" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="K71" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L71" t="s"/>
     </row>
@@ -3973,36 +3971,1354 @@
         <v>12</v>
       </c>
       <c r="B72" s="2" t="n">
+        <v>44154.72488017361</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3716</v>
+      </c>
+      <c r="D72" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" t="s">
+        <v>172</v>
+      </c>
+      <c r="F72" t="s">
+        <v>173</v>
+      </c>
+      <c r="G72" t="s">
+        <v>174</v>
+      </c>
+      <c r="H72" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" t="s">
+        <v>90</v>
+      </c>
+      <c r="J72" t="s">
+        <v>34</v>
+      </c>
+      <c r="K72" t="s">
+        <v>45</v>
+      </c>
+      <c r="L72" t="s"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>44154.72557752315</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2974</v>
+      </c>
+      <c r="D73" t="s">
+        <v>175</v>
+      </c>
+      <c r="E73" t="s">
+        <v>176</v>
+      </c>
+      <c r="F73" t="s">
+        <v>177</v>
+      </c>
+      <c r="G73" t="s">
+        <v>178</v>
+      </c>
+      <c r="H73" t="s">
+        <v>179</v>
+      </c>
+      <c r="I73" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s">
+        <v>27</v>
+      </c>
+      <c r="K73" t="s">
+        <v>45</v>
+      </c>
+      <c r="L73" t="s"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>44154.6643809838</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2555</v>
+      </c>
+      <c r="D74" t="s">
+        <v>180</v>
+      </c>
+      <c r="E74" t="s">
+        <v>181</v>
+      </c>
+      <c r="F74" t="s">
+        <v>182</v>
+      </c>
+      <c r="G74" t="s">
+        <v>183</v>
+      </c>
+      <c r="H74" t="s">
+        <v>111</v>
+      </c>
+      <c r="I74" t="s">
+        <v>34</v>
+      </c>
+      <c r="J74" t="s">
+        <v>34</v>
+      </c>
+      <c r="K74" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" t="s"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>44154.66514181713</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2501</v>
+      </c>
+      <c r="D75" t="s">
+        <v>184</v>
+      </c>
+      <c r="E75" t="s">
+        <v>185</v>
+      </c>
+      <c r="F75" t="s">
+        <v>186</v>
+      </c>
+      <c r="G75" t="s">
+        <v>187</v>
+      </c>
+      <c r="H75" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" t="s">
+        <v>45</v>
+      </c>
+      <c r="K75" t="s">
+        <v>50</v>
+      </c>
+      <c r="L75" t="s"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>44154.6655874537</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2825</v>
+      </c>
+      <c r="D76" t="s">
+        <v>188</v>
+      </c>
+      <c r="E76" t="s">
+        <v>189</v>
+      </c>
+      <c r="F76" t="s">
+        <v>190</v>
+      </c>
+      <c r="G76" t="s">
+        <v>191</v>
+      </c>
+      <c r="H76" t="s">
+        <v>111</v>
+      </c>
+      <c r="I76" t="s">
+        <v>45</v>
+      </c>
+      <c r="J76" t="s">
+        <v>27</v>
+      </c>
+      <c r="K76" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" t="s"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>44154.66637526621</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3460</v>
+      </c>
+      <c r="D77" t="s">
+        <v>192</v>
+      </c>
+      <c r="E77" t="s">
+        <v>193</v>
+      </c>
+      <c r="F77" t="s">
+        <v>194</v>
+      </c>
+      <c r="G77" t="s">
+        <v>195</v>
+      </c>
+      <c r="H77" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" t="s">
+        <v>45</v>
+      </c>
+      <c r="K77" t="s">
+        <v>45</v>
+      </c>
+      <c r="L77" t="s"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>44154.66675946759</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1777</v>
+      </c>
+      <c r="D78" t="s">
+        <v>196</v>
+      </c>
+      <c r="E78" t="s">
+        <v>197</v>
+      </c>
+      <c r="F78" t="s">
+        <v>198</v>
+      </c>
+      <c r="G78" t="s">
+        <v>199</v>
+      </c>
+      <c r="H78" t="s">
+        <v>39</v>
+      </c>
+      <c r="I78" t="s">
+        <v>26</v>
+      </c>
+      <c r="J78" t="s">
+        <v>34</v>
+      </c>
+      <c r="K78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>44154.66788681713</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2772</v>
+      </c>
+      <c r="D79" t="s">
+        <v>201</v>
+      </c>
+      <c r="E79" t="s">
+        <v>202</v>
+      </c>
+      <c r="F79" t="s">
+        <v>203</v>
+      </c>
+      <c r="G79" t="s">
+        <v>204</v>
+      </c>
+      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" t="s">
+        <v>19</v>
+      </c>
+      <c r="J79" t="s">
+        <v>19</v>
+      </c>
+      <c r="K79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L79" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>44154.66935013889</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3641</v>
+      </c>
+      <c r="D80" t="s">
+        <v>206</v>
+      </c>
+      <c r="E80" t="s">
+        <v>207</v>
+      </c>
+      <c r="F80" t="s">
+        <v>208</v>
+      </c>
+      <c r="G80" t="s">
+        <v>209</v>
+      </c>
+      <c r="H80" t="s">
+        <v>34</v>
+      </c>
+      <c r="I80" t="s">
+        <v>210</v>
+      </c>
+      <c r="J80" t="s">
+        <v>19</v>
+      </c>
+      <c r="K80" t="s">
+        <v>20</v>
+      </c>
+      <c r="L80" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>44154.67044814815</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2487</v>
+      </c>
+      <c r="D81" t="s">
+        <v>212</v>
+      </c>
+      <c r="E81" t="s">
+        <v>213</v>
+      </c>
+      <c r="F81" t="s">
+        <v>214</v>
+      </c>
+      <c r="G81" t="s">
+        <v>215</v>
+      </c>
+      <c r="H81" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" t="s">
+        <v>26</v>
+      </c>
+      <c r="J81" t="s">
+        <v>45</v>
+      </c>
+      <c r="K81" t="s">
+        <v>45</v>
+      </c>
+      <c r="L81" t="s"/>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>44154.67135246528</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2638</v>
+      </c>
+      <c r="D82" t="s">
+        <v>216</v>
+      </c>
+      <c r="E82" t="s">
+        <v>217</v>
+      </c>
+      <c r="F82" t="s">
+        <v>218</v>
+      </c>
+      <c r="G82" t="s">
+        <v>219</v>
+      </c>
+      <c r="H82" t="s">
+        <v>220</v>
+      </c>
+      <c r="I82" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" t="s">
+        <v>34</v>
+      </c>
+      <c r="K82" t="s">
+        <v>20</v>
+      </c>
+      <c r="L82" t="s"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>44154.67172907407</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D83" t="s">
+        <v>221</v>
+      </c>
+      <c r="E83" t="s">
+        <v>222</v>
+      </c>
+      <c r="F83" t="s">
+        <v>223</v>
+      </c>
+      <c r="G83" t="s">
+        <v>224</v>
+      </c>
+      <c r="H83" t="s">
+        <v>39</v>
+      </c>
+      <c r="I83" t="s">
+        <v>26</v>
+      </c>
+      <c r="J83" t="s">
+        <v>34</v>
+      </c>
+      <c r="K83" t="s">
+        <v>20</v>
+      </c>
+      <c r="L83" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>44154.67312695602</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3711</v>
+      </c>
+      <c r="D84" t="s">
+        <v>226</v>
+      </c>
+      <c r="E84" t="s">
+        <v>227</v>
+      </c>
+      <c r="F84" t="s">
+        <v>228</v>
+      </c>
+      <c r="G84" t="s">
+        <v>229</v>
+      </c>
+      <c r="H84" t="s">
+        <v>34</v>
+      </c>
+      <c r="I84" t="s">
+        <v>90</v>
+      </c>
+      <c r="J84" t="s">
+        <v>45</v>
+      </c>
+      <c r="K84" t="s">
+        <v>45</v>
+      </c>
+      <c r="L84" t="s"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>44154.6736441088</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3312</v>
+      </c>
+      <c r="D85" t="s">
+        <v>230</v>
+      </c>
+      <c r="E85" t="s">
+        <v>231</v>
+      </c>
+      <c r="F85" t="s">
+        <v>232</v>
+      </c>
+      <c r="G85" t="s">
+        <v>233</v>
+      </c>
+      <c r="H85" t="s">
+        <v>33</v>
+      </c>
+      <c r="I85" t="s">
+        <v>234</v>
+      </c>
+      <c r="J85" t="s">
+        <v>27</v>
+      </c>
+      <c r="K85" t="s">
+        <v>20</v>
+      </c>
+      <c r="L85" t="s"/>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>44154.67442511574</v>
+      </c>
+      <c r="C86" t="n">
+        <v>78</v>
+      </c>
+      <c r="D86" t="s">
+        <v>235</v>
+      </c>
+      <c r="E86" t="s">
+        <v>236</v>
+      </c>
+      <c r="F86" t="s">
+        <v>237</v>
+      </c>
+      <c r="G86" t="s">
+        <v>238</v>
+      </c>
+      <c r="H86" t="s">
+        <v>33</v>
+      </c>
+      <c r="I86" t="s">
+        <v>90</v>
+      </c>
+      <c r="J86" t="s">
+        <v>34</v>
+      </c>
+      <c r="K86" t="s">
+        <v>45</v>
+      </c>
+      <c r="L86" t="s"/>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>44154.67532738426</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3031</v>
+      </c>
+      <c r="D87" t="s">
+        <v>239</v>
+      </c>
+      <c r="E87" t="s">
+        <v>240</v>
+      </c>
+      <c r="F87" t="s">
+        <v>241</v>
+      </c>
+      <c r="G87" t="s">
+        <v>242</v>
+      </c>
+      <c r="H87" t="s">
+        <v>33</v>
+      </c>
+      <c r="I87" t="s">
+        <v>45</v>
+      </c>
+      <c r="J87" t="s">
+        <v>27</v>
+      </c>
+      <c r="K87" t="s">
+        <v>27</v>
+      </c>
+      <c r="L87" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>44154.67696158565</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2035</v>
+      </c>
+      <c r="D88" t="s">
+        <v>244</v>
+      </c>
+      <c r="E88" t="s">
+        <v>245</v>
+      </c>
+      <c r="F88" t="s">
+        <v>246</v>
+      </c>
+      <c r="G88" t="s">
+        <v>247</v>
+      </c>
+      <c r="H88" t="s">
+        <v>33</v>
+      </c>
+      <c r="I88" t="s">
+        <v>90</v>
+      </c>
+      <c r="J88" t="s">
+        <v>27</v>
+      </c>
+      <c r="K88" t="s">
+        <v>45</v>
+      </c>
+      <c r="L88" t="s"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>44154.67738247685</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1784</v>
+      </c>
+      <c r="D89" t="s">
+        <v>248</v>
+      </c>
+      <c r="E89" t="s">
+        <v>249</v>
+      </c>
+      <c r="F89" t="s">
+        <v>250</v>
+      </c>
+      <c r="G89" t="s">
+        <v>251</v>
+      </c>
+      <c r="H89" t="s">
+        <v>39</v>
+      </c>
+      <c r="I89" t="s">
+        <v>26</v>
+      </c>
+      <c r="J89" t="s">
+        <v>19</v>
+      </c>
+      <c r="K89" t="s">
+        <v>20</v>
+      </c>
+      <c r="L89" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>44154.67845166667</v>
+      </c>
+      <c r="C90" t="n">
+        <v>116</v>
+      </c>
+      <c r="D90" t="s">
+        <v>253</v>
+      </c>
+      <c r="E90" t="s">
+        <v>254</v>
+      </c>
+      <c r="F90" t="s">
+        <v>255</v>
+      </c>
+      <c r="G90" t="s">
+        <v>256</v>
+      </c>
+      <c r="H90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" t="s">
+        <v>90</v>
+      </c>
+      <c r="J90" t="s">
+        <v>45</v>
+      </c>
+      <c r="K90" t="s">
+        <v>45</v>
+      </c>
+      <c r="L90" t="s"/>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>44154.68068962963</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1882</v>
+      </c>
+      <c r="D91" t="s">
+        <v>257</v>
+      </c>
+      <c r="E91" t="s">
+        <v>258</v>
+      </c>
+      <c r="F91" t="s">
+        <v>259</v>
+      </c>
+      <c r="G91" t="s">
+        <v>260</v>
+      </c>
+      <c r="H91" t="s">
+        <v>26</v>
+      </c>
+      <c r="I91" t="s">
+        <v>26</v>
+      </c>
+      <c r="J91" t="s">
+        <v>234</v>
+      </c>
+      <c r="K91" t="s">
+        <v>27</v>
+      </c>
+      <c r="L91" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>44154.68186581018</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1175</v>
+      </c>
+      <c r="D92" t="s">
+        <v>262</v>
+      </c>
+      <c r="E92" t="s">
+        <v>263</v>
+      </c>
+      <c r="F92" t="s">
+        <v>264</v>
+      </c>
+      <c r="G92" t="s">
+        <v>265</v>
+      </c>
+      <c r="H92" t="s">
+        <v>33</v>
+      </c>
+      <c r="I92" t="s">
+        <v>20</v>
+      </c>
+      <c r="J92" t="s">
+        <v>50</v>
+      </c>
+      <c r="K92" t="s">
+        <v>45</v>
+      </c>
+      <c r="L92" t="s"/>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>44154.68270211806</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1528</v>
+      </c>
+      <c r="D93" t="s">
+        <v>266</v>
+      </c>
+      <c r="E93" t="s">
+        <v>267</v>
+      </c>
+      <c r="F93" t="s">
+        <v>268</v>
+      </c>
+      <c r="G93" t="s">
+        <v>204</v>
+      </c>
+      <c r="H93" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" t="s">
+        <v>19</v>
+      </c>
+      <c r="J93" t="s">
+        <v>19</v>
+      </c>
+      <c r="K93" t="s">
+        <v>20</v>
+      </c>
+      <c r="L93" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>44154.68296275463</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1838</v>
+      </c>
+      <c r="D94" t="s">
+        <v>270</v>
+      </c>
+      <c r="E94" t="s">
+        <v>271</v>
+      </c>
+      <c r="F94" t="s">
+        <v>272</v>
+      </c>
+      <c r="G94" t="s">
+        <v>273</v>
+      </c>
+      <c r="H94" t="s">
+        <v>39</v>
+      </c>
+      <c r="I94" t="s">
+        <v>26</v>
+      </c>
+      <c r="J94" t="s">
+        <v>34</v>
+      </c>
+      <c r="K94" t="s">
+        <v>20</v>
+      </c>
+      <c r="L94" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>44154.68356502315</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1924</v>
+      </c>
+      <c r="D95" t="s">
+        <v>275</v>
+      </c>
+      <c r="E95" t="s">
+        <v>276</v>
+      </c>
+      <c r="F95" t="s">
+        <v>277</v>
+      </c>
+      <c r="G95" t="s">
+        <v>278</v>
+      </c>
+      <c r="H95" t="s">
+        <v>33</v>
+      </c>
+      <c r="I95" t="s">
+        <v>45</v>
+      </c>
+      <c r="J95" t="s">
+        <v>27</v>
+      </c>
+      <c r="K95" t="s">
+        <v>45</v>
+      </c>
+      <c r="L95" t="s"/>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>44154.6841640625</v>
+      </c>
+      <c r="C96" t="n">
+        <v>3611</v>
+      </c>
+      <c r="D96" t="s">
+        <v>279</v>
+      </c>
+      <c r="E96" t="s">
+        <v>280</v>
+      </c>
+      <c r="F96" t="s">
+        <v>281</v>
+      </c>
+      <c r="G96" t="s">
+        <v>282</v>
+      </c>
+      <c r="H96" t="s">
+        <v>33</v>
+      </c>
+      <c r="I96" t="s">
+        <v>33</v>
+      </c>
+      <c r="J96" t="s">
+        <v>34</v>
+      </c>
+      <c r="K96" t="s">
+        <v>20</v>
+      </c>
+      <c r="L96" t="s"/>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>44154.68457054398</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1065</v>
+      </c>
+      <c r="D97" t="s">
+        <v>283</v>
+      </c>
+      <c r="E97" t="s">
+        <v>284</v>
+      </c>
+      <c r="F97" t="s">
+        <v>285</v>
+      </c>
+      <c r="G97" t="s">
+        <v>286</v>
+      </c>
+      <c r="H97" t="s">
+        <v>33</v>
+      </c>
+      <c r="I97" t="s">
+        <v>20</v>
+      </c>
+      <c r="J97" t="s">
+        <v>27</v>
+      </c>
+      <c r="K97" t="s">
+        <v>45</v>
+      </c>
+      <c r="L97" t="s"/>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>44154.68556002315</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2475</v>
+      </c>
+      <c r="D98" t="s">
+        <v>287</v>
+      </c>
+      <c r="E98" t="s">
+        <v>288</v>
+      </c>
+      <c r="F98" t="s">
+        <v>289</v>
+      </c>
+      <c r="G98" t="s">
+        <v>49</v>
+      </c>
+      <c r="H98" t="s">
+        <v>210</v>
+      </c>
+      <c r="I98" t="s">
+        <v>26</v>
+      </c>
+      <c r="J98" t="s">
+        <v>45</v>
+      </c>
+      <c r="K98" t="s">
+        <v>45</v>
+      </c>
+      <c r="L98" t="s"/>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>44154.68630527778</v>
+      </c>
+      <c r="C99" t="n">
+        <v>3042</v>
+      </c>
+      <c r="D99" t="s">
+        <v>290</v>
+      </c>
+      <c r="E99" t="s">
+        <v>291</v>
+      </c>
+      <c r="F99" t="s">
+        <v>292</v>
+      </c>
+      <c r="G99" t="s">
+        <v>293</v>
+      </c>
+      <c r="H99" t="s">
+        <v>45</v>
+      </c>
+      <c r="I99" t="s">
+        <v>26</v>
+      </c>
+      <c r="J99" t="s">
+        <v>20</v>
+      </c>
+      <c r="K99" t="s">
+        <v>20</v>
+      </c>
+      <c r="L99" t="s"/>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>44154.68673292824</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1903</v>
+      </c>
+      <c r="D100" t="s">
+        <v>294</v>
+      </c>
+      <c r="E100" t="s">
+        <v>295</v>
+      </c>
+      <c r="F100" t="s">
+        <v>296</v>
+      </c>
+      <c r="G100" t="s">
+        <v>297</v>
+      </c>
+      <c r="H100" t="s">
+        <v>111</v>
+      </c>
+      <c r="I100" t="s">
+        <v>45</v>
+      </c>
+      <c r="J100" t="s">
+        <v>27</v>
+      </c>
+      <c r="K100" t="s">
+        <v>45</v>
+      </c>
+      <c r="L100" t="s"/>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>44154.6878003588</v>
+      </c>
+      <c r="C101" t="n">
+        <v>615</v>
+      </c>
+      <c r="D101" t="s">
+        <v>298</v>
+      </c>
+      <c r="E101" t="s">
+        <v>299</v>
+      </c>
+      <c r="F101" t="s">
+        <v>300</v>
+      </c>
+      <c r="G101" t="s">
+        <v>301</v>
+      </c>
+      <c r="H101" t="s">
+        <v>17</v>
+      </c>
+      <c r="I101" t="s">
+        <v>90</v>
+      </c>
+      <c r="J101" t="s">
+        <v>27</v>
+      </c>
+      <c r="K101" t="s">
+        <v>20</v>
+      </c>
+      <c r="L101" t="s"/>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>44154.68797761574</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3195</v>
+      </c>
+      <c r="D102" t="s">
+        <v>302</v>
+      </c>
+      <c r="E102" t="s">
+        <v>303</v>
+      </c>
+      <c r="F102" t="s">
+        <v>304</v>
+      </c>
+      <c r="G102" t="s">
+        <v>305</v>
+      </c>
+      <c r="H102" t="s">
+        <v>39</v>
+      </c>
+      <c r="I102" t="s">
+        <v>26</v>
+      </c>
+      <c r="J102" t="s">
+        <v>34</v>
+      </c>
+      <c r="K102" t="s">
+        <v>20</v>
+      </c>
+      <c r="L102" t="s"/>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>44154.68839364583</v>
+      </c>
+      <c r="C103" t="n">
+        <v>3134</v>
+      </c>
+      <c r="D103" t="s">
+        <v>306</v>
+      </c>
+      <c r="E103" t="s">
+        <v>307</v>
+      </c>
+      <c r="F103" t="s">
+        <v>308</v>
+      </c>
+      <c r="G103" t="s">
+        <v>309</v>
+      </c>
+      <c r="H103" t="s">
+        <v>27</v>
+      </c>
+      <c r="I103" t="s">
+        <v>26</v>
+      </c>
+      <c r="J103" t="s">
+        <v>90</v>
+      </c>
+      <c r="K103" t="s">
+        <v>20</v>
+      </c>
+      <c r="L103" t="s"/>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>44154.68914657408</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D104" t="s">
+        <v>310</v>
+      </c>
+      <c r="E104" t="s">
+        <v>311</v>
+      </c>
+      <c r="F104" t="s">
+        <v>312</v>
+      </c>
+      <c r="G104" t="s">
+        <v>313</v>
+      </c>
+      <c r="H104" t="s">
+        <v>33</v>
+      </c>
+      <c r="I104" t="s">
+        <v>20</v>
+      </c>
+      <c r="J104" t="s">
+        <v>27</v>
+      </c>
+      <c r="K104" t="s">
+        <v>20</v>
+      </c>
+      <c r="L104" t="s"/>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>44154.68949501157</v>
+      </c>
+      <c r="C105" t="n">
+        <v>3395</v>
+      </c>
+      <c r="D105" t="s">
+        <v>314</v>
+      </c>
+      <c r="E105" t="s">
+        <v>315</v>
+      </c>
+      <c r="F105" t="s">
+        <v>316</v>
+      </c>
+      <c r="G105" t="s">
+        <v>317</v>
+      </c>
+      <c r="H105" t="s">
+        <v>39</v>
+      </c>
+      <c r="I105" t="s">
+        <v>26</v>
+      </c>
+      <c r="J105" t="s">
+        <v>34</v>
+      </c>
+      <c r="K105" t="s">
+        <v>20</v>
+      </c>
+      <c r="L105" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>44154.68986456018</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1760</v>
+      </c>
+      <c r="D106" t="s">
+        <v>319</v>
+      </c>
+      <c r="E106" t="s">
+        <v>320</v>
+      </c>
+      <c r="F106" t="s">
+        <v>321</v>
+      </c>
+      <c r="G106" t="s">
+        <v>322</v>
+      </c>
+      <c r="H106" t="s">
+        <v>39</v>
+      </c>
+      <c r="I106" t="s">
+        <v>26</v>
+      </c>
+      <c r="J106" t="s">
+        <v>34</v>
+      </c>
+      <c r="K106" t="s">
+        <v>20</v>
+      </c>
+      <c r="L106" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>44154.69036902778</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D107" t="s">
+        <v>324</v>
+      </c>
+      <c r="E107" t="s">
+        <v>325</v>
+      </c>
+      <c r="F107" t="s">
+        <v>326</v>
+      </c>
+      <c r="G107" t="s">
+        <v>327</v>
+      </c>
+      <c r="H107" t="s">
+        <v>111</v>
+      </c>
+      <c r="I107" t="s">
+        <v>20</v>
+      </c>
+      <c r="J107" t="s">
+        <v>45</v>
+      </c>
+      <c r="K107" t="s">
+        <v>45</v>
+      </c>
+      <c r="L107" t="s"/>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" s="2" t="n">
         <v>44154.69077488426</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C108" t="n">
         <v>440</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D108" t="s">
         <v>328</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E108" t="s">
         <v>329</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F108" t="s">
         <v>330</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G108" t="s">
         <v>115</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H108" t="s">
         <v>45</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I108" t="s">
         <v>26</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J108" t="s">
         <v>90</v>
       </c>
-      <c r="K72" t="s">
-        <v>20</v>
-      </c>
-      <c r="L72" t="s"/>
+      <c r="K108" t="s">
+        <v>20</v>
+      </c>
+      <c r="L108" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models-combined.xlsx
+++ b/classification-record/session-all-models-combined.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="433">
   <si>
     <t>Name</t>
   </si>
@@ -56,6 +56,357 @@
     <t>Alex</t>
   </si>
   <si>
+    <t>Green Day “Wake Me Up When September Ends” Live on the Howard Stern Show</t>
+  </si>
+  <si>
+    <t>GRCm6D1YJno</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GRCm6D1YJno</t>
+  </si>
+  <si>
+    <t>The Howard Stern Show</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green day on howard stern show </t>
+  </si>
+  <si>
+    <t>How To Quit Smoking w/ E-Cigs! (2 months smoke free!)</t>
+  </si>
+  <si>
+    <t>MgsQ0eglX5o</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MgsQ0eglX5o</t>
+  </si>
+  <si>
+    <t>Jacquelyn Lovene</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>flair vapor salt nic disposable</t>
+  </si>
+  <si>
+    <t>_2mJb-XzurI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_2mJb-XzurI</t>
+  </si>
+  <si>
+    <t>Timmerz</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Minecraft: Shulker Box Viewer Tutorial (Mod Showcase)</t>
+  </si>
+  <si>
+    <t>fJgoRbePneE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fJgoRbePneE</t>
+  </si>
+  <si>
+    <t>xisumavoid</t>
+  </si>
+  <si>
+    <t>What's Inside NutroVape Disposable Vape - Does it Work?</t>
+  </si>
+  <si>
+    <t>4ZyF6Pc9PkM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4ZyF6Pc9PkM</t>
+  </si>
+  <si>
+    <t>Brandon Geekabit</t>
+  </si>
+  <si>
+    <t>Are E-Cigs Safer?</t>
+  </si>
+  <si>
+    <t>XvBVevkb5PU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XvBVevkb5PU</t>
+  </si>
+  <si>
+    <t>Seeker</t>
+  </si>
+  <si>
+    <t>Ten Motives Disposable Menthol E-Cig - £2</t>
+  </si>
+  <si>
+    <t>HG95cVn6ggs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HG95cVn6ggs</t>
+  </si>
+  <si>
+    <t>Green Winch</t>
+  </si>
+  <si>
+    <t>Pod Mod for DL? Vaporesso Target PM80 AIO</t>
+  </si>
+  <si>
+    <t>RreIUctjMCY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RreIUctjMCY</t>
+  </si>
+  <si>
+    <t>Wendy Vapes</t>
+  </si>
+  <si>
+    <t>Everything You Need to Know About Vape Pens | The Hist List</t>
+  </si>
+  <si>
+    <t>9wWq-z15MGc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9wWq-z15MGc</t>
+  </si>
+  <si>
+    <t>Civilized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannabis website reviews and information </t>
+  </si>
+  <si>
+    <t>My New Favorite Pod? The Caliburn Pod Vape By Uwell Review</t>
+  </si>
+  <si>
+    <t>y-c3Kx-MGqY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y-c3Kx-MGqY</t>
+  </si>
+  <si>
+    <t>Mike Vapes</t>
+  </si>
+  <si>
+    <t>TOP 10 BEST VAPE JUICES FOR 2019</t>
+  </si>
+  <si>
+    <t>4ur7HkfdqyQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4ur7HkfdqyQ</t>
+  </si>
+  <si>
+    <t>Vaping Insider</t>
+  </si>
+  <si>
+    <t>vape review website</t>
+  </si>
+  <si>
+    <t>TOP 10 BEST VAPE MODS FOR 2019 - VAPING INSIDER</t>
+  </si>
+  <si>
+    <t>zkQMkvmDFIk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zkQMkvmDFIk</t>
+  </si>
+  <si>
+    <t>A pod that creates no clouds? Smokeless Pod? Lets see!! [Giveaway 3 units Smokeless Pod 1.0]</t>
+  </si>
+  <si>
+    <t>oo_pn-2Laxs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oo_pn-2Laxs</t>
+  </si>
+  <si>
+    <t>Adrian Lo Dejavu</t>
+  </si>
+  <si>
+    <t>giveaway in title</t>
+  </si>
+  <si>
+    <t>DomPen disposable vape review</t>
+  </si>
+  <si>
+    <t>qP1puqKW7Yo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qP1puqKW7Yo</t>
+  </si>
+  <si>
+    <t>Casa de Mota</t>
+  </si>
+  <si>
+    <t>Blu Cig Disposable Review - Good For Last Minute Running Out....</t>
+  </si>
+  <si>
+    <t>NlGb6yJmYb0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NlGb6yJmYb0</t>
+  </si>
+  <si>
+    <t>E Cigarette Now</t>
+  </si>
+  <si>
+    <t>Tobacco Product Compliance Policy: Updates for Importers</t>
+  </si>
+  <si>
+    <t>l8wMPh_jRYY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=l8wMPh_jRYY</t>
+  </si>
+  <si>
+    <t>U.S. Food and Drug Administration</t>
+  </si>
+  <si>
+    <t>US FDA video about importing tobacco products</t>
+  </si>
+  <si>
+    <t>Micro soldering iron made from electronic cigarette</t>
+  </si>
+  <si>
+    <t>-zuaKWpuAfc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-zuaKWpuAfc</t>
+  </si>
+  <si>
+    <t>Kasyan TV</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turning ecig into soldering iron </t>
+  </si>
+  <si>
+    <t>Hooligan Box Mod ~ Series / unregulated ~ SeamTingleCoil</t>
+  </si>
+  <si>
+    <t>O3oq3rBGK-c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O3oq3rBGK-c</t>
+  </si>
+  <si>
+    <t>GrimmGreen</t>
+  </si>
+  <si>
+    <t>TOP 10 BEST SALT NIC JUICES FOR 2020 - [50+ NIC SALT JUICES TESTED]</t>
+  </si>
+  <si>
+    <t>WHFNhOkFh10</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WHFNhOkFh10</t>
+  </si>
+  <si>
+    <t>DMT Vape Pens (Pros &amp; Cons) *My Thoughts*</t>
+  </si>
+  <si>
+    <t>iiMVNYAVfQo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iiMVNYAVfQo</t>
+  </si>
+  <si>
+    <t>DeNightDimension</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>thoughts about a dmt vape pen</t>
+  </si>
+  <si>
+    <t>Square Smoke's disposable 'XL' ego style ecig!</t>
+  </si>
+  <si>
+    <t>7Ba30CMxmY8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7Ba30CMxmY8</t>
+  </si>
+  <si>
+    <t>E-Cigarette Intelligence</t>
+  </si>
+  <si>
+    <t>Pet Shop Boys - West End Girls (Official Video) [HD REMASTERED]</t>
+  </si>
+  <si>
+    <t>p3j2NYZ8FKs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=p3j2NYZ8FKs</t>
+  </si>
+  <si>
+    <t>PetShopBoys Parlophone</t>
+  </si>
+  <si>
+    <t>Fruit Monster E Liquid Review</t>
+  </si>
+  <si>
+    <t>RhZ0w3VJVrs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RhZ0w3VJVrs</t>
+  </si>
+  <si>
+    <t>FlavourVapour</t>
+  </si>
+  <si>
+    <t>My Favourite Pod System | 2019</t>
+  </si>
+  <si>
+    <t>f0CzTYAQ7bM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f0CzTYAQ7bM</t>
+  </si>
+  <si>
+    <t>Jay Jupiter</t>
+  </si>
+  <si>
+    <t>Rip Trippers Rainbow Nuggets Spotlight Juice Review - E Cig City Reviews &amp; Tutorials</t>
+  </si>
+  <si>
+    <t>XSDQptV4Y5o</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XSDQptV4Y5o</t>
+  </si>
+  <si>
+    <t>E Cig City UK</t>
+  </si>
+  <si>
     <t>The Difference Between AIO &amp; Pod Devices</t>
   </si>
   <si>
@@ -65,21 +416,9 @@
     <t>https://www.youtube.com/watch?v=_giONKyyEHQ</t>
   </si>
   <si>
-    <t>FlavourVapour</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>3 4 5</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>vape review information website</t>
   </si>
   <si>
@@ -95,12 +434,6 @@
     <t>Jai Haze</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vape event blog </t>
   </si>
   <si>
@@ -116,12 +449,6 @@
     <t>IndoorSmokers</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Prophecy Update End Times News Headlines  - 7/27/20</t>
   </si>
   <si>
@@ -134,9 +461,6 @@
     <t>Prophecy Update Videos</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t xml:space="preserve">some kind of modern biblical prophecy thing? I don't know </t>
   </si>
   <si>
@@ -152,9 +476,6 @@
     <t>Vapor Navigator</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Why are E-Cigarettes exploding?</t>
   </si>
   <si>
@@ -287,9 +608,6 @@
     <t>2 6</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>The Best Fruit Vape of 2019? | SQZD E Liquid Review</t>
   </si>
   <si>
@@ -335,9 +653,6 @@
     <t>https://www.youtube.com/watch?v=jMlfodVPe94</t>
   </si>
   <si>
-    <t>vape review website</t>
-  </si>
-  <si>
     <t>DIY | How to Make E-Cigarette at Home - Atomizer + Mod</t>
   </si>
   <si>
@@ -350,9 +665,6 @@
     <t>John's Crafting Lab</t>
   </si>
   <si>
-    <t>3 7</t>
-  </si>
-  <si>
     <t>$600 extended unemployment benefits set to expire at the end of July, some say it's too soon</t>
   </si>
   <si>
@@ -551,9 +863,6 @@
     <t>https://www.youtube.com/watch?v=tvSDCowuFvo</t>
   </si>
   <si>
-    <t>Adrian Lo Dejavu</t>
-  </si>
-  <si>
     <t>0 7</t>
   </si>
   <si>
@@ -645,9 +954,6 @@
   </si>
   <si>
     <t>Engadget</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>dry herb cannabis vape device | technology review website</t>
@@ -1360,7 +1666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L108"/>
+  <dimension ref="A1:L133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,10 +1717,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44154.6981956985</v>
+        <v>44154.77216884616</v>
       </c>
       <c r="C2" t="n">
-        <v>702</v>
+        <v>1765</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1449,10 +1755,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44154.69934395586</v>
+        <v>44154.77410749242</v>
       </c>
       <c r="C3" t="n">
-        <v>423</v>
+        <v>2940</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -1470,27 +1776,25 @@
         <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
         <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
         <v>28</v>
       </c>
+      <c r="L3" t="s"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44154.6998759152</v>
+        <v>44154.77493980046</v>
       </c>
       <c r="C4" t="n">
-        <v>211</v>
+        <v>3744</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -1511,7 +1815,7 @@
         <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
         <v>20</v>
@@ -1523,72 +1827,70 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44154.70088509866</v>
+        <v>44154.7754489089</v>
       </c>
       <c r="C5" t="n">
-        <v>3419</v>
+        <v>3469</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
+      <c r="L5" t="s"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44154.70140253229</v>
+        <v>44154.77620285247</v>
       </c>
       <c r="C6" t="n">
-        <v>2074</v>
+        <v>1419</v>
       </c>
       <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>43</v>
       </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
         <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s"/>
     </row>
@@ -1597,34 +1899,34 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44154.70263351266</v>
+        <v>44154.77733230958</v>
       </c>
       <c r="C7" t="n">
-        <v>183</v>
+        <v>2861</v>
       </c>
       <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s"/>
     </row>
@@ -1633,31 +1935,31 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44154.70319071892</v>
+        <v>44154.77845812363</v>
       </c>
       <c r="C8" t="n">
-        <v>847</v>
+        <v>229</v>
       </c>
       <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
         <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
       </c>
       <c r="H8" t="s">
         <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
@@ -1669,31 +1971,31 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44154.70363350192</v>
+        <v>44154.77909887183</v>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>1277</v>
       </c>
       <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
         <v>54</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>55</v>
       </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" t="s">
-        <v>57</v>
-      </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
@@ -1705,28 +2007,28 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44154.70392996251</v>
+        <v>44154.78025190128</v>
       </c>
       <c r="C10" t="n">
-        <v>1587</v>
+        <v>1136</v>
       </c>
       <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
         <v>58</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>59</v>
       </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" t="s">
-        <v>61</v>
-      </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
         <v>34</v>
@@ -1735,7 +2037,7 @@
         <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1743,31 +2045,31 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44154.70447648756</v>
+        <v>44154.78865254683</v>
       </c>
       <c r="C11" t="n">
-        <v>1510</v>
+        <v>768</v>
       </c>
       <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>64</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" t="s">
-        <v>66</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11" t="s">
         <v>20</v>
@@ -1779,70 +2081,72 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44154.70549010424</v>
+        <v>44154.79067495037</v>
       </c>
       <c r="C12" t="n">
-        <v>631</v>
+        <v>445</v>
       </c>
       <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
         <v>67</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>68</v>
-      </c>
-      <c r="F12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" t="s">
-        <v>70</v>
       </c>
       <c r="H12" t="s">
         <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44154.70597779064</v>
+        <v>44154.79188466499</v>
       </c>
       <c r="C13" t="n">
-        <v>2198</v>
+        <v>794</v>
       </c>
       <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
         <v>71</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>72</v>
       </c>
-      <c r="F13" t="s">
-        <v>73</v>
-      </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
         <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K13" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L13" t="s"/>
     </row>
@@ -1851,37 +2155,37 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44154.70629576244</v>
+        <v>44154.79298895962</v>
       </c>
       <c r="C14" t="n">
-        <v>3797</v>
+        <v>1948</v>
       </c>
       <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
         <v>75</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>76</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
         <v>77</v>
-      </c>
-      <c r="G14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1889,31 +2193,31 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44154.70677895075</v>
+        <v>44154.79340069235</v>
       </c>
       <c r="C15" t="n">
-        <v>275</v>
+        <v>1429</v>
       </c>
       <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s">
         <v>80</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>81</v>
-      </c>
-      <c r="F15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" t="s">
-        <v>83</v>
       </c>
       <c r="H15" t="s">
         <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="J15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K15" t="s">
         <v>20</v>
@@ -1925,31 +2229,31 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44154.70703077546</v>
+        <v>44154.79398876343</v>
       </c>
       <c r="C16" t="n">
-        <v>392</v>
+        <v>1511</v>
       </c>
       <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s">
         <v>85</v>
       </c>
-      <c r="E16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" t="s">
-        <v>88</v>
-      </c>
       <c r="H16" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="I16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J16" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="K16" t="s">
         <v>20</v>
@@ -1961,37 +2265,37 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44154.7073674018</v>
+        <v>44154.79457364119</v>
       </c>
       <c r="C17" t="n">
-        <v>1906</v>
+        <v>2860</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="K17" t="s">
         <v>20</v>
       </c>
       <c r="L17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1999,28 +2303,28 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44154.70763553694</v>
+        <v>44154.79515041466</v>
       </c>
       <c r="C18" t="n">
-        <v>2977</v>
+        <v>2376</v>
       </c>
       <c r="D18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" t="s">
         <v>95</v>
       </c>
-      <c r="E18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>33</v>
-      </c>
-      <c r="I18" t="s">
-        <v>20</v>
       </c>
       <c r="J18" t="s">
         <v>27</v>
@@ -2028,38 +2332,40 @@
       <c r="K18" t="s">
         <v>20</v>
       </c>
-      <c r="L18" t="s"/>
+      <c r="L18" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44154.70829785211</v>
+        <v>44154.79556157749</v>
       </c>
       <c r="C19" t="n">
-        <v>465</v>
+        <v>1997</v>
       </c>
       <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" t="s">
         <v>99</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>100</v>
       </c>
-      <c r="F19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" t="s">
-        <v>102</v>
-      </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K19" t="s">
         <v>20</v>
@@ -2071,37 +2377,37 @@
         <v>12</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44154.70866862948</v>
+        <v>44154.79606213693</v>
       </c>
       <c r="C20" t="n">
-        <v>566</v>
+        <v>595</v>
       </c>
       <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" t="s">
         <v>103</v>
       </c>
-      <c r="E20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" t="s">
-        <v>105</v>
-      </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="H20" t="s">
         <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="K20" t="s">
         <v>20</v>
       </c>
       <c r="L20" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2109,102 +2415,102 @@
         <v>12</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44154.70929016179</v>
+        <v>44154.79688260754</v>
       </c>
       <c r="C21" t="n">
-        <v>81</v>
+        <v>3715</v>
       </c>
       <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" t="s">
         <v>107</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
         <v>108</v>
       </c>
-      <c r="F21" t="s">
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
         <v>109</v>
       </c>
-      <c r="G21" t="s">
-        <v>110</v>
-      </c>
-      <c r="H21" t="s">
-        <v>111</v>
-      </c>
-      <c r="I21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" t="s"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44154.70976986526</v>
+        <v>44154.79758924521</v>
       </c>
       <c r="C22" t="n">
-        <v>1837</v>
+        <v>3369</v>
       </c>
       <c r="D22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" t="s">
         <v>112</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>113</v>
       </c>
-      <c r="F22" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" t="s">
-        <v>115</v>
-      </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J22" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="K22" t="s">
         <v>20</v>
       </c>
-      <c r="L22" t="s">
-        <v>116</v>
-      </c>
+      <c r="L22" t="s"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44154.71052580474</v>
+        <v>44154.79803196173</v>
       </c>
       <c r="C23" t="n">
-        <v>1446</v>
+        <v>1824</v>
       </c>
       <c r="D23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" t="s">
         <v>117</v>
       </c>
-      <c r="E23" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" t="s">
-        <v>120</v>
-      </c>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J23" t="s">
         <v>27</v>
@@ -2219,28 +2525,28 @@
         <v>12</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44154.71083821766</v>
+        <v>44154.79845531714</v>
       </c>
       <c r="C24" t="n">
-        <v>1516</v>
+        <v>583</v>
       </c>
       <c r="D24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" t="s">
         <v>121</v>
       </c>
-      <c r="E24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" t="s">
-        <v>124</v>
-      </c>
       <c r="H24" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J24" t="s">
         <v>34</v>
@@ -2248,79 +2554,79 @@
       <c r="K24" t="s">
         <v>20</v>
       </c>
-      <c r="L24" t="s"/>
+      <c r="L24" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44154.71164582957</v>
+        <v>44154.79909992321</v>
       </c>
       <c r="C25" t="n">
-        <v>1975</v>
+        <v>1271</v>
       </c>
       <c r="D25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" t="s">
         <v>125</v>
       </c>
-      <c r="E25" t="s">
-        <v>126</v>
-      </c>
-      <c r="F25" t="s">
-        <v>127</v>
-      </c>
-      <c r="G25" t="s">
-        <v>128</v>
-      </c>
       <c r="H25" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K25" t="s">
-        <v>50</v>
-      </c>
-      <c r="L25" t="s">
-        <v>129</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L25" t="s"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44154.71525582059</v>
+        <v>44154.800077663</v>
       </c>
       <c r="C26" t="n">
-        <v>1508</v>
+        <v>1869</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G26" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H26" t="s">
         <v>33</v>
       </c>
       <c r="I26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" t="s">
         <v>33</v>
       </c>
-      <c r="J26" t="s">
-        <v>50</v>
-      </c>
       <c r="K26" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L26" t="s"/>
     </row>
@@ -2329,106 +2635,110 @@
         <v>12</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>44154.71736768984</v>
+        <v>44154.69819569444</v>
       </c>
       <c r="C27" t="n">
-        <v>2973</v>
+        <v>702</v>
       </c>
       <c r="D27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s">
+        <v>133</v>
+      </c>
+      <c r="J27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
         <v>134</v>
       </c>
-      <c r="E27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" t="s">
-        <v>136</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" t="s"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>44154.71784644274</v>
+        <v>44154.69934395833</v>
       </c>
       <c r="C28" t="n">
-        <v>2202</v>
+        <v>423</v>
       </c>
       <c r="D28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" t="s">
         <v>137</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>138</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" t="s">
         <v>139</v>
       </c>
-      <c r="G28" t="s">
-        <v>140</v>
-      </c>
-      <c r="H28" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" t="s">
-        <v>27</v>
-      </c>
-      <c r="K28" t="s">
-        <v>50</v>
-      </c>
-      <c r="L28" t="s"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>44154.71844951768</v>
+        <v>44154.69987591435</v>
       </c>
       <c r="C29" t="n">
-        <v>3156</v>
+        <v>211</v>
       </c>
       <c r="D29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" t="s">
         <v>141</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>142</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>143</v>
       </c>
-      <c r="G29" t="s">
-        <v>144</v>
-      </c>
       <c r="H29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I29" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="J29" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K29" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L29" t="s"/>
     </row>
@@ -2437,108 +2747,108 @@
         <v>12</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>44154.71885400152</v>
+        <v>44154.70088510417</v>
       </c>
       <c r="C30" t="n">
-        <v>2881</v>
+        <v>3419</v>
       </c>
       <c r="D30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" t="s">
         <v>145</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>146</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>147</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" t="s">
         <v>148</v>
       </c>
-      <c r="H30" t="s">
-        <v>149</v>
-      </c>
-      <c r="I30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K30" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" t="s"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>44154.71972351275</v>
+        <v>44154.70140253472</v>
       </c>
       <c r="C31" t="n">
-        <v>3034</v>
+        <v>2074</v>
       </c>
       <c r="D31" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" t="s">
         <v>150</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>151</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>152</v>
       </c>
-      <c r="G31" t="s">
-        <v>153</v>
-      </c>
       <c r="H31" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I31" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" t="s">
-        <v>154</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L31" t="s"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>44154.72165902219</v>
+        <v>44154.70263350695</v>
       </c>
       <c r="C32" t="n">
-        <v>986</v>
+        <v>183</v>
       </c>
       <c r="D32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" t="s">
         <v>155</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>156</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
         <v>157</v>
       </c>
-      <c r="G32" t="s">
-        <v>158</v>
-      </c>
-      <c r="H32" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" t="s">
-        <v>27</v>
-      </c>
       <c r="K32" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L32" t="s"/>
     </row>
@@ -2547,34 +2857,34 @@
         <v>12</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>44154.72335130918</v>
+        <v>44154.70319071759</v>
       </c>
       <c r="C33" t="n">
-        <v>2031</v>
+        <v>847</v>
       </c>
       <c r="D33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" t="s">
         <v>159</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>160</v>
       </c>
-      <c r="F33" t="s">
-        <v>161</v>
-      </c>
       <c r="G33" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="H33" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I33" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K33" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L33" t="s"/>
     </row>
@@ -2583,31 +2893,31 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44154.72369153163</v>
+        <v>44154.70363350694</v>
       </c>
       <c r="C34" t="n">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" t="s">
         <v>163</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>164</v>
       </c>
-      <c r="F34" t="s">
-        <v>165</v>
-      </c>
-      <c r="G34" t="s">
-        <v>166</v>
-      </c>
       <c r="H34" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I34" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K34" t="s">
         <v>20</v>
@@ -2619,28 +2929,28 @@
         <v>12</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44154.72404719206</v>
+        <v>44154.70392996528</v>
       </c>
       <c r="C35" t="n">
-        <v>533</v>
+        <v>1587</v>
       </c>
       <c r="D35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" t="s">
         <v>167</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>168</v>
       </c>
-      <c r="F35" t="s">
-        <v>169</v>
-      </c>
-      <c r="G35" t="s">
-        <v>170</v>
-      </c>
       <c r="H35" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I35" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s">
         <v>27</v>
@@ -2648,41 +2958,43 @@
       <c r="K35" t="s">
         <v>20</v>
       </c>
-      <c r="L35" t="s"/>
+      <c r="L35" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44154.72488016787</v>
+        <v>44154.70447649305</v>
       </c>
       <c r="C36" t="n">
-        <v>3716</v>
+        <v>1510</v>
       </c>
       <c r="D36" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" t="s">
         <v>171</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>172</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>173</v>
       </c>
-      <c r="G36" t="s">
-        <v>174</v>
-      </c>
       <c r="H36" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" t="s">
         <v>34</v>
       </c>
-      <c r="I36" t="s">
-        <v>90</v>
-      </c>
       <c r="J36" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K36" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L36" t="s"/>
     </row>
@@ -2691,34 +3003,34 @@
         <v>12</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44154.72557752616</v>
+        <v>44154.70549010417</v>
       </c>
       <c r="C37" t="n">
-        <v>2974</v>
+        <v>631</v>
       </c>
       <c r="D37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" t="s">
         <v>175</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>176</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>177</v>
       </c>
-      <c r="G37" t="s">
-        <v>178</v>
-      </c>
       <c r="H37" t="s">
-        <v>179</v>
+        <v>33</v>
       </c>
       <c r="I37" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J37" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K37" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L37" t="s"/>
     </row>
@@ -2727,66 +3039,64 @@
         <v>12</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>44154.69819569444</v>
+        <v>44154.70597778935</v>
       </c>
       <c r="C38" t="n">
-        <v>702</v>
+        <v>2198</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="G38" t="s">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="H38" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I38" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J38" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K38" t="s">
         <v>20</v>
       </c>
-      <c r="L38" t="s">
-        <v>21</v>
-      </c>
+      <c r="L38" t="s"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>44154.69934395833</v>
+        <v>44154.70629576389</v>
       </c>
       <c r="C39" t="n">
-        <v>423</v>
+        <v>3797</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="G39" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="H39" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I39" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J39" t="s">
         <v>27</v>
@@ -2795,7 +3105,7 @@
         <v>20</v>
       </c>
       <c r="L39" t="s">
-        <v>28</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2803,28 +3113,28 @@
         <v>12</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44154.69987591435</v>
+        <v>44154.70677894676</v>
       </c>
       <c r="C40" t="n">
-        <v>211</v>
+        <v>275</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>187</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c r="H40" t="s">
         <v>33</v>
       </c>
       <c r="I40" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="J40" t="s">
         <v>27</v>
@@ -2839,108 +3149,108 @@
         <v>12</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44154.70088510417</v>
+        <v>44154.70703077546</v>
       </c>
       <c r="C41" t="n">
-        <v>3419</v>
+        <v>392</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="H41" t="s">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="I41" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J41" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K41" t="s">
         <v>20</v>
       </c>
-      <c r="L41" t="s">
-        <v>40</v>
-      </c>
+      <c r="L41" t="s"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44154.70140253472</v>
+        <v>44154.70736740741</v>
       </c>
       <c r="C42" t="n">
-        <v>2074</v>
+        <v>1906</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="H42" t="s">
         <v>33</v>
       </c>
       <c r="I42" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J42" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K42" t="s">
-        <v>45</v>
-      </c>
-      <c r="L42" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L42" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44154.70263350695</v>
+        <v>44154.70763553241</v>
       </c>
       <c r="C43" t="n">
-        <v>183</v>
+        <v>2977</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>203</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="H43" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I43" t="s">
         <v>20</v>
       </c>
       <c r="J43" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K43" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L43" t="s"/>
     </row>
@@ -2949,31 +3259,31 @@
         <v>12</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44154.70319071759</v>
+        <v>44154.70829784722</v>
       </c>
       <c r="C44" t="n">
-        <v>847</v>
+        <v>465</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="G44" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="H44" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I44" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J44" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K44" t="s">
         <v>20</v>
@@ -2985,141 +3295,143 @@
         <v>12</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44154.70363350694</v>
+        <v>44154.70866863426</v>
       </c>
       <c r="C45" t="n">
-        <v>27</v>
+        <v>566</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="G45" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="H45" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I45" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J45" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K45" t="s">
         <v>20</v>
       </c>
-      <c r="L45" t="s"/>
+      <c r="L45" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44154.70392996528</v>
+        <v>44154.70929016203</v>
       </c>
       <c r="C46" t="n">
-        <v>1587</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>212</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="G46" t="s">
-        <v>61</v>
+        <v>215</v>
       </c>
       <c r="H46" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="I46" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J46" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K46" t="s">
         <v>20</v>
       </c>
-      <c r="L46" t="s">
-        <v>62</v>
-      </c>
+      <c r="L46" t="s"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44154.70447649305</v>
+        <v>44154.70976986111</v>
       </c>
       <c r="C47" t="n">
-        <v>1510</v>
+        <v>1837</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="E47" t="s">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="G47" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="H47" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" t="s">
         <v>19</v>
       </c>
-      <c r="J47" t="s">
-        <v>34</v>
-      </c>
       <c r="K47" t="s">
         <v>20</v>
       </c>
-      <c r="L47" t="s"/>
+      <c r="L47" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>12</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44154.70549010417</v>
+        <v>44154.71052581019</v>
       </c>
       <c r="C48" t="n">
-        <v>631</v>
+        <v>1446</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="E48" t="s">
-        <v>68</v>
+        <v>222</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
       <c r="G48" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="H48" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I48" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J48" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K48" t="s">
         <v>20</v>
@@ -3131,28 +3443,28 @@
         <v>12</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44154.70597778935</v>
+        <v>44154.71083821759</v>
       </c>
       <c r="C49" t="n">
-        <v>2198</v>
+        <v>1516</v>
       </c>
       <c r="D49" t="s">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="E49" t="s">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="F49" t="s">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="G49" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="H49" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="I49" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J49" t="s">
         <v>27</v>
@@ -3167,37 +3479,37 @@
         <v>12</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44154.70629576389</v>
+        <v>44154.71164583333</v>
       </c>
       <c r="C50" t="n">
-        <v>3797</v>
+        <v>1975</v>
       </c>
       <c r="D50" t="s">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="E50" t="s">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="F50" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="G50" t="s">
-        <v>78</v>
+        <v>232</v>
       </c>
       <c r="H50" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I50" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J50" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K50" t="s">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="L50" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3205,34 +3517,34 @@
         <v>12</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44154.70677894676</v>
+        <v>44154.71525582176</v>
       </c>
       <c r="C51" t="n">
-        <v>275</v>
+        <v>1508</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="E51" t="s">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="F51" t="s">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="G51" t="s">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="H51" t="s">
         <v>33</v>
       </c>
       <c r="I51" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="J51" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="K51" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L51" t="s"/>
     </row>
@@ -3241,31 +3553,31 @@
         <v>12</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44154.70703077546</v>
+        <v>44154.71736768518</v>
       </c>
       <c r="C52" t="n">
-        <v>392</v>
+        <v>2973</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>238</v>
       </c>
       <c r="E52" t="s">
-        <v>86</v>
+        <v>239</v>
       </c>
       <c r="F52" t="s">
-        <v>87</v>
+        <v>240</v>
       </c>
       <c r="G52" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="H52" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="I52" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J52" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="K52" t="s">
         <v>20</v>
@@ -3277,72 +3589,70 @@
         <v>12</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44154.70736740741</v>
+        <v>44154.71784644676</v>
       </c>
       <c r="C53" t="n">
-        <v>1906</v>
+        <v>2202</v>
       </c>
       <c r="D53" t="s">
-        <v>91</v>
+        <v>241</v>
       </c>
       <c r="E53" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="F53" t="s">
-        <v>93</v>
+        <v>243</v>
       </c>
       <c r="G53" t="s">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="H53" t="s">
         <v>33</v>
       </c>
       <c r="I53" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="J53" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K53" t="s">
-        <v>20</v>
-      </c>
-      <c r="L53" t="s">
-        <v>94</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="L53" t="s"/>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>12</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44154.70763553241</v>
+        <v>44154.71844951389</v>
       </c>
       <c r="C54" t="n">
-        <v>2977</v>
+        <v>3156</v>
       </c>
       <c r="D54" t="s">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="E54" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="F54" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="G54" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="H54" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J54" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K54" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L54" t="s"/>
     </row>
@@ -3351,28 +3661,28 @@
         <v>12</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>44154.70829784722</v>
+        <v>44154.71885400463</v>
       </c>
       <c r="C55" t="n">
-        <v>465</v>
+        <v>2881</v>
       </c>
       <c r="D55" t="s">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="E55" t="s">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F55" t="s">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="G55" t="s">
-        <v>102</v>
+        <v>252</v>
       </c>
       <c r="H55" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="I55" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J55" t="s">
         <v>27</v>
@@ -3387,37 +3697,37 @@
         <v>12</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44154.70866863426</v>
+        <v>44154.71972351852</v>
       </c>
       <c r="C56" t="n">
-        <v>566</v>
+        <v>3034</v>
       </c>
       <c r="D56" t="s">
-        <v>103</v>
+        <v>254</v>
       </c>
       <c r="E56" t="s">
-        <v>104</v>
+        <v>255</v>
       </c>
       <c r="F56" t="s">
-        <v>105</v>
+        <v>256</v>
       </c>
       <c r="G56" t="s">
-        <v>16</v>
+        <v>257</v>
       </c>
       <c r="H56" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I56" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J56" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K56" t="s">
         <v>20</v>
       </c>
       <c r="L56" t="s">
-        <v>106</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3425,31 +3735,31 @@
         <v>12</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44154.70929016203</v>
+        <v>44154.72165902777</v>
       </c>
       <c r="C57" t="n">
-        <v>81</v>
+        <v>986</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="E57" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="F57" t="s">
-        <v>109</v>
+        <v>261</v>
       </c>
       <c r="G57" t="s">
-        <v>110</v>
+        <v>262</v>
       </c>
       <c r="H57" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K57" t="s">
         <v>20</v>
@@ -3461,69 +3771,67 @@
         <v>12</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44154.70976986111</v>
+        <v>44154.72335130787</v>
       </c>
       <c r="C58" t="n">
-        <v>1837</v>
+        <v>2031</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>263</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>264</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>265</v>
       </c>
       <c r="G58" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="H58" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I58" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J58" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="K58" t="s">
-        <v>20</v>
-      </c>
-      <c r="L58" t="s">
-        <v>116</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L58" t="s"/>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>12</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44154.71052581019</v>
+        <v>44154.72369152778</v>
       </c>
       <c r="C59" t="n">
-        <v>1446</v>
+        <v>67</v>
       </c>
       <c r="D59" t="s">
-        <v>117</v>
+        <v>267</v>
       </c>
       <c r="E59" t="s">
-        <v>118</v>
+        <v>268</v>
       </c>
       <c r="F59" t="s">
-        <v>119</v>
+        <v>269</v>
       </c>
       <c r="G59" t="s">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="H59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I59" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J59" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K59" t="s">
         <v>20</v>
@@ -3535,31 +3843,31 @@
         <v>12</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44154.71083821759</v>
+        <v>44154.7240471875</v>
       </c>
       <c r="C60" t="n">
-        <v>1516</v>
+        <v>533</v>
       </c>
       <c r="D60" t="s">
-        <v>121</v>
+        <v>271</v>
       </c>
       <c r="E60" t="s">
-        <v>122</v>
+        <v>272</v>
       </c>
       <c r="F60" t="s">
-        <v>123</v>
+        <v>273</v>
       </c>
       <c r="G60" t="s">
-        <v>124</v>
+        <v>274</v>
       </c>
       <c r="H60" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="I60" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K60" t="s">
         <v>20</v>
@@ -3571,72 +3879,70 @@
         <v>12</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44154.71164583333</v>
+        <v>44154.72488017361</v>
       </c>
       <c r="C61" t="n">
-        <v>1975</v>
+        <v>3716</v>
       </c>
       <c r="D61" t="s">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="F61" t="s">
-        <v>127</v>
+        <v>277</v>
       </c>
       <c r="G61" t="s">
-        <v>128</v>
+        <v>278</v>
       </c>
       <c r="H61" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I61" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J61" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K61" t="s">
-        <v>50</v>
-      </c>
-      <c r="L61" t="s">
-        <v>129</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L61" t="s"/>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>12</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44154.71525582176</v>
+        <v>44154.72557752315</v>
       </c>
       <c r="C62" t="n">
-        <v>1508</v>
+        <v>2974</v>
       </c>
       <c r="D62" t="s">
-        <v>130</v>
+        <v>279</v>
       </c>
       <c r="E62" t="s">
-        <v>131</v>
+        <v>280</v>
       </c>
       <c r="F62" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="G62" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="H62" t="s">
-        <v>33</v>
+        <v>282</v>
       </c>
       <c r="I62" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J62" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K62" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="L62" t="s"/>
     </row>
@@ -3645,106 +3951,110 @@
         <v>12</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44154.71736768518</v>
+        <v>44154.69819569444</v>
       </c>
       <c r="C63" t="n">
-        <v>2973</v>
+        <v>702</v>
       </c>
       <c r="D63" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" t="s">
+        <v>131</v>
+      </c>
+      <c r="F63" t="s">
+        <v>132</v>
+      </c>
+      <c r="G63" t="s">
+        <v>121</v>
+      </c>
+      <c r="H63" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" t="s">
+        <v>133</v>
+      </c>
+      <c r="J63" t="s">
+        <v>34</v>
+      </c>
+      <c r="K63" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" t="s">
         <v>134</v>
       </c>
-      <c r="E63" t="s">
-        <v>135</v>
-      </c>
-      <c r="F63" t="s">
-        <v>136</v>
-      </c>
-      <c r="G63" t="s">
-        <v>25</v>
-      </c>
-      <c r="H63" t="s">
-        <v>33</v>
-      </c>
-      <c r="I63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J63" t="s">
-        <v>27</v>
-      </c>
-      <c r="K63" t="s">
-        <v>20</v>
-      </c>
-      <c r="L63" t="s"/>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>12</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44154.71784644676</v>
+        <v>44154.69934395833</v>
       </c>
       <c r="C64" t="n">
-        <v>2202</v>
+        <v>423</v>
       </c>
       <c r="D64" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" t="s">
+        <v>136</v>
+      </c>
+      <c r="F64" t="s">
         <v>137</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G64" t="s">
         <v>138</v>
       </c>
-      <c r="F64" t="s">
+      <c r="H64" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" t="s">
+        <v>35</v>
+      </c>
+      <c r="K64" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" t="s">
         <v>139</v>
       </c>
-      <c r="G64" t="s">
-        <v>140</v>
-      </c>
-      <c r="H64" t="s">
-        <v>33</v>
-      </c>
-      <c r="I64" t="s">
-        <v>33</v>
-      </c>
-      <c r="J64" t="s">
-        <v>27</v>
-      </c>
-      <c r="K64" t="s">
-        <v>50</v>
-      </c>
-      <c r="L64" t="s"/>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>12</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44154.71844951389</v>
+        <v>44154.69987591435</v>
       </c>
       <c r="C65" t="n">
-        <v>3156</v>
+        <v>211</v>
       </c>
       <c r="D65" t="s">
+        <v>140</v>
+      </c>
+      <c r="E65" t="s">
         <v>141</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>142</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>143</v>
       </c>
-      <c r="G65" t="s">
-        <v>144</v>
-      </c>
       <c r="H65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I65" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="J65" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K65" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L65" t="s"/>
     </row>
@@ -3753,108 +4063,108 @@
         <v>12</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44154.71885400463</v>
+        <v>44154.70088510417</v>
       </c>
       <c r="C66" t="n">
-        <v>2881</v>
+        <v>3419</v>
       </c>
       <c r="D66" t="s">
+        <v>144</v>
+      </c>
+      <c r="E66" t="s">
         <v>145</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>146</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>147</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" t="s">
+        <v>27</v>
+      </c>
+      <c r="K66" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" t="s">
         <v>148</v>
       </c>
-      <c r="H66" t="s">
-        <v>149</v>
-      </c>
-      <c r="I66" t="s">
-        <v>26</v>
-      </c>
-      <c r="J66" t="s">
-        <v>34</v>
-      </c>
-      <c r="K66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L66" t="s"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>12</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44154.71972351852</v>
+        <v>44154.70140253472</v>
       </c>
       <c r="C67" t="n">
-        <v>3034</v>
+        <v>2074</v>
       </c>
       <c r="D67" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67" t="s">
         <v>150</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>151</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>152</v>
       </c>
-      <c r="G67" t="s">
-        <v>153</v>
-      </c>
       <c r="H67" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I67" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L67" t="s">
-        <v>154</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L67" t="s"/>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>12</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44154.72165902777</v>
+        <v>44154.70263350695</v>
       </c>
       <c r="C68" t="n">
-        <v>986</v>
+        <v>183</v>
       </c>
       <c r="D68" t="s">
+        <v>153</v>
+      </c>
+      <c r="E68" t="s">
+        <v>154</v>
+      </c>
+      <c r="F68" t="s">
         <v>155</v>
       </c>
-      <c r="E68" t="s">
+      <c r="G68" t="s">
         <v>156</v>
       </c>
-      <c r="F68" t="s">
+      <c r="H68" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" t="s">
         <v>157</v>
       </c>
-      <c r="G68" t="s">
-        <v>158</v>
-      </c>
-      <c r="H68" t="s">
-        <v>26</v>
-      </c>
-      <c r="I68" t="s">
-        <v>26</v>
-      </c>
-      <c r="J68" t="s">
-        <v>27</v>
-      </c>
       <c r="K68" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L68" t="s"/>
     </row>
@@ -3863,34 +4173,34 @@
         <v>12</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44154.72335130787</v>
+        <v>44154.70319071759</v>
       </c>
       <c r="C69" t="n">
-        <v>2031</v>
+        <v>847</v>
       </c>
       <c r="D69" t="s">
+        <v>158</v>
+      </c>
+      <c r="E69" t="s">
         <v>159</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>160</v>
       </c>
-      <c r="F69" t="s">
-        <v>161</v>
-      </c>
       <c r="G69" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="H69" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I69" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K69" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L69" t="s"/>
     </row>
@@ -3899,31 +4209,31 @@
         <v>12</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44154.72369152778</v>
+        <v>44154.70363350694</v>
       </c>
       <c r="C70" t="n">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D70" t="s">
+        <v>161</v>
+      </c>
+      <c r="E70" t="s">
+        <v>162</v>
+      </c>
+      <c r="F70" t="s">
         <v>163</v>
       </c>
-      <c r="E70" t="s">
+      <c r="G70" t="s">
         <v>164</v>
       </c>
-      <c r="F70" t="s">
-        <v>165</v>
-      </c>
-      <c r="G70" t="s">
-        <v>166</v>
-      </c>
       <c r="H70" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I70" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J70" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K70" t="s">
         <v>20</v>
@@ -3935,28 +4245,28 @@
         <v>12</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44154.7240471875</v>
+        <v>44154.70392996528</v>
       </c>
       <c r="C71" t="n">
-        <v>533</v>
+        <v>1587</v>
       </c>
       <c r="D71" t="s">
+        <v>165</v>
+      </c>
+      <c r="E71" t="s">
+        <v>166</v>
+      </c>
+      <c r="F71" t="s">
         <v>167</v>
       </c>
-      <c r="E71" t="s">
+      <c r="G71" t="s">
         <v>168</v>
       </c>
-      <c r="F71" t="s">
-        <v>169</v>
-      </c>
-      <c r="G71" t="s">
-        <v>170</v>
-      </c>
       <c r="H71" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I71" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J71" t="s">
         <v>27</v>
@@ -3964,41 +4274,43 @@
       <c r="K71" t="s">
         <v>20</v>
       </c>
-      <c r="L71" t="s"/>
+      <c r="L71" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>12</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44154.72488017361</v>
+        <v>44154.70447649305</v>
       </c>
       <c r="C72" t="n">
-        <v>3716</v>
+        <v>1510</v>
       </c>
       <c r="D72" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" t="s">
         <v>171</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>172</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>173</v>
       </c>
-      <c r="G72" t="s">
-        <v>174</v>
-      </c>
       <c r="H72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I72" t="s">
         <v>34</v>
       </c>
-      <c r="I72" t="s">
-        <v>90</v>
-      </c>
       <c r="J72" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K72" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L72" t="s"/>
     </row>
@@ -4007,34 +4319,34 @@
         <v>12</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44154.72557752315</v>
+        <v>44154.70549010417</v>
       </c>
       <c r="C73" t="n">
-        <v>2974</v>
+        <v>631</v>
       </c>
       <c r="D73" t="s">
+        <v>174</v>
+      </c>
+      <c r="E73" t="s">
         <v>175</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>176</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>177</v>
       </c>
-      <c r="G73" t="s">
-        <v>178</v>
-      </c>
       <c r="H73" t="s">
-        <v>179</v>
+        <v>33</v>
       </c>
       <c r="I73" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J73" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K73" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L73" t="s"/>
     </row>
@@ -4043,31 +4355,31 @@
         <v>12</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44154.6643809838</v>
+        <v>44154.70597778935</v>
       </c>
       <c r="C74" t="n">
-        <v>2555</v>
+        <v>2198</v>
       </c>
       <c r="D74" t="s">
+        <v>178</v>
+      </c>
+      <c r="E74" t="s">
+        <v>179</v>
+      </c>
+      <c r="F74" t="s">
         <v>180</v>
       </c>
-      <c r="E74" t="s">
+      <c r="G74" t="s">
         <v>181</v>
       </c>
-      <c r="F74" t="s">
-        <v>182</v>
-      </c>
-      <c r="G74" t="s">
-        <v>183</v>
-      </c>
       <c r="H74" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="I74" t="s">
         <v>34</v>
       </c>
       <c r="J74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K74" t="s">
         <v>20</v>
@@ -4079,64 +4391,66 @@
         <v>12</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44154.66514181713</v>
+        <v>44154.70629576389</v>
       </c>
       <c r="C75" t="n">
-        <v>2501</v>
+        <v>3797</v>
       </c>
       <c r="D75" t="s">
+        <v>182</v>
+      </c>
+      <c r="E75" t="s">
+        <v>183</v>
+      </c>
+      <c r="F75" t="s">
         <v>184</v>
       </c>
-      <c r="E75" t="s">
+      <c r="G75" t="s">
         <v>185</v>
-      </c>
-      <c r="F75" t="s">
-        <v>186</v>
-      </c>
-      <c r="G75" t="s">
-        <v>187</v>
       </c>
       <c r="H75" t="s">
         <v>17</v>
       </c>
       <c r="I75" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="K75" t="s">
-        <v>50</v>
-      </c>
-      <c r="L75" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L75" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>12</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44154.6655874537</v>
+        <v>44154.70677894676</v>
       </c>
       <c r="C76" t="n">
-        <v>2825</v>
+        <v>275</v>
       </c>
       <c r="D76" t="s">
+        <v>187</v>
+      </c>
+      <c r="E76" t="s">
         <v>188</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>189</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>190</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
+        <v>33</v>
+      </c>
+      <c r="I76" t="s">
         <v>191</v>
-      </c>
-      <c r="H76" t="s">
-        <v>111</v>
-      </c>
-      <c r="I76" t="s">
-        <v>45</v>
       </c>
       <c r="J76" t="s">
         <v>27</v>
@@ -4151,10 +4465,10 @@
         <v>12</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44154.66637526621</v>
+        <v>44154.70703077546</v>
       </c>
       <c r="C77" t="n">
-        <v>3460</v>
+        <v>392</v>
       </c>
       <c r="D77" t="s">
         <v>192</v>
@@ -4169,16 +4483,16 @@
         <v>195</v>
       </c>
       <c r="H77" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="I77" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="K77" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L77" t="s"/>
     </row>
@@ -4187,28 +4501,28 @@
         <v>12</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44154.66675946759</v>
+        <v>44154.70736740741</v>
       </c>
       <c r="C78" t="n">
-        <v>1777</v>
+        <v>1906</v>
       </c>
       <c r="D78" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F78" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G78" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="H78" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I78" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J78" t="s">
         <v>34</v>
@@ -4225,10 +4539,10 @@
         <v>12</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>44154.66788681713</v>
+        <v>44154.70763553241</v>
       </c>
       <c r="C79" t="n">
-        <v>2772</v>
+        <v>2977</v>
       </c>
       <c r="D79" t="s">
         <v>201</v>
@@ -4243,125 +4557,123 @@
         <v>204</v>
       </c>
       <c r="H79" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I79" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J79" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K79" t="s">
         <v>20</v>
       </c>
-      <c r="L79" t="s">
-        <v>205</v>
-      </c>
+      <c r="L79" t="s"/>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
         <v>12</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>44154.66935013889</v>
+        <v>44154.70829784722</v>
       </c>
       <c r="C80" t="n">
-        <v>3641</v>
+        <v>465</v>
       </c>
       <c r="D80" t="s">
+        <v>205</v>
+      </c>
+      <c r="E80" t="s">
         <v>206</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>207</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>208</v>
       </c>
-      <c r="G80" t="s">
-        <v>209</v>
-      </c>
       <c r="H80" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I80" t="s">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="J80" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K80" t="s">
         <v>20</v>
       </c>
-      <c r="L80" t="s">
-        <v>211</v>
-      </c>
+      <c r="L80" t="s"/>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
         <v>12</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>44154.67044814815</v>
+        <v>44154.70866863426</v>
       </c>
       <c r="C81" t="n">
-        <v>2487</v>
+        <v>566</v>
       </c>
       <c r="D81" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E81" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F81" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G81" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="H81" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I81" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K81" t="s">
-        <v>45</v>
-      </c>
-      <c r="L81" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L81" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
         <v>12</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>44154.67135246528</v>
+        <v>44154.70929016203</v>
       </c>
       <c r="C82" t="n">
-        <v>2638</v>
+        <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E82" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F82" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G82" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H82" t="s">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="I82" t="s">
         <v>20</v>
       </c>
       <c r="J82" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K82" t="s">
         <v>20</v>
@@ -4373,37 +4685,37 @@
         <v>12</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44154.67172907407</v>
+        <v>44154.70976986111</v>
       </c>
       <c r="C83" t="n">
-        <v>3209</v>
+        <v>1837</v>
       </c>
       <c r="D83" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E83" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F83" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G83" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H83" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I83" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J83" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K83" t="s">
         <v>20</v>
       </c>
       <c r="L83" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4411,34 +4723,34 @@
         <v>12</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>44154.67312695602</v>
+        <v>44154.71052581019</v>
       </c>
       <c r="C84" t="n">
-        <v>3711</v>
+        <v>1446</v>
       </c>
       <c r="D84" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E84" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F84" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G84" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H84" t="s">
+        <v>27</v>
+      </c>
+      <c r="I84" t="s">
         <v>34</v>
       </c>
-      <c r="I84" t="s">
-        <v>90</v>
-      </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K84" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L84" t="s"/>
     </row>
@@ -4447,28 +4759,28 @@
         <v>12</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>44154.6736441088</v>
+        <v>44154.71083821759</v>
       </c>
       <c r="C85" t="n">
-        <v>3312</v>
+        <v>1516</v>
       </c>
       <c r="D85" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E85" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F85" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G85" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H85" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="I85" t="s">
-        <v>234</v>
+        <v>34</v>
       </c>
       <c r="J85" t="s">
         <v>27</v>
@@ -4483,108 +4795,108 @@
         <v>12</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>44154.67442511574</v>
+        <v>44154.71164583333</v>
       </c>
       <c r="C86" t="n">
-        <v>78</v>
+        <v>1975</v>
       </c>
       <c r="D86" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E86" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F86" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G86" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H86" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I86" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="J86" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K86" t="s">
-        <v>45</v>
-      </c>
-      <c r="L86" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="L86" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
         <v>12</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>44154.67532738426</v>
+        <v>44154.71525582176</v>
       </c>
       <c r="C87" t="n">
-        <v>3031</v>
+        <v>1508</v>
       </c>
       <c r="D87" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E87" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F87" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G87" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H87" t="s">
         <v>33</v>
       </c>
       <c r="I87" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="J87" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="K87" t="s">
-        <v>27</v>
-      </c>
-      <c r="L87" t="s">
-        <v>243</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L87" t="s"/>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
         <v>12</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>44154.67696158565</v>
+        <v>44154.71736768518</v>
       </c>
       <c r="C88" t="n">
-        <v>2035</v>
+        <v>2973</v>
       </c>
       <c r="D88" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E88" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F88" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G88" t="s">
-        <v>247</v>
+        <v>138</v>
       </c>
       <c r="H88" t="s">
         <v>33</v>
       </c>
       <c r="I88" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J88" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K88" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L88" t="s"/>
     </row>
@@ -4593,72 +4905,70 @@
         <v>12</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>44154.67738247685</v>
+        <v>44154.71784644676</v>
       </c>
       <c r="C89" t="n">
-        <v>1784</v>
+        <v>2202</v>
       </c>
       <c r="D89" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E89" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F89" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G89" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H89" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I89" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J89" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K89" t="s">
-        <v>20</v>
-      </c>
-      <c r="L89" t="s">
-        <v>252</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="L89" t="s"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
         <v>12</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>44154.67845166667</v>
+        <v>44154.71844951389</v>
       </c>
       <c r="C90" t="n">
-        <v>116</v>
+        <v>3156</v>
       </c>
       <c r="D90" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E90" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F90" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G90" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H90" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I90" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K90" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="L90" t="s"/>
     </row>
@@ -4667,184 +4977,180 @@
         <v>12</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>44154.68068962963</v>
+        <v>44154.71885400463</v>
       </c>
       <c r="C91" t="n">
-        <v>1882</v>
+        <v>2881</v>
       </c>
       <c r="D91" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E91" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F91" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G91" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H91" t="s">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="I91" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J91" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="K91" t="s">
-        <v>27</v>
-      </c>
-      <c r="L91" t="s">
-        <v>261</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L91" t="s"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
         <v>12</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>44154.68186581018</v>
+        <v>44154.71972351852</v>
       </c>
       <c r="C92" t="n">
-        <v>1175</v>
+        <v>3034</v>
       </c>
       <c r="D92" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E92" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F92" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G92" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H92" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I92" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K92" t="s">
-        <v>45</v>
-      </c>
-      <c r="L92" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L92" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
         <v>12</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>44154.68270211806</v>
+        <v>44154.72165902777</v>
       </c>
       <c r="C93" t="n">
-        <v>1528</v>
+        <v>986</v>
       </c>
       <c r="D93" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E93" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F93" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G93" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="H93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J93" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K93" t="s">
         <v>20</v>
       </c>
-      <c r="L93" t="s">
-        <v>269</v>
-      </c>
+      <c r="L93" t="s"/>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
         <v>12</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>44154.68296275463</v>
+        <v>44154.72335130787</v>
       </c>
       <c r="C94" t="n">
-        <v>1838</v>
+        <v>2031</v>
       </c>
       <c r="D94" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E94" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F94" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G94" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="H94" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I94" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J94" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K94" t="s">
-        <v>20</v>
-      </c>
-      <c r="L94" t="s">
-        <v>274</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L94" t="s"/>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
         <v>12</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>44154.68356502315</v>
+        <v>44154.72369152778</v>
       </c>
       <c r="C95" t="n">
-        <v>1924</v>
+        <v>67</v>
       </c>
       <c r="D95" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E95" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F95" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G95" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H95" t="s">
         <v>33</v>
       </c>
       <c r="I95" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="J95" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K95" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L95" t="s"/>
     </row>
@@ -4853,31 +5159,31 @@
         <v>12</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>44154.6841640625</v>
+        <v>44154.7240471875</v>
       </c>
       <c r="C96" t="n">
-        <v>3611</v>
+        <v>533</v>
       </c>
       <c r="D96" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E96" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F96" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G96" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H96" t="s">
         <v>33</v>
       </c>
       <c r="I96" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K96" t="s">
         <v>20</v>
@@ -4889,34 +5195,34 @@
         <v>12</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>44154.68457054398</v>
+        <v>44154.72488017361</v>
       </c>
       <c r="C97" t="n">
-        <v>1065</v>
+        <v>3716</v>
       </c>
       <c r="D97" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E97" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F97" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G97" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H97" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J97" t="s">
         <v>27</v>
       </c>
       <c r="K97" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="L97" t="s"/>
     </row>
@@ -4925,34 +5231,34 @@
         <v>12</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>44154.68556002315</v>
+        <v>44154.72557752315</v>
       </c>
       <c r="C98" t="n">
-        <v>2475</v>
+        <v>2974</v>
       </c>
       <c r="D98" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E98" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F98" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G98" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="H98" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="I98" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K98" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="L98" t="s"/>
     </row>
@@ -4961,31 +5267,31 @@
         <v>12</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>44154.68630527778</v>
+        <v>44154.6643809838</v>
       </c>
       <c r="C99" t="n">
-        <v>3042</v>
+        <v>2555</v>
       </c>
       <c r="D99" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E99" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F99" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G99" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H99" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="I99" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J99" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K99" t="s">
         <v>20</v>
@@ -4997,34 +5303,34 @@
         <v>12</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>44154.68673292824</v>
+        <v>44154.66514181713</v>
       </c>
       <c r="C100" t="n">
-        <v>1903</v>
+        <v>2501</v>
       </c>
       <c r="D100" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E100" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F100" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G100" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="H100" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="I100" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="J100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K100" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="L100" t="s"/>
     </row>
@@ -5033,31 +5339,31 @@
         <v>12</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>44154.6878003588</v>
+        <v>44154.6655874537</v>
       </c>
       <c r="C101" t="n">
-        <v>615</v>
+        <v>2825</v>
       </c>
       <c r="D101" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E101" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F101" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G101" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H101" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="I101" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="J101" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K101" t="s">
         <v>20</v>
@@ -5069,34 +5375,34 @@
         <v>12</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>44154.68797761574</v>
+        <v>44154.66637526621</v>
       </c>
       <c r="C102" t="n">
-        <v>3195</v>
+        <v>3460</v>
       </c>
       <c r="D102" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E102" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F102" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G102" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="H102" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I102" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J102" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K102" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L102" t="s"/>
     </row>
@@ -5105,100 +5411,104 @@
         <v>12</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>44154.68839364583</v>
+        <v>44154.66675946759</v>
       </c>
       <c r="C103" t="n">
-        <v>3134</v>
+        <v>1777</v>
       </c>
       <c r="D103" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E103" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F103" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G103" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H103" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" t="s">
+        <v>18</v>
+      </c>
+      <c r="J103" t="s">
         <v>27</v>
       </c>
-      <c r="I103" t="s">
-        <v>26</v>
-      </c>
-      <c r="J103" t="s">
-        <v>90</v>
-      </c>
       <c r="K103" t="s">
         <v>20</v>
       </c>
-      <c r="L103" t="s"/>
+      <c r="L103" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
         <v>12</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>44154.68914657408</v>
+        <v>44154.66788681713</v>
       </c>
       <c r="C104" t="n">
-        <v>1023</v>
+        <v>2772</v>
       </c>
       <c r="D104" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E104" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F104" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G104" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H104" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I104" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J104" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K104" t="s">
         <v>20</v>
       </c>
-      <c r="L104" t="s"/>
+      <c r="L104" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
         <v>12</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>44154.68949501157</v>
+        <v>44154.66935013889</v>
       </c>
       <c r="C105" t="n">
-        <v>3395</v>
+        <v>3641</v>
       </c>
       <c r="D105" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E105" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F105" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G105" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H105" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I105" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="J105" t="s">
         <v>34</v>
@@ -5207,7 +5517,7 @@
         <v>20</v>
       </c>
       <c r="L105" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5215,72 +5525,70 @@
         <v>12</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>44154.68986456018</v>
+        <v>44154.67044814815</v>
       </c>
       <c r="C106" t="n">
-        <v>1760</v>
+        <v>2487</v>
       </c>
       <c r="D106" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E106" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F106" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G106" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H106" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I106" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J106" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K106" t="s">
-        <v>20</v>
-      </c>
-      <c r="L106" t="s">
-        <v>323</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L106" t="s"/>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
         <v>12</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>44154.69036902778</v>
+        <v>44154.67135246528</v>
       </c>
       <c r="C107" t="n">
-        <v>1995</v>
+        <v>2638</v>
       </c>
       <c r="D107" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E107" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F107" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G107" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H107" t="s">
-        <v>111</v>
+        <v>322</v>
       </c>
       <c r="I107" t="s">
         <v>20</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="K107" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L107" t="s"/>
     </row>
@@ -5289,36 +5597,952 @@
         <v>12</v>
       </c>
       <c r="B108" s="2" t="n">
+        <v>44154.67172907407</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D108" t="s">
+        <v>323</v>
+      </c>
+      <c r="E108" t="s">
+        <v>324</v>
+      </c>
+      <c r="F108" t="s">
+        <v>325</v>
+      </c>
+      <c r="G108" t="s">
+        <v>326</v>
+      </c>
+      <c r="H108" t="s">
+        <v>17</v>
+      </c>
+      <c r="I108" t="s">
+        <v>18</v>
+      </c>
+      <c r="J108" t="s">
+        <v>27</v>
+      </c>
+      <c r="K108" t="s">
+        <v>20</v>
+      </c>
+      <c r="L108" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>44154.67312695602</v>
+      </c>
+      <c r="C109" t="n">
+        <v>3711</v>
+      </c>
+      <c r="D109" t="s">
+        <v>328</v>
+      </c>
+      <c r="E109" t="s">
+        <v>329</v>
+      </c>
+      <c r="F109" t="s">
+        <v>330</v>
+      </c>
+      <c r="G109" t="s">
+        <v>331</v>
+      </c>
+      <c r="H109" t="s">
+        <v>27</v>
+      </c>
+      <c r="I109" t="s">
+        <v>19</v>
+      </c>
+      <c r="J109" t="s">
+        <v>28</v>
+      </c>
+      <c r="K109" t="s">
+        <v>28</v>
+      </c>
+      <c r="L109" t="s"/>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>44154.6736441088</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3312</v>
+      </c>
+      <c r="D110" t="s">
+        <v>332</v>
+      </c>
+      <c r="E110" t="s">
+        <v>333</v>
+      </c>
+      <c r="F110" t="s">
+        <v>334</v>
+      </c>
+      <c r="G110" t="s">
+        <v>335</v>
+      </c>
+      <c r="H110" t="s">
+        <v>33</v>
+      </c>
+      <c r="I110" t="s">
+        <v>336</v>
+      </c>
+      <c r="J110" t="s">
+        <v>35</v>
+      </c>
+      <c r="K110" t="s">
+        <v>20</v>
+      </c>
+      <c r="L110" t="s"/>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>44154.67442511574</v>
+      </c>
+      <c r="C111" t="n">
+        <v>78</v>
+      </c>
+      <c r="D111" t="s">
+        <v>337</v>
+      </c>
+      <c r="E111" t="s">
+        <v>338</v>
+      </c>
+      <c r="F111" t="s">
+        <v>339</v>
+      </c>
+      <c r="G111" t="s">
+        <v>340</v>
+      </c>
+      <c r="H111" t="s">
+        <v>33</v>
+      </c>
+      <c r="I111" t="s">
+        <v>19</v>
+      </c>
+      <c r="J111" t="s">
+        <v>27</v>
+      </c>
+      <c r="K111" t="s">
+        <v>28</v>
+      </c>
+      <c r="L111" t="s"/>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>44154.67532738426</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3031</v>
+      </c>
+      <c r="D112" t="s">
+        <v>341</v>
+      </c>
+      <c r="E112" t="s">
+        <v>342</v>
+      </c>
+      <c r="F112" t="s">
+        <v>343</v>
+      </c>
+      <c r="G112" t="s">
+        <v>344</v>
+      </c>
+      <c r="H112" t="s">
+        <v>33</v>
+      </c>
+      <c r="I112" t="s">
+        <v>28</v>
+      </c>
+      <c r="J112" t="s">
+        <v>35</v>
+      </c>
+      <c r="K112" t="s">
+        <v>35</v>
+      </c>
+      <c r="L112" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>44154.67696158565</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2035</v>
+      </c>
+      <c r="D113" t="s">
+        <v>346</v>
+      </c>
+      <c r="E113" t="s">
+        <v>347</v>
+      </c>
+      <c r="F113" t="s">
+        <v>348</v>
+      </c>
+      <c r="G113" t="s">
+        <v>349</v>
+      </c>
+      <c r="H113" t="s">
+        <v>33</v>
+      </c>
+      <c r="I113" t="s">
+        <v>19</v>
+      </c>
+      <c r="J113" t="s">
+        <v>35</v>
+      </c>
+      <c r="K113" t="s">
+        <v>28</v>
+      </c>
+      <c r="L113" t="s"/>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>44154.67738247685</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1784</v>
+      </c>
+      <c r="D114" t="s">
+        <v>350</v>
+      </c>
+      <c r="E114" t="s">
+        <v>351</v>
+      </c>
+      <c r="F114" t="s">
+        <v>352</v>
+      </c>
+      <c r="G114" t="s">
+        <v>353</v>
+      </c>
+      <c r="H114" t="s">
+        <v>17</v>
+      </c>
+      <c r="I114" t="s">
+        <v>18</v>
+      </c>
+      <c r="J114" t="s">
+        <v>34</v>
+      </c>
+      <c r="K114" t="s">
+        <v>20</v>
+      </c>
+      <c r="L114" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>44154.67845166667</v>
+      </c>
+      <c r="C115" t="n">
+        <v>116</v>
+      </c>
+      <c r="D115" t="s">
+        <v>355</v>
+      </c>
+      <c r="E115" t="s">
+        <v>356</v>
+      </c>
+      <c r="F115" t="s">
+        <v>357</v>
+      </c>
+      <c r="G115" t="s">
+        <v>358</v>
+      </c>
+      <c r="H115" t="s">
+        <v>26</v>
+      </c>
+      <c r="I115" t="s">
+        <v>19</v>
+      </c>
+      <c r="J115" t="s">
+        <v>28</v>
+      </c>
+      <c r="K115" t="s">
+        <v>28</v>
+      </c>
+      <c r="L115" t="s"/>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>44154.68068962963</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1882</v>
+      </c>
+      <c r="D116" t="s">
+        <v>359</v>
+      </c>
+      <c r="E116" t="s">
+        <v>360</v>
+      </c>
+      <c r="F116" t="s">
+        <v>361</v>
+      </c>
+      <c r="G116" t="s">
+        <v>362</v>
+      </c>
+      <c r="H116" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" t="s">
+        <v>18</v>
+      </c>
+      <c r="J116" t="s">
+        <v>336</v>
+      </c>
+      <c r="K116" t="s">
+        <v>35</v>
+      </c>
+      <c r="L116" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>44154.68186581018</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1175</v>
+      </c>
+      <c r="D117" t="s">
+        <v>364</v>
+      </c>
+      <c r="E117" t="s">
+        <v>365</v>
+      </c>
+      <c r="F117" t="s">
+        <v>366</v>
+      </c>
+      <c r="G117" t="s">
+        <v>367</v>
+      </c>
+      <c r="H117" t="s">
+        <v>33</v>
+      </c>
+      <c r="I117" t="s">
+        <v>20</v>
+      </c>
+      <c r="J117" t="s">
+        <v>157</v>
+      </c>
+      <c r="K117" t="s">
+        <v>28</v>
+      </c>
+      <c r="L117" t="s"/>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>44154.68270211806</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1528</v>
+      </c>
+      <c r="D118" t="s">
+        <v>368</v>
+      </c>
+      <c r="E118" t="s">
+        <v>369</v>
+      </c>
+      <c r="F118" t="s">
+        <v>370</v>
+      </c>
+      <c r="G118" t="s">
+        <v>307</v>
+      </c>
+      <c r="H118" t="s">
+        <v>26</v>
+      </c>
+      <c r="I118" t="s">
+        <v>34</v>
+      </c>
+      <c r="J118" t="s">
+        <v>34</v>
+      </c>
+      <c r="K118" t="s">
+        <v>20</v>
+      </c>
+      <c r="L118" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>44154.68296275463</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1838</v>
+      </c>
+      <c r="D119" t="s">
+        <v>372</v>
+      </c>
+      <c r="E119" t="s">
+        <v>373</v>
+      </c>
+      <c r="F119" t="s">
+        <v>374</v>
+      </c>
+      <c r="G119" t="s">
+        <v>375</v>
+      </c>
+      <c r="H119" t="s">
+        <v>17</v>
+      </c>
+      <c r="I119" t="s">
+        <v>18</v>
+      </c>
+      <c r="J119" t="s">
+        <v>27</v>
+      </c>
+      <c r="K119" t="s">
+        <v>20</v>
+      </c>
+      <c r="L119" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>44154.68356502315</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1924</v>
+      </c>
+      <c r="D120" t="s">
+        <v>377</v>
+      </c>
+      <c r="E120" t="s">
+        <v>378</v>
+      </c>
+      <c r="F120" t="s">
+        <v>379</v>
+      </c>
+      <c r="G120" t="s">
+        <v>380</v>
+      </c>
+      <c r="H120" t="s">
+        <v>33</v>
+      </c>
+      <c r="I120" t="s">
+        <v>28</v>
+      </c>
+      <c r="J120" t="s">
+        <v>35</v>
+      </c>
+      <c r="K120" t="s">
+        <v>28</v>
+      </c>
+      <c r="L120" t="s"/>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>44154.6841640625</v>
+      </c>
+      <c r="C121" t="n">
+        <v>3611</v>
+      </c>
+      <c r="D121" t="s">
+        <v>381</v>
+      </c>
+      <c r="E121" t="s">
+        <v>382</v>
+      </c>
+      <c r="F121" t="s">
+        <v>383</v>
+      </c>
+      <c r="G121" t="s">
+        <v>384</v>
+      </c>
+      <c r="H121" t="s">
+        <v>33</v>
+      </c>
+      <c r="I121" t="s">
+        <v>33</v>
+      </c>
+      <c r="J121" t="s">
+        <v>27</v>
+      </c>
+      <c r="K121" t="s">
+        <v>20</v>
+      </c>
+      <c r="L121" t="s"/>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>44154.68457054398</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1065</v>
+      </c>
+      <c r="D122" t="s">
+        <v>385</v>
+      </c>
+      <c r="E122" t="s">
+        <v>386</v>
+      </c>
+      <c r="F122" t="s">
+        <v>387</v>
+      </c>
+      <c r="G122" t="s">
+        <v>388</v>
+      </c>
+      <c r="H122" t="s">
+        <v>33</v>
+      </c>
+      <c r="I122" t="s">
+        <v>20</v>
+      </c>
+      <c r="J122" t="s">
+        <v>35</v>
+      </c>
+      <c r="K122" t="s">
+        <v>28</v>
+      </c>
+      <c r="L122" t="s"/>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>44154.68556002315</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2475</v>
+      </c>
+      <c r="D123" t="s">
+        <v>389</v>
+      </c>
+      <c r="E123" t="s">
+        <v>390</v>
+      </c>
+      <c r="F123" t="s">
+        <v>391</v>
+      </c>
+      <c r="G123" t="s">
+        <v>156</v>
+      </c>
+      <c r="H123" t="s">
+        <v>108</v>
+      </c>
+      <c r="I123" t="s">
+        <v>18</v>
+      </c>
+      <c r="J123" t="s">
+        <v>28</v>
+      </c>
+      <c r="K123" t="s">
+        <v>28</v>
+      </c>
+      <c r="L123" t="s"/>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>44154.68630527778</v>
+      </c>
+      <c r="C124" t="n">
+        <v>3042</v>
+      </c>
+      <c r="D124" t="s">
+        <v>392</v>
+      </c>
+      <c r="E124" t="s">
+        <v>393</v>
+      </c>
+      <c r="F124" t="s">
+        <v>394</v>
+      </c>
+      <c r="G124" t="s">
+        <v>395</v>
+      </c>
+      <c r="H124" t="s">
+        <v>28</v>
+      </c>
+      <c r="I124" t="s">
+        <v>18</v>
+      </c>
+      <c r="J124" t="s">
+        <v>20</v>
+      </c>
+      <c r="K124" t="s">
+        <v>20</v>
+      </c>
+      <c r="L124" t="s"/>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>44154.68673292824</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1903</v>
+      </c>
+      <c r="D125" t="s">
+        <v>396</v>
+      </c>
+      <c r="E125" t="s">
+        <v>397</v>
+      </c>
+      <c r="F125" t="s">
+        <v>398</v>
+      </c>
+      <c r="G125" t="s">
+        <v>399</v>
+      </c>
+      <c r="H125" t="s">
+        <v>95</v>
+      </c>
+      <c r="I125" t="s">
+        <v>28</v>
+      </c>
+      <c r="J125" t="s">
+        <v>35</v>
+      </c>
+      <c r="K125" t="s">
+        <v>28</v>
+      </c>
+      <c r="L125" t="s"/>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>44154.6878003588</v>
+      </c>
+      <c r="C126" t="n">
+        <v>615</v>
+      </c>
+      <c r="D126" t="s">
+        <v>400</v>
+      </c>
+      <c r="E126" t="s">
+        <v>401</v>
+      </c>
+      <c r="F126" t="s">
+        <v>402</v>
+      </c>
+      <c r="G126" t="s">
+        <v>403</v>
+      </c>
+      <c r="H126" t="s">
+        <v>26</v>
+      </c>
+      <c r="I126" t="s">
+        <v>19</v>
+      </c>
+      <c r="J126" t="s">
+        <v>35</v>
+      </c>
+      <c r="K126" t="s">
+        <v>20</v>
+      </c>
+      <c r="L126" t="s"/>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>44154.68797761574</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3195</v>
+      </c>
+      <c r="D127" t="s">
+        <v>404</v>
+      </c>
+      <c r="E127" t="s">
+        <v>405</v>
+      </c>
+      <c r="F127" t="s">
+        <v>406</v>
+      </c>
+      <c r="G127" t="s">
+        <v>407</v>
+      </c>
+      <c r="H127" t="s">
+        <v>17</v>
+      </c>
+      <c r="I127" t="s">
+        <v>18</v>
+      </c>
+      <c r="J127" t="s">
+        <v>27</v>
+      </c>
+      <c r="K127" t="s">
+        <v>20</v>
+      </c>
+      <c r="L127" t="s"/>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>44154.68839364583</v>
+      </c>
+      <c r="C128" t="n">
+        <v>3134</v>
+      </c>
+      <c r="D128" t="s">
+        <v>408</v>
+      </c>
+      <c r="E128" t="s">
+        <v>409</v>
+      </c>
+      <c r="F128" t="s">
+        <v>410</v>
+      </c>
+      <c r="G128" t="s">
+        <v>411</v>
+      </c>
+      <c r="H128" t="s">
+        <v>35</v>
+      </c>
+      <c r="I128" t="s">
+        <v>18</v>
+      </c>
+      <c r="J128" t="s">
+        <v>19</v>
+      </c>
+      <c r="K128" t="s">
+        <v>20</v>
+      </c>
+      <c r="L128" t="s"/>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>44154.68914657408</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D129" t="s">
+        <v>412</v>
+      </c>
+      <c r="E129" t="s">
+        <v>413</v>
+      </c>
+      <c r="F129" t="s">
+        <v>414</v>
+      </c>
+      <c r="G129" t="s">
+        <v>415</v>
+      </c>
+      <c r="H129" t="s">
+        <v>33</v>
+      </c>
+      <c r="I129" t="s">
+        <v>20</v>
+      </c>
+      <c r="J129" t="s">
+        <v>35</v>
+      </c>
+      <c r="K129" t="s">
+        <v>20</v>
+      </c>
+      <c r="L129" t="s"/>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>44154.68949501157</v>
+      </c>
+      <c r="C130" t="n">
+        <v>3395</v>
+      </c>
+      <c r="D130" t="s">
+        <v>416</v>
+      </c>
+      <c r="E130" t="s">
+        <v>417</v>
+      </c>
+      <c r="F130" t="s">
+        <v>418</v>
+      </c>
+      <c r="G130" t="s">
+        <v>419</v>
+      </c>
+      <c r="H130" t="s">
+        <v>17</v>
+      </c>
+      <c r="I130" t="s">
+        <v>18</v>
+      </c>
+      <c r="J130" t="s">
+        <v>27</v>
+      </c>
+      <c r="K130" t="s">
+        <v>20</v>
+      </c>
+      <c r="L130" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>44154.68986456018</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1760</v>
+      </c>
+      <c r="D131" t="s">
+        <v>421</v>
+      </c>
+      <c r="E131" t="s">
+        <v>422</v>
+      </c>
+      <c r="F131" t="s">
+        <v>423</v>
+      </c>
+      <c r="G131" t="s">
+        <v>424</v>
+      </c>
+      <c r="H131" t="s">
+        <v>17</v>
+      </c>
+      <c r="I131" t="s">
+        <v>18</v>
+      </c>
+      <c r="J131" t="s">
+        <v>27</v>
+      </c>
+      <c r="K131" t="s">
+        <v>20</v>
+      </c>
+      <c r="L131" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>44154.69036902778</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D132" t="s">
+        <v>426</v>
+      </c>
+      <c r="E132" t="s">
+        <v>427</v>
+      </c>
+      <c r="F132" t="s">
+        <v>428</v>
+      </c>
+      <c r="G132" t="s">
+        <v>429</v>
+      </c>
+      <c r="H132" t="s">
+        <v>95</v>
+      </c>
+      <c r="I132" t="s">
+        <v>20</v>
+      </c>
+      <c r="J132" t="s">
+        <v>28</v>
+      </c>
+      <c r="K132" t="s">
+        <v>28</v>
+      </c>
+      <c r="L132" t="s"/>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="2" t="n">
         <v>44154.69077488426</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C133" t="n">
         <v>440</v>
       </c>
-      <c r="D108" t="s">
-        <v>328</v>
-      </c>
-      <c r="E108" t="s">
-        <v>329</v>
-      </c>
-      <c r="F108" t="s">
-        <v>330</v>
-      </c>
-      <c r="G108" t="s">
-        <v>115</v>
-      </c>
-      <c r="H108" t="s">
-        <v>45</v>
-      </c>
-      <c r="I108" t="s">
-        <v>26</v>
-      </c>
-      <c r="J108" t="s">
-        <v>90</v>
-      </c>
-      <c r="K108" t="s">
-        <v>20</v>
-      </c>
-      <c r="L108" t="s"/>
+      <c r="D133" t="s">
+        <v>430</v>
+      </c>
+      <c r="E133" t="s">
+        <v>431</v>
+      </c>
+      <c r="F133" t="s">
+        <v>432</v>
+      </c>
+      <c r="G133" t="s">
+        <v>219</v>
+      </c>
+      <c r="H133" t="s">
+        <v>28</v>
+      </c>
+      <c r="I133" t="s">
+        <v>18</v>
+      </c>
+      <c r="J133" t="s">
+        <v>19</v>
+      </c>
+      <c r="K133" t="s">
+        <v>20</v>
+      </c>
+      <c r="L133" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models-combined.xlsx
+++ b/classification-record/session-all-models-combined.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="524">
   <si>
     <t>Name</t>
   </si>
@@ -56,6 +56,321 @@
     <t>Alex</t>
   </si>
   <si>
+    <t>Electronic Cigarettes and Vaping</t>
+  </si>
+  <si>
+    <t>9dZS_Rniak0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9dZS_Rniak0</t>
+  </si>
+  <si>
+    <t>David Geffen School of Medicine UCLA</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>My blu rewick refill hack!!my blu refillable pod system hack</t>
+  </si>
+  <si>
+    <t>Ug2to8Kl9Dk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ug2to8Kl9Dk</t>
+  </si>
+  <si>
+    <t>Geremy</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Top 3 Vaping Starter Kits of 2019 For The First Time Vaper</t>
+  </si>
+  <si>
+    <t>95G_S4MGls8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=95G_S4MGls8</t>
+  </si>
+  <si>
+    <t>FlavourVapour</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vaping blog </t>
+  </si>
+  <si>
+    <t>Juul Pods vs Jones Pods</t>
+  </si>
+  <si>
+    <t>R6woXxjYdEA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=R6woXxjYdEA</t>
+  </si>
+  <si>
+    <t>LiamsGhosts</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Britney Spears - Till The World Ends (Official Video)</t>
+  </si>
+  <si>
+    <t>qzU9OrZlKb8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qzU9OrZlKb8</t>
+  </si>
+  <si>
+    <t>BritneySpearsVEVO</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">britney spears song </t>
+  </si>
+  <si>
+    <t>Michigan Bans Flavored E-Cigarettes, Vaping Products | Morning Joe | MSNBC</t>
+  </si>
+  <si>
+    <t>jEXOyAt36sM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jEXOyAt36sM</t>
+  </si>
+  <si>
+    <t>MSNBC</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>How to make a wood Box mod</t>
+  </si>
+  <si>
+    <t>SumuheWfDkw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SumuheWfDkw</t>
+  </si>
+  <si>
+    <t>How To Do</t>
+  </si>
+  <si>
+    <t>Reloading Kodak Disposable Camera</t>
+  </si>
+  <si>
+    <t>lB8YOEYRGrs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lB8YOEYRGrs</t>
+  </si>
+  <si>
+    <t>Alexander B Spencer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disposable camera review </t>
+  </si>
+  <si>
+    <t>Better than the Juul Mango Pods!? | DonnySmokes</t>
+  </si>
+  <si>
+    <t>o4XhZo_425s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=o4XhZo_425s</t>
+  </si>
+  <si>
+    <t>Donny Vapes</t>
+  </si>
+  <si>
+    <t>How to Hack a Blu E cigarette if the battery goes out</t>
+  </si>
+  <si>
+    <t>GZLhNcOyOl8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GZLhNcOyOl8</t>
+  </si>
+  <si>
+    <t>Atradies Inc.</t>
+  </si>
+  <si>
+    <t>Let's Mix: Kings Custard (DIY E-liquid Recipes)</t>
+  </si>
+  <si>
+    <t>yJjA8qaxx3A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yJjA8qaxx3A</t>
+  </si>
+  <si>
+    <t>DIY or DIE</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>diy vape juice blog website</t>
+  </si>
+  <si>
+    <t>The BIGGEST and BEST "Pod Mod"?!?! Smok RPM 160 Review! VapingwithTwisted420 (Cloudy)</t>
+  </si>
+  <si>
+    <t>vcSiGxKbfFA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcSiGxKbfFA</t>
+  </si>
+  <si>
+    <t>VapingwithTwisted420</t>
+  </si>
+  <si>
+    <t>BRAND NEW VAPO BY VAPORTECH- DISPOSABLE E-CIG</t>
+  </si>
+  <si>
+    <t>OtjJ_0fX5xc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OtjJ_0fX5xc</t>
+  </si>
+  <si>
+    <t>Sammy Trenser</t>
+  </si>
+  <si>
+    <t>The Frii Disposable Menthol Disposable E-Cig Review</t>
+  </si>
+  <si>
+    <t>QiKfD9hiXgE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QiKfD9hiXgE</t>
+  </si>
+  <si>
+    <t>Bill Prater</t>
+  </si>
+  <si>
+    <t>E-cigarettes are harmful to your immune system and lungs</t>
+  </si>
+  <si>
+    <t>8qp0iqDCP3I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8qp0iqDCP3I</t>
+  </si>
+  <si>
+    <t>Hashem Al-Ghaili</t>
+  </si>
+  <si>
+    <t>What We Don't Know about E-Cigs</t>
+  </si>
+  <si>
+    <t>n6hH-PQ7Ct8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n6hH-PQ7Ct8</t>
+  </si>
+  <si>
+    <t>SciShow</t>
+  </si>
+  <si>
+    <t>science channel (hank green)</t>
+  </si>
+  <si>
+    <t>Questions to ask at the End of an Interview | Career Interview Tips</t>
+  </si>
+  <si>
+    <t>EbA5rzpSWLM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EbA5rzpSWLM</t>
+  </si>
+  <si>
+    <t>Cass Thompson Career Advice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interview help </t>
+  </si>
+  <si>
+    <t>What you need to know about vaping</t>
+  </si>
+  <si>
+    <t>n2ClQtfmk4M</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n2ClQtfmk4M</t>
+  </si>
+  <si>
+    <t>UW Medicine</t>
+  </si>
+  <si>
+    <t>Health effects of Vaping and E-cigarette use, what is known thus far</t>
+  </si>
+  <si>
+    <t>AENLOJ6fbFY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AENLOJ6fbFY</t>
+  </si>
+  <si>
+    <t>Distinctive Voices</t>
+  </si>
+  <si>
+    <t>1 6</t>
+  </si>
+  <si>
+    <t>OKR-T30 DIY Box Mod (Passthrough) Build</t>
+  </si>
+  <si>
+    <t>4BMMx6iRyew</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4BMMx6iRyew</t>
+  </si>
+  <si>
+    <t>Analog Box Mods</t>
+  </si>
+  <si>
+    <t>Can a disposable e-cigar be refilled and recharged?</t>
+  </si>
+  <si>
+    <t>G17KPN9Zy5Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=G17KPN9Zy5Q</t>
+  </si>
+  <si>
+    <t>bigclivedotcom</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>electronic cigar</t>
+  </si>
+  <si>
     <t>Green Day “Wake Me Up When September Ends” Live on the Howard Stern Show</t>
   </si>
   <si>
@@ -68,18 +383,6 @@
     <t>The Howard Stern Show</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t xml:space="preserve">green day on howard stern show </t>
   </si>
   <si>
@@ -98,12 +401,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>flair vapor salt nic disposable</t>
   </si>
   <si>
@@ -116,15 +413,6 @@
     <t>Timmerz</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Minecraft: Shulker Box Viewer Tutorial (Mod Showcase)</t>
   </si>
   <si>
@@ -302,9 +590,6 @@
     <t>Kasyan TV</t>
   </si>
   <si>
-    <t>3 7</t>
-  </si>
-  <si>
     <t xml:space="preserve">turning ecig into soldering iron </t>
   </si>
   <si>
@@ -341,9 +626,6 @@
     <t>DeNightDimension</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>thoughts about a dmt vape pen</t>
   </si>
   <si>
@@ -380,9 +662,6 @@
     <t>https://www.youtube.com/watch?v=RhZ0w3VJVrs</t>
   </si>
   <si>
-    <t>FlavourVapour</t>
-  </si>
-  <si>
     <t>My Favourite Pod System | 2019</t>
   </si>
   <si>
@@ -488,9 +767,6 @@
     <t>DashVapes</t>
   </si>
   <si>
-    <t>0 1</t>
-  </si>
-  <si>
     <t>UK Official Made the Prettiest Cheapest High End Box Mod | Turnwood FX Cali Custom</t>
   </si>
   <si>
@@ -1302,9 +1578,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=E_AR-dMJOCA</t>
-  </si>
-  <si>
-    <t>Analog Box Mods</t>
   </si>
   <si>
     <t>How does vaping work? The science and history explained</t>
@@ -1666,7 +1939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L133"/>
+  <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1717,10 +1990,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44154.77216884616</v>
+        <v>44155.73170660085</v>
       </c>
       <c r="C2" t="n">
-        <v>1765</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1744,45 +2017,43 @@
         <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L2" t="s"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44154.77410749242</v>
+        <v>44155.732383141</v>
       </c>
       <c r="C3" t="n">
-        <v>2940</v>
+        <v>987</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s"/>
     </row>
@@ -1791,70 +2062,72 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44154.77493980046</v>
+        <v>44155.73315965265</v>
       </c>
       <c r="C4" t="n">
-        <v>3744</v>
+        <v>2249</v>
       </c>
       <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44154.7754489089</v>
+        <v>44155.73395746105</v>
       </c>
       <c r="C5" t="n">
-        <v>3469</v>
+        <v>666</v>
       </c>
       <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s"/>
     </row>
@@ -1863,70 +2136,72 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44154.77620285247</v>
+        <v>44155.7342548639</v>
       </c>
       <c r="C6" t="n">
-        <v>1419</v>
+        <v>3088</v>
       </c>
       <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>43</v>
       </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44154.77733230958</v>
+        <v>44155.73473485712</v>
       </c>
       <c r="C7" t="n">
-        <v>2861</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s"/>
     </row>
@@ -1935,34 +2210,34 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44154.77845812363</v>
+        <v>44155.73540617069</v>
       </c>
       <c r="C8" t="n">
-        <v>229</v>
+        <v>864</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L8" t="s"/>
     </row>
@@ -1971,108 +2246,108 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44154.77909887183</v>
+        <v>44155.73567726698</v>
       </c>
       <c r="C9" t="n">
-        <v>1277</v>
+        <v>1644</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44154.78025190128</v>
+        <v>44155.73785228613</v>
       </c>
       <c r="C10" t="n">
-        <v>1136</v>
+        <v>737</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
         <v>26</v>
       </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" t="s">
-        <v>34</v>
-      </c>
       <c r="K10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" t="s">
-        <v>60</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L10" t="s"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44154.78865254683</v>
+        <v>44155.73837494401</v>
       </c>
       <c r="C11" t="n">
-        <v>768</v>
+        <v>3379</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L11" t="s"/>
     </row>
@@ -2081,37 +2356,37 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44154.79067495037</v>
+        <v>44155.73969543621</v>
       </c>
       <c r="C12" t="n">
-        <v>445</v>
+        <v>3246</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K12" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="L12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2119,34 +2394,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44154.79188466499</v>
+        <v>44155.74013663828</v>
       </c>
       <c r="C13" t="n">
-        <v>794</v>
+        <v>1297</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L13" t="s"/>
     </row>
@@ -2155,72 +2430,70 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44154.79298895962</v>
+        <v>44155.74047944992</v>
       </c>
       <c r="C14" t="n">
-        <v>1948</v>
+        <v>1555</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" t="s">
-        <v>77</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L14" t="s"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44154.79340069235</v>
+        <v>44155.74120950996</v>
       </c>
       <c r="C15" t="n">
-        <v>1429</v>
+        <v>1536</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L15" t="s"/>
     </row>
@@ -2229,34 +2502,34 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44154.79398876343</v>
+        <v>44155.74188298043</v>
       </c>
       <c r="C16" t="n">
-        <v>1511</v>
+        <v>167</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L16" t="s"/>
     </row>
@@ -2265,37 +2538,37 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44154.79457364119</v>
+        <v>44155.74249111758</v>
       </c>
       <c r="C17" t="n">
-        <v>2860</v>
+        <v>222</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
         <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2303,37 +2576,37 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44154.79515041466</v>
+        <v>44155.74277087588</v>
       </c>
       <c r="C18" t="n">
-        <v>2376</v>
+        <v>3216</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2341,34 +2614,34 @@
         <v>12</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44154.79556157749</v>
+        <v>44155.74296745592</v>
       </c>
       <c r="C19" t="n">
-        <v>1997</v>
+        <v>3110</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L19" t="s"/>
     </row>
@@ -2377,220 +2650,218 @@
         <v>12</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44154.79606213693</v>
+        <v>44155.74395903489</v>
       </c>
       <c r="C20" t="n">
-        <v>595</v>
+        <v>138</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="H20" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="I20" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" t="s">
-        <v>69</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L20" t="s"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44154.79688260754</v>
+        <v>44155.744287699</v>
       </c>
       <c r="C21" t="n">
-        <v>3715</v>
+        <v>1022</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G21" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I21" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" t="s">
-        <v>109</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L21" t="s"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44154.79758924521</v>
+        <v>44155.74493397953</v>
       </c>
       <c r="C22" t="n">
-        <v>3369</v>
+        <v>1466</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="J22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L22" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44154.79803196173</v>
+        <v>44154.7721688426</v>
       </c>
       <c r="C23" t="n">
-        <v>1824</v>
+        <v>1765</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G23" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s">
         <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L23" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44154.79845531714</v>
+        <v>44154.77410748843</v>
       </c>
       <c r="C24" t="n">
-        <v>583</v>
+        <v>2940</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G24" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H24" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="I24" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" t="s">
-        <v>69</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L24" t="s"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44154.79909992321</v>
+        <v>44154.77493980324</v>
       </c>
       <c r="C25" t="n">
-        <v>1271</v>
+        <v>3744</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G25" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="H25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J25" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L25" t="s"/>
     </row>
@@ -2599,34 +2870,34 @@
         <v>12</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44154.800077663</v>
+        <v>44154.77544891203</v>
       </c>
       <c r="C26" t="n">
-        <v>1869</v>
+        <v>3469</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G26" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H26" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L26" t="s"/>
     </row>
@@ -2635,110 +2906,106 @@
         <v>12</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>44154.69819569444</v>
+        <v>44154.77620284722</v>
       </c>
       <c r="C27" t="n">
-        <v>702</v>
+        <v>1419</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F27" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G27" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="H27" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I27" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="J27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" t="s">
-        <v>134</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L27" t="s"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>44154.69934395833</v>
+        <v>44154.77733231481</v>
       </c>
       <c r="C28" t="n">
-        <v>423</v>
+        <v>2861</v>
       </c>
       <c r="D28" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E28" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G28" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I28" t="s">
         <v>18</v>
       </c>
       <c r="J28" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" t="s">
-        <v>139</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L28" t="s"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>44154.69987591435</v>
+        <v>44154.778458125</v>
       </c>
       <c r="C29" t="n">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G29" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I29" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J29" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L29" t="s"/>
     </row>
@@ -2747,108 +3014,108 @@
         <v>12</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>44154.70088510417</v>
+        <v>44154.77909887731</v>
       </c>
       <c r="C30" t="n">
-        <v>3419</v>
+        <v>1277</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E30" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F30" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G30" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H30" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K30" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" t="s">
-        <v>148</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L30" t="s"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>44154.70140253472</v>
+        <v>44154.78025189815</v>
       </c>
       <c r="C31" t="n">
-        <v>2074</v>
+        <v>1136</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E31" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F31" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G31" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H31" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="J31" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K31" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L31" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>44154.70263350695</v>
+        <v>44154.7886525463</v>
       </c>
       <c r="C32" t="n">
-        <v>183</v>
+        <v>768</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F32" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G32" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I32" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="J32" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="K32" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L32" t="s"/>
     </row>
@@ -2857,70 +3124,72 @@
         <v>12</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>44154.70319071759</v>
+        <v>44154.79067495371</v>
       </c>
       <c r="C33" t="n">
-        <v>847</v>
+        <v>445</v>
       </c>
       <c r="D33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E33" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F33" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G33" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="H33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I33" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J33" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K33" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="L33" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44154.70363350694</v>
+        <v>44154.79188466435</v>
       </c>
       <c r="C34" t="n">
-        <v>27</v>
+        <v>794</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E34" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F34" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G34" t="s">
         <v>164</v>
       </c>
       <c r="H34" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J34" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L34" t="s"/>
     </row>
@@ -2929,37 +3198,37 @@
         <v>12</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44154.70392996528</v>
+        <v>44154.79298895833</v>
       </c>
       <c r="C35" t="n">
-        <v>1587</v>
+        <v>1948</v>
       </c>
       <c r="D35" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F35" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G35" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H35" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I35" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K35" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L35" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2967,34 +3236,34 @@
         <v>12</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44154.70447649305</v>
+        <v>44154.79340069444</v>
       </c>
       <c r="C36" t="n">
-        <v>1510</v>
+        <v>1429</v>
       </c>
       <c r="D36" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E36" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F36" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G36" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I36" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L36" t="s"/>
     </row>
@@ -3003,34 +3272,34 @@
         <v>12</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44154.70549010417</v>
+        <v>44154.79398876157</v>
       </c>
       <c r="C37" t="n">
-        <v>631</v>
+        <v>1511</v>
       </c>
       <c r="D37" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E37" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F37" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J37" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L37" t="s"/>
     </row>
@@ -3039,73 +3308,75 @@
         <v>12</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>44154.70597778935</v>
+        <v>44154.79457364584</v>
       </c>
       <c r="C38" t="n">
-        <v>2198</v>
+        <v>2860</v>
       </c>
       <c r="D38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F38" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G38" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H38" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I38" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L38" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>44154.70629576389</v>
+        <v>44154.79515041666</v>
       </c>
       <c r="C39" t="n">
-        <v>3797</v>
+        <v>2376</v>
       </c>
       <c r="D39" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E39" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F39" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G39" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H39" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I39" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J39" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L39" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3113,34 +3384,34 @@
         <v>12</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44154.70677894676</v>
+        <v>44154.79556157407</v>
       </c>
       <c r="C40" t="n">
-        <v>275</v>
+        <v>1997</v>
       </c>
       <c r="D40" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E40" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F40" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G40" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I40" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="J40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L40" t="s"/>
     </row>
@@ -3149,73 +3420,75 @@
         <v>12</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44154.70703077546</v>
+        <v>44154.79606214121</v>
       </c>
       <c r="C41" t="n">
-        <v>392</v>
+        <v>595</v>
       </c>
       <c r="D41" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E41" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F41" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G41" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="H41" t="s">
-        <v>196</v>
+        <v>31</v>
       </c>
       <c r="I41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J41" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K41" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L41" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44154.70736740741</v>
+        <v>44154.79688260417</v>
       </c>
       <c r="C42" t="n">
-        <v>1906</v>
+        <v>3715</v>
       </c>
       <c r="D42" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F42" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G42" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="H42" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="J42" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L42" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3223,34 +3496,34 @@
         <v>12</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44154.70763553241</v>
+        <v>44154.79758924768</v>
       </c>
       <c r="C43" t="n">
-        <v>2977</v>
+        <v>3369</v>
       </c>
       <c r="D43" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E43" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F43" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G43" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I43" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J43" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L43" t="s"/>
     </row>
@@ -3259,34 +3532,34 @@
         <v>12</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44154.70829784722</v>
+        <v>44154.79803195602</v>
       </c>
       <c r="C44" t="n">
-        <v>465</v>
+        <v>1824</v>
       </c>
       <c r="D44" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E44" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F44" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G44" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H44" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J44" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L44" t="s"/>
     </row>
@@ -3295,37 +3568,37 @@
         <v>12</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44154.70866863426</v>
+        <v>44154.7984553125</v>
       </c>
       <c r="C45" t="n">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="D45" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E45" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F45" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G45" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="H45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I45" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J45" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L45" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3333,34 +3606,34 @@
         <v>12</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44154.70929016203</v>
+        <v>44154.79909991898</v>
       </c>
       <c r="C46" t="n">
-        <v>81</v>
+        <v>1271</v>
       </c>
       <c r="D46" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E46" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F46" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G46" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H46" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="I46" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="J46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L46" t="s"/>
     </row>
@@ -3369,218 +3642,220 @@
         <v>12</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44154.70976986111</v>
+        <v>44154.80007766204</v>
       </c>
       <c r="C47" t="n">
-        <v>1837</v>
+        <v>1869</v>
       </c>
       <c r="D47" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E47" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F47" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G47" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H47" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" t="s">
         <v>17</v>
       </c>
-      <c r="I47" t="s">
-        <v>18</v>
-      </c>
       <c r="J47" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K47" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" t="s">
-        <v>220</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L47" t="s"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>12</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44154.71052581019</v>
+        <v>44154.69819569444</v>
       </c>
       <c r="C48" t="n">
-        <v>1446</v>
+        <v>702</v>
       </c>
       <c r="D48" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E48" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F48" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G48" t="s">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="H48" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="I48" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="J48" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K48" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L48" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>12</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44154.71083821759</v>
+        <v>44154.69934395833</v>
       </c>
       <c r="C49" t="n">
-        <v>1516</v>
+        <v>423</v>
       </c>
       <c r="D49" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E49" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F49" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G49" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H49" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I49" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K49" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L49" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44154.71164583333</v>
+        <v>44154.69987591435</v>
       </c>
       <c r="C50" t="n">
-        <v>1975</v>
+        <v>211</v>
       </c>
       <c r="D50" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E50" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F50" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G50" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I50" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K50" t="s">
-        <v>157</v>
-      </c>
-      <c r="L50" t="s">
-        <v>233</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L50" t="s"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44154.71525582176</v>
+        <v>44154.70088510417</v>
       </c>
       <c r="C51" t="n">
-        <v>1508</v>
+        <v>3419</v>
       </c>
       <c r="D51" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E51" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F51" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G51" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H51" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I51" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J51" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="K51" t="s">
-        <v>28</v>
-      </c>
-      <c r="L51" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L51" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44154.71736768518</v>
+        <v>44154.70140253472</v>
       </c>
       <c r="C52" t="n">
-        <v>2973</v>
+        <v>2074</v>
       </c>
       <c r="D52" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E52" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F52" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G52" t="s">
-        <v>138</v>
+        <v>245</v>
       </c>
       <c r="H52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I52" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J52" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K52" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L52" t="s"/>
     </row>
@@ -3589,34 +3864,34 @@
         <v>12</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44154.71784644676</v>
+        <v>44154.70263350695</v>
       </c>
       <c r="C53" t="n">
-        <v>2202</v>
+        <v>183</v>
       </c>
       <c r="D53" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E53" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F53" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G53" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H53" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I53" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J53" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="K53" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="L53" t="s"/>
     </row>
@@ -3625,34 +3900,34 @@
         <v>12</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44154.71844951389</v>
+        <v>44154.70319071759</v>
       </c>
       <c r="C54" t="n">
-        <v>3156</v>
+        <v>847</v>
       </c>
       <c r="D54" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E54" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F54" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G54" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="H54" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I54" t="s">
         <v>19</v>
       </c>
       <c r="J54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K54" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L54" t="s"/>
     </row>
@@ -3661,34 +3936,34 @@
         <v>12</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>44154.71885400463</v>
+        <v>44154.70363350694</v>
       </c>
       <c r="C55" t="n">
-        <v>2881</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E55" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F55" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G55" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H55" t="s">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="I55" t="s">
         <v>18</v>
       </c>
       <c r="J55" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L55" t="s"/>
     </row>
@@ -3697,37 +3972,37 @@
         <v>12</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44154.71972351852</v>
+        <v>44154.70392996528</v>
       </c>
       <c r="C56" t="n">
-        <v>3034</v>
+        <v>1587</v>
       </c>
       <c r="D56" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E56" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F56" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G56" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H56" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I56" t="s">
         <v>18</v>
       </c>
       <c r="J56" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L56" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3735,34 +4010,34 @@
         <v>12</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44154.72165902777</v>
+        <v>44154.70447649305</v>
       </c>
       <c r="C57" t="n">
-        <v>986</v>
+        <v>1510</v>
       </c>
       <c r="D57" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E57" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F57" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G57" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H57" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I57" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J57" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L57" t="s"/>
     </row>
@@ -3771,34 +4046,34 @@
         <v>12</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44154.72335130787</v>
+        <v>44154.70549010417</v>
       </c>
       <c r="C58" t="n">
-        <v>2031</v>
+        <v>631</v>
       </c>
       <c r="D58" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E58" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F58" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G58" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H58" t="s">
+        <v>31</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" t="s">
         <v>26</v>
       </c>
-      <c r="I58" t="s">
-        <v>19</v>
-      </c>
-      <c r="J58" t="s">
-        <v>28</v>
-      </c>
       <c r="K58" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L58" t="s"/>
     </row>
@@ -3807,34 +4082,34 @@
         <v>12</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44154.72369152778</v>
+        <v>44154.70597778935</v>
       </c>
       <c r="C59" t="n">
-        <v>67</v>
+        <v>2198</v>
       </c>
       <c r="D59" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E59" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F59" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G59" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I59" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J59" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L59" t="s"/>
     </row>
@@ -3843,70 +4118,72 @@
         <v>12</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44154.7240471875</v>
+        <v>44154.70629576389</v>
       </c>
       <c r="C60" t="n">
-        <v>533</v>
+        <v>3797</v>
       </c>
       <c r="D60" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E60" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F60" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G60" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H60" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I60" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J60" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K60" t="s">
-        <v>20</v>
-      </c>
-      <c r="L60" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L60" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44154.72488017361</v>
+        <v>44154.70677894676</v>
       </c>
       <c r="C61" t="n">
-        <v>3716</v>
+        <v>275</v>
       </c>
       <c r="D61" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E61" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F61" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G61" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H61" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I61" t="s">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c r="J61" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K61" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L61" t="s"/>
     </row>
@@ -3915,34 +4192,34 @@
         <v>12</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44154.72557752315</v>
+        <v>44154.70703077546</v>
       </c>
       <c r="C62" t="n">
-        <v>2974</v>
+        <v>392</v>
       </c>
       <c r="D62" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E62" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F62" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G62" t="s">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="H62" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="I62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J62" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K62" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L62" t="s"/>
     </row>
@@ -3951,37 +4228,37 @@
         <v>12</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44154.69819569444</v>
+        <v>44154.70736740741</v>
       </c>
       <c r="C63" t="n">
-        <v>702</v>
+        <v>1906</v>
       </c>
       <c r="D63" t="s">
-        <v>130</v>
+        <v>289</v>
       </c>
       <c r="E63" t="s">
-        <v>131</v>
+        <v>290</v>
       </c>
       <c r="F63" t="s">
-        <v>132</v>
+        <v>291</v>
       </c>
       <c r="G63" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="H63" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I63" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="J63" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L63" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3989,72 +4266,70 @@
         <v>12</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44154.69934395833</v>
+        <v>44154.70763553241</v>
       </c>
       <c r="C64" t="n">
-        <v>423</v>
+        <v>2977</v>
       </c>
       <c r="D64" t="s">
-        <v>135</v>
+        <v>293</v>
       </c>
       <c r="E64" t="s">
-        <v>136</v>
+        <v>294</v>
       </c>
       <c r="F64" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
       <c r="G64" t="s">
-        <v>138</v>
+        <v>296</v>
       </c>
       <c r="H64" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J64" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K64" t="s">
-        <v>20</v>
-      </c>
-      <c r="L64" t="s">
-        <v>139</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L64" t="s"/>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>12</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44154.69987591435</v>
+        <v>44154.70829784722</v>
       </c>
       <c r="C65" t="n">
-        <v>211</v>
+        <v>465</v>
       </c>
       <c r="D65" t="s">
-        <v>140</v>
+        <v>297</v>
       </c>
       <c r="E65" t="s">
-        <v>141</v>
+        <v>298</v>
       </c>
       <c r="F65" t="s">
-        <v>142</v>
+        <v>299</v>
       </c>
       <c r="G65" t="s">
-        <v>143</v>
+        <v>300</v>
       </c>
       <c r="H65" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I65" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J65" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L65" t="s"/>
     </row>
@@ -4063,37 +4338,37 @@
         <v>12</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44154.70088510417</v>
+        <v>44154.70866863426</v>
       </c>
       <c r="C66" t="n">
-        <v>3419</v>
+        <v>566</v>
       </c>
       <c r="D66" t="s">
-        <v>144</v>
+        <v>301</v>
       </c>
       <c r="E66" t="s">
-        <v>145</v>
+        <v>302</v>
       </c>
       <c r="F66" t="s">
-        <v>146</v>
+        <v>303</v>
       </c>
       <c r="G66" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="H66" t="s">
+        <v>31</v>
+      </c>
+      <c r="I66" t="s">
         <v>17</v>
       </c>
-      <c r="I66" t="s">
-        <v>18</v>
-      </c>
       <c r="J66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L66" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4101,34 +4376,34 @@
         <v>12</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44154.70140253472</v>
+        <v>44154.70929016203</v>
       </c>
       <c r="C67" t="n">
-        <v>2074</v>
+        <v>81</v>
       </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>304</v>
       </c>
       <c r="E67" t="s">
-        <v>150</v>
+        <v>305</v>
       </c>
       <c r="F67" t="s">
-        <v>151</v>
+        <v>306</v>
       </c>
       <c r="G67" t="s">
-        <v>152</v>
+        <v>307</v>
       </c>
       <c r="H67" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I67" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J67" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K67" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L67" t="s"/>
     </row>
@@ -4137,70 +4412,72 @@
         <v>12</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44154.70263350695</v>
+        <v>44154.70976986111</v>
       </c>
       <c r="C68" t="n">
-        <v>183</v>
+        <v>1837</v>
       </c>
       <c r="D68" t="s">
-        <v>153</v>
+        <v>308</v>
       </c>
       <c r="E68" t="s">
-        <v>154</v>
+        <v>309</v>
       </c>
       <c r="F68" t="s">
-        <v>155</v>
+        <v>310</v>
       </c>
       <c r="G68" t="s">
-        <v>156</v>
+        <v>311</v>
       </c>
       <c r="H68" t="s">
+        <v>43</v>
+      </c>
+      <c r="I68" t="s">
         <v>18</v>
       </c>
-      <c r="I68" t="s">
-        <v>20</v>
-      </c>
       <c r="J68" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="K68" t="s">
-        <v>28</v>
-      </c>
-      <c r="L68" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L68" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>12</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44154.70319071759</v>
+        <v>44154.71052581019</v>
       </c>
       <c r="C69" t="n">
-        <v>847</v>
+        <v>1446</v>
       </c>
       <c r="D69" t="s">
-        <v>158</v>
+        <v>313</v>
       </c>
       <c r="E69" t="s">
-        <v>159</v>
+        <v>314</v>
       </c>
       <c r="F69" t="s">
-        <v>160</v>
+        <v>315</v>
       </c>
       <c r="G69" t="s">
-        <v>138</v>
+        <v>316</v>
       </c>
       <c r="H69" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I69" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J69" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L69" t="s"/>
     </row>
@@ -4209,34 +4486,34 @@
         <v>12</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44154.70363350694</v>
+        <v>44154.71083821759</v>
       </c>
       <c r="C70" t="n">
-        <v>27</v>
+        <v>1516</v>
       </c>
       <c r="D70" t="s">
-        <v>161</v>
+        <v>317</v>
       </c>
       <c r="E70" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F70" t="s">
-        <v>163</v>
+        <v>319</v>
       </c>
       <c r="G70" t="s">
-        <v>164</v>
+        <v>320</v>
       </c>
       <c r="H70" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I70" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J70" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L70" t="s"/>
     </row>
@@ -4245,37 +4522,37 @@
         <v>12</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44154.70392996528</v>
+        <v>44154.71164583333</v>
       </c>
       <c r="C71" t="n">
-        <v>1587</v>
+        <v>1975</v>
       </c>
       <c r="D71" t="s">
-        <v>165</v>
+        <v>321</v>
       </c>
       <c r="E71" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="F71" t="s">
-        <v>167</v>
+        <v>323</v>
       </c>
       <c r="G71" t="s">
-        <v>168</v>
+        <v>324</v>
       </c>
       <c r="H71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I71" t="s">
         <v>18</v>
       </c>
       <c r="J71" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K71" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="L71" t="s">
-        <v>169</v>
+        <v>325</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4283,34 +4560,34 @@
         <v>12</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44154.70447649305</v>
+        <v>44154.71525582176</v>
       </c>
       <c r="C72" t="n">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="D72" t="s">
-        <v>170</v>
+        <v>326</v>
       </c>
       <c r="E72" t="s">
-        <v>171</v>
+        <v>327</v>
       </c>
       <c r="F72" t="s">
-        <v>172</v>
+        <v>328</v>
       </c>
       <c r="G72" t="s">
-        <v>173</v>
+        <v>329</v>
       </c>
       <c r="H72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I72" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J72" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="K72" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L72" t="s"/>
     </row>
@@ -4319,34 +4596,34 @@
         <v>12</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44154.70549010417</v>
+        <v>44154.71736768518</v>
       </c>
       <c r="C73" t="n">
-        <v>631</v>
+        <v>2973</v>
       </c>
       <c r="D73" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="E73" t="s">
-        <v>175</v>
+        <v>331</v>
       </c>
       <c r="F73" t="s">
-        <v>176</v>
+        <v>332</v>
       </c>
       <c r="G73" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="H73" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I73" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J73" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L73" t="s"/>
     </row>
@@ -4355,34 +4632,34 @@
         <v>12</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44154.70597778935</v>
+        <v>44154.71784644676</v>
       </c>
       <c r="C74" t="n">
-        <v>2198</v>
+        <v>2202</v>
       </c>
       <c r="D74" t="s">
-        <v>178</v>
+        <v>333</v>
       </c>
       <c r="E74" t="s">
-        <v>179</v>
+        <v>334</v>
       </c>
       <c r="F74" t="s">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="G74" t="s">
-        <v>181</v>
+        <v>336</v>
       </c>
       <c r="H74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J74" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K74" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="L74" t="s"/>
     </row>
@@ -4391,72 +4668,70 @@
         <v>12</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44154.70629576389</v>
+        <v>44154.71844951389</v>
       </c>
       <c r="C75" t="n">
-        <v>3797</v>
+        <v>3156</v>
       </c>
       <c r="D75" t="s">
-        <v>182</v>
+        <v>337</v>
       </c>
       <c r="E75" t="s">
-        <v>183</v>
+        <v>338</v>
       </c>
       <c r="F75" t="s">
-        <v>184</v>
+        <v>339</v>
       </c>
       <c r="G75" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="H75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I75" t="s">
+        <v>49</v>
+      </c>
+      <c r="J75" t="s">
+        <v>26</v>
+      </c>
+      <c r="K75" t="s">
         <v>17</v>
       </c>
-      <c r="I75" t="s">
-        <v>18</v>
-      </c>
-      <c r="J75" t="s">
-        <v>27</v>
-      </c>
-      <c r="K75" t="s">
-        <v>20</v>
-      </c>
-      <c r="L75" t="s">
-        <v>186</v>
-      </c>
+      <c r="L75" t="s"/>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>12</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44154.70677894676</v>
+        <v>44154.71885400463</v>
       </c>
       <c r="C76" t="n">
-        <v>275</v>
+        <v>2881</v>
       </c>
       <c r="D76" t="s">
-        <v>187</v>
+        <v>341</v>
       </c>
       <c r="E76" t="s">
-        <v>188</v>
+        <v>342</v>
       </c>
       <c r="F76" t="s">
-        <v>189</v>
+        <v>343</v>
       </c>
       <c r="G76" t="s">
-        <v>190</v>
+        <v>344</v>
       </c>
       <c r="H76" t="s">
-        <v>33</v>
+        <v>345</v>
       </c>
       <c r="I76" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="J76" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L76" t="s"/>
     </row>
@@ -4465,108 +4740,108 @@
         <v>12</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44154.70703077546</v>
+        <v>44154.71972351852</v>
       </c>
       <c r="C77" t="n">
-        <v>392</v>
+        <v>3034</v>
       </c>
       <c r="D77" t="s">
-        <v>192</v>
+        <v>346</v>
       </c>
       <c r="E77" t="s">
-        <v>193</v>
+        <v>347</v>
       </c>
       <c r="F77" t="s">
-        <v>194</v>
+        <v>348</v>
       </c>
       <c r="G77" t="s">
-        <v>195</v>
+        <v>349</v>
       </c>
       <c r="H77" t="s">
-        <v>196</v>
+        <v>43</v>
       </c>
       <c r="I77" t="s">
         <v>18</v>
       </c>
       <c r="J77" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="K77" t="s">
-        <v>20</v>
-      </c>
-      <c r="L77" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L77" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
         <v>12</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44154.70736740741</v>
+        <v>44154.72165902777</v>
       </c>
       <c r="C78" t="n">
-        <v>1906</v>
+        <v>986</v>
       </c>
       <c r="D78" t="s">
-        <v>197</v>
+        <v>351</v>
       </c>
       <c r="E78" t="s">
-        <v>198</v>
+        <v>352</v>
       </c>
       <c r="F78" t="s">
-        <v>199</v>
+        <v>353</v>
       </c>
       <c r="G78" t="s">
-        <v>121</v>
+        <v>354</v>
       </c>
       <c r="H78" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I78" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J78" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K78" t="s">
-        <v>20</v>
-      </c>
-      <c r="L78" t="s">
-        <v>200</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L78" t="s"/>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
         <v>12</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>44154.70763553241</v>
+        <v>44154.72335130787</v>
       </c>
       <c r="C79" t="n">
-        <v>2977</v>
+        <v>2031</v>
       </c>
       <c r="D79" t="s">
-        <v>201</v>
+        <v>355</v>
       </c>
       <c r="E79" t="s">
-        <v>202</v>
+        <v>356</v>
       </c>
       <c r="F79" t="s">
-        <v>203</v>
+        <v>357</v>
       </c>
       <c r="G79" t="s">
-        <v>204</v>
+        <v>358</v>
       </c>
       <c r="H79" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="I79" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="J79" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="K79" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L79" t="s"/>
     </row>
@@ -4575,34 +4850,34 @@
         <v>12</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>44154.70829784722</v>
+        <v>44154.72369152778</v>
       </c>
       <c r="C80" t="n">
-        <v>465</v>
+        <v>67</v>
       </c>
       <c r="D80" t="s">
-        <v>205</v>
+        <v>359</v>
       </c>
       <c r="E80" t="s">
-        <v>206</v>
+        <v>360</v>
       </c>
       <c r="F80" t="s">
-        <v>207</v>
+        <v>361</v>
       </c>
       <c r="G80" t="s">
-        <v>208</v>
+        <v>362</v>
       </c>
       <c r="H80" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I80" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J80" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L80" t="s"/>
     </row>
@@ -4611,72 +4886,70 @@
         <v>12</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>44154.70866863426</v>
+        <v>44154.7240471875</v>
       </c>
       <c r="C81" t="n">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="D81" t="s">
-        <v>209</v>
+        <v>363</v>
       </c>
       <c r="E81" t="s">
-        <v>210</v>
+        <v>364</v>
       </c>
       <c r="F81" t="s">
-        <v>211</v>
+        <v>365</v>
       </c>
       <c r="G81" t="s">
-        <v>121</v>
+        <v>366</v>
       </c>
       <c r="H81" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I81" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J81" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K81" t="s">
-        <v>20</v>
-      </c>
-      <c r="L81" t="s">
-        <v>69</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L81" t="s"/>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
         <v>12</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>44154.70929016203</v>
+        <v>44154.72488017361</v>
       </c>
       <c r="C82" t="n">
-        <v>81</v>
+        <v>3716</v>
       </c>
       <c r="D82" t="s">
-        <v>212</v>
+        <v>367</v>
       </c>
       <c r="E82" t="s">
-        <v>213</v>
+        <v>368</v>
       </c>
       <c r="F82" t="s">
-        <v>214</v>
+        <v>369</v>
       </c>
       <c r="G82" t="s">
-        <v>215</v>
+        <v>370</v>
       </c>
       <c r="H82" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="I82" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="J82" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K82" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L82" t="s"/>
     </row>
@@ -4685,218 +4958,220 @@
         <v>12</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44154.70976986111</v>
+        <v>44154.72557752315</v>
       </c>
       <c r="C83" t="n">
-        <v>1837</v>
+        <v>2974</v>
       </c>
       <c r="D83" t="s">
-        <v>216</v>
+        <v>371</v>
       </c>
       <c r="E83" t="s">
-        <v>217</v>
+        <v>372</v>
       </c>
       <c r="F83" t="s">
-        <v>218</v>
+        <v>373</v>
       </c>
       <c r="G83" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="H83" t="s">
+        <v>374</v>
+      </c>
+      <c r="I83" t="s">
+        <v>19</v>
+      </c>
+      <c r="J83" t="s">
+        <v>26</v>
+      </c>
+      <c r="K83" t="s">
         <v>17</v>
       </c>
-      <c r="I83" t="s">
-        <v>18</v>
-      </c>
-      <c r="J83" t="s">
-        <v>19</v>
-      </c>
-      <c r="K83" t="s">
-        <v>20</v>
-      </c>
-      <c r="L83" t="s">
-        <v>220</v>
-      </c>
+      <c r="L83" t="s"/>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>12</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>44154.71052581019</v>
+        <v>44154.69819569444</v>
       </c>
       <c r="C84" t="n">
-        <v>1446</v>
+        <v>702</v>
       </c>
       <c r="D84" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E84" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F84" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G84" t="s">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="H84" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="I84" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="J84" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K84" t="s">
-        <v>20</v>
-      </c>
-      <c r="L84" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L84" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
         <v>12</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>44154.71083821759</v>
+        <v>44154.69934395833</v>
       </c>
       <c r="C85" t="n">
-        <v>1516</v>
+        <v>423</v>
       </c>
       <c r="D85" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E85" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F85" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G85" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H85" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I85" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K85" t="s">
-        <v>20</v>
-      </c>
-      <c r="L85" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L85" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
         <v>12</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>44154.71164583333</v>
+        <v>44154.69987591435</v>
       </c>
       <c r="C86" t="n">
-        <v>1975</v>
+        <v>211</v>
       </c>
       <c r="D86" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E86" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F86" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G86" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H86" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I86" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K86" t="s">
-        <v>157</v>
-      </c>
-      <c r="L86" t="s">
-        <v>233</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L86" t="s"/>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
         <v>12</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>44154.71525582176</v>
+        <v>44154.70088510417</v>
       </c>
       <c r="C87" t="n">
-        <v>1508</v>
+        <v>3419</v>
       </c>
       <c r="D87" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E87" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F87" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G87" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H87" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I87" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J87" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="K87" t="s">
-        <v>28</v>
-      </c>
-      <c r="L87" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L87" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
         <v>12</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>44154.71736768518</v>
+        <v>44154.70140253472</v>
       </c>
       <c r="C88" t="n">
-        <v>2973</v>
+        <v>2074</v>
       </c>
       <c r="D88" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E88" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F88" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G88" t="s">
-        <v>138</v>
+        <v>245</v>
       </c>
       <c r="H88" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I88" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J88" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K88" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L88" t="s"/>
     </row>
@@ -4905,34 +5180,34 @@
         <v>12</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>44154.71784644676</v>
+        <v>44154.70263350695</v>
       </c>
       <c r="C89" t="n">
-        <v>2202</v>
+        <v>183</v>
       </c>
       <c r="D89" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E89" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F89" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G89" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H89" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I89" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J89" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="K89" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="L89" t="s"/>
     </row>
@@ -4941,34 +5216,34 @@
         <v>12</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>44154.71844951389</v>
+        <v>44154.70319071759</v>
       </c>
       <c r="C90" t="n">
-        <v>3156</v>
+        <v>847</v>
       </c>
       <c r="D90" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E90" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F90" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G90" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="H90" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I90" t="s">
         <v>19</v>
       </c>
       <c r="J90" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K90" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L90" t="s"/>
     </row>
@@ -4977,34 +5252,34 @@
         <v>12</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>44154.71885400463</v>
+        <v>44154.70363350694</v>
       </c>
       <c r="C91" t="n">
-        <v>2881</v>
+        <v>27</v>
       </c>
       <c r="D91" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E91" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F91" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G91" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H91" t="s">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="I91" t="s">
         <v>18</v>
       </c>
       <c r="J91" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L91" t="s"/>
     </row>
@@ -5013,37 +5288,37 @@
         <v>12</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>44154.71972351852</v>
+        <v>44154.70392996528</v>
       </c>
       <c r="C92" t="n">
-        <v>3034</v>
+        <v>1587</v>
       </c>
       <c r="D92" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E92" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F92" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G92" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H92" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I92" t="s">
         <v>18</v>
       </c>
       <c r="J92" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L92" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5051,34 +5326,34 @@
         <v>12</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>44154.72165902777</v>
+        <v>44154.70447649305</v>
       </c>
       <c r="C93" t="n">
-        <v>986</v>
+        <v>1510</v>
       </c>
       <c r="D93" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E93" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F93" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G93" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H93" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I93" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J93" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L93" t="s"/>
     </row>
@@ -5087,34 +5362,34 @@
         <v>12</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>44154.72335130787</v>
+        <v>44154.70549010417</v>
       </c>
       <c r="C94" t="n">
-        <v>2031</v>
+        <v>631</v>
       </c>
       <c r="D94" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E94" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F94" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G94" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H94" t="s">
+        <v>31</v>
+      </c>
+      <c r="I94" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" t="s">
         <v>26</v>
       </c>
-      <c r="I94" t="s">
-        <v>19</v>
-      </c>
-      <c r="J94" t="s">
-        <v>28</v>
-      </c>
       <c r="K94" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L94" t="s"/>
     </row>
@@ -5123,34 +5398,34 @@
         <v>12</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>44154.72369152778</v>
+        <v>44154.70597778935</v>
       </c>
       <c r="C95" t="n">
-        <v>67</v>
+        <v>2198</v>
       </c>
       <c r="D95" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E95" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F95" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G95" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H95" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I95" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J95" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L95" t="s"/>
     </row>
@@ -5159,70 +5434,72 @@
         <v>12</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>44154.7240471875</v>
+        <v>44154.70629576389</v>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>3797</v>
       </c>
       <c r="D96" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E96" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F96" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G96" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H96" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I96" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J96" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K96" t="s">
-        <v>20</v>
-      </c>
-      <c r="L96" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L96" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
         <v>12</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>44154.72488017361</v>
+        <v>44154.70677894676</v>
       </c>
       <c r="C97" t="n">
-        <v>3716</v>
+        <v>275</v>
       </c>
       <c r="D97" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E97" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F97" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G97" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H97" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I97" t="s">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c r="J97" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K97" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L97" t="s"/>
     </row>
@@ -5231,34 +5508,34 @@
         <v>12</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>44154.72557752315</v>
+        <v>44154.70703077546</v>
       </c>
       <c r="C98" t="n">
-        <v>2974</v>
+        <v>392</v>
       </c>
       <c r="D98" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E98" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F98" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G98" t="s">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="H98" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="I98" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J98" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K98" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L98" t="s"/>
     </row>
@@ -5267,70 +5544,72 @@
         <v>12</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>44154.6643809838</v>
+        <v>44154.70736740741</v>
       </c>
       <c r="C99" t="n">
-        <v>2555</v>
+        <v>1906</v>
       </c>
       <c r="D99" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="E99" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F99" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G99" t="s">
-        <v>286</v>
+        <v>30</v>
       </c>
       <c r="H99" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="I99" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J99" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K99" t="s">
-        <v>20</v>
-      </c>
-      <c r="L99" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L99" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
         <v>12</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>44154.66514181713</v>
+        <v>44154.70763553241</v>
       </c>
       <c r="C100" t="n">
-        <v>2501</v>
+        <v>2977</v>
       </c>
       <c r="D100" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E100" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F100" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="G100" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H100" t="s">
+        <v>31</v>
+      </c>
+      <c r="I100" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" t="s">
         <v>26</v>
       </c>
-      <c r="I100" t="s">
-        <v>20</v>
-      </c>
-      <c r="J100" t="s">
-        <v>28</v>
-      </c>
       <c r="K100" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="L100" t="s"/>
     </row>
@@ -5339,34 +5618,34 @@
         <v>12</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>44154.6655874537</v>
+        <v>44154.70829784722</v>
       </c>
       <c r="C101" t="n">
-        <v>2825</v>
+        <v>465</v>
       </c>
       <c r="D101" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E101" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F101" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="G101" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H101" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="I101" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J101" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L101" t="s"/>
     </row>
@@ -5375,111 +5654,111 @@
         <v>12</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>44154.66637526621</v>
+        <v>44154.70866863426</v>
       </c>
       <c r="C102" t="n">
-        <v>3460</v>
+        <v>566</v>
       </c>
       <c r="D102" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E102" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F102" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G102" t="s">
-        <v>298</v>
+        <v>30</v>
       </c>
       <c r="H102" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I102" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J102" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K102" t="s">
-        <v>28</v>
-      </c>
-      <c r="L102" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L102" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
         <v>12</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>44154.66675946759</v>
+        <v>44154.70929016203</v>
       </c>
       <c r="C103" t="n">
-        <v>1777</v>
+        <v>81</v>
       </c>
       <c r="D103" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E103" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F103" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G103" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H103" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I103" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J103" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K103" t="s">
-        <v>20</v>
-      </c>
-      <c r="L103" t="s">
-        <v>303</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L103" t="s"/>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
         <v>12</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>44154.66788681713</v>
+        <v>44154.70976986111</v>
       </c>
       <c r="C104" t="n">
-        <v>2772</v>
+        <v>1837</v>
       </c>
       <c r="D104" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E104" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F104" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G104" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H104" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I104" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J104" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="K104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L104" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5487,72 +5766,70 @@
         <v>12</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>44154.66935013889</v>
+        <v>44154.71052581019</v>
       </c>
       <c r="C105" t="n">
-        <v>3641</v>
+        <v>1446</v>
       </c>
       <c r="D105" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E105" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F105" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G105" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H105" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I105" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="J105" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K105" t="s">
-        <v>20</v>
-      </c>
-      <c r="L105" t="s">
-        <v>313</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L105" t="s"/>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
         <v>12</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>44154.67044814815</v>
+        <v>44154.71083821759</v>
       </c>
       <c r="C106" t="n">
-        <v>2487</v>
+        <v>1516</v>
       </c>
       <c r="D106" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E106" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F106" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G106" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H106" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I106" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J106" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K106" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L106" t="s"/>
     </row>
@@ -5561,108 +5838,108 @@
         <v>12</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>44154.67135246528</v>
+        <v>44154.71164583333</v>
       </c>
       <c r="C107" t="n">
-        <v>2638</v>
+        <v>1975</v>
       </c>
       <c r="D107" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E107" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F107" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G107" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H107" t="s">
-        <v>322</v>
+        <v>18</v>
       </c>
       <c r="I107" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J107" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K107" t="s">
-        <v>20</v>
-      </c>
-      <c r="L107" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="L107" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
         <v>12</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>44154.67172907407</v>
+        <v>44154.71525582176</v>
       </c>
       <c r="C108" t="n">
-        <v>3209</v>
+        <v>1508</v>
       </c>
       <c r="D108" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E108" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F108" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G108" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H108" t="s">
+        <v>31</v>
+      </c>
+      <c r="I108" t="s">
+        <v>31</v>
+      </c>
+      <c r="J108" t="s">
+        <v>71</v>
+      </c>
+      <c r="K108" t="s">
         <v>17</v>
       </c>
-      <c r="I108" t="s">
-        <v>18</v>
-      </c>
-      <c r="J108" t="s">
-        <v>27</v>
-      </c>
-      <c r="K108" t="s">
-        <v>20</v>
-      </c>
-      <c r="L108" t="s">
-        <v>327</v>
-      </c>
+      <c r="L108" t="s"/>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
         <v>12</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>44154.67312695602</v>
+        <v>44154.71736768518</v>
       </c>
       <c r="C109" t="n">
-        <v>3711</v>
+        <v>2973</v>
       </c>
       <c r="D109" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E109" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F109" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G109" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="H109" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I109" t="s">
         <v>19</v>
       </c>
       <c r="J109" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K109" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L109" t="s"/>
     </row>
@@ -5671,34 +5948,34 @@
         <v>12</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>44154.6736441088</v>
+        <v>44154.71784644676</v>
       </c>
       <c r="C110" t="n">
-        <v>3312</v>
+        <v>2202</v>
       </c>
       <c r="D110" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E110" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F110" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G110" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H110" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I110" t="s">
-        <v>336</v>
+        <v>31</v>
       </c>
       <c r="J110" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K110" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="L110" t="s"/>
     </row>
@@ -5707,10 +5984,10 @@
         <v>12</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>44154.67442511574</v>
+        <v>44154.71844951389</v>
       </c>
       <c r="C111" t="n">
-        <v>78</v>
+        <v>3156</v>
       </c>
       <c r="D111" t="s">
         <v>337</v>
@@ -5725,16 +6002,16 @@
         <v>340</v>
       </c>
       <c r="H111" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I111" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="J111" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K111" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="L111" t="s"/>
     </row>
@@ -5743,10 +6020,10 @@
         <v>12</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>44154.67532738426</v>
+        <v>44154.71885400463</v>
       </c>
       <c r="C112" t="n">
-        <v>3031</v>
+        <v>2881</v>
       </c>
       <c r="D112" t="s">
         <v>341</v>
@@ -5761,30 +6038,28 @@
         <v>344</v>
       </c>
       <c r="H112" t="s">
-        <v>33</v>
+        <v>345</v>
       </c>
       <c r="I112" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J112" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K112" t="s">
-        <v>35</v>
-      </c>
-      <c r="L112" t="s">
-        <v>345</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L112" t="s"/>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
         <v>12</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>44154.67696158565</v>
+        <v>44154.71972351852</v>
       </c>
       <c r="C113" t="n">
-        <v>2035</v>
+        <v>3034</v>
       </c>
       <c r="D113" t="s">
         <v>346</v>
@@ -5799,66 +6074,66 @@
         <v>349</v>
       </c>
       <c r="H113" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J113" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K113" t="s">
-        <v>28</v>
-      </c>
-      <c r="L113" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L113" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
         <v>12</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>44154.67738247685</v>
+        <v>44154.72165902777</v>
       </c>
       <c r="C114" t="n">
-        <v>1784</v>
+        <v>986</v>
       </c>
       <c r="D114" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E114" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F114" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G114" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H114" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I114" t="s">
         <v>18</v>
       </c>
       <c r="J114" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K114" t="s">
-        <v>20</v>
-      </c>
-      <c r="L114" t="s">
-        <v>354</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L114" t="s"/>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
         <v>12</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>44154.67845166667</v>
+        <v>44154.72335130787</v>
       </c>
       <c r="C115" t="n">
-        <v>116</v>
+        <v>2031</v>
       </c>
       <c r="D115" t="s">
         <v>355</v>
@@ -5873,16 +6148,16 @@
         <v>358</v>
       </c>
       <c r="H115" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="I115" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="J115" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="K115" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="L115" t="s"/>
     </row>
@@ -5891,10 +6166,10 @@
         <v>12</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>44154.68068962963</v>
+        <v>44154.72369152778</v>
       </c>
       <c r="C116" t="n">
-        <v>1882</v>
+        <v>67</v>
       </c>
       <c r="D116" t="s">
         <v>359</v>
@@ -5909,54 +6184,52 @@
         <v>362</v>
       </c>
       <c r="H116" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I116" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J116" t="s">
-        <v>336</v>
+        <v>26</v>
       </c>
       <c r="K116" t="s">
-        <v>35</v>
-      </c>
-      <c r="L116" t="s">
-        <v>363</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L116" t="s"/>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
         <v>12</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>44154.68186581018</v>
+        <v>44154.7240471875</v>
       </c>
       <c r="C117" t="n">
-        <v>1175</v>
+        <v>533</v>
       </c>
       <c r="D117" t="s">
+        <v>363</v>
+      </c>
+      <c r="E117" t="s">
         <v>364</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>365</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>366</v>
       </c>
-      <c r="G117" t="s">
-        <v>367</v>
-      </c>
       <c r="H117" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I117" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J117" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="K117" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L117" t="s"/>
     </row>
@@ -5965,110 +6238,106 @@
         <v>12</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>44154.68270211806</v>
+        <v>44154.72488017361</v>
       </c>
       <c r="C118" t="n">
-        <v>1528</v>
+        <v>3716</v>
       </c>
       <c r="D118" t="s">
+        <v>367</v>
+      </c>
+      <c r="E118" t="s">
         <v>368</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>369</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>370</v>
       </c>
-      <c r="G118" t="s">
-        <v>307</v>
-      </c>
       <c r="H118" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I118" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="J118" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K118" t="s">
-        <v>20</v>
-      </c>
-      <c r="L118" t="s">
-        <v>371</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L118" t="s"/>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" t="s">
         <v>12</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>44154.68296275463</v>
+        <v>44154.72557752315</v>
       </c>
       <c r="C119" t="n">
-        <v>1838</v>
+        <v>2974</v>
       </c>
       <c r="D119" t="s">
+        <v>371</v>
+      </c>
+      <c r="E119" t="s">
         <v>372</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>373</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
+        <v>172</v>
+      </c>
+      <c r="H119" t="s">
         <v>374</v>
       </c>
-      <c r="G119" t="s">
-        <v>375</v>
-      </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
+        <v>19</v>
+      </c>
+      <c r="J119" t="s">
+        <v>26</v>
+      </c>
+      <c r="K119" t="s">
         <v>17</v>
       </c>
-      <c r="I119" t="s">
-        <v>18</v>
-      </c>
-      <c r="J119" t="s">
-        <v>27</v>
-      </c>
-      <c r="K119" t="s">
-        <v>20</v>
-      </c>
-      <c r="L119" t="s">
-        <v>376</v>
-      </c>
+      <c r="L119" t="s"/>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
         <v>12</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>44154.68356502315</v>
+        <v>44154.6643809838</v>
       </c>
       <c r="C120" t="n">
-        <v>1924</v>
+        <v>2555</v>
       </c>
       <c r="D120" t="s">
+        <v>375</v>
+      </c>
+      <c r="E120" t="s">
+        <v>376</v>
+      </c>
+      <c r="F120" t="s">
         <v>377</v>
       </c>
-      <c r="E120" t="s">
+      <c r="G120" t="s">
         <v>378</v>
       </c>
-      <c r="F120" t="s">
-        <v>379</v>
-      </c>
-      <c r="G120" t="s">
-        <v>380</v>
-      </c>
       <c r="H120" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I120" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J120" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K120" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L120" t="s"/>
     </row>
@@ -6077,34 +6346,34 @@
         <v>12</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>44154.6841640625</v>
+        <v>44154.66514181713</v>
       </c>
       <c r="C121" t="n">
-        <v>3611</v>
+        <v>2501</v>
       </c>
       <c r="D121" t="s">
+        <v>379</v>
+      </c>
+      <c r="E121" t="s">
+        <v>380</v>
+      </c>
+      <c r="F121" t="s">
         <v>381</v>
       </c>
-      <c r="E121" t="s">
+      <c r="G121" t="s">
         <v>382</v>
       </c>
-      <c r="F121" t="s">
-        <v>383</v>
-      </c>
-      <c r="G121" t="s">
-        <v>384</v>
-      </c>
       <c r="H121" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="I121" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J121" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K121" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="L121" t="s"/>
     </row>
@@ -6113,34 +6382,34 @@
         <v>12</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>44154.68457054398</v>
+        <v>44154.6655874537</v>
       </c>
       <c r="C122" t="n">
-        <v>1065</v>
+        <v>2825</v>
       </c>
       <c r="D122" t="s">
+        <v>383</v>
+      </c>
+      <c r="E122" t="s">
+        <v>384</v>
+      </c>
+      <c r="F122" t="s">
         <v>385</v>
       </c>
-      <c r="E122" t="s">
+      <c r="G122" t="s">
         <v>386</v>
       </c>
-      <c r="F122" t="s">
-        <v>387</v>
-      </c>
-      <c r="G122" t="s">
-        <v>388</v>
-      </c>
       <c r="H122" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I122" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J122" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K122" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L122" t="s"/>
     </row>
@@ -6149,34 +6418,34 @@
         <v>12</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>44154.68556002315</v>
+        <v>44154.66637526621</v>
       </c>
       <c r="C123" t="n">
-        <v>2475</v>
+        <v>3460</v>
       </c>
       <c r="D123" t="s">
+        <v>387</v>
+      </c>
+      <c r="E123" t="s">
+        <v>388</v>
+      </c>
+      <c r="F123" t="s">
         <v>389</v>
       </c>
-      <c r="E123" t="s">
+      <c r="G123" t="s">
         <v>390</v>
       </c>
-      <c r="F123" t="s">
-        <v>391</v>
-      </c>
-      <c r="G123" t="s">
-        <v>156</v>
-      </c>
       <c r="H123" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="I123" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J123" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="K123" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="L123" t="s"/>
     </row>
@@ -6185,46 +6454,48 @@
         <v>12</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>44154.68630527778</v>
+        <v>44154.66675946759</v>
       </c>
       <c r="C124" t="n">
-        <v>3042</v>
+        <v>1777</v>
       </c>
       <c r="D124" t="s">
+        <v>391</v>
+      </c>
+      <c r="E124" t="s">
         <v>392</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>393</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>394</v>
       </c>
-      <c r="G124" t="s">
-        <v>395</v>
-      </c>
       <c r="H124" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I124" t="s">
         <v>18</v>
       </c>
       <c r="J124" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L124" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L124" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" t="s">
         <v>12</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>44154.68673292824</v>
+        <v>44154.66788681713</v>
       </c>
       <c r="C125" t="n">
-        <v>1903</v>
+        <v>2772</v>
       </c>
       <c r="D125" t="s">
         <v>396</v>
@@ -6239,88 +6510,92 @@
         <v>399</v>
       </c>
       <c r="H125" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="I125" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J125" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K125" t="s">
-        <v>28</v>
-      </c>
-      <c r="L125" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L125" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" t="s">
         <v>12</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>44154.6878003588</v>
+        <v>44154.66935013889</v>
       </c>
       <c r="C126" t="n">
-        <v>615</v>
+        <v>3641</v>
       </c>
       <c r="D126" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E126" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F126" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G126" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H126" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I126" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="J126" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K126" t="s">
-        <v>20</v>
-      </c>
-      <c r="L126" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L126" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" t="s">
         <v>12</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>44154.68797761574</v>
+        <v>44154.67044814815</v>
       </c>
       <c r="C127" t="n">
-        <v>3195</v>
+        <v>2487</v>
       </c>
       <c r="D127" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E127" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F127" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G127" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H127" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="I127" t="s">
         <v>18</v>
       </c>
       <c r="J127" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K127" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L127" t="s"/>
     </row>
@@ -6329,34 +6604,34 @@
         <v>12</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>44154.68839364583</v>
+        <v>44154.67135246528</v>
       </c>
       <c r="C128" t="n">
-        <v>3134</v>
+        <v>2638</v>
       </c>
       <c r="D128" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E128" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F128" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G128" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H128" t="s">
-        <v>35</v>
+        <v>414</v>
       </c>
       <c r="I128" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J128" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="K128" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L128" t="s"/>
     </row>
@@ -6365,146 +6640,144 @@
         <v>12</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>44154.68914657408</v>
+        <v>44154.67172907407</v>
       </c>
       <c r="C129" t="n">
-        <v>1023</v>
+        <v>3209</v>
       </c>
       <c r="D129" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E129" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F129" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G129" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H129" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I129" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J129" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K129" t="s">
-        <v>20</v>
-      </c>
-      <c r="L129" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L129" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" t="s">
         <v>12</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>44154.68949501157</v>
+        <v>44154.67312695602</v>
       </c>
       <c r="C130" t="n">
-        <v>3395</v>
+        <v>3711</v>
       </c>
       <c r="D130" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E130" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F130" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G130" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="H130" t="s">
+        <v>38</v>
+      </c>
+      <c r="I130" t="s">
+        <v>49</v>
+      </c>
+      <c r="J130" t="s">
         <v>17</v>
       </c>
-      <c r="I130" t="s">
-        <v>18</v>
-      </c>
-      <c r="J130" t="s">
-        <v>27</v>
-      </c>
       <c r="K130" t="s">
-        <v>20</v>
-      </c>
-      <c r="L130" t="s">
-        <v>420</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L130" t="s"/>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" t="s">
         <v>12</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>44154.68986456018</v>
+        <v>44154.6736441088</v>
       </c>
       <c r="C131" t="n">
-        <v>1760</v>
+        <v>3312</v>
       </c>
       <c r="D131" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E131" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F131" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G131" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H131" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I131" t="s">
-        <v>18</v>
+        <v>428</v>
       </c>
       <c r="J131" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K131" t="s">
-        <v>20</v>
-      </c>
-      <c r="L131" t="s">
-        <v>425</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L131" t="s"/>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" t="s">
         <v>12</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>44154.69036902778</v>
+        <v>44154.67442511574</v>
       </c>
       <c r="C132" t="n">
-        <v>1995</v>
+        <v>78</v>
       </c>
       <c r="D132" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E132" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F132" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G132" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H132" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="I132" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="J132" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K132" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="L132" t="s"/>
     </row>
@@ -6513,36 +6786,806 @@
         <v>12</v>
       </c>
       <c r="B133" s="2" t="n">
+        <v>44154.67532738426</v>
+      </c>
+      <c r="C133" t="n">
+        <v>3031</v>
+      </c>
+      <c r="D133" t="s">
+        <v>433</v>
+      </c>
+      <c r="E133" t="s">
+        <v>434</v>
+      </c>
+      <c r="F133" t="s">
+        <v>435</v>
+      </c>
+      <c r="G133" t="s">
+        <v>436</v>
+      </c>
+      <c r="H133" t="s">
+        <v>31</v>
+      </c>
+      <c r="I133" t="s">
+        <v>17</v>
+      </c>
+      <c r="J133" t="s">
+        <v>26</v>
+      </c>
+      <c r="K133" t="s">
+        <v>26</v>
+      </c>
+      <c r="L133" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>44154.67696158565</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2035</v>
+      </c>
+      <c r="D134" t="s">
+        <v>438</v>
+      </c>
+      <c r="E134" t="s">
+        <v>439</v>
+      </c>
+      <c r="F134" t="s">
+        <v>440</v>
+      </c>
+      <c r="G134" t="s">
+        <v>441</v>
+      </c>
+      <c r="H134" t="s">
+        <v>31</v>
+      </c>
+      <c r="I134" t="s">
+        <v>49</v>
+      </c>
+      <c r="J134" t="s">
+        <v>26</v>
+      </c>
+      <c r="K134" t="s">
+        <v>17</v>
+      </c>
+      <c r="L134" t="s"/>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>44154.67738247685</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1784</v>
+      </c>
+      <c r="D135" t="s">
+        <v>442</v>
+      </c>
+      <c r="E135" t="s">
+        <v>443</v>
+      </c>
+      <c r="F135" t="s">
+        <v>444</v>
+      </c>
+      <c r="G135" t="s">
+        <v>445</v>
+      </c>
+      <c r="H135" t="s">
+        <v>43</v>
+      </c>
+      <c r="I135" t="s">
+        <v>18</v>
+      </c>
+      <c r="J135" t="s">
+        <v>25</v>
+      </c>
+      <c r="K135" t="s">
+        <v>19</v>
+      </c>
+      <c r="L135" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>44154.67845166667</v>
+      </c>
+      <c r="C136" t="n">
+        <v>116</v>
+      </c>
+      <c r="D136" t="s">
+        <v>447</v>
+      </c>
+      <c r="E136" t="s">
+        <v>448</v>
+      </c>
+      <c r="F136" t="s">
+        <v>449</v>
+      </c>
+      <c r="G136" t="s">
+        <v>450</v>
+      </c>
+      <c r="H136" t="s">
+        <v>127</v>
+      </c>
+      <c r="I136" t="s">
+        <v>49</v>
+      </c>
+      <c r="J136" t="s">
+        <v>17</v>
+      </c>
+      <c r="K136" t="s">
+        <v>17</v>
+      </c>
+      <c r="L136" t="s"/>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>44154.68068962963</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1882</v>
+      </c>
+      <c r="D137" t="s">
+        <v>451</v>
+      </c>
+      <c r="E137" t="s">
+        <v>452</v>
+      </c>
+      <c r="F137" t="s">
+        <v>453</v>
+      </c>
+      <c r="G137" t="s">
+        <v>454</v>
+      </c>
+      <c r="H137" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" t="s">
+        <v>18</v>
+      </c>
+      <c r="J137" t="s">
+        <v>428</v>
+      </c>
+      <c r="K137" t="s">
+        <v>26</v>
+      </c>
+      <c r="L137" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>44154.68186581018</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1175</v>
+      </c>
+      <c r="D138" t="s">
+        <v>456</v>
+      </c>
+      <c r="E138" t="s">
+        <v>457</v>
+      </c>
+      <c r="F138" t="s">
+        <v>458</v>
+      </c>
+      <c r="G138" t="s">
+        <v>459</v>
+      </c>
+      <c r="H138" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138" t="s">
+        <v>19</v>
+      </c>
+      <c r="J138" t="s">
+        <v>71</v>
+      </c>
+      <c r="K138" t="s">
+        <v>17</v>
+      </c>
+      <c r="L138" t="s"/>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>44154.68270211806</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1528</v>
+      </c>
+      <c r="D139" t="s">
+        <v>460</v>
+      </c>
+      <c r="E139" t="s">
+        <v>461</v>
+      </c>
+      <c r="F139" t="s">
+        <v>462</v>
+      </c>
+      <c r="G139" t="s">
+        <v>399</v>
+      </c>
+      <c r="H139" t="s">
+        <v>127</v>
+      </c>
+      <c r="I139" t="s">
+        <v>25</v>
+      </c>
+      <c r="J139" t="s">
+        <v>25</v>
+      </c>
+      <c r="K139" t="s">
+        <v>19</v>
+      </c>
+      <c r="L139" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>44154.68296275463</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1838</v>
+      </c>
+      <c r="D140" t="s">
+        <v>464</v>
+      </c>
+      <c r="E140" t="s">
+        <v>465</v>
+      </c>
+      <c r="F140" t="s">
+        <v>466</v>
+      </c>
+      <c r="G140" t="s">
+        <v>467</v>
+      </c>
+      <c r="H140" t="s">
+        <v>43</v>
+      </c>
+      <c r="I140" t="s">
+        <v>18</v>
+      </c>
+      <c r="J140" t="s">
+        <v>38</v>
+      </c>
+      <c r="K140" t="s">
+        <v>19</v>
+      </c>
+      <c r="L140" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>44154.68356502315</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1924</v>
+      </c>
+      <c r="D141" t="s">
+        <v>469</v>
+      </c>
+      <c r="E141" t="s">
+        <v>470</v>
+      </c>
+      <c r="F141" t="s">
+        <v>471</v>
+      </c>
+      <c r="G141" t="s">
+        <v>472</v>
+      </c>
+      <c r="H141" t="s">
+        <v>31</v>
+      </c>
+      <c r="I141" t="s">
+        <v>17</v>
+      </c>
+      <c r="J141" t="s">
+        <v>26</v>
+      </c>
+      <c r="K141" t="s">
+        <v>17</v>
+      </c>
+      <c r="L141" t="s"/>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>44154.6841640625</v>
+      </c>
+      <c r="C142" t="n">
+        <v>3611</v>
+      </c>
+      <c r="D142" t="s">
+        <v>473</v>
+      </c>
+      <c r="E142" t="s">
+        <v>474</v>
+      </c>
+      <c r="F142" t="s">
+        <v>475</v>
+      </c>
+      <c r="G142" t="s">
+        <v>476</v>
+      </c>
+      <c r="H142" t="s">
+        <v>31</v>
+      </c>
+      <c r="I142" t="s">
+        <v>31</v>
+      </c>
+      <c r="J142" t="s">
+        <v>38</v>
+      </c>
+      <c r="K142" t="s">
+        <v>19</v>
+      </c>
+      <c r="L142" t="s"/>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>44154.68457054398</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1065</v>
+      </c>
+      <c r="D143" t="s">
+        <v>477</v>
+      </c>
+      <c r="E143" t="s">
+        <v>478</v>
+      </c>
+      <c r="F143" t="s">
+        <v>479</v>
+      </c>
+      <c r="G143" t="s">
+        <v>480</v>
+      </c>
+      <c r="H143" t="s">
+        <v>31</v>
+      </c>
+      <c r="I143" t="s">
+        <v>19</v>
+      </c>
+      <c r="J143" t="s">
+        <v>26</v>
+      </c>
+      <c r="K143" t="s">
+        <v>17</v>
+      </c>
+      <c r="L143" t="s"/>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>44154.68556002315</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2475</v>
+      </c>
+      <c r="D144" t="s">
+        <v>481</v>
+      </c>
+      <c r="E144" t="s">
+        <v>482</v>
+      </c>
+      <c r="F144" t="s">
+        <v>483</v>
+      </c>
+      <c r="G144" t="s">
+        <v>249</v>
+      </c>
+      <c r="H144" t="s">
+        <v>116</v>
+      </c>
+      <c r="I144" t="s">
+        <v>18</v>
+      </c>
+      <c r="J144" t="s">
+        <v>17</v>
+      </c>
+      <c r="K144" t="s">
+        <v>17</v>
+      </c>
+      <c r="L144" t="s"/>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>44154.68630527778</v>
+      </c>
+      <c r="C145" t="n">
+        <v>3042</v>
+      </c>
+      <c r="D145" t="s">
+        <v>484</v>
+      </c>
+      <c r="E145" t="s">
+        <v>485</v>
+      </c>
+      <c r="F145" t="s">
+        <v>486</v>
+      </c>
+      <c r="G145" t="s">
+        <v>487</v>
+      </c>
+      <c r="H145" t="s">
+        <v>17</v>
+      </c>
+      <c r="I145" t="s">
+        <v>18</v>
+      </c>
+      <c r="J145" t="s">
+        <v>19</v>
+      </c>
+      <c r="K145" t="s">
+        <v>19</v>
+      </c>
+      <c r="L145" t="s"/>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>44154.68673292824</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1903</v>
+      </c>
+      <c r="D146" t="s">
+        <v>488</v>
+      </c>
+      <c r="E146" t="s">
+        <v>489</v>
+      </c>
+      <c r="F146" t="s">
+        <v>490</v>
+      </c>
+      <c r="G146" t="s">
+        <v>491</v>
+      </c>
+      <c r="H146" t="s">
+        <v>24</v>
+      </c>
+      <c r="I146" t="s">
+        <v>17</v>
+      </c>
+      <c r="J146" t="s">
+        <v>26</v>
+      </c>
+      <c r="K146" t="s">
+        <v>17</v>
+      </c>
+      <c r="L146" t="s"/>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>44154.6878003588</v>
+      </c>
+      <c r="C147" t="n">
+        <v>615</v>
+      </c>
+      <c r="D147" t="s">
+        <v>492</v>
+      </c>
+      <c r="E147" t="s">
+        <v>493</v>
+      </c>
+      <c r="F147" t="s">
+        <v>494</v>
+      </c>
+      <c r="G147" t="s">
+        <v>495</v>
+      </c>
+      <c r="H147" t="s">
+        <v>127</v>
+      </c>
+      <c r="I147" t="s">
+        <v>49</v>
+      </c>
+      <c r="J147" t="s">
+        <v>26</v>
+      </c>
+      <c r="K147" t="s">
+        <v>19</v>
+      </c>
+      <c r="L147" t="s"/>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>44154.68797761574</v>
+      </c>
+      <c r="C148" t="n">
+        <v>3195</v>
+      </c>
+      <c r="D148" t="s">
+        <v>496</v>
+      </c>
+      <c r="E148" t="s">
+        <v>497</v>
+      </c>
+      <c r="F148" t="s">
+        <v>498</v>
+      </c>
+      <c r="G148" t="s">
+        <v>499</v>
+      </c>
+      <c r="H148" t="s">
+        <v>43</v>
+      </c>
+      <c r="I148" t="s">
+        <v>18</v>
+      </c>
+      <c r="J148" t="s">
+        <v>38</v>
+      </c>
+      <c r="K148" t="s">
+        <v>19</v>
+      </c>
+      <c r="L148" t="s"/>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>44154.68839364583</v>
+      </c>
+      <c r="C149" t="n">
+        <v>3134</v>
+      </c>
+      <c r="D149" t="s">
+        <v>500</v>
+      </c>
+      <c r="E149" t="s">
+        <v>501</v>
+      </c>
+      <c r="F149" t="s">
+        <v>502</v>
+      </c>
+      <c r="G149" t="s">
+        <v>503</v>
+      </c>
+      <c r="H149" t="s">
+        <v>26</v>
+      </c>
+      <c r="I149" t="s">
+        <v>18</v>
+      </c>
+      <c r="J149" t="s">
+        <v>49</v>
+      </c>
+      <c r="K149" t="s">
+        <v>19</v>
+      </c>
+      <c r="L149" t="s"/>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>44154.68914657408</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D150" t="s">
+        <v>504</v>
+      </c>
+      <c r="E150" t="s">
+        <v>505</v>
+      </c>
+      <c r="F150" t="s">
+        <v>506</v>
+      </c>
+      <c r="G150" t="s">
+        <v>507</v>
+      </c>
+      <c r="H150" t="s">
+        <v>31</v>
+      </c>
+      <c r="I150" t="s">
+        <v>19</v>
+      </c>
+      <c r="J150" t="s">
+        <v>26</v>
+      </c>
+      <c r="K150" t="s">
+        <v>19</v>
+      </c>
+      <c r="L150" t="s"/>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>44154.68949501157</v>
+      </c>
+      <c r="C151" t="n">
+        <v>3395</v>
+      </c>
+      <c r="D151" t="s">
+        <v>508</v>
+      </c>
+      <c r="E151" t="s">
+        <v>509</v>
+      </c>
+      <c r="F151" t="s">
+        <v>510</v>
+      </c>
+      <c r="G151" t="s">
+        <v>511</v>
+      </c>
+      <c r="H151" t="s">
+        <v>43</v>
+      </c>
+      <c r="I151" t="s">
+        <v>18</v>
+      </c>
+      <c r="J151" t="s">
+        <v>38</v>
+      </c>
+      <c r="K151" t="s">
+        <v>19</v>
+      </c>
+      <c r="L151" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>44154.68986456018</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1760</v>
+      </c>
+      <c r="D152" t="s">
+        <v>513</v>
+      </c>
+      <c r="E152" t="s">
+        <v>514</v>
+      </c>
+      <c r="F152" t="s">
+        <v>515</v>
+      </c>
+      <c r="G152" t="s">
+        <v>516</v>
+      </c>
+      <c r="H152" t="s">
+        <v>43</v>
+      </c>
+      <c r="I152" t="s">
+        <v>18</v>
+      </c>
+      <c r="J152" t="s">
+        <v>38</v>
+      </c>
+      <c r="K152" t="s">
+        <v>19</v>
+      </c>
+      <c r="L152" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>44154.69036902778</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D153" t="s">
+        <v>518</v>
+      </c>
+      <c r="E153" t="s">
+        <v>519</v>
+      </c>
+      <c r="F153" t="s">
+        <v>520</v>
+      </c>
+      <c r="G153" t="s">
+        <v>111</v>
+      </c>
+      <c r="H153" t="s">
+        <v>24</v>
+      </c>
+      <c r="I153" t="s">
+        <v>19</v>
+      </c>
+      <c r="J153" t="s">
+        <v>17</v>
+      </c>
+      <c r="K153" t="s">
+        <v>17</v>
+      </c>
+      <c r="L153" t="s"/>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" s="2" t="n">
         <v>44154.69077488426</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C154" t="n">
         <v>440</v>
       </c>
-      <c r="D133" t="s">
-        <v>430</v>
-      </c>
-      <c r="E133" t="s">
-        <v>431</v>
-      </c>
-      <c r="F133" t="s">
-        <v>432</v>
-      </c>
-      <c r="G133" t="s">
-        <v>219</v>
-      </c>
-      <c r="H133" t="s">
-        <v>28</v>
-      </c>
-      <c r="I133" t="s">
+      <c r="D154" t="s">
+        <v>521</v>
+      </c>
+      <c r="E154" t="s">
+        <v>522</v>
+      </c>
+      <c r="F154" t="s">
+        <v>523</v>
+      </c>
+      <c r="G154" t="s">
+        <v>311</v>
+      </c>
+      <c r="H154" t="s">
+        <v>17</v>
+      </c>
+      <c r="I154" t="s">
         <v>18</v>
       </c>
-      <c r="J133" t="s">
-        <v>19</v>
-      </c>
-      <c r="K133" t="s">
-        <v>20</v>
-      </c>
-      <c r="L133" t="s"/>
+      <c r="J154" t="s">
+        <v>49</v>
+      </c>
+      <c r="K154" t="s">
+        <v>19</v>
+      </c>
+      <c r="L154" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models-combined.xlsx
+++ b/classification-record/session-all-models-combined.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="553">
   <si>
     <t>Name</t>
   </si>
@@ -56,6 +56,126 @@
     <t>Alex</t>
   </si>
   <si>
+    <t>Exploring the secret world of vaporizer tricks and mods</t>
+  </si>
+  <si>
+    <t>wqplhtADAzc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wqplhtADAzc</t>
+  </si>
+  <si>
+    <t>The Verge</t>
+  </si>
+  <si>
+    <t>1 3 7</t>
+  </si>
+  <si>
+    <t>1 3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>tech review conglomorate</t>
+  </si>
+  <si>
+    <t>Vaping Valerian Root in Your Ascent Vaporizer - You Can Vape What?!</t>
+  </si>
+  <si>
+    <t>8t8shEaXkH8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8t8shEaXkH8</t>
+  </si>
+  <si>
+    <t>DaVinci Vaporizer</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>dry herb vape</t>
+  </si>
+  <si>
+    <t>Tutorial - How to Refill your Electronic Cigarette</t>
+  </si>
+  <si>
+    <t>-fPrR_A66vg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-fPrR_A66vg</t>
+  </si>
+  <si>
+    <t>blu UK</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>vape pen manufacturer (blu)</t>
+  </si>
+  <si>
+    <t>Elton John - Club At The End Of The Street</t>
+  </si>
+  <si>
+    <t>m34NGreosnE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m34NGreosnE</t>
+  </si>
+  <si>
+    <t>EltonJohnVEVO</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>$15 Vape Juice vs. $500 Vape Juice</t>
+  </si>
+  <si>
+    <t>bWcTXkyEarQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bWcTXkyEarQ</t>
+  </si>
+  <si>
+    <t>Ryan Hall</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>VooPoo Vinci 40W Mod Pod - Unboxing &amp; Review</t>
+  </si>
+  <si>
+    <t>1-8tSpGbYCo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1-8tSpGbYCo</t>
+  </si>
+  <si>
+    <t>180 SMOKE VAPE STORE</t>
+  </si>
+  <si>
     <t>Electronic Cigarettes and Vaping</t>
   </si>
   <si>
@@ -68,15 +188,6 @@
     <t>David Geffen School of Medicine UCLA</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>My blu rewick refill hack!!my blu refillable pod system hack</t>
   </si>
   <si>
@@ -92,9 +203,6 @@
     <t>3 7</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -110,9 +218,6 @@
     <t>FlavourVapour</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>4 5</t>
   </si>
   <si>
@@ -131,9 +236,6 @@
     <t>LiamsGhosts</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Britney Spears - Till The World Ends (Official Video)</t>
   </si>
   <si>
@@ -146,9 +248,6 @@
     <t>BritneySpearsVEVO</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t xml:space="preserve">britney spears song </t>
   </si>
   <si>
@@ -164,9 +263,6 @@
     <t>MSNBC</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>How to make a wood Box mod</t>
   </si>
   <si>
@@ -230,9 +326,6 @@
     <t>DIY or DIE</t>
   </si>
   <si>
-    <t>0 1</t>
-  </si>
-  <si>
     <t>diy vape juice blog website</t>
   </si>
   <si>
@@ -365,9 +458,6 @@
     <t>bigclivedotcom</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>electronic cigar</t>
   </si>
   <si>
@@ -396,9 +486,6 @@
   </si>
   <si>
     <t>Jacquelyn Lovene</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>flair vapor salt nic disposable</t>
@@ -1939,7 +2026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L154"/>
+  <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1990,10 +2077,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44155.73170660085</v>
+        <v>44159.74467407673</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>3276</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -2017,82 +2104,86 @@
         <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44155.732383141</v>
+        <v>44159.74606818341</v>
       </c>
       <c r="C3" t="n">
-        <v>987</v>
+        <v>2253</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44155.73315965265</v>
+        <v>44159.74687034133</v>
       </c>
       <c r="C4" t="n">
-        <v>2249</v>
+        <v>3098</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2100,34 +2191,34 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44155.73395746105</v>
+        <v>44159.74722585585</v>
       </c>
       <c r="C5" t="n">
-        <v>666</v>
+        <v>2345</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s"/>
     </row>
@@ -2136,72 +2227,70 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44155.7342548639</v>
+        <v>44159.74879220389</v>
       </c>
       <c r="C6" t="n">
-        <v>3088</v>
+        <v>513</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s">
-        <v>44</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L6" t="s"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44155.73473485712</v>
+        <v>44159.7493945417</v>
       </c>
       <c r="C7" t="n">
-        <v>175</v>
+        <v>1256</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
         <v>48</v>
       </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>49</v>
-      </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L7" t="s"/>
     </row>
@@ -2210,34 +2299,34 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44155.73540617069</v>
+        <v>44155.73170659722</v>
       </c>
       <c r="C8" t="n">
-        <v>864</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s"/>
     </row>
@@ -2246,108 +2335,108 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44155.73567726698</v>
+        <v>44155.73238313657</v>
       </c>
       <c r="C9" t="n">
-        <v>1644</v>
+        <v>987</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" t="s">
-        <v>58</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L9" t="s"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44155.73785228613</v>
+        <v>44155.73315965278</v>
       </c>
       <c r="C10" t="n">
-        <v>737</v>
+        <v>2249</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44155.73837494401</v>
+        <v>44155.73395746528</v>
       </c>
       <c r="C11" t="n">
-        <v>3379</v>
+        <v>666</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s"/>
     </row>
@@ -2356,37 +2445,37 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44155.73969543621</v>
+        <v>44155.73425486111</v>
       </c>
       <c r="C12" t="n">
-        <v>3246</v>
+        <v>3088</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2394,34 +2483,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44155.74013663828</v>
+        <v>44155.73473486111</v>
       </c>
       <c r="C13" t="n">
-        <v>1297</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s"/>
     </row>
@@ -2430,34 +2519,34 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44155.74047944992</v>
+        <v>44155.73540616898</v>
       </c>
       <c r="C14" t="n">
-        <v>1555</v>
+        <v>864</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L14" t="s"/>
     </row>
@@ -2466,70 +2555,72 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44155.74120950996</v>
+        <v>44155.73567726852</v>
       </c>
       <c r="C15" t="n">
-        <v>1536</v>
+        <v>1644</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44155.74188298043</v>
+        <v>44155.73785229167</v>
       </c>
       <c r="C16" t="n">
-        <v>167</v>
+        <v>737</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="K16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L16" t="s"/>
     </row>
@@ -2538,75 +2629,73 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44155.74249111758</v>
+        <v>44155.73837494213</v>
       </c>
       <c r="C17" t="n">
-        <v>222</v>
+        <v>3379</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" t="s">
-        <v>93</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L17" t="s"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44155.74277087588</v>
+        <v>44155.73969543981</v>
       </c>
       <c r="C18" t="n">
-        <v>3216</v>
+        <v>3246</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J18" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="L18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2614,34 +2703,34 @@
         <v>12</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44155.74296745592</v>
+        <v>44155.74013664352</v>
       </c>
       <c r="C19" t="n">
-        <v>3110</v>
+        <v>1297</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="K19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L19" t="s"/>
     </row>
@@ -2650,34 +2739,34 @@
         <v>12</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44155.74395903489</v>
+        <v>44155.74047944444</v>
       </c>
       <c r="C20" t="n">
-        <v>138</v>
+        <v>1555</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H20" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="K20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L20" t="s"/>
     </row>
@@ -2686,34 +2775,34 @@
         <v>12</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44155.744287699</v>
+        <v>44155.74120951389</v>
       </c>
       <c r="C21" t="n">
-        <v>1022</v>
+        <v>1536</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H21" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
         <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="K21" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="L21" t="s"/>
     </row>
@@ -2722,75 +2811,73 @@
         <v>12</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44155.74493397953</v>
+        <v>44155.74188298611</v>
       </c>
       <c r="C22" t="n">
-        <v>1466</v>
+        <v>167</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G22" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I22" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" t="s">
-        <v>117</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L22" t="s"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44154.7721688426</v>
+        <v>44155.74249112268</v>
       </c>
       <c r="C23" t="n">
-        <v>1765</v>
+        <v>222</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I23" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2798,70 +2885,72 @@
         <v>12</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44154.77410748843</v>
+        <v>44155.74277087963</v>
       </c>
       <c r="C24" t="n">
-        <v>2940</v>
+        <v>3216</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H24" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K24" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L24" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44154.77493980324</v>
+        <v>44155.74296745371</v>
       </c>
       <c r="C25" t="n">
-        <v>3744</v>
+        <v>3110</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L25" t="s"/>
     </row>
@@ -2870,34 +2959,34 @@
         <v>12</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44154.77544891203</v>
+        <v>44155.74395903936</v>
       </c>
       <c r="C26" t="n">
-        <v>3469</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="I26" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L26" t="s"/>
     </row>
@@ -2906,34 +2995,34 @@
         <v>12</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>44154.77620284722</v>
+        <v>44155.74428769676</v>
       </c>
       <c r="C27" t="n">
-        <v>1419</v>
+        <v>1022</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F27" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G27" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K27" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="L27" t="s"/>
     </row>
@@ -2942,106 +3031,110 @@
         <v>12</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>44154.77733231481</v>
+        <v>44155.74493398148</v>
       </c>
       <c r="C28" t="n">
-        <v>2861</v>
+        <v>1466</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F28" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G28" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H28" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I28" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K28" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L28" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>44154.778458125</v>
+        <v>44154.7721688426</v>
       </c>
       <c r="C29" t="n">
-        <v>229</v>
+        <v>1765</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F29" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G29" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H29" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I29" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K29" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L29" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>44154.77909887731</v>
+        <v>44154.77410748843</v>
       </c>
       <c r="C30" t="n">
-        <v>1277</v>
+        <v>2940</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F30" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G30" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J30" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K30" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L30" t="s"/>
     </row>
@@ -3050,72 +3143,70 @@
         <v>12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>44154.78025189815</v>
+        <v>44154.77493980324</v>
       </c>
       <c r="C31" t="n">
-        <v>1136</v>
+        <v>3744</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F31" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G31" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H31" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="J31" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="K31" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" t="s">
-        <v>156</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L31" t="s"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>44154.7886525463</v>
+        <v>44154.77544891203</v>
       </c>
       <c r="C32" t="n">
-        <v>768</v>
+        <v>3469</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E32" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F32" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G32" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H32" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J32" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L32" t="s"/>
     </row>
@@ -3124,72 +3215,70 @@
         <v>12</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>44154.79067495371</v>
+        <v>44154.77620284722</v>
       </c>
       <c r="C33" t="n">
-        <v>445</v>
+        <v>1419</v>
       </c>
       <c r="D33" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F33" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G33" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H33" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K33" t="s">
-        <v>17</v>
-      </c>
-      <c r="L33" t="s">
-        <v>165</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L33" t="s"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44154.79188466435</v>
+        <v>44154.77733231481</v>
       </c>
       <c r="C34" t="n">
-        <v>794</v>
+        <v>2861</v>
       </c>
       <c r="D34" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E34" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F34" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G34" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L34" t="s"/>
     </row>
@@ -3198,72 +3287,70 @@
         <v>12</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44154.79298895833</v>
+        <v>44154.778458125</v>
       </c>
       <c r="C35" t="n">
-        <v>1948</v>
+        <v>229</v>
       </c>
       <c r="D35" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E35" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F35" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G35" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H35" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J35" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="K35" t="s">
-        <v>26</v>
-      </c>
-      <c r="L35" t="s">
-        <v>173</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L35" t="s"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44154.79340069444</v>
+        <v>44154.77909887731</v>
       </c>
       <c r="C36" t="n">
-        <v>1429</v>
+        <v>1277</v>
       </c>
       <c r="D36" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E36" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F36" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G36" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H36" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J36" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="K36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L36" t="s"/>
     </row>
@@ -3272,111 +3359,111 @@
         <v>12</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44154.79398876157</v>
+        <v>44154.78025189815</v>
       </c>
       <c r="C37" t="n">
-        <v>1511</v>
+        <v>1136</v>
       </c>
       <c r="D37" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E37" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F37" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G37" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H37" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I37" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J37" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K37" t="s">
-        <v>19</v>
-      </c>
-      <c r="L37" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L37" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>44154.79457364584</v>
+        <v>44154.7886525463</v>
       </c>
       <c r="C38" t="n">
-        <v>2860</v>
+        <v>768</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E38" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F38" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G38" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J38" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="K38" t="s">
-        <v>19</v>
-      </c>
-      <c r="L38" t="s">
-        <v>186</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L38" t="s"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>44154.79515041666</v>
+        <v>44154.79067495371</v>
       </c>
       <c r="C39" t="n">
-        <v>2376</v>
+        <v>445</v>
       </c>
       <c r="D39" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E39" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F39" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G39" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H39" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J39" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K39" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L39" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3384,34 +3471,34 @@
         <v>12</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44154.79556157407</v>
+        <v>44154.79188466435</v>
       </c>
       <c r="C40" t="n">
-        <v>1997</v>
+        <v>794</v>
       </c>
       <c r="D40" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E40" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40" t="s">
+        <v>197</v>
+      </c>
+      <c r="G40" t="s">
         <v>193</v>
       </c>
-      <c r="F40" t="s">
-        <v>194</v>
-      </c>
-      <c r="G40" t="s">
-        <v>195</v>
-      </c>
       <c r="H40" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s">
         <v>19</v>
       </c>
-      <c r="J40" t="s">
-        <v>26</v>
-      </c>
       <c r="K40" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L40" t="s"/>
     </row>
@@ -3420,37 +3507,37 @@
         <v>12</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44154.79606214121</v>
+        <v>44154.79298895833</v>
       </c>
       <c r="C41" t="n">
-        <v>595</v>
+        <v>1948</v>
       </c>
       <c r="D41" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E41" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F41" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G41" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="H41" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J41" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="K41" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="L41" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3458,72 +3545,70 @@
         <v>12</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44154.79688260417</v>
+        <v>44154.79340069444</v>
       </c>
       <c r="C42" t="n">
-        <v>3715</v>
+        <v>1429</v>
       </c>
       <c r="D42" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E42" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F42" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G42" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="J42" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="K42" t="s">
-        <v>19</v>
-      </c>
-      <c r="L42" t="s">
-        <v>203</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L42" t="s"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44154.79758924768</v>
+        <v>44154.79398876157</v>
       </c>
       <c r="C43" t="n">
-        <v>3369</v>
+        <v>1511</v>
       </c>
       <c r="D43" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E43" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F43" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G43" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H43" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J43" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L43" t="s"/>
     </row>
@@ -3532,73 +3617,75 @@
         <v>12</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44154.79803195602</v>
+        <v>44154.79457364584</v>
       </c>
       <c r="C44" t="n">
-        <v>1824</v>
+        <v>2860</v>
       </c>
       <c r="D44" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E44" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F44" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G44" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I44" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J44" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K44" t="s">
-        <v>19</v>
-      </c>
-      <c r="L44" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L44" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44154.7984553125</v>
+        <v>44154.79515041666</v>
       </c>
       <c r="C45" t="n">
-        <v>583</v>
+        <v>2376</v>
       </c>
       <c r="D45" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E45" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F45" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="H45" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I45" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J45" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L45" t="s">
-        <v>165</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3606,34 +3693,34 @@
         <v>12</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44154.79909991898</v>
+        <v>44154.79556157407</v>
       </c>
       <c r="C46" t="n">
-        <v>1271</v>
+        <v>1997</v>
       </c>
       <c r="D46" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E46" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F46" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G46" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="H46" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J46" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="K46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L46" t="s"/>
     </row>
@@ -3642,73 +3729,75 @@
         <v>12</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44154.80007766204</v>
+        <v>44154.79606214121</v>
       </c>
       <c r="C47" t="n">
-        <v>1869</v>
+        <v>595</v>
       </c>
       <c r="D47" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E47" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F47" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G47" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="H47" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J47" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K47" t="s">
-        <v>19</v>
-      </c>
-      <c r="L47" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L47" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>12</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44154.69819569444</v>
+        <v>44154.79688260417</v>
       </c>
       <c r="C48" t="n">
-        <v>702</v>
+        <v>3715</v>
       </c>
       <c r="D48" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E48" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F48" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="H48" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="I48" t="s">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="J48" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L48" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3716,72 +3805,70 @@
         <v>12</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44154.69934395833</v>
+        <v>44154.79758924768</v>
       </c>
       <c r="C49" t="n">
-        <v>423</v>
+        <v>3369</v>
       </c>
       <c r="D49" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E49" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F49" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G49" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J49" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="K49" t="s">
-        <v>19</v>
-      </c>
-      <c r="L49" t="s">
-        <v>232</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L49" t="s"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44154.69987591435</v>
+        <v>44154.79803195602</v>
       </c>
       <c r="C50" t="n">
-        <v>211</v>
+        <v>1824</v>
       </c>
       <c r="D50" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E50" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F50" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G50" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H50" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I50" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J50" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L50" t="s"/>
     </row>
@@ -3790,37 +3877,37 @@
         <v>12</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44154.70088510417</v>
+        <v>44154.7984553125</v>
       </c>
       <c r="C51" t="n">
-        <v>3419</v>
+        <v>583</v>
       </c>
       <c r="D51" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E51" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F51" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G51" t="s">
-        <v>240</v>
+        <v>66</v>
       </c>
       <c r="H51" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J51" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L51" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3828,34 +3915,34 @@
         <v>12</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44154.70140253472</v>
+        <v>44154.79909991898</v>
       </c>
       <c r="C52" t="n">
-        <v>2074</v>
+        <v>1271</v>
       </c>
       <c r="D52" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E52" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F52" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G52" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H52" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J52" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="K52" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L52" t="s"/>
     </row>
@@ -3864,34 +3951,34 @@
         <v>12</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44154.70263350695</v>
+        <v>44154.80007766204</v>
       </c>
       <c r="C53" t="n">
-        <v>183</v>
+        <v>1869</v>
       </c>
       <c r="D53" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E53" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F53" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G53" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J53" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="K53" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L53" t="s"/>
     </row>
@@ -3900,180 +3987,184 @@
         <v>12</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44154.70319071759</v>
+        <v>44154.69819569444</v>
       </c>
       <c r="C54" t="n">
-        <v>847</v>
+        <v>702</v>
       </c>
       <c r="D54" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E54" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F54" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G54" t="s">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="H54" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I54" t="s">
+        <v>255</v>
+      </c>
+      <c r="J54" t="s">
         <v>19</v>
       </c>
-      <c r="J54" t="s">
-        <v>26</v>
-      </c>
       <c r="K54" t="s">
-        <v>19</v>
-      </c>
-      <c r="L54" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L54" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>12</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>44154.70363350694</v>
+        <v>44154.69934395833</v>
       </c>
       <c r="C55" t="n">
-        <v>27</v>
+        <v>423</v>
       </c>
       <c r="D55" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E55" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F55" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G55" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H55" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I55" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J55" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="K55" t="s">
-        <v>19</v>
-      </c>
-      <c r="L55" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L55" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>12</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44154.70392996528</v>
+        <v>44154.69987591435</v>
       </c>
       <c r="C56" t="n">
-        <v>1587</v>
+        <v>211</v>
       </c>
       <c r="D56" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E56" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F56" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G56" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H56" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J56" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="K56" t="s">
-        <v>19</v>
-      </c>
-      <c r="L56" t="s">
-        <v>261</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L56" t="s"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>12</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44154.70447649305</v>
+        <v>44154.70088510417</v>
       </c>
       <c r="C57" t="n">
-        <v>1510</v>
+        <v>3419</v>
       </c>
       <c r="D57" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E57" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F57" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G57" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H57" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I57" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J57" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K57" t="s">
-        <v>19</v>
-      </c>
-      <c r="L57" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L57" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>12</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44154.70549010417</v>
+        <v>44154.70140253472</v>
       </c>
       <c r="C58" t="n">
-        <v>631</v>
+        <v>2074</v>
       </c>
       <c r="D58" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E58" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F58" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G58" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H58" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J58" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="K58" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L58" t="s"/>
     </row>
@@ -4082,34 +4173,34 @@
         <v>12</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44154.70597778935</v>
+        <v>44154.70263350695</v>
       </c>
       <c r="C59" t="n">
-        <v>2198</v>
+        <v>183</v>
       </c>
       <c r="D59" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E59" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F59" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G59" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="H59" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I59" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J59" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="K59" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L59" t="s"/>
     </row>
@@ -4118,72 +4209,70 @@
         <v>12</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44154.70629576389</v>
+        <v>44154.70319071759</v>
       </c>
       <c r="C60" t="n">
-        <v>3797</v>
+        <v>847</v>
       </c>
       <c r="D60" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E60" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F60" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G60" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="H60" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J60" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="K60" t="s">
-        <v>19</v>
-      </c>
-      <c r="L60" t="s">
-        <v>278</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L60" t="s"/>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44154.70677894676</v>
+        <v>44154.70363350694</v>
       </c>
       <c r="C61" t="n">
-        <v>275</v>
+        <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E61" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F61" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G61" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H61" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I61" t="s">
-        <v>283</v>
+        <v>41</v>
       </c>
       <c r="J61" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L61" t="s"/>
     </row>
@@ -4192,108 +4281,108 @@
         <v>12</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44154.70703077546</v>
+        <v>44154.70392996528</v>
       </c>
       <c r="C62" t="n">
-        <v>392</v>
+        <v>1587</v>
       </c>
       <c r="D62" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E62" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F62" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G62" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H62" t="s">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="I62" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K62" t="s">
-        <v>19</v>
-      </c>
-      <c r="L62" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L62" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>12</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44154.70736740741</v>
+        <v>44154.70447649305</v>
       </c>
       <c r="C63" t="n">
-        <v>1906</v>
+        <v>1510</v>
       </c>
       <c r="D63" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E63" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F63" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>294</v>
       </c>
       <c r="H63" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J63" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K63" t="s">
-        <v>19</v>
-      </c>
-      <c r="L63" t="s">
-        <v>292</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L63" t="s"/>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>12</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44154.70763553241</v>
+        <v>44154.70549010417</v>
       </c>
       <c r="C64" t="n">
-        <v>2977</v>
+        <v>631</v>
       </c>
       <c r="D64" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E64" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F64" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G64" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H64" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J64" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="K64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L64" t="s"/>
     </row>
@@ -4302,34 +4391,34 @@
         <v>12</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44154.70829784722</v>
+        <v>44154.70597778935</v>
       </c>
       <c r="C65" t="n">
-        <v>465</v>
+        <v>2198</v>
       </c>
       <c r="D65" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E65" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F65" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G65" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H65" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J65" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="K65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L65" t="s"/>
     </row>
@@ -4338,37 +4427,37 @@
         <v>12</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44154.70866863426</v>
+        <v>44154.70629576389</v>
       </c>
       <c r="C66" t="n">
-        <v>566</v>
+        <v>3797</v>
       </c>
       <c r="D66" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E66" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F66" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="H66" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I66" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J66" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L66" t="s">
-        <v>165</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4376,34 +4465,34 @@
         <v>12</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44154.70929016203</v>
+        <v>44154.70677894676</v>
       </c>
       <c r="C67" t="n">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="D67" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E67" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F67" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G67" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H67" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="J67" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L67" t="s"/>
     </row>
@@ -4412,108 +4501,108 @@
         <v>12</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44154.70976986111</v>
+        <v>44154.70703077546</v>
       </c>
       <c r="C68" t="n">
-        <v>1837</v>
+        <v>392</v>
       </c>
       <c r="D68" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E68" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F68" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G68" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H68" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="I68" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="K68" t="s">
-        <v>19</v>
-      </c>
-      <c r="L68" t="s">
-        <v>312</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L68" t="s"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>12</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44154.71052581019</v>
+        <v>44154.70736740741</v>
       </c>
       <c r="C69" t="n">
-        <v>1446</v>
+        <v>1906</v>
       </c>
       <c r="D69" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E69" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F69" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G69" t="s">
-        <v>316</v>
+        <v>66</v>
       </c>
       <c r="H69" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J69" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K69" t="s">
-        <v>19</v>
-      </c>
-      <c r="L69" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L69" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>12</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44154.71083821759</v>
+        <v>44154.70763553241</v>
       </c>
       <c r="C70" t="n">
-        <v>1516</v>
+        <v>2977</v>
       </c>
       <c r="D70" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E70" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F70" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G70" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H70" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J70" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="K70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L70" t="s"/>
     </row>
@@ -4522,108 +4611,108 @@
         <v>12</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44154.71164583333</v>
+        <v>44154.70829784722</v>
       </c>
       <c r="C71" t="n">
-        <v>1975</v>
+        <v>465</v>
       </c>
       <c r="D71" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E71" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F71" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G71" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H71" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I71" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J71" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="K71" t="s">
-        <v>71</v>
-      </c>
-      <c r="L71" t="s">
-        <v>325</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L71" t="s"/>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>12</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44154.71525582176</v>
+        <v>44154.70866863426</v>
       </c>
       <c r="C72" t="n">
-        <v>1508</v>
+        <v>566</v>
       </c>
       <c r="D72" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E72" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F72" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G72" t="s">
-        <v>329</v>
+        <v>66</v>
       </c>
       <c r="H72" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J72" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="K72" t="s">
-        <v>17</v>
-      </c>
-      <c r="L72" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L72" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
         <v>12</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44154.71736768518</v>
+        <v>44154.70929016203</v>
       </c>
       <c r="C73" t="n">
-        <v>2973</v>
+        <v>81</v>
       </c>
       <c r="D73" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E73" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F73" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G73" t="s">
-        <v>231</v>
+        <v>336</v>
       </c>
       <c r="H73" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J73" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L73" t="s"/>
     </row>
@@ -4632,70 +4721,72 @@
         <v>12</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44154.71784644676</v>
+        <v>44154.70976986111</v>
       </c>
       <c r="C74" t="n">
-        <v>2202</v>
+        <v>1837</v>
       </c>
       <c r="D74" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E74" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F74" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G74" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H74" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I74" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J74" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K74" t="s">
-        <v>71</v>
-      </c>
-      <c r="L74" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L74" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
         <v>12</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44154.71844951389</v>
+        <v>44154.71052581019</v>
       </c>
       <c r="C75" t="n">
-        <v>3156</v>
+        <v>1446</v>
       </c>
       <c r="D75" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="E75" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F75" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="G75" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="H75" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I75" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="J75" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="K75" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L75" t="s"/>
     </row>
@@ -4704,34 +4795,34 @@
         <v>12</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44154.71885400463</v>
+        <v>44154.71083821759</v>
       </c>
       <c r="C76" t="n">
-        <v>2881</v>
+        <v>1516</v>
       </c>
       <c r="D76" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E76" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F76" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G76" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H76" t="s">
-        <v>345</v>
+        <v>61</v>
       </c>
       <c r="I76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J76" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L76" t="s"/>
     </row>
@@ -4740,37 +4831,37 @@
         <v>12</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44154.71972351852</v>
+        <v>44154.71164583333</v>
       </c>
       <c r="C77" t="n">
-        <v>3034</v>
+        <v>1975</v>
       </c>
       <c r="D77" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E77" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F77" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G77" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I77" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J77" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K77" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="L77" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4778,34 +4869,34 @@
         <v>12</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44154.72165902777</v>
+        <v>44154.71525582176</v>
       </c>
       <c r="C78" t="n">
-        <v>986</v>
+        <v>1508</v>
       </c>
       <c r="D78" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E78" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F78" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G78" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H78" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="J78" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="K78" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L78" t="s"/>
     </row>
@@ -4814,34 +4905,34 @@
         <v>12</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>44154.72335130787</v>
+        <v>44154.71736768518</v>
       </c>
       <c r="C79" t="n">
-        <v>2031</v>
+        <v>2973</v>
       </c>
       <c r="D79" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E79" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F79" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G79" t="s">
-        <v>358</v>
+        <v>260</v>
       </c>
       <c r="H79" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="J79" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="K79" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L79" t="s"/>
     </row>
@@ -4850,34 +4941,34 @@
         <v>12</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>44154.72369152778</v>
+        <v>44154.71784644676</v>
       </c>
       <c r="C80" t="n">
-        <v>67</v>
+        <v>2202</v>
       </c>
       <c r="D80" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E80" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F80" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G80" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H80" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J80" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="K80" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="L80" t="s"/>
     </row>
@@ -4886,34 +4977,34 @@
         <v>12</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>44154.7240471875</v>
+        <v>44154.71844951389</v>
       </c>
       <c r="C81" t="n">
-        <v>533</v>
+        <v>3156</v>
       </c>
       <c r="D81" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E81" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F81" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G81" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H81" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I81" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J81" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="K81" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L81" t="s"/>
     </row>
@@ -4922,34 +5013,34 @@
         <v>12</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>44154.72488017361</v>
+        <v>44154.71885400463</v>
       </c>
       <c r="C82" t="n">
-        <v>3716</v>
+        <v>2881</v>
       </c>
       <c r="D82" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E82" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F82" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G82" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H82" t="s">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="I82" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J82" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K82" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L82" t="s"/>
     </row>
@@ -4958,146 +5049,144 @@
         <v>12</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44154.72557752315</v>
+        <v>44154.71972351852</v>
       </c>
       <c r="C83" t="n">
-        <v>2974</v>
+        <v>3034</v>
       </c>
       <c r="D83" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E83" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F83" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G83" t="s">
-        <v>172</v>
+        <v>378</v>
       </c>
       <c r="H83" t="s">
-        <v>374</v>
+        <v>40</v>
       </c>
       <c r="I83" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J83" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K83" t="s">
-        <v>17</v>
-      </c>
-      <c r="L83" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L83" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>12</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>44154.69819569444</v>
+        <v>44154.72165902777</v>
       </c>
       <c r="C84" t="n">
-        <v>702</v>
+        <v>986</v>
       </c>
       <c r="D84" t="s">
-        <v>223</v>
+        <v>380</v>
       </c>
       <c r="E84" t="s">
-        <v>224</v>
+        <v>381</v>
       </c>
       <c r="F84" t="s">
-        <v>225</v>
+        <v>382</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>383</v>
       </c>
       <c r="H84" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="I84" t="s">
-        <v>226</v>
+        <v>41</v>
       </c>
       <c r="J84" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="K84" t="s">
-        <v>19</v>
-      </c>
-      <c r="L84" t="s">
-        <v>227</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L84" t="s"/>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
         <v>12</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>44154.69934395833</v>
+        <v>44154.72335130787</v>
       </c>
       <c r="C85" t="n">
-        <v>423</v>
+        <v>2031</v>
       </c>
       <c r="D85" t="s">
-        <v>228</v>
+        <v>384</v>
       </c>
       <c r="E85" t="s">
-        <v>229</v>
+        <v>385</v>
       </c>
       <c r="F85" t="s">
-        <v>230</v>
+        <v>386</v>
       </c>
       <c r="G85" t="s">
-        <v>231</v>
+        <v>387</v>
       </c>
       <c r="H85" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I85" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J85" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K85" t="s">
-        <v>19</v>
-      </c>
-      <c r="L85" t="s">
-        <v>232</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L85" t="s"/>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
         <v>12</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>44154.69987591435</v>
+        <v>44154.72369152778</v>
       </c>
       <c r="C86" t="n">
-        <v>211</v>
+        <v>67</v>
       </c>
       <c r="D86" t="s">
-        <v>233</v>
+        <v>388</v>
       </c>
       <c r="E86" t="s">
-        <v>234</v>
+        <v>389</v>
       </c>
       <c r="F86" t="s">
-        <v>235</v>
+        <v>390</v>
       </c>
       <c r="G86" t="s">
-        <v>236</v>
+        <v>391</v>
       </c>
       <c r="H86" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J86" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="K86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L86" t="s"/>
     </row>
@@ -5106,72 +5195,70 @@
         <v>12</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>44154.70088510417</v>
+        <v>44154.7240471875</v>
       </c>
       <c r="C87" t="n">
-        <v>3419</v>
+        <v>533</v>
       </c>
       <c r="D87" t="s">
-        <v>237</v>
+        <v>392</v>
       </c>
       <c r="E87" t="s">
-        <v>238</v>
+        <v>393</v>
       </c>
       <c r="F87" t="s">
-        <v>239</v>
+        <v>394</v>
       </c>
       <c r="G87" t="s">
-        <v>240</v>
+        <v>395</v>
       </c>
       <c r="H87" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J87" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="K87" t="s">
-        <v>19</v>
-      </c>
-      <c r="L87" t="s">
-        <v>241</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L87" t="s"/>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
         <v>12</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>44154.70140253472</v>
+        <v>44154.72488017361</v>
       </c>
       <c r="C88" t="n">
-        <v>2074</v>
+        <v>3716</v>
       </c>
       <c r="D88" t="s">
-        <v>242</v>
+        <v>396</v>
       </c>
       <c r="E88" t="s">
-        <v>243</v>
+        <v>397</v>
       </c>
       <c r="F88" t="s">
-        <v>244</v>
+        <v>398</v>
       </c>
       <c r="G88" t="s">
-        <v>245</v>
+        <v>399</v>
       </c>
       <c r="H88" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I88" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J88" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K88" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="L88" t="s"/>
     </row>
@@ -5180,34 +5267,34 @@
         <v>12</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>44154.70263350695</v>
+        <v>44154.72557752315</v>
       </c>
       <c r="C89" t="n">
-        <v>183</v>
+        <v>2974</v>
       </c>
       <c r="D89" t="s">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="E89" t="s">
-        <v>247</v>
+        <v>401</v>
       </c>
       <c r="F89" t="s">
-        <v>248</v>
+        <v>402</v>
       </c>
       <c r="G89" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="H89" t="s">
-        <v>18</v>
+        <v>403</v>
       </c>
       <c r="I89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J89" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K89" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="L89" t="s"/>
     </row>
@@ -5216,180 +5303,184 @@
         <v>12</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>44154.70319071759</v>
+        <v>44154.69819569444</v>
       </c>
       <c r="C90" t="n">
-        <v>847</v>
+        <v>702</v>
       </c>
       <c r="D90" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E90" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F90" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G90" t="s">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="H90" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I90" t="s">
+        <v>255</v>
+      </c>
+      <c r="J90" t="s">
         <v>19</v>
       </c>
-      <c r="J90" t="s">
-        <v>26</v>
-      </c>
       <c r="K90" t="s">
-        <v>19</v>
-      </c>
-      <c r="L90" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L90" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
         <v>12</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>44154.70363350694</v>
+        <v>44154.69934395833</v>
       </c>
       <c r="C91" t="n">
-        <v>27</v>
+        <v>423</v>
       </c>
       <c r="D91" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E91" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F91" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G91" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H91" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I91" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J91" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="K91" t="s">
-        <v>19</v>
-      </c>
-      <c r="L91" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L91" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
         <v>12</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>44154.70392996528</v>
+        <v>44154.69987591435</v>
       </c>
       <c r="C92" t="n">
-        <v>1587</v>
+        <v>211</v>
       </c>
       <c r="D92" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E92" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F92" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G92" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H92" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J92" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="K92" t="s">
-        <v>19</v>
-      </c>
-      <c r="L92" t="s">
-        <v>261</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L92" t="s"/>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
         <v>12</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>44154.70447649305</v>
+        <v>44154.70088510417</v>
       </c>
       <c r="C93" t="n">
-        <v>1510</v>
+        <v>3419</v>
       </c>
       <c r="D93" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E93" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F93" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G93" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H93" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I93" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J93" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K93" t="s">
-        <v>19</v>
-      </c>
-      <c r="L93" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L93" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
         <v>12</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>44154.70549010417</v>
+        <v>44154.70140253472</v>
       </c>
       <c r="C94" t="n">
-        <v>631</v>
+        <v>2074</v>
       </c>
       <c r="D94" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E94" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F94" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G94" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H94" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J94" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="K94" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L94" t="s"/>
     </row>
@@ -5398,34 +5489,34 @@
         <v>12</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>44154.70597778935</v>
+        <v>44154.70263350695</v>
       </c>
       <c r="C95" t="n">
-        <v>2198</v>
+        <v>183</v>
       </c>
       <c r="D95" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E95" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F95" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G95" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="H95" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I95" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J95" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="K95" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L95" t="s"/>
     </row>
@@ -5434,72 +5525,70 @@
         <v>12</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>44154.70629576389</v>
+        <v>44154.70319071759</v>
       </c>
       <c r="C96" t="n">
-        <v>3797</v>
+        <v>847</v>
       </c>
       <c r="D96" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E96" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F96" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G96" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="H96" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J96" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="K96" t="s">
-        <v>19</v>
-      </c>
-      <c r="L96" t="s">
-        <v>278</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L96" t="s"/>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
         <v>12</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>44154.70677894676</v>
+        <v>44154.70363350694</v>
       </c>
       <c r="C97" t="n">
-        <v>275</v>
+        <v>27</v>
       </c>
       <c r="D97" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E97" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F97" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G97" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H97" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I97" t="s">
-        <v>283</v>
+        <v>41</v>
       </c>
       <c r="J97" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K97" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L97" t="s"/>
     </row>
@@ -5508,108 +5597,108 @@
         <v>12</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>44154.70703077546</v>
+        <v>44154.70392996528</v>
       </c>
       <c r="C98" t="n">
-        <v>392</v>
+        <v>1587</v>
       </c>
       <c r="D98" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E98" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F98" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G98" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H98" t="s">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="I98" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K98" t="s">
-        <v>19</v>
-      </c>
-      <c r="L98" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L98" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
         <v>12</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>44154.70736740741</v>
+        <v>44154.70447649305</v>
       </c>
       <c r="C99" t="n">
-        <v>1906</v>
+        <v>1510</v>
       </c>
       <c r="D99" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E99" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F99" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>294</v>
       </c>
       <c r="H99" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J99" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K99" t="s">
-        <v>19</v>
-      </c>
-      <c r="L99" t="s">
-        <v>292</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L99" t="s"/>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
         <v>12</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>44154.70763553241</v>
+        <v>44154.70549010417</v>
       </c>
       <c r="C100" t="n">
-        <v>2977</v>
+        <v>631</v>
       </c>
       <c r="D100" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E100" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F100" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G100" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H100" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J100" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="K100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L100" t="s"/>
     </row>
@@ -5618,34 +5707,34 @@
         <v>12</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>44154.70829784722</v>
+        <v>44154.70597778935</v>
       </c>
       <c r="C101" t="n">
-        <v>465</v>
+        <v>2198</v>
       </c>
       <c r="D101" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E101" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F101" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G101" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H101" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J101" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="K101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L101" t="s"/>
     </row>
@@ -5654,37 +5743,37 @@
         <v>12</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>44154.70866863426</v>
+        <v>44154.70629576389</v>
       </c>
       <c r="C102" t="n">
-        <v>566</v>
+        <v>3797</v>
       </c>
       <c r="D102" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E102" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F102" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="H102" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I102" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J102" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K102" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L102" t="s">
-        <v>165</v>
+        <v>307</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5692,34 +5781,34 @@
         <v>12</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>44154.70929016203</v>
+        <v>44154.70677894676</v>
       </c>
       <c r="C103" t="n">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="D103" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E103" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F103" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G103" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H103" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="J103" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K103" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L103" t="s"/>
     </row>
@@ -5728,108 +5817,108 @@
         <v>12</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>44154.70976986111</v>
+        <v>44154.70703077546</v>
       </c>
       <c r="C104" t="n">
-        <v>1837</v>
+        <v>392</v>
       </c>
       <c r="D104" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E104" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F104" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G104" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H104" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="I104" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="K104" t="s">
-        <v>19</v>
-      </c>
-      <c r="L104" t="s">
-        <v>312</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L104" t="s"/>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
         <v>12</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>44154.71052581019</v>
+        <v>44154.70736740741</v>
       </c>
       <c r="C105" t="n">
-        <v>1446</v>
+        <v>1906</v>
       </c>
       <c r="D105" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E105" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F105" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G105" t="s">
-        <v>316</v>
+        <v>66</v>
       </c>
       <c r="H105" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I105" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J105" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K105" t="s">
-        <v>19</v>
-      </c>
-      <c r="L105" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L105" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
         <v>12</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>44154.71083821759</v>
+        <v>44154.70763553241</v>
       </c>
       <c r="C106" t="n">
-        <v>1516</v>
+        <v>2977</v>
       </c>
       <c r="D106" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E106" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F106" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G106" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H106" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I106" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J106" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="K106" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L106" t="s"/>
     </row>
@@ -5838,108 +5927,108 @@
         <v>12</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>44154.71164583333</v>
+        <v>44154.70829784722</v>
       </c>
       <c r="C107" t="n">
-        <v>1975</v>
+        <v>465</v>
       </c>
       <c r="D107" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E107" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F107" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G107" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H107" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I107" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J107" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="K107" t="s">
-        <v>71</v>
-      </c>
-      <c r="L107" t="s">
-        <v>325</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L107" t="s"/>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
         <v>12</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>44154.71525582176</v>
+        <v>44154.70866863426</v>
       </c>
       <c r="C108" t="n">
-        <v>1508</v>
+        <v>566</v>
       </c>
       <c r="D108" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E108" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F108" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G108" t="s">
-        <v>329</v>
+        <v>66</v>
       </c>
       <c r="H108" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I108" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J108" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="K108" t="s">
-        <v>17</v>
-      </c>
-      <c r="L108" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L108" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
         <v>12</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>44154.71736768518</v>
+        <v>44154.70929016203</v>
       </c>
       <c r="C109" t="n">
-        <v>2973</v>
+        <v>81</v>
       </c>
       <c r="D109" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E109" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F109" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G109" t="s">
-        <v>231</v>
+        <v>336</v>
       </c>
       <c r="H109" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I109" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J109" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K109" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L109" t="s"/>
     </row>
@@ -5948,70 +6037,72 @@
         <v>12</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>44154.71784644676</v>
+        <v>44154.70976986111</v>
       </c>
       <c r="C110" t="n">
-        <v>2202</v>
+        <v>1837</v>
       </c>
       <c r="D110" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E110" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F110" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G110" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H110" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I110" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J110" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K110" t="s">
-        <v>71</v>
-      </c>
-      <c r="L110" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L110" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
         <v>12</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>44154.71844951389</v>
+        <v>44154.71052581019</v>
       </c>
       <c r="C111" t="n">
-        <v>3156</v>
+        <v>1446</v>
       </c>
       <c r="D111" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="E111" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F111" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="G111" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="H111" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I111" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="J111" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="K111" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L111" t="s"/>
     </row>
@@ -6020,34 +6111,34 @@
         <v>12</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>44154.71885400463</v>
+        <v>44154.71083821759</v>
       </c>
       <c r="C112" t="n">
-        <v>2881</v>
+        <v>1516</v>
       </c>
       <c r="D112" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E112" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F112" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G112" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H112" t="s">
-        <v>345</v>
+        <v>61</v>
       </c>
       <c r="I112" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J112" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K112" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L112" t="s"/>
     </row>
@@ -6056,37 +6147,37 @@
         <v>12</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>44154.71972351852</v>
+        <v>44154.71164583333</v>
       </c>
       <c r="C113" t="n">
-        <v>3034</v>
+        <v>1975</v>
       </c>
       <c r="D113" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E113" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F113" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G113" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I113" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J113" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K113" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="L113" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6094,34 +6185,34 @@
         <v>12</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>44154.72165902777</v>
+        <v>44154.71525582176</v>
       </c>
       <c r="C114" t="n">
-        <v>986</v>
+        <v>1508</v>
       </c>
       <c r="D114" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E114" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F114" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G114" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H114" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I114" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="J114" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="K114" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L114" t="s"/>
     </row>
@@ -6130,34 +6221,34 @@
         <v>12</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>44154.72335130787</v>
+        <v>44154.71736768518</v>
       </c>
       <c r="C115" t="n">
-        <v>2031</v>
+        <v>2973</v>
       </c>
       <c r="D115" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E115" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F115" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G115" t="s">
-        <v>358</v>
+        <v>260</v>
       </c>
       <c r="H115" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="I115" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="J115" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="K115" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L115" t="s"/>
     </row>
@@ -6166,34 +6257,34 @@
         <v>12</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>44154.72369152778</v>
+        <v>44154.71784644676</v>
       </c>
       <c r="C116" t="n">
-        <v>67</v>
+        <v>2202</v>
       </c>
       <c r="D116" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E116" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F116" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G116" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H116" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I116" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J116" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="K116" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="L116" t="s"/>
     </row>
@@ -6202,34 +6293,34 @@
         <v>12</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>44154.7240471875</v>
+        <v>44154.71844951389</v>
       </c>
       <c r="C117" t="n">
-        <v>533</v>
+        <v>3156</v>
       </c>
       <c r="D117" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E117" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F117" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G117" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H117" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I117" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J117" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="K117" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L117" t="s"/>
     </row>
@@ -6238,34 +6329,34 @@
         <v>12</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>44154.72488017361</v>
+        <v>44154.71885400463</v>
       </c>
       <c r="C118" t="n">
-        <v>3716</v>
+        <v>2881</v>
       </c>
       <c r="D118" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E118" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F118" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G118" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H118" t="s">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="I118" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J118" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K118" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L118" t="s"/>
     </row>
@@ -6274,70 +6365,72 @@
         <v>12</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>44154.72557752315</v>
+        <v>44154.71972351852</v>
       </c>
       <c r="C119" t="n">
-        <v>2974</v>
+        <v>3034</v>
       </c>
       <c r="D119" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E119" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F119" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G119" t="s">
-        <v>172</v>
+        <v>378</v>
       </c>
       <c r="H119" t="s">
-        <v>374</v>
+        <v>40</v>
       </c>
       <c r="I119" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J119" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K119" t="s">
-        <v>17</v>
-      </c>
-      <c r="L119" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L119" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
         <v>12</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>44154.6643809838</v>
+        <v>44154.72165902777</v>
       </c>
       <c r="C120" t="n">
-        <v>2555</v>
+        <v>986</v>
       </c>
       <c r="D120" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E120" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F120" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="G120" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="H120" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I120" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J120" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="K120" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L120" t="s"/>
     </row>
@@ -6346,34 +6439,34 @@
         <v>12</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>44154.66514181713</v>
+        <v>44154.72335130787</v>
       </c>
       <c r="C121" t="n">
-        <v>2501</v>
+        <v>2031</v>
       </c>
       <c r="D121" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E121" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F121" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="G121" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="H121" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="I121" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J121" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="K121" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="L121" t="s"/>
     </row>
@@ -6382,34 +6475,34 @@
         <v>12</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>44154.6655874537</v>
+        <v>44154.72369152778</v>
       </c>
       <c r="C122" t="n">
-        <v>2825</v>
+        <v>67</v>
       </c>
       <c r="D122" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E122" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F122" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="G122" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H122" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I122" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J122" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="K122" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L122" t="s"/>
     </row>
@@ -6418,34 +6511,34 @@
         <v>12</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>44154.66637526621</v>
+        <v>44154.7240471875</v>
       </c>
       <c r="C123" t="n">
-        <v>3460</v>
+        <v>533</v>
       </c>
       <c r="D123" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="E123" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="F123" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="G123" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="H123" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I123" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J123" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="K123" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L123" t="s"/>
     </row>
@@ -6454,148 +6547,142 @@
         <v>12</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>44154.66675946759</v>
+        <v>44154.72488017361</v>
       </c>
       <c r="C124" t="n">
-        <v>1777</v>
+        <v>3716</v>
       </c>
       <c r="D124" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="E124" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="F124" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="G124" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H124" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I124" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J124" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K124" t="s">
-        <v>19</v>
-      </c>
-      <c r="L124" t="s">
-        <v>395</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L124" t="s"/>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" t="s">
         <v>12</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>44154.66788681713</v>
+        <v>44154.72557752315</v>
       </c>
       <c r="C125" t="n">
-        <v>2772</v>
+        <v>2974</v>
       </c>
       <c r="D125" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E125" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F125" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G125" t="s">
-        <v>399</v>
+        <v>201</v>
       </c>
       <c r="H125" t="s">
-        <v>127</v>
+        <v>403</v>
       </c>
       <c r="I125" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J125" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="K125" t="s">
-        <v>19</v>
-      </c>
-      <c r="L125" t="s">
-        <v>400</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L125" t="s"/>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" t="s">
         <v>12</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>44154.66935013889</v>
+        <v>44154.6643809838</v>
       </c>
       <c r="C126" t="n">
-        <v>3641</v>
+        <v>2555</v>
       </c>
       <c r="D126" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E126" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F126" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G126" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H126" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="I126" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="J126" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K126" t="s">
-        <v>19</v>
-      </c>
-      <c r="L126" t="s">
-        <v>405</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L126" t="s"/>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" t="s">
         <v>12</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>44154.67044814815</v>
+        <v>44154.66514181713</v>
       </c>
       <c r="C127" t="n">
-        <v>2487</v>
+        <v>2501</v>
       </c>
       <c r="D127" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E127" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F127" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G127" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H127" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="I127" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J127" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="K127" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="L127" t="s"/>
     </row>
@@ -6604,34 +6691,34 @@
         <v>12</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>44154.67135246528</v>
+        <v>44154.6655874537</v>
       </c>
       <c r="C128" t="n">
-        <v>2638</v>
+        <v>2825</v>
       </c>
       <c r="D128" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E128" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F128" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G128" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H128" t="s">
-        <v>414</v>
+        <v>61</v>
       </c>
       <c r="I128" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J128" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="K128" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L128" t="s"/>
     </row>
@@ -6640,48 +6727,46 @@
         <v>12</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>44154.67172907407</v>
+        <v>44154.66637526621</v>
       </c>
       <c r="C129" t="n">
-        <v>3209</v>
+        <v>3460</v>
       </c>
       <c r="D129" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E129" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F129" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G129" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H129" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I129" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J129" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K129" t="s">
-        <v>19</v>
-      </c>
-      <c r="L129" t="s">
-        <v>419</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L129" t="s"/>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" t="s">
         <v>12</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>44154.67312695602</v>
+        <v>44154.66675946759</v>
       </c>
       <c r="C130" t="n">
-        <v>3711</v>
+        <v>1777</v>
       </c>
       <c r="D130" t="s">
         <v>420</v>
@@ -6696,162 +6781,166 @@
         <v>423</v>
       </c>
       <c r="H130" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I130" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J130" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="K130" t="s">
-        <v>17</v>
-      </c>
-      <c r="L130" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L130" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" t="s">
         <v>12</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>44154.6736441088</v>
+        <v>44154.66788681713</v>
       </c>
       <c r="C131" t="n">
-        <v>3312</v>
+        <v>2772</v>
       </c>
       <c r="D131" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E131" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F131" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G131" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H131" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I131" t="s">
-        <v>428</v>
+        <v>19</v>
       </c>
       <c r="J131" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K131" t="s">
-        <v>19</v>
-      </c>
-      <c r="L131" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L131" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" t="s">
         <v>12</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>44154.67442511574</v>
+        <v>44154.66935013889</v>
       </c>
       <c r="C132" t="n">
-        <v>78</v>
+        <v>3641</v>
       </c>
       <c r="D132" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E132" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F132" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G132" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H132" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I132" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="J132" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K132" t="s">
-        <v>17</v>
-      </c>
-      <c r="L132" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L132" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" t="s">
         <v>12</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>44154.67532738426</v>
+        <v>44154.67044814815</v>
       </c>
       <c r="C133" t="n">
-        <v>3031</v>
+        <v>2487</v>
       </c>
       <c r="D133" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E133" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F133" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G133" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H133" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I133" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J133" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K133" t="s">
-        <v>26</v>
-      </c>
-      <c r="L133" t="s">
-        <v>437</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L133" t="s"/>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" t="s">
         <v>12</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>44154.67696158565</v>
+        <v>44154.67135246528</v>
       </c>
       <c r="C134" t="n">
-        <v>2035</v>
+        <v>2638</v>
       </c>
       <c r="D134" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E134" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F134" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G134" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H134" t="s">
-        <v>31</v>
+        <v>443</v>
       </c>
       <c r="I134" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="J134" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K134" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L134" t="s"/>
     </row>
@@ -6860,37 +6949,37 @@
         <v>12</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>44154.67738247685</v>
+        <v>44154.67172907407</v>
       </c>
       <c r="C135" t="n">
-        <v>1784</v>
+        <v>3209</v>
       </c>
       <c r="D135" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E135" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F135" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G135" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H135" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I135" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J135" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K135" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L135" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6898,34 +6987,34 @@
         <v>12</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>44154.67845166667</v>
+        <v>44154.67312695602</v>
       </c>
       <c r="C136" t="n">
-        <v>116</v>
+        <v>3711</v>
       </c>
       <c r="D136" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E136" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F136" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G136" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H136" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="I136" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="J136" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="K136" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="L136" t="s"/>
     </row>
@@ -6934,72 +7023,70 @@
         <v>12</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>44154.68068962963</v>
+        <v>44154.6736441088</v>
       </c>
       <c r="C137" t="n">
-        <v>1882</v>
+        <v>3312</v>
       </c>
       <c r="D137" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E137" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F137" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G137" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H137" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I137" t="s">
-        <v>18</v>
+        <v>457</v>
       </c>
       <c r="J137" t="s">
-        <v>428</v>
+        <v>62</v>
       </c>
       <c r="K137" t="s">
-        <v>26</v>
-      </c>
-      <c r="L137" t="s">
-        <v>455</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L137" t="s"/>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" t="s">
         <v>12</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>44154.68186581018</v>
+        <v>44154.67442511574</v>
       </c>
       <c r="C138" t="n">
-        <v>1175</v>
+        <v>78</v>
       </c>
       <c r="D138" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E138" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F138" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G138" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H138" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I138" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J138" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="K138" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="L138" t="s"/>
     </row>
@@ -7008,37 +7095,37 @@
         <v>12</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>44154.68270211806</v>
+        <v>44154.67532738426</v>
       </c>
       <c r="C139" t="n">
-        <v>1528</v>
+        <v>3031</v>
       </c>
       <c r="D139" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E139" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F139" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G139" t="s">
-        <v>399</v>
+        <v>465</v>
       </c>
       <c r="H139" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="I139" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J139" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="K139" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="L139" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7046,108 +7133,108 @@
         <v>12</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>44154.68296275463</v>
+        <v>44154.67696158565</v>
       </c>
       <c r="C140" t="n">
-        <v>1838</v>
+        <v>2035</v>
       </c>
       <c r="D140" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E140" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F140" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="G140" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H140" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I140" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J140" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="K140" t="s">
-        <v>19</v>
-      </c>
-      <c r="L140" t="s">
-        <v>468</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L140" t="s"/>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" t="s">
         <v>12</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>44154.68356502315</v>
+        <v>44154.67738247685</v>
       </c>
       <c r="C141" t="n">
-        <v>1924</v>
+        <v>1784</v>
       </c>
       <c r="D141" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E141" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F141" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G141" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H141" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I141" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J141" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K141" t="s">
-        <v>17</v>
-      </c>
-      <c r="L141" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L141" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" t="s">
         <v>12</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>44154.6841640625</v>
+        <v>44154.67845166667</v>
       </c>
       <c r="C142" t="n">
-        <v>3611</v>
+        <v>116</v>
       </c>
       <c r="D142" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E142" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F142" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="G142" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H142" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I142" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J142" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K142" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L142" t="s"/>
     </row>
@@ -7156,70 +7243,72 @@
         <v>12</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>44154.68457054398</v>
+        <v>44154.68068962963</v>
       </c>
       <c r="C143" t="n">
-        <v>1065</v>
+        <v>1882</v>
       </c>
       <c r="D143" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E143" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F143" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G143" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="H143" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I143" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J143" t="s">
-        <v>26</v>
+        <v>457</v>
       </c>
       <c r="K143" t="s">
-        <v>17</v>
-      </c>
-      <c r="L143" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="L143" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" t="s">
         <v>12</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>44154.68556002315</v>
+        <v>44154.68186581018</v>
       </c>
       <c r="C144" t="n">
-        <v>2475</v>
+        <v>1175</v>
       </c>
       <c r="D144" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="E144" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="F144" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G144" t="s">
-        <v>249</v>
+        <v>488</v>
       </c>
       <c r="H144" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="I144" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J144" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="K144" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="L144" t="s"/>
     </row>
@@ -7228,106 +7317,110 @@
         <v>12</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>44154.68630527778</v>
+        <v>44154.68270211806</v>
       </c>
       <c r="C145" t="n">
-        <v>3042</v>
+        <v>1528</v>
       </c>
       <c r="D145" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="E145" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="F145" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="G145" t="s">
-        <v>487</v>
+        <v>428</v>
       </c>
       <c r="H145" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I145" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J145" t="s">
         <v>19</v>
       </c>
       <c r="K145" t="s">
-        <v>19</v>
-      </c>
-      <c r="L145" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L145" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" t="s">
         <v>12</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>44154.68673292824</v>
+        <v>44154.68296275463</v>
       </c>
       <c r="C146" t="n">
-        <v>1903</v>
+        <v>1838</v>
       </c>
       <c r="D146" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="E146" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="F146" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="G146" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="H146" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I146" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J146" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K146" t="s">
-        <v>17</v>
-      </c>
-      <c r="L146" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L146" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" t="s">
         <v>12</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>44154.6878003588</v>
+        <v>44154.68356502315</v>
       </c>
       <c r="C147" t="n">
-        <v>615</v>
+        <v>1924</v>
       </c>
       <c r="D147" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="E147" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="F147" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="G147" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="H147" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="I147" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J147" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="K147" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L147" t="s"/>
     </row>
@@ -7336,34 +7429,34 @@
         <v>12</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>44154.68797761574</v>
+        <v>44154.6841640625</v>
       </c>
       <c r="C148" t="n">
-        <v>3195</v>
+        <v>3611</v>
       </c>
       <c r="D148" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="E148" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="F148" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G148" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="H148" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I148" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="J148" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K148" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L148" t="s"/>
     </row>
@@ -7372,34 +7465,34 @@
         <v>12</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>44154.68839364583</v>
+        <v>44154.68457054398</v>
       </c>
       <c r="C149" t="n">
-        <v>3134</v>
+        <v>1065</v>
       </c>
       <c r="D149" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="E149" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F149" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="G149" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="H149" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I149" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="K149" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L149" t="s"/>
     </row>
@@ -7408,34 +7501,34 @@
         <v>12</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>44154.68914657408</v>
+        <v>44154.68556002315</v>
       </c>
       <c r="C150" t="n">
-        <v>1023</v>
+        <v>2475</v>
       </c>
       <c r="D150" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="E150" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="F150" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G150" t="s">
-        <v>507</v>
+        <v>278</v>
       </c>
       <c r="H150" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I150" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J150" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K150" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L150" t="s"/>
     </row>
@@ -7444,110 +7537,106 @@
         <v>12</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>44154.68949501157</v>
+        <v>44154.68630527778</v>
       </c>
       <c r="C151" t="n">
-        <v>3395</v>
+        <v>3042</v>
       </c>
       <c r="D151" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="E151" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="F151" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="G151" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="H151" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I151" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J151" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K151" t="s">
-        <v>19</v>
-      </c>
-      <c r="L151" t="s">
-        <v>512</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L151" t="s"/>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" t="s">
         <v>12</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>44154.68986456018</v>
+        <v>44154.68673292824</v>
       </c>
       <c r="C152" t="n">
-        <v>1760</v>
+        <v>1903</v>
       </c>
       <c r="D152" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="E152" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="F152" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="G152" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="H152" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="I152" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J152" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="K152" t="s">
-        <v>19</v>
-      </c>
-      <c r="L152" t="s">
-        <v>517</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L152" t="s"/>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" t="s">
         <v>12</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>44154.69036902778</v>
+        <v>44154.6878003588</v>
       </c>
       <c r="C153" t="n">
-        <v>1995</v>
+        <v>615</v>
       </c>
       <c r="D153" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E153" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="F153" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="G153" t="s">
-        <v>111</v>
+        <v>524</v>
       </c>
       <c r="H153" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I153" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J153" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="K153" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L153" t="s"/>
     </row>
@@ -7556,36 +7645,256 @@
         <v>12</v>
       </c>
       <c r="B154" s="2" t="n">
+        <v>44154.68797761574</v>
+      </c>
+      <c r="C154" t="n">
+        <v>3195</v>
+      </c>
+      <c r="D154" t="s">
+        <v>525</v>
+      </c>
+      <c r="E154" t="s">
+        <v>526</v>
+      </c>
+      <c r="F154" t="s">
+        <v>527</v>
+      </c>
+      <c r="G154" t="s">
+        <v>528</v>
+      </c>
+      <c r="H154" t="s">
+        <v>40</v>
+      </c>
+      <c r="I154" t="s">
+        <v>41</v>
+      </c>
+      <c r="J154" t="s">
+        <v>42</v>
+      </c>
+      <c r="K154" t="s">
+        <v>20</v>
+      </c>
+      <c r="L154" t="s"/>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>44154.68839364583</v>
+      </c>
+      <c r="C155" t="n">
+        <v>3134</v>
+      </c>
+      <c r="D155" t="s">
+        <v>529</v>
+      </c>
+      <c r="E155" t="s">
+        <v>530</v>
+      </c>
+      <c r="F155" t="s">
+        <v>531</v>
+      </c>
+      <c r="G155" t="s">
+        <v>532</v>
+      </c>
+      <c r="H155" t="s">
+        <v>62</v>
+      </c>
+      <c r="I155" t="s">
+        <v>41</v>
+      </c>
+      <c r="J155" t="s">
+        <v>34</v>
+      </c>
+      <c r="K155" t="s">
+        <v>20</v>
+      </c>
+      <c r="L155" t="s"/>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>44154.68914657408</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D156" t="s">
+        <v>533</v>
+      </c>
+      <c r="E156" t="s">
+        <v>534</v>
+      </c>
+      <c r="F156" t="s">
+        <v>535</v>
+      </c>
+      <c r="G156" t="s">
+        <v>536</v>
+      </c>
+      <c r="H156" t="s">
+        <v>47</v>
+      </c>
+      <c r="I156" t="s">
+        <v>20</v>
+      </c>
+      <c r="J156" t="s">
+        <v>62</v>
+      </c>
+      <c r="K156" t="s">
+        <v>20</v>
+      </c>
+      <c r="L156" t="s"/>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>44154.68949501157</v>
+      </c>
+      <c r="C157" t="n">
+        <v>3395</v>
+      </c>
+      <c r="D157" t="s">
+        <v>537</v>
+      </c>
+      <c r="E157" t="s">
+        <v>538</v>
+      </c>
+      <c r="F157" t="s">
+        <v>539</v>
+      </c>
+      <c r="G157" t="s">
+        <v>540</v>
+      </c>
+      <c r="H157" t="s">
+        <v>40</v>
+      </c>
+      <c r="I157" t="s">
+        <v>41</v>
+      </c>
+      <c r="J157" t="s">
+        <v>42</v>
+      </c>
+      <c r="K157" t="s">
+        <v>20</v>
+      </c>
+      <c r="L157" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>44154.68986456018</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1760</v>
+      </c>
+      <c r="D158" t="s">
+        <v>542</v>
+      </c>
+      <c r="E158" t="s">
+        <v>543</v>
+      </c>
+      <c r="F158" t="s">
+        <v>544</v>
+      </c>
+      <c r="G158" t="s">
+        <v>545</v>
+      </c>
+      <c r="H158" t="s">
+        <v>40</v>
+      </c>
+      <c r="I158" t="s">
+        <v>41</v>
+      </c>
+      <c r="J158" t="s">
+        <v>42</v>
+      </c>
+      <c r="K158" t="s">
+        <v>20</v>
+      </c>
+      <c r="L158" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>44154.69036902778</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D159" t="s">
+        <v>547</v>
+      </c>
+      <c r="E159" t="s">
+        <v>548</v>
+      </c>
+      <c r="F159" t="s">
+        <v>549</v>
+      </c>
+      <c r="G159" t="s">
+        <v>142</v>
+      </c>
+      <c r="H159" t="s">
+        <v>61</v>
+      </c>
+      <c r="I159" t="s">
+        <v>20</v>
+      </c>
+      <c r="J159" t="s">
+        <v>28</v>
+      </c>
+      <c r="K159" t="s">
+        <v>28</v>
+      </c>
+      <c r="L159" t="s"/>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" s="2" t="n">
         <v>44154.69077488426</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C160" t="n">
         <v>440</v>
       </c>
-      <c r="D154" t="s">
-        <v>521</v>
-      </c>
-      <c r="E154" t="s">
-        <v>522</v>
-      </c>
-      <c r="F154" t="s">
-        <v>523</v>
-      </c>
-      <c r="G154" t="s">
-        <v>311</v>
-      </c>
-      <c r="H154" t="s">
-        <v>17</v>
-      </c>
-      <c r="I154" t="s">
-        <v>18</v>
-      </c>
-      <c r="J154" t="s">
-        <v>49</v>
-      </c>
-      <c r="K154" t="s">
-        <v>19</v>
-      </c>
-      <c r="L154" t="s"/>
+      <c r="D160" t="s">
+        <v>550</v>
+      </c>
+      <c r="E160" t="s">
+        <v>551</v>
+      </c>
+      <c r="F160" t="s">
+        <v>552</v>
+      </c>
+      <c r="G160" t="s">
+        <v>340</v>
+      </c>
+      <c r="H160" t="s">
+        <v>28</v>
+      </c>
+      <c r="I160" t="s">
+        <v>41</v>
+      </c>
+      <c r="J160" t="s">
+        <v>34</v>
+      </c>
+      <c r="K160" t="s">
+        <v>20</v>
+      </c>
+      <c r="L160" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models-combined.xlsx
+++ b/classification-record/session-all-models-combined.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="557">
   <si>
     <t>Name</t>
   </si>
@@ -56,6 +56,30 @@
     <t>Alex</t>
   </si>
   <si>
+    <t>Disposable VapePen Mandarin Cookies Muv Fl Mmj Review</t>
+  </si>
+  <si>
+    <t>0XpLgSjDvvU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0XpLgSjDvvU</t>
+  </si>
+  <si>
+    <t>Tokingtim420</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Exploring the secret world of vaporizer tricks and mods</t>
   </si>
   <si>
@@ -74,12 +98,6 @@
     <t>1 3</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>tech review conglomorate</t>
   </si>
   <si>
@@ -158,9 +176,6 @@
     <t>Ryan Hall</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>0 1</t>
   </si>
   <si>
@@ -201,9 +216,6 @@
   </si>
   <si>
     <t>3 7</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>Top 3 Vaping Starter Kits of 2019 For The First Time Vaper</t>
@@ -2026,7 +2038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L160"/>
+  <dimension ref="A1:L161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2077,10 +2089,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44159.74467407673</v>
+        <v>44159.75188457645</v>
       </c>
       <c r="C2" t="n">
-        <v>3276</v>
+        <v>3376</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -2106,46 +2118,44 @@
       <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
+      <c r="L2" t="s"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44159.74606818341</v>
+        <v>44159.74467407407</v>
       </c>
       <c r="C3" t="n">
-        <v>2253</v>
+        <v>3276</v>
       </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
         <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2153,34 +2163,34 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44159.74687034133</v>
+        <v>44159.74606818287</v>
       </c>
       <c r="C4" t="n">
-        <v>3098</v>
+        <v>2253</v>
       </c>
       <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
         <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
       </c>
       <c r="L4" t="s">
         <v>35</v>
@@ -2191,10 +2201,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44159.74722585585</v>
+        <v>44159.74687033565</v>
       </c>
       <c r="C5" t="n">
-        <v>2345</v>
+        <v>3098</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
@@ -2209,52 +2219,54 @@
         <v>39</v>
       </c>
       <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
         <v>40</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
         <v>41</v>
       </c>
-      <c r="J5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44159.74879220389</v>
+        <v>44159.74722585648</v>
       </c>
       <c r="C6" t="n">
-        <v>513</v>
+        <v>2345</v>
       </c>
       <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>45</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
       </c>
       <c r="J6" t="s">
         <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s"/>
     </row>
@@ -2263,10 +2275,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44159.7493945417</v>
+        <v>44159.74879219908</v>
       </c>
       <c r="C7" t="n">
-        <v>1256</v>
+        <v>513</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
@@ -2281,16 +2293,16 @@
         <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L7" t="s"/>
     </row>
@@ -2299,34 +2311,34 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44155.73170659722</v>
+        <v>44159.74939453704</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>1256</v>
       </c>
       <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" t="s">
-        <v>20</v>
-      </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s"/>
     </row>
@@ -2335,34 +2347,34 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44155.73238313657</v>
+        <v>44155.73170659722</v>
       </c>
       <c r="C9" t="n">
-        <v>987</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s"/>
     </row>
@@ -2371,84 +2383,84 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44155.73315965278</v>
+        <v>44155.73238313657</v>
       </c>
       <c r="C10" t="n">
-        <v>2249</v>
+        <v>987</v>
       </c>
       <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>64</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>65</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>66</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" t="s">
-        <v>68</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="L10" t="s"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44155.73395746528</v>
+        <v>44155.73315965278</v>
       </c>
       <c r="C11" t="n">
-        <v>666</v>
+        <v>2249</v>
       </c>
       <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
         <v>69</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>70</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
         <v>71</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
         <v>72</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" t="s"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44155.73425486111</v>
+        <v>44155.73395746528</v>
       </c>
       <c r="C12" t="n">
-        <v>3088</v>
+        <v>666</v>
       </c>
       <c r="D12" t="s">
         <v>73</v>
@@ -2463,66 +2475,66 @@
         <v>76</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
         <v>20</v>
       </c>
-      <c r="L12" t="s">
-        <v>77</v>
-      </c>
+      <c r="L12" t="s"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44155.73473486111</v>
+        <v>44155.73425486111</v>
       </c>
       <c r="C13" t="n">
-        <v>175</v>
+        <v>3088</v>
       </c>
       <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
         <v>78</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>79</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>80</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
         <v>81</v>
       </c>
-      <c r="H13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44155.73540616898</v>
+        <v>44155.73473486111</v>
       </c>
       <c r="C14" t="n">
-        <v>864</v>
+        <v>175</v>
       </c>
       <c r="D14" t="s">
         <v>82</v>
@@ -2537,13 +2549,13 @@
         <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K14" t="s">
         <v>20</v>
@@ -2555,10 +2567,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44155.73567726852</v>
+        <v>44155.73540616898</v>
       </c>
       <c r="C15" t="n">
-        <v>1644</v>
+        <v>864</v>
       </c>
       <c r="D15" t="s">
         <v>86</v>
@@ -2573,66 +2585,66 @@
         <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s">
         <v>20</v>
       </c>
-      <c r="L15" t="s">
-        <v>90</v>
-      </c>
+      <c r="L15" t="s"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44155.73785229167</v>
+        <v>44155.73567726852</v>
       </c>
       <c r="C16" t="n">
-        <v>737</v>
+        <v>1644</v>
       </c>
       <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
         <v>91</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>92</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>93</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
         <v>94</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" t="s"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44155.73837494213</v>
+        <v>44155.73785229167</v>
       </c>
       <c r="C17" t="n">
-        <v>3379</v>
+        <v>737</v>
       </c>
       <c r="D17" t="s">
         <v>95</v>
@@ -2647,16 +2659,16 @@
         <v>98</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" t="s">
         <v>19</v>
       </c>
-      <c r="J17" t="s">
-        <v>42</v>
-      </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L17" t="s"/>
     </row>
@@ -2665,10 +2677,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44155.73969543981</v>
+        <v>44155.73837494213</v>
       </c>
       <c r="C18" t="n">
-        <v>3246</v>
+        <v>3379</v>
       </c>
       <c r="D18" t="s">
         <v>99</v>
@@ -2683,66 +2695,66 @@
         <v>102</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I18" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" t="s">
-        <v>103</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L18" t="s"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44155.74013664352</v>
+        <v>44155.73969543981</v>
       </c>
       <c r="C19" t="n">
-        <v>1297</v>
+        <v>3246</v>
       </c>
       <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
         <v>104</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>105</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" t="s">
         <v>107</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" t="s"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44155.74047944444</v>
+        <v>44155.74013664352</v>
       </c>
       <c r="C20" t="n">
-        <v>1555</v>
+        <v>1297</v>
       </c>
       <c r="D20" t="s">
         <v>108</v>
@@ -2757,13 +2769,13 @@
         <v>111</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
         <v>19</v>
-      </c>
-      <c r="J20" t="s">
-        <v>42</v>
       </c>
       <c r="K20" t="s">
         <v>20</v>
@@ -2775,10 +2787,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44155.74120951389</v>
+        <v>44155.74047944444</v>
       </c>
       <c r="C21" t="n">
-        <v>1536</v>
+        <v>1555</v>
       </c>
       <c r="D21" t="s">
         <v>112</v>
@@ -2793,16 +2805,16 @@
         <v>115</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L21" t="s"/>
     </row>
@@ -2811,10 +2823,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44155.74188298611</v>
+        <v>44155.74120951389</v>
       </c>
       <c r="C22" t="n">
-        <v>167</v>
+        <v>1536</v>
       </c>
       <c r="D22" t="s">
         <v>116</v>
@@ -2829,16 +2841,16 @@
         <v>119</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K22" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L22" t="s"/>
     </row>
@@ -2847,10 +2859,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44155.74249112268</v>
+        <v>44155.74188298611</v>
       </c>
       <c r="C23" t="n">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="D23" t="s">
         <v>120</v>
@@ -2865,57 +2877,55 @@
         <v>123</v>
       </c>
       <c r="H23" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s">
         <v>20</v>
       </c>
-      <c r="L23" t="s">
-        <v>124</v>
-      </c>
+      <c r="L23" t="s"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44155.74277087963</v>
+        <v>44155.74249112268</v>
       </c>
       <c r="C24" t="n">
-        <v>3216</v>
+        <v>222</v>
       </c>
       <c r="D24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" t="s">
         <v>125</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>126</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>127</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" t="s">
         <v>128</v>
-      </c>
-      <c r="H24" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2923,46 +2933,48 @@
         <v>12</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44155.74296745371</v>
+        <v>44155.74277087963</v>
       </c>
       <c r="C25" t="n">
-        <v>3110</v>
+        <v>3216</v>
       </c>
       <c r="D25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" t="s">
         <v>130</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>131</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>132</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
         <v>133</v>
       </c>
-      <c r="H25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" t="s"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44155.74395903936</v>
+        <v>44155.74296745371</v>
       </c>
       <c r="C26" t="n">
-        <v>138</v>
+        <v>3110</v>
       </c>
       <c r="D26" t="s">
         <v>134</v>
@@ -2977,10 +2989,10 @@
         <v>137</v>
       </c>
       <c r="H26" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J26" t="s">
         <v>20</v>
@@ -2995,34 +3007,34 @@
         <v>12</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>44155.74428769676</v>
+        <v>44155.74395903936</v>
       </c>
       <c r="C27" t="n">
-        <v>1022</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" t="s">
         <v>139</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>140</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>141</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>142</v>
       </c>
-      <c r="H27" t="s">
-        <v>61</v>
-      </c>
       <c r="I27" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J27" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K27" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L27" t="s"/>
     </row>
@@ -3031,10 +3043,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>44155.74493398148</v>
+        <v>44155.74428769676</v>
       </c>
       <c r="C28" t="n">
-        <v>1466</v>
+        <v>1022</v>
       </c>
       <c r="D28" t="s">
         <v>143</v>
@@ -3049,57 +3061,55 @@
         <v>146</v>
       </c>
       <c r="H28" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I28" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K28" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" t="s">
-        <v>147</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="L28" t="s"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>44154.7721688426</v>
+        <v>44155.74493398148</v>
       </c>
       <c r="C29" t="n">
-        <v>1765</v>
+        <v>1466</v>
       </c>
       <c r="D29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" t="s">
         <v>148</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>149</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>150</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" t="s">
         <v>151</v>
-      </c>
-      <c r="H29" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" t="s">
-        <v>41</v>
-      </c>
-      <c r="J29" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3107,46 +3117,48 @@
         <v>12</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>44154.77410748843</v>
+        <v>44154.7721688426</v>
       </c>
       <c r="C30" t="n">
-        <v>2940</v>
+        <v>1765</v>
       </c>
       <c r="D30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" t="s">
         <v>153</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>154</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>155</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" t="s">
         <v>156</v>
       </c>
-      <c r="H30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" t="s">
-        <v>34</v>
-      </c>
-      <c r="J30" t="s">
-        <v>42</v>
-      </c>
-      <c r="K30" t="s">
-        <v>28</v>
-      </c>
-      <c r="L30" t="s"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>44154.77493980324</v>
+        <v>44154.77410748843</v>
       </c>
       <c r="C31" t="n">
-        <v>3744</v>
+        <v>2940</v>
       </c>
       <c r="D31" t="s">
         <v>157</v>
@@ -3161,16 +3173,16 @@
         <v>160</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L31" t="s"/>
     </row>
@@ -3179,10 +3191,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>44154.77544891203</v>
+        <v>44154.77493980324</v>
       </c>
       <c r="C32" t="n">
-        <v>3469</v>
+        <v>3744</v>
       </c>
       <c r="D32" t="s">
         <v>161</v>
@@ -3197,13 +3209,13 @@
         <v>164</v>
       </c>
       <c r="H32" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I32" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K32" t="s">
         <v>20</v>
@@ -3215,10 +3227,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>44154.77620284722</v>
+        <v>44154.77544891203</v>
       </c>
       <c r="C33" t="n">
-        <v>1419</v>
+        <v>3469</v>
       </c>
       <c r="D33" t="s">
         <v>165</v>
@@ -3233,16 +3245,16 @@
         <v>168</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K33" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L33" t="s"/>
     </row>
@@ -3251,10 +3263,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44154.77733231481</v>
+        <v>44154.77620284722</v>
       </c>
       <c r="C34" t="n">
-        <v>2861</v>
+        <v>1419</v>
       </c>
       <c r="D34" t="s">
         <v>169</v>
@@ -3269,16 +3281,16 @@
         <v>172</v>
       </c>
       <c r="H34" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s">
+        <v>48</v>
+      </c>
+      <c r="K34" t="s">
         <v>34</v>
-      </c>
-      <c r="K34" t="s">
-        <v>20</v>
       </c>
       <c r="L34" t="s"/>
     </row>
@@ -3287,10 +3299,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44154.778458125</v>
+        <v>44154.77733231481</v>
       </c>
       <c r="C35" t="n">
-        <v>229</v>
+        <v>2861</v>
       </c>
       <c r="D35" t="s">
         <v>173</v>
@@ -3305,13 +3317,13 @@
         <v>176</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I35" t="s">
         <v>47</v>
       </c>
       <c r="J35" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="K35" t="s">
         <v>20</v>
@@ -3323,10 +3335,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44154.77909887731</v>
+        <v>44154.778458125</v>
       </c>
       <c r="C36" t="n">
-        <v>1277</v>
+        <v>229</v>
       </c>
       <c r="D36" t="s">
         <v>177</v>
@@ -3341,13 +3353,13 @@
         <v>180</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I36" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J36" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="K36" t="s">
         <v>20</v>
@@ -3359,10 +3371,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44154.78025189815</v>
+        <v>44154.77909887731</v>
       </c>
       <c r="C37" t="n">
-        <v>1136</v>
+        <v>1277</v>
       </c>
       <c r="D37" t="s">
         <v>181</v>
@@ -3377,10 +3389,10 @@
         <v>184</v>
       </c>
       <c r="H37" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I37" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J37" t="s">
         <v>19</v>
@@ -3388,55 +3400,55 @@
       <c r="K37" t="s">
         <v>20</v>
       </c>
-      <c r="L37" t="s">
-        <v>185</v>
-      </c>
+      <c r="L37" t="s"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>44154.7886525463</v>
+        <v>44154.78025189815</v>
       </c>
       <c r="C38" t="n">
-        <v>768</v>
+        <v>1136</v>
       </c>
       <c r="D38" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" t="s">
         <v>186</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>187</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>188</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" t="s">
         <v>189</v>
       </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
-        <v>42</v>
-      </c>
-      <c r="J38" t="s">
-        <v>62</v>
-      </c>
-      <c r="K38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" t="s"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>44154.79067495371</v>
+        <v>44154.7886525463</v>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>768</v>
       </c>
       <c r="D39" t="s">
         <v>190</v>
@@ -3451,140 +3463,140 @@
         <v>193</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I39" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="J39" t="s">
         <v>19</v>
       </c>
       <c r="K39" t="s">
-        <v>28</v>
-      </c>
-      <c r="L39" t="s">
-        <v>194</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L39" t="s"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44154.79188466435</v>
+        <v>44154.79067495371</v>
       </c>
       <c r="C40" t="n">
-        <v>794</v>
+        <v>445</v>
       </c>
       <c r="D40" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" t="s">
         <v>195</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>196</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>197</v>
       </c>
-      <c r="G40" t="s">
-        <v>193</v>
-      </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I40" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K40" t="s">
-        <v>28</v>
-      </c>
-      <c r="L40" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="L40" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44154.79298895833</v>
+        <v>44154.79188466435</v>
       </c>
       <c r="C41" t="n">
-        <v>1948</v>
+        <v>794</v>
       </c>
       <c r="D41" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G41" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J41" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="K41" t="s">
-        <v>62</v>
-      </c>
-      <c r="L41" t="s">
-        <v>202</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="L41" t="s"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44154.79340069444</v>
+        <v>44154.79298895833</v>
       </c>
       <c r="C42" t="n">
-        <v>1429</v>
+        <v>1948</v>
       </c>
       <c r="D42" t="s">
+        <v>202</v>
+      </c>
+      <c r="E42" t="s">
         <v>203</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>204</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>205</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s">
+        <v>48</v>
+      </c>
+      <c r="J42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" t="s">
         <v>206</v>
       </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" t="s">
-        <v>62</v>
-      </c>
-      <c r="K42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" t="s"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44154.79398876157</v>
+        <v>44154.79340069444</v>
       </c>
       <c r="C43" t="n">
-        <v>1511</v>
+        <v>1429</v>
       </c>
       <c r="D43" t="s">
         <v>207</v>
@@ -3599,10 +3611,10 @@
         <v>210</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J43" t="s">
         <v>19</v>
@@ -3617,10 +3629,10 @@
         <v>12</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44154.79457364584</v>
+        <v>44154.79398876157</v>
       </c>
       <c r="C44" t="n">
-        <v>2860</v>
+        <v>1511</v>
       </c>
       <c r="D44" t="s">
         <v>211</v>
@@ -3635,57 +3647,55 @@
         <v>214</v>
       </c>
       <c r="H44" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I44" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K44" t="s">
         <v>20</v>
       </c>
-      <c r="L44" t="s">
-        <v>215</v>
-      </c>
+      <c r="L44" t="s"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44154.79515041666</v>
+        <v>44154.79457364584</v>
       </c>
       <c r="C45" t="n">
-        <v>2376</v>
+        <v>2860</v>
       </c>
       <c r="D45" t="s">
+        <v>215</v>
+      </c>
+      <c r="E45" t="s">
         <v>216</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>217</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>218</v>
       </c>
-      <c r="G45" t="s">
-        <v>219</v>
-      </c>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
         <v>47</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="K45" t="s">
         <v>20</v>
       </c>
       <c r="L45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3693,46 +3703,48 @@
         <v>12</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44154.79556157407</v>
+        <v>44154.79515041666</v>
       </c>
       <c r="C46" t="n">
-        <v>1997</v>
+        <v>2376</v>
       </c>
       <c r="D46" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" t="s">
         <v>221</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>222</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>223</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
+        <v>66</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s">
+        <v>48</v>
+      </c>
+      <c r="K46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" t="s">
         <v>224</v>
       </c>
-      <c r="H46" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" t="s">
-        <v>62</v>
-      </c>
-      <c r="K46" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" t="s"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44154.79606214121</v>
+        <v>44154.79556157407</v>
       </c>
       <c r="C47" t="n">
-        <v>595</v>
+        <v>1997</v>
       </c>
       <c r="D47" t="s">
         <v>225</v>
@@ -3744,13 +3756,13 @@
         <v>227</v>
       </c>
       <c r="G47" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I47" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J47" t="s">
         <v>19</v>
@@ -3758,46 +3770,44 @@
       <c r="K47" t="s">
         <v>20</v>
       </c>
-      <c r="L47" t="s">
-        <v>194</v>
-      </c>
+      <c r="L47" t="s"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>12</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44154.79688260417</v>
+        <v>44154.79606214121</v>
       </c>
       <c r="C48" t="n">
-        <v>3715</v>
+        <v>595</v>
       </c>
       <c r="D48" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E48" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F48" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G48" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="H48" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I48" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="K48" t="s">
         <v>20</v>
       </c>
       <c r="L48" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3805,46 +3815,48 @@
         <v>12</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44154.79758924768</v>
+        <v>44154.79688260417</v>
       </c>
       <c r="C49" t="n">
-        <v>3369</v>
+        <v>3715</v>
       </c>
       <c r="D49" t="s">
+        <v>232</v>
+      </c>
+      <c r="E49" t="s">
         <v>233</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>234</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>235</v>
-      </c>
-      <c r="G49" t="s">
-        <v>236</v>
       </c>
       <c r="H49" t="s">
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J49" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="K49" t="s">
         <v>20</v>
       </c>
-      <c r="L49" t="s"/>
+      <c r="L49" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44154.79803195602</v>
+        <v>44154.79758924768</v>
       </c>
       <c r="C50" t="n">
-        <v>1824</v>
+        <v>3369</v>
       </c>
       <c r="D50" t="s">
         <v>237</v>
@@ -3859,13 +3871,13 @@
         <v>240</v>
       </c>
       <c r="H50" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I50" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K50" t="s">
         <v>20</v>
@@ -3877,10 +3889,10 @@
         <v>12</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44154.7984553125</v>
+        <v>44154.79803195602</v>
       </c>
       <c r="C51" t="n">
-        <v>583</v>
+        <v>1824</v>
       </c>
       <c r="D51" t="s">
         <v>241</v>
@@ -3892,69 +3904,69 @@
         <v>243</v>
       </c>
       <c r="G51" t="s">
-        <v>66</v>
+        <v>244</v>
       </c>
       <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
         <v>47</v>
       </c>
-      <c r="I51" t="s">
-        <v>28</v>
-      </c>
       <c r="J51" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="K51" t="s">
         <v>20</v>
       </c>
-      <c r="L51" t="s">
-        <v>194</v>
-      </c>
+      <c r="L51" t="s"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44154.79909991898</v>
+        <v>44154.7984553125</v>
       </c>
       <c r="C52" t="n">
-        <v>1271</v>
+        <v>583</v>
       </c>
       <c r="D52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E52" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F52" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G52" t="s">
-        <v>247</v>
+        <v>70</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I52" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J52" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="K52" t="s">
         <v>20</v>
       </c>
-      <c r="L52" t="s"/>
+      <c r="L52" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44154.80007766204</v>
+        <v>44154.79909991898</v>
       </c>
       <c r="C53" t="n">
-        <v>1869</v>
+        <v>1271</v>
       </c>
       <c r="D53" t="s">
         <v>248</v>
@@ -3969,13 +3981,13 @@
         <v>251</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I53" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="K53" t="s">
         <v>20</v>
@@ -3987,10 +3999,10 @@
         <v>12</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44154.69819569444</v>
+        <v>44154.80007766204</v>
       </c>
       <c r="C54" t="n">
-        <v>702</v>
+        <v>1869</v>
       </c>
       <c r="D54" t="s">
         <v>252</v>
@@ -4002,60 +4014,58 @@
         <v>254</v>
       </c>
       <c r="G54" t="s">
-        <v>66</v>
+        <v>255</v>
       </c>
       <c r="H54" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I54" t="s">
-        <v>255</v>
+        <v>34</v>
       </c>
       <c r="J54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K54" t="s">
         <v>20</v>
       </c>
-      <c r="L54" t="s">
-        <v>256</v>
-      </c>
+      <c r="L54" t="s"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>12</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>44154.69934395833</v>
+        <v>44154.69819569444</v>
       </c>
       <c r="C55" t="n">
-        <v>423</v>
+        <v>702</v>
       </c>
       <c r="D55" t="s">
+        <v>256</v>
+      </c>
+      <c r="E55" t="s">
         <v>257</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>258</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" t="s">
         <v>259</v>
       </c>
-      <c r="G55" t="s">
+      <c r="J55" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" t="s">
         <v>260</v>
-      </c>
-      <c r="H55" t="s">
-        <v>41</v>
-      </c>
-      <c r="I55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J55" t="s">
-        <v>62</v>
-      </c>
-      <c r="K55" t="s">
-        <v>20</v>
-      </c>
-      <c r="L55" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4063,46 +4073,48 @@
         <v>12</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44154.69987591435</v>
+        <v>44154.69934395833</v>
       </c>
       <c r="C56" t="n">
-        <v>211</v>
+        <v>423</v>
       </c>
       <c r="D56" t="s">
+        <v>261</v>
+      </c>
+      <c r="E56" t="s">
         <v>262</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>263</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>264</v>
-      </c>
-      <c r="G56" t="s">
-        <v>265</v>
       </c>
       <c r="H56" t="s">
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J56" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="K56" t="s">
         <v>20</v>
       </c>
-      <c r="L56" t="s"/>
+      <c r="L56" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>12</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44154.70088510417</v>
+        <v>44154.69987591435</v>
       </c>
       <c r="C57" t="n">
-        <v>3419</v>
+        <v>211</v>
       </c>
       <c r="D57" t="s">
         <v>266</v>
@@ -4117,66 +4129,66 @@
         <v>269</v>
       </c>
       <c r="H57" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I57" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K57" t="s">
         <v>20</v>
       </c>
-      <c r="L57" t="s">
-        <v>270</v>
-      </c>
+      <c r="L57" t="s"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>12</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44154.70140253472</v>
+        <v>44154.70088510417</v>
       </c>
       <c r="C58" t="n">
-        <v>2074</v>
+        <v>3419</v>
       </c>
       <c r="D58" t="s">
+        <v>270</v>
+      </c>
+      <c r="E58" t="s">
         <v>271</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>272</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>273</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>47</v>
+      </c>
+      <c r="J58" t="s">
+        <v>48</v>
+      </c>
+      <c r="K58" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" t="s">
         <v>274</v>
       </c>
-      <c r="H58" t="s">
-        <v>47</v>
-      </c>
-      <c r="I58" t="s">
-        <v>19</v>
-      </c>
-      <c r="J58" t="s">
-        <v>62</v>
-      </c>
-      <c r="K58" t="s">
-        <v>28</v>
-      </c>
-      <c r="L58" t="s"/>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>12</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44154.70263350695</v>
+        <v>44154.70140253472</v>
       </c>
       <c r="C59" t="n">
-        <v>183</v>
+        <v>2074</v>
       </c>
       <c r="D59" t="s">
         <v>275</v>
@@ -4191,16 +4203,16 @@
         <v>278</v>
       </c>
       <c r="H59" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="K59" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L59" t="s"/>
     </row>
@@ -4209,10 +4221,10 @@
         <v>12</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44154.70319071759</v>
+        <v>44154.70263350695</v>
       </c>
       <c r="C60" t="n">
-        <v>847</v>
+        <v>183</v>
       </c>
       <c r="D60" t="s">
         <v>279</v>
@@ -4224,7 +4236,7 @@
         <v>281</v>
       </c>
       <c r="G60" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="H60" t="s">
         <v>47</v>
@@ -4233,10 +4245,10 @@
         <v>20</v>
       </c>
       <c r="J60" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K60" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L60" t="s"/>
     </row>
@@ -4245,31 +4257,31 @@
         <v>12</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44154.70363350694</v>
+        <v>44154.70319071759</v>
       </c>
       <c r="C61" t="n">
-        <v>27</v>
+        <v>847</v>
       </c>
       <c r="D61" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E61" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F61" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G61" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="H61" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I61" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K61" t="s">
         <v>20</v>
@@ -4281,10 +4293,10 @@
         <v>12</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44154.70392996528</v>
+        <v>44154.70363350694</v>
       </c>
       <c r="C62" t="n">
-        <v>1587</v>
+        <v>27</v>
       </c>
       <c r="D62" t="s">
         <v>286</v>
@@ -4299,66 +4311,66 @@
         <v>289</v>
       </c>
       <c r="H62" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I62" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="K62" t="s">
         <v>20</v>
       </c>
-      <c r="L62" t="s">
-        <v>290</v>
-      </c>
+      <c r="L62" t="s"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>12</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44154.70447649305</v>
+        <v>44154.70392996528</v>
       </c>
       <c r="C63" t="n">
-        <v>1510</v>
+        <v>1587</v>
       </c>
       <c r="D63" t="s">
+        <v>290</v>
+      </c>
+      <c r="E63" t="s">
         <v>291</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>292</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>293</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>47</v>
+      </c>
+      <c r="J63" t="s">
+        <v>48</v>
+      </c>
+      <c r="K63" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" t="s">
         <v>294</v>
       </c>
-      <c r="H63" t="s">
-        <v>47</v>
-      </c>
-      <c r="I63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J63" t="s">
-        <v>42</v>
-      </c>
-      <c r="K63" t="s">
-        <v>20</v>
-      </c>
-      <c r="L63" t="s"/>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>12</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44154.70549010417</v>
+        <v>44154.70447649305</v>
       </c>
       <c r="C64" t="n">
-        <v>631</v>
+        <v>1510</v>
       </c>
       <c r="D64" t="s">
         <v>295</v>
@@ -4373,13 +4385,13 @@
         <v>298</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I64" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J64" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="K64" t="s">
         <v>20</v>
@@ -4391,10 +4403,10 @@
         <v>12</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44154.70597778935</v>
+        <v>44154.70549010417</v>
       </c>
       <c r="C65" t="n">
-        <v>2198</v>
+        <v>631</v>
       </c>
       <c r="D65" t="s">
         <v>299</v>
@@ -4409,13 +4421,13 @@
         <v>302</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I65" t="s">
+        <v>34</v>
+      </c>
+      <c r="J65" t="s">
         <v>19</v>
-      </c>
-      <c r="J65" t="s">
-        <v>62</v>
       </c>
       <c r="K65" t="s">
         <v>20</v>
@@ -4427,10 +4439,10 @@
         <v>12</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44154.70629576389</v>
+        <v>44154.70597778935</v>
       </c>
       <c r="C66" t="n">
-        <v>3797</v>
+        <v>2198</v>
       </c>
       <c r="D66" t="s">
         <v>303</v>
@@ -4445,87 +4457,87 @@
         <v>306</v>
       </c>
       <c r="H66" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I66" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J66" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K66" t="s">
         <v>20</v>
       </c>
-      <c r="L66" t="s">
-        <v>307</v>
-      </c>
+      <c r="L66" t="s"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>12</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44154.70677894676</v>
+        <v>44154.70629576389</v>
       </c>
       <c r="C67" t="n">
-        <v>275</v>
+        <v>3797</v>
       </c>
       <c r="D67" t="s">
+        <v>307</v>
+      </c>
+      <c r="E67" t="s">
         <v>308</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>309</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>310</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>47</v>
+      </c>
+      <c r="J67" t="s">
+        <v>48</v>
+      </c>
+      <c r="K67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" t="s">
         <v>311</v>
       </c>
-      <c r="H67" t="s">
-        <v>47</v>
-      </c>
-      <c r="I67" t="s">
-        <v>312</v>
-      </c>
-      <c r="J67" t="s">
-        <v>42</v>
-      </c>
-      <c r="K67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L67" t="s"/>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>12</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44154.70703077546</v>
+        <v>44154.70677894676</v>
       </c>
       <c r="C68" t="n">
-        <v>392</v>
+        <v>275</v>
       </c>
       <c r="D68" t="s">
+        <v>312</v>
+      </c>
+      <c r="E68" t="s">
         <v>313</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>314</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>315</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" t="s">
         <v>316</v>
       </c>
-      <c r="H68" t="s">
-        <v>317</v>
-      </c>
-      <c r="I68" t="s">
-        <v>41</v>
-      </c>
       <c r="J68" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="K68" t="s">
         <v>20</v>
@@ -4537,48 +4549,46 @@
         <v>12</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44154.70736740741</v>
+        <v>44154.70703077546</v>
       </c>
       <c r="C69" t="n">
-        <v>1906</v>
+        <v>392</v>
       </c>
       <c r="D69" t="s">
+        <v>317</v>
+      </c>
+      <c r="E69" t="s">
         <v>318</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>319</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>320</v>
       </c>
-      <c r="G69" t="s">
-        <v>66</v>
-      </c>
       <c r="H69" t="s">
+        <v>321</v>
+      </c>
+      <c r="I69" t="s">
         <v>47</v>
       </c>
-      <c r="I69" t="s">
-        <v>28</v>
-      </c>
       <c r="J69" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="K69" t="s">
         <v>20</v>
       </c>
-      <c r="L69" t="s">
-        <v>321</v>
-      </c>
+      <c r="L69" t="s"/>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>12</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44154.70763553241</v>
+        <v>44154.70736740741</v>
       </c>
       <c r="C70" t="n">
-        <v>2977</v>
+        <v>1906</v>
       </c>
       <c r="D70" t="s">
         <v>322</v>
@@ -4590,31 +4600,33 @@
         <v>324</v>
       </c>
       <c r="G70" t="s">
+        <v>70</v>
+      </c>
+      <c r="H70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J70" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" t="s">
         <v>325</v>
       </c>
-      <c r="H70" t="s">
-        <v>47</v>
-      </c>
-      <c r="I70" t="s">
-        <v>20</v>
-      </c>
-      <c r="J70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K70" t="s">
-        <v>20</v>
-      </c>
-      <c r="L70" t="s"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>12</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44154.70829784722</v>
+        <v>44154.70763553241</v>
       </c>
       <c r="C71" t="n">
-        <v>465</v>
+        <v>2977</v>
       </c>
       <c r="D71" t="s">
         <v>326</v>
@@ -4629,13 +4641,13 @@
         <v>329</v>
       </c>
       <c r="H71" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I71" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J71" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="K71" t="s">
         <v>20</v>
@@ -4647,10 +4659,10 @@
         <v>12</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44154.70866863426</v>
+        <v>44154.70829784722</v>
       </c>
       <c r="C72" t="n">
-        <v>566</v>
+        <v>465</v>
       </c>
       <c r="D72" t="s">
         <v>330</v>
@@ -4662,13 +4674,13 @@
         <v>332</v>
       </c>
       <c r="G72" t="s">
-        <v>66</v>
+        <v>333</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J72" t="s">
         <v>19</v>
@@ -4676,55 +4688,55 @@
       <c r="K72" t="s">
         <v>20</v>
       </c>
-      <c r="L72" t="s">
-        <v>194</v>
-      </c>
+      <c r="L72" t="s"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
         <v>12</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44154.70929016203</v>
+        <v>44154.70866863426</v>
       </c>
       <c r="C73" t="n">
-        <v>81</v>
+        <v>566</v>
       </c>
       <c r="D73" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E73" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F73" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G73" t="s">
-        <v>336</v>
+        <v>70</v>
       </c>
       <c r="H73" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="I73" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="K73" t="s">
         <v>20</v>
       </c>
-      <c r="L73" t="s"/>
+      <c r="L73" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>12</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44154.70976986111</v>
+        <v>44154.70929016203</v>
       </c>
       <c r="C74" t="n">
-        <v>1837</v>
+        <v>81</v>
       </c>
       <c r="D74" t="s">
         <v>337</v>
@@ -4739,66 +4751,66 @@
         <v>340</v>
       </c>
       <c r="H74" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="I74" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J74" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="K74" t="s">
         <v>20</v>
       </c>
-      <c r="L74" t="s">
-        <v>341</v>
-      </c>
+      <c r="L74" t="s"/>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
         <v>12</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44154.71052581019</v>
+        <v>44154.70976986111</v>
       </c>
       <c r="C75" t="n">
-        <v>1446</v>
+        <v>1837</v>
       </c>
       <c r="D75" t="s">
+        <v>341</v>
+      </c>
+      <c r="E75" t="s">
         <v>342</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>343</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>344</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>47</v>
+      </c>
+      <c r="J75" t="s">
+        <v>40</v>
+      </c>
+      <c r="K75" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75" t="s">
         <v>345</v>
       </c>
-      <c r="H75" t="s">
-        <v>42</v>
-      </c>
-      <c r="I75" t="s">
-        <v>19</v>
-      </c>
-      <c r="J75" t="s">
-        <v>62</v>
-      </c>
-      <c r="K75" t="s">
-        <v>20</v>
-      </c>
-      <c r="L75" t="s"/>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>12</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44154.71083821759</v>
+        <v>44154.71052581019</v>
       </c>
       <c r="C76" t="n">
-        <v>1516</v>
+        <v>1446</v>
       </c>
       <c r="D76" t="s">
         <v>346</v>
@@ -4813,13 +4825,13 @@
         <v>349</v>
       </c>
       <c r="H76" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" t="s">
         <v>19</v>
-      </c>
-      <c r="J76" t="s">
-        <v>42</v>
       </c>
       <c r="K76" t="s">
         <v>20</v>
@@ -4831,10 +4843,10 @@
         <v>12</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44154.71164583333</v>
+        <v>44154.71083821759</v>
       </c>
       <c r="C77" t="n">
-        <v>1975</v>
+        <v>1516</v>
       </c>
       <c r="D77" t="s">
         <v>350</v>
@@ -4849,42 +4861,40 @@
         <v>353</v>
       </c>
       <c r="H77" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="I77" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K77" t="s">
-        <v>48</v>
-      </c>
-      <c r="L77" t="s">
-        <v>354</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L77" t="s"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
         <v>12</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44154.71525582176</v>
+        <v>44154.71164583333</v>
       </c>
       <c r="C78" t="n">
-        <v>1508</v>
+        <v>1975</v>
       </c>
       <c r="D78" t="s">
+        <v>354</v>
+      </c>
+      <c r="E78" t="s">
         <v>355</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>356</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>357</v>
-      </c>
-      <c r="G78" t="s">
-        <v>358</v>
       </c>
       <c r="H78" t="s">
         <v>47</v>
@@ -4896,19 +4906,21 @@
         <v>48</v>
       </c>
       <c r="K78" t="s">
-        <v>28</v>
-      </c>
-      <c r="L78" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="L78" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
         <v>12</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>44154.71736768518</v>
+        <v>44154.71525582176</v>
       </c>
       <c r="C79" t="n">
-        <v>2973</v>
+        <v>1508</v>
       </c>
       <c r="D79" t="s">
         <v>359</v>
@@ -4920,19 +4932,19 @@
         <v>361</v>
       </c>
       <c r="G79" t="s">
-        <v>260</v>
+        <v>362</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I79" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J79" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K79" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L79" t="s"/>
     </row>
@@ -4941,34 +4953,34 @@
         <v>12</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>44154.71784644676</v>
+        <v>44154.71736768518</v>
       </c>
       <c r="C80" t="n">
-        <v>2202</v>
+        <v>2973</v>
       </c>
       <c r="D80" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E80" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F80" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G80" t="s">
-        <v>365</v>
+        <v>264</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I80" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J80" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="K80" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="L80" t="s"/>
     </row>
@@ -4977,10 +4989,10 @@
         <v>12</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>44154.71844951389</v>
+        <v>44154.71784644676</v>
       </c>
       <c r="C81" t="n">
-        <v>3156</v>
+        <v>2202</v>
       </c>
       <c r="D81" t="s">
         <v>366</v>
@@ -4995,16 +5007,16 @@
         <v>369</v>
       </c>
       <c r="H81" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I81" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J81" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="K81" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="L81" t="s"/>
     </row>
@@ -5013,10 +5025,10 @@
         <v>12</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>44154.71885400463</v>
+        <v>44154.71844951389</v>
       </c>
       <c r="C82" t="n">
-        <v>2881</v>
+        <v>3156</v>
       </c>
       <c r="D82" t="s">
         <v>370</v>
@@ -5031,16 +5043,16 @@
         <v>373</v>
       </c>
       <c r="H82" t="s">
-        <v>374</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J82" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K82" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L82" t="s"/>
     </row>
@@ -5049,84 +5061,84 @@
         <v>12</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44154.71972351852</v>
+        <v>44154.71885400463</v>
       </c>
       <c r="C83" t="n">
-        <v>3034</v>
+        <v>2881</v>
       </c>
       <c r="D83" t="s">
+        <v>374</v>
+      </c>
+      <c r="E83" t="s">
         <v>375</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>376</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>377</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>378</v>
       </c>
-      <c r="H83" t="s">
-        <v>40</v>
-      </c>
       <c r="I83" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K83" t="s">
         <v>20</v>
       </c>
-      <c r="L83" t="s">
-        <v>379</v>
-      </c>
+      <c r="L83" t="s"/>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>12</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>44154.72165902777</v>
+        <v>44154.71972351852</v>
       </c>
       <c r="C84" t="n">
-        <v>986</v>
+        <v>3034</v>
       </c>
       <c r="D84" t="s">
+        <v>379</v>
+      </c>
+      <c r="E84" t="s">
         <v>380</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>381</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>382</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J84" t="s">
+        <v>48</v>
+      </c>
+      <c r="K84" t="s">
+        <v>20</v>
+      </c>
+      <c r="L84" t="s">
         <v>383</v>
       </c>
-      <c r="H84" t="s">
-        <v>41</v>
-      </c>
-      <c r="I84" t="s">
-        <v>41</v>
-      </c>
-      <c r="J84" t="s">
-        <v>62</v>
-      </c>
-      <c r="K84" t="s">
-        <v>20</v>
-      </c>
-      <c r="L84" t="s"/>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
         <v>12</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>44154.72335130787</v>
+        <v>44154.72165902777</v>
       </c>
       <c r="C85" t="n">
-        <v>2031</v>
+        <v>986</v>
       </c>
       <c r="D85" t="s">
         <v>384</v>
@@ -5141,16 +5153,16 @@
         <v>387</v>
       </c>
       <c r="H85" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J85" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K85" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L85" t="s"/>
     </row>
@@ -5159,10 +5171,10 @@
         <v>12</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>44154.72369152778</v>
+        <v>44154.72335130787</v>
       </c>
       <c r="C86" t="n">
-        <v>67</v>
+        <v>2031</v>
       </c>
       <c r="D86" t="s">
         <v>388</v>
@@ -5177,16 +5189,16 @@
         <v>391</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="I86" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J86" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="K86" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L86" t="s"/>
     </row>
@@ -5195,10 +5207,10 @@
         <v>12</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>44154.7240471875</v>
+        <v>44154.72369152778</v>
       </c>
       <c r="C87" t="n">
-        <v>533</v>
+        <v>67</v>
       </c>
       <c r="D87" t="s">
         <v>392</v>
@@ -5213,13 +5225,13 @@
         <v>395</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I87" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J87" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="K87" t="s">
         <v>20</v>
@@ -5231,10 +5243,10 @@
         <v>12</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>44154.72488017361</v>
+        <v>44154.7240471875</v>
       </c>
       <c r="C88" t="n">
-        <v>3716</v>
+        <v>533</v>
       </c>
       <c r="D88" t="s">
         <v>396</v>
@@ -5249,16 +5261,16 @@
         <v>399</v>
       </c>
       <c r="H88" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I88" t="s">
         <v>34</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K88" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L88" t="s"/>
     </row>
@@ -5267,10 +5279,10 @@
         <v>12</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>44154.72557752315</v>
+        <v>44154.72488017361</v>
       </c>
       <c r="C89" t="n">
-        <v>2974</v>
+        <v>3716</v>
       </c>
       <c r="D89" t="s">
         <v>400</v>
@@ -5282,19 +5294,19 @@
         <v>402</v>
       </c>
       <c r="G89" t="s">
-        <v>201</v>
+        <v>403</v>
       </c>
       <c r="H89" t="s">
-        <v>403</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J89" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="K89" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L89" t="s"/>
     </row>
@@ -5303,75 +5315,73 @@
         <v>12</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>44154.69819569444</v>
+        <v>44154.72557752315</v>
       </c>
       <c r="C90" t="n">
-        <v>702</v>
+        <v>2974</v>
       </c>
       <c r="D90" t="s">
-        <v>252</v>
+        <v>404</v>
       </c>
       <c r="E90" t="s">
-        <v>253</v>
+        <v>405</v>
       </c>
       <c r="F90" t="s">
-        <v>254</v>
+        <v>406</v>
       </c>
       <c r="G90" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="H90" t="s">
-        <v>26</v>
+        <v>407</v>
       </c>
       <c r="I90" t="s">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="J90" t="s">
         <v>19</v>
       </c>
       <c r="K90" t="s">
-        <v>20</v>
-      </c>
-      <c r="L90" t="s">
-        <v>256</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="L90" t="s"/>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
         <v>12</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>44154.69934395833</v>
+        <v>44154.69819569444</v>
       </c>
       <c r="C91" t="n">
-        <v>423</v>
+        <v>702</v>
       </c>
       <c r="D91" t="s">
+        <v>256</v>
+      </c>
+      <c r="E91" t="s">
         <v>257</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>258</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
+        <v>70</v>
+      </c>
+      <c r="H91" t="s">
+        <v>32</v>
+      </c>
+      <c r="I91" t="s">
         <v>259</v>
       </c>
-      <c r="G91" t="s">
+      <c r="J91" t="s">
+        <v>18</v>
+      </c>
+      <c r="K91" t="s">
+        <v>20</v>
+      </c>
+      <c r="L91" t="s">
         <v>260</v>
-      </c>
-      <c r="H91" t="s">
-        <v>41</v>
-      </c>
-      <c r="I91" t="s">
-        <v>41</v>
-      </c>
-      <c r="J91" t="s">
-        <v>62</v>
-      </c>
-      <c r="K91" t="s">
-        <v>20</v>
-      </c>
-      <c r="L91" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5379,46 +5389,48 @@
         <v>12</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>44154.69987591435</v>
+        <v>44154.69934395833</v>
       </c>
       <c r="C92" t="n">
-        <v>211</v>
+        <v>423</v>
       </c>
       <c r="D92" t="s">
+        <v>261</v>
+      </c>
+      <c r="E92" t="s">
         <v>262</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>263</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>264</v>
-      </c>
-      <c r="G92" t="s">
-        <v>265</v>
       </c>
       <c r="H92" t="s">
         <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J92" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="K92" t="s">
         <v>20</v>
       </c>
-      <c r="L92" t="s"/>
+      <c r="L92" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
         <v>12</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>44154.70088510417</v>
+        <v>44154.69987591435</v>
       </c>
       <c r="C93" t="n">
-        <v>3419</v>
+        <v>211</v>
       </c>
       <c r="D93" t="s">
         <v>266</v>
@@ -5433,66 +5445,66 @@
         <v>269</v>
       </c>
       <c r="H93" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I93" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J93" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K93" t="s">
         <v>20</v>
       </c>
-      <c r="L93" t="s">
-        <v>270</v>
-      </c>
+      <c r="L93" t="s"/>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
         <v>12</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>44154.70140253472</v>
+        <v>44154.70088510417</v>
       </c>
       <c r="C94" t="n">
-        <v>2074</v>
+        <v>3419</v>
       </c>
       <c r="D94" t="s">
+        <v>270</v>
+      </c>
+      <c r="E94" t="s">
         <v>271</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>272</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>273</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>47</v>
+      </c>
+      <c r="J94" t="s">
+        <v>48</v>
+      </c>
+      <c r="K94" t="s">
+        <v>20</v>
+      </c>
+      <c r="L94" t="s">
         <v>274</v>
       </c>
-      <c r="H94" t="s">
-        <v>47</v>
-      </c>
-      <c r="I94" t="s">
-        <v>19</v>
-      </c>
-      <c r="J94" t="s">
-        <v>62</v>
-      </c>
-      <c r="K94" t="s">
-        <v>28</v>
-      </c>
-      <c r="L94" t="s"/>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
         <v>12</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>44154.70263350695</v>
+        <v>44154.70140253472</v>
       </c>
       <c r="C95" t="n">
-        <v>183</v>
+        <v>2074</v>
       </c>
       <c r="D95" t="s">
         <v>275</v>
@@ -5507,16 +5519,16 @@
         <v>278</v>
       </c>
       <c r="H95" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I95" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="K95" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L95" t="s"/>
     </row>
@@ -5525,10 +5537,10 @@
         <v>12</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>44154.70319071759</v>
+        <v>44154.70263350695</v>
       </c>
       <c r="C96" t="n">
-        <v>847</v>
+        <v>183</v>
       </c>
       <c r="D96" t="s">
         <v>279</v>
@@ -5540,7 +5552,7 @@
         <v>281</v>
       </c>
       <c r="G96" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="H96" t="s">
         <v>47</v>
@@ -5549,10 +5561,10 @@
         <v>20</v>
       </c>
       <c r="J96" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K96" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L96" t="s"/>
     </row>
@@ -5561,31 +5573,31 @@
         <v>12</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>44154.70363350694</v>
+        <v>44154.70319071759</v>
       </c>
       <c r="C97" t="n">
-        <v>27</v>
+        <v>847</v>
       </c>
       <c r="D97" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E97" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F97" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G97" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="H97" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I97" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K97" t="s">
         <v>20</v>
@@ -5597,10 +5609,10 @@
         <v>12</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>44154.70392996528</v>
+        <v>44154.70363350694</v>
       </c>
       <c r="C98" t="n">
-        <v>1587</v>
+        <v>27</v>
       </c>
       <c r="D98" t="s">
         <v>286</v>
@@ -5615,66 +5627,66 @@
         <v>289</v>
       </c>
       <c r="H98" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I98" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="K98" t="s">
         <v>20</v>
       </c>
-      <c r="L98" t="s">
-        <v>290</v>
-      </c>
+      <c r="L98" t="s"/>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
         <v>12</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>44154.70447649305</v>
+        <v>44154.70392996528</v>
       </c>
       <c r="C99" t="n">
-        <v>1510</v>
+        <v>1587</v>
       </c>
       <c r="D99" t="s">
+        <v>290</v>
+      </c>
+      <c r="E99" t="s">
         <v>291</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>292</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>293</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>47</v>
+      </c>
+      <c r="J99" t="s">
+        <v>48</v>
+      </c>
+      <c r="K99" t="s">
+        <v>20</v>
+      </c>
+      <c r="L99" t="s">
         <v>294</v>
       </c>
-      <c r="H99" t="s">
-        <v>47</v>
-      </c>
-      <c r="I99" t="s">
-        <v>19</v>
-      </c>
-      <c r="J99" t="s">
-        <v>42</v>
-      </c>
-      <c r="K99" t="s">
-        <v>20</v>
-      </c>
-      <c r="L99" t="s"/>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
         <v>12</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>44154.70549010417</v>
+        <v>44154.70447649305</v>
       </c>
       <c r="C100" t="n">
-        <v>631</v>
+        <v>1510</v>
       </c>
       <c r="D100" t="s">
         <v>295</v>
@@ -5689,13 +5701,13 @@
         <v>298</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I100" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J100" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="K100" t="s">
         <v>20</v>
@@ -5707,10 +5719,10 @@
         <v>12</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>44154.70597778935</v>
+        <v>44154.70549010417</v>
       </c>
       <c r="C101" t="n">
-        <v>2198</v>
+        <v>631</v>
       </c>
       <c r="D101" t="s">
         <v>299</v>
@@ -5725,13 +5737,13 @@
         <v>302</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I101" t="s">
+        <v>34</v>
+      </c>
+      <c r="J101" t="s">
         <v>19</v>
-      </c>
-      <c r="J101" t="s">
-        <v>62</v>
       </c>
       <c r="K101" t="s">
         <v>20</v>
@@ -5743,10 +5755,10 @@
         <v>12</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>44154.70629576389</v>
+        <v>44154.70597778935</v>
       </c>
       <c r="C102" t="n">
-        <v>3797</v>
+        <v>2198</v>
       </c>
       <c r="D102" t="s">
         <v>303</v>
@@ -5761,87 +5773,87 @@
         <v>306</v>
       </c>
       <c r="H102" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I102" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K102" t="s">
         <v>20</v>
       </c>
-      <c r="L102" t="s">
-        <v>307</v>
-      </c>
+      <c r="L102" t="s"/>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
         <v>12</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>44154.70677894676</v>
+        <v>44154.70629576389</v>
       </c>
       <c r="C103" t="n">
-        <v>275</v>
+        <v>3797</v>
       </c>
       <c r="D103" t="s">
+        <v>307</v>
+      </c>
+      <c r="E103" t="s">
         <v>308</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>309</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>310</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I103" t="s">
+        <v>47</v>
+      </c>
+      <c r="J103" t="s">
+        <v>48</v>
+      </c>
+      <c r="K103" t="s">
+        <v>20</v>
+      </c>
+      <c r="L103" t="s">
         <v>311</v>
       </c>
-      <c r="H103" t="s">
-        <v>47</v>
-      </c>
-      <c r="I103" t="s">
-        <v>312</v>
-      </c>
-      <c r="J103" t="s">
-        <v>42</v>
-      </c>
-      <c r="K103" t="s">
-        <v>20</v>
-      </c>
-      <c r="L103" t="s"/>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
         <v>12</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>44154.70703077546</v>
+        <v>44154.70677894676</v>
       </c>
       <c r="C104" t="n">
-        <v>392</v>
+        <v>275</v>
       </c>
       <c r="D104" t="s">
+        <v>312</v>
+      </c>
+      <c r="E104" t="s">
         <v>313</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>314</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>315</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
+        <v>17</v>
+      </c>
+      <c r="I104" t="s">
         <v>316</v>
       </c>
-      <c r="H104" t="s">
-        <v>317</v>
-      </c>
-      <c r="I104" t="s">
-        <v>41</v>
-      </c>
       <c r="J104" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="K104" t="s">
         <v>20</v>
@@ -5853,48 +5865,46 @@
         <v>12</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>44154.70736740741</v>
+        <v>44154.70703077546</v>
       </c>
       <c r="C105" t="n">
-        <v>1906</v>
+        <v>392</v>
       </c>
       <c r="D105" t="s">
+        <v>317</v>
+      </c>
+      <c r="E105" t="s">
         <v>318</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>319</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>320</v>
       </c>
-      <c r="G105" t="s">
-        <v>66</v>
-      </c>
       <c r="H105" t="s">
+        <v>321</v>
+      </c>
+      <c r="I105" t="s">
         <v>47</v>
       </c>
-      <c r="I105" t="s">
-        <v>28</v>
-      </c>
       <c r="J105" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="K105" t="s">
         <v>20</v>
       </c>
-      <c r="L105" t="s">
-        <v>321</v>
-      </c>
+      <c r="L105" t="s"/>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
         <v>12</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>44154.70763553241</v>
+        <v>44154.70736740741</v>
       </c>
       <c r="C106" t="n">
-        <v>2977</v>
+        <v>1906</v>
       </c>
       <c r="D106" t="s">
         <v>322</v>
@@ -5906,31 +5916,33 @@
         <v>324</v>
       </c>
       <c r="G106" t="s">
+        <v>70</v>
+      </c>
+      <c r="H106" t="s">
+        <v>17</v>
+      </c>
+      <c r="I106" t="s">
+        <v>34</v>
+      </c>
+      <c r="J106" t="s">
+        <v>18</v>
+      </c>
+      <c r="K106" t="s">
+        <v>20</v>
+      </c>
+      <c r="L106" t="s">
         <v>325</v>
       </c>
-      <c r="H106" t="s">
-        <v>47</v>
-      </c>
-      <c r="I106" t="s">
-        <v>20</v>
-      </c>
-      <c r="J106" t="s">
-        <v>62</v>
-      </c>
-      <c r="K106" t="s">
-        <v>20</v>
-      </c>
-      <c r="L106" t="s"/>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
         <v>12</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>44154.70829784722</v>
+        <v>44154.70763553241</v>
       </c>
       <c r="C107" t="n">
-        <v>465</v>
+        <v>2977</v>
       </c>
       <c r="D107" t="s">
         <v>326</v>
@@ -5945,13 +5957,13 @@
         <v>329</v>
       </c>
       <c r="H107" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I107" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J107" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="K107" t="s">
         <v>20</v>
@@ -5963,10 +5975,10 @@
         <v>12</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>44154.70866863426</v>
+        <v>44154.70829784722</v>
       </c>
       <c r="C108" t="n">
-        <v>566</v>
+        <v>465</v>
       </c>
       <c r="D108" t="s">
         <v>330</v>
@@ -5978,13 +5990,13 @@
         <v>332</v>
       </c>
       <c r="G108" t="s">
-        <v>66</v>
+        <v>333</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J108" t="s">
         <v>19</v>
@@ -5992,55 +6004,55 @@
       <c r="K108" t="s">
         <v>20</v>
       </c>
-      <c r="L108" t="s">
-        <v>194</v>
-      </c>
+      <c r="L108" t="s"/>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
         <v>12</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>44154.70929016203</v>
+        <v>44154.70866863426</v>
       </c>
       <c r="C109" t="n">
-        <v>81</v>
+        <v>566</v>
       </c>
       <c r="D109" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E109" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F109" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G109" t="s">
-        <v>336</v>
+        <v>70</v>
       </c>
       <c r="H109" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="I109" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="K109" t="s">
         <v>20</v>
       </c>
-      <c r="L109" t="s"/>
+      <c r="L109" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
         <v>12</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>44154.70976986111</v>
+        <v>44154.70929016203</v>
       </c>
       <c r="C110" t="n">
-        <v>1837</v>
+        <v>81</v>
       </c>
       <c r="D110" t="s">
         <v>337</v>
@@ -6055,66 +6067,66 @@
         <v>340</v>
       </c>
       <c r="H110" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="I110" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J110" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="K110" t="s">
         <v>20</v>
       </c>
-      <c r="L110" t="s">
-        <v>341</v>
-      </c>
+      <c r="L110" t="s"/>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
         <v>12</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>44154.71052581019</v>
+        <v>44154.70976986111</v>
       </c>
       <c r="C111" t="n">
-        <v>1446</v>
+        <v>1837</v>
       </c>
       <c r="D111" t="s">
+        <v>341</v>
+      </c>
+      <c r="E111" t="s">
         <v>342</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>343</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>344</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
+        <v>46</v>
+      </c>
+      <c r="I111" t="s">
+        <v>47</v>
+      </c>
+      <c r="J111" t="s">
+        <v>40</v>
+      </c>
+      <c r="K111" t="s">
+        <v>20</v>
+      </c>
+      <c r="L111" t="s">
         <v>345</v>
       </c>
-      <c r="H111" t="s">
-        <v>42</v>
-      </c>
-      <c r="I111" t="s">
-        <v>19</v>
-      </c>
-      <c r="J111" t="s">
-        <v>62</v>
-      </c>
-      <c r="K111" t="s">
-        <v>20</v>
-      </c>
-      <c r="L111" t="s"/>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
         <v>12</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>44154.71083821759</v>
+        <v>44154.71052581019</v>
       </c>
       <c r="C112" t="n">
-        <v>1516</v>
+        <v>1446</v>
       </c>
       <c r="D112" t="s">
         <v>346</v>
@@ -6129,13 +6141,13 @@
         <v>349</v>
       </c>
       <c r="H112" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
+        <v>18</v>
+      </c>
+      <c r="J112" t="s">
         <v>19</v>
-      </c>
-      <c r="J112" t="s">
-        <v>42</v>
       </c>
       <c r="K112" t="s">
         <v>20</v>
@@ -6147,10 +6159,10 @@
         <v>12</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>44154.71164583333</v>
+        <v>44154.71083821759</v>
       </c>
       <c r="C113" t="n">
-        <v>1975</v>
+        <v>1516</v>
       </c>
       <c r="D113" t="s">
         <v>350</v>
@@ -6165,42 +6177,40 @@
         <v>353</v>
       </c>
       <c r="H113" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="I113" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J113" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K113" t="s">
-        <v>48</v>
-      </c>
-      <c r="L113" t="s">
-        <v>354</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L113" t="s"/>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
         <v>12</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>44154.71525582176</v>
+        <v>44154.71164583333</v>
       </c>
       <c r="C114" t="n">
-        <v>1508</v>
+        <v>1975</v>
       </c>
       <c r="D114" t="s">
+        <v>354</v>
+      </c>
+      <c r="E114" t="s">
         <v>355</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>356</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>357</v>
-      </c>
-      <c r="G114" t="s">
-        <v>358</v>
       </c>
       <c r="H114" t="s">
         <v>47</v>
@@ -6212,19 +6222,21 @@
         <v>48</v>
       </c>
       <c r="K114" t="s">
-        <v>28</v>
-      </c>
-      <c r="L114" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="L114" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
         <v>12</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>44154.71736768518</v>
+        <v>44154.71525582176</v>
       </c>
       <c r="C115" t="n">
-        <v>2973</v>
+        <v>1508</v>
       </c>
       <c r="D115" t="s">
         <v>359</v>
@@ -6236,19 +6248,19 @@
         <v>361</v>
       </c>
       <c r="G115" t="s">
-        <v>260</v>
+        <v>362</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I115" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J115" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K115" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L115" t="s"/>
     </row>
@@ -6257,34 +6269,34 @@
         <v>12</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>44154.71784644676</v>
+        <v>44154.71736768518</v>
       </c>
       <c r="C116" t="n">
-        <v>2202</v>
+        <v>2973</v>
       </c>
       <c r="D116" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E116" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F116" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G116" t="s">
-        <v>365</v>
+        <v>264</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I116" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J116" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="K116" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="L116" t="s"/>
     </row>
@@ -6293,10 +6305,10 @@
         <v>12</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>44154.71844951389</v>
+        <v>44154.71784644676</v>
       </c>
       <c r="C117" t="n">
-        <v>3156</v>
+        <v>2202</v>
       </c>
       <c r="D117" t="s">
         <v>366</v>
@@ -6311,16 +6323,16 @@
         <v>369</v>
       </c>
       <c r="H117" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I117" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J117" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="K117" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="L117" t="s"/>
     </row>
@@ -6329,10 +6341,10 @@
         <v>12</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>44154.71885400463</v>
+        <v>44154.71844951389</v>
       </c>
       <c r="C118" t="n">
-        <v>2881</v>
+        <v>3156</v>
       </c>
       <c r="D118" t="s">
         <v>370</v>
@@ -6347,16 +6359,16 @@
         <v>373</v>
       </c>
       <c r="H118" t="s">
-        <v>374</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J118" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K118" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L118" t="s"/>
     </row>
@@ -6365,84 +6377,84 @@
         <v>12</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>44154.71972351852</v>
+        <v>44154.71885400463</v>
       </c>
       <c r="C119" t="n">
-        <v>3034</v>
+        <v>2881</v>
       </c>
       <c r="D119" t="s">
+        <v>374</v>
+      </c>
+      <c r="E119" t="s">
         <v>375</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>376</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>377</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>378</v>
       </c>
-      <c r="H119" t="s">
-        <v>40</v>
-      </c>
       <c r="I119" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K119" t="s">
         <v>20</v>
       </c>
-      <c r="L119" t="s">
-        <v>379</v>
-      </c>
+      <c r="L119" t="s"/>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
         <v>12</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>44154.72165902777</v>
+        <v>44154.71972351852</v>
       </c>
       <c r="C120" t="n">
-        <v>986</v>
+        <v>3034</v>
       </c>
       <c r="D120" t="s">
+        <v>379</v>
+      </c>
+      <c r="E120" t="s">
         <v>380</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>381</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>382</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
+        <v>46</v>
+      </c>
+      <c r="I120" t="s">
+        <v>47</v>
+      </c>
+      <c r="J120" t="s">
+        <v>48</v>
+      </c>
+      <c r="K120" t="s">
+        <v>20</v>
+      </c>
+      <c r="L120" t="s">
         <v>383</v>
       </c>
-      <c r="H120" t="s">
-        <v>41</v>
-      </c>
-      <c r="I120" t="s">
-        <v>41</v>
-      </c>
-      <c r="J120" t="s">
-        <v>62</v>
-      </c>
-      <c r="K120" t="s">
-        <v>20</v>
-      </c>
-      <c r="L120" t="s"/>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" t="s">
         <v>12</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>44154.72335130787</v>
+        <v>44154.72165902777</v>
       </c>
       <c r="C121" t="n">
-        <v>2031</v>
+        <v>986</v>
       </c>
       <c r="D121" t="s">
         <v>384</v>
@@ -6457,16 +6469,16 @@
         <v>387</v>
       </c>
       <c r="H121" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I121" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J121" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K121" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L121" t="s"/>
     </row>
@@ -6475,10 +6487,10 @@
         <v>12</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>44154.72369152778</v>
+        <v>44154.72335130787</v>
       </c>
       <c r="C122" t="n">
-        <v>67</v>
+        <v>2031</v>
       </c>
       <c r="D122" t="s">
         <v>388</v>
@@ -6493,16 +6505,16 @@
         <v>391</v>
       </c>
       <c r="H122" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="I122" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J122" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="K122" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L122" t="s"/>
     </row>
@@ -6511,10 +6523,10 @@
         <v>12</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>44154.7240471875</v>
+        <v>44154.72369152778</v>
       </c>
       <c r="C123" t="n">
-        <v>533</v>
+        <v>67</v>
       </c>
       <c r="D123" t="s">
         <v>392</v>
@@ -6529,13 +6541,13 @@
         <v>395</v>
       </c>
       <c r="H123" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I123" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J123" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="K123" t="s">
         <v>20</v>
@@ -6547,10 +6559,10 @@
         <v>12</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>44154.72488017361</v>
+        <v>44154.7240471875</v>
       </c>
       <c r="C124" t="n">
-        <v>3716</v>
+        <v>533</v>
       </c>
       <c r="D124" t="s">
         <v>396</v>
@@ -6565,16 +6577,16 @@
         <v>399</v>
       </c>
       <c r="H124" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I124" t="s">
         <v>34</v>
       </c>
       <c r="J124" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K124" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L124" t="s"/>
     </row>
@@ -6583,10 +6595,10 @@
         <v>12</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>44154.72557752315</v>
+        <v>44154.72488017361</v>
       </c>
       <c r="C125" t="n">
-        <v>2974</v>
+        <v>3716</v>
       </c>
       <c r="D125" t="s">
         <v>400</v>
@@ -6598,19 +6610,19 @@
         <v>402</v>
       </c>
       <c r="G125" t="s">
-        <v>201</v>
+        <v>403</v>
       </c>
       <c r="H125" t="s">
-        <v>403</v>
+        <v>48</v>
       </c>
       <c r="I125" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J125" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="K125" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L125" t="s"/>
     </row>
@@ -6619,10 +6631,10 @@
         <v>12</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>44154.6643809838</v>
+        <v>44154.72557752315</v>
       </c>
       <c r="C126" t="n">
-        <v>2555</v>
+        <v>2974</v>
       </c>
       <c r="D126" t="s">
         <v>404</v>
@@ -6634,19 +6646,19 @@
         <v>406</v>
       </c>
       <c r="G126" t="s">
+        <v>205</v>
+      </c>
+      <c r="H126" t="s">
         <v>407</v>
       </c>
-      <c r="H126" t="s">
-        <v>61</v>
-      </c>
       <c r="I126" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J126" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K126" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L126" t="s"/>
     </row>
@@ -6655,10 +6667,10 @@
         <v>12</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>44154.66514181713</v>
+        <v>44154.6643809838</v>
       </c>
       <c r="C127" t="n">
-        <v>2501</v>
+        <v>2555</v>
       </c>
       <c r="D127" t="s">
         <v>408</v>
@@ -6673,16 +6685,16 @@
         <v>411</v>
       </c>
       <c r="H127" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I127" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="J127" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="K127" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="L127" t="s"/>
     </row>
@@ -6691,10 +6703,10 @@
         <v>12</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>44154.6655874537</v>
+        <v>44154.66514181713</v>
       </c>
       <c r="C128" t="n">
-        <v>2825</v>
+        <v>2501</v>
       </c>
       <c r="D128" t="s">
         <v>412</v>
@@ -6709,16 +6721,16 @@
         <v>415</v>
       </c>
       <c r="H128" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="I128" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J128" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="K128" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="L128" t="s"/>
     </row>
@@ -6727,10 +6739,10 @@
         <v>12</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>44154.66637526621</v>
+        <v>44154.6655874537</v>
       </c>
       <c r="C129" t="n">
-        <v>3460</v>
+        <v>2825</v>
       </c>
       <c r="D129" t="s">
         <v>416</v>
@@ -6745,16 +6757,16 @@
         <v>419</v>
       </c>
       <c r="H129" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I129" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J129" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K129" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L129" t="s"/>
     </row>
@@ -6763,10 +6775,10 @@
         <v>12</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>44154.66675946759</v>
+        <v>44154.66637526621</v>
       </c>
       <c r="C130" t="n">
-        <v>1777</v>
+        <v>3460</v>
       </c>
       <c r="D130" t="s">
         <v>420</v>
@@ -6781,57 +6793,55 @@
         <v>423</v>
       </c>
       <c r="H130" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I130" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K130" t="s">
-        <v>20</v>
-      </c>
-      <c r="L130" t="s">
-        <v>424</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="L130" t="s"/>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" t="s">
         <v>12</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>44154.66788681713</v>
+        <v>44154.66675946759</v>
       </c>
       <c r="C131" t="n">
-        <v>2772</v>
+        <v>1777</v>
       </c>
       <c r="D131" t="s">
+        <v>424</v>
+      </c>
+      <c r="E131" t="s">
         <v>425</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>426</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>427</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
+        <v>46</v>
+      </c>
+      <c r="I131" t="s">
+        <v>47</v>
+      </c>
+      <c r="J131" t="s">
+        <v>48</v>
+      </c>
+      <c r="K131" t="s">
+        <v>20</v>
+      </c>
+      <c r="L131" t="s">
         <v>428</v>
-      </c>
-      <c r="H131" t="s">
-        <v>26</v>
-      </c>
-      <c r="I131" t="s">
-        <v>19</v>
-      </c>
-      <c r="J131" t="s">
-        <v>19</v>
-      </c>
-      <c r="K131" t="s">
-        <v>20</v>
-      </c>
-      <c r="L131" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6839,37 +6849,37 @@
         <v>12</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>44154.66935013889</v>
+        <v>44154.66788681713</v>
       </c>
       <c r="C132" t="n">
-        <v>3641</v>
+        <v>2772</v>
       </c>
       <c r="D132" t="s">
+        <v>429</v>
+      </c>
+      <c r="E132" t="s">
         <v>430</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>431</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>432</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132" t="s">
+        <v>32</v>
+      </c>
+      <c r="I132" t="s">
+        <v>18</v>
+      </c>
+      <c r="J132" t="s">
+        <v>18</v>
+      </c>
+      <c r="K132" t="s">
+        <v>20</v>
+      </c>
+      <c r="L132" t="s">
         <v>433</v>
-      </c>
-      <c r="H132" t="s">
-        <v>42</v>
-      </c>
-      <c r="I132" t="s">
-        <v>27</v>
-      </c>
-      <c r="J132" t="s">
-        <v>19</v>
-      </c>
-      <c r="K132" t="s">
-        <v>20</v>
-      </c>
-      <c r="L132" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6877,46 +6887,48 @@
         <v>12</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>44154.67044814815</v>
+        <v>44154.66935013889</v>
       </c>
       <c r="C133" t="n">
-        <v>2487</v>
+        <v>3641</v>
       </c>
       <c r="D133" t="s">
+        <v>434</v>
+      </c>
+      <c r="E133" t="s">
         <v>435</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>436</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>437</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" t="s">
+        <v>48</v>
+      </c>
+      <c r="I133" t="s">
+        <v>33</v>
+      </c>
+      <c r="J133" t="s">
+        <v>18</v>
+      </c>
+      <c r="K133" t="s">
+        <v>20</v>
+      </c>
+      <c r="L133" t="s">
         <v>438</v>
       </c>
-      <c r="H133" t="s">
-        <v>26</v>
-      </c>
-      <c r="I133" t="s">
-        <v>41</v>
-      </c>
-      <c r="J133" t="s">
-        <v>28</v>
-      </c>
-      <c r="K133" t="s">
-        <v>28</v>
-      </c>
-      <c r="L133" t="s"/>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" t="s">
         <v>12</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>44154.67135246528</v>
+        <v>44154.67044814815</v>
       </c>
       <c r="C134" t="n">
-        <v>2638</v>
+        <v>2487</v>
       </c>
       <c r="D134" t="s">
         <v>439</v>
@@ -6931,16 +6943,16 @@
         <v>442</v>
       </c>
       <c r="H134" t="s">
-        <v>443</v>
+        <v>32</v>
       </c>
       <c r="I134" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J134" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K134" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L134" t="s"/>
     </row>
@@ -6949,84 +6961,84 @@
         <v>12</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>44154.67172907407</v>
+        <v>44154.67135246528</v>
       </c>
       <c r="C135" t="n">
-        <v>3209</v>
+        <v>2638</v>
       </c>
       <c r="D135" t="s">
+        <v>443</v>
+      </c>
+      <c r="E135" t="s">
         <v>444</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>445</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>446</v>
       </c>
-      <c r="G135" t="s">
+      <c r="H135" t="s">
         <v>447</v>
       </c>
-      <c r="H135" t="s">
-        <v>40</v>
-      </c>
       <c r="I135" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J135" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K135" t="s">
         <v>20</v>
       </c>
-      <c r="L135" t="s">
-        <v>448</v>
-      </c>
+      <c r="L135" t="s"/>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" t="s">
         <v>12</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>44154.67312695602</v>
+        <v>44154.67172907407</v>
       </c>
       <c r="C136" t="n">
-        <v>3711</v>
+        <v>3209</v>
       </c>
       <c r="D136" t="s">
+        <v>448</v>
+      </c>
+      <c r="E136" t="s">
         <v>449</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>450</v>
       </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>451</v>
       </c>
-      <c r="G136" t="s">
+      <c r="H136" t="s">
+        <v>46</v>
+      </c>
+      <c r="I136" t="s">
+        <v>47</v>
+      </c>
+      <c r="J136" t="s">
+        <v>48</v>
+      </c>
+      <c r="K136" t="s">
+        <v>20</v>
+      </c>
+      <c r="L136" t="s">
         <v>452</v>
       </c>
-      <c r="H136" t="s">
-        <v>42</v>
-      </c>
-      <c r="I136" t="s">
-        <v>34</v>
-      </c>
-      <c r="J136" t="s">
-        <v>28</v>
-      </c>
-      <c r="K136" t="s">
-        <v>28</v>
-      </c>
-      <c r="L136" t="s"/>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" t="s">
         <v>12</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>44154.6736441088</v>
+        <v>44154.67312695602</v>
       </c>
       <c r="C137" t="n">
-        <v>3312</v>
+        <v>3711</v>
       </c>
       <c r="D137" t="s">
         <v>453</v>
@@ -7041,16 +7053,16 @@
         <v>456</v>
       </c>
       <c r="H137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I137" t="s">
-        <v>457</v>
+        <v>40</v>
       </c>
       <c r="J137" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="K137" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L137" t="s"/>
     </row>
@@ -7059,34 +7071,34 @@
         <v>12</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>44154.67442511574</v>
+        <v>44154.6736441088</v>
       </c>
       <c r="C138" t="n">
-        <v>78</v>
+        <v>3312</v>
       </c>
       <c r="D138" t="s">
+        <v>457</v>
+      </c>
+      <c r="E138" t="s">
         <v>458</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>459</v>
       </c>
-      <c r="F138" t="s">
+      <c r="G138" t="s">
         <v>460</v>
       </c>
-      <c r="G138" t="s">
+      <c r="H138" t="s">
+        <v>17</v>
+      </c>
+      <c r="I138" t="s">
         <v>461</v>
       </c>
-      <c r="H138" t="s">
-        <v>47</v>
-      </c>
-      <c r="I138" t="s">
-        <v>34</v>
-      </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K138" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L138" t="s"/>
     </row>
@@ -7095,10 +7107,10 @@
         <v>12</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>44154.67532738426</v>
+        <v>44154.67442511574</v>
       </c>
       <c r="C139" t="n">
-        <v>3031</v>
+        <v>78</v>
       </c>
       <c r="D139" t="s">
         <v>462</v>
@@ -7113,66 +7125,66 @@
         <v>465</v>
       </c>
       <c r="H139" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I139" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J139" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="K139" t="s">
-        <v>62</v>
-      </c>
-      <c r="L139" t="s">
-        <v>466</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="L139" t="s"/>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" t="s">
         <v>12</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>44154.67696158565</v>
+        <v>44154.67532738426</v>
       </c>
       <c r="C140" t="n">
-        <v>2035</v>
+        <v>3031</v>
       </c>
       <c r="D140" t="s">
+        <v>466</v>
+      </c>
+      <c r="E140" t="s">
         <v>467</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>468</v>
       </c>
-      <c r="F140" t="s">
+      <c r="G140" t="s">
         <v>469</v>
       </c>
-      <c r="G140" t="s">
-        <v>470</v>
-      </c>
       <c r="H140" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I140" t="s">
         <v>34</v>
       </c>
       <c r="J140" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="K140" t="s">
-        <v>28</v>
-      </c>
-      <c r="L140" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L140" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" t="s">
         <v>12</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>44154.67738247685</v>
+        <v>44154.67696158565</v>
       </c>
       <c r="C141" t="n">
-        <v>1784</v>
+        <v>2035</v>
       </c>
       <c r="D141" t="s">
         <v>471</v>
@@ -7187,66 +7199,66 @@
         <v>474</v>
       </c>
       <c r="H141" t="s">
+        <v>17</v>
+      </c>
+      <c r="I141" t="s">
         <v>40</v>
-      </c>
-      <c r="I141" t="s">
-        <v>41</v>
       </c>
       <c r="J141" t="s">
         <v>19</v>
       </c>
       <c r="K141" t="s">
-        <v>20</v>
-      </c>
-      <c r="L141" t="s">
-        <v>475</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="L141" t="s"/>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" t="s">
         <v>12</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>44154.67845166667</v>
+        <v>44154.67738247685</v>
       </c>
       <c r="C142" t="n">
-        <v>116</v>
+        <v>1784</v>
       </c>
       <c r="D142" t="s">
+        <v>475</v>
+      </c>
+      <c r="E142" t="s">
         <v>476</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>477</v>
       </c>
-      <c r="F142" t="s">
+      <c r="G142" t="s">
         <v>478</v>
       </c>
-      <c r="G142" t="s">
+      <c r="H142" t="s">
+        <v>46</v>
+      </c>
+      <c r="I142" t="s">
+        <v>47</v>
+      </c>
+      <c r="J142" t="s">
+        <v>18</v>
+      </c>
+      <c r="K142" t="s">
+        <v>20</v>
+      </c>
+      <c r="L142" t="s">
         <v>479</v>
       </c>
-      <c r="H142" t="s">
-        <v>26</v>
-      </c>
-      <c r="I142" t="s">
-        <v>34</v>
-      </c>
-      <c r="J142" t="s">
-        <v>28</v>
-      </c>
-      <c r="K142" t="s">
-        <v>28</v>
-      </c>
-      <c r="L142" t="s"/>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" t="s">
         <v>12</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>44154.68068962963</v>
+        <v>44154.67845166667</v>
       </c>
       <c r="C143" t="n">
-        <v>1882</v>
+        <v>116</v>
       </c>
       <c r="D143" t="s">
         <v>480</v>
@@ -7261,66 +7273,66 @@
         <v>483</v>
       </c>
       <c r="H143" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J143" t="s">
-        <v>457</v>
+        <v>34</v>
       </c>
       <c r="K143" t="s">
-        <v>62</v>
-      </c>
-      <c r="L143" t="s">
-        <v>484</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="L143" t="s"/>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" t="s">
         <v>12</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>44154.68186581018</v>
+        <v>44154.68068962963</v>
       </c>
       <c r="C144" t="n">
-        <v>1175</v>
+        <v>1882</v>
       </c>
       <c r="D144" t="s">
+        <v>484</v>
+      </c>
+      <c r="E144" t="s">
         <v>485</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>486</v>
       </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>487</v>
-      </c>
-      <c r="G144" t="s">
-        <v>488</v>
       </c>
       <c r="H144" t="s">
         <v>47</v>
       </c>
       <c r="I144" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>461</v>
       </c>
       <c r="K144" t="s">
-        <v>28</v>
-      </c>
-      <c r="L144" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L144" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" t="s">
         <v>12</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>44154.68270211806</v>
+        <v>44154.68186581018</v>
       </c>
       <c r="C145" t="n">
-        <v>1528</v>
+        <v>1175</v>
       </c>
       <c r="D145" t="s">
         <v>489</v>
@@ -7332,33 +7344,31 @@
         <v>491</v>
       </c>
       <c r="G145" t="s">
-        <v>428</v>
+        <v>492</v>
       </c>
       <c r="H145" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I145" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J145" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="K145" t="s">
-        <v>20</v>
-      </c>
-      <c r="L145" t="s">
-        <v>492</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="L145" t="s"/>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" t="s">
         <v>12</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>44154.68296275463</v>
+        <v>44154.68270211806</v>
       </c>
       <c r="C146" t="n">
-        <v>1838</v>
+        <v>1528</v>
       </c>
       <c r="D146" t="s">
         <v>493</v>
@@ -7370,22 +7380,22 @@
         <v>495</v>
       </c>
       <c r="G146" t="s">
+        <v>432</v>
+      </c>
+      <c r="H146" t="s">
+        <v>32</v>
+      </c>
+      <c r="I146" t="s">
+        <v>18</v>
+      </c>
+      <c r="J146" t="s">
+        <v>18</v>
+      </c>
+      <c r="K146" t="s">
+        <v>20</v>
+      </c>
+      <c r="L146" t="s">
         <v>496</v>
-      </c>
-      <c r="H146" t="s">
-        <v>40</v>
-      </c>
-      <c r="I146" t="s">
-        <v>41</v>
-      </c>
-      <c r="J146" t="s">
-        <v>42</v>
-      </c>
-      <c r="K146" t="s">
-        <v>20</v>
-      </c>
-      <c r="L146" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7393,46 +7403,48 @@
         <v>12</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>44154.68356502315</v>
+        <v>44154.68296275463</v>
       </c>
       <c r="C147" t="n">
-        <v>1924</v>
+        <v>1838</v>
       </c>
       <c r="D147" t="s">
+        <v>497</v>
+      </c>
+      <c r="E147" t="s">
         <v>498</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>499</v>
       </c>
-      <c r="F147" t="s">
+      <c r="G147" t="s">
         <v>500</v>
       </c>
-      <c r="G147" t="s">
+      <c r="H147" t="s">
+        <v>46</v>
+      </c>
+      <c r="I147" t="s">
+        <v>47</v>
+      </c>
+      <c r="J147" t="s">
+        <v>48</v>
+      </c>
+      <c r="K147" t="s">
+        <v>20</v>
+      </c>
+      <c r="L147" t="s">
         <v>501</v>
       </c>
-      <c r="H147" t="s">
-        <v>47</v>
-      </c>
-      <c r="I147" t="s">
-        <v>28</v>
-      </c>
-      <c r="J147" t="s">
-        <v>62</v>
-      </c>
-      <c r="K147" t="s">
-        <v>28</v>
-      </c>
-      <c r="L147" t="s"/>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" t="s">
         <v>12</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>44154.6841640625</v>
+        <v>44154.68356502315</v>
       </c>
       <c r="C148" t="n">
-        <v>3611</v>
+        <v>1924</v>
       </c>
       <c r="D148" t="s">
         <v>502</v>
@@ -7447,16 +7459,16 @@
         <v>505</v>
       </c>
       <c r="H148" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I148" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="J148" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K148" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L148" t="s"/>
     </row>
@@ -7465,10 +7477,10 @@
         <v>12</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>44154.68457054398</v>
+        <v>44154.6841640625</v>
       </c>
       <c r="C149" t="n">
-        <v>1065</v>
+        <v>3611</v>
       </c>
       <c r="D149" t="s">
         <v>506</v>
@@ -7483,16 +7495,16 @@
         <v>509</v>
       </c>
       <c r="H149" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I149" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J149" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="K149" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L149" t="s"/>
     </row>
@@ -7501,10 +7513,10 @@
         <v>12</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>44154.68556002315</v>
+        <v>44154.68457054398</v>
       </c>
       <c r="C150" t="n">
-        <v>2475</v>
+        <v>1065</v>
       </c>
       <c r="D150" t="s">
         <v>510</v>
@@ -7516,19 +7528,19 @@
         <v>512</v>
       </c>
       <c r="G150" t="s">
-        <v>278</v>
+        <v>513</v>
       </c>
       <c r="H150" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I150" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J150" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K150" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L150" t="s"/>
     </row>
@@ -7537,34 +7549,34 @@
         <v>12</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>44154.68630527778</v>
+        <v>44154.68556002315</v>
       </c>
       <c r="C151" t="n">
-        <v>3042</v>
+        <v>2475</v>
       </c>
       <c r="D151" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E151" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F151" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G151" t="s">
-        <v>516</v>
+        <v>282</v>
       </c>
       <c r="H151" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I151" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J151" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K151" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L151" t="s"/>
     </row>
@@ -7573,10 +7585,10 @@
         <v>12</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>44154.68673292824</v>
+        <v>44154.68630527778</v>
       </c>
       <c r="C152" t="n">
-        <v>1903</v>
+        <v>3042</v>
       </c>
       <c r="D152" t="s">
         <v>517</v>
@@ -7591,16 +7603,16 @@
         <v>520</v>
       </c>
       <c r="H152" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I152" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J152" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="K152" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L152" t="s"/>
     </row>
@@ -7609,10 +7621,10 @@
         <v>12</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>44154.6878003588</v>
+        <v>44154.68673292824</v>
       </c>
       <c r="C153" t="n">
-        <v>615</v>
+        <v>1903</v>
       </c>
       <c r="D153" t="s">
         <v>521</v>
@@ -7627,16 +7639,16 @@
         <v>524</v>
       </c>
       <c r="H153" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I153" t="s">
         <v>34</v>
       </c>
       <c r="J153" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="K153" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L153" t="s"/>
     </row>
@@ -7645,10 +7657,10 @@
         <v>12</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>44154.68797761574</v>
+        <v>44154.6878003588</v>
       </c>
       <c r="C154" t="n">
-        <v>3195</v>
+        <v>615</v>
       </c>
       <c r="D154" t="s">
         <v>525</v>
@@ -7663,13 +7675,13 @@
         <v>528</v>
       </c>
       <c r="H154" t="s">
+        <v>32</v>
+      </c>
+      <c r="I154" t="s">
         <v>40</v>
       </c>
-      <c r="I154" t="s">
-        <v>41</v>
-      </c>
       <c r="J154" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K154" t="s">
         <v>20</v>
@@ -7681,10 +7693,10 @@
         <v>12</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>44154.68839364583</v>
+        <v>44154.68797761574</v>
       </c>
       <c r="C155" t="n">
-        <v>3134</v>
+        <v>3195</v>
       </c>
       <c r="D155" t="s">
         <v>529</v>
@@ -7699,13 +7711,13 @@
         <v>532</v>
       </c>
       <c r="H155" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I155" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J155" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="K155" t="s">
         <v>20</v>
@@ -7717,10 +7729,10 @@
         <v>12</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>44154.68914657408</v>
+        <v>44154.68839364583</v>
       </c>
       <c r="C156" t="n">
-        <v>1023</v>
+        <v>3134</v>
       </c>
       <c r="D156" t="s">
         <v>533</v>
@@ -7735,13 +7747,13 @@
         <v>536</v>
       </c>
       <c r="H156" t="s">
+        <v>19</v>
+      </c>
+      <c r="I156" t="s">
         <v>47</v>
       </c>
-      <c r="I156" t="s">
-        <v>20</v>
-      </c>
       <c r="J156" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="K156" t="s">
         <v>20</v>
@@ -7753,10 +7765,10 @@
         <v>12</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>44154.68949501157</v>
+        <v>44154.68914657408</v>
       </c>
       <c r="C157" t="n">
-        <v>3395</v>
+        <v>1023</v>
       </c>
       <c r="D157" t="s">
         <v>537</v>
@@ -7771,57 +7783,55 @@
         <v>540</v>
       </c>
       <c r="H157" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I157" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J157" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K157" t="s">
         <v>20</v>
       </c>
-      <c r="L157" t="s">
-        <v>541</v>
-      </c>
+      <c r="L157" t="s"/>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" t="s">
         <v>12</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>44154.68986456018</v>
+        <v>44154.68949501157</v>
       </c>
       <c r="C158" t="n">
-        <v>1760</v>
+        <v>3395</v>
       </c>
       <c r="D158" t="s">
+        <v>541</v>
+      </c>
+      <c r="E158" t="s">
         <v>542</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>543</v>
       </c>
-      <c r="F158" t="s">
+      <c r="G158" t="s">
         <v>544</v>
       </c>
-      <c r="G158" t="s">
+      <c r="H158" t="s">
+        <v>46</v>
+      </c>
+      <c r="I158" t="s">
+        <v>47</v>
+      </c>
+      <c r="J158" t="s">
+        <v>48</v>
+      </c>
+      <c r="K158" t="s">
+        <v>20</v>
+      </c>
+      <c r="L158" t="s">
         <v>545</v>
-      </c>
-      <c r="H158" t="s">
-        <v>40</v>
-      </c>
-      <c r="I158" t="s">
-        <v>41</v>
-      </c>
-      <c r="J158" t="s">
-        <v>42</v>
-      </c>
-      <c r="K158" t="s">
-        <v>20</v>
-      </c>
-      <c r="L158" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7829,72 +7839,110 @@
         <v>12</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>44154.69036902778</v>
+        <v>44154.68986456018</v>
       </c>
       <c r="C159" t="n">
-        <v>1995</v>
+        <v>1760</v>
       </c>
       <c r="D159" t="s">
+        <v>546</v>
+      </c>
+      <c r="E159" t="s">
         <v>547</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F159" t="s">
         <v>548</v>
       </c>
-      <c r="F159" t="s">
+      <c r="G159" t="s">
         <v>549</v>
       </c>
-      <c r="G159" t="s">
-        <v>142</v>
-      </c>
       <c r="H159" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I159" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J159" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="K159" t="s">
-        <v>28</v>
-      </c>
-      <c r="L159" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L159" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="160" spans="1:12">
       <c r="A160" t="s">
         <v>12</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>44154.69077488426</v>
+        <v>44154.69036902778</v>
       </c>
       <c r="C160" t="n">
-        <v>440</v>
+        <v>1995</v>
       </c>
       <c r="D160" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E160" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F160" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G160" t="s">
-        <v>340</v>
+        <v>146</v>
       </c>
       <c r="H160" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="I160" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J160" t="s">
         <v>34</v>
       </c>
       <c r="K160" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L160" t="s"/>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>44154.69077488426</v>
+      </c>
+      <c r="C161" t="n">
+        <v>440</v>
+      </c>
+      <c r="D161" t="s">
+        <v>554</v>
+      </c>
+      <c r="E161" t="s">
+        <v>555</v>
+      </c>
+      <c r="F161" t="s">
+        <v>556</v>
+      </c>
+      <c r="G161" t="s">
+        <v>344</v>
+      </c>
+      <c r="H161" t="s">
+        <v>34</v>
+      </c>
+      <c r="I161" t="s">
+        <v>47</v>
+      </c>
+      <c r="J161" t="s">
+        <v>40</v>
+      </c>
+      <c r="K161" t="s">
+        <v>20</v>
+      </c>
+      <c r="L161" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models-combined.xlsx
+++ b/classification-record/session-all-models-combined.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="598">
   <si>
     <t>Name</t>
   </si>
@@ -56,6 +56,168 @@
     <t>Alex</t>
   </si>
   <si>
+    <t>The Dangers of Vaping</t>
+  </si>
+  <si>
+    <t>ud0pkqhxOJY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ud0pkqhxOJY</t>
+  </si>
+  <si>
+    <t>Lee Health</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Disposable Camera Effect - Lightroom Mobile Presets Free DNG</t>
+  </si>
+  <si>
+    <t>NANr3tJ64Qw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NANr3tJ64Qw</t>
+  </si>
+  <si>
+    <t>AR Editing</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Vaping Review of Vaporesso Target 75 VTC electronic cigarette, from Rip</t>
+  </si>
+  <si>
+    <t>t2aNdj8EJJw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t2aNdj8EJJw</t>
+  </si>
+  <si>
+    <t>Vaporesso</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>PURE VAPE FRUIT EXPLOSION DISPOSABLE VAPE PEN REVIEW 2018</t>
+  </si>
+  <si>
+    <t>CqUezg6jj2c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CqUezg6jj2c</t>
+  </si>
+  <si>
+    <t>FIRST TIME PATIENT</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Quit Smoking Cigarettes With An E Cig? Replacing Tobacco</t>
+  </si>
+  <si>
+    <t>SOP-m6qoNUM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SOP-m6qoNUM</t>
+  </si>
+  <si>
+    <t>Cynical Mikey</t>
+  </si>
+  <si>
+    <t>1 7</t>
+  </si>
+  <si>
+    <t>Select Live Resin Desert Lime - Cartridge Review</t>
+  </si>
+  <si>
+    <t>h8XduReVYPA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h8XduReVYPA</t>
+  </si>
+  <si>
+    <t>StonedDumpling</t>
+  </si>
+  <si>
+    <t>0 5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>☁ Alternativ E-liquid line by Marina Vape ☞ Reviewed ☜ by Deviated Septum ☁</t>
+  </si>
+  <si>
+    <t>WXhrcezSM44</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WXhrcezSM44</t>
+  </si>
+  <si>
+    <t>Cloud Theorem</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>E-cigarettes are the best way to quit smoking.</t>
+  </si>
+  <si>
+    <t>lr8PpGHcVm4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lr8PpGHcVm4</t>
+  </si>
+  <si>
+    <t>DashVapes</t>
+  </si>
+  <si>
+    <t>SMOKO Starter Kit</t>
+  </si>
+  <si>
+    <t>mN9fakBpM94</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mN9fakBpM94</t>
+  </si>
+  <si>
+    <t>EcigsUK</t>
+  </si>
+  <si>
+    <t>0 2</t>
+  </si>
+  <si>
+    <t>John Prine - Summer's End Lyric Video</t>
+  </si>
+  <si>
+    <t>9XLaIFTmJF8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9XLaIFTmJF8</t>
+  </si>
+  <si>
+    <t>John Prine</t>
+  </si>
+  <si>
     <t>Disposable VapePen Mandarin Cookies Muv Fl Mmj Review</t>
   </si>
   <si>
@@ -68,18 +230,6 @@
     <t>Tokingtim420</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Exploring the secret world of vaporizer tricks and mods</t>
   </si>
   <si>
@@ -113,15 +263,9 @@
     <t>DaVinci Vaporizer</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>dry herb vape</t>
   </si>
   <si>
@@ -137,9 +281,6 @@
     <t>blu UK</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>vape pen manufacturer (blu)</t>
   </si>
   <si>
@@ -155,15 +296,6 @@
     <t>EltonJohnVEVO</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>$15 Vape Juice vs. $500 Vape Juice</t>
   </si>
   <si>
@@ -176,9 +308,6 @@
     <t>Ryan Hall</t>
   </si>
   <si>
-    <t>0 1</t>
-  </si>
-  <si>
     <t>VooPoo Vinci 40W Mod Pod - Unboxing &amp; Review</t>
   </si>
   <si>
@@ -863,9 +992,6 @@
     <t>https://www.youtube.com/watch?v=Ww9BlKd0L7M</t>
   </si>
   <si>
-    <t>DashVapes</t>
-  </si>
-  <si>
     <t>UK Official Made the Prettiest Cheapest High End Box Mod | Turnwood FX Cali Custom</t>
   </si>
   <si>
@@ -1149,9 +1275,6 @@
   </si>
   <si>
     <t>Fact Retriever</t>
-  </si>
-  <si>
-    <t>1 7</t>
   </si>
   <si>
     <t>Green Day - Wake Me Up When September Ends (Cover by Dave Winkler)</t>
@@ -2038,7 +2161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L161"/>
+  <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2089,10 +2212,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44159.75188457645</v>
+        <v>44159.75336379648</v>
       </c>
       <c r="C2" t="n">
-        <v>3376</v>
+        <v>3058</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -2116,7 +2239,7 @@
         <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s"/>
     </row>
@@ -2125,148 +2248,142 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44159.74467407407</v>
+        <v>44159.75352132169</v>
       </c>
       <c r="C3" t="n">
-        <v>3276</v>
+        <v>2095</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
       <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L3" t="s"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44159.74606818287</v>
+        <v>44159.75489727724</v>
       </c>
       <c r="C4" t="n">
-        <v>2253</v>
+        <v>2384</v>
       </c>
       <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
       <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L4" t="s"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44159.74687033565</v>
+        <v>44159.75527634136</v>
       </c>
       <c r="C5" t="n">
-        <v>3098</v>
+        <v>3018</v>
       </c>
       <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
+      <c r="J5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
       <c r="K5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L5" t="s"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44159.74722585648</v>
+        <v>44159.75629989937</v>
       </c>
       <c r="C6" t="n">
-        <v>2345</v>
+        <v>237</v>
       </c>
       <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s"/>
     </row>
@@ -2275,34 +2392,34 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44159.74879219908</v>
+        <v>44159.75682740764</v>
       </c>
       <c r="C7" t="n">
-        <v>513</v>
+        <v>2378</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s"/>
     </row>
@@ -2311,34 +2428,34 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44159.74939453704</v>
+        <v>44159.7574700803</v>
       </c>
       <c r="C8" t="n">
-        <v>1256</v>
+        <v>3660</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
         <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
       </c>
       <c r="J8" t="s">
         <v>53</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L8" t="s"/>
     </row>
@@ -2347,34 +2464,34 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44155.73170659722</v>
+        <v>44159.75843941289</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s"/>
     </row>
@@ -2383,34 +2500,34 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44155.73238313657</v>
+        <v>44159.75925945175</v>
       </c>
       <c r="C10" t="n">
-        <v>987</v>
+        <v>2631</v>
       </c>
       <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
         <v>62</v>
       </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s"/>
     </row>
@@ -2419,72 +2536,70 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44155.73315965278</v>
+        <v>44159.75952258801</v>
       </c>
       <c r="C11" t="n">
-        <v>2249</v>
+        <v>1821</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" t="s">
-        <v>72</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L11" t="s"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44155.73395746528</v>
+        <v>44159.75188457176</v>
       </c>
       <c r="C12" t="n">
-        <v>666</v>
+        <v>3376</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" t="s"/>
     </row>
@@ -2493,37 +2608,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44155.73425486111</v>
+        <v>44159.74467407407</v>
       </c>
       <c r="C13" t="n">
-        <v>3088</v>
+        <v>3276</v>
       </c>
       <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" t="s">
         <v>77</v>
-      </c>
-      <c r="E13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2531,144 +2646,146 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44155.73473486111</v>
+        <v>44159.74606818287</v>
       </c>
       <c r="C14" t="n">
-        <v>175</v>
+        <v>2253</v>
       </c>
       <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" t="s">
         <v>82</v>
       </c>
-      <c r="E14" t="s">
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" t="s">
         <v>83</v>
       </c>
-      <c r="F14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" t="s"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44155.73540616898</v>
+        <v>44159.74687033565</v>
       </c>
       <c r="C15" t="n">
-        <v>864</v>
+        <v>3098</v>
       </c>
       <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
         <v>86</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>87</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" t="s">
         <v>88</v>
       </c>
-      <c r="G15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" t="s"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44155.73567726852</v>
+        <v>44159.74722585648</v>
       </c>
       <c r="C16" t="n">
-        <v>1644</v>
+        <v>2345</v>
       </c>
       <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
         <v>90</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>91</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>92</v>
       </c>
-      <c r="G16" t="s">
-        <v>93</v>
-      </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" t="s">
-        <v>94</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L16" t="s"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44155.73785229167</v>
+        <v>44159.74879219908</v>
       </c>
       <c r="C17" t="n">
-        <v>737</v>
+        <v>513</v>
       </c>
       <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
         <v>95</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>96</v>
       </c>
-      <c r="F17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" t="s">
-        <v>98</v>
-      </c>
       <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
         <v>17</v>
       </c>
-      <c r="I17" t="s">
-        <v>48</v>
-      </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L17" t="s"/>
     </row>
@@ -2677,34 +2794,34 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44155.73837494213</v>
+        <v>44159.74939453704</v>
       </c>
       <c r="C18" t="n">
-        <v>3379</v>
+        <v>1256</v>
       </c>
       <c r="D18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="s">
         <v>99</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>100</v>
       </c>
-      <c r="F18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" t="s">
-        <v>102</v>
-      </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="K18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L18" t="s"/>
     </row>
@@ -2713,72 +2830,70 @@
         <v>12</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44155.73969543981</v>
+        <v>44155.73170659722</v>
       </c>
       <c r="C19" t="n">
-        <v>3246</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s">
         <v>103</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>104</v>
       </c>
-      <c r="F19" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" t="s">
-        <v>106</v>
-      </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L19" t="s">
-        <v>107</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L19" t="s"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44155.74013664352</v>
+        <v>44155.73238313657</v>
       </c>
       <c r="C20" t="n">
-        <v>1297</v>
+        <v>987</v>
       </c>
       <c r="D20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" t="s">
         <v>108</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>109</v>
       </c>
-      <c r="F20" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" t="s">
         <v>17</v>
-      </c>
-      <c r="I20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" t="s">
-        <v>20</v>
       </c>
       <c r="L20" t="s"/>
     </row>
@@ -2787,46 +2902,48 @@
         <v>12</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44155.74047944444</v>
+        <v>44155.73315965278</v>
       </c>
       <c r="C21" t="n">
-        <v>1555</v>
+        <v>2249</v>
       </c>
       <c r="D21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" t="s">
         <v>112</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>113</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s">
         <v>114</v>
       </c>
-      <c r="G21" t="s">
+      <c r="J21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
         <v>115</v>
       </c>
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" t="s"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44155.74120951389</v>
+        <v>44155.73395746528</v>
       </c>
       <c r="C22" t="n">
-        <v>1536</v>
+        <v>666</v>
       </c>
       <c r="D22" t="s">
         <v>116</v>
@@ -2841,16 +2958,16 @@
         <v>119</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K22" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L22" t="s"/>
     </row>
@@ -2859,10 +2976,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44155.74188298611</v>
+        <v>44155.73425486111</v>
       </c>
       <c r="C23" t="n">
-        <v>167</v>
+        <v>3088</v>
       </c>
       <c r="D23" t="s">
         <v>120</v>
@@ -2877,66 +2994,66 @@
         <v>123</v>
       </c>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L23" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44155.74249112268</v>
+        <v>44155.73473486111</v>
       </c>
       <c r="C24" t="n">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" t="s">
-        <v>128</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L24" t="s"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44155.74277087963</v>
+        <v>44155.73540616898</v>
       </c>
       <c r="C25" t="n">
-        <v>3216</v>
+        <v>864</v>
       </c>
       <c r="D25" t="s">
         <v>129</v>
@@ -2951,66 +3068,66 @@
         <v>132</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" t="s">
-        <v>133</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L25" t="s"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44155.74296745371</v>
+        <v>44155.73567726852</v>
       </c>
       <c r="C26" t="n">
-        <v>3110</v>
+        <v>1644</v>
       </c>
       <c r="D26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" t="s">
         <v>134</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>135</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>136</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" t="s">
         <v>137</v>
       </c>
-      <c r="H26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-      <c r="J26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" t="s"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>44155.74395903936</v>
+        <v>44155.73785229167</v>
       </c>
       <c r="C27" t="n">
-        <v>138</v>
+        <v>737</v>
       </c>
       <c r="D27" t="s">
         <v>138</v>
@@ -3025,16 +3142,16 @@
         <v>141</v>
       </c>
       <c r="H27" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="K27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L27" t="s"/>
     </row>
@@ -3043,34 +3160,34 @@
         <v>12</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>44155.74428769676</v>
+        <v>44155.73837494213</v>
       </c>
       <c r="C28" t="n">
-        <v>1022</v>
+        <v>3379</v>
       </c>
       <c r="D28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" t="s">
         <v>143</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>144</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>145</v>
       </c>
-      <c r="G28" t="s">
-        <v>146</v>
-      </c>
       <c r="H28" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="I28" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J28" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K28" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L28" t="s"/>
     </row>
@@ -3079,37 +3196,37 @@
         <v>12</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>44155.74493398148</v>
+        <v>44155.73969543981</v>
       </c>
       <c r="C29" t="n">
-        <v>1466</v>
+        <v>3246</v>
       </c>
       <c r="D29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" t="s">
         <v>147</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>148</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>149</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" t="s">
         <v>150</v>
-      </c>
-      <c r="H29" t="s">
-        <v>66</v>
-      </c>
-      <c r="I29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" t="s">
-        <v>48</v>
-      </c>
-      <c r="K29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3117,72 +3234,70 @@
         <v>12</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>44154.7721688426</v>
+        <v>44155.74013664352</v>
       </c>
       <c r="C30" t="n">
-        <v>1765</v>
+        <v>1297</v>
       </c>
       <c r="D30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" t="s">
         <v>152</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>153</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>154</v>
       </c>
-      <c r="G30" t="s">
-        <v>155</v>
-      </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I30" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K30" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" t="s">
-        <v>156</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L30" t="s"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>44154.77410748843</v>
+        <v>44155.74047944444</v>
       </c>
       <c r="C31" t="n">
-        <v>2940</v>
+        <v>1555</v>
       </c>
       <c r="D31" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" t="s">
         <v>157</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>158</v>
       </c>
-      <c r="F31" t="s">
-        <v>159</v>
-      </c>
-      <c r="G31" t="s">
-        <v>160</v>
-      </c>
       <c r="H31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K31" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L31" t="s"/>
     </row>
@@ -3191,34 +3306,34 @@
         <v>12</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>44154.77493980324</v>
+        <v>44155.74120951389</v>
       </c>
       <c r="C32" t="n">
-        <v>3744</v>
+        <v>1536</v>
       </c>
       <c r="D32" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" t="s">
         <v>161</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>162</v>
       </c>
-      <c r="F32" t="s">
-        <v>163</v>
-      </c>
-      <c r="G32" t="s">
-        <v>164</v>
-      </c>
       <c r="H32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" t="s">
         <v>17</v>
-      </c>
-      <c r="I32" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K32" t="s">
-        <v>20</v>
       </c>
       <c r="L32" t="s"/>
     </row>
@@ -3227,34 +3342,34 @@
         <v>12</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>44154.77544891203</v>
+        <v>44155.74188298611</v>
       </c>
       <c r="C33" t="n">
-        <v>3469</v>
+        <v>167</v>
       </c>
       <c r="D33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" t="s">
         <v>165</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>166</v>
       </c>
-      <c r="F33" t="s">
-        <v>167</v>
-      </c>
-      <c r="G33" t="s">
-        <v>168</v>
-      </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I33" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L33" t="s"/>
     </row>
@@ -3263,82 +3378,86 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44154.77620284722</v>
+        <v>44155.74249112268</v>
       </c>
       <c r="C34" t="n">
-        <v>1419</v>
+        <v>222</v>
       </c>
       <c r="D34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" t="s">
         <v>169</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>170</v>
       </c>
-      <c r="F34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G34" t="s">
-        <v>172</v>
-      </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I34" t="s">
         <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K34" t="s">
-        <v>34</v>
-      </c>
-      <c r="L34" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L34" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44154.77733231481</v>
+        <v>44155.74277087963</v>
       </c>
       <c r="C35" t="n">
-        <v>2861</v>
+        <v>3216</v>
       </c>
       <c r="D35" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" t="s">
         <v>173</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>174</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>175</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" t="s">
         <v>176</v>
       </c>
-      <c r="H35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I35" t="s">
-        <v>47</v>
-      </c>
-      <c r="J35" t="s">
-        <v>40</v>
-      </c>
-      <c r="K35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" t="s"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44154.778458125</v>
+        <v>44155.74296745371</v>
       </c>
       <c r="C36" t="n">
-        <v>229</v>
+        <v>3110</v>
       </c>
       <c r="D36" t="s">
         <v>177</v>
@@ -3356,13 +3475,13 @@
         <v>17</v>
       </c>
       <c r="I36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s">
         <v>19</v>
       </c>
       <c r="K36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L36" t="s"/>
     </row>
@@ -3371,10 +3490,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44154.77909887731</v>
+        <v>44155.74395903936</v>
       </c>
       <c r="C37" t="n">
-        <v>1277</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
         <v>181</v>
@@ -3389,16 +3508,16 @@
         <v>184</v>
       </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="I37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s">
         <v>19</v>
       </c>
       <c r="K37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L37" t="s"/>
     </row>
@@ -3407,48 +3526,46 @@
         <v>12</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>44154.78025189815</v>
+        <v>44155.74428769676</v>
       </c>
       <c r="C38" t="n">
-        <v>1136</v>
+        <v>1022</v>
       </c>
       <c r="D38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H38" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="I38" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" t="s">
-        <v>189</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L38" t="s"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>44154.7886525463</v>
+        <v>44155.74493398148</v>
       </c>
       <c r="C39" t="n">
-        <v>768</v>
+        <v>1466</v>
       </c>
       <c r="D39" t="s">
         <v>190</v>
@@ -3463,55 +3580,57 @@
         <v>193</v>
       </c>
       <c r="H39" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="J39" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L39" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44154.79067495371</v>
+        <v>44154.7721688426</v>
       </c>
       <c r="C40" t="n">
-        <v>445</v>
+        <v>1765</v>
       </c>
       <c r="D40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H40" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I40" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="K40" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3519,34 +3638,34 @@
         <v>12</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44154.79188466435</v>
+        <v>44154.77410748843</v>
       </c>
       <c r="C41" t="n">
-        <v>794</v>
+        <v>2940</v>
       </c>
       <c r="D41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G41" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H41" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" t="s">
+        <v>48</v>
+      </c>
+      <c r="J41" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" t="s">
         <v>17</v>
-      </c>
-      <c r="I41" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" t="s">
-        <v>34</v>
       </c>
       <c r="L41" t="s"/>
     </row>
@@ -3555,72 +3674,70 @@
         <v>12</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44154.79298895833</v>
+        <v>44154.77493980324</v>
       </c>
       <c r="C42" t="n">
-        <v>1948</v>
+        <v>3744</v>
       </c>
       <c r="D42" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F42" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G42" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H42" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J42" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K42" t="s">
         <v>19</v>
       </c>
-      <c r="L42" t="s">
-        <v>206</v>
-      </c>
+      <c r="L42" t="s"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44154.79340069444</v>
+        <v>44154.77544891203</v>
       </c>
       <c r="C43" t="n">
-        <v>1429</v>
+        <v>3469</v>
       </c>
       <c r="D43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E43" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G43" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H43" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I43" t="s">
         <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L43" t="s"/>
     </row>
@@ -3629,34 +3746,34 @@
         <v>12</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44154.79398876157</v>
+        <v>44154.77620284722</v>
       </c>
       <c r="C44" t="n">
-        <v>1511</v>
+        <v>1419</v>
       </c>
       <c r="D44" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E44" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F44" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G44" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" t="s">
         <v>17</v>
-      </c>
-      <c r="I44" t="s">
-        <v>18</v>
-      </c>
-      <c r="J44" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" t="s">
-        <v>20</v>
       </c>
       <c r="L44" t="s"/>
     </row>
@@ -3665,48 +3782,46 @@
         <v>12</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44154.79457364584</v>
+        <v>44154.77733231481</v>
       </c>
       <c r="C45" t="n">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="D45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I45" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J45" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="K45" t="s">
-        <v>20</v>
-      </c>
-      <c r="L45" t="s">
-        <v>219</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L45" t="s"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44154.79515041666</v>
+        <v>44154.778458125</v>
       </c>
       <c r="C46" t="n">
-        <v>2376</v>
+        <v>229</v>
       </c>
       <c r="D46" t="s">
         <v>220</v>
@@ -3721,54 +3836,52 @@
         <v>223</v>
       </c>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I46" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K46" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" t="s">
-        <v>224</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L46" t="s"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44154.79556157407</v>
+        <v>44154.77909887731</v>
       </c>
       <c r="C47" t="n">
-        <v>1997</v>
+        <v>1277</v>
       </c>
       <c r="D47" t="s">
+        <v>224</v>
+      </c>
+      <c r="E47" t="s">
         <v>225</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>226</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>227</v>
       </c>
-      <c r="G47" t="s">
-        <v>228</v>
-      </c>
       <c r="H47" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J47" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L47" t="s"/>
     </row>
@@ -3777,37 +3890,37 @@
         <v>12</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44154.79606214121</v>
+        <v>44154.78025189815</v>
       </c>
       <c r="C48" t="n">
-        <v>595</v>
+        <v>1136</v>
       </c>
       <c r="D48" t="s">
+        <v>228</v>
+      </c>
+      <c r="E48" t="s">
         <v>229</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>230</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>231</v>
       </c>
-      <c r="G48" t="s">
-        <v>197</v>
-      </c>
       <c r="H48" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="I48" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="J48" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L48" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3815,48 +3928,46 @@
         <v>12</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44154.79688260417</v>
+        <v>44154.7886525463</v>
       </c>
       <c r="C49" t="n">
-        <v>3715</v>
+        <v>768</v>
       </c>
       <c r="D49" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E49" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F49" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I49" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K49" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" t="s">
-        <v>236</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L49" t="s"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44154.79758924768</v>
+        <v>44154.79067495371</v>
       </c>
       <c r="C50" t="n">
-        <v>3369</v>
+        <v>445</v>
       </c>
       <c r="D50" t="s">
         <v>237</v>
@@ -3871,52 +3982,54 @@
         <v>240</v>
       </c>
       <c r="H50" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" t="s">
         <v>17</v>
       </c>
-      <c r="I50" t="s">
-        <v>18</v>
-      </c>
       <c r="J50" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K50" t="s">
-        <v>20</v>
-      </c>
-      <c r="L50" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="L50" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44154.79803195602</v>
+        <v>44154.79188466435</v>
       </c>
       <c r="C51" t="n">
-        <v>1824</v>
+        <v>794</v>
       </c>
       <c r="D51" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E51" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G51" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I51" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K51" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L51" t="s"/>
     </row>
@@ -3925,10 +4038,10 @@
         <v>12</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44154.7984553125</v>
+        <v>44154.79298895833</v>
       </c>
       <c r="C52" t="n">
-        <v>583</v>
+        <v>1948</v>
       </c>
       <c r="D52" t="s">
         <v>245</v>
@@ -3940,22 +4053,22 @@
         <v>247</v>
       </c>
       <c r="G52" t="s">
-        <v>70</v>
+        <v>248</v>
       </c>
       <c r="H52" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I52" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J52" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="K52" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="L52" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3963,34 +4076,34 @@
         <v>12</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44154.79909991898</v>
+        <v>44154.79340069444</v>
       </c>
       <c r="C53" t="n">
-        <v>1271</v>
+        <v>1429</v>
       </c>
       <c r="D53" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E53" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F53" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G53" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H53" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I53" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J53" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L53" t="s"/>
     </row>
@@ -3999,34 +4112,34 @@
         <v>12</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44154.80007766204</v>
+        <v>44154.79398876157</v>
       </c>
       <c r="C54" t="n">
-        <v>1869</v>
+        <v>1511</v>
       </c>
       <c r="D54" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E54" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F54" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G54" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H54" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I54" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J54" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="K54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L54" t="s"/>
     </row>
@@ -4035,37 +4148,37 @@
         <v>12</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>44154.69819569444</v>
+        <v>44154.79457364584</v>
       </c>
       <c r="C55" t="n">
-        <v>702</v>
+        <v>2860</v>
       </c>
       <c r="D55" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E55" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F55" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G55" t="s">
-        <v>70</v>
+        <v>261</v>
       </c>
       <c r="H55" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I55" t="s">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="J55" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L55" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4073,37 +4186,37 @@
         <v>12</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44154.69934395833</v>
+        <v>44154.79515041666</v>
       </c>
       <c r="C56" t="n">
-        <v>423</v>
+        <v>2376</v>
       </c>
       <c r="D56" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E56" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F56" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G56" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="J56" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L56" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4111,34 +4224,34 @@
         <v>12</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44154.69987591435</v>
+        <v>44154.79556157407</v>
       </c>
       <c r="C57" t="n">
-        <v>211</v>
+        <v>1997</v>
       </c>
       <c r="D57" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E57" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F57" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G57" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H57" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I57" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="J57" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L57" t="s"/>
     </row>
@@ -4147,37 +4260,37 @@
         <v>12</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44154.70088510417</v>
+        <v>44154.79606214121</v>
       </c>
       <c r="C58" t="n">
-        <v>3419</v>
+        <v>595</v>
       </c>
       <c r="D58" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E58" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F58" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G58" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I58" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L58" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4185,10 +4298,10 @@
         <v>12</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44154.70140253472</v>
+        <v>44154.79688260417</v>
       </c>
       <c r="C59" t="n">
-        <v>2074</v>
+        <v>3715</v>
       </c>
       <c r="D59" t="s">
         <v>275</v>
@@ -4203,52 +4316,54 @@
         <v>278</v>
       </c>
       <c r="H59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I59" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J59" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K59" t="s">
-        <v>34</v>
-      </c>
-      <c r="L59" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L59" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>12</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44154.70263350695</v>
+        <v>44154.79758924768</v>
       </c>
       <c r="C60" t="n">
-        <v>183</v>
+        <v>3369</v>
       </c>
       <c r="D60" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E60" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F60" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G60" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I60" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J60" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="K60" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L60" t="s"/>
     </row>
@@ -4257,34 +4372,34 @@
         <v>12</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44154.70319071759</v>
+        <v>44154.79803195602</v>
       </c>
       <c r="C61" t="n">
-        <v>847</v>
+        <v>1824</v>
       </c>
       <c r="D61" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E61" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F61" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G61" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="H61" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J61" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L61" t="s"/>
     </row>
@@ -4293,84 +4408,84 @@
         <v>12</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44154.70363350694</v>
+        <v>44154.7984553125</v>
       </c>
       <c r="C62" t="n">
-        <v>27</v>
+        <v>583</v>
       </c>
       <c r="D62" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E62" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F62" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G62" t="s">
-        <v>289</v>
+        <v>113</v>
       </c>
       <c r="H62" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J62" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K62" t="s">
-        <v>20</v>
-      </c>
-      <c r="L62" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L62" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>12</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44154.70392996528</v>
+        <v>44154.79909991898</v>
       </c>
       <c r="C63" t="n">
-        <v>1587</v>
+        <v>1271</v>
       </c>
       <c r="D63" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E63" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F63" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G63" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I63" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K63" t="s">
-        <v>20</v>
-      </c>
-      <c r="L63" t="s">
-        <v>294</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L63" t="s"/>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>12</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44154.70447649305</v>
+        <v>44154.80007766204</v>
       </c>
       <c r="C64" t="n">
-        <v>1510</v>
+        <v>1869</v>
       </c>
       <c r="D64" t="s">
         <v>295</v>
@@ -4385,16 +4500,16 @@
         <v>298</v>
       </c>
       <c r="H64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I64" t="s">
         <v>17</v>
       </c>
-      <c r="I64" t="s">
-        <v>18</v>
-      </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="K64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L64" t="s"/>
     </row>
@@ -4403,10 +4518,10 @@
         <v>12</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44154.70549010417</v>
+        <v>44154.69819569444</v>
       </c>
       <c r="C65" t="n">
-        <v>631</v>
+        <v>702</v>
       </c>
       <c r="D65" t="s">
         <v>299</v>
@@ -4418,165 +4533,169 @@
         <v>301</v>
       </c>
       <c r="G65" t="s">
+        <v>113</v>
+      </c>
+      <c r="H65" t="s">
+        <v>53</v>
+      </c>
+      <c r="I65" t="s">
         <v>302</v>
       </c>
-      <c r="H65" t="s">
-        <v>17</v>
-      </c>
-      <c r="I65" t="s">
-        <v>34</v>
-      </c>
       <c r="J65" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K65" t="s">
-        <v>20</v>
-      </c>
-      <c r="L65" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L65" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>12</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44154.70597778935</v>
+        <v>44154.69934395833</v>
       </c>
       <c r="C66" t="n">
-        <v>2198</v>
+        <v>423</v>
       </c>
       <c r="D66" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E66" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F66" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G66" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I66" t="s">
         <v>18</v>
       </c>
       <c r="J66" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L66" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L66" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>12</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44154.70629576389</v>
+        <v>44154.69987591435</v>
       </c>
       <c r="C67" t="n">
-        <v>3797</v>
+        <v>211</v>
       </c>
       <c r="D67" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E67" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F67" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G67" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I67" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L67" t="s">
-        <v>311</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L67" t="s"/>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>12</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44154.70677894676</v>
+        <v>44154.70088510417</v>
       </c>
       <c r="C68" t="n">
-        <v>275</v>
+        <v>3419</v>
       </c>
       <c r="D68" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E68" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F68" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G68" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H68" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I68" t="s">
-        <v>316</v>
+        <v>18</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L68" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L68" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>12</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44154.70703077546</v>
+        <v>44154.70140253472</v>
       </c>
       <c r="C69" t="n">
-        <v>392</v>
+        <v>2074</v>
       </c>
       <c r="D69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E69" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F69" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H69" t="s">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="I69" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J69" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K69" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L69" t="s"/>
     </row>
@@ -4585,10 +4704,10 @@
         <v>12</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44154.70736740741</v>
+        <v>44154.70263350695</v>
       </c>
       <c r="C70" t="n">
-        <v>1906</v>
+        <v>183</v>
       </c>
       <c r="D70" t="s">
         <v>322</v>
@@ -4600,57 +4719,55 @@
         <v>324</v>
       </c>
       <c r="G70" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H70" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" t="s">
+        <v>31</v>
+      </c>
+      <c r="K70" t="s">
         <v>17</v>
       </c>
-      <c r="I70" t="s">
-        <v>34</v>
-      </c>
-      <c r="J70" t="s">
-        <v>18</v>
-      </c>
-      <c r="K70" t="s">
-        <v>20</v>
-      </c>
-      <c r="L70" t="s">
-        <v>325</v>
-      </c>
+      <c r="L70" t="s"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>12</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44154.70763553241</v>
+        <v>44154.70319071759</v>
       </c>
       <c r="C71" t="n">
-        <v>2977</v>
+        <v>847</v>
       </c>
       <c r="D71" t="s">
+        <v>325</v>
+      </c>
+      <c r="E71" t="s">
         <v>326</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>327</v>
       </c>
-      <c r="F71" t="s">
-        <v>328</v>
-      </c>
       <c r="G71" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="H71" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J71" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L71" t="s"/>
     </row>
@@ -4659,34 +4776,34 @@
         <v>12</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44154.70829784722</v>
+        <v>44154.70363350694</v>
       </c>
       <c r="C72" t="n">
-        <v>465</v>
+        <v>27</v>
       </c>
       <c r="D72" t="s">
+        <v>328</v>
+      </c>
+      <c r="E72" t="s">
+        <v>329</v>
+      </c>
+      <c r="F72" t="s">
         <v>330</v>
       </c>
-      <c r="E72" t="s">
+      <c r="G72" t="s">
         <v>331</v>
       </c>
-      <c r="F72" t="s">
-        <v>332</v>
-      </c>
-      <c r="G72" t="s">
-        <v>333</v>
-      </c>
       <c r="H72" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I72" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J72" t="s">
         <v>19</v>
       </c>
       <c r="K72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L72" t="s"/>
     </row>
@@ -4695,37 +4812,37 @@
         <v>12</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44154.70866863426</v>
+        <v>44154.70392996528</v>
       </c>
       <c r="C73" t="n">
-        <v>566</v>
+        <v>1587</v>
       </c>
       <c r="D73" t="s">
+        <v>332</v>
+      </c>
+      <c r="E73" t="s">
+        <v>333</v>
+      </c>
+      <c r="F73" t="s">
         <v>334</v>
       </c>
-      <c r="E73" t="s">
+      <c r="G73" t="s">
         <v>335</v>
       </c>
-      <c r="F73" t="s">
+      <c r="H73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I73" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" t="s">
+        <v>25</v>
+      </c>
+      <c r="K73" t="s">
+        <v>19</v>
+      </c>
+      <c r="L73" t="s">
         <v>336</v>
-      </c>
-      <c r="G73" t="s">
-        <v>70</v>
-      </c>
-      <c r="H73" t="s">
-        <v>17</v>
-      </c>
-      <c r="I73" t="s">
-        <v>34</v>
-      </c>
-      <c r="J73" t="s">
-        <v>18</v>
-      </c>
-      <c r="K73" t="s">
-        <v>20</v>
-      </c>
-      <c r="L73" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4733,10 +4850,10 @@
         <v>12</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44154.70929016203</v>
+        <v>44154.70447649305</v>
       </c>
       <c r="C74" t="n">
-        <v>81</v>
+        <v>1510</v>
       </c>
       <c r="D74" t="s">
         <v>337</v>
@@ -4751,16 +4868,16 @@
         <v>340</v>
       </c>
       <c r="H74" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I74" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L74" t="s"/>
     </row>
@@ -4769,10 +4886,10 @@
         <v>12</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44154.70976986111</v>
+        <v>44154.70549010417</v>
       </c>
       <c r="C75" t="n">
-        <v>1837</v>
+        <v>631</v>
       </c>
       <c r="D75" t="s">
         <v>341</v>
@@ -4787,54 +4904,52 @@
         <v>344</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I75" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K75" t="s">
-        <v>20</v>
-      </c>
-      <c r="L75" t="s">
-        <v>345</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L75" t="s"/>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>12</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44154.71052581019</v>
+        <v>44154.70597778935</v>
       </c>
       <c r="C76" t="n">
-        <v>1446</v>
+        <v>2198</v>
       </c>
       <c r="D76" t="s">
+        <v>345</v>
+      </c>
+      <c r="E76" t="s">
         <v>346</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>347</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>348</v>
       </c>
-      <c r="G76" t="s">
-        <v>349</v>
-      </c>
       <c r="H76" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I76" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J76" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L76" t="s"/>
     </row>
@@ -4843,46 +4958,48 @@
         <v>12</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44154.71083821759</v>
+        <v>44154.70629576389</v>
       </c>
       <c r="C77" t="n">
-        <v>1516</v>
+        <v>3797</v>
       </c>
       <c r="D77" t="s">
+        <v>349</v>
+      </c>
+      <c r="E77" t="s">
         <v>350</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>351</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>352</v>
       </c>
-      <c r="G77" t="s">
-        <v>353</v>
-      </c>
       <c r="H77" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="I77" t="s">
         <v>18</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K77" t="s">
-        <v>20</v>
-      </c>
-      <c r="L77" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L77" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
         <v>12</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44154.71164583333</v>
+        <v>44154.70677894676</v>
       </c>
       <c r="C78" t="n">
-        <v>1975</v>
+        <v>275</v>
       </c>
       <c r="D78" t="s">
         <v>354</v>
@@ -4897,30 +5014,28 @@
         <v>357</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I78" t="s">
-        <v>47</v>
+        <v>358</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K78" t="s">
-        <v>53</v>
-      </c>
-      <c r="L78" t="s">
-        <v>358</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L78" t="s"/>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
         <v>12</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>44154.71525582176</v>
+        <v>44154.70703077546</v>
       </c>
       <c r="C79" t="n">
-        <v>1508</v>
+        <v>392</v>
       </c>
       <c r="D79" t="s">
         <v>359</v>
@@ -4935,16 +5050,16 @@
         <v>362</v>
       </c>
       <c r="H79" t="s">
-        <v>17</v>
+        <v>363</v>
       </c>
       <c r="I79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J79" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K79" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L79" t="s"/>
     </row>
@@ -4953,70 +5068,72 @@
         <v>12</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>44154.71736768518</v>
+        <v>44154.70736740741</v>
       </c>
       <c r="C80" t="n">
-        <v>2973</v>
+        <v>1906</v>
       </c>
       <c r="D80" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E80" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F80" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G80" t="s">
-        <v>264</v>
+        <v>113</v>
       </c>
       <c r="H80" t="s">
+        <v>30</v>
+      </c>
+      <c r="I80" t="s">
         <v>17</v>
       </c>
-      <c r="I80" t="s">
-        <v>20</v>
-      </c>
       <c r="J80" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L80" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L80" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
         <v>12</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>44154.71784644676</v>
+        <v>44154.70763553241</v>
       </c>
       <c r="C81" t="n">
-        <v>2202</v>
+        <v>2977</v>
       </c>
       <c r="D81" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E81" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F81" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G81" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H81" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I81" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J81" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K81" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="L81" t="s"/>
     </row>
@@ -5025,34 +5142,34 @@
         <v>12</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>44154.71844951389</v>
+        <v>44154.70829784722</v>
       </c>
       <c r="C82" t="n">
-        <v>3156</v>
+        <v>465</v>
       </c>
       <c r="D82" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E82" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F82" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G82" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H82" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I82" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J82" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K82" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L82" t="s"/>
     </row>
@@ -5061,46 +5178,48 @@
         <v>12</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44154.71885400463</v>
+        <v>44154.70866863426</v>
       </c>
       <c r="C83" t="n">
-        <v>2881</v>
+        <v>566</v>
       </c>
       <c r="D83" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E83" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F83" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G83" t="s">
-        <v>377</v>
+        <v>113</v>
       </c>
       <c r="H83" t="s">
-        <v>378</v>
+        <v>30</v>
       </c>
       <c r="I83" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K83" t="s">
-        <v>20</v>
-      </c>
-      <c r="L83" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L83" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>12</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>44154.71972351852</v>
+        <v>44154.70929016203</v>
       </c>
       <c r="C84" t="n">
-        <v>3034</v>
+        <v>81</v>
       </c>
       <c r="D84" t="s">
         <v>379</v>
@@ -5115,66 +5234,66 @@
         <v>382</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="I84" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K84" t="s">
-        <v>20</v>
-      </c>
-      <c r="L84" t="s">
-        <v>383</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L84" t="s"/>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
         <v>12</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>44154.72165902777</v>
+        <v>44154.70976986111</v>
       </c>
       <c r="C85" t="n">
-        <v>986</v>
+        <v>1837</v>
       </c>
       <c r="D85" t="s">
+        <v>383</v>
+      </c>
+      <c r="E85" t="s">
         <v>384</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>385</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>386</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
+        <v>24</v>
+      </c>
+      <c r="I85" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" t="s">
+        <v>48</v>
+      </c>
+      <c r="K85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L85" t="s">
         <v>387</v>
       </c>
-      <c r="H85" t="s">
-        <v>47</v>
-      </c>
-      <c r="I85" t="s">
-        <v>47</v>
-      </c>
-      <c r="J85" t="s">
-        <v>19</v>
-      </c>
-      <c r="K85" t="s">
-        <v>20</v>
-      </c>
-      <c r="L85" t="s"/>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
         <v>12</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>44154.72335130787</v>
+        <v>44154.71052581019</v>
       </c>
       <c r="C86" t="n">
-        <v>2031</v>
+        <v>1446</v>
       </c>
       <c r="D86" t="s">
         <v>388</v>
@@ -5189,16 +5308,16 @@
         <v>391</v>
       </c>
       <c r="H86" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I86" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J86" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K86" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L86" t="s"/>
     </row>
@@ -5207,10 +5326,10 @@
         <v>12</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>44154.72369152778</v>
+        <v>44154.71083821759</v>
       </c>
       <c r="C87" t="n">
-        <v>67</v>
+        <v>1516</v>
       </c>
       <c r="D87" t="s">
         <v>392</v>
@@ -5225,16 +5344,16 @@
         <v>395</v>
       </c>
       <c r="H87" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="I87" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J87" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L87" t="s"/>
     </row>
@@ -5243,10 +5362,10 @@
         <v>12</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>44154.7240471875</v>
+        <v>44154.71164583333</v>
       </c>
       <c r="C88" t="n">
-        <v>533</v>
+        <v>1975</v>
       </c>
       <c r="D88" t="s">
         <v>396</v>
@@ -5261,52 +5380,54 @@
         <v>399</v>
       </c>
       <c r="H88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I88" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J88" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K88" t="s">
-        <v>20</v>
-      </c>
-      <c r="L88" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="L88" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
         <v>12</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>44154.72488017361</v>
+        <v>44154.71525582176</v>
       </c>
       <c r="C89" t="n">
-        <v>3716</v>
+        <v>1508</v>
       </c>
       <c r="D89" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E89" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F89" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G89" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H89" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I89" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="K89" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L89" t="s"/>
     </row>
@@ -5315,34 +5436,34 @@
         <v>12</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>44154.72557752315</v>
+        <v>44154.71736768518</v>
       </c>
       <c r="C90" t="n">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="D90" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E90" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F90" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G90" t="s">
-        <v>205</v>
+        <v>307</v>
       </c>
       <c r="H90" t="s">
-        <v>407</v>
+        <v>30</v>
       </c>
       <c r="I90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J90" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K90" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L90" t="s"/>
     </row>
@@ -5351,110 +5472,106 @@
         <v>12</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>44154.69819569444</v>
+        <v>44154.71784644676</v>
       </c>
       <c r="C91" t="n">
-        <v>702</v>
+        <v>2202</v>
       </c>
       <c r="D91" t="s">
-        <v>256</v>
+        <v>408</v>
       </c>
       <c r="E91" t="s">
-        <v>257</v>
+        <v>409</v>
       </c>
       <c r="F91" t="s">
-        <v>258</v>
+        <v>410</v>
       </c>
       <c r="G91" t="s">
-        <v>70</v>
+        <v>411</v>
       </c>
       <c r="H91" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I91" t="s">
-        <v>259</v>
+        <v>30</v>
       </c>
       <c r="J91" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="K91" t="s">
-        <v>20</v>
-      </c>
-      <c r="L91" t="s">
-        <v>260</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="L91" t="s"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
         <v>12</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>44154.69934395833</v>
+        <v>44154.71844951389</v>
       </c>
       <c r="C92" t="n">
-        <v>423</v>
+        <v>3156</v>
       </c>
       <c r="D92" t="s">
-        <v>261</v>
+        <v>412</v>
       </c>
       <c r="E92" t="s">
-        <v>262</v>
+        <v>413</v>
       </c>
       <c r="F92" t="s">
-        <v>263</v>
+        <v>414</v>
       </c>
       <c r="G92" t="s">
-        <v>264</v>
+        <v>415</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J92" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K92" t="s">
-        <v>20</v>
-      </c>
-      <c r="L92" t="s">
-        <v>265</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L92" t="s"/>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
         <v>12</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>44154.69987591435</v>
+        <v>44154.71885400463</v>
       </c>
       <c r="C93" t="n">
-        <v>211</v>
+        <v>2881</v>
       </c>
       <c r="D93" t="s">
-        <v>266</v>
+        <v>416</v>
       </c>
       <c r="E93" t="s">
-        <v>267</v>
+        <v>417</v>
       </c>
       <c r="F93" t="s">
-        <v>268</v>
+        <v>418</v>
       </c>
       <c r="G93" t="s">
-        <v>269</v>
+        <v>419</v>
       </c>
       <c r="H93" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I93" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="J93" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L93" t="s"/>
     </row>
@@ -5463,37 +5580,37 @@
         <v>12</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>44154.70088510417</v>
+        <v>44154.71972351852</v>
       </c>
       <c r="C94" t="n">
-        <v>3419</v>
+        <v>3034</v>
       </c>
       <c r="D94" t="s">
-        <v>270</v>
+        <v>420</v>
       </c>
       <c r="E94" t="s">
-        <v>271</v>
+        <v>421</v>
       </c>
       <c r="F94" t="s">
-        <v>272</v>
+        <v>422</v>
       </c>
       <c r="G94" t="s">
-        <v>273</v>
+        <v>423</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I94" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L94" t="s">
-        <v>274</v>
+        <v>424</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5501,34 +5618,34 @@
         <v>12</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>44154.70140253472</v>
+        <v>44154.72165902777</v>
       </c>
       <c r="C95" t="n">
-        <v>2074</v>
+        <v>986</v>
       </c>
       <c r="D95" t="s">
-        <v>275</v>
+        <v>425</v>
       </c>
       <c r="E95" t="s">
-        <v>276</v>
+        <v>426</v>
       </c>
       <c r="F95" t="s">
-        <v>277</v>
+        <v>427</v>
       </c>
       <c r="G95" t="s">
-        <v>278</v>
+        <v>428</v>
       </c>
       <c r="H95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I95" t="s">
         <v>18</v>
       </c>
       <c r="J95" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K95" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L95" t="s"/>
     </row>
@@ -5537,34 +5654,34 @@
         <v>12</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>44154.70263350695</v>
+        <v>44154.72335130787</v>
       </c>
       <c r="C96" t="n">
-        <v>183</v>
+        <v>2031</v>
       </c>
       <c r="D96" t="s">
-        <v>279</v>
+        <v>429</v>
       </c>
       <c r="E96" t="s">
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="F96" t="s">
-        <v>281</v>
+        <v>431</v>
       </c>
       <c r="G96" t="s">
-        <v>282</v>
+        <v>432</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I96" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="J96" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="K96" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L96" t="s"/>
     </row>
@@ -5573,34 +5690,34 @@
         <v>12</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>44154.70319071759</v>
+        <v>44154.72369152778</v>
       </c>
       <c r="C97" t="n">
-        <v>847</v>
+        <v>67</v>
       </c>
       <c r="D97" t="s">
-        <v>283</v>
+        <v>433</v>
       </c>
       <c r="E97" t="s">
-        <v>284</v>
+        <v>434</v>
       </c>
       <c r="F97" t="s">
-        <v>285</v>
+        <v>435</v>
       </c>
       <c r="G97" t="s">
-        <v>264</v>
+        <v>436</v>
       </c>
       <c r="H97" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I97" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J97" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L97" t="s"/>
     </row>
@@ -5609,34 +5726,34 @@
         <v>12</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>44154.70363350694</v>
+        <v>44154.7240471875</v>
       </c>
       <c r="C98" t="n">
-        <v>27</v>
+        <v>533</v>
       </c>
       <c r="D98" t="s">
-        <v>286</v>
+        <v>437</v>
       </c>
       <c r="E98" t="s">
-        <v>287</v>
+        <v>438</v>
       </c>
       <c r="F98" t="s">
-        <v>288</v>
+        <v>439</v>
       </c>
       <c r="G98" t="s">
-        <v>289</v>
+        <v>440</v>
       </c>
       <c r="H98" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I98" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J98" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="K98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L98" t="s"/>
     </row>
@@ -5645,72 +5762,70 @@
         <v>12</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>44154.70392996528</v>
+        <v>44154.72488017361</v>
       </c>
       <c r="C99" t="n">
-        <v>1587</v>
+        <v>3716</v>
       </c>
       <c r="D99" t="s">
-        <v>290</v>
+        <v>441</v>
       </c>
       <c r="E99" t="s">
-        <v>291</v>
+        <v>442</v>
       </c>
       <c r="F99" t="s">
-        <v>292</v>
+        <v>443</v>
       </c>
       <c r="G99" t="s">
-        <v>293</v>
+        <v>444</v>
       </c>
       <c r="H99" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K99" t="s">
-        <v>20</v>
-      </c>
-      <c r="L99" t="s">
-        <v>294</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L99" t="s"/>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
         <v>12</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>44154.70447649305</v>
+        <v>44154.72557752315</v>
       </c>
       <c r="C100" t="n">
-        <v>1510</v>
+        <v>2974</v>
       </c>
       <c r="D100" t="s">
-        <v>295</v>
+        <v>445</v>
       </c>
       <c r="E100" t="s">
-        <v>296</v>
+        <v>446</v>
       </c>
       <c r="F100" t="s">
-        <v>297</v>
+        <v>447</v>
       </c>
       <c r="G100" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="H100" t="s">
+        <v>448</v>
+      </c>
+      <c r="I100" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" t="s">
+        <v>37</v>
+      </c>
+      <c r="K100" t="s">
         <v>17</v>
-      </c>
-      <c r="I100" t="s">
-        <v>18</v>
-      </c>
-      <c r="J100" t="s">
-        <v>48</v>
-      </c>
-      <c r="K100" t="s">
-        <v>20</v>
       </c>
       <c r="L100" t="s"/>
     </row>
@@ -5719,10 +5834,10 @@
         <v>12</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>44154.70549010417</v>
+        <v>44154.69819569444</v>
       </c>
       <c r="C101" t="n">
-        <v>631</v>
+        <v>702</v>
       </c>
       <c r="D101" t="s">
         <v>299</v>
@@ -5734,165 +5849,169 @@
         <v>301</v>
       </c>
       <c r="G101" t="s">
+        <v>113</v>
+      </c>
+      <c r="H101" t="s">
+        <v>53</v>
+      </c>
+      <c r="I101" t="s">
         <v>302</v>
       </c>
-      <c r="H101" t="s">
-        <v>17</v>
-      </c>
-      <c r="I101" t="s">
-        <v>34</v>
-      </c>
       <c r="J101" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K101" t="s">
-        <v>20</v>
-      </c>
-      <c r="L101" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L101" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
         <v>12</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>44154.70597778935</v>
+        <v>44154.69934395833</v>
       </c>
       <c r="C102" t="n">
-        <v>2198</v>
+        <v>423</v>
       </c>
       <c r="D102" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E102" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F102" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G102" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I102" t="s">
         <v>18</v>
       </c>
       <c r="J102" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K102" t="s">
-        <v>20</v>
-      </c>
-      <c r="L102" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L102" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
         <v>12</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>44154.70629576389</v>
+        <v>44154.69987591435</v>
       </c>
       <c r="C103" t="n">
-        <v>3797</v>
+        <v>211</v>
       </c>
       <c r="D103" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E103" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F103" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G103" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H103" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I103" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="J103" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K103" t="s">
-        <v>20</v>
-      </c>
-      <c r="L103" t="s">
-        <v>311</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L103" t="s"/>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
         <v>12</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>44154.70677894676</v>
+        <v>44154.70088510417</v>
       </c>
       <c r="C104" t="n">
-        <v>275</v>
+        <v>3419</v>
       </c>
       <c r="D104" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E104" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F104" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G104" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H104" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I104" t="s">
-        <v>316</v>
+        <v>18</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K104" t="s">
-        <v>20</v>
-      </c>
-      <c r="L104" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L104" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
         <v>12</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>44154.70703077546</v>
+        <v>44154.70140253472</v>
       </c>
       <c r="C105" t="n">
-        <v>392</v>
+        <v>2074</v>
       </c>
       <c r="D105" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E105" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F105" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G105" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H105" t="s">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="I105" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J105" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K105" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L105" t="s"/>
     </row>
@@ -5901,10 +6020,10 @@
         <v>12</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>44154.70736740741</v>
+        <v>44154.70263350695</v>
       </c>
       <c r="C106" t="n">
-        <v>1906</v>
+        <v>183</v>
       </c>
       <c r="D106" t="s">
         <v>322</v>
@@ -5916,57 +6035,55 @@
         <v>324</v>
       </c>
       <c r="G106" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H106" t="s">
+        <v>18</v>
+      </c>
+      <c r="I106" t="s">
+        <v>19</v>
+      </c>
+      <c r="J106" t="s">
+        <v>31</v>
+      </c>
+      <c r="K106" t="s">
         <v>17</v>
       </c>
-      <c r="I106" t="s">
-        <v>34</v>
-      </c>
-      <c r="J106" t="s">
-        <v>18</v>
-      </c>
-      <c r="K106" t="s">
-        <v>20</v>
-      </c>
-      <c r="L106" t="s">
-        <v>325</v>
-      </c>
+      <c r="L106" t="s"/>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
         <v>12</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>44154.70763553241</v>
+        <v>44154.70319071759</v>
       </c>
       <c r="C107" t="n">
-        <v>2977</v>
+        <v>847</v>
       </c>
       <c r="D107" t="s">
+        <v>325</v>
+      </c>
+      <c r="E107" t="s">
         <v>326</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>327</v>
       </c>
-      <c r="F107" t="s">
-        <v>328</v>
-      </c>
       <c r="G107" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="H107" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J107" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L107" t="s"/>
     </row>
@@ -5975,34 +6092,34 @@
         <v>12</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>44154.70829784722</v>
+        <v>44154.70363350694</v>
       </c>
       <c r="C108" t="n">
-        <v>465</v>
+        <v>27</v>
       </c>
       <c r="D108" t="s">
+        <v>328</v>
+      </c>
+      <c r="E108" t="s">
+        <v>329</v>
+      </c>
+      <c r="F108" t="s">
         <v>330</v>
       </c>
-      <c r="E108" t="s">
+      <c r="G108" t="s">
         <v>331</v>
       </c>
-      <c r="F108" t="s">
-        <v>332</v>
-      </c>
-      <c r="G108" t="s">
-        <v>333</v>
-      </c>
       <c r="H108" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I108" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J108" t="s">
         <v>19</v>
       </c>
       <c r="K108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L108" t="s"/>
     </row>
@@ -6011,37 +6128,37 @@
         <v>12</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>44154.70866863426</v>
+        <v>44154.70392996528</v>
       </c>
       <c r="C109" t="n">
-        <v>566</v>
+        <v>1587</v>
       </c>
       <c r="D109" t="s">
+        <v>332</v>
+      </c>
+      <c r="E109" t="s">
+        <v>333</v>
+      </c>
+      <c r="F109" t="s">
         <v>334</v>
       </c>
-      <c r="E109" t="s">
+      <c r="G109" t="s">
         <v>335</v>
       </c>
-      <c r="F109" t="s">
+      <c r="H109" t="s">
+        <v>24</v>
+      </c>
+      <c r="I109" t="s">
+        <v>18</v>
+      </c>
+      <c r="J109" t="s">
+        <v>25</v>
+      </c>
+      <c r="K109" t="s">
+        <v>19</v>
+      </c>
+      <c r="L109" t="s">
         <v>336</v>
-      </c>
-      <c r="G109" t="s">
-        <v>70</v>
-      </c>
-      <c r="H109" t="s">
-        <v>17</v>
-      </c>
-      <c r="I109" t="s">
-        <v>34</v>
-      </c>
-      <c r="J109" t="s">
-        <v>18</v>
-      </c>
-      <c r="K109" t="s">
-        <v>20</v>
-      </c>
-      <c r="L109" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6049,10 +6166,10 @@
         <v>12</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>44154.70929016203</v>
+        <v>44154.70447649305</v>
       </c>
       <c r="C110" t="n">
-        <v>81</v>
+        <v>1510</v>
       </c>
       <c r="D110" t="s">
         <v>337</v>
@@ -6067,16 +6184,16 @@
         <v>340</v>
       </c>
       <c r="H110" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I110" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J110" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L110" t="s"/>
     </row>
@@ -6085,10 +6202,10 @@
         <v>12</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>44154.70976986111</v>
+        <v>44154.70549010417</v>
       </c>
       <c r="C111" t="n">
-        <v>1837</v>
+        <v>631</v>
       </c>
       <c r="D111" t="s">
         <v>341</v>
@@ -6103,54 +6220,52 @@
         <v>344</v>
       </c>
       <c r="H111" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I111" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J111" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K111" t="s">
-        <v>20</v>
-      </c>
-      <c r="L111" t="s">
-        <v>345</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L111" t="s"/>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
         <v>12</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>44154.71052581019</v>
+        <v>44154.70597778935</v>
       </c>
       <c r="C112" t="n">
-        <v>1446</v>
+        <v>2198</v>
       </c>
       <c r="D112" t="s">
+        <v>345</v>
+      </c>
+      <c r="E112" t="s">
         <v>346</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>347</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>348</v>
       </c>
-      <c r="G112" t="s">
-        <v>349</v>
-      </c>
       <c r="H112" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I112" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J112" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L112" t="s"/>
     </row>
@@ -6159,46 +6274,48 @@
         <v>12</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>44154.71083821759</v>
+        <v>44154.70629576389</v>
       </c>
       <c r="C113" t="n">
-        <v>1516</v>
+        <v>3797</v>
       </c>
       <c r="D113" t="s">
+        <v>349</v>
+      </c>
+      <c r="E113" t="s">
         <v>350</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>351</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>352</v>
       </c>
-      <c r="G113" t="s">
-        <v>353</v>
-      </c>
       <c r="H113" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="I113" t="s">
         <v>18</v>
       </c>
       <c r="J113" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K113" t="s">
-        <v>20</v>
-      </c>
-      <c r="L113" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L113" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
         <v>12</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>44154.71164583333</v>
+        <v>44154.70677894676</v>
       </c>
       <c r="C114" t="n">
-        <v>1975</v>
+        <v>275</v>
       </c>
       <c r="D114" t="s">
         <v>354</v>
@@ -6213,30 +6330,28 @@
         <v>357</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I114" t="s">
-        <v>47</v>
+        <v>358</v>
       </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K114" t="s">
-        <v>53</v>
-      </c>
-      <c r="L114" t="s">
-        <v>358</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L114" t="s"/>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
         <v>12</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>44154.71525582176</v>
+        <v>44154.70703077546</v>
       </c>
       <c r="C115" t="n">
-        <v>1508</v>
+        <v>392</v>
       </c>
       <c r="D115" t="s">
         <v>359</v>
@@ -6251,16 +6366,16 @@
         <v>362</v>
       </c>
       <c r="H115" t="s">
-        <v>17</v>
+        <v>363</v>
       </c>
       <c r="I115" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J115" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K115" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L115" t="s"/>
     </row>
@@ -6269,70 +6384,72 @@
         <v>12</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>44154.71736768518</v>
+        <v>44154.70736740741</v>
       </c>
       <c r="C116" t="n">
-        <v>2973</v>
+        <v>1906</v>
       </c>
       <c r="D116" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E116" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F116" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G116" t="s">
-        <v>264</v>
+        <v>113</v>
       </c>
       <c r="H116" t="s">
+        <v>30</v>
+      </c>
+      <c r="I116" t="s">
         <v>17</v>
       </c>
-      <c r="I116" t="s">
-        <v>20</v>
-      </c>
       <c r="J116" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K116" t="s">
-        <v>20</v>
-      </c>
-      <c r="L116" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L116" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
         <v>12</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>44154.71784644676</v>
+        <v>44154.70763553241</v>
       </c>
       <c r="C117" t="n">
-        <v>2202</v>
+        <v>2977</v>
       </c>
       <c r="D117" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E117" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F117" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G117" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H117" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I117" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J117" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K117" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="L117" t="s"/>
     </row>
@@ -6341,34 +6458,34 @@
         <v>12</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>44154.71844951389</v>
+        <v>44154.70829784722</v>
       </c>
       <c r="C118" t="n">
-        <v>3156</v>
+        <v>465</v>
       </c>
       <c r="D118" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E118" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F118" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G118" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H118" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I118" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J118" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K118" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L118" t="s"/>
     </row>
@@ -6377,46 +6494,48 @@
         <v>12</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>44154.71885400463</v>
+        <v>44154.70866863426</v>
       </c>
       <c r="C119" t="n">
-        <v>2881</v>
+        <v>566</v>
       </c>
       <c r="D119" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E119" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F119" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G119" t="s">
-        <v>377</v>
+        <v>113</v>
       </c>
       <c r="H119" t="s">
-        <v>378</v>
+        <v>30</v>
       </c>
       <c r="I119" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K119" t="s">
-        <v>20</v>
-      </c>
-      <c r="L119" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L119" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
         <v>12</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>44154.71972351852</v>
+        <v>44154.70929016203</v>
       </c>
       <c r="C120" t="n">
-        <v>3034</v>
+        <v>81</v>
       </c>
       <c r="D120" t="s">
         <v>379</v>
@@ -6431,66 +6550,66 @@
         <v>382</v>
       </c>
       <c r="H120" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="I120" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K120" t="s">
-        <v>20</v>
-      </c>
-      <c r="L120" t="s">
-        <v>383</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L120" t="s"/>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" t="s">
         <v>12</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>44154.72165902777</v>
+        <v>44154.70976986111</v>
       </c>
       <c r="C121" t="n">
-        <v>986</v>
+        <v>1837</v>
       </c>
       <c r="D121" t="s">
+        <v>383</v>
+      </c>
+      <c r="E121" t="s">
         <v>384</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>385</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>386</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
+        <v>24</v>
+      </c>
+      <c r="I121" t="s">
+        <v>18</v>
+      </c>
+      <c r="J121" t="s">
+        <v>48</v>
+      </c>
+      <c r="K121" t="s">
+        <v>19</v>
+      </c>
+      <c r="L121" t="s">
         <v>387</v>
       </c>
-      <c r="H121" t="s">
-        <v>47</v>
-      </c>
-      <c r="I121" t="s">
-        <v>47</v>
-      </c>
-      <c r="J121" t="s">
-        <v>19</v>
-      </c>
-      <c r="K121" t="s">
-        <v>20</v>
-      </c>
-      <c r="L121" t="s"/>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" t="s">
         <v>12</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>44154.72335130787</v>
+        <v>44154.71052581019</v>
       </c>
       <c r="C122" t="n">
-        <v>2031</v>
+        <v>1446</v>
       </c>
       <c r="D122" t="s">
         <v>388</v>
@@ -6505,16 +6624,16 @@
         <v>391</v>
       </c>
       <c r="H122" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I122" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J122" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K122" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L122" t="s"/>
     </row>
@@ -6523,10 +6642,10 @@
         <v>12</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>44154.72369152778</v>
+        <v>44154.71083821759</v>
       </c>
       <c r="C123" t="n">
-        <v>67</v>
+        <v>1516</v>
       </c>
       <c r="D123" t="s">
         <v>392</v>
@@ -6541,16 +6660,16 @@
         <v>395</v>
       </c>
       <c r="H123" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="I123" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J123" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L123" t="s"/>
     </row>
@@ -6559,10 +6678,10 @@
         <v>12</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>44154.7240471875</v>
+        <v>44154.71164583333</v>
       </c>
       <c r="C124" t="n">
-        <v>533</v>
+        <v>1975</v>
       </c>
       <c r="D124" t="s">
         <v>396</v>
@@ -6577,52 +6696,54 @@
         <v>399</v>
       </c>
       <c r="H124" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I124" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J124" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L124" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="L124" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" t="s">
         <v>12</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>44154.72488017361</v>
+        <v>44154.71525582176</v>
       </c>
       <c r="C125" t="n">
-        <v>3716</v>
+        <v>1508</v>
       </c>
       <c r="D125" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E125" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F125" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G125" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H125" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I125" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="K125" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L125" t="s"/>
     </row>
@@ -6631,34 +6752,34 @@
         <v>12</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>44154.72557752315</v>
+        <v>44154.71736768518</v>
       </c>
       <c r="C126" t="n">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="D126" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E126" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F126" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G126" t="s">
-        <v>205</v>
+        <v>307</v>
       </c>
       <c r="H126" t="s">
-        <v>407</v>
+        <v>30</v>
       </c>
       <c r="I126" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J126" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K126" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L126" t="s"/>
     </row>
@@ -6667,10 +6788,10 @@
         <v>12</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>44154.6643809838</v>
+        <v>44154.71784644676</v>
       </c>
       <c r="C127" t="n">
-        <v>2555</v>
+        <v>2202</v>
       </c>
       <c r="D127" t="s">
         <v>408</v>
@@ -6685,16 +6806,16 @@
         <v>411</v>
       </c>
       <c r="H127" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I127" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K127" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L127" t="s"/>
     </row>
@@ -6703,10 +6824,10 @@
         <v>12</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>44154.66514181713</v>
+        <v>44154.71844951389</v>
       </c>
       <c r="C128" t="n">
-        <v>2501</v>
+        <v>3156</v>
       </c>
       <c r="D128" t="s">
         <v>412</v>
@@ -6721,16 +6842,16 @@
         <v>415</v>
       </c>
       <c r="H128" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I128" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="J128" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K128" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="L128" t="s"/>
     </row>
@@ -6739,10 +6860,10 @@
         <v>12</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>44154.6655874537</v>
+        <v>44154.71885400463</v>
       </c>
       <c r="C129" t="n">
-        <v>2825</v>
+        <v>2881</v>
       </c>
       <c r="D129" t="s">
         <v>416</v>
@@ -6757,16 +6878,16 @@
         <v>419</v>
       </c>
       <c r="H129" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="I129" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J129" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K129" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L129" t="s"/>
     </row>
@@ -6775,10 +6896,10 @@
         <v>12</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>44154.66637526621</v>
+        <v>44154.71972351852</v>
       </c>
       <c r="C130" t="n">
-        <v>3460</v>
+        <v>3034</v>
       </c>
       <c r="D130" t="s">
         <v>420</v>
@@ -6793,66 +6914,66 @@
         <v>423</v>
       </c>
       <c r="H130" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I130" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J130" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K130" t="s">
-        <v>34</v>
-      </c>
-      <c r="L130" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L130" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" t="s">
         <v>12</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>44154.66675946759</v>
+        <v>44154.72165902777</v>
       </c>
       <c r="C131" t="n">
-        <v>1777</v>
+        <v>986</v>
       </c>
       <c r="D131" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E131" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F131" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G131" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H131" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I131" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K131" t="s">
-        <v>20</v>
-      </c>
-      <c r="L131" t="s">
-        <v>428</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L131" t="s"/>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" t="s">
         <v>12</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>44154.66788681713</v>
+        <v>44154.72335130787</v>
       </c>
       <c r="C132" t="n">
-        <v>2772</v>
+        <v>2031</v>
       </c>
       <c r="D132" t="s">
         <v>429</v>
@@ -6867,92 +6988,88 @@
         <v>432</v>
       </c>
       <c r="H132" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I132" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="J132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K132" t="s">
-        <v>20</v>
-      </c>
-      <c r="L132" t="s">
-        <v>433</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L132" t="s"/>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" t="s">
         <v>12</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>44154.66935013889</v>
+        <v>44154.72369152778</v>
       </c>
       <c r="C133" t="n">
-        <v>3641</v>
+        <v>67</v>
       </c>
       <c r="D133" t="s">
+        <v>433</v>
+      </c>
+      <c r="E133" t="s">
         <v>434</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>435</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>436</v>
       </c>
-      <c r="G133" t="s">
-        <v>437</v>
-      </c>
       <c r="H133" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I133" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J133" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="K133" t="s">
-        <v>20</v>
-      </c>
-      <c r="L133" t="s">
-        <v>438</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L133" t="s"/>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" t="s">
         <v>12</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>44154.67044814815</v>
+        <v>44154.7240471875</v>
       </c>
       <c r="C134" t="n">
-        <v>2487</v>
+        <v>533</v>
       </c>
       <c r="D134" t="s">
+        <v>437</v>
+      </c>
+      <c r="E134" t="s">
+        <v>438</v>
+      </c>
+      <c r="F134" t="s">
         <v>439</v>
       </c>
-      <c r="E134" t="s">
+      <c r="G134" t="s">
         <v>440</v>
       </c>
-      <c r="F134" t="s">
-        <v>441</v>
-      </c>
-      <c r="G134" t="s">
-        <v>442</v>
-      </c>
       <c r="H134" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I134" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J134" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K134" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L134" t="s"/>
     </row>
@@ -6961,34 +7078,34 @@
         <v>12</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>44154.67135246528</v>
+        <v>44154.72488017361</v>
       </c>
       <c r="C135" t="n">
-        <v>2638</v>
+        <v>3716</v>
       </c>
       <c r="D135" t="s">
+        <v>441</v>
+      </c>
+      <c r="E135" t="s">
+        <v>442</v>
+      </c>
+      <c r="F135" t="s">
         <v>443</v>
       </c>
-      <c r="E135" t="s">
+      <c r="G135" t="s">
         <v>444</v>
       </c>
-      <c r="F135" t="s">
-        <v>445</v>
-      </c>
-      <c r="G135" t="s">
-        <v>446</v>
-      </c>
       <c r="H135" t="s">
-        <v>447</v>
+        <v>25</v>
       </c>
       <c r="I135" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K135" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L135" t="s"/>
     </row>
@@ -6997,72 +7114,70 @@
         <v>12</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>44154.67172907407</v>
+        <v>44154.72557752315</v>
       </c>
       <c r="C136" t="n">
-        <v>3209</v>
+        <v>2974</v>
       </c>
       <c r="D136" t="s">
+        <v>445</v>
+      </c>
+      <c r="E136" t="s">
+        <v>446</v>
+      </c>
+      <c r="F136" t="s">
+        <v>447</v>
+      </c>
+      <c r="G136" t="s">
+        <v>248</v>
+      </c>
+      <c r="H136" t="s">
         <v>448</v>
       </c>
-      <c r="E136" t="s">
-        <v>449</v>
-      </c>
-      <c r="F136" t="s">
-        <v>450</v>
-      </c>
-      <c r="G136" t="s">
-        <v>451</v>
-      </c>
-      <c r="H136" t="s">
-        <v>46</v>
-      </c>
       <c r="I136" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K136" t="s">
-        <v>20</v>
-      </c>
-      <c r="L136" t="s">
-        <v>452</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L136" t="s"/>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" t="s">
         <v>12</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>44154.67312695602</v>
+        <v>44154.6643809838</v>
       </c>
       <c r="C137" t="n">
-        <v>3711</v>
+        <v>2555</v>
       </c>
       <c r="D137" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E137" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F137" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G137" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H137" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="I137" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J137" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K137" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L137" t="s"/>
     </row>
@@ -7071,34 +7186,34 @@
         <v>12</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>44154.6736441088</v>
+        <v>44154.66514181713</v>
       </c>
       <c r="C138" t="n">
-        <v>3312</v>
+        <v>2501</v>
       </c>
       <c r="D138" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E138" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F138" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G138" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H138" t="s">
+        <v>53</v>
+      </c>
+      <c r="I138" t="s">
+        <v>19</v>
+      </c>
+      <c r="J138" t="s">
         <v>17</v>
       </c>
-      <c r="I138" t="s">
-        <v>461</v>
-      </c>
-      <c r="J138" t="s">
-        <v>19</v>
-      </c>
       <c r="K138" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L138" t="s"/>
     </row>
@@ -7107,34 +7222,34 @@
         <v>12</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>44154.67442511574</v>
+        <v>44154.6655874537</v>
       </c>
       <c r="C139" t="n">
-        <v>78</v>
+        <v>2825</v>
       </c>
       <c r="D139" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E139" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F139" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G139" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H139" t="s">
+        <v>109</v>
+      </c>
+      <c r="I139" t="s">
         <v>17</v>
       </c>
-      <c r="I139" t="s">
-        <v>40</v>
-      </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K139" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L139" t="s"/>
     </row>
@@ -7143,111 +7258,111 @@
         <v>12</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>44154.67532738426</v>
+        <v>44154.66637526621</v>
       </c>
       <c r="C140" t="n">
-        <v>3031</v>
+        <v>3460</v>
       </c>
       <c r="D140" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E140" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F140" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G140" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H140" t="s">
+        <v>30</v>
+      </c>
+      <c r="I140" t="s">
+        <v>19</v>
+      </c>
+      <c r="J140" t="s">
         <v>17</v>
       </c>
-      <c r="I140" t="s">
-        <v>34</v>
-      </c>
-      <c r="J140" t="s">
-        <v>19</v>
-      </c>
       <c r="K140" t="s">
-        <v>19</v>
-      </c>
-      <c r="L140" t="s">
-        <v>470</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L140" t="s"/>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" t="s">
         <v>12</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>44154.67696158565</v>
+        <v>44154.66675946759</v>
       </c>
       <c r="C141" t="n">
-        <v>2035</v>
+        <v>1777</v>
       </c>
       <c r="D141" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E141" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F141" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G141" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="H141" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I141" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J141" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K141" t="s">
-        <v>34</v>
-      </c>
-      <c r="L141" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L141" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" t="s">
         <v>12</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>44154.67738247685</v>
+        <v>44154.66788681713</v>
       </c>
       <c r="C142" t="n">
-        <v>1784</v>
+        <v>2772</v>
       </c>
       <c r="D142" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E142" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F142" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G142" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H142" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I142" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J142" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K142" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L142" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7255,108 +7370,108 @@
         <v>12</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>44154.67845166667</v>
+        <v>44154.66935013889</v>
       </c>
       <c r="C143" t="n">
-        <v>116</v>
+        <v>3641</v>
       </c>
       <c r="D143" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E143" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F143" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G143" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="H143" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I143" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="J143" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K143" t="s">
-        <v>34</v>
-      </c>
-      <c r="L143" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L143" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" t="s">
         <v>12</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>44154.68068962963</v>
+        <v>44154.67044814815</v>
       </c>
       <c r="C144" t="n">
-        <v>1882</v>
+        <v>2487</v>
       </c>
       <c r="D144" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E144" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F144" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G144" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H144" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I144" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J144" t="s">
-        <v>461</v>
+        <v>17</v>
       </c>
       <c r="K144" t="s">
-        <v>19</v>
-      </c>
-      <c r="L144" t="s">
-        <v>488</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L144" t="s"/>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" t="s">
         <v>12</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>44154.68186581018</v>
+        <v>44154.67135246528</v>
       </c>
       <c r="C145" t="n">
-        <v>1175</v>
+        <v>2638</v>
       </c>
       <c r="D145" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E145" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F145" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G145" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="H145" t="s">
-        <v>17</v>
+        <v>488</v>
       </c>
       <c r="I145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J145" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="K145" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L145" t="s"/>
     </row>
@@ -7365,37 +7480,37 @@
         <v>12</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>44154.68270211806</v>
+        <v>44154.67172907407</v>
       </c>
       <c r="C146" t="n">
-        <v>1528</v>
+        <v>3209</v>
       </c>
       <c r="D146" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E146" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F146" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G146" t="s">
-        <v>432</v>
+        <v>492</v>
       </c>
       <c r="H146" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I146" t="s">
         <v>18</v>
       </c>
       <c r="J146" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K146" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L146" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7403,72 +7518,70 @@
         <v>12</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>44154.68296275463</v>
+        <v>44154.67312695602</v>
       </c>
       <c r="C147" t="n">
-        <v>1838</v>
+        <v>3711</v>
       </c>
       <c r="D147" t="s">
+        <v>494</v>
+      </c>
+      <c r="E147" t="s">
+        <v>495</v>
+      </c>
+      <c r="F147" t="s">
+        <v>496</v>
+      </c>
+      <c r="G147" t="s">
         <v>497</v>
       </c>
-      <c r="E147" t="s">
-        <v>498</v>
-      </c>
-      <c r="F147" t="s">
-        <v>499</v>
-      </c>
-      <c r="G147" t="s">
-        <v>500</v>
-      </c>
       <c r="H147" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="K147" t="s">
-        <v>20</v>
-      </c>
-      <c r="L147" t="s">
-        <v>501</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L147" t="s"/>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" t="s">
         <v>12</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>44154.68356502315</v>
+        <v>44154.6736441088</v>
       </c>
       <c r="C148" t="n">
-        <v>1924</v>
+        <v>3312</v>
       </c>
       <c r="D148" t="s">
+        <v>498</v>
+      </c>
+      <c r="E148" t="s">
+        <v>499</v>
+      </c>
+      <c r="F148" t="s">
+        <v>500</v>
+      </c>
+      <c r="G148" t="s">
+        <v>501</v>
+      </c>
+      <c r="H148" t="s">
+        <v>30</v>
+      </c>
+      <c r="I148" t="s">
         <v>502</v>
       </c>
-      <c r="E148" t="s">
-        <v>503</v>
-      </c>
-      <c r="F148" t="s">
-        <v>504</v>
-      </c>
-      <c r="G148" t="s">
-        <v>505</v>
-      </c>
-      <c r="H148" t="s">
-        <v>17</v>
-      </c>
-      <c r="I148" t="s">
-        <v>34</v>
-      </c>
       <c r="J148" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K148" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L148" t="s"/>
     </row>
@@ -7477,34 +7590,34 @@
         <v>12</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>44154.6841640625</v>
+        <v>44154.67442511574</v>
       </c>
       <c r="C149" t="n">
-        <v>3611</v>
+        <v>78</v>
       </c>
       <c r="D149" t="s">
+        <v>503</v>
+      </c>
+      <c r="E149" t="s">
+        <v>504</v>
+      </c>
+      <c r="F149" t="s">
+        <v>505</v>
+      </c>
+      <c r="G149" t="s">
         <v>506</v>
       </c>
-      <c r="E149" t="s">
-        <v>507</v>
-      </c>
-      <c r="F149" t="s">
-        <v>508</v>
-      </c>
-      <c r="G149" t="s">
-        <v>509</v>
-      </c>
       <c r="H149" t="s">
+        <v>30</v>
+      </c>
+      <c r="I149" t="s">
+        <v>48</v>
+      </c>
+      <c r="J149" t="s">
+        <v>25</v>
+      </c>
+      <c r="K149" t="s">
         <v>17</v>
-      </c>
-      <c r="I149" t="s">
-        <v>17</v>
-      </c>
-      <c r="J149" t="s">
-        <v>48</v>
-      </c>
-      <c r="K149" t="s">
-        <v>20</v>
       </c>
       <c r="L149" t="s"/>
     </row>
@@ -7513,70 +7626,72 @@
         <v>12</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>44154.68457054398</v>
+        <v>44154.67532738426</v>
       </c>
       <c r="C150" t="n">
-        <v>1065</v>
+        <v>3031</v>
       </c>
       <c r="D150" t="s">
+        <v>507</v>
+      </c>
+      <c r="E150" t="s">
+        <v>508</v>
+      </c>
+      <c r="F150" t="s">
+        <v>509</v>
+      </c>
+      <c r="G150" t="s">
         <v>510</v>
       </c>
-      <c r="E150" t="s">
+      <c r="H150" t="s">
+        <v>30</v>
+      </c>
+      <c r="I150" t="s">
+        <v>17</v>
+      </c>
+      <c r="J150" t="s">
+        <v>37</v>
+      </c>
+      <c r="K150" t="s">
+        <v>37</v>
+      </c>
+      <c r="L150" t="s">
         <v>511</v>
       </c>
-      <c r="F150" t="s">
-        <v>512</v>
-      </c>
-      <c r="G150" t="s">
-        <v>513</v>
-      </c>
-      <c r="H150" t="s">
-        <v>17</v>
-      </c>
-      <c r="I150" t="s">
-        <v>20</v>
-      </c>
-      <c r="J150" t="s">
-        <v>19</v>
-      </c>
-      <c r="K150" t="s">
-        <v>34</v>
-      </c>
-      <c r="L150" t="s"/>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" t="s">
         <v>12</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>44154.68556002315</v>
+        <v>44154.67696158565</v>
       </c>
       <c r="C151" t="n">
-        <v>2475</v>
+        <v>2035</v>
       </c>
       <c r="D151" t="s">
+        <v>512</v>
+      </c>
+      <c r="E151" t="s">
+        <v>513</v>
+      </c>
+      <c r="F151" t="s">
         <v>514</v>
       </c>
-      <c r="E151" t="s">
+      <c r="G151" t="s">
         <v>515</v>
       </c>
-      <c r="F151" t="s">
-        <v>516</v>
-      </c>
-      <c r="G151" t="s">
-        <v>282</v>
-      </c>
       <c r="H151" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J151" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K151" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L151" t="s"/>
     </row>
@@ -7585,46 +7700,48 @@
         <v>12</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>44154.68630527778</v>
+        <v>44154.67738247685</v>
       </c>
       <c r="C152" t="n">
-        <v>3042</v>
+        <v>1784</v>
       </c>
       <c r="D152" t="s">
+        <v>516</v>
+      </c>
+      <c r="E152" t="s">
         <v>517</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>518</v>
       </c>
-      <c r="F152" t="s">
+      <c r="G152" t="s">
         <v>519</v>
       </c>
-      <c r="G152" t="s">
+      <c r="H152" t="s">
+        <v>24</v>
+      </c>
+      <c r="I152" t="s">
+        <v>18</v>
+      </c>
+      <c r="J152" t="s">
+        <v>36</v>
+      </c>
+      <c r="K152" t="s">
+        <v>19</v>
+      </c>
+      <c r="L152" t="s">
         <v>520</v>
       </c>
-      <c r="H152" t="s">
-        <v>34</v>
-      </c>
-      <c r="I152" t="s">
-        <v>47</v>
-      </c>
-      <c r="J152" t="s">
-        <v>20</v>
-      </c>
-      <c r="K152" t="s">
-        <v>20</v>
-      </c>
-      <c r="L152" t="s"/>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" t="s">
         <v>12</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>44154.68673292824</v>
+        <v>44154.67845166667</v>
       </c>
       <c r="C153" t="n">
-        <v>1903</v>
+        <v>116</v>
       </c>
       <c r="D153" t="s">
         <v>521</v>
@@ -7639,16 +7756,16 @@
         <v>524</v>
       </c>
       <c r="H153" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I153" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="J153" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K153" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L153" t="s"/>
     </row>
@@ -7657,10 +7774,10 @@
         <v>12</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>44154.6878003588</v>
+        <v>44154.68068962963</v>
       </c>
       <c r="C154" t="n">
-        <v>615</v>
+        <v>1882</v>
       </c>
       <c r="D154" t="s">
         <v>525</v>
@@ -7675,52 +7792,54 @@
         <v>528</v>
       </c>
       <c r="H154" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I154" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J154" t="s">
-        <v>19</v>
+        <v>502</v>
       </c>
       <c r="K154" t="s">
-        <v>20</v>
-      </c>
-      <c r="L154" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="L154" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" t="s">
         <v>12</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>44154.68797761574</v>
+        <v>44154.68186581018</v>
       </c>
       <c r="C155" t="n">
-        <v>3195</v>
+        <v>1175</v>
       </c>
       <c r="D155" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E155" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F155" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G155" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H155" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I155" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J155" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="K155" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L155" t="s"/>
     </row>
@@ -7729,158 +7848,158 @@
         <v>12</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>44154.68839364583</v>
+        <v>44154.68270211806</v>
       </c>
       <c r="C156" t="n">
-        <v>3134</v>
+        <v>1528</v>
       </c>
       <c r="D156" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E156" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F156" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G156" t="s">
-        <v>536</v>
+        <v>473</v>
       </c>
       <c r="H156" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="I156" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J156" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K156" t="s">
-        <v>20</v>
-      </c>
-      <c r="L156" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L156" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" t="s">
         <v>12</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>44154.68914657408</v>
+        <v>44154.68296275463</v>
       </c>
       <c r="C157" t="n">
-        <v>1023</v>
+        <v>1838</v>
       </c>
       <c r="D157" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E157" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F157" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G157" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H157" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I157" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J157" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K157" t="s">
-        <v>20</v>
-      </c>
-      <c r="L157" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L157" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" t="s">
         <v>12</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>44154.68949501157</v>
+        <v>44154.68356502315</v>
       </c>
       <c r="C158" t="n">
-        <v>3395</v>
+        <v>1924</v>
       </c>
       <c r="D158" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E158" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F158" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G158" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H158" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I158" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J158" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K158" t="s">
-        <v>20</v>
-      </c>
-      <c r="L158" t="s">
-        <v>545</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L158" t="s"/>
     </row>
     <row r="159" spans="1:12">
       <c r="A159" t="s">
         <v>12</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>44154.68986456018</v>
+        <v>44154.6841640625</v>
       </c>
       <c r="C159" t="n">
-        <v>1760</v>
+        <v>3611</v>
       </c>
       <c r="D159" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E159" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F159" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G159" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H159" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I159" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="J159" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K159" t="s">
-        <v>20</v>
-      </c>
-      <c r="L159" t="s">
-        <v>550</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L159" t="s"/>
     </row>
     <row r="160" spans="1:12">
       <c r="A160" t="s">
         <v>12</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>44154.69036902778</v>
+        <v>44154.68457054398</v>
       </c>
       <c r="C160" t="n">
-        <v>1995</v>
+        <v>1065</v>
       </c>
       <c r="D160" t="s">
         <v>551</v>
@@ -7892,19 +8011,19 @@
         <v>553</v>
       </c>
       <c r="G160" t="s">
-        <v>146</v>
+        <v>554</v>
       </c>
       <c r="H160" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I160" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J160" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K160" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L160" t="s"/>
     </row>
@@ -7913,36 +8032,400 @@
         <v>12</v>
       </c>
       <c r="B161" s="2" t="n">
+        <v>44154.68556002315</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2475</v>
+      </c>
+      <c r="D161" t="s">
+        <v>555</v>
+      </c>
+      <c r="E161" t="s">
+        <v>556</v>
+      </c>
+      <c r="F161" t="s">
+        <v>557</v>
+      </c>
+      <c r="G161" t="s">
+        <v>57</v>
+      </c>
+      <c r="H161" t="s">
+        <v>82</v>
+      </c>
+      <c r="I161" t="s">
+        <v>18</v>
+      </c>
+      <c r="J161" t="s">
+        <v>17</v>
+      </c>
+      <c r="K161" t="s">
+        <v>17</v>
+      </c>
+      <c r="L161" t="s"/>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>44154.68630527778</v>
+      </c>
+      <c r="C162" t="n">
+        <v>3042</v>
+      </c>
+      <c r="D162" t="s">
+        <v>558</v>
+      </c>
+      <c r="E162" t="s">
+        <v>559</v>
+      </c>
+      <c r="F162" t="s">
+        <v>560</v>
+      </c>
+      <c r="G162" t="s">
+        <v>561</v>
+      </c>
+      <c r="H162" t="s">
+        <v>17</v>
+      </c>
+      <c r="I162" t="s">
+        <v>18</v>
+      </c>
+      <c r="J162" t="s">
+        <v>19</v>
+      </c>
+      <c r="K162" t="s">
+        <v>19</v>
+      </c>
+      <c r="L162" t="s"/>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>44154.68673292824</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1903</v>
+      </c>
+      <c r="D163" t="s">
+        <v>562</v>
+      </c>
+      <c r="E163" t="s">
+        <v>563</v>
+      </c>
+      <c r="F163" t="s">
+        <v>564</v>
+      </c>
+      <c r="G163" t="s">
+        <v>565</v>
+      </c>
+      <c r="H163" t="s">
+        <v>109</v>
+      </c>
+      <c r="I163" t="s">
+        <v>17</v>
+      </c>
+      <c r="J163" t="s">
+        <v>37</v>
+      </c>
+      <c r="K163" t="s">
+        <v>17</v>
+      </c>
+      <c r="L163" t="s"/>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>44154.6878003588</v>
+      </c>
+      <c r="C164" t="n">
+        <v>615</v>
+      </c>
+      <c r="D164" t="s">
+        <v>566</v>
+      </c>
+      <c r="E164" t="s">
+        <v>567</v>
+      </c>
+      <c r="F164" t="s">
+        <v>568</v>
+      </c>
+      <c r="G164" t="s">
+        <v>569</v>
+      </c>
+      <c r="H164" t="s">
+        <v>53</v>
+      </c>
+      <c r="I164" t="s">
+        <v>48</v>
+      </c>
+      <c r="J164" t="s">
+        <v>37</v>
+      </c>
+      <c r="K164" t="s">
+        <v>19</v>
+      </c>
+      <c r="L164" t="s"/>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>44154.68797761574</v>
+      </c>
+      <c r="C165" t="n">
+        <v>3195</v>
+      </c>
+      <c r="D165" t="s">
+        <v>570</v>
+      </c>
+      <c r="E165" t="s">
+        <v>571</v>
+      </c>
+      <c r="F165" t="s">
+        <v>572</v>
+      </c>
+      <c r="G165" t="s">
+        <v>573</v>
+      </c>
+      <c r="H165" t="s">
+        <v>24</v>
+      </c>
+      <c r="I165" t="s">
+        <v>18</v>
+      </c>
+      <c r="J165" t="s">
+        <v>25</v>
+      </c>
+      <c r="K165" t="s">
+        <v>19</v>
+      </c>
+      <c r="L165" t="s"/>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>44154.68839364583</v>
+      </c>
+      <c r="C166" t="n">
+        <v>3134</v>
+      </c>
+      <c r="D166" t="s">
+        <v>574</v>
+      </c>
+      <c r="E166" t="s">
+        <v>575</v>
+      </c>
+      <c r="F166" t="s">
+        <v>576</v>
+      </c>
+      <c r="G166" t="s">
+        <v>577</v>
+      </c>
+      <c r="H166" t="s">
+        <v>37</v>
+      </c>
+      <c r="I166" t="s">
+        <v>18</v>
+      </c>
+      <c r="J166" t="s">
+        <v>48</v>
+      </c>
+      <c r="K166" t="s">
+        <v>19</v>
+      </c>
+      <c r="L166" t="s"/>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>44154.68914657408</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D167" t="s">
+        <v>578</v>
+      </c>
+      <c r="E167" t="s">
+        <v>579</v>
+      </c>
+      <c r="F167" t="s">
+        <v>580</v>
+      </c>
+      <c r="G167" t="s">
+        <v>581</v>
+      </c>
+      <c r="H167" t="s">
+        <v>30</v>
+      </c>
+      <c r="I167" t="s">
+        <v>19</v>
+      </c>
+      <c r="J167" t="s">
+        <v>37</v>
+      </c>
+      <c r="K167" t="s">
+        <v>19</v>
+      </c>
+      <c r="L167" t="s"/>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>44154.68949501157</v>
+      </c>
+      <c r="C168" t="n">
+        <v>3395</v>
+      </c>
+      <c r="D168" t="s">
+        <v>582</v>
+      </c>
+      <c r="E168" t="s">
+        <v>583</v>
+      </c>
+      <c r="F168" t="s">
+        <v>584</v>
+      </c>
+      <c r="G168" t="s">
+        <v>585</v>
+      </c>
+      <c r="H168" t="s">
+        <v>24</v>
+      </c>
+      <c r="I168" t="s">
+        <v>18</v>
+      </c>
+      <c r="J168" t="s">
+        <v>25</v>
+      </c>
+      <c r="K168" t="s">
+        <v>19</v>
+      </c>
+      <c r="L168" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>44154.68986456018</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1760</v>
+      </c>
+      <c r="D169" t="s">
+        <v>587</v>
+      </c>
+      <c r="E169" t="s">
+        <v>588</v>
+      </c>
+      <c r="F169" t="s">
+        <v>589</v>
+      </c>
+      <c r="G169" t="s">
+        <v>590</v>
+      </c>
+      <c r="H169" t="s">
+        <v>24</v>
+      </c>
+      <c r="I169" t="s">
+        <v>18</v>
+      </c>
+      <c r="J169" t="s">
+        <v>25</v>
+      </c>
+      <c r="K169" t="s">
+        <v>19</v>
+      </c>
+      <c r="L169" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>44154.69036902778</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D170" t="s">
+        <v>592</v>
+      </c>
+      <c r="E170" t="s">
+        <v>593</v>
+      </c>
+      <c r="F170" t="s">
+        <v>594</v>
+      </c>
+      <c r="G170" t="s">
+        <v>189</v>
+      </c>
+      <c r="H170" t="s">
+        <v>109</v>
+      </c>
+      <c r="I170" t="s">
+        <v>19</v>
+      </c>
+      <c r="J170" t="s">
+        <v>17</v>
+      </c>
+      <c r="K170" t="s">
+        <v>17</v>
+      </c>
+      <c r="L170" t="s"/>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171" s="2" t="n">
         <v>44154.69077488426</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C171" t="n">
         <v>440</v>
       </c>
-      <c r="D161" t="s">
-        <v>554</v>
-      </c>
-      <c r="E161" t="s">
-        <v>555</v>
-      </c>
-      <c r="F161" t="s">
-        <v>556</v>
-      </c>
-      <c r="G161" t="s">
-        <v>344</v>
-      </c>
-      <c r="H161" t="s">
-        <v>34</v>
-      </c>
-      <c r="I161" t="s">
-        <v>47</v>
-      </c>
-      <c r="J161" t="s">
-        <v>40</v>
-      </c>
-      <c r="K161" t="s">
-        <v>20</v>
-      </c>
-      <c r="L161" t="s"/>
+      <c r="D171" t="s">
+        <v>595</v>
+      </c>
+      <c r="E171" t="s">
+        <v>596</v>
+      </c>
+      <c r="F171" t="s">
+        <v>597</v>
+      </c>
+      <c r="G171" t="s">
+        <v>386</v>
+      </c>
+      <c r="H171" t="s">
+        <v>17</v>
+      </c>
+      <c r="I171" t="s">
+        <v>18</v>
+      </c>
+      <c r="J171" t="s">
+        <v>48</v>
+      </c>
+      <c r="K171" t="s">
+        <v>19</v>
+      </c>
+      <c r="L171" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models-combined.xlsx
+++ b/classification-record/session-all-models-combined.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="638">
   <si>
     <t>Name</t>
   </si>
@@ -56,6 +56,168 @@
     <t>Alex</t>
   </si>
   <si>
+    <t>Pure Vape Raspberry Twist Disposable Review</t>
+  </si>
+  <si>
+    <t>f3EzAhWDQCo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f3EzAhWDQCo</t>
+  </si>
+  <si>
+    <t>Weeats Reviews</t>
+  </si>
+  <si>
+    <t>0 5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>POSH Disposable vape kit review!! Is Vaping better??</t>
+  </si>
+  <si>
+    <t>1A2C6qL7Mt0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1A2C6qL7Mt0</t>
+  </si>
+  <si>
+    <t>DG Amiri</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Best Vape Pen for Nic Salt in 2019? | VapeOnly vPipe Mini</t>
+  </si>
+  <si>
+    <t>3sCCKXpEG8M</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3sCCKXpEG8M</t>
+  </si>
+  <si>
+    <t>HeavenGifts Official</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>DIY E-Liquid Recipe Development</t>
+  </si>
+  <si>
+    <t>JDWyw7CIV8g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JDWyw7CIV8g</t>
+  </si>
+  <si>
+    <t>New Amsterdam Vape</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>Waterproof Tube Mod? Trident Kit by Vandy Vape!</t>
+  </si>
+  <si>
+    <t>sRubxCbr9VA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sRubxCbr9VA</t>
+  </si>
+  <si>
+    <t>Matt From SMM</t>
+  </si>
+  <si>
+    <t>2 4</t>
+  </si>
+  <si>
+    <t>E-CIG EXPLOSIONS!!! - What The News Doesn't Tell You</t>
+  </si>
+  <si>
+    <t>hHCHrSKiTFY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hHCHrSKiTFY</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talking about vape devices blowing up </t>
+  </si>
+  <si>
+    <t>Best Disposable Film Cameras</t>
+  </si>
+  <si>
+    <t>fanjl2McNy0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fanjl2McNy0</t>
+  </si>
+  <si>
+    <t>NegativeFeedback</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>disposable camera</t>
+  </si>
+  <si>
+    <t>Viggo Vape Pods Review</t>
+  </si>
+  <si>
+    <t>2ODFGL5PR7Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2ODFGL5PR7Q</t>
+  </si>
+  <si>
+    <t>Vape Fuse</t>
+  </si>
+  <si>
+    <t>VapeWild Employees Try Vape Pink E-Liquid For The First Time</t>
+  </si>
+  <si>
+    <t>IdOh4KSnlCQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IdOh4KSnlCQ</t>
+  </si>
+  <si>
+    <t>VapeWild</t>
+  </si>
+  <si>
+    <t>Vaping, Marijuana, and the Effects on the Adolescent Brain with Dr. Ruth Potee</t>
+  </si>
+  <si>
+    <t>25mK4yXzOkQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=25mK4yXzOkQ</t>
+  </si>
+  <si>
+    <t>1623 Studios</t>
+  </si>
+  <si>
     <t>The Dangers of Vaping</t>
   </si>
   <si>
@@ -68,15 +230,6 @@
     <t>Lee Health</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Disposable Camera Effect - Lightroom Mobile Presets Free DNG</t>
   </si>
   <si>
@@ -89,12 +242,6 @@
     <t>AR Editing</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Vaping Review of Vaporesso Target 75 VTC electronic cigarette, from Rip</t>
   </si>
   <si>
@@ -107,12 +254,6 @@
     <t>Vaporesso</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0 1</t>
-  </si>
-  <si>
     <t>PURE VAPE FRUIT EXPLOSION DISPOSABLE VAPE PEN REVIEW 2018</t>
   </si>
   <si>
@@ -125,12 +266,6 @@
     <t>FIRST TIME PATIENT</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Quit Smoking Cigarettes With An E Cig? Replacing Tobacco</t>
   </si>
   <si>
@@ -158,12 +293,6 @@
     <t>StonedDumpling</t>
   </si>
   <si>
-    <t>0 5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>☁ Alternativ E-liquid line by Marina Vape ☞ Reviewed ☜ by Deviated Septum ☁</t>
   </si>
   <si>
@@ -344,9 +473,6 @@
     <t>Geremy</t>
   </si>
   <si>
-    <t>3 7</t>
-  </si>
-  <si>
     <t>Top 3 Vaping Starter Kits of 2019 For The First Time Vaper</t>
   </si>
   <si>
@@ -1466,9 +1592,6 @@
     <t>https://www.youtube.com/watch?v=bu_emEorReE</t>
   </si>
   <si>
-    <t>VapeWild</t>
-  </si>
-  <si>
     <t>THE BIG BEAST custom made DIY four 18650 box mod</t>
   </si>
   <si>
@@ -1521,9 +1644,6 @@
   </si>
   <si>
     <t>Vape Don't Smoke</t>
-  </si>
-  <si>
-    <t>2 4</t>
   </si>
   <si>
     <t>Eleaf iJust 2 Unboxing | Vape | E- Cigarette</t>
@@ -2161,7 +2281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L171"/>
+  <dimension ref="A1:L181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2212,10 +2332,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44159.75336379648</v>
+        <v>44159.78244555804</v>
       </c>
       <c r="C2" t="n">
-        <v>3058</v>
+        <v>1396</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -2239,7 +2359,7 @@
         <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s"/>
     </row>
@@ -2248,34 +2368,34 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44159.75352132169</v>
+        <v>44159.78293992684</v>
       </c>
       <c r="C3" t="n">
-        <v>2095</v>
+        <v>3171</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s"/>
     </row>
@@ -2284,34 +2404,34 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44159.75489727724</v>
+        <v>44159.78447659321</v>
       </c>
       <c r="C4" t="n">
-        <v>2384</v>
+        <v>3338</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s"/>
     </row>
@@ -2320,34 +2440,34 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44159.75527634136</v>
+        <v>44159.7849043309</v>
       </c>
       <c r="C5" t="n">
-        <v>3018</v>
+        <v>1905</v>
       </c>
       <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s"/>
     </row>
@@ -2356,34 +2476,34 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44159.75629989937</v>
+        <v>44159.78544173385</v>
       </c>
       <c r="C6" t="n">
-        <v>237</v>
+        <v>874</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s"/>
     </row>
@@ -2392,46 +2512,48 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44159.75682740764</v>
+        <v>44159.78586815737</v>
       </c>
       <c r="C7" t="n">
-        <v>2378</v>
+        <v>190</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
         <v>48</v>
       </c>
-      <c r="J7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" t="s"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44159.7574700803</v>
+        <v>44159.78620431689</v>
       </c>
       <c r="C8" t="n">
-        <v>3660</v>
+        <v>2096</v>
       </c>
       <c r="D8" t="s">
         <v>49</v>
@@ -2446,52 +2568,54 @@
         <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44159.75843941289</v>
+        <v>44159.78680747255</v>
       </c>
       <c r="C9" t="n">
-        <v>228</v>
+        <v>669</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s"/>
     </row>
@@ -2500,34 +2624,34 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44159.75925945175</v>
+        <v>44159.78729312109</v>
       </c>
       <c r="C10" t="n">
-        <v>2631</v>
+        <v>3030</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L10" t="s"/>
     </row>
@@ -2536,10 +2660,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44159.75952258801</v>
+        <v>44159.78774577091</v>
       </c>
       <c r="C11" t="n">
-        <v>1821</v>
+        <v>403</v>
       </c>
       <c r="D11" t="s">
         <v>63</v>
@@ -2554,16 +2678,16 @@
         <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s"/>
     </row>
@@ -2572,10 +2696,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44159.75188457176</v>
+        <v>44159.7533637963</v>
       </c>
       <c r="C12" t="n">
-        <v>3376</v>
+        <v>3058</v>
       </c>
       <c r="D12" t="s">
         <v>67</v>
@@ -2590,16 +2714,16 @@
         <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s"/>
     </row>
@@ -2608,10 +2732,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44159.74467407407</v>
+        <v>44159.75352131944</v>
       </c>
       <c r="C13" t="n">
-        <v>3276</v>
+        <v>2095</v>
       </c>
       <c r="D13" t="s">
         <v>71</v>
@@ -2626,130 +2750,124 @@
         <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" t="s">
-        <v>77</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L13" t="s"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44159.74606818287</v>
+        <v>44159.75489728009</v>
       </c>
       <c r="C14" t="n">
-        <v>2253</v>
+        <v>2384</v>
       </c>
       <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
         <v>78</v>
       </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" t="s">
-        <v>81</v>
-      </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" t="s">
-        <v>83</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L14" t="s"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44159.74687033565</v>
+        <v>44159.75527634259</v>
       </c>
       <c r="C15" t="n">
-        <v>3098</v>
+        <v>3018</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" t="s">
-        <v>88</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L15" t="s"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44159.74722585648</v>
+        <v>44159.75629989583</v>
       </c>
       <c r="C16" t="n">
-        <v>2345</v>
+        <v>237</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L16" t="s"/>
     </row>
@@ -2758,34 +2876,34 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44159.74879219908</v>
+        <v>44159.75682740741</v>
       </c>
       <c r="C17" t="n">
-        <v>513</v>
+        <v>2378</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L17" t="s"/>
     </row>
@@ -2794,34 +2912,34 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44159.74939453704</v>
+        <v>44159.75747008102</v>
       </c>
       <c r="C18" t="n">
-        <v>1256</v>
+        <v>3660</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="K18" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="L18" t="s"/>
     </row>
@@ -2830,34 +2948,34 @@
         <v>12</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44155.73170659722</v>
+        <v>44159.75843940972</v>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="K19" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L19" t="s"/>
     </row>
@@ -2866,34 +2984,34 @@
         <v>12</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44155.73238313657</v>
+        <v>44159.75925945602</v>
       </c>
       <c r="C20" t="n">
-        <v>987</v>
+        <v>2631</v>
       </c>
       <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s">
         <v>105</v>
       </c>
-      <c r="E20" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20" t="s">
-        <v>109</v>
-      </c>
-      <c r="I20" t="s">
-        <v>36</v>
-      </c>
       <c r="J20" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="K20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L20" t="s"/>
     </row>
@@ -2902,72 +3020,70 @@
         <v>12</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44155.73315965278</v>
+        <v>44159.75952259259</v>
       </c>
       <c r="C21" t="n">
-        <v>2249</v>
+        <v>1821</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I21" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="J21" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" t="s">
-        <v>115</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L21" t="s"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44155.73395746528</v>
+        <v>44159.75188457176</v>
       </c>
       <c r="C22" t="n">
-        <v>666</v>
+        <v>3376</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L22" t="s"/>
     </row>
@@ -2976,37 +3092,37 @@
         <v>12</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44155.73425486111</v>
+        <v>44159.74467407407</v>
       </c>
       <c r="C23" t="n">
-        <v>3088</v>
+        <v>3276</v>
       </c>
       <c r="D23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" t="s">
+        <v>118</v>
+      </c>
+      <c r="I23" t="s">
+        <v>119</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" t="s">
         <v>120</v>
-      </c>
-      <c r="E23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3014,144 +3130,146 @@
         <v>12</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44155.73473486111</v>
+        <v>44159.74606818287</v>
       </c>
       <c r="C24" t="n">
-        <v>175</v>
+        <v>2253</v>
       </c>
       <c r="D24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" t="s">
         <v>125</v>
       </c>
-      <c r="E24" t="s">
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" t="s">
         <v>126</v>
       </c>
-      <c r="F24" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" t="s"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44155.73540616898</v>
+        <v>44159.74687033565</v>
       </c>
       <c r="C25" t="n">
-        <v>864</v>
+        <v>3098</v>
       </c>
       <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" t="s">
         <v>129</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>130</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" t="s">
         <v>131</v>
       </c>
-      <c r="G25" t="s">
-        <v>132</v>
-      </c>
-      <c r="H25" t="s">
-        <v>109</v>
-      </c>
-      <c r="I25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" t="s"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44155.73567726852</v>
+        <v>44159.74722585648</v>
       </c>
       <c r="C26" t="n">
-        <v>1644</v>
+        <v>2345</v>
       </c>
       <c r="D26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" t="s">
         <v>133</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>134</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>135</v>
       </c>
-      <c r="G26" t="s">
-        <v>136</v>
-      </c>
       <c r="H26" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I26" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="J26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K26" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" t="s">
-        <v>137</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L26" t="s"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>44155.73785229167</v>
+        <v>44159.74879219908</v>
       </c>
       <c r="C27" t="n">
-        <v>737</v>
+        <v>513</v>
       </c>
       <c r="D27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" t="s">
         <v>138</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>139</v>
       </c>
-      <c r="F27" t="s">
-        <v>140</v>
-      </c>
-      <c r="G27" t="s">
-        <v>141</v>
-      </c>
       <c r="H27" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K27" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="L27" t="s"/>
     </row>
@@ -3160,34 +3278,34 @@
         <v>12</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>44155.73837494213</v>
+        <v>44159.74939453704</v>
       </c>
       <c r="C28" t="n">
-        <v>3379</v>
+        <v>1256</v>
       </c>
       <c r="D28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" t="s">
         <v>142</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>143</v>
       </c>
-      <c r="F28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" t="s">
-        <v>145</v>
-      </c>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="I28" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="J28" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K28" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L28" t="s"/>
     </row>
@@ -3196,72 +3314,70 @@
         <v>12</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>44155.73969543981</v>
+        <v>44155.73170659722</v>
       </c>
       <c r="C29" t="n">
-        <v>3246</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" t="s">
         <v>146</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>147</v>
       </c>
-      <c r="F29" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" t="s">
-        <v>149</v>
-      </c>
       <c r="H29" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="I29" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J29" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="K29" t="s">
-        <v>31</v>
-      </c>
-      <c r="L29" t="s">
-        <v>150</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L29" t="s"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>44155.74013664352</v>
+        <v>44155.73238313657</v>
       </c>
       <c r="C30" t="n">
-        <v>1297</v>
+        <v>987</v>
       </c>
       <c r="D30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" t="s">
         <v>151</v>
       </c>
-      <c r="E30" t="s">
-        <v>152</v>
-      </c>
-      <c r="F30" t="s">
-        <v>153</v>
-      </c>
-      <c r="G30" t="s">
-        <v>154</v>
-      </c>
       <c r="H30" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s">
         <v>19</v>
       </c>
-      <c r="J30" t="s">
-        <v>37</v>
-      </c>
       <c r="K30" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L30" t="s"/>
     </row>
@@ -3270,70 +3386,72 @@
         <v>12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>44155.74047944444</v>
+        <v>44155.73315965278</v>
       </c>
       <c r="C31" t="n">
-        <v>1555</v>
+        <v>2249</v>
       </c>
       <c r="D31" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" t="s">
+        <v>154</v>
+      </c>
+      <c r="G31" t="s">
         <v>155</v>
       </c>
-      <c r="E31" t="s">
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" t="s">
         <v>156</v>
       </c>
-      <c r="F31" t="s">
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" t="s">
         <v>157</v>
       </c>
-      <c r="G31" t="s">
-        <v>158</v>
-      </c>
-      <c r="H31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" t="s">
-        <v>36</v>
-      </c>
-      <c r="J31" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" t="s"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>44155.74120951389</v>
+        <v>44155.73395746528</v>
       </c>
       <c r="C32" t="n">
-        <v>1536</v>
+        <v>666</v>
       </c>
       <c r="D32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" t="s">
         <v>159</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>160</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>161</v>
       </c>
-      <c r="G32" t="s">
-        <v>162</v>
-      </c>
       <c r="H32" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I32" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J32" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L32" t="s"/>
     </row>
@@ -3342,46 +3460,48 @@
         <v>12</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>44155.74188298611</v>
+        <v>44155.73425486111</v>
       </c>
       <c r="C33" t="n">
-        <v>167</v>
+        <v>3088</v>
       </c>
       <c r="D33" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" t="s">
         <v>163</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>164</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>165</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" t="s">
         <v>166</v>
       </c>
-      <c r="H33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" t="s">
-        <v>19</v>
-      </c>
-      <c r="L33" t="s"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44155.74249112268</v>
+        <v>44155.73473486111</v>
       </c>
       <c r="C34" t="n">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="D34" t="s">
         <v>167</v>
@@ -3396,128 +3516,126 @@
         <v>170</v>
       </c>
       <c r="H34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I34" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="J34" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K34" t="s">
-        <v>19</v>
-      </c>
-      <c r="L34" t="s">
-        <v>171</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L34" t="s"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44155.74277087963</v>
+        <v>44155.73540616898</v>
       </c>
       <c r="C35" t="n">
-        <v>3216</v>
+        <v>864</v>
       </c>
       <c r="D35" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" t="s">
         <v>172</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>173</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>174</v>
       </c>
-      <c r="G35" t="s">
-        <v>175</v>
-      </c>
       <c r="H35" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K35" t="s">
-        <v>19</v>
-      </c>
-      <c r="L35" t="s">
-        <v>176</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L35" t="s"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44155.74296745371</v>
+        <v>44155.73567726852</v>
       </c>
       <c r="C36" t="n">
-        <v>3110</v>
+        <v>1644</v>
       </c>
       <c r="D36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" t="s">
         <v>177</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>178</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" t="s">
         <v>179</v>
       </c>
-      <c r="G36" t="s">
-        <v>180</v>
-      </c>
-      <c r="H36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" t="s">
-        <v>19</v>
-      </c>
-      <c r="K36" t="s">
-        <v>19</v>
-      </c>
-      <c r="L36" t="s"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44155.74395903936</v>
+        <v>44155.73785229167</v>
       </c>
       <c r="C37" t="n">
-        <v>138</v>
+        <v>737</v>
       </c>
       <c r="D37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" t="s">
         <v>181</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>182</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>183</v>
       </c>
-      <c r="G37" t="s">
-        <v>184</v>
-      </c>
       <c r="H37" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J37" t="s">
         <v>19</v>
       </c>
       <c r="K37" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L37" t="s"/>
     </row>
@@ -3526,34 +3644,34 @@
         <v>12</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>44155.74428769676</v>
+        <v>44155.73837494213</v>
       </c>
       <c r="C38" t="n">
-        <v>1022</v>
+        <v>3379</v>
       </c>
       <c r="D38" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F38" t="s">
         <v>186</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>187</v>
       </c>
-      <c r="F38" t="s">
-        <v>188</v>
-      </c>
-      <c r="G38" t="s">
-        <v>189</v>
-      </c>
       <c r="H38" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="I38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K38" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L38" t="s"/>
     </row>
@@ -3562,37 +3680,37 @@
         <v>12</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>44155.74493398148</v>
+        <v>44155.73969543981</v>
       </c>
       <c r="C39" t="n">
-        <v>1466</v>
+        <v>3246</v>
       </c>
       <c r="D39" t="s">
+        <v>188</v>
+      </c>
+      <c r="E39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F39" t="s">
         <v>190</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
         <v>191</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39" t="s">
         <v>192</v>
-      </c>
-      <c r="G39" t="s">
-        <v>193</v>
-      </c>
-      <c r="H39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I39" t="s">
-        <v>82</v>
-      </c>
-      <c r="J39" t="s">
-        <v>25</v>
-      </c>
-      <c r="K39" t="s">
-        <v>19</v>
-      </c>
-      <c r="L39" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3600,72 +3718,70 @@
         <v>12</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44154.7721688426</v>
+        <v>44155.74013664352</v>
       </c>
       <c r="C40" t="n">
-        <v>1765</v>
+        <v>1297</v>
       </c>
       <c r="D40" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" t="s">
+        <v>194</v>
+      </c>
+      <c r="F40" t="s">
         <v>195</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>196</v>
       </c>
-      <c r="F40" t="s">
-        <v>197</v>
-      </c>
-      <c r="G40" t="s">
-        <v>198</v>
-      </c>
       <c r="H40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="K40" t="s">
-        <v>19</v>
-      </c>
-      <c r="L40" t="s">
-        <v>199</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L40" t="s"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44154.77410748843</v>
+        <v>44155.74047944444</v>
       </c>
       <c r="C41" t="n">
-        <v>2940</v>
+        <v>1555</v>
       </c>
       <c r="D41" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" t="s">
+        <v>199</v>
+      </c>
+      <c r="G41" t="s">
         <v>200</v>
       </c>
-      <c r="E41" t="s">
-        <v>201</v>
-      </c>
-      <c r="F41" t="s">
-        <v>202</v>
-      </c>
-      <c r="G41" t="s">
-        <v>203</v>
-      </c>
       <c r="H41" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="J41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K41" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L41" t="s"/>
     </row>
@@ -3674,34 +3790,34 @@
         <v>12</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44154.77493980324</v>
+        <v>44155.74120951389</v>
       </c>
       <c r="C42" t="n">
-        <v>3744</v>
+        <v>1536</v>
       </c>
       <c r="D42" t="s">
+        <v>201</v>
+      </c>
+      <c r="E42" t="s">
+        <v>202</v>
+      </c>
+      <c r="F42" t="s">
+        <v>203</v>
+      </c>
+      <c r="G42" t="s">
         <v>204</v>
       </c>
-      <c r="E42" t="s">
-        <v>205</v>
-      </c>
-      <c r="F42" t="s">
-        <v>206</v>
-      </c>
-      <c r="G42" t="s">
-        <v>207</v>
-      </c>
       <c r="H42" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I42" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J42" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K42" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L42" t="s"/>
     </row>
@@ -3710,34 +3826,34 @@
         <v>12</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44154.77544891203</v>
+        <v>44155.74188298611</v>
       </c>
       <c r="C43" t="n">
-        <v>3469</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
+        <v>205</v>
+      </c>
+      <c r="E43" t="s">
+        <v>206</v>
+      </c>
+      <c r="F43" t="s">
+        <v>207</v>
+      </c>
+      <c r="G43" t="s">
         <v>208</v>
       </c>
-      <c r="E43" t="s">
-        <v>209</v>
-      </c>
-      <c r="F43" t="s">
-        <v>210</v>
-      </c>
-      <c r="G43" t="s">
-        <v>211</v>
-      </c>
       <c r="H43" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I43" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="J43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L43" t="s"/>
     </row>
@@ -3746,106 +3862,110 @@
         <v>12</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44154.77620284722</v>
+        <v>44155.74249112268</v>
       </c>
       <c r="C44" t="n">
-        <v>1419</v>
+        <v>222</v>
       </c>
       <c r="D44" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" t="s">
+        <v>210</v>
+      </c>
+      <c r="F44" t="s">
+        <v>211</v>
+      </c>
+      <c r="G44" t="s">
         <v>212</v>
       </c>
-      <c r="E44" t="s">
+      <c r="H44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" t="s">
+        <v>47</v>
+      </c>
+      <c r="J44" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" t="s">
         <v>213</v>
       </c>
-      <c r="F44" t="s">
-        <v>214</v>
-      </c>
-      <c r="G44" t="s">
-        <v>215</v>
-      </c>
-      <c r="H44" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" t="s">
-        <v>36</v>
-      </c>
-      <c r="J44" t="s">
-        <v>25</v>
-      </c>
-      <c r="K44" t="s">
-        <v>17</v>
-      </c>
-      <c r="L44" t="s"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44154.77733231481</v>
+        <v>44155.74277087963</v>
       </c>
       <c r="C45" t="n">
-        <v>2861</v>
+        <v>3216</v>
       </c>
       <c r="D45" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45" t="s">
+        <v>215</v>
+      </c>
+      <c r="F45" t="s">
         <v>216</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>217</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
+        <v>53</v>
+      </c>
+      <c r="I45" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" t="s">
         <v>218</v>
       </c>
-      <c r="G45" t="s">
-        <v>219</v>
-      </c>
-      <c r="H45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" t="s">
-        <v>18</v>
-      </c>
-      <c r="J45" t="s">
-        <v>48</v>
-      </c>
-      <c r="K45" t="s">
-        <v>19</v>
-      </c>
-      <c r="L45" t="s"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44154.778458125</v>
+        <v>44155.74296745371</v>
       </c>
       <c r="C46" t="n">
-        <v>229</v>
+        <v>3110</v>
       </c>
       <c r="D46" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46" t="s">
         <v>220</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>221</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>222</v>
       </c>
-      <c r="G46" t="s">
-        <v>223</v>
-      </c>
       <c r="H46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I46" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="J46" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="K46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L46" t="s"/>
     </row>
@@ -3854,34 +3974,34 @@
         <v>12</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44154.77909887731</v>
+        <v>44155.74395903936</v>
       </c>
       <c r="C47" t="n">
-        <v>1277</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47" t="s">
         <v>224</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>225</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>226</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>227</v>
       </c>
-      <c r="H47" t="s">
-        <v>30</v>
-      </c>
       <c r="I47" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J47" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="K47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L47" t="s"/>
     </row>
@@ -3890,10 +4010,10 @@
         <v>12</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44154.78025189815</v>
+        <v>44155.74428769676</v>
       </c>
       <c r="C48" t="n">
-        <v>1136</v>
+        <v>1022</v>
       </c>
       <c r="D48" t="s">
         <v>228</v>
@@ -3908,66 +4028,66 @@
         <v>231</v>
       </c>
       <c r="H48" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I48" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="J48" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K48" t="s">
-        <v>19</v>
-      </c>
-      <c r="L48" t="s">
-        <v>232</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L48" t="s"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>12</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44154.7886525463</v>
+        <v>44155.74493398148</v>
       </c>
       <c r="C49" t="n">
-        <v>768</v>
+        <v>1466</v>
       </c>
       <c r="D49" t="s">
+        <v>232</v>
+      </c>
+      <c r="E49" t="s">
         <v>233</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>234</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>235</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
+        <v>37</v>
+      </c>
+      <c r="I49" t="s">
+        <v>125</v>
+      </c>
+      <c r="J49" t="s">
+        <v>26</v>
+      </c>
+      <c r="K49" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" t="s">
         <v>236</v>
       </c>
-      <c r="H49" t="s">
-        <v>30</v>
-      </c>
-      <c r="I49" t="s">
-        <v>25</v>
-      </c>
-      <c r="J49" t="s">
-        <v>37</v>
-      </c>
-      <c r="K49" t="s">
-        <v>19</v>
-      </c>
-      <c r="L49" t="s"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44154.79067495371</v>
+        <v>44154.7721688426</v>
       </c>
       <c r="C50" t="n">
-        <v>445</v>
+        <v>1765</v>
       </c>
       <c r="D50" t="s">
         <v>237</v>
@@ -3982,16 +4102,16 @@
         <v>240</v>
       </c>
       <c r="H50" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I50" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J50" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K50" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L50" t="s">
         <v>241</v>
@@ -4002,10 +4122,10 @@
         <v>12</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44154.79188466435</v>
+        <v>44154.77410748843</v>
       </c>
       <c r="C51" t="n">
-        <v>794</v>
+        <v>2940</v>
       </c>
       <c r="D51" t="s">
         <v>242</v>
@@ -4017,19 +4137,19 @@
         <v>244</v>
       </c>
       <c r="G51" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H51" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="I51" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J51" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K51" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="L51" t="s"/>
     </row>
@@ -4038,48 +4158,46 @@
         <v>12</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44154.79298895833</v>
+        <v>44154.77493980324</v>
       </c>
       <c r="C52" t="n">
-        <v>1948</v>
+        <v>3744</v>
       </c>
       <c r="D52" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E52" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F52" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G52" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H52" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I52" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J52" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K52" t="s">
-        <v>37</v>
-      </c>
-      <c r="L52" t="s">
-        <v>249</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L52" t="s"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44154.79340069444</v>
+        <v>44154.77544891203</v>
       </c>
       <c r="C53" t="n">
-        <v>1429</v>
+        <v>3469</v>
       </c>
       <c r="D53" t="s">
         <v>250</v>
@@ -4094,16 +4212,16 @@
         <v>253</v>
       </c>
       <c r="H53" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I53" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J53" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L53" t="s"/>
     </row>
@@ -4112,10 +4230,10 @@
         <v>12</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44154.79398876157</v>
+        <v>44154.77620284722</v>
       </c>
       <c r="C54" t="n">
-        <v>1511</v>
+        <v>1419</v>
       </c>
       <c r="D54" t="s">
         <v>254</v>
@@ -4130,16 +4248,16 @@
         <v>257</v>
       </c>
       <c r="H54" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J54" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K54" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L54" t="s"/>
     </row>
@@ -4148,10 +4266,10 @@
         <v>12</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>44154.79457364584</v>
+        <v>44154.77733231481</v>
       </c>
       <c r="C55" t="n">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="D55" t="s">
         <v>258</v>
@@ -4166,92 +4284,88 @@
         <v>261</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I55" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="J55" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K55" t="s">
-        <v>19</v>
-      </c>
-      <c r="L55" t="s">
-        <v>262</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L55" t="s"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>12</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44154.79515041666</v>
+        <v>44154.778458125</v>
       </c>
       <c r="C56" t="n">
-        <v>2376</v>
+        <v>229</v>
       </c>
       <c r="D56" t="s">
+        <v>262</v>
+      </c>
+      <c r="E56" t="s">
         <v>263</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>264</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>265</v>
       </c>
-      <c r="G56" t="s">
-        <v>266</v>
-      </c>
       <c r="H56" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="I56" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J56" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K56" t="s">
-        <v>19</v>
-      </c>
-      <c r="L56" t="s">
-        <v>267</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L56" t="s"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>12</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44154.79556157407</v>
+        <v>44154.77909887731</v>
       </c>
       <c r="C57" t="n">
-        <v>1997</v>
+        <v>1277</v>
       </c>
       <c r="D57" t="s">
+        <v>266</v>
+      </c>
+      <c r="E57" t="s">
+        <v>267</v>
+      </c>
+      <c r="F57" t="s">
         <v>268</v>
       </c>
-      <c r="E57" t="s">
+      <c r="G57" t="s">
         <v>269</v>
       </c>
-      <c r="F57" t="s">
-        <v>270</v>
-      </c>
-      <c r="G57" t="s">
-        <v>271</v>
-      </c>
       <c r="H57" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
         <v>19</v>
       </c>
-      <c r="J57" t="s">
-        <v>37</v>
-      </c>
       <c r="K57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L57" t="s"/>
     </row>
@@ -4260,37 +4374,37 @@
         <v>12</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44154.79606214121</v>
+        <v>44154.78025189815</v>
       </c>
       <c r="C58" t="n">
-        <v>595</v>
+        <v>1136</v>
       </c>
       <c r="D58" t="s">
+        <v>270</v>
+      </c>
+      <c r="E58" t="s">
+        <v>271</v>
+      </c>
+      <c r="F58" t="s">
         <v>272</v>
       </c>
-      <c r="E58" t="s">
+      <c r="G58" t="s">
         <v>273</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H58" t="s">
+        <v>96</v>
+      </c>
+      <c r="I58" t="s">
+        <v>31</v>
+      </c>
+      <c r="J58" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" t="s">
         <v>274</v>
-      </c>
-      <c r="G58" t="s">
-        <v>240</v>
-      </c>
-      <c r="H58" t="s">
-        <v>30</v>
-      </c>
-      <c r="I58" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" t="s">
-        <v>36</v>
-      </c>
-      <c r="K58" t="s">
-        <v>19</v>
-      </c>
-      <c r="L58" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4298,10 +4412,10 @@
         <v>12</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44154.79688260417</v>
+        <v>44154.7886525463</v>
       </c>
       <c r="C59" t="n">
-        <v>3715</v>
+        <v>768</v>
       </c>
       <c r="D59" t="s">
         <v>275</v>
@@ -4316,66 +4430,66 @@
         <v>278</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I59" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="J59" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K59" t="s">
-        <v>19</v>
-      </c>
-      <c r="L59" t="s">
-        <v>279</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L59" t="s"/>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>12</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44154.79758924768</v>
+        <v>44154.79067495371</v>
       </c>
       <c r="C60" t="n">
-        <v>3369</v>
+        <v>445</v>
       </c>
       <c r="D60" t="s">
+        <v>279</v>
+      </c>
+      <c r="E60" t="s">
         <v>280</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>281</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>282</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" t="s">
+        <v>32</v>
+      </c>
+      <c r="L60" t="s">
         <v>283</v>
       </c>
-      <c r="H60" t="s">
-        <v>30</v>
-      </c>
-      <c r="I60" t="s">
-        <v>36</v>
-      </c>
-      <c r="J60" t="s">
-        <v>37</v>
-      </c>
-      <c r="K60" t="s">
-        <v>19</v>
-      </c>
-      <c r="L60" t="s"/>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44154.79803195602</v>
+        <v>44154.79188466435</v>
       </c>
       <c r="C61" t="n">
-        <v>1824</v>
+        <v>794</v>
       </c>
       <c r="D61" t="s">
         <v>284</v>
@@ -4387,19 +4501,19 @@
         <v>286</v>
       </c>
       <c r="G61" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s">
         <v>18</v>
       </c>
-      <c r="J61" t="s">
-        <v>25</v>
-      </c>
       <c r="K61" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L61" t="s"/>
     </row>
@@ -4408,37 +4522,37 @@
         <v>12</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44154.7984553125</v>
+        <v>44154.79298895833</v>
       </c>
       <c r="C62" t="n">
-        <v>583</v>
+        <v>1948</v>
       </c>
       <c r="D62" t="s">
+        <v>287</v>
+      </c>
+      <c r="E62" t="s">
         <v>288</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>289</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>290</v>
       </c>
-      <c r="G62" t="s">
-        <v>113</v>
-      </c>
       <c r="H62" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I62" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J62" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K62" t="s">
         <v>19</v>
       </c>
       <c r="L62" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4446,34 +4560,34 @@
         <v>12</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44154.79909991898</v>
+        <v>44154.79340069444</v>
       </c>
       <c r="C63" t="n">
-        <v>1271</v>
+        <v>1429</v>
       </c>
       <c r="D63" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E63" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F63" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G63" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H63" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I63" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J63" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L63" t="s"/>
     </row>
@@ -4482,34 +4596,34 @@
         <v>12</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44154.80007766204</v>
+        <v>44154.79398876157</v>
       </c>
       <c r="C64" t="n">
-        <v>1869</v>
+        <v>1511</v>
       </c>
       <c r="D64" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E64" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F64" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G64" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H64" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J64" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="K64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L64" t="s"/>
     </row>
@@ -4518,37 +4632,37 @@
         <v>12</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44154.69819569444</v>
+        <v>44154.79457364584</v>
       </c>
       <c r="C65" t="n">
-        <v>702</v>
+        <v>2860</v>
       </c>
       <c r="D65" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E65" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F65" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G65" t="s">
-        <v>113</v>
+        <v>303</v>
       </c>
       <c r="H65" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>302</v>
+        <v>47</v>
       </c>
       <c r="J65" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="K65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L65" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4556,37 +4670,37 @@
         <v>12</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44154.69934395833</v>
+        <v>44154.79515041666</v>
       </c>
       <c r="C66" t="n">
-        <v>423</v>
+        <v>2376</v>
       </c>
       <c r="D66" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E66" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F66" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G66" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H66" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I66" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J66" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L66" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4594,34 +4708,34 @@
         <v>12</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44154.69987591435</v>
+        <v>44154.79556157407</v>
       </c>
       <c r="C67" t="n">
-        <v>211</v>
+        <v>1997</v>
       </c>
       <c r="D67" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E67" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F67" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G67" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H67" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I67" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J67" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L67" t="s"/>
     </row>
@@ -4630,37 +4744,37 @@
         <v>12</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44154.70088510417</v>
+        <v>44154.79606214121</v>
       </c>
       <c r="C68" t="n">
-        <v>3419</v>
+        <v>595</v>
       </c>
       <c r="D68" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E68" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F68" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G68" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="H68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I68" t="s">
+        <v>32</v>
+      </c>
+      <c r="J68" t="s">
         <v>18</v>
       </c>
-      <c r="J68" t="s">
-        <v>25</v>
-      </c>
       <c r="K68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L68" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4668,46 +4782,48 @@
         <v>12</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44154.70140253472</v>
+        <v>44154.79688260417</v>
       </c>
       <c r="C69" t="n">
-        <v>2074</v>
+        <v>3715</v>
       </c>
       <c r="D69" t="s">
+        <v>317</v>
+      </c>
+      <c r="E69" t="s">
         <v>318</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>319</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>320</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>125</v>
+      </c>
+      <c r="J69" t="s">
+        <v>26</v>
+      </c>
+      <c r="K69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" t="s">
         <v>321</v>
       </c>
-      <c r="H69" t="s">
-        <v>30</v>
-      </c>
-      <c r="I69" t="s">
-        <v>36</v>
-      </c>
-      <c r="J69" t="s">
-        <v>37</v>
-      </c>
-      <c r="K69" t="s">
-        <v>17</v>
-      </c>
-      <c r="L69" t="s"/>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>12</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44154.70263350695</v>
+        <v>44154.79758924768</v>
       </c>
       <c r="C70" t="n">
-        <v>183</v>
+        <v>3369</v>
       </c>
       <c r="D70" t="s">
         <v>322</v>
@@ -4719,19 +4835,19 @@
         <v>324</v>
       </c>
       <c r="G70" t="s">
-        <v>57</v>
+        <v>325</v>
       </c>
       <c r="H70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" t="s">
         <v>18</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>19</v>
       </c>
-      <c r="J70" t="s">
-        <v>31</v>
-      </c>
       <c r="K70" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L70" t="s"/>
     </row>
@@ -4740,34 +4856,34 @@
         <v>12</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44154.70319071759</v>
+        <v>44154.79803195602</v>
       </c>
       <c r="C71" t="n">
-        <v>847</v>
+        <v>1824</v>
       </c>
       <c r="D71" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E71" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F71" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G71" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="H71" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I71" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J71" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L71" t="s"/>
     </row>
@@ -4776,84 +4892,84 @@
         <v>12</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44154.70363350694</v>
+        <v>44154.7984553125</v>
       </c>
       <c r="C72" t="n">
-        <v>27</v>
+        <v>583</v>
       </c>
       <c r="D72" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E72" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F72" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G72" t="s">
-        <v>331</v>
+        <v>155</v>
       </c>
       <c r="H72" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I72" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" t="s">
         <v>18</v>
       </c>
-      <c r="J72" t="s">
-        <v>19</v>
-      </c>
       <c r="K72" t="s">
-        <v>19</v>
-      </c>
-      <c r="L72" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L72" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
         <v>12</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44154.70392996528</v>
+        <v>44154.79909991898</v>
       </c>
       <c r="C73" t="n">
-        <v>1587</v>
+        <v>1271</v>
       </c>
       <c r="D73" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E73" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F73" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G73" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I73" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J73" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K73" t="s">
-        <v>19</v>
-      </c>
-      <c r="L73" t="s">
-        <v>336</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L73" t="s"/>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>12</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44154.70447649305</v>
+        <v>44154.80007766204</v>
       </c>
       <c r="C74" t="n">
-        <v>1510</v>
+        <v>1869</v>
       </c>
       <c r="D74" t="s">
         <v>337</v>
@@ -4868,16 +4984,16 @@
         <v>340</v>
       </c>
       <c r="H74" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I74" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J74" t="s">
         <v>25</v>
       </c>
       <c r="K74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L74" t="s"/>
     </row>
@@ -4886,10 +5002,10 @@
         <v>12</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44154.70549010417</v>
+        <v>44154.69819569444</v>
       </c>
       <c r="C75" t="n">
-        <v>631</v>
+        <v>702</v>
       </c>
       <c r="D75" t="s">
         <v>341</v>
@@ -4901,165 +5017,169 @@
         <v>343</v>
       </c>
       <c r="G75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H75" t="s">
+        <v>96</v>
+      </c>
+      <c r="I75" t="s">
         <v>344</v>
       </c>
-      <c r="H75" t="s">
-        <v>30</v>
-      </c>
-      <c r="I75" t="s">
-        <v>17</v>
-      </c>
       <c r="J75" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="K75" t="s">
-        <v>19</v>
-      </c>
-      <c r="L75" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L75" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>12</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44154.70597778935</v>
+        <v>44154.69934395833</v>
       </c>
       <c r="C76" t="n">
-        <v>2198</v>
+        <v>423</v>
       </c>
       <c r="D76" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E76" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F76" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G76" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H76" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J76" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K76" t="s">
-        <v>19</v>
-      </c>
-      <c r="L76" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L76" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
         <v>12</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44154.70629576389</v>
+        <v>44154.69987591435</v>
       </c>
       <c r="C77" t="n">
-        <v>3797</v>
+        <v>211</v>
       </c>
       <c r="D77" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E77" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F77" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G77" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H77" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I77" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J77" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K77" t="s">
-        <v>19</v>
-      </c>
-      <c r="L77" t="s">
-        <v>353</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L77" t="s"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
         <v>12</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44154.70677894676</v>
+        <v>44154.70088510417</v>
       </c>
       <c r="C78" t="n">
-        <v>275</v>
+        <v>3419</v>
       </c>
       <c r="D78" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E78" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F78" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G78" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H78" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I78" t="s">
-        <v>358</v>
+        <v>47</v>
       </c>
       <c r="J78" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K78" t="s">
-        <v>19</v>
-      </c>
-      <c r="L78" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L78" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
         <v>12</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>44154.70703077546</v>
+        <v>44154.70140253472</v>
       </c>
       <c r="C79" t="n">
-        <v>392</v>
+        <v>2074</v>
       </c>
       <c r="D79" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E79" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F79" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G79" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H79" t="s">
-        <v>363</v>
+        <v>25</v>
       </c>
       <c r="I79" t="s">
         <v>18</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="K79" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L79" t="s"/>
     </row>
@@ -5068,10 +5188,10 @@
         <v>12</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>44154.70736740741</v>
+        <v>44154.70263350695</v>
       </c>
       <c r="C80" t="n">
-        <v>1906</v>
+        <v>183</v>
       </c>
       <c r="D80" t="s">
         <v>364</v>
@@ -5083,57 +5203,55 @@
         <v>366</v>
       </c>
       <c r="G80" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="H80" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J80" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K80" t="s">
-        <v>19</v>
-      </c>
-      <c r="L80" t="s">
-        <v>367</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L80" t="s"/>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
         <v>12</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>44154.70763553241</v>
+        <v>44154.70319071759</v>
       </c>
       <c r="C81" t="n">
-        <v>2977</v>
+        <v>847</v>
       </c>
       <c r="D81" t="s">
+        <v>367</v>
+      </c>
+      <c r="E81" t="s">
         <v>368</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>369</v>
       </c>
-      <c r="F81" t="s">
-        <v>370</v>
-      </c>
       <c r="G81" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="H81" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I81" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" t="s">
         <v>19</v>
       </c>
-      <c r="J81" t="s">
-        <v>37</v>
-      </c>
       <c r="K81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L81" t="s"/>
     </row>
@@ -5142,34 +5260,34 @@
         <v>12</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>44154.70829784722</v>
+        <v>44154.70363350694</v>
       </c>
       <c r="C82" t="n">
-        <v>465</v>
+        <v>27</v>
       </c>
       <c r="D82" t="s">
+        <v>370</v>
+      </c>
+      <c r="E82" t="s">
+        <v>371</v>
+      </c>
+      <c r="F82" t="s">
         <v>372</v>
       </c>
-      <c r="E82" t="s">
+      <c r="G82" t="s">
         <v>373</v>
       </c>
-      <c r="F82" t="s">
-        <v>374</v>
-      </c>
-      <c r="G82" t="s">
-        <v>375</v>
-      </c>
       <c r="H82" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I82" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J82" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="K82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L82" t="s"/>
     </row>
@@ -5178,37 +5296,37 @@
         <v>12</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44154.70866863426</v>
+        <v>44154.70392996528</v>
       </c>
       <c r="C83" t="n">
-        <v>566</v>
+        <v>1587</v>
       </c>
       <c r="D83" t="s">
+        <v>374</v>
+      </c>
+      <c r="E83" t="s">
+        <v>375</v>
+      </c>
+      <c r="F83" t="s">
         <v>376</v>
       </c>
-      <c r="E83" t="s">
+      <c r="G83" t="s">
         <v>377</v>
       </c>
-      <c r="F83" t="s">
+      <c r="H83" t="s">
+        <v>53</v>
+      </c>
+      <c r="I83" t="s">
+        <v>47</v>
+      </c>
+      <c r="J83" t="s">
+        <v>26</v>
+      </c>
+      <c r="K83" t="s">
+        <v>20</v>
+      </c>
+      <c r="L83" t="s">
         <v>378</v>
-      </c>
-      <c r="G83" t="s">
-        <v>113</v>
-      </c>
-      <c r="H83" t="s">
-        <v>30</v>
-      </c>
-      <c r="I83" t="s">
-        <v>17</v>
-      </c>
-      <c r="J83" t="s">
-        <v>36</v>
-      </c>
-      <c r="K83" t="s">
-        <v>19</v>
-      </c>
-      <c r="L83" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5216,10 +5334,10 @@
         <v>12</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>44154.70929016203</v>
+        <v>44154.70447649305</v>
       </c>
       <c r="C84" t="n">
-        <v>81</v>
+        <v>1510</v>
       </c>
       <c r="D84" t="s">
         <v>379</v>
@@ -5234,16 +5352,16 @@
         <v>382</v>
       </c>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="I84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J84" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L84" t="s"/>
     </row>
@@ -5252,10 +5370,10 @@
         <v>12</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>44154.70976986111</v>
+        <v>44154.70549010417</v>
       </c>
       <c r="C85" t="n">
-        <v>1837</v>
+        <v>631</v>
       </c>
       <c r="D85" t="s">
         <v>383</v>
@@ -5270,54 +5388,52 @@
         <v>386</v>
       </c>
       <c r="H85" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I85" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J85" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="K85" t="s">
-        <v>19</v>
-      </c>
-      <c r="L85" t="s">
-        <v>387</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L85" t="s"/>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
         <v>12</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>44154.71052581019</v>
+        <v>44154.70597778935</v>
       </c>
       <c r="C86" t="n">
-        <v>1446</v>
+        <v>2198</v>
       </c>
       <c r="D86" t="s">
+        <v>387</v>
+      </c>
+      <c r="E86" t="s">
         <v>388</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>389</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>390</v>
-      </c>
-      <c r="G86" t="s">
-        <v>391</v>
       </c>
       <c r="H86" t="s">
         <v>25</v>
       </c>
       <c r="I86" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J86" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L86" t="s"/>
     </row>
@@ -5326,46 +5442,48 @@
         <v>12</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>44154.71083821759</v>
+        <v>44154.70629576389</v>
       </c>
       <c r="C87" t="n">
-        <v>1516</v>
+        <v>3797</v>
       </c>
       <c r="D87" t="s">
+        <v>391</v>
+      </c>
+      <c r="E87" t="s">
         <v>392</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>393</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>394</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
+        <v>53</v>
+      </c>
+      <c r="I87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K87" t="s">
+        <v>20</v>
+      </c>
+      <c r="L87" t="s">
         <v>395</v>
       </c>
-      <c r="H87" t="s">
-        <v>109</v>
-      </c>
-      <c r="I87" t="s">
-        <v>36</v>
-      </c>
-      <c r="J87" t="s">
-        <v>25</v>
-      </c>
-      <c r="K87" t="s">
-        <v>19</v>
-      </c>
-      <c r="L87" t="s"/>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
         <v>12</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>44154.71164583333</v>
+        <v>44154.70677894676</v>
       </c>
       <c r="C88" t="n">
-        <v>1975</v>
+        <v>275</v>
       </c>
       <c r="D88" t="s">
         <v>396</v>
@@ -5380,30 +5498,28 @@
         <v>399</v>
       </c>
       <c r="H88" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I88" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="J88" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K88" t="s">
-        <v>31</v>
-      </c>
-      <c r="L88" t="s">
-        <v>400</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L88" t="s"/>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
         <v>12</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>44154.71525582176</v>
+        <v>44154.70703077546</v>
       </c>
       <c r="C89" t="n">
-        <v>1508</v>
+        <v>392</v>
       </c>
       <c r="D89" t="s">
         <v>401</v>
@@ -5418,16 +5534,16 @@
         <v>404</v>
       </c>
       <c r="H89" t="s">
-        <v>30</v>
+        <v>405</v>
       </c>
       <c r="I89" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="J89" t="s">
         <v>31</v>
       </c>
       <c r="K89" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L89" t="s"/>
     </row>
@@ -5436,70 +5552,72 @@
         <v>12</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>44154.71736768518</v>
+        <v>44154.70736740741</v>
       </c>
       <c r="C90" t="n">
-        <v>2973</v>
+        <v>1906</v>
       </c>
       <c r="D90" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E90" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F90" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G90" t="s">
-        <v>307</v>
+        <v>155</v>
       </c>
       <c r="H90" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I90" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J90" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="K90" t="s">
-        <v>19</v>
-      </c>
-      <c r="L90" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L90" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
         <v>12</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>44154.71784644676</v>
+        <v>44154.70763553241</v>
       </c>
       <c r="C91" t="n">
-        <v>2202</v>
+        <v>2977</v>
       </c>
       <c r="D91" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E91" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F91" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G91" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H91" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I91" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J91" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K91" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L91" t="s"/>
     </row>
@@ -5508,34 +5626,34 @@
         <v>12</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>44154.71844951389</v>
+        <v>44154.70829784722</v>
       </c>
       <c r="C92" t="n">
-        <v>3156</v>
+        <v>465</v>
       </c>
       <c r="D92" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E92" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F92" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G92" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H92" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I92" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="J92" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K92" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L92" t="s"/>
     </row>
@@ -5544,84 +5662,84 @@
         <v>12</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>44154.71885400463</v>
+        <v>44154.70866863426</v>
       </c>
       <c r="C93" t="n">
-        <v>2881</v>
+        <v>566</v>
       </c>
       <c r="D93" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E93" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F93" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G93" t="s">
-        <v>419</v>
+        <v>155</v>
       </c>
       <c r="H93" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I93" t="s">
+        <v>32</v>
+      </c>
+      <c r="J93" t="s">
         <v>18</v>
       </c>
-      <c r="J93" t="s">
-        <v>25</v>
-      </c>
       <c r="K93" t="s">
-        <v>19</v>
-      </c>
-      <c r="L93" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L93" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
         <v>12</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>44154.71972351852</v>
+        <v>44154.70929016203</v>
       </c>
       <c r="C94" t="n">
-        <v>3034</v>
+        <v>81</v>
       </c>
       <c r="D94" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E94" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F94" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G94" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H94" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I94" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J94" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K94" t="s">
-        <v>19</v>
-      </c>
-      <c r="L94" t="s">
-        <v>424</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L94" t="s"/>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
         <v>12</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>44154.72165902777</v>
+        <v>44154.70976986111</v>
       </c>
       <c r="C95" t="n">
-        <v>986</v>
+        <v>1837</v>
       </c>
       <c r="D95" t="s">
         <v>425</v>
@@ -5636,52 +5754,54 @@
         <v>428</v>
       </c>
       <c r="H95" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I95" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="J95" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K95" t="s">
-        <v>19</v>
-      </c>
-      <c r="L95" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L95" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
         <v>12</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>44154.72335130787</v>
+        <v>44154.71052581019</v>
       </c>
       <c r="C96" t="n">
-        <v>2031</v>
+        <v>1446</v>
       </c>
       <c r="D96" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E96" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F96" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G96" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H96" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I96" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="J96" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K96" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L96" t="s"/>
     </row>
@@ -5690,34 +5810,34 @@
         <v>12</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>44154.72369152778</v>
+        <v>44154.71083821759</v>
       </c>
       <c r="C97" t="n">
-        <v>67</v>
+        <v>1516</v>
       </c>
       <c r="D97" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E97" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F97" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G97" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H97" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I97" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J97" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K97" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L97" t="s"/>
     </row>
@@ -5726,70 +5846,72 @@
         <v>12</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>44154.7240471875</v>
+        <v>44154.71164583333</v>
       </c>
       <c r="C98" t="n">
-        <v>533</v>
+        <v>1975</v>
       </c>
       <c r="D98" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E98" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F98" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G98" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H98" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J98" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K98" t="s">
-        <v>19</v>
-      </c>
-      <c r="L98" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="L98" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
         <v>12</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>44154.72488017361</v>
+        <v>44154.71525582176</v>
       </c>
       <c r="C99" t="n">
-        <v>3716</v>
+        <v>1508</v>
       </c>
       <c r="D99" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E99" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F99" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G99" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H99" t="s">
         <v>25</v>
       </c>
       <c r="I99" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J99" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K99" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="L99" t="s"/>
     </row>
@@ -5798,34 +5920,34 @@
         <v>12</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>44154.72557752315</v>
+        <v>44154.71736768518</v>
       </c>
       <c r="C100" t="n">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="D100" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E100" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F100" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G100" t="s">
-        <v>248</v>
+        <v>349</v>
       </c>
       <c r="H100" t="s">
-        <v>448</v>
+        <v>25</v>
       </c>
       <c r="I100" t="s">
+        <v>20</v>
+      </c>
+      <c r="J100" t="s">
         <v>19</v>
       </c>
-      <c r="J100" t="s">
-        <v>37</v>
-      </c>
       <c r="K100" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L100" t="s"/>
     </row>
@@ -5834,110 +5956,106 @@
         <v>12</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>44154.69819569444</v>
+        <v>44154.71784644676</v>
       </c>
       <c r="C101" t="n">
-        <v>702</v>
+        <v>2202</v>
       </c>
       <c r="D101" t="s">
-        <v>299</v>
+        <v>450</v>
       </c>
       <c r="E101" t="s">
-        <v>300</v>
+        <v>451</v>
       </c>
       <c r="F101" t="s">
-        <v>301</v>
+        <v>452</v>
       </c>
       <c r="G101" t="s">
-        <v>113</v>
+        <v>453</v>
       </c>
       <c r="H101" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I101" t="s">
-        <v>302</v>
+        <v>25</v>
       </c>
       <c r="J101" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K101" t="s">
-        <v>19</v>
-      </c>
-      <c r="L101" t="s">
-        <v>303</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="L101" t="s"/>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
         <v>12</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>44154.69934395833</v>
+        <v>44154.71844951389</v>
       </c>
       <c r="C102" t="n">
-        <v>423</v>
+        <v>3156</v>
       </c>
       <c r="D102" t="s">
-        <v>304</v>
+        <v>454</v>
       </c>
       <c r="E102" t="s">
-        <v>305</v>
+        <v>455</v>
       </c>
       <c r="F102" t="s">
-        <v>306</v>
+        <v>456</v>
       </c>
       <c r="G102" t="s">
-        <v>307</v>
+        <v>457</v>
       </c>
       <c r="H102" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I102" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J102" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K102" t="s">
-        <v>19</v>
-      </c>
-      <c r="L102" t="s">
-        <v>308</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L102" t="s"/>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
         <v>12</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>44154.69987591435</v>
+        <v>44154.71885400463</v>
       </c>
       <c r="C103" t="n">
-        <v>211</v>
+        <v>2881</v>
       </c>
       <c r="D103" t="s">
-        <v>309</v>
+        <v>458</v>
       </c>
       <c r="E103" t="s">
-        <v>310</v>
+        <v>459</v>
       </c>
       <c r="F103" t="s">
-        <v>311</v>
+        <v>460</v>
       </c>
       <c r="G103" t="s">
-        <v>312</v>
+        <v>461</v>
       </c>
       <c r="H103" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="I103" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="J103" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K103" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L103" t="s"/>
     </row>
@@ -5946,37 +6064,37 @@
         <v>12</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>44154.70088510417</v>
+        <v>44154.71972351852</v>
       </c>
       <c r="C104" t="n">
-        <v>3419</v>
+        <v>3034</v>
       </c>
       <c r="D104" t="s">
-        <v>313</v>
+        <v>462</v>
       </c>
       <c r="E104" t="s">
-        <v>314</v>
+        <v>463</v>
       </c>
       <c r="F104" t="s">
-        <v>315</v>
+        <v>464</v>
       </c>
       <c r="G104" t="s">
-        <v>316</v>
+        <v>465</v>
       </c>
       <c r="H104" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I104" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="J104" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K104" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L104" t="s">
-        <v>317</v>
+        <v>466</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5984,34 +6102,34 @@
         <v>12</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>44154.70140253472</v>
+        <v>44154.72165902777</v>
       </c>
       <c r="C105" t="n">
-        <v>2074</v>
+        <v>986</v>
       </c>
       <c r="D105" t="s">
-        <v>318</v>
+        <v>467</v>
       </c>
       <c r="E105" t="s">
-        <v>319</v>
+        <v>468</v>
       </c>
       <c r="F105" t="s">
-        <v>320</v>
+        <v>469</v>
       </c>
       <c r="G105" t="s">
-        <v>321</v>
+        <v>470</v>
       </c>
       <c r="H105" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I105" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J105" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K105" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L105" t="s"/>
     </row>
@@ -6020,34 +6138,34 @@
         <v>12</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>44154.70263350695</v>
+        <v>44154.72335130787</v>
       </c>
       <c r="C106" t="n">
-        <v>183</v>
+        <v>2031</v>
       </c>
       <c r="D106" t="s">
-        <v>322</v>
+        <v>471</v>
       </c>
       <c r="E106" t="s">
-        <v>323</v>
+        <v>472</v>
       </c>
       <c r="F106" t="s">
-        <v>324</v>
+        <v>473</v>
       </c>
       <c r="G106" t="s">
-        <v>57</v>
+        <v>474</v>
       </c>
       <c r="H106" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I106" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K106" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="L106" t="s"/>
     </row>
@@ -6056,34 +6174,34 @@
         <v>12</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>44154.70319071759</v>
+        <v>44154.72369152778</v>
       </c>
       <c r="C107" t="n">
-        <v>847</v>
+        <v>67</v>
       </c>
       <c r="D107" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E107" t="s">
-        <v>326</v>
+        <v>476</v>
       </c>
       <c r="F107" t="s">
-        <v>327</v>
+        <v>477</v>
       </c>
       <c r="G107" t="s">
-        <v>307</v>
+        <v>478</v>
       </c>
       <c r="H107" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I107" t="s">
+        <v>25</v>
+      </c>
+      <c r="J107" t="s">
         <v>19</v>
       </c>
-      <c r="J107" t="s">
-        <v>37</v>
-      </c>
       <c r="K107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L107" t="s"/>
     </row>
@@ -6092,34 +6210,34 @@
         <v>12</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>44154.70363350694</v>
+        <v>44154.7240471875</v>
       </c>
       <c r="C108" t="n">
-        <v>27</v>
+        <v>533</v>
       </c>
       <c r="D108" t="s">
-        <v>328</v>
+        <v>479</v>
       </c>
       <c r="E108" t="s">
-        <v>329</v>
+        <v>480</v>
       </c>
       <c r="F108" t="s">
-        <v>330</v>
+        <v>481</v>
       </c>
       <c r="G108" t="s">
-        <v>331</v>
+        <v>482</v>
       </c>
       <c r="H108" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I108" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J108" t="s">
         <v>19</v>
       </c>
       <c r="K108" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L108" t="s"/>
     </row>
@@ -6128,72 +6246,70 @@
         <v>12</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>44154.70392996528</v>
+        <v>44154.72488017361</v>
       </c>
       <c r="C109" t="n">
-        <v>1587</v>
+        <v>3716</v>
       </c>
       <c r="D109" t="s">
-        <v>332</v>
+        <v>483</v>
       </c>
       <c r="E109" t="s">
-        <v>333</v>
+        <v>484</v>
       </c>
       <c r="F109" t="s">
-        <v>334</v>
+        <v>485</v>
       </c>
       <c r="G109" t="s">
-        <v>335</v>
+        <v>486</v>
       </c>
       <c r="H109" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I109" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J109" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K109" t="s">
-        <v>19</v>
-      </c>
-      <c r="L109" t="s">
-        <v>336</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L109" t="s"/>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
         <v>12</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>44154.70447649305</v>
+        <v>44154.72557752315</v>
       </c>
       <c r="C110" t="n">
-        <v>1510</v>
+        <v>2974</v>
       </c>
       <c r="D110" t="s">
-        <v>337</v>
+        <v>487</v>
       </c>
       <c r="E110" t="s">
-        <v>338</v>
+        <v>488</v>
       </c>
       <c r="F110" t="s">
-        <v>339</v>
+        <v>489</v>
       </c>
       <c r="G110" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="H110" t="s">
-        <v>30</v>
+        <v>490</v>
       </c>
       <c r="I110" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="J110" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K110" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L110" t="s"/>
     </row>
@@ -6202,10 +6318,10 @@
         <v>12</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>44154.70549010417</v>
+        <v>44154.69819569444</v>
       </c>
       <c r="C111" t="n">
-        <v>631</v>
+        <v>702</v>
       </c>
       <c r="D111" t="s">
         <v>341</v>
@@ -6217,165 +6333,169 @@
         <v>343</v>
       </c>
       <c r="G111" t="s">
+        <v>155</v>
+      </c>
+      <c r="H111" t="s">
+        <v>96</v>
+      </c>
+      <c r="I111" t="s">
         <v>344</v>
       </c>
-      <c r="H111" t="s">
-        <v>30</v>
-      </c>
-      <c r="I111" t="s">
-        <v>17</v>
-      </c>
       <c r="J111" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="K111" t="s">
-        <v>19</v>
-      </c>
-      <c r="L111" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L111" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
         <v>12</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>44154.70597778935</v>
+        <v>44154.69934395833</v>
       </c>
       <c r="C112" t="n">
-        <v>2198</v>
+        <v>423</v>
       </c>
       <c r="D112" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E112" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F112" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G112" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H112" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I112" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J112" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K112" t="s">
-        <v>19</v>
-      </c>
-      <c r="L112" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L112" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
         <v>12</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>44154.70629576389</v>
+        <v>44154.69987591435</v>
       </c>
       <c r="C113" t="n">
-        <v>3797</v>
+        <v>211</v>
       </c>
       <c r="D113" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E113" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F113" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G113" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H113" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I113" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J113" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K113" t="s">
-        <v>19</v>
-      </c>
-      <c r="L113" t="s">
-        <v>353</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L113" t="s"/>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
         <v>12</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>44154.70677894676</v>
+        <v>44154.70088510417</v>
       </c>
       <c r="C114" t="n">
-        <v>275</v>
+        <v>3419</v>
       </c>
       <c r="D114" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E114" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F114" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G114" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H114" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I114" t="s">
-        <v>358</v>
+        <v>47</v>
       </c>
       <c r="J114" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K114" t="s">
-        <v>19</v>
-      </c>
-      <c r="L114" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L114" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
         <v>12</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>44154.70703077546</v>
+        <v>44154.70140253472</v>
       </c>
       <c r="C115" t="n">
-        <v>392</v>
+        <v>2074</v>
       </c>
       <c r="D115" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E115" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F115" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G115" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H115" t="s">
-        <v>363</v>
+        <v>25</v>
       </c>
       <c r="I115" t="s">
         <v>18</v>
       </c>
       <c r="J115" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="K115" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L115" t="s"/>
     </row>
@@ -6384,10 +6504,10 @@
         <v>12</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>44154.70736740741</v>
+        <v>44154.70263350695</v>
       </c>
       <c r="C116" t="n">
-        <v>1906</v>
+        <v>183</v>
       </c>
       <c r="D116" t="s">
         <v>364</v>
@@ -6399,57 +6519,55 @@
         <v>366</v>
       </c>
       <c r="G116" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="H116" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I116" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J116" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K116" t="s">
-        <v>19</v>
-      </c>
-      <c r="L116" t="s">
-        <v>367</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L116" t="s"/>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
         <v>12</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>44154.70763553241</v>
+        <v>44154.70319071759</v>
       </c>
       <c r="C117" t="n">
-        <v>2977</v>
+        <v>847</v>
       </c>
       <c r="D117" t="s">
+        <v>367</v>
+      </c>
+      <c r="E117" t="s">
         <v>368</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>369</v>
       </c>
-      <c r="F117" t="s">
-        <v>370</v>
-      </c>
       <c r="G117" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="H117" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I117" t="s">
+        <v>20</v>
+      </c>
+      <c r="J117" t="s">
         <v>19</v>
       </c>
-      <c r="J117" t="s">
-        <v>37</v>
-      </c>
       <c r="K117" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L117" t="s"/>
     </row>
@@ -6458,34 +6576,34 @@
         <v>12</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>44154.70829784722</v>
+        <v>44154.70363350694</v>
       </c>
       <c r="C118" t="n">
-        <v>465</v>
+        <v>27</v>
       </c>
       <c r="D118" t="s">
+        <v>370</v>
+      </c>
+      <c r="E118" t="s">
+        <v>371</v>
+      </c>
+      <c r="F118" t="s">
         <v>372</v>
       </c>
-      <c r="E118" t="s">
+      <c r="G118" t="s">
         <v>373</v>
       </c>
-      <c r="F118" t="s">
-        <v>374</v>
-      </c>
-      <c r="G118" t="s">
-        <v>375</v>
-      </c>
       <c r="H118" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I118" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J118" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="K118" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L118" t="s"/>
     </row>
@@ -6494,37 +6612,37 @@
         <v>12</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>44154.70866863426</v>
+        <v>44154.70392996528</v>
       </c>
       <c r="C119" t="n">
-        <v>566</v>
+        <v>1587</v>
       </c>
       <c r="D119" t="s">
+        <v>374</v>
+      </c>
+      <c r="E119" t="s">
+        <v>375</v>
+      </c>
+      <c r="F119" t="s">
         <v>376</v>
       </c>
-      <c r="E119" t="s">
+      <c r="G119" t="s">
         <v>377</v>
       </c>
-      <c r="F119" t="s">
+      <c r="H119" t="s">
+        <v>53</v>
+      </c>
+      <c r="I119" t="s">
+        <v>47</v>
+      </c>
+      <c r="J119" t="s">
+        <v>26</v>
+      </c>
+      <c r="K119" t="s">
+        <v>20</v>
+      </c>
+      <c r="L119" t="s">
         <v>378</v>
-      </c>
-      <c r="G119" t="s">
-        <v>113</v>
-      </c>
-      <c r="H119" t="s">
-        <v>30</v>
-      </c>
-      <c r="I119" t="s">
-        <v>17</v>
-      </c>
-      <c r="J119" t="s">
-        <v>36</v>
-      </c>
-      <c r="K119" t="s">
-        <v>19</v>
-      </c>
-      <c r="L119" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6532,10 +6650,10 @@
         <v>12</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>44154.70929016203</v>
+        <v>44154.70447649305</v>
       </c>
       <c r="C120" t="n">
-        <v>81</v>
+        <v>1510</v>
       </c>
       <c r="D120" t="s">
         <v>379</v>
@@ -6550,16 +6668,16 @@
         <v>382</v>
       </c>
       <c r="H120" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="I120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J120" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K120" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L120" t="s"/>
     </row>
@@ -6568,10 +6686,10 @@
         <v>12</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>44154.70976986111</v>
+        <v>44154.70549010417</v>
       </c>
       <c r="C121" t="n">
-        <v>1837</v>
+        <v>631</v>
       </c>
       <c r="D121" t="s">
         <v>383</v>
@@ -6586,54 +6704,52 @@
         <v>386</v>
       </c>
       <c r="H121" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I121" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="K121" t="s">
-        <v>19</v>
-      </c>
-      <c r="L121" t="s">
-        <v>387</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L121" t="s"/>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" t="s">
         <v>12</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>44154.71052581019</v>
+        <v>44154.70597778935</v>
       </c>
       <c r="C122" t="n">
-        <v>1446</v>
+        <v>2198</v>
       </c>
       <c r="D122" t="s">
+        <v>387</v>
+      </c>
+      <c r="E122" t="s">
         <v>388</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>389</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>390</v>
-      </c>
-      <c r="G122" t="s">
-        <v>391</v>
       </c>
       <c r="H122" t="s">
         <v>25</v>
       </c>
       <c r="I122" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J122" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K122" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L122" t="s"/>
     </row>
@@ -6642,46 +6758,48 @@
         <v>12</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>44154.71083821759</v>
+        <v>44154.70629576389</v>
       </c>
       <c r="C123" t="n">
-        <v>1516</v>
+        <v>3797</v>
       </c>
       <c r="D123" t="s">
+        <v>391</v>
+      </c>
+      <c r="E123" t="s">
         <v>392</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>393</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>394</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
+        <v>53</v>
+      </c>
+      <c r="I123" t="s">
+        <v>47</v>
+      </c>
+      <c r="J123" t="s">
+        <v>26</v>
+      </c>
+      <c r="K123" t="s">
+        <v>20</v>
+      </c>
+      <c r="L123" t="s">
         <v>395</v>
       </c>
-      <c r="H123" t="s">
-        <v>109</v>
-      </c>
-      <c r="I123" t="s">
-        <v>36</v>
-      </c>
-      <c r="J123" t="s">
-        <v>25</v>
-      </c>
-      <c r="K123" t="s">
-        <v>19</v>
-      </c>
-      <c r="L123" t="s"/>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" t="s">
         <v>12</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>44154.71164583333</v>
+        <v>44154.70677894676</v>
       </c>
       <c r="C124" t="n">
-        <v>1975</v>
+        <v>275</v>
       </c>
       <c r="D124" t="s">
         <v>396</v>
@@ -6696,30 +6814,28 @@
         <v>399</v>
       </c>
       <c r="H124" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I124" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="J124" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K124" t="s">
-        <v>31</v>
-      </c>
-      <c r="L124" t="s">
-        <v>400</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L124" t="s"/>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" t="s">
         <v>12</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>44154.71525582176</v>
+        <v>44154.70703077546</v>
       </c>
       <c r="C125" t="n">
-        <v>1508</v>
+        <v>392</v>
       </c>
       <c r="D125" t="s">
         <v>401</v>
@@ -6734,16 +6850,16 @@
         <v>404</v>
       </c>
       <c r="H125" t="s">
-        <v>30</v>
+        <v>405</v>
       </c>
       <c r="I125" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="J125" t="s">
         <v>31</v>
       </c>
       <c r="K125" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L125" t="s"/>
     </row>
@@ -6752,70 +6868,72 @@
         <v>12</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>44154.71736768518</v>
+        <v>44154.70736740741</v>
       </c>
       <c r="C126" t="n">
-        <v>2973</v>
+        <v>1906</v>
       </c>
       <c r="D126" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E126" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F126" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G126" t="s">
-        <v>307</v>
+        <v>155</v>
       </c>
       <c r="H126" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I126" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J126" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="K126" t="s">
-        <v>19</v>
-      </c>
-      <c r="L126" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L126" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" t="s">
         <v>12</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>44154.71784644676</v>
+        <v>44154.70763553241</v>
       </c>
       <c r="C127" t="n">
-        <v>2202</v>
+        <v>2977</v>
       </c>
       <c r="D127" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E127" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F127" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G127" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H127" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I127" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J127" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K127" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L127" t="s"/>
     </row>
@@ -6824,34 +6942,34 @@
         <v>12</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>44154.71844951389</v>
+        <v>44154.70829784722</v>
       </c>
       <c r="C128" t="n">
-        <v>3156</v>
+        <v>465</v>
       </c>
       <c r="D128" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E128" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F128" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G128" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H128" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I128" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="J128" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K128" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L128" t="s"/>
     </row>
@@ -6860,84 +6978,84 @@
         <v>12</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>44154.71885400463</v>
+        <v>44154.70866863426</v>
       </c>
       <c r="C129" t="n">
-        <v>2881</v>
+        <v>566</v>
       </c>
       <c r="D129" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E129" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F129" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G129" t="s">
-        <v>419</v>
+        <v>155</v>
       </c>
       <c r="H129" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I129" t="s">
+        <v>32</v>
+      </c>
+      <c r="J129" t="s">
         <v>18</v>
       </c>
-      <c r="J129" t="s">
-        <v>25</v>
-      </c>
       <c r="K129" t="s">
-        <v>19</v>
-      </c>
-      <c r="L129" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L129" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" t="s">
         <v>12</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>44154.71972351852</v>
+        <v>44154.70929016203</v>
       </c>
       <c r="C130" t="n">
-        <v>3034</v>
+        <v>81</v>
       </c>
       <c r="D130" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E130" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F130" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G130" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H130" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I130" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J130" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K130" t="s">
-        <v>19</v>
-      </c>
-      <c r="L130" t="s">
-        <v>424</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L130" t="s"/>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" t="s">
         <v>12</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>44154.72165902777</v>
+        <v>44154.70976986111</v>
       </c>
       <c r="C131" t="n">
-        <v>986</v>
+        <v>1837</v>
       </c>
       <c r="D131" t="s">
         <v>425</v>
@@ -6952,52 +7070,54 @@
         <v>428</v>
       </c>
       <c r="H131" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I131" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="J131" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K131" t="s">
-        <v>19</v>
-      </c>
-      <c r="L131" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L131" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" t="s">
         <v>12</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>44154.72335130787</v>
+        <v>44154.71052581019</v>
       </c>
       <c r="C132" t="n">
-        <v>2031</v>
+        <v>1446</v>
       </c>
       <c r="D132" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E132" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F132" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G132" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H132" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I132" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="J132" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K132" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L132" t="s"/>
     </row>
@@ -7006,34 +7126,34 @@
         <v>12</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>44154.72369152778</v>
+        <v>44154.71083821759</v>
       </c>
       <c r="C133" t="n">
-        <v>67</v>
+        <v>1516</v>
       </c>
       <c r="D133" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E133" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F133" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G133" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H133" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I133" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J133" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K133" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L133" t="s"/>
     </row>
@@ -7042,70 +7162,72 @@
         <v>12</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>44154.7240471875</v>
+        <v>44154.71164583333</v>
       </c>
       <c r="C134" t="n">
-        <v>533</v>
+        <v>1975</v>
       </c>
       <c r="D134" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E134" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F134" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G134" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H134" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I134" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J134" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K134" t="s">
-        <v>19</v>
-      </c>
-      <c r="L134" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="L134" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" t="s">
         <v>12</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>44154.72488017361</v>
+        <v>44154.71525582176</v>
       </c>
       <c r="C135" t="n">
-        <v>3716</v>
+        <v>1508</v>
       </c>
       <c r="D135" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E135" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F135" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G135" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H135" t="s">
         <v>25</v>
       </c>
       <c r="I135" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J135" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K135" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="L135" t="s"/>
     </row>
@@ -7114,34 +7236,34 @@
         <v>12</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>44154.72557752315</v>
+        <v>44154.71736768518</v>
       </c>
       <c r="C136" t="n">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="D136" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E136" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F136" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G136" t="s">
-        <v>248</v>
+        <v>349</v>
       </c>
       <c r="H136" t="s">
-        <v>448</v>
+        <v>25</v>
       </c>
       <c r="I136" t="s">
+        <v>20</v>
+      </c>
+      <c r="J136" t="s">
         <v>19</v>
       </c>
-      <c r="J136" t="s">
-        <v>37</v>
-      </c>
       <c r="K136" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L136" t="s"/>
     </row>
@@ -7150,34 +7272,34 @@
         <v>12</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>44154.6643809838</v>
+        <v>44154.71784644676</v>
       </c>
       <c r="C137" t="n">
-        <v>2555</v>
+        <v>2202</v>
       </c>
       <c r="D137" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E137" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F137" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G137" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H137" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="I137" t="s">
         <v>25</v>
       </c>
       <c r="J137" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K137" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L137" t="s"/>
     </row>
@@ -7186,34 +7308,34 @@
         <v>12</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>44154.66514181713</v>
+        <v>44154.71844951389</v>
       </c>
       <c r="C138" t="n">
-        <v>2501</v>
+        <v>3156</v>
       </c>
       <c r="D138" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E138" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F138" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G138" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H138" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I138" t="s">
+        <v>31</v>
+      </c>
+      <c r="J138" t="s">
         <v>19</v>
       </c>
-      <c r="J138" t="s">
-        <v>17</v>
-      </c>
       <c r="K138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L138" t="s"/>
     </row>
@@ -7222,34 +7344,34 @@
         <v>12</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>44154.6655874537</v>
+        <v>44154.71885400463</v>
       </c>
       <c r="C139" t="n">
-        <v>2825</v>
+        <v>2881</v>
       </c>
       <c r="D139" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E139" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F139" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G139" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H139" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="I139" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J139" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K139" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L139" t="s"/>
     </row>
@@ -7258,122 +7380,120 @@
         <v>12</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>44154.66637526621</v>
+        <v>44154.71972351852</v>
       </c>
       <c r="C140" t="n">
-        <v>3460</v>
+        <v>3034</v>
       </c>
       <c r="D140" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E140" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F140" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G140" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H140" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I140" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J140" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K140" t="s">
-        <v>17</v>
-      </c>
-      <c r="L140" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L140" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" t="s">
         <v>12</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>44154.66675946759</v>
+        <v>44154.72165902777</v>
       </c>
       <c r="C141" t="n">
-        <v>1777</v>
+        <v>986</v>
       </c>
       <c r="D141" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E141" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F141" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G141" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H141" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I141" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="J141" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K141" t="s">
-        <v>19</v>
-      </c>
-      <c r="L141" t="s">
-        <v>469</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L141" t="s"/>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" t="s">
         <v>12</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>44154.66788681713</v>
+        <v>44154.72335130787</v>
       </c>
       <c r="C142" t="n">
-        <v>2772</v>
+        <v>2031</v>
       </c>
       <c r="D142" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E142" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F142" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G142" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H142" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="I142" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J142" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K142" t="s">
-        <v>19</v>
-      </c>
-      <c r="L142" t="s">
-        <v>474</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L142" t="s"/>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" t="s">
         <v>12</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>44154.66935013889</v>
+        <v>44154.72369152778</v>
       </c>
       <c r="C143" t="n">
-        <v>3641</v>
+        <v>67</v>
       </c>
       <c r="D143" t="s">
         <v>475</v>
@@ -7391,51 +7511,49 @@
         <v>25</v>
       </c>
       <c r="I143" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="J143" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K143" t="s">
-        <v>19</v>
-      </c>
-      <c r="L143" t="s">
-        <v>479</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L143" t="s"/>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" t="s">
         <v>12</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>44154.67044814815</v>
+        <v>44154.7240471875</v>
       </c>
       <c r="C144" t="n">
-        <v>2487</v>
+        <v>533</v>
       </c>
       <c r="D144" t="s">
+        <v>479</v>
+      </c>
+      <c r="E144" t="s">
         <v>480</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>481</v>
       </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>482</v>
       </c>
-      <c r="G144" t="s">
-        <v>483</v>
-      </c>
       <c r="H144" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I144" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J144" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K144" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L144" t="s"/>
     </row>
@@ -7444,34 +7562,34 @@
         <v>12</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>44154.67135246528</v>
+        <v>44154.72488017361</v>
       </c>
       <c r="C145" t="n">
-        <v>2638</v>
+        <v>3716</v>
       </c>
       <c r="D145" t="s">
+        <v>483</v>
+      </c>
+      <c r="E145" t="s">
         <v>484</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>485</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>486</v>
       </c>
-      <c r="G145" t="s">
-        <v>487</v>
-      </c>
       <c r="H145" t="s">
-        <v>488</v>
+        <v>26</v>
       </c>
       <c r="I145" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J145" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K145" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L145" t="s"/>
     </row>
@@ -7480,72 +7598,70 @@
         <v>12</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>44154.67172907407</v>
+        <v>44154.72557752315</v>
       </c>
       <c r="C146" t="n">
-        <v>3209</v>
+        <v>2974</v>
       </c>
       <c r="D146" t="s">
+        <v>487</v>
+      </c>
+      <c r="E146" t="s">
+        <v>488</v>
+      </c>
+      <c r="F146" t="s">
         <v>489</v>
       </c>
-      <c r="E146" t="s">
+      <c r="G146" t="s">
+        <v>290</v>
+      </c>
+      <c r="H146" t="s">
         <v>490</v>
       </c>
-      <c r="F146" t="s">
-        <v>491</v>
-      </c>
-      <c r="G146" t="s">
-        <v>492</v>
-      </c>
-      <c r="H146" t="s">
-        <v>24</v>
-      </c>
       <c r="I146" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J146" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K146" t="s">
-        <v>19</v>
-      </c>
-      <c r="L146" t="s">
-        <v>493</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L146" t="s"/>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" t="s">
         <v>12</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>44154.67312695602</v>
+        <v>44154.6643809838</v>
       </c>
       <c r="C147" t="n">
-        <v>3711</v>
+        <v>2555</v>
       </c>
       <c r="D147" t="s">
+        <v>491</v>
+      </c>
+      <c r="E147" t="s">
+        <v>492</v>
+      </c>
+      <c r="F147" t="s">
+        <v>493</v>
+      </c>
+      <c r="G147" t="s">
         <v>494</v>
       </c>
-      <c r="E147" t="s">
-        <v>495</v>
-      </c>
-      <c r="F147" t="s">
-        <v>496</v>
-      </c>
-      <c r="G147" t="s">
-        <v>497</v>
-      </c>
       <c r="H147" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I147" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J147" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K147" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L147" t="s"/>
     </row>
@@ -7554,34 +7670,34 @@
         <v>12</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>44154.6736441088</v>
+        <v>44154.66514181713</v>
       </c>
       <c r="C148" t="n">
-        <v>3312</v>
+        <v>2501</v>
       </c>
       <c r="D148" t="s">
+        <v>495</v>
+      </c>
+      <c r="E148" t="s">
+        <v>496</v>
+      </c>
+      <c r="F148" t="s">
+        <v>497</v>
+      </c>
+      <c r="G148" t="s">
         <v>498</v>
       </c>
-      <c r="E148" t="s">
-        <v>499</v>
-      </c>
-      <c r="F148" t="s">
-        <v>500</v>
-      </c>
-      <c r="G148" t="s">
-        <v>501</v>
-      </c>
       <c r="H148" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="I148" t="s">
-        <v>502</v>
+        <v>20</v>
       </c>
       <c r="J148" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K148" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L148" t="s"/>
     </row>
@@ -7590,34 +7706,34 @@
         <v>12</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>44154.67442511574</v>
+        <v>44154.6655874537</v>
       </c>
       <c r="C149" t="n">
-        <v>78</v>
+        <v>2825</v>
       </c>
       <c r="D149" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E149" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F149" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G149" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H149" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I149" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="J149" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K149" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L149" t="s"/>
     </row>
@@ -7626,111 +7742,111 @@
         <v>12</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>44154.67532738426</v>
+        <v>44154.66637526621</v>
       </c>
       <c r="C150" t="n">
-        <v>3031</v>
+        <v>3460</v>
       </c>
       <c r="D150" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E150" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F150" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G150" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H150" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I150" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J150" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K150" t="s">
-        <v>37</v>
-      </c>
-      <c r="L150" t="s">
-        <v>511</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L150" t="s"/>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" t="s">
         <v>12</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>44154.67696158565</v>
+        <v>44154.66675946759</v>
       </c>
       <c r="C151" t="n">
-        <v>2035</v>
+        <v>1777</v>
       </c>
       <c r="D151" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E151" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F151" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G151" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H151" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J151" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K151" t="s">
-        <v>17</v>
-      </c>
-      <c r="L151" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L151" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" t="s">
         <v>12</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>44154.67738247685</v>
+        <v>44154.66788681713</v>
       </c>
       <c r="C152" t="n">
-        <v>1784</v>
+        <v>2772</v>
       </c>
       <c r="D152" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E152" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F152" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G152" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H152" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="I152" t="s">
         <v>18</v>
       </c>
       <c r="J152" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="K152" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L152" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7738,108 +7854,108 @@
         <v>12</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>44154.67845166667</v>
+        <v>44154.66935013889</v>
       </c>
       <c r="C153" t="n">
-        <v>116</v>
+        <v>3641</v>
       </c>
       <c r="D153" t="s">
+        <v>517</v>
+      </c>
+      <c r="E153" t="s">
+        <v>518</v>
+      </c>
+      <c r="F153" t="s">
+        <v>519</v>
+      </c>
+      <c r="G153" t="s">
+        <v>520</v>
+      </c>
+      <c r="H153" t="s">
+        <v>26</v>
+      </c>
+      <c r="I153" t="s">
+        <v>125</v>
+      </c>
+      <c r="J153" t="s">
+        <v>18</v>
+      </c>
+      <c r="K153" t="s">
+        <v>20</v>
+      </c>
+      <c r="L153" t="s">
         <v>521</v>
       </c>
-      <c r="E153" t="s">
-        <v>522</v>
-      </c>
-      <c r="F153" t="s">
-        <v>523</v>
-      </c>
-      <c r="G153" t="s">
-        <v>524</v>
-      </c>
-      <c r="H153" t="s">
-        <v>53</v>
-      </c>
-      <c r="I153" t="s">
-        <v>48</v>
-      </c>
-      <c r="J153" t="s">
-        <v>17</v>
-      </c>
-      <c r="K153" t="s">
-        <v>17</v>
-      </c>
-      <c r="L153" t="s"/>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" t="s">
         <v>12</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>44154.68068962963</v>
+        <v>44154.67044814815</v>
       </c>
       <c r="C154" t="n">
-        <v>1882</v>
+        <v>2487</v>
       </c>
       <c r="D154" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E154" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F154" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G154" t="s">
-        <v>528</v>
+        <v>62</v>
       </c>
       <c r="H154" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I154" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="J154" t="s">
-        <v>502</v>
+        <v>32</v>
       </c>
       <c r="K154" t="s">
-        <v>37</v>
-      </c>
-      <c r="L154" t="s">
-        <v>529</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L154" t="s"/>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" t="s">
         <v>12</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>44154.68186581018</v>
+        <v>44154.67135246528</v>
       </c>
       <c r="C155" t="n">
-        <v>1175</v>
+        <v>2638</v>
       </c>
       <c r="D155" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E155" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F155" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G155" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="H155" t="s">
-        <v>30</v>
+        <v>529</v>
       </c>
       <c r="I155" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J155" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K155" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L155" t="s"/>
     </row>
@@ -7848,37 +7964,37 @@
         <v>12</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>44154.68270211806</v>
+        <v>44154.67172907407</v>
       </c>
       <c r="C156" t="n">
-        <v>1528</v>
+        <v>3209</v>
       </c>
       <c r="D156" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E156" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F156" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G156" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="H156" t="s">
         <v>53</v>
       </c>
       <c r="I156" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J156" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K156" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L156" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7886,72 +8002,70 @@
         <v>12</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>44154.68296275463</v>
+        <v>44154.67312695602</v>
       </c>
       <c r="C157" t="n">
-        <v>1838</v>
+        <v>3711</v>
       </c>
       <c r="D157" t="s">
+        <v>535</v>
+      </c>
+      <c r="E157" t="s">
+        <v>536</v>
+      </c>
+      <c r="F157" t="s">
+        <v>537</v>
+      </c>
+      <c r="G157" t="s">
         <v>538</v>
       </c>
-      <c r="E157" t="s">
-        <v>539</v>
-      </c>
-      <c r="F157" t="s">
-        <v>540</v>
-      </c>
-      <c r="G157" t="s">
-        <v>541</v>
-      </c>
       <c r="H157" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I157" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J157" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K157" t="s">
-        <v>19</v>
-      </c>
-      <c r="L157" t="s">
-        <v>542</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L157" t="s"/>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" t="s">
         <v>12</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>44154.68356502315</v>
+        <v>44154.6736441088</v>
       </c>
       <c r="C158" t="n">
-        <v>1924</v>
+        <v>3312</v>
       </c>
       <c r="D158" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E158" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F158" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G158" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H158" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I158" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="J158" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K158" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L158" t="s"/>
     </row>
@@ -7960,34 +8074,34 @@
         <v>12</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>44154.6841640625</v>
+        <v>44154.67442511574</v>
       </c>
       <c r="C159" t="n">
-        <v>3611</v>
+        <v>78</v>
       </c>
       <c r="D159" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E159" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F159" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G159" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H159" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I159" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J159" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K159" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L159" t="s"/>
     </row>
@@ -7996,70 +8110,72 @@
         <v>12</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>44154.68457054398</v>
+        <v>44154.67532738426</v>
       </c>
       <c r="C160" t="n">
-        <v>1065</v>
+        <v>3031</v>
       </c>
       <c r="D160" t="s">
+        <v>547</v>
+      </c>
+      <c r="E160" t="s">
+        <v>548</v>
+      </c>
+      <c r="F160" t="s">
+        <v>549</v>
+      </c>
+      <c r="G160" t="s">
+        <v>550</v>
+      </c>
+      <c r="H160" t="s">
+        <v>25</v>
+      </c>
+      <c r="I160" t="s">
+        <v>32</v>
+      </c>
+      <c r="J160" t="s">
+        <v>19</v>
+      </c>
+      <c r="K160" t="s">
+        <v>19</v>
+      </c>
+      <c r="L160" t="s">
         <v>551</v>
       </c>
-      <c r="E160" t="s">
-        <v>552</v>
-      </c>
-      <c r="F160" t="s">
-        <v>553</v>
-      </c>
-      <c r="G160" t="s">
-        <v>554</v>
-      </c>
-      <c r="H160" t="s">
-        <v>30</v>
-      </c>
-      <c r="I160" t="s">
-        <v>19</v>
-      </c>
-      <c r="J160" t="s">
-        <v>37</v>
-      </c>
-      <c r="K160" t="s">
-        <v>17</v>
-      </c>
-      <c r="L160" t="s"/>
     </row>
     <row r="161" spans="1:12">
       <c r="A161" t="s">
         <v>12</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>44154.68556002315</v>
+        <v>44154.67696158565</v>
       </c>
       <c r="C161" t="n">
-        <v>2475</v>
+        <v>2035</v>
       </c>
       <c r="D161" t="s">
+        <v>552</v>
+      </c>
+      <c r="E161" t="s">
+        <v>553</v>
+      </c>
+      <c r="F161" t="s">
+        <v>554</v>
+      </c>
+      <c r="G161" t="s">
         <v>555</v>
       </c>
-      <c r="E161" t="s">
-        <v>556</v>
-      </c>
-      <c r="F161" t="s">
-        <v>557</v>
-      </c>
-      <c r="G161" t="s">
-        <v>57</v>
-      </c>
       <c r="H161" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="I161" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J161" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K161" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="L161" t="s"/>
     </row>
@@ -8068,70 +8184,72 @@
         <v>12</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>44154.68630527778</v>
+        <v>44154.67738247685</v>
       </c>
       <c r="C162" t="n">
-        <v>3042</v>
+        <v>1784</v>
       </c>
       <c r="D162" t="s">
+        <v>556</v>
+      </c>
+      <c r="E162" t="s">
+        <v>557</v>
+      </c>
+      <c r="F162" t="s">
         <v>558</v>
       </c>
-      <c r="E162" t="s">
+      <c r="G162" t="s">
         <v>559</v>
       </c>
-      <c r="F162" t="s">
+      <c r="H162" t="s">
+        <v>53</v>
+      </c>
+      <c r="I162" t="s">
+        <v>47</v>
+      </c>
+      <c r="J162" t="s">
+        <v>18</v>
+      </c>
+      <c r="K162" t="s">
+        <v>20</v>
+      </c>
+      <c r="L162" t="s">
         <v>560</v>
       </c>
-      <c r="G162" t="s">
-        <v>561</v>
-      </c>
-      <c r="H162" t="s">
-        <v>17</v>
-      </c>
-      <c r="I162" t="s">
-        <v>18</v>
-      </c>
-      <c r="J162" t="s">
-        <v>19</v>
-      </c>
-      <c r="K162" t="s">
-        <v>19</v>
-      </c>
-      <c r="L162" t="s"/>
     </row>
     <row r="163" spans="1:12">
       <c r="A163" t="s">
         <v>12</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>44154.68673292824</v>
+        <v>44154.67845166667</v>
       </c>
       <c r="C163" t="n">
-        <v>1903</v>
+        <v>116</v>
       </c>
       <c r="D163" t="s">
+        <v>561</v>
+      </c>
+      <c r="E163" t="s">
         <v>562</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
         <v>563</v>
       </c>
-      <c r="F163" t="s">
+      <c r="G163" t="s">
         <v>564</v>
       </c>
-      <c r="G163" t="s">
-        <v>565</v>
-      </c>
       <c r="H163" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="I163" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J163" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K163" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="L163" t="s"/>
     </row>
@@ -8140,46 +8258,48 @@
         <v>12</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>44154.6878003588</v>
+        <v>44154.68068962963</v>
       </c>
       <c r="C164" t="n">
-        <v>615</v>
+        <v>1882</v>
       </c>
       <c r="D164" t="s">
+        <v>565</v>
+      </c>
+      <c r="E164" t="s">
         <v>566</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
         <v>567</v>
       </c>
-      <c r="F164" t="s">
+      <c r="G164" t="s">
         <v>568</v>
       </c>
-      <c r="G164" t="s">
-        <v>569</v>
-      </c>
       <c r="H164" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I164" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J164" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K164" t="s">
         <v>19</v>
       </c>
-      <c r="L164" t="s"/>
+      <c r="L164" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="165" spans="1:12">
       <c r="A165" t="s">
         <v>12</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>44154.68797761574</v>
+        <v>44154.68186581018</v>
       </c>
       <c r="C165" t="n">
-        <v>3195</v>
+        <v>1175</v>
       </c>
       <c r="D165" t="s">
         <v>570</v>
@@ -8194,16 +8314,16 @@
         <v>573</v>
       </c>
       <c r="H165" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I165" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J165" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K165" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L165" t="s"/>
     </row>
@@ -8212,10 +8332,10 @@
         <v>12</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>44154.68839364583</v>
+        <v>44154.68270211806</v>
       </c>
       <c r="C166" t="n">
-        <v>3134</v>
+        <v>1528</v>
       </c>
       <c r="D166" t="s">
         <v>574</v>
@@ -8227,31 +8347,33 @@
         <v>576</v>
       </c>
       <c r="G166" t="s">
-        <v>577</v>
+        <v>515</v>
       </c>
       <c r="H166" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="I166" t="s">
         <v>18</v>
       </c>
       <c r="J166" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K166" t="s">
-        <v>19</v>
-      </c>
-      <c r="L166" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L166" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="167" spans="1:12">
       <c r="A167" t="s">
         <v>12</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>44154.68914657408</v>
+        <v>44154.68296275463</v>
       </c>
       <c r="C167" t="n">
-        <v>1023</v>
+        <v>1838</v>
       </c>
       <c r="D167" t="s">
         <v>578</v>
@@ -8266,66 +8388,66 @@
         <v>581</v>
       </c>
       <c r="H167" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I167" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J167" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K167" t="s">
-        <v>19</v>
-      </c>
-      <c r="L167" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="L167" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" t="s">
         <v>12</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>44154.68949501157</v>
+        <v>44154.68356502315</v>
       </c>
       <c r="C168" t="n">
-        <v>3395</v>
+        <v>1924</v>
       </c>
       <c r="D168" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E168" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F168" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G168" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H168" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I168" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J168" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K168" t="s">
-        <v>19</v>
-      </c>
-      <c r="L168" t="s">
-        <v>586</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L168" t="s"/>
     </row>
     <row r="169" spans="1:12">
       <c r="A169" t="s">
         <v>12</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>44154.68986456018</v>
+        <v>44154.6841640625</v>
       </c>
       <c r="C169" t="n">
-        <v>1760</v>
+        <v>3611</v>
       </c>
       <c r="D169" t="s">
         <v>587</v>
@@ -8340,54 +8462,52 @@
         <v>590</v>
       </c>
       <c r="H169" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I169" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J169" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K169" t="s">
-        <v>19</v>
-      </c>
-      <c r="L169" t="s">
-        <v>591</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L169" t="s"/>
     </row>
     <row r="170" spans="1:12">
       <c r="A170" t="s">
         <v>12</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>44154.69036902778</v>
+        <v>44154.68457054398</v>
       </c>
       <c r="C170" t="n">
-        <v>1995</v>
+        <v>1065</v>
       </c>
       <c r="D170" t="s">
+        <v>591</v>
+      </c>
+      <c r="E170" t="s">
         <v>592</v>
       </c>
-      <c r="E170" t="s">
+      <c r="F170" t="s">
         <v>593</v>
       </c>
-      <c r="F170" t="s">
+      <c r="G170" t="s">
         <v>594</v>
       </c>
-      <c r="G170" t="s">
-        <v>189</v>
-      </c>
       <c r="H170" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="I170" t="s">
+        <v>20</v>
+      </c>
+      <c r="J170" t="s">
         <v>19</v>
       </c>
-      <c r="J170" t="s">
-        <v>17</v>
-      </c>
       <c r="K170" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="L170" t="s"/>
     </row>
@@ -8396,10 +8516,10 @@
         <v>12</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>44154.69077488426</v>
+        <v>44154.68556002315</v>
       </c>
       <c r="C171" t="n">
-        <v>440</v>
+        <v>2475</v>
       </c>
       <c r="D171" t="s">
         <v>595</v>
@@ -8411,21 +8531,385 @@
         <v>597</v>
       </c>
       <c r="G171" t="s">
-        <v>386</v>
+        <v>100</v>
       </c>
       <c r="H171" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="I171" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="J171" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="K171" t="s">
+        <v>32</v>
+      </c>
+      <c r="L171" t="s"/>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>44154.68630527778</v>
+      </c>
+      <c r="C172" t="n">
+        <v>3042</v>
+      </c>
+      <c r="D172" t="s">
+        <v>598</v>
+      </c>
+      <c r="E172" t="s">
+        <v>599</v>
+      </c>
+      <c r="F172" t="s">
+        <v>600</v>
+      </c>
+      <c r="G172" t="s">
+        <v>601</v>
+      </c>
+      <c r="H172" t="s">
+        <v>32</v>
+      </c>
+      <c r="I172" t="s">
+        <v>47</v>
+      </c>
+      <c r="J172" t="s">
+        <v>20</v>
+      </c>
+      <c r="K172" t="s">
+        <v>20</v>
+      </c>
+      <c r="L172" t="s"/>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>44154.68673292824</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1903</v>
+      </c>
+      <c r="D173" t="s">
+        <v>602</v>
+      </c>
+      <c r="E173" t="s">
+        <v>603</v>
+      </c>
+      <c r="F173" t="s">
+        <v>604</v>
+      </c>
+      <c r="G173" t="s">
+        <v>605</v>
+      </c>
+      <c r="H173" t="s">
+        <v>37</v>
+      </c>
+      <c r="I173" t="s">
+        <v>32</v>
+      </c>
+      <c r="J173" t="s">
         <v>19</v>
       </c>
-      <c r="L171" t="s"/>
+      <c r="K173" t="s">
+        <v>32</v>
+      </c>
+      <c r="L173" t="s"/>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" t="s">
+        <v>12</v>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>44154.6878003588</v>
+      </c>
+      <c r="C174" t="n">
+        <v>615</v>
+      </c>
+      <c r="D174" t="s">
+        <v>606</v>
+      </c>
+      <c r="E174" t="s">
+        <v>607</v>
+      </c>
+      <c r="F174" t="s">
+        <v>608</v>
+      </c>
+      <c r="G174" t="s">
+        <v>609</v>
+      </c>
+      <c r="H174" t="s">
+        <v>96</v>
+      </c>
+      <c r="I174" t="s">
+        <v>31</v>
+      </c>
+      <c r="J174" t="s">
+        <v>19</v>
+      </c>
+      <c r="K174" t="s">
+        <v>20</v>
+      </c>
+      <c r="L174" t="s"/>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>44154.68797761574</v>
+      </c>
+      <c r="C175" t="n">
+        <v>3195</v>
+      </c>
+      <c r="D175" t="s">
+        <v>610</v>
+      </c>
+      <c r="E175" t="s">
+        <v>611</v>
+      </c>
+      <c r="F175" t="s">
+        <v>612</v>
+      </c>
+      <c r="G175" t="s">
+        <v>613</v>
+      </c>
+      <c r="H175" t="s">
+        <v>53</v>
+      </c>
+      <c r="I175" t="s">
+        <v>47</v>
+      </c>
+      <c r="J175" t="s">
+        <v>26</v>
+      </c>
+      <c r="K175" t="s">
+        <v>20</v>
+      </c>
+      <c r="L175" t="s"/>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>44154.68839364583</v>
+      </c>
+      <c r="C176" t="n">
+        <v>3134</v>
+      </c>
+      <c r="D176" t="s">
+        <v>614</v>
+      </c>
+      <c r="E176" t="s">
+        <v>615</v>
+      </c>
+      <c r="F176" t="s">
+        <v>616</v>
+      </c>
+      <c r="G176" t="s">
+        <v>617</v>
+      </c>
+      <c r="H176" t="s">
+        <v>19</v>
+      </c>
+      <c r="I176" t="s">
+        <v>47</v>
+      </c>
+      <c r="J176" t="s">
+        <v>31</v>
+      </c>
+      <c r="K176" t="s">
+        <v>20</v>
+      </c>
+      <c r="L176" t="s"/>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>44154.68914657408</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D177" t="s">
+        <v>618</v>
+      </c>
+      <c r="E177" t="s">
+        <v>619</v>
+      </c>
+      <c r="F177" t="s">
+        <v>620</v>
+      </c>
+      <c r="G177" t="s">
+        <v>621</v>
+      </c>
+      <c r="H177" t="s">
+        <v>25</v>
+      </c>
+      <c r="I177" t="s">
+        <v>20</v>
+      </c>
+      <c r="J177" t="s">
+        <v>19</v>
+      </c>
+      <c r="K177" t="s">
+        <v>20</v>
+      </c>
+      <c r="L177" t="s"/>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>44154.68949501157</v>
+      </c>
+      <c r="C178" t="n">
+        <v>3395</v>
+      </c>
+      <c r="D178" t="s">
+        <v>622</v>
+      </c>
+      <c r="E178" t="s">
+        <v>623</v>
+      </c>
+      <c r="F178" t="s">
+        <v>624</v>
+      </c>
+      <c r="G178" t="s">
+        <v>625</v>
+      </c>
+      <c r="H178" t="s">
+        <v>53</v>
+      </c>
+      <c r="I178" t="s">
+        <v>47</v>
+      </c>
+      <c r="J178" t="s">
+        <v>26</v>
+      </c>
+      <c r="K178" t="s">
+        <v>20</v>
+      </c>
+      <c r="L178" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179" t="s">
+        <v>12</v>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>44154.68986456018</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1760</v>
+      </c>
+      <c r="D179" t="s">
+        <v>627</v>
+      </c>
+      <c r="E179" t="s">
+        <v>628</v>
+      </c>
+      <c r="F179" t="s">
+        <v>629</v>
+      </c>
+      <c r="G179" t="s">
+        <v>630</v>
+      </c>
+      <c r="H179" t="s">
+        <v>53</v>
+      </c>
+      <c r="I179" t="s">
+        <v>47</v>
+      </c>
+      <c r="J179" t="s">
+        <v>26</v>
+      </c>
+      <c r="K179" t="s">
+        <v>20</v>
+      </c>
+      <c r="L179" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180" t="s">
+        <v>12</v>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>44154.69036902778</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D180" t="s">
+        <v>632</v>
+      </c>
+      <c r="E180" t="s">
+        <v>633</v>
+      </c>
+      <c r="F180" t="s">
+        <v>634</v>
+      </c>
+      <c r="G180" t="s">
+        <v>231</v>
+      </c>
+      <c r="H180" t="s">
+        <v>37</v>
+      </c>
+      <c r="I180" t="s">
+        <v>20</v>
+      </c>
+      <c r="J180" t="s">
+        <v>32</v>
+      </c>
+      <c r="K180" t="s">
+        <v>32</v>
+      </c>
+      <c r="L180" t="s"/>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181" t="s">
+        <v>12</v>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>44154.69077488426</v>
+      </c>
+      <c r="C181" t="n">
+        <v>440</v>
+      </c>
+      <c r="D181" t="s">
+        <v>635</v>
+      </c>
+      <c r="E181" t="s">
+        <v>636</v>
+      </c>
+      <c r="F181" t="s">
+        <v>637</v>
+      </c>
+      <c r="G181" t="s">
+        <v>428</v>
+      </c>
+      <c r="H181" t="s">
+        <v>32</v>
+      </c>
+      <c r="I181" t="s">
+        <v>47</v>
+      </c>
+      <c r="J181" t="s">
+        <v>31</v>
+      </c>
+      <c r="K181" t="s">
+        <v>20</v>
+      </c>
+      <c r="L181" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/classification-record/session-all-models-combined.xlsx
+++ b/classification-record/session-all-models-combined.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="690">
   <si>
     <t>Name</t>
   </si>
@@ -56,6 +56,210 @@
     <t>Alex</t>
   </si>
   <si>
+    <t>Ingredients Used in E-Cigarettes</t>
+  </si>
+  <si>
+    <t>lZV3Zc5HPpM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lZV3Zc5HPpM</t>
+  </si>
+  <si>
+    <t>University of California Television (UCTV)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>GEN by Vaporesso - Mod Of The Year??</t>
+  </si>
+  <si>
+    <t>cmBavaPPj7c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cmBavaPPj7c</t>
+  </si>
+  <si>
+    <t>Matt From SMM</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Social-Lites Disposable E-cigs</t>
+  </si>
+  <si>
+    <t>hs--tLigzQY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hs--tLigzQY</t>
+  </si>
+  <si>
+    <t>Lee O Hare</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>E cigs: Ends, Means &amp; Distractions - Clive Bates</t>
+  </si>
+  <si>
+    <t>B_w7liRcdSI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B_w7liRcdSI</t>
+  </si>
+  <si>
+    <t>Jon Derricott</t>
+  </si>
+  <si>
+    <t>Best Oil Vape Pen &amp; Vapes by HoneyStick How To Chose Best Oil Vaporizer &amp; Oil Cartridge</t>
+  </si>
+  <si>
+    <t>Lok3M6al86Y</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Lok3M6al86Y</t>
+  </si>
+  <si>
+    <t>VapeHoneyStick</t>
+  </si>
+  <si>
+    <t>0 5 7</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>Wood Vape Squonk Box Mod Version 1 Full Mechanical (do it yourself)</t>
+  </si>
+  <si>
+    <t>W9FL3_GbawU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=W9FL3_GbawU</t>
+  </si>
+  <si>
+    <t>Vapers Mind</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>HEAVYHITTERS DISPOSABLE VAPE PEN || MALIBU OG</t>
+  </si>
+  <si>
+    <t>JxJIoR3LXUI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JxJIoR3LXUI</t>
+  </si>
+  <si>
+    <t>BUD LEGEND</t>
+  </si>
+  <si>
+    <t>0 5</t>
+  </si>
+  <si>
+    <t>Best Ecig 2017! The Mig 21Kit | Plus &amp; Purple ADE Ejuice! | IndoorSmokers</t>
+  </si>
+  <si>
+    <t>Qfg9_OmER-4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Qfg9_OmER-4</t>
+  </si>
+  <si>
+    <t>IndoorSmokers</t>
+  </si>
+  <si>
+    <t>2 4</t>
+  </si>
+  <si>
+    <t>FDA Bans Most Flavored E-Cigarette Cartridges | NBC Nightly News</t>
+  </si>
+  <si>
+    <t>pc7Un0WWAjc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pc7Un0WWAjc</t>
+  </si>
+  <si>
+    <t>NBC News</t>
+  </si>
+  <si>
+    <t>ESSENTIALS (Best disposable vape)</t>
+  </si>
+  <si>
+    <t>gYR95A9H8Jo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gYR95A9H8Jo</t>
+  </si>
+  <si>
+    <t>ChaseSmokes</t>
+  </si>
+  <si>
+    <t>How to Vape Trick Like a PRO!  UWELL 👑Crown Pod - Big Clouds</t>
+  </si>
+  <si>
+    <t>eo2KBwq1vbY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eo2KBwq1vbY</t>
+  </si>
+  <si>
+    <t>UWELL</t>
+  </si>
+  <si>
+    <t>4 7</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>uwell device manufacturer</t>
+  </si>
+  <si>
+    <t>Pilipinas Got Talent 2018 Auditions: JM Bayot - Vape Smoke Tricks</t>
+  </si>
+  <si>
+    <t>shKFOqZpcwc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=shKFOqZpcwc</t>
+  </si>
+  <si>
+    <t>Pilipinas Got Talent</t>
+  </si>
+  <si>
+    <t>talent show</t>
+  </si>
+  <si>
+    <t>VAPECCINO MATE ONE | GOLDEN COILS? BEST POD MOD OF 2017?</t>
+  </si>
+  <si>
+    <t>oHXNpiX3Oq8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oHXNpiX3Oq8</t>
+  </si>
+  <si>
+    <t>AVAndy</t>
+  </si>
+  <si>
     <t>Pure Vape Raspberry Twist Disposable Review</t>
   </si>
   <si>
@@ -68,18 +272,6 @@
     <t>Weeats Reviews</t>
   </si>
   <si>
-    <t>0 5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>POSH Disposable vape kit review!! Is Vaping better??</t>
   </si>
   <si>
@@ -92,12 +284,6 @@
     <t>DG Amiri</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Best Vape Pen for Nic Salt in 2019? | VapeOnly vPipe Mini</t>
   </si>
   <si>
@@ -110,12 +296,6 @@
     <t>HeavenGifts Official</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>DIY E-Liquid Recipe Development</t>
   </si>
   <si>
@@ -128,12 +308,6 @@
     <t>New Amsterdam Vape</t>
   </si>
   <si>
-    <t>3 7</t>
-  </si>
-  <si>
-    <t>0 1</t>
-  </si>
-  <si>
     <t>Waterproof Tube Mod? Trident Kit by Vandy Vape!</t>
   </si>
   <si>
@@ -143,12 +317,6 @@
     <t>https://www.youtube.com/watch?v=sRubxCbr9VA</t>
   </si>
   <si>
-    <t>Matt From SMM</t>
-  </si>
-  <si>
-    <t>2 4</t>
-  </si>
-  <si>
     <t>E-CIG EXPLOSIONS!!! - What The News Doesn't Tell You</t>
   </si>
   <si>
@@ -158,9 +326,6 @@
     <t>https://www.youtube.com/watch?v=hHCHrSKiTFY</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t xml:space="preserve">talking about vape devices blowing up </t>
   </si>
   <si>
@@ -1079,9 +1244,6 @@
     <t>https://www.youtube.com/watch?v=a0F_Wtq9WtI</t>
   </si>
   <si>
-    <t>IndoorSmokers</t>
-  </si>
-  <si>
     <t>Prophecy Update End Times News Headlines  - 7/27/20</t>
   </si>
   <si>
@@ -1175,9 +1337,6 @@
     <t>https://www.youtube.com/watch?v=on9QXxuu2T8</t>
   </si>
   <si>
-    <t>AVAndy</t>
-  </si>
-  <si>
     <t>UNO MAS VAPE DISPOSABLE (1200 puffs)</t>
   </si>
   <si>
@@ -1185,9 +1344,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ftNCSkZVCVg</t>
-  </si>
-  <si>
-    <t>ChaseSmokes</t>
   </si>
   <si>
     <t>jeremy zucker - end (stripped.)</t>
@@ -2281,7 +2437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L181"/>
+  <dimension ref="A1:L194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2332,10 +2488,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44159.78244555804</v>
+        <v>44160.74067732663</v>
       </c>
       <c r="C2" t="n">
-        <v>1396</v>
+        <v>2364</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -2359,7 +2515,7 @@
         <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s"/>
     </row>
@@ -2368,34 +2524,34 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44159.78293992684</v>
+        <v>44160.74148675387</v>
       </c>
       <c r="C3" t="n">
-        <v>3171</v>
+        <v>776</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s"/>
     </row>
@@ -2404,34 +2560,34 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44159.78447659321</v>
+        <v>44160.74195029044</v>
       </c>
       <c r="C4" t="n">
-        <v>3338</v>
+        <v>1492</v>
       </c>
       <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s"/>
     </row>
@@ -2440,34 +2596,34 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44159.7849043309</v>
+        <v>44160.74251331812</v>
       </c>
       <c r="C5" t="n">
-        <v>1905</v>
+        <v>3284</v>
       </c>
       <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s"/>
     </row>
@@ -2476,34 +2632,34 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44159.78544173385</v>
+        <v>44160.7437275296</v>
       </c>
       <c r="C6" t="n">
-        <v>874</v>
+        <v>2685</v>
       </c>
       <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
         <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
       </c>
       <c r="L6" t="s"/>
     </row>
@@ -2512,110 +2668,106 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44159.78586815737</v>
+        <v>44160.74409224457</v>
       </c>
       <c r="C7" t="n">
-        <v>190</v>
+        <v>2995</v>
       </c>
       <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
         <v>44</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" t="s">
-        <v>48</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L7" t="s"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44159.78620431689</v>
+        <v>44160.74450761466</v>
       </c>
       <c r="C8" t="n">
-        <v>2096</v>
+        <v>3737</v>
       </c>
       <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
         <v>49</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>53</v>
-      </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" t="s">
-        <v>54</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L8" t="s"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44159.78680747255</v>
+        <v>44160.74542512543</v>
       </c>
       <c r="C9" t="n">
-        <v>669</v>
+        <v>992</v>
       </c>
       <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
         <v>55</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
         <v>56</v>
       </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>25</v>
       </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" t="s">
-        <v>32</v>
-      </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s"/>
     </row>
@@ -2624,34 +2776,34 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44159.78729312109</v>
+        <v>44160.74594708042</v>
       </c>
       <c r="C10" t="n">
-        <v>3030</v>
+        <v>3608</v>
       </c>
       <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
         <v>59</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>60</v>
-      </c>
-      <c r="F10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" t="s">
-        <v>62</v>
       </c>
       <c r="H10" t="s">
         <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s"/>
     </row>
@@ -2660,34 +2812,34 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44159.78774577091</v>
+        <v>44160.74647416603</v>
       </c>
       <c r="C11" t="n">
-        <v>403</v>
+        <v>2764</v>
       </c>
       <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>64</v>
       </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" t="s">
-        <v>66</v>
-      </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L11" t="s"/>
     </row>
@@ -2696,106 +2848,110 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44159.7533637963</v>
+        <v>44160.74758551837</v>
       </c>
       <c r="C12" t="n">
-        <v>3058</v>
+        <v>442</v>
       </c>
       <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
         <v>67</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>68</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>69</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>70</v>
       </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" t="s">
-        <v>47</v>
-      </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="L12" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44159.75352131944</v>
+        <v>44160.74824410024</v>
       </c>
       <c r="C13" t="n">
-        <v>2095</v>
+        <v>367</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L13" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44159.75489728009</v>
+        <v>44160.74878441598</v>
       </c>
       <c r="C14" t="n">
-        <v>2384</v>
+        <v>3359</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" t="s">
         <v>25</v>
       </c>
-      <c r="I14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" t="s">
-        <v>38</v>
-      </c>
       <c r="K14" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L14" t="s"/>
     </row>
@@ -2804,34 +2960,34 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44159.75527634259</v>
+        <v>44159.78244555555</v>
       </c>
       <c r="C15" t="n">
-        <v>3018</v>
+        <v>1396</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" t="s">
         <v>25</v>
       </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" t="s">
-        <v>19</v>
-      </c>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" t="s"/>
     </row>
@@ -2840,34 +2996,34 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44159.75629989583</v>
+        <v>44159.78293993056</v>
       </c>
       <c r="C16" t="n">
-        <v>237</v>
+        <v>3171</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="I16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J16" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L16" t="s"/>
     </row>
@@ -2876,34 +3032,34 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44159.75682740741</v>
+        <v>44159.78447659722</v>
       </c>
       <c r="C17" t="n">
-        <v>2378</v>
+        <v>3338</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" t="s">
         <v>17</v>
       </c>
-      <c r="I17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" t="s">
-        <v>19</v>
-      </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L17" t="s"/>
     </row>
@@ -2912,34 +3068,34 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44159.75747008102</v>
+        <v>44159.78490432871</v>
       </c>
       <c r="C18" t="n">
-        <v>3660</v>
+        <v>1905</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
         <v>25</v>
       </c>
-      <c r="I18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" t="s">
-        <v>96</v>
-      </c>
       <c r="K18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L18" t="s"/>
     </row>
@@ -2948,10 +3104,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44159.75843940972</v>
+        <v>44159.78544173611</v>
       </c>
       <c r="C19" t="n">
-        <v>228</v>
+        <v>874</v>
       </c>
       <c r="D19" t="s">
         <v>97</v>
@@ -2963,19 +3119,19 @@
         <v>99</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="K19" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L19" t="s"/>
     </row>
@@ -2984,82 +3140,86 @@
         <v>12</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44159.75925945602</v>
+        <v>44159.78586815972</v>
       </c>
       <c r="C20" t="n">
-        <v>2631</v>
+        <v>190</v>
       </c>
       <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
         <v>101</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>102</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" t="s">
         <v>103</v>
       </c>
-      <c r="G20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" t="s">
-        <v>105</v>
-      </c>
-      <c r="J20" t="s">
-        <v>96</v>
-      </c>
-      <c r="K20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" t="s"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44159.75952259259</v>
+        <v>44159.78620431713</v>
       </c>
       <c r="C21" t="n">
-        <v>1821</v>
+        <v>2096</v>
       </c>
       <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" t="s">
         <v>106</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>107</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>108</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
         <v>109</v>
       </c>
-      <c r="H21" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" t="s"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44159.75188457176</v>
+        <v>44159.78680747685</v>
       </c>
       <c r="C22" t="n">
-        <v>3376</v>
+        <v>669</v>
       </c>
       <c r="D22" t="s">
         <v>110</v>
@@ -3074,16 +3234,16 @@
         <v>113</v>
       </c>
       <c r="H22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L22" t="s"/>
     </row>
@@ -3092,10 +3252,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44159.74467407407</v>
+        <v>44159.787293125</v>
       </c>
       <c r="C23" t="n">
-        <v>3276</v>
+        <v>3030</v>
       </c>
       <c r="D23" t="s">
         <v>114</v>
@@ -3110,130 +3270,124 @@
         <v>117</v>
       </c>
       <c r="H23" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="J23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" t="s">
-        <v>120</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L23" t="s"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44159.74606818287</v>
+        <v>44159.78774577547</v>
       </c>
       <c r="C24" t="n">
-        <v>2253</v>
+        <v>403</v>
       </c>
       <c r="D24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" t="s">
         <v>121</v>
       </c>
-      <c r="E24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" t="s">
-        <v>124</v>
-      </c>
       <c r="H24" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" t="s">
-        <v>126</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L24" t="s"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44159.74687033565</v>
+        <v>44159.7533637963</v>
       </c>
       <c r="C25" t="n">
-        <v>3098</v>
+        <v>3058</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G25" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H25" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K25" t="s">
-        <v>32</v>
-      </c>
-      <c r="L25" t="s">
-        <v>131</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L25" t="s"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44159.74722585648</v>
+        <v>44159.75352131944</v>
       </c>
       <c r="C26" t="n">
-        <v>2345</v>
+        <v>2095</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G26" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="K26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L26" t="s"/>
     </row>
@@ -3242,34 +3396,34 @@
         <v>12</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>44159.74879219908</v>
+        <v>44159.75489728009</v>
       </c>
       <c r="C27" t="n">
-        <v>513</v>
+        <v>2384</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F27" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G27" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K27" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L27" t="s"/>
     </row>
@@ -3278,34 +3432,34 @@
         <v>12</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>44159.74939453704</v>
+        <v>44159.75527634259</v>
       </c>
       <c r="C28" t="n">
-        <v>1256</v>
+        <v>3018</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E28" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F28" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G28" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" t="s">
         <v>25</v>
       </c>
-      <c r="I28" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" t="s">
-        <v>38</v>
-      </c>
       <c r="K28" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L28" t="s"/>
     </row>
@@ -3314,34 +3468,34 @@
         <v>12</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>44155.73170659722</v>
+        <v>44159.75629989583</v>
       </c>
       <c r="C29" t="n">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E29" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F29" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G29" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H29" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="I29" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="J29" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L29" t="s"/>
     </row>
@@ -3350,34 +3504,34 @@
         <v>12</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>44155.73238313657</v>
+        <v>44159.75682740741</v>
       </c>
       <c r="C30" t="n">
-        <v>987</v>
+        <v>2378</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E30" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F30" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G30" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H30" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K30" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L30" t="s"/>
     </row>
@@ -3386,72 +3540,70 @@
         <v>12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>44155.73315965278</v>
+        <v>44159.75747008102</v>
       </c>
       <c r="C31" t="n">
-        <v>2249</v>
+        <v>3660</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F31" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G31" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="J31" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="K31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" t="s">
-        <v>157</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="L31" t="s"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>44155.73395746528</v>
+        <v>44159.75843940972</v>
       </c>
       <c r="C32" t="n">
-        <v>666</v>
+        <v>228</v>
       </c>
       <c r="D32" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E32" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G32" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H32" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I32" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="K32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L32" t="s"/>
     </row>
@@ -3460,72 +3612,70 @@
         <v>12</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>44155.73425486111</v>
+        <v>44159.75925945602</v>
       </c>
       <c r="C33" t="n">
-        <v>3088</v>
+        <v>2631</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E33" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F33" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G33" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I33" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="J33" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="K33" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" t="s">
-        <v>166</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L33" t="s"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44155.73473486111</v>
+        <v>44159.75952259259</v>
       </c>
       <c r="C34" t="n">
-        <v>175</v>
+        <v>1821</v>
       </c>
       <c r="D34" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E34" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F34" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G34" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H34" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="I34" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="K34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L34" t="s"/>
     </row>
@@ -3534,34 +3684,34 @@
         <v>12</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44155.73540616898</v>
+        <v>44159.75188457176</v>
       </c>
       <c r="C35" t="n">
-        <v>864</v>
+        <v>3376</v>
       </c>
       <c r="D35" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E35" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F35" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G35" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H35" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L35" t="s"/>
     </row>
@@ -3570,37 +3720,37 @@
         <v>12</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44155.73567726852</v>
+        <v>44159.74467407407</v>
       </c>
       <c r="C36" t="n">
-        <v>1644</v>
+        <v>3276</v>
       </c>
       <c r="D36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" t="s">
+        <v>171</v>
+      </c>
+      <c r="G36" t="s">
+        <v>172</v>
+      </c>
+      <c r="H36" t="s">
+        <v>173</v>
+      </c>
+      <c r="I36" t="s">
+        <v>174</v>
+      </c>
+      <c r="J36" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" t="s">
         <v>175</v>
-      </c>
-      <c r="E36" t="s">
-        <v>176</v>
-      </c>
-      <c r="F36" t="s">
-        <v>177</v>
-      </c>
-      <c r="G36" t="s">
-        <v>178</v>
-      </c>
-      <c r="H36" t="s">
-        <v>53</v>
-      </c>
-      <c r="I36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J36" t="s">
-        <v>26</v>
-      </c>
-      <c r="K36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3608,144 +3758,146 @@
         <v>12</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44155.73785229167</v>
+        <v>44159.74606818287</v>
       </c>
       <c r="C37" t="n">
-        <v>737</v>
+        <v>2253</v>
       </c>
       <c r="D37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" t="s">
+        <v>178</v>
+      </c>
+      <c r="G37" t="s">
+        <v>179</v>
+      </c>
+      <c r="H37" t="s">
+        <v>151</v>
+      </c>
+      <c r="I37" t="s">
         <v>180</v>
       </c>
-      <c r="E37" t="s">
+      <c r="J37" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" t="s">
         <v>181</v>
       </c>
-      <c r="F37" t="s">
-        <v>182</v>
-      </c>
-      <c r="G37" t="s">
-        <v>183</v>
-      </c>
-      <c r="H37" t="s">
-        <v>25</v>
-      </c>
-      <c r="I37" t="s">
-        <v>26</v>
-      </c>
-      <c r="J37" t="s">
-        <v>19</v>
-      </c>
-      <c r="K37" t="s">
-        <v>32</v>
-      </c>
-      <c r="L37" t="s"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>44155.73837494213</v>
+        <v>44159.74687033565</v>
       </c>
       <c r="C38" t="n">
-        <v>3379</v>
+        <v>3098</v>
       </c>
       <c r="D38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" t="s">
         <v>184</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>185</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
+        <v>151</v>
+      </c>
+      <c r="I38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" t="s">
         <v>186</v>
       </c>
-      <c r="G38" t="s">
-        <v>187</v>
-      </c>
-      <c r="H38" t="s">
-        <v>37</v>
-      </c>
-      <c r="I38" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" t="s">
-        <v>26</v>
-      </c>
-      <c r="K38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" t="s"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>44155.73969543981</v>
+        <v>44159.74722585648</v>
       </c>
       <c r="C39" t="n">
-        <v>3246</v>
+        <v>2345</v>
       </c>
       <c r="D39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E39" t="s">
         <v>188</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>189</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>190</v>
       </c>
-      <c r="G39" t="s">
-        <v>191</v>
-      </c>
       <c r="H39" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="I39" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J39" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="K39" t="s">
-        <v>38</v>
-      </c>
-      <c r="L39" t="s">
-        <v>192</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L39" t="s"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44155.74013664352</v>
+        <v>44159.74879219908</v>
       </c>
       <c r="C40" t="n">
-        <v>1297</v>
+        <v>513</v>
       </c>
       <c r="D40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" t="s">
+        <v>192</v>
+      </c>
+      <c r="F40" t="s">
         <v>193</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>194</v>
       </c>
-      <c r="F40" t="s">
-        <v>195</v>
-      </c>
-      <c r="G40" t="s">
-        <v>196</v>
-      </c>
       <c r="H40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J40" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="K40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L40" t="s"/>
     </row>
@@ -3754,34 +3906,34 @@
         <v>12</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44155.74047944444</v>
+        <v>44159.74939453704</v>
       </c>
       <c r="C41" t="n">
-        <v>1555</v>
+        <v>1256</v>
       </c>
       <c r="D41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" t="s">
+        <v>196</v>
+      </c>
+      <c r="F41" t="s">
         <v>197</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>198</v>
       </c>
-      <c r="F41" t="s">
-        <v>199</v>
-      </c>
-      <c r="G41" t="s">
-        <v>200</v>
-      </c>
       <c r="H41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J41" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="K41" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L41" t="s"/>
     </row>
@@ -3790,25 +3942,25 @@
         <v>12</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44155.74120951389</v>
+        <v>44155.73170659722</v>
       </c>
       <c r="C42" t="n">
-        <v>1536</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
+        <v>199</v>
+      </c>
+      <c r="E42" t="s">
+        <v>200</v>
+      </c>
+      <c r="F42" t="s">
         <v>201</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>202</v>
       </c>
-      <c r="F42" t="s">
-        <v>203</v>
-      </c>
-      <c r="G42" t="s">
-        <v>204</v>
-      </c>
       <c r="H42" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I42" t="s">
         <v>18</v>
@@ -3817,7 +3969,7 @@
         <v>19</v>
       </c>
       <c r="K42" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L42" t="s"/>
     </row>
@@ -3826,34 +3978,34 @@
         <v>12</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44155.74188298611</v>
+        <v>44155.73238313657</v>
       </c>
       <c r="C43" t="n">
-        <v>167</v>
+        <v>987</v>
       </c>
       <c r="D43" t="s">
+        <v>203</v>
+      </c>
+      <c r="E43" t="s">
+        <v>204</v>
+      </c>
+      <c r="F43" t="s">
         <v>205</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>206</v>
       </c>
-      <c r="F43" t="s">
-        <v>207</v>
-      </c>
-      <c r="G43" t="s">
-        <v>208</v>
-      </c>
       <c r="H43" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="J43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K43" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L43" t="s"/>
     </row>
@@ -3862,37 +4014,37 @@
         <v>12</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44155.74249112268</v>
+        <v>44155.73315965278</v>
       </c>
       <c r="C44" t="n">
-        <v>222</v>
+        <v>2249</v>
       </c>
       <c r="D44" t="s">
+        <v>207</v>
+      </c>
+      <c r="E44" t="s">
+        <v>208</v>
+      </c>
+      <c r="F44" t="s">
         <v>209</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>210</v>
       </c>
-      <c r="F44" t="s">
+      <c r="H44" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" t="s">
         <v>211</v>
       </c>
-      <c r="G44" t="s">
+      <c r="J44" t="s">
+        <v>30</v>
+      </c>
+      <c r="K44" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" t="s">
         <v>212</v>
-      </c>
-      <c r="H44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" t="s">
-        <v>47</v>
-      </c>
-      <c r="J44" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L44" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3900,108 +4052,108 @@
         <v>12</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44155.74277087963</v>
+        <v>44155.73395746528</v>
       </c>
       <c r="C45" t="n">
-        <v>3216</v>
+        <v>666</v>
       </c>
       <c r="D45" t="s">
+        <v>213</v>
+      </c>
+      <c r="E45" t="s">
         <v>214</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>215</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>216</v>
       </c>
-      <c r="G45" t="s">
-        <v>217</v>
-      </c>
       <c r="H45" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I45" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="J45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K45" t="s">
-        <v>20</v>
-      </c>
-      <c r="L45" t="s">
-        <v>218</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L45" t="s"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44155.74296745371</v>
+        <v>44155.73425486111</v>
       </c>
       <c r="C46" t="n">
-        <v>3110</v>
+        <v>3088</v>
       </c>
       <c r="D46" t="s">
+        <v>217</v>
+      </c>
+      <c r="E46" t="s">
+        <v>218</v>
+      </c>
+      <c r="F46" t="s">
         <v>219</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>220</v>
       </c>
-      <c r="F46" t="s">
+      <c r="H46" t="s">
+        <v>108</v>
+      </c>
+      <c r="I46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" t="s">
+        <v>70</v>
+      </c>
+      <c r="K46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" t="s">
         <v>221</v>
       </c>
-      <c r="G46" t="s">
-        <v>222</v>
-      </c>
-      <c r="H46" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46" t="s">
-        <v>47</v>
-      </c>
-      <c r="J46" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" t="s"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44155.74395903936</v>
+        <v>44155.73473486111</v>
       </c>
       <c r="C47" t="n">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="D47" t="s">
+        <v>222</v>
+      </c>
+      <c r="E47" t="s">
         <v>223</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>224</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>225</v>
       </c>
-      <c r="G47" t="s">
-        <v>226</v>
-      </c>
       <c r="H47" t="s">
-        <v>227</v>
+        <v>25</v>
       </c>
       <c r="I47" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J47" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L47" t="s"/>
     </row>
@@ -4010,34 +4162,34 @@
         <v>12</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44155.74428769676</v>
+        <v>44155.73540616898</v>
       </c>
       <c r="C48" t="n">
-        <v>1022</v>
+        <v>864</v>
       </c>
       <c r="D48" t="s">
+        <v>226</v>
+      </c>
+      <c r="E48" t="s">
+        <v>227</v>
+      </c>
+      <c r="F48" t="s">
         <v>228</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>229</v>
       </c>
-      <c r="F48" t="s">
-        <v>230</v>
-      </c>
-      <c r="G48" t="s">
-        <v>231</v>
-      </c>
       <c r="H48" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J48" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="K48" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L48" t="s"/>
     </row>
@@ -4046,37 +4198,37 @@
         <v>12</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44155.74493398148</v>
+        <v>44155.73567726852</v>
       </c>
       <c r="C49" t="n">
-        <v>1466</v>
+        <v>1644</v>
       </c>
       <c r="D49" t="s">
+        <v>230</v>
+      </c>
+      <c r="E49" t="s">
+        <v>231</v>
+      </c>
+      <c r="F49" t="s">
         <v>232</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>233</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H49" t="s">
+        <v>108</v>
+      </c>
+      <c r="I49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" t="s">
+        <v>70</v>
+      </c>
+      <c r="K49" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" t="s">
         <v>234</v>
-      </c>
-      <c r="G49" t="s">
-        <v>235</v>
-      </c>
-      <c r="H49" t="s">
-        <v>37</v>
-      </c>
-      <c r="I49" t="s">
-        <v>125</v>
-      </c>
-      <c r="J49" t="s">
-        <v>26</v>
-      </c>
-      <c r="K49" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -4084,72 +4236,70 @@
         <v>12</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44154.7721688426</v>
+        <v>44155.73785229167</v>
       </c>
       <c r="C50" t="n">
-        <v>1765</v>
+        <v>737</v>
       </c>
       <c r="D50" t="s">
+        <v>235</v>
+      </c>
+      <c r="E50" t="s">
+        <v>236</v>
+      </c>
+      <c r="F50" t="s">
         <v>237</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
         <v>238</v>
       </c>
-      <c r="F50" t="s">
-        <v>239</v>
-      </c>
-      <c r="G50" t="s">
-        <v>240</v>
-      </c>
       <c r="H50" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="J50" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K50" t="s">
-        <v>20</v>
-      </c>
-      <c r="L50" t="s">
-        <v>241</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L50" t="s"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44154.77410748843</v>
+        <v>44155.73837494213</v>
       </c>
       <c r="C51" t="n">
-        <v>2940</v>
+        <v>3379</v>
       </c>
       <c r="D51" t="s">
+        <v>239</v>
+      </c>
+      <c r="E51" t="s">
+        <v>240</v>
+      </c>
+      <c r="F51" t="s">
+        <v>241</v>
+      </c>
+      <c r="G51" t="s">
         <v>242</v>
       </c>
-      <c r="E51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F51" t="s">
-        <v>244</v>
-      </c>
-      <c r="G51" t="s">
-        <v>245</v>
-      </c>
       <c r="H51" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J51" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="K51" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L51" t="s"/>
     </row>
@@ -4158,70 +4308,72 @@
         <v>12</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44154.77493980324</v>
+        <v>44155.73969543981</v>
       </c>
       <c r="C52" t="n">
-        <v>3744</v>
+        <v>3246</v>
       </c>
       <c r="D52" t="s">
+        <v>243</v>
+      </c>
+      <c r="E52" t="s">
+        <v>244</v>
+      </c>
+      <c r="F52" t="s">
+        <v>245</v>
+      </c>
+      <c r="G52" t="s">
         <v>246</v>
       </c>
-      <c r="E52" t="s">
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" t="s">
+        <v>30</v>
+      </c>
+      <c r="K52" t="s">
+        <v>41</v>
+      </c>
+      <c r="L52" t="s">
         <v>247</v>
       </c>
-      <c r="F52" t="s">
-        <v>248</v>
-      </c>
-      <c r="G52" t="s">
-        <v>249</v>
-      </c>
-      <c r="H52" t="s">
-        <v>25</v>
-      </c>
-      <c r="I52" t="s">
-        <v>18</v>
-      </c>
-      <c r="J52" t="s">
-        <v>19</v>
-      </c>
-      <c r="K52" t="s">
-        <v>20</v>
-      </c>
-      <c r="L52" t="s"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44154.77544891203</v>
+        <v>44155.74013664352</v>
       </c>
       <c r="C53" t="n">
-        <v>3469</v>
+        <v>1297</v>
       </c>
       <c r="D53" t="s">
+        <v>248</v>
+      </c>
+      <c r="E53" t="s">
+        <v>249</v>
+      </c>
+      <c r="F53" t="s">
         <v>250</v>
       </c>
-      <c r="E53" t="s">
+      <c r="G53" t="s">
         <v>251</v>
       </c>
-      <c r="F53" t="s">
-        <v>252</v>
-      </c>
-      <c r="G53" t="s">
-        <v>253</v>
-      </c>
       <c r="H53" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L53" t="s"/>
     </row>
@@ -4230,34 +4382,34 @@
         <v>12</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44154.77620284722</v>
+        <v>44155.74047944444</v>
       </c>
       <c r="C54" t="n">
-        <v>1419</v>
+        <v>1555</v>
       </c>
       <c r="D54" t="s">
+        <v>252</v>
+      </c>
+      <c r="E54" t="s">
+        <v>253</v>
+      </c>
+      <c r="F54" t="s">
         <v>254</v>
       </c>
-      <c r="E54" t="s">
+      <c r="G54" t="s">
         <v>255</v>
       </c>
-      <c r="F54" t="s">
-        <v>256</v>
-      </c>
-      <c r="G54" t="s">
-        <v>257</v>
-      </c>
       <c r="H54" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I54" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J54" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="K54" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L54" t="s"/>
     </row>
@@ -4266,34 +4418,34 @@
         <v>12</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>44154.77733231481</v>
+        <v>44155.74120951389</v>
       </c>
       <c r="C55" t="n">
-        <v>2861</v>
+        <v>1536</v>
       </c>
       <c r="D55" t="s">
+        <v>256</v>
+      </c>
+      <c r="E55" t="s">
+        <v>257</v>
+      </c>
+      <c r="F55" t="s">
         <v>258</v>
       </c>
-      <c r="E55" t="s">
+      <c r="G55" t="s">
         <v>259</v>
       </c>
-      <c r="F55" t="s">
-        <v>260</v>
-      </c>
-      <c r="G55" t="s">
-        <v>261</v>
-      </c>
       <c r="H55" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I55" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="J55" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K55" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L55" t="s"/>
     </row>
@@ -4302,34 +4454,34 @@
         <v>12</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44154.778458125</v>
+        <v>44155.74188298611</v>
       </c>
       <c r="C56" t="n">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="D56" t="s">
+        <v>260</v>
+      </c>
+      <c r="E56" t="s">
+        <v>261</v>
+      </c>
+      <c r="F56" t="s">
         <v>262</v>
       </c>
-      <c r="E56" t="s">
+      <c r="G56" t="s">
         <v>263</v>
       </c>
-      <c r="F56" t="s">
-        <v>264</v>
-      </c>
-      <c r="G56" t="s">
-        <v>265</v>
-      </c>
       <c r="H56" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I56" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J56" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L56" t="s"/>
     </row>
@@ -4338,73 +4490,75 @@
         <v>12</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44154.77909887731</v>
+        <v>44155.74249112268</v>
       </c>
       <c r="C57" t="n">
-        <v>1277</v>
+        <v>222</v>
       </c>
       <c r="D57" t="s">
+        <v>264</v>
+      </c>
+      <c r="E57" t="s">
+        <v>265</v>
+      </c>
+      <c r="F57" t="s">
         <v>266</v>
       </c>
-      <c r="E57" t="s">
+      <c r="G57" t="s">
         <v>267</v>
       </c>
-      <c r="F57" t="s">
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s">
+        <v>30</v>
+      </c>
+      <c r="K57" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" t="s">
         <v>268</v>
       </c>
-      <c r="G57" t="s">
-        <v>269</v>
-      </c>
-      <c r="H57" t="s">
-        <v>25</v>
-      </c>
-      <c r="I57" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" t="s">
-        <v>19</v>
-      </c>
-      <c r="K57" t="s">
-        <v>20</v>
-      </c>
-      <c r="L57" t="s"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>12</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44154.78025189815</v>
+        <v>44155.74277087963</v>
       </c>
       <c r="C58" t="n">
-        <v>1136</v>
+        <v>3216</v>
       </c>
       <c r="D58" t="s">
+        <v>269</v>
+      </c>
+      <c r="E58" t="s">
         <v>270</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>271</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>272</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
+        <v>108</v>
+      </c>
+      <c r="I58" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" t="s">
+        <v>70</v>
+      </c>
+      <c r="K58" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" t="s">
         <v>273</v>
-      </c>
-      <c r="H58" t="s">
-        <v>96</v>
-      </c>
-      <c r="I58" t="s">
-        <v>31</v>
-      </c>
-      <c r="J58" t="s">
-        <v>18</v>
-      </c>
-      <c r="K58" t="s">
-        <v>20</v>
-      </c>
-      <c r="L58" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4412,34 +4566,34 @@
         <v>12</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44154.7886525463</v>
+        <v>44155.74296745371</v>
       </c>
       <c r="C59" t="n">
-        <v>768</v>
+        <v>3110</v>
       </c>
       <c r="D59" t="s">
+        <v>274</v>
+      </c>
+      <c r="E59" t="s">
         <v>275</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>276</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>277</v>
       </c>
-      <c r="G59" t="s">
-        <v>278</v>
-      </c>
       <c r="H59" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I59" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J59" t="s">
         <v>19</v>
       </c>
       <c r="K59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L59" t="s"/>
     </row>
@@ -4448,72 +4602,70 @@
         <v>12</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44154.79067495371</v>
+        <v>44155.74395903936</v>
       </c>
       <c r="C60" t="n">
-        <v>445</v>
+        <v>138</v>
       </c>
       <c r="D60" t="s">
+        <v>278</v>
+      </c>
+      <c r="E60" t="s">
         <v>279</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>280</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>281</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>282</v>
       </c>
-      <c r="H60" t="s">
-        <v>25</v>
-      </c>
       <c r="I60" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K60" t="s">
-        <v>32</v>
-      </c>
-      <c r="L60" t="s">
-        <v>283</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L60" t="s"/>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44154.79188466435</v>
+        <v>44155.74428769676</v>
       </c>
       <c r="C61" t="n">
-        <v>794</v>
+        <v>1022</v>
       </c>
       <c r="D61" t="s">
+        <v>283</v>
+      </c>
+      <c r="E61" t="s">
         <v>284</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>285</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>286</v>
       </c>
-      <c r="G61" t="s">
-        <v>282</v>
-      </c>
       <c r="H61" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K61" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L61" t="s"/>
     </row>
@@ -4522,10 +4674,10 @@
         <v>12</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44154.79298895833</v>
+        <v>44155.74493398148</v>
       </c>
       <c r="C62" t="n">
-        <v>1948</v>
+        <v>1466</v>
       </c>
       <c r="D62" t="s">
         <v>287</v>
@@ -4540,13 +4692,13 @@
         <v>290</v>
       </c>
       <c r="H62" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I62" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="J62" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K62" t="s">
         <v>19</v>
@@ -4560,10 +4712,10 @@
         <v>12</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44154.79340069444</v>
+        <v>44154.7721688426</v>
       </c>
       <c r="C63" t="n">
-        <v>1429</v>
+        <v>1765</v>
       </c>
       <c r="D63" t="s">
         <v>292</v>
@@ -4578,52 +4730,54 @@
         <v>295</v>
       </c>
       <c r="H63" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="I63" t="s">
         <v>18</v>
       </c>
       <c r="J63" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="K63" t="s">
-        <v>20</v>
-      </c>
-      <c r="L63" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L63" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>12</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44154.79398876157</v>
+        <v>44154.77410748843</v>
       </c>
       <c r="C64" t="n">
-        <v>1511</v>
+        <v>2940</v>
       </c>
       <c r="D64" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E64" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F64" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G64" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H64" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="I64" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="J64" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="K64" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L64" t="s"/>
     </row>
@@ -4632,48 +4786,46 @@
         <v>12</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44154.79457364584</v>
+        <v>44154.77493980324</v>
       </c>
       <c r="C65" t="n">
-        <v>2860</v>
+        <v>3744</v>
       </c>
       <c r="D65" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E65" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F65" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G65" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="I65" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="J65" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K65" t="s">
-        <v>20</v>
-      </c>
-      <c r="L65" t="s">
-        <v>304</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L65" t="s"/>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>12</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44154.79515041666</v>
+        <v>44154.77544891203</v>
       </c>
       <c r="C66" t="n">
-        <v>2376</v>
+        <v>3469</v>
       </c>
       <c r="D66" t="s">
         <v>305</v>
@@ -4688,54 +4840,52 @@
         <v>308</v>
       </c>
       <c r="H66" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="I66" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J66" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="K66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L66" t="s">
-        <v>309</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L66" t="s"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>12</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44154.79556157407</v>
+        <v>44154.77620284722</v>
       </c>
       <c r="C67" t="n">
-        <v>1997</v>
+        <v>1419</v>
       </c>
       <c r="D67" t="s">
+        <v>309</v>
+      </c>
+      <c r="E67" t="s">
         <v>310</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>311</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>312</v>
       </c>
-      <c r="G67" t="s">
-        <v>313</v>
-      </c>
       <c r="H67" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I67" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J67" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K67" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L67" t="s"/>
     </row>
@@ -4744,48 +4894,46 @@
         <v>12</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44154.79606214121</v>
+        <v>44154.77733231481</v>
       </c>
       <c r="C68" t="n">
-        <v>595</v>
+        <v>2861</v>
       </c>
       <c r="D68" t="s">
+        <v>313</v>
+      </c>
+      <c r="E68" t="s">
         <v>314</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>315</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>316</v>
       </c>
-      <c r="G68" t="s">
-        <v>282</v>
-      </c>
       <c r="H68" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I68" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J68" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="K68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L68" t="s">
-        <v>283</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L68" t="s"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>12</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44154.79688260417</v>
+        <v>44154.778458125</v>
       </c>
       <c r="C69" t="n">
-        <v>3715</v>
+        <v>229</v>
       </c>
       <c r="D69" t="s">
         <v>317</v>
@@ -4800,54 +4948,52 @@
         <v>320</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="I69" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="J69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K69" t="s">
-        <v>20</v>
-      </c>
-      <c r="L69" t="s">
-        <v>321</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L69" t="s"/>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>12</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44154.79758924768</v>
+        <v>44154.77909887731</v>
       </c>
       <c r="C70" t="n">
-        <v>3369</v>
+        <v>1277</v>
       </c>
       <c r="D70" t="s">
+        <v>321</v>
+      </c>
+      <c r="E70" t="s">
         <v>322</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>323</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>324</v>
       </c>
-      <c r="G70" t="s">
-        <v>325</v>
-      </c>
       <c r="H70" t="s">
+        <v>24</v>
+      </c>
+      <c r="I70" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" t="s">
         <v>25</v>
       </c>
-      <c r="I70" t="s">
-        <v>18</v>
-      </c>
-      <c r="J70" t="s">
-        <v>19</v>
-      </c>
       <c r="K70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L70" t="s"/>
     </row>
@@ -4856,46 +5002,48 @@
         <v>12</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44154.79803195602</v>
+        <v>44154.78025189815</v>
       </c>
       <c r="C71" t="n">
-        <v>1824</v>
+        <v>1136</v>
       </c>
       <c r="D71" t="s">
+        <v>325</v>
+      </c>
+      <c r="E71" t="s">
         <v>326</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>327</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>328</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
+        <v>151</v>
+      </c>
+      <c r="I71" t="s">
+        <v>40</v>
+      </c>
+      <c r="J71" t="s">
+        <v>30</v>
+      </c>
+      <c r="K71" t="s">
+        <v>19</v>
+      </c>
+      <c r="L71" t="s">
         <v>329</v>
       </c>
-      <c r="H71" t="s">
-        <v>53</v>
-      </c>
-      <c r="I71" t="s">
-        <v>47</v>
-      </c>
-      <c r="J71" t="s">
-        <v>26</v>
-      </c>
-      <c r="K71" t="s">
-        <v>20</v>
-      </c>
-      <c r="L71" t="s"/>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>12</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44154.7984553125</v>
+        <v>44154.7886525463</v>
       </c>
       <c r="C72" t="n">
-        <v>583</v>
+        <v>768</v>
       </c>
       <c r="D72" t="s">
         <v>330</v>
@@ -4907,93 +5055,93 @@
         <v>332</v>
       </c>
       <c r="G72" t="s">
-        <v>155</v>
+        <v>333</v>
       </c>
       <c r="H72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I72" t="s">
+        <v>70</v>
+      </c>
+      <c r="J72" t="s">
         <v>25</v>
       </c>
-      <c r="I72" t="s">
-        <v>32</v>
-      </c>
-      <c r="J72" t="s">
-        <v>18</v>
-      </c>
       <c r="K72" t="s">
-        <v>20</v>
-      </c>
-      <c r="L72" t="s">
-        <v>283</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L72" t="s"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
         <v>12</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44154.79909991898</v>
+        <v>44154.79067495371</v>
       </c>
       <c r="C73" t="n">
-        <v>1271</v>
+        <v>445</v>
       </c>
       <c r="D73" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E73" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F73" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G73" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I73" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J73" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K73" t="s">
-        <v>20</v>
-      </c>
-      <c r="L73" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="L73" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>12</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44154.80007766204</v>
+        <v>44154.79188466435</v>
       </c>
       <c r="C74" t="n">
-        <v>1869</v>
+        <v>794</v>
       </c>
       <c r="D74" t="s">
+        <v>339</v>
+      </c>
+      <c r="E74" t="s">
+        <v>340</v>
+      </c>
+      <c r="F74" t="s">
+        <v>341</v>
+      </c>
+      <c r="G74" t="s">
         <v>337</v>
       </c>
-      <c r="E74" t="s">
-        <v>338</v>
-      </c>
-      <c r="F74" t="s">
-        <v>339</v>
-      </c>
-      <c r="G74" t="s">
-        <v>340</v>
-      </c>
       <c r="H74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I74" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J74" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K74" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L74" t="s"/>
     </row>
@@ -5002,37 +5150,37 @@
         <v>12</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44154.69819569444</v>
+        <v>44154.79298895833</v>
       </c>
       <c r="C75" t="n">
-        <v>702</v>
+        <v>1948</v>
       </c>
       <c r="D75" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E75" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F75" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G75" t="s">
-        <v>155</v>
+        <v>345</v>
       </c>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="I75" t="s">
-        <v>344</v>
+        <v>70</v>
       </c>
       <c r="J75" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K75" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L75" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -5040,48 +5188,46 @@
         <v>12</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44154.69934395833</v>
+        <v>44154.79340069444</v>
       </c>
       <c r="C76" t="n">
-        <v>423</v>
+        <v>1429</v>
       </c>
       <c r="D76" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E76" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F76" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G76" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="I76" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="J76" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K76" t="s">
-        <v>20</v>
-      </c>
-      <c r="L76" t="s">
-        <v>350</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L76" t="s"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
         <v>12</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44154.69987591435</v>
+        <v>44154.79398876157</v>
       </c>
       <c r="C77" t="n">
-        <v>211</v>
+        <v>1511</v>
       </c>
       <c r="D77" t="s">
         <v>351</v>
@@ -5096,16 +5242,16 @@
         <v>354</v>
       </c>
       <c r="H77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I77" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J77" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L77" t="s"/>
     </row>
@@ -5114,10 +5260,10 @@
         <v>12</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44154.70088510417</v>
+        <v>44154.79457364584</v>
       </c>
       <c r="C78" t="n">
-        <v>3419</v>
+        <v>2860</v>
       </c>
       <c r="D78" t="s">
         <v>355</v>
@@ -5132,16 +5278,16 @@
         <v>358</v>
       </c>
       <c r="H78" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I78" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J78" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L78" t="s">
         <v>359</v>
@@ -5152,10 +5298,10 @@
         <v>12</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>44154.70140253472</v>
+        <v>44154.79515041666</v>
       </c>
       <c r="C79" t="n">
-        <v>2074</v>
+        <v>2376</v>
       </c>
       <c r="D79" t="s">
         <v>360</v>
@@ -5170,52 +5316,54 @@
         <v>363</v>
       </c>
       <c r="H79" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I79" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J79" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K79" t="s">
-        <v>32</v>
-      </c>
-      <c r="L79" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L79" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
         <v>12</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>44154.70263350695</v>
+        <v>44154.79556157407</v>
       </c>
       <c r="C80" t="n">
-        <v>183</v>
+        <v>1997</v>
       </c>
       <c r="D80" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E80" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F80" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G80" t="s">
-        <v>100</v>
+        <v>368</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="I80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J80" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="K80" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L80" t="s"/>
     </row>
@@ -5224,144 +5372,146 @@
         <v>12</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>44154.70319071759</v>
+        <v>44154.79606214121</v>
       </c>
       <c r="C81" t="n">
-        <v>847</v>
+        <v>595</v>
       </c>
       <c r="D81" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E81" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F81" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G81" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="H81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I81" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J81" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K81" t="s">
-        <v>20</v>
-      </c>
-      <c r="L81" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L81" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
         <v>12</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>44154.70363350694</v>
+        <v>44154.79688260417</v>
       </c>
       <c r="C82" t="n">
-        <v>27</v>
+        <v>3715</v>
       </c>
       <c r="D82" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E82" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F82" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G82" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H82" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I82" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="J82" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K82" t="s">
-        <v>20</v>
-      </c>
-      <c r="L82" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L82" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
         <v>12</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44154.70392996528</v>
+        <v>44154.79758924768</v>
       </c>
       <c r="C83" t="n">
-        <v>1587</v>
+        <v>3369</v>
       </c>
       <c r="D83" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E83" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F83" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G83" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H83" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I83" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="J83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K83" t="s">
-        <v>20</v>
-      </c>
-      <c r="L83" t="s">
-        <v>378</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L83" t="s"/>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>12</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>44154.70447649305</v>
+        <v>44154.79803195602</v>
       </c>
       <c r="C84" t="n">
-        <v>1510</v>
+        <v>1824</v>
       </c>
       <c r="D84" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E84" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F84" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G84" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H84" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="I84" t="s">
         <v>18</v>
       </c>
       <c r="J84" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="K84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L84" t="s"/>
     </row>
@@ -5370,70 +5520,72 @@
         <v>12</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>44154.70549010417</v>
+        <v>44154.7984553125</v>
       </c>
       <c r="C85" t="n">
-        <v>631</v>
+        <v>583</v>
       </c>
       <c r="D85" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E85" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F85" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G85" t="s">
-        <v>386</v>
+        <v>210</v>
       </c>
       <c r="H85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I85" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J85" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K85" t="s">
-        <v>20</v>
-      </c>
-      <c r="L85" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L85" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
         <v>12</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>44154.70597778935</v>
+        <v>44154.79909991898</v>
       </c>
       <c r="C86" t="n">
-        <v>2198</v>
+        <v>1271</v>
       </c>
       <c r="D86" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E86" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F86" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G86" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H86" t="s">
+        <v>24</v>
+      </c>
+      <c r="I86" t="s">
+        <v>70</v>
+      </c>
+      <c r="J86" t="s">
         <v>25</v>
       </c>
-      <c r="I86" t="s">
-        <v>18</v>
-      </c>
-      <c r="J86" t="s">
-        <v>19</v>
-      </c>
       <c r="K86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L86" t="s"/>
     </row>
@@ -5442,48 +5594,46 @@
         <v>12</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>44154.70629576389</v>
+        <v>44154.80007766204</v>
       </c>
       <c r="C87" t="n">
-        <v>3797</v>
+        <v>1869</v>
       </c>
       <c r="D87" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E87" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F87" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G87" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H87" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I87" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J87" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K87" t="s">
-        <v>20</v>
-      </c>
-      <c r="L87" t="s">
-        <v>395</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L87" t="s"/>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
         <v>12</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>44154.70677894676</v>
+        <v>44154.69819569444</v>
       </c>
       <c r="C88" t="n">
-        <v>275</v>
+        <v>702</v>
       </c>
       <c r="D88" t="s">
         <v>396</v>
@@ -5495,31 +5645,33 @@
         <v>398</v>
       </c>
       <c r="G88" t="s">
+        <v>210</v>
+      </c>
+      <c r="H88" t="s">
+        <v>151</v>
+      </c>
+      <c r="I88" t="s">
         <v>399</v>
       </c>
-      <c r="H88" t="s">
-        <v>25</v>
-      </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
+        <v>30</v>
+      </c>
+      <c r="K88" t="s">
+        <v>19</v>
+      </c>
+      <c r="L88" t="s">
         <v>400</v>
       </c>
-      <c r="J88" t="s">
-        <v>26</v>
-      </c>
-      <c r="K88" t="s">
-        <v>20</v>
-      </c>
-      <c r="L88" t="s"/>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
         <v>12</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>44154.70703077546</v>
+        <v>44154.69934395833</v>
       </c>
       <c r="C89" t="n">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="D89" t="s">
         <v>401</v>
@@ -5534,28 +5686,30 @@
         <v>404</v>
       </c>
       <c r="H89" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" t="s">
+        <v>25</v>
+      </c>
+      <c r="K89" t="s">
+        <v>19</v>
+      </c>
+      <c r="L89" t="s">
         <v>405</v>
       </c>
-      <c r="I89" t="s">
-        <v>47</v>
-      </c>
-      <c r="J89" t="s">
-        <v>31</v>
-      </c>
-      <c r="K89" t="s">
-        <v>20</v>
-      </c>
-      <c r="L89" t="s"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
         <v>12</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>44154.70736740741</v>
+        <v>44154.69987591435</v>
       </c>
       <c r="C90" t="n">
-        <v>1906</v>
+        <v>211</v>
       </c>
       <c r="D90" t="s">
         <v>406</v>
@@ -5567,69 +5721,69 @@
         <v>408</v>
       </c>
       <c r="G90" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="H90" t="s">
+        <v>24</v>
+      </c>
+      <c r="I90" t="s">
+        <v>70</v>
+      </c>
+      <c r="J90" t="s">
         <v>25</v>
       </c>
-      <c r="I90" t="s">
-        <v>32</v>
-      </c>
-      <c r="J90" t="s">
-        <v>18</v>
-      </c>
       <c r="K90" t="s">
-        <v>20</v>
-      </c>
-      <c r="L90" t="s">
-        <v>409</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L90" t="s"/>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
         <v>12</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>44154.70763553241</v>
+        <v>44154.70088510417</v>
       </c>
       <c r="C91" t="n">
-        <v>2977</v>
+        <v>3419</v>
       </c>
       <c r="D91" t="s">
+        <v>409</v>
+      </c>
+      <c r="E91" t="s">
         <v>410</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>411</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>412</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
+        <v>108</v>
+      </c>
+      <c r="I91" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" t="s">
+        <v>70</v>
+      </c>
+      <c r="K91" t="s">
+        <v>19</v>
+      </c>
+      <c r="L91" t="s">
         <v>413</v>
       </c>
-      <c r="H91" t="s">
-        <v>25</v>
-      </c>
-      <c r="I91" t="s">
-        <v>20</v>
-      </c>
-      <c r="J91" t="s">
-        <v>19</v>
-      </c>
-      <c r="K91" t="s">
-        <v>20</v>
-      </c>
-      <c r="L91" t="s"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
         <v>12</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>44154.70829784722</v>
+        <v>44154.70140253472</v>
       </c>
       <c r="C92" t="n">
-        <v>465</v>
+        <v>2074</v>
       </c>
       <c r="D92" t="s">
         <v>414</v>
@@ -5644,16 +5798,16 @@
         <v>417</v>
       </c>
       <c r="H92" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I92" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J92" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K92" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L92" t="s"/>
     </row>
@@ -5662,10 +5816,10 @@
         <v>12</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>44154.70866863426</v>
+        <v>44154.70263350695</v>
       </c>
       <c r="C93" t="n">
-        <v>566</v>
+        <v>183</v>
       </c>
       <c r="D93" t="s">
         <v>418</v>
@@ -5680,30 +5834,28 @@
         <v>155</v>
       </c>
       <c r="H93" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I93" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J93" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="K93" t="s">
-        <v>20</v>
-      </c>
-      <c r="L93" t="s">
-        <v>283</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L93" t="s"/>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
         <v>12</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>44154.70929016203</v>
+        <v>44154.70319071759</v>
       </c>
       <c r="C94" t="n">
-        <v>81</v>
+        <v>847</v>
       </c>
       <c r="D94" t="s">
         <v>421</v>
@@ -5715,19 +5867,19 @@
         <v>423</v>
       </c>
       <c r="G94" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="H94" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L94" t="s"/>
     </row>
@@ -5736,108 +5888,108 @@
         <v>12</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>44154.70976986111</v>
+        <v>44154.70363350694</v>
       </c>
       <c r="C95" t="n">
-        <v>1837</v>
+        <v>27</v>
       </c>
       <c r="D95" t="s">
+        <v>424</v>
+      </c>
+      <c r="E95" t="s">
         <v>425</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>426</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>427</v>
       </c>
-      <c r="G95" t="s">
-        <v>428</v>
-      </c>
       <c r="H95" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I95" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J95" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K95" t="s">
-        <v>20</v>
-      </c>
-      <c r="L95" t="s">
-        <v>429</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L95" t="s"/>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
         <v>12</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>44154.71052581019</v>
+        <v>44154.70392996528</v>
       </c>
       <c r="C96" t="n">
-        <v>1446</v>
+        <v>1587</v>
       </c>
       <c r="D96" t="s">
+        <v>428</v>
+      </c>
+      <c r="E96" t="s">
+        <v>429</v>
+      </c>
+      <c r="F96" t="s">
         <v>430</v>
       </c>
-      <c r="E96" t="s">
+      <c r="G96" t="s">
         <v>431</v>
       </c>
-      <c r="F96" t="s">
-        <v>432</v>
-      </c>
-      <c r="G96" t="s">
-        <v>433</v>
-      </c>
       <c r="H96" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="I96" t="s">
         <v>18</v>
       </c>
       <c r="J96" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K96" t="s">
-        <v>20</v>
-      </c>
-      <c r="L96" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L96" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
         <v>12</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>44154.71083821759</v>
+        <v>44154.70447649305</v>
       </c>
       <c r="C97" t="n">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="D97" t="s">
+        <v>433</v>
+      </c>
+      <c r="E97" t="s">
         <v>434</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>435</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>436</v>
       </c>
-      <c r="G97" t="s">
-        <v>437</v>
-      </c>
       <c r="H97" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I97" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J97" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="K97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L97" t="s"/>
     </row>
@@ -5846,72 +5998,70 @@
         <v>12</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>44154.71164583333</v>
+        <v>44154.70549010417</v>
       </c>
       <c r="C98" t="n">
-        <v>1975</v>
+        <v>631</v>
       </c>
       <c r="D98" t="s">
+        <v>437</v>
+      </c>
+      <c r="E98" t="s">
         <v>438</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>439</v>
       </c>
-      <c r="F98" t="s">
-        <v>440</v>
-      </c>
       <c r="G98" t="s">
-        <v>441</v>
+        <v>80</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="I98" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J98" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K98" t="s">
-        <v>38</v>
-      </c>
-      <c r="L98" t="s">
-        <v>442</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L98" t="s"/>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
         <v>12</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>44154.71525582176</v>
+        <v>44154.70597778935</v>
       </c>
       <c r="C99" t="n">
-        <v>1508</v>
+        <v>2198</v>
       </c>
       <c r="D99" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E99" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F99" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G99" t="s">
-        <v>446</v>
+        <v>64</v>
       </c>
       <c r="H99" t="s">
+        <v>24</v>
+      </c>
+      <c r="I99" t="s">
+        <v>30</v>
+      </c>
+      <c r="J99" t="s">
         <v>25</v>
       </c>
-      <c r="I99" t="s">
-        <v>25</v>
-      </c>
-      <c r="J99" t="s">
-        <v>38</v>
-      </c>
       <c r="K99" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L99" t="s"/>
     </row>
@@ -5920,70 +6070,72 @@
         <v>12</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>44154.71736768518</v>
+        <v>44154.70629576389</v>
       </c>
       <c r="C100" t="n">
-        <v>2973</v>
+        <v>3797</v>
       </c>
       <c r="D100" t="s">
+        <v>443</v>
+      </c>
+      <c r="E100" t="s">
+        <v>444</v>
+      </c>
+      <c r="F100" t="s">
+        <v>445</v>
+      </c>
+      <c r="G100" t="s">
+        <v>446</v>
+      </c>
+      <c r="H100" t="s">
+        <v>108</v>
+      </c>
+      <c r="I100" t="s">
+        <v>18</v>
+      </c>
+      <c r="J100" t="s">
+        <v>70</v>
+      </c>
+      <c r="K100" t="s">
+        <v>19</v>
+      </c>
+      <c r="L100" t="s">
         <v>447</v>
       </c>
-      <c r="E100" t="s">
-        <v>448</v>
-      </c>
-      <c r="F100" t="s">
-        <v>449</v>
-      </c>
-      <c r="G100" t="s">
-        <v>349</v>
-      </c>
-      <c r="H100" t="s">
-        <v>25</v>
-      </c>
-      <c r="I100" t="s">
-        <v>20</v>
-      </c>
-      <c r="J100" t="s">
-        <v>19</v>
-      </c>
-      <c r="K100" t="s">
-        <v>20</v>
-      </c>
-      <c r="L100" t="s"/>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
         <v>12</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>44154.71784644676</v>
+        <v>44154.70677894676</v>
       </c>
       <c r="C101" t="n">
-        <v>2202</v>
+        <v>275</v>
       </c>
       <c r="D101" t="s">
+        <v>448</v>
+      </c>
+      <c r="E101" t="s">
+        <v>449</v>
+      </c>
+      <c r="F101" t="s">
         <v>450</v>
       </c>
-      <c r="E101" t="s">
+      <c r="G101" t="s">
         <v>451</v>
       </c>
-      <c r="F101" t="s">
+      <c r="H101" t="s">
+        <v>24</v>
+      </c>
+      <c r="I101" t="s">
         <v>452</v>
       </c>
-      <c r="G101" t="s">
-        <v>453</v>
-      </c>
-      <c r="H101" t="s">
-        <v>25</v>
-      </c>
-      <c r="I101" t="s">
-        <v>25</v>
-      </c>
       <c r="J101" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K101" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L101" t="s"/>
     </row>
@@ -5992,34 +6144,34 @@
         <v>12</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>44154.71844951389</v>
+        <v>44154.70703077546</v>
       </c>
       <c r="C102" t="n">
-        <v>3156</v>
+        <v>392</v>
       </c>
       <c r="D102" t="s">
+        <v>453</v>
+      </c>
+      <c r="E102" t="s">
         <v>454</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>455</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>456</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>457</v>
       </c>
-      <c r="H102" t="s">
-        <v>26</v>
-      </c>
       <c r="I102" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J102" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="K102" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L102" t="s"/>
     </row>
@@ -6028,10 +6180,10 @@
         <v>12</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>44154.71885400463</v>
+        <v>44154.70736740741</v>
       </c>
       <c r="C103" t="n">
-        <v>2881</v>
+        <v>1906</v>
       </c>
       <c r="D103" t="s">
         <v>458</v>
@@ -6043,31 +6195,33 @@
         <v>460</v>
       </c>
       <c r="G103" t="s">
+        <v>210</v>
+      </c>
+      <c r="H103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I103" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103" t="s">
+        <v>30</v>
+      </c>
+      <c r="K103" t="s">
+        <v>19</v>
+      </c>
+      <c r="L103" t="s">
         <v>461</v>
       </c>
-      <c r="H103" t="s">
-        <v>87</v>
-      </c>
-      <c r="I103" t="s">
-        <v>47</v>
-      </c>
-      <c r="J103" t="s">
-        <v>26</v>
-      </c>
-      <c r="K103" t="s">
-        <v>20</v>
-      </c>
-      <c r="L103" t="s"/>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
         <v>12</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>44154.71972351852</v>
+        <v>44154.70763553241</v>
       </c>
       <c r="C104" t="n">
-        <v>3034</v>
+        <v>2977</v>
       </c>
       <c r="D104" t="s">
         <v>462</v>
@@ -6082,54 +6236,52 @@
         <v>465</v>
       </c>
       <c r="H104" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I104" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K104" t="s">
-        <v>20</v>
-      </c>
-      <c r="L104" t="s">
-        <v>466</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L104" t="s"/>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
         <v>12</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>44154.72165902777</v>
+        <v>44154.70829784722</v>
       </c>
       <c r="C105" t="n">
-        <v>986</v>
+        <v>465</v>
       </c>
       <c r="D105" t="s">
+        <v>466</v>
+      </c>
+      <c r="E105" t="s">
         <v>467</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>468</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>469</v>
       </c>
-      <c r="G105" t="s">
-        <v>470</v>
-      </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="I105" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J105" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L105" t="s"/>
     </row>
@@ -6138,70 +6290,72 @@
         <v>12</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>44154.72335130787</v>
+        <v>44154.70866863426</v>
       </c>
       <c r="C106" t="n">
-        <v>2031</v>
+        <v>566</v>
       </c>
       <c r="D106" t="s">
+        <v>470</v>
+      </c>
+      <c r="E106" t="s">
         <v>471</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>472</v>
       </c>
-      <c r="F106" t="s">
-        <v>473</v>
-      </c>
       <c r="G106" t="s">
-        <v>474</v>
+        <v>210</v>
       </c>
       <c r="H106" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="I106" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J106" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K106" t="s">
-        <v>32</v>
-      </c>
-      <c r="L106" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L106" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
         <v>12</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>44154.72369152778</v>
+        <v>44154.70929016203</v>
       </c>
       <c r="C107" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D107" t="s">
+        <v>473</v>
+      </c>
+      <c r="E107" t="s">
+        <v>474</v>
+      </c>
+      <c r="F107" t="s">
         <v>475</v>
       </c>
-      <c r="E107" t="s">
+      <c r="G107" t="s">
         <v>476</v>
       </c>
-      <c r="F107" t="s">
-        <v>477</v>
-      </c>
-      <c r="G107" t="s">
-        <v>478</v>
-      </c>
       <c r="H107" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I107" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J107" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L107" t="s"/>
     </row>
@@ -6210,70 +6364,72 @@
         <v>12</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>44154.7240471875</v>
+        <v>44154.70976986111</v>
       </c>
       <c r="C108" t="n">
-        <v>533</v>
+        <v>1837</v>
       </c>
       <c r="D108" t="s">
+        <v>477</v>
+      </c>
+      <c r="E108" t="s">
+        <v>478</v>
+      </c>
+      <c r="F108" t="s">
         <v>479</v>
       </c>
-      <c r="E108" t="s">
+      <c r="G108" t="s">
         <v>480</v>
       </c>
-      <c r="F108" t="s">
+      <c r="H108" t="s">
+        <v>108</v>
+      </c>
+      <c r="I108" t="s">
+        <v>18</v>
+      </c>
+      <c r="J108" t="s">
+        <v>40</v>
+      </c>
+      <c r="K108" t="s">
+        <v>19</v>
+      </c>
+      <c r="L108" t="s">
         <v>481</v>
       </c>
-      <c r="G108" t="s">
-        <v>482</v>
-      </c>
-      <c r="H108" t="s">
-        <v>25</v>
-      </c>
-      <c r="I108" t="s">
-        <v>32</v>
-      </c>
-      <c r="J108" t="s">
-        <v>19</v>
-      </c>
-      <c r="K108" t="s">
-        <v>20</v>
-      </c>
-      <c r="L108" t="s"/>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
         <v>12</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>44154.72488017361</v>
+        <v>44154.71052581019</v>
       </c>
       <c r="C109" t="n">
-        <v>3716</v>
+        <v>1446</v>
       </c>
       <c r="D109" t="s">
+        <v>482</v>
+      </c>
+      <c r="E109" t="s">
         <v>483</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>484</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>485</v>
       </c>
-      <c r="G109" t="s">
-        <v>486</v>
-      </c>
       <c r="H109" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J109" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K109" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L109" t="s"/>
     </row>
@@ -6282,34 +6438,34 @@
         <v>12</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>44154.72557752315</v>
+        <v>44154.71083821759</v>
       </c>
       <c r="C110" t="n">
-        <v>2974</v>
+        <v>1516</v>
       </c>
       <c r="D110" t="s">
+        <v>486</v>
+      </c>
+      <c r="E110" t="s">
         <v>487</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>488</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>489</v>
       </c>
-      <c r="G110" t="s">
-        <v>290</v>
-      </c>
       <c r="H110" t="s">
-        <v>490</v>
+        <v>46</v>
       </c>
       <c r="I110" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J110" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K110" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L110" t="s"/>
     </row>
@@ -6318,37 +6474,37 @@
         <v>12</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>44154.69819569444</v>
+        <v>44154.71164583333</v>
       </c>
       <c r="C111" t="n">
-        <v>702</v>
+        <v>1975</v>
       </c>
       <c r="D111" t="s">
-        <v>341</v>
+        <v>490</v>
       </c>
       <c r="E111" t="s">
-        <v>342</v>
+        <v>491</v>
       </c>
       <c r="F111" t="s">
-        <v>343</v>
+        <v>492</v>
       </c>
       <c r="G111" t="s">
-        <v>155</v>
+        <v>493</v>
       </c>
       <c r="H111" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I111" t="s">
-        <v>344</v>
+        <v>18</v>
       </c>
       <c r="J111" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="K111" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="L111" t="s">
-        <v>345</v>
+        <v>494</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6356,72 +6512,70 @@
         <v>12</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>44154.69934395833</v>
+        <v>44154.71525582176</v>
       </c>
       <c r="C112" t="n">
-        <v>423</v>
+        <v>1508</v>
       </c>
       <c r="D112" t="s">
-        <v>346</v>
+        <v>495</v>
       </c>
       <c r="E112" t="s">
-        <v>347</v>
+        <v>496</v>
       </c>
       <c r="F112" t="s">
-        <v>348</v>
+        <v>497</v>
       </c>
       <c r="G112" t="s">
-        <v>349</v>
+        <v>498</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="I112" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="J112" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="K112" t="s">
-        <v>20</v>
-      </c>
-      <c r="L112" t="s">
-        <v>350</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L112" t="s"/>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
         <v>12</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>44154.69987591435</v>
+        <v>44154.71736768518</v>
       </c>
       <c r="C113" t="n">
-        <v>211</v>
+        <v>2973</v>
       </c>
       <c r="D113" t="s">
-        <v>351</v>
+        <v>499</v>
       </c>
       <c r="E113" t="s">
-        <v>352</v>
+        <v>500</v>
       </c>
       <c r="F113" t="s">
-        <v>353</v>
+        <v>501</v>
       </c>
       <c r="G113" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="H113" t="s">
+        <v>24</v>
+      </c>
+      <c r="I113" t="s">
+        <v>19</v>
+      </c>
+      <c r="J113" t="s">
         <v>25</v>
       </c>
-      <c r="I113" t="s">
-        <v>26</v>
-      </c>
-      <c r="J113" t="s">
-        <v>19</v>
-      </c>
       <c r="K113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L113" t="s"/>
     </row>
@@ -6430,72 +6584,70 @@
         <v>12</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>44154.70088510417</v>
+        <v>44154.71784644676</v>
       </c>
       <c r="C114" t="n">
-        <v>3419</v>
+        <v>2202</v>
       </c>
       <c r="D114" t="s">
-        <v>355</v>
+        <v>502</v>
       </c>
       <c r="E114" t="s">
-        <v>356</v>
+        <v>503</v>
       </c>
       <c r="F114" t="s">
-        <v>357</v>
+        <v>504</v>
       </c>
       <c r="G114" t="s">
-        <v>358</v>
+        <v>505</v>
       </c>
       <c r="H114" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I114" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="J114" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K114" t="s">
-        <v>20</v>
-      </c>
-      <c r="L114" t="s">
-        <v>359</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="L114" t="s"/>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
         <v>12</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>44154.70140253472</v>
+        <v>44154.71844951389</v>
       </c>
       <c r="C115" t="n">
-        <v>2074</v>
+        <v>3156</v>
       </c>
       <c r="D115" t="s">
-        <v>360</v>
+        <v>506</v>
       </c>
       <c r="E115" t="s">
-        <v>361</v>
+        <v>507</v>
       </c>
       <c r="F115" t="s">
-        <v>362</v>
+        <v>508</v>
       </c>
       <c r="G115" t="s">
-        <v>363</v>
+        <v>509</v>
       </c>
       <c r="H115" t="s">
+        <v>70</v>
+      </c>
+      <c r="I115" t="s">
+        <v>40</v>
+      </c>
+      <c r="J115" t="s">
         <v>25</v>
       </c>
-      <c r="I115" t="s">
-        <v>18</v>
-      </c>
-      <c r="J115" t="s">
-        <v>19</v>
-      </c>
       <c r="K115" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L115" t="s"/>
     </row>
@@ -6504,34 +6656,34 @@
         <v>12</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>44154.70263350695</v>
+        <v>44154.71885400463</v>
       </c>
       <c r="C116" t="n">
-        <v>183</v>
+        <v>2881</v>
       </c>
       <c r="D116" t="s">
-        <v>364</v>
+        <v>510</v>
       </c>
       <c r="E116" t="s">
-        <v>365</v>
+        <v>511</v>
       </c>
       <c r="F116" t="s">
-        <v>366</v>
+        <v>512</v>
       </c>
       <c r="G116" t="s">
-        <v>100</v>
+        <v>513</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="I116" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J116" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="K116" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L116" t="s"/>
     </row>
@@ -6540,70 +6692,72 @@
         <v>12</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>44154.70319071759</v>
+        <v>44154.71972351852</v>
       </c>
       <c r="C117" t="n">
-        <v>847</v>
+        <v>3034</v>
       </c>
       <c r="D117" t="s">
-        <v>367</v>
+        <v>514</v>
       </c>
       <c r="E117" t="s">
-        <v>368</v>
+        <v>515</v>
       </c>
       <c r="F117" t="s">
-        <v>369</v>
+        <v>516</v>
       </c>
       <c r="G117" t="s">
-        <v>349</v>
+        <v>517</v>
       </c>
       <c r="H117" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="I117" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J117" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K117" t="s">
-        <v>20</v>
-      </c>
-      <c r="L117" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L117" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" t="s">
         <v>12</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>44154.70363350694</v>
+        <v>44154.72165902777</v>
       </c>
       <c r="C118" t="n">
-        <v>27</v>
+        <v>986</v>
       </c>
       <c r="D118" t="s">
-        <v>370</v>
+        <v>519</v>
       </c>
       <c r="E118" t="s">
-        <v>371</v>
+        <v>520</v>
       </c>
       <c r="F118" t="s">
-        <v>372</v>
+        <v>521</v>
       </c>
       <c r="G118" t="s">
-        <v>373</v>
+        <v>522</v>
       </c>
       <c r="H118" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I118" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J118" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L118" t="s"/>
     </row>
@@ -6612,72 +6766,70 @@
         <v>12</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>44154.70392996528</v>
+        <v>44154.72335130787</v>
       </c>
       <c r="C119" t="n">
-        <v>1587</v>
+        <v>2031</v>
       </c>
       <c r="D119" t="s">
-        <v>374</v>
+        <v>523</v>
       </c>
       <c r="E119" t="s">
-        <v>375</v>
+        <v>524</v>
       </c>
       <c r="F119" t="s">
-        <v>376</v>
+        <v>525</v>
       </c>
       <c r="G119" t="s">
-        <v>377</v>
+        <v>526</v>
       </c>
       <c r="H119" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="I119" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J119" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K119" t="s">
-        <v>20</v>
-      </c>
-      <c r="L119" t="s">
-        <v>378</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L119" t="s"/>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
         <v>12</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>44154.70447649305</v>
+        <v>44154.72369152778</v>
       </c>
       <c r="C120" t="n">
-        <v>1510</v>
+        <v>67</v>
       </c>
       <c r="D120" t="s">
-        <v>379</v>
+        <v>527</v>
       </c>
       <c r="E120" t="s">
-        <v>380</v>
+        <v>528</v>
       </c>
       <c r="F120" t="s">
-        <v>381</v>
+        <v>529</v>
       </c>
       <c r="G120" t="s">
-        <v>382</v>
+        <v>530</v>
       </c>
       <c r="H120" t="s">
+        <v>24</v>
+      </c>
+      <c r="I120" t="s">
+        <v>24</v>
+      </c>
+      <c r="J120" t="s">
         <v>25</v>
       </c>
-      <c r="I120" t="s">
-        <v>18</v>
-      </c>
-      <c r="J120" t="s">
-        <v>26</v>
-      </c>
       <c r="K120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L120" t="s"/>
     </row>
@@ -6686,34 +6838,34 @@
         <v>12</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>44154.70549010417</v>
+        <v>44154.7240471875</v>
       </c>
       <c r="C121" t="n">
-        <v>631</v>
+        <v>533</v>
       </c>
       <c r="D121" t="s">
-        <v>383</v>
+        <v>531</v>
       </c>
       <c r="E121" t="s">
-        <v>384</v>
+        <v>532</v>
       </c>
       <c r="F121" t="s">
-        <v>385</v>
+        <v>533</v>
       </c>
       <c r="G121" t="s">
-        <v>386</v>
+        <v>534</v>
       </c>
       <c r="H121" t="s">
+        <v>24</v>
+      </c>
+      <c r="I121" t="s">
+        <v>17</v>
+      </c>
+      <c r="J121" t="s">
         <v>25</v>
       </c>
-      <c r="I121" t="s">
-        <v>32</v>
-      </c>
-      <c r="J121" t="s">
-        <v>19</v>
-      </c>
       <c r="K121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L121" t="s"/>
     </row>
@@ -6722,34 +6874,34 @@
         <v>12</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>44154.70597778935</v>
+        <v>44154.72488017361</v>
       </c>
       <c r="C122" t="n">
-        <v>2198</v>
+        <v>3716</v>
       </c>
       <c r="D122" t="s">
-        <v>387</v>
+        <v>535</v>
       </c>
       <c r="E122" t="s">
-        <v>388</v>
+        <v>536</v>
       </c>
       <c r="F122" t="s">
-        <v>389</v>
+        <v>537</v>
       </c>
       <c r="G122" t="s">
-        <v>390</v>
+        <v>538</v>
       </c>
       <c r="H122" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="I122" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="J122" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K122" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L122" t="s"/>
     </row>
@@ -6758,48 +6910,46 @@
         <v>12</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>44154.70629576389</v>
+        <v>44154.72557752315</v>
       </c>
       <c r="C123" t="n">
-        <v>3797</v>
+        <v>2974</v>
       </c>
       <c r="D123" t="s">
-        <v>391</v>
+        <v>539</v>
       </c>
       <c r="E123" t="s">
-        <v>392</v>
+        <v>540</v>
       </c>
       <c r="F123" t="s">
-        <v>393</v>
+        <v>541</v>
       </c>
       <c r="G123" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="H123" t="s">
-        <v>53</v>
+        <v>542</v>
       </c>
       <c r="I123" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J123" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K123" t="s">
-        <v>20</v>
-      </c>
-      <c r="L123" t="s">
-        <v>395</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L123" t="s"/>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" t="s">
         <v>12</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>44154.70677894676</v>
+        <v>44154.69819569444</v>
       </c>
       <c r="C124" t="n">
-        <v>275</v>
+        <v>702</v>
       </c>
       <c r="D124" t="s">
         <v>396</v>
@@ -6811,31 +6961,33 @@
         <v>398</v>
       </c>
       <c r="G124" t="s">
+        <v>210</v>
+      </c>
+      <c r="H124" t="s">
+        <v>151</v>
+      </c>
+      <c r="I124" t="s">
         <v>399</v>
       </c>
-      <c r="H124" t="s">
-        <v>25</v>
-      </c>
-      <c r="I124" t="s">
+      <c r="J124" t="s">
+        <v>30</v>
+      </c>
+      <c r="K124" t="s">
+        <v>19</v>
+      </c>
+      <c r="L124" t="s">
         <v>400</v>
       </c>
-      <c r="J124" t="s">
-        <v>26</v>
-      </c>
-      <c r="K124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L124" t="s"/>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" t="s">
         <v>12</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>44154.70703077546</v>
+        <v>44154.69934395833</v>
       </c>
       <c r="C125" t="n">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="D125" t="s">
         <v>401</v>
@@ -6850,28 +7002,30 @@
         <v>404</v>
       </c>
       <c r="H125" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" t="s">
+        <v>18</v>
+      </c>
+      <c r="J125" t="s">
+        <v>25</v>
+      </c>
+      <c r="K125" t="s">
+        <v>19</v>
+      </c>
+      <c r="L125" t="s">
         <v>405</v>
       </c>
-      <c r="I125" t="s">
-        <v>47</v>
-      </c>
-      <c r="J125" t="s">
-        <v>31</v>
-      </c>
-      <c r="K125" t="s">
-        <v>20</v>
-      </c>
-      <c r="L125" t="s"/>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" t="s">
         <v>12</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>44154.70736740741</v>
+        <v>44154.69987591435</v>
       </c>
       <c r="C126" t="n">
-        <v>1906</v>
+        <v>211</v>
       </c>
       <c r="D126" t="s">
         <v>406</v>
@@ -6883,69 +7037,69 @@
         <v>408</v>
       </c>
       <c r="G126" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="H126" t="s">
+        <v>24</v>
+      </c>
+      <c r="I126" t="s">
+        <v>70</v>
+      </c>
+      <c r="J126" t="s">
         <v>25</v>
       </c>
-      <c r="I126" t="s">
-        <v>32</v>
-      </c>
-      <c r="J126" t="s">
-        <v>18</v>
-      </c>
       <c r="K126" t="s">
-        <v>20</v>
-      </c>
-      <c r="L126" t="s">
-        <v>409</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L126" t="s"/>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" t="s">
         <v>12</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>44154.70763553241</v>
+        <v>44154.70088510417</v>
       </c>
       <c r="C127" t="n">
-        <v>2977</v>
+        <v>3419</v>
       </c>
       <c r="D127" t="s">
+        <v>409</v>
+      </c>
+      <c r="E127" t="s">
         <v>410</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>411</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>412</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
+        <v>108</v>
+      </c>
+      <c r="I127" t="s">
+        <v>18</v>
+      </c>
+      <c r="J127" t="s">
+        <v>70</v>
+      </c>
+      <c r="K127" t="s">
+        <v>19</v>
+      </c>
+      <c r="L127" t="s">
         <v>413</v>
       </c>
-      <c r="H127" t="s">
-        <v>25</v>
-      </c>
-      <c r="I127" t="s">
-        <v>20</v>
-      </c>
-      <c r="J127" t="s">
-        <v>19</v>
-      </c>
-      <c r="K127" t="s">
-        <v>20</v>
-      </c>
-      <c r="L127" t="s"/>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" t="s">
         <v>12</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>44154.70829784722</v>
+        <v>44154.70140253472</v>
       </c>
       <c r="C128" t="n">
-        <v>465</v>
+        <v>2074</v>
       </c>
       <c r="D128" t="s">
         <v>414</v>
@@ -6960,16 +7114,16 @@
         <v>417</v>
       </c>
       <c r="H128" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I128" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J128" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K128" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L128" t="s"/>
     </row>
@@ -6978,10 +7132,10 @@
         <v>12</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>44154.70866863426</v>
+        <v>44154.70263350695</v>
       </c>
       <c r="C129" t="n">
-        <v>566</v>
+        <v>183</v>
       </c>
       <c r="D129" t="s">
         <v>418</v>
@@ -6996,30 +7150,28 @@
         <v>155</v>
       </c>
       <c r="H129" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I129" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J129" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="K129" t="s">
-        <v>20</v>
-      </c>
-      <c r="L129" t="s">
-        <v>283</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L129" t="s"/>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" t="s">
         <v>12</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>44154.70929016203</v>
+        <v>44154.70319071759</v>
       </c>
       <c r="C130" t="n">
-        <v>81</v>
+        <v>847</v>
       </c>
       <c r="D130" t="s">
         <v>421</v>
@@ -7031,19 +7183,19 @@
         <v>423</v>
       </c>
       <c r="G130" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="H130" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J130" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L130" t="s"/>
     </row>
@@ -7052,108 +7204,108 @@
         <v>12</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>44154.70976986111</v>
+        <v>44154.70363350694</v>
       </c>
       <c r="C131" t="n">
-        <v>1837</v>
+        <v>27</v>
       </c>
       <c r="D131" t="s">
+        <v>424</v>
+      </c>
+      <c r="E131" t="s">
         <v>425</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>426</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>427</v>
       </c>
-      <c r="G131" t="s">
-        <v>428</v>
-      </c>
       <c r="H131" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I131" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J131" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K131" t="s">
-        <v>20</v>
-      </c>
-      <c r="L131" t="s">
-        <v>429</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L131" t="s"/>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" t="s">
         <v>12</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>44154.71052581019</v>
+        <v>44154.70392996528</v>
       </c>
       <c r="C132" t="n">
-        <v>1446</v>
+        <v>1587</v>
       </c>
       <c r="D132" t="s">
+        <v>428</v>
+      </c>
+      <c r="E132" t="s">
+        <v>429</v>
+      </c>
+      <c r="F132" t="s">
         <v>430</v>
       </c>
-      <c r="E132" t="s">
+      <c r="G132" t="s">
         <v>431</v>
       </c>
-      <c r="F132" t="s">
-        <v>432</v>
-      </c>
-      <c r="G132" t="s">
-        <v>433</v>
-      </c>
       <c r="H132" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="I132" t="s">
         <v>18</v>
       </c>
       <c r="J132" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K132" t="s">
-        <v>20</v>
-      </c>
-      <c r="L132" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L132" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" t="s">
         <v>12</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>44154.71083821759</v>
+        <v>44154.70447649305</v>
       </c>
       <c r="C133" t="n">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="D133" t="s">
+        <v>433</v>
+      </c>
+      <c r="E133" t="s">
         <v>434</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>435</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>436</v>
       </c>
-      <c r="G133" t="s">
-        <v>437</v>
-      </c>
       <c r="H133" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I133" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J133" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="K133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L133" t="s"/>
     </row>
@@ -7162,72 +7314,70 @@
         <v>12</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>44154.71164583333</v>
+        <v>44154.70549010417</v>
       </c>
       <c r="C134" t="n">
-        <v>1975</v>
+        <v>631</v>
       </c>
       <c r="D134" t="s">
+        <v>437</v>
+      </c>
+      <c r="E134" t="s">
         <v>438</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>439</v>
       </c>
-      <c r="F134" t="s">
-        <v>440</v>
-      </c>
       <c r="G134" t="s">
-        <v>441</v>
+        <v>80</v>
       </c>
       <c r="H134" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="I134" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J134" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K134" t="s">
-        <v>38</v>
-      </c>
-      <c r="L134" t="s">
-        <v>442</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L134" t="s"/>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" t="s">
         <v>12</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>44154.71525582176</v>
+        <v>44154.70597778935</v>
       </c>
       <c r="C135" t="n">
-        <v>1508</v>
+        <v>2198</v>
       </c>
       <c r="D135" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E135" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F135" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G135" t="s">
-        <v>446</v>
+        <v>64</v>
       </c>
       <c r="H135" t="s">
+        <v>24</v>
+      </c>
+      <c r="I135" t="s">
+        <v>30</v>
+      </c>
+      <c r="J135" t="s">
         <v>25</v>
       </c>
-      <c r="I135" t="s">
-        <v>25</v>
-      </c>
-      <c r="J135" t="s">
-        <v>38</v>
-      </c>
       <c r="K135" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L135" t="s"/>
     </row>
@@ -7236,70 +7386,72 @@
         <v>12</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>44154.71736768518</v>
+        <v>44154.70629576389</v>
       </c>
       <c r="C136" t="n">
-        <v>2973</v>
+        <v>3797</v>
       </c>
       <c r="D136" t="s">
+        <v>443</v>
+      </c>
+      <c r="E136" t="s">
+        <v>444</v>
+      </c>
+      <c r="F136" t="s">
+        <v>445</v>
+      </c>
+      <c r="G136" t="s">
+        <v>446</v>
+      </c>
+      <c r="H136" t="s">
+        <v>108</v>
+      </c>
+      <c r="I136" t="s">
+        <v>18</v>
+      </c>
+      <c r="J136" t="s">
+        <v>70</v>
+      </c>
+      <c r="K136" t="s">
+        <v>19</v>
+      </c>
+      <c r="L136" t="s">
         <v>447</v>
       </c>
-      <c r="E136" t="s">
-        <v>448</v>
-      </c>
-      <c r="F136" t="s">
-        <v>449</v>
-      </c>
-      <c r="G136" t="s">
-        <v>349</v>
-      </c>
-      <c r="H136" t="s">
-        <v>25</v>
-      </c>
-      <c r="I136" t="s">
-        <v>20</v>
-      </c>
-      <c r="J136" t="s">
-        <v>19</v>
-      </c>
-      <c r="K136" t="s">
-        <v>20</v>
-      </c>
-      <c r="L136" t="s"/>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" t="s">
         <v>12</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>44154.71784644676</v>
+        <v>44154.70677894676</v>
       </c>
       <c r="C137" t="n">
-        <v>2202</v>
+        <v>275</v>
       </c>
       <c r="D137" t="s">
+        <v>448</v>
+      </c>
+      <c r="E137" t="s">
+        <v>449</v>
+      </c>
+      <c r="F137" t="s">
         <v>450</v>
       </c>
-      <c r="E137" t="s">
+      <c r="G137" t="s">
         <v>451</v>
       </c>
-      <c r="F137" t="s">
+      <c r="H137" t="s">
+        <v>24</v>
+      </c>
+      <c r="I137" t="s">
         <v>452</v>
       </c>
-      <c r="G137" t="s">
-        <v>453</v>
-      </c>
-      <c r="H137" t="s">
-        <v>25</v>
-      </c>
-      <c r="I137" t="s">
-        <v>25</v>
-      </c>
       <c r="J137" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K137" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L137" t="s"/>
     </row>
@@ -7308,34 +7460,34 @@
         <v>12</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>44154.71844951389</v>
+        <v>44154.70703077546</v>
       </c>
       <c r="C138" t="n">
-        <v>3156</v>
+        <v>392</v>
       </c>
       <c r="D138" t="s">
+        <v>453</v>
+      </c>
+      <c r="E138" t="s">
         <v>454</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>455</v>
       </c>
-      <c r="F138" t="s">
+      <c r="G138" t="s">
         <v>456</v>
       </c>
-      <c r="G138" t="s">
+      <c r="H138" t="s">
         <v>457</v>
       </c>
-      <c r="H138" t="s">
-        <v>26</v>
-      </c>
       <c r="I138" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J138" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="K138" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L138" t="s"/>
     </row>
@@ -7344,10 +7496,10 @@
         <v>12</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>44154.71885400463</v>
+        <v>44154.70736740741</v>
       </c>
       <c r="C139" t="n">
-        <v>2881</v>
+        <v>1906</v>
       </c>
       <c r="D139" t="s">
         <v>458</v>
@@ -7359,31 +7511,33 @@
         <v>460</v>
       </c>
       <c r="G139" t="s">
+        <v>210</v>
+      </c>
+      <c r="H139" t="s">
+        <v>24</v>
+      </c>
+      <c r="I139" t="s">
+        <v>17</v>
+      </c>
+      <c r="J139" t="s">
+        <v>30</v>
+      </c>
+      <c r="K139" t="s">
+        <v>19</v>
+      </c>
+      <c r="L139" t="s">
         <v>461</v>
       </c>
-      <c r="H139" t="s">
-        <v>87</v>
-      </c>
-      <c r="I139" t="s">
-        <v>47</v>
-      </c>
-      <c r="J139" t="s">
-        <v>26</v>
-      </c>
-      <c r="K139" t="s">
-        <v>20</v>
-      </c>
-      <c r="L139" t="s"/>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" t="s">
         <v>12</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>44154.71972351852</v>
+        <v>44154.70763553241</v>
       </c>
       <c r="C140" t="n">
-        <v>3034</v>
+        <v>2977</v>
       </c>
       <c r="D140" t="s">
         <v>462</v>
@@ -7398,54 +7552,52 @@
         <v>465</v>
       </c>
       <c r="H140" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I140" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J140" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K140" t="s">
-        <v>20</v>
-      </c>
-      <c r="L140" t="s">
-        <v>466</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L140" t="s"/>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" t="s">
         <v>12</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>44154.72165902777</v>
+        <v>44154.70829784722</v>
       </c>
       <c r="C141" t="n">
-        <v>986</v>
+        <v>465</v>
       </c>
       <c r="D141" t="s">
+        <v>466</v>
+      </c>
+      <c r="E141" t="s">
         <v>467</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>468</v>
       </c>
-      <c r="F141" t="s">
+      <c r="G141" t="s">
         <v>469</v>
       </c>
-      <c r="G141" t="s">
-        <v>470</v>
-      </c>
       <c r="H141" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="I141" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J141" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L141" t="s"/>
     </row>
@@ -7454,70 +7606,72 @@
         <v>12</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>44154.72335130787</v>
+        <v>44154.70866863426</v>
       </c>
       <c r="C142" t="n">
-        <v>2031</v>
+        <v>566</v>
       </c>
       <c r="D142" t="s">
+        <v>470</v>
+      </c>
+      <c r="E142" t="s">
         <v>471</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>472</v>
       </c>
-      <c r="F142" t="s">
-        <v>473</v>
-      </c>
       <c r="G142" t="s">
-        <v>474</v>
+        <v>210</v>
       </c>
       <c r="H142" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="I142" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J142" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K142" t="s">
-        <v>32</v>
-      </c>
-      <c r="L142" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L142" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" t="s">
         <v>12</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>44154.72369152778</v>
+        <v>44154.70929016203</v>
       </c>
       <c r="C143" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D143" t="s">
+        <v>473</v>
+      </c>
+      <c r="E143" t="s">
+        <v>474</v>
+      </c>
+      <c r="F143" t="s">
         <v>475</v>
       </c>
-      <c r="E143" t="s">
+      <c r="G143" t="s">
         <v>476</v>
       </c>
-      <c r="F143" t="s">
-        <v>477</v>
-      </c>
-      <c r="G143" t="s">
-        <v>478</v>
-      </c>
       <c r="H143" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I143" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J143" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K143" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L143" t="s"/>
     </row>
@@ -7526,70 +7680,72 @@
         <v>12</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>44154.7240471875</v>
+        <v>44154.70976986111</v>
       </c>
       <c r="C144" t="n">
-        <v>533</v>
+        <v>1837</v>
       </c>
       <c r="D144" t="s">
+        <v>477</v>
+      </c>
+      <c r="E144" t="s">
+        <v>478</v>
+      </c>
+      <c r="F144" t="s">
         <v>479</v>
       </c>
-      <c r="E144" t="s">
+      <c r="G144" t="s">
         <v>480</v>
       </c>
-      <c r="F144" t="s">
+      <c r="H144" t="s">
+        <v>108</v>
+      </c>
+      <c r="I144" t="s">
+        <v>18</v>
+      </c>
+      <c r="J144" t="s">
+        <v>40</v>
+      </c>
+      <c r="K144" t="s">
+        <v>19</v>
+      </c>
+      <c r="L144" t="s">
         <v>481</v>
       </c>
-      <c r="G144" t="s">
-        <v>482</v>
-      </c>
-      <c r="H144" t="s">
-        <v>25</v>
-      </c>
-      <c r="I144" t="s">
-        <v>32</v>
-      </c>
-      <c r="J144" t="s">
-        <v>19</v>
-      </c>
-      <c r="K144" t="s">
-        <v>20</v>
-      </c>
-      <c r="L144" t="s"/>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" t="s">
         <v>12</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>44154.72488017361</v>
+        <v>44154.71052581019</v>
       </c>
       <c r="C145" t="n">
-        <v>3716</v>
+        <v>1446</v>
       </c>
       <c r="D145" t="s">
+        <v>482</v>
+      </c>
+      <c r="E145" t="s">
         <v>483</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>484</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>485</v>
       </c>
-      <c r="G145" t="s">
-        <v>486</v>
-      </c>
       <c r="H145" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J145" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K145" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L145" t="s"/>
     </row>
@@ -7598,34 +7754,34 @@
         <v>12</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>44154.72557752315</v>
+        <v>44154.71083821759</v>
       </c>
       <c r="C146" t="n">
-        <v>2974</v>
+        <v>1516</v>
       </c>
       <c r="D146" t="s">
+        <v>486</v>
+      </c>
+      <c r="E146" t="s">
         <v>487</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>488</v>
       </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
         <v>489</v>
       </c>
-      <c r="G146" t="s">
-        <v>290</v>
-      </c>
       <c r="H146" t="s">
-        <v>490</v>
+        <v>46</v>
       </c>
       <c r="I146" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J146" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K146" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L146" t="s"/>
     </row>
@@ -7634,46 +7790,48 @@
         <v>12</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>44154.6643809838</v>
+        <v>44154.71164583333</v>
       </c>
       <c r="C147" t="n">
-        <v>2555</v>
+        <v>1975</v>
       </c>
       <c r="D147" t="s">
+        <v>490</v>
+      </c>
+      <c r="E147" t="s">
         <v>491</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>492</v>
       </c>
-      <c r="F147" t="s">
+      <c r="G147" t="s">
         <v>493</v>
       </c>
-      <c r="G147" t="s">
+      <c r="H147" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" t="s">
+        <v>18</v>
+      </c>
+      <c r="J147" t="s">
+        <v>70</v>
+      </c>
+      <c r="K147" t="s">
+        <v>41</v>
+      </c>
+      <c r="L147" t="s">
         <v>494</v>
       </c>
-      <c r="H147" t="s">
-        <v>37</v>
-      </c>
-      <c r="I147" t="s">
-        <v>26</v>
-      </c>
-      <c r="J147" t="s">
-        <v>26</v>
-      </c>
-      <c r="K147" t="s">
-        <v>20</v>
-      </c>
-      <c r="L147" t="s"/>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" t="s">
         <v>12</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>44154.66514181713</v>
+        <v>44154.71525582176</v>
       </c>
       <c r="C148" t="n">
-        <v>2501</v>
+        <v>1508</v>
       </c>
       <c r="D148" t="s">
         <v>495</v>
@@ -7688,16 +7846,16 @@
         <v>498</v>
       </c>
       <c r="H148" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="I148" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J148" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K148" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="L148" t="s"/>
     </row>
@@ -7706,10 +7864,10 @@
         <v>12</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>44154.6655874537</v>
+        <v>44154.71736768518</v>
       </c>
       <c r="C149" t="n">
-        <v>2825</v>
+        <v>2973</v>
       </c>
       <c r="D149" t="s">
         <v>499</v>
@@ -7721,19 +7879,19 @@
         <v>501</v>
       </c>
       <c r="G149" t="s">
-        <v>502</v>
+        <v>404</v>
       </c>
       <c r="H149" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I149" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J149" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K149" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L149" t="s"/>
     </row>
@@ -7742,34 +7900,34 @@
         <v>12</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>44154.66637526621</v>
+        <v>44154.71784644676</v>
       </c>
       <c r="C150" t="n">
-        <v>3460</v>
+        <v>2202</v>
       </c>
       <c r="D150" t="s">
+        <v>502</v>
+      </c>
+      <c r="E150" t="s">
         <v>503</v>
       </c>
-      <c r="E150" t="s">
+      <c r="F150" t="s">
         <v>504</v>
       </c>
-      <c r="F150" t="s">
+      <c r="G150" t="s">
         <v>505</v>
       </c>
-      <c r="G150" t="s">
-        <v>506</v>
-      </c>
       <c r="H150" t="s">
+        <v>24</v>
+      </c>
+      <c r="I150" t="s">
+        <v>24</v>
+      </c>
+      <c r="J150" t="s">
         <v>25</v>
       </c>
-      <c r="I150" t="s">
-        <v>20</v>
-      </c>
-      <c r="J150" t="s">
-        <v>32</v>
-      </c>
       <c r="K150" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L150" t="s"/>
     </row>
@@ -7778,113 +7936,109 @@
         <v>12</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>44154.66675946759</v>
+        <v>44154.71844951389</v>
       </c>
       <c r="C151" t="n">
-        <v>1777</v>
+        <v>3156</v>
       </c>
       <c r="D151" t="s">
+        <v>506</v>
+      </c>
+      <c r="E151" t="s">
         <v>507</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>508</v>
       </c>
-      <c r="F151" t="s">
+      <c r="G151" t="s">
         <v>509</v>
       </c>
-      <c r="G151" t="s">
-        <v>510</v>
-      </c>
       <c r="H151" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="I151" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J151" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K151" t="s">
-        <v>20</v>
-      </c>
-      <c r="L151" t="s">
-        <v>511</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L151" t="s"/>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" t="s">
         <v>12</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>44154.66788681713</v>
+        <v>44154.71885400463</v>
       </c>
       <c r="C152" t="n">
-        <v>2772</v>
+        <v>2881</v>
       </c>
       <c r="D152" t="s">
+        <v>510</v>
+      </c>
+      <c r="E152" t="s">
+        <v>511</v>
+      </c>
+      <c r="F152" t="s">
         <v>512</v>
       </c>
-      <c r="E152" t="s">
+      <c r="G152" t="s">
         <v>513</v>
       </c>
-      <c r="F152" t="s">
-        <v>514</v>
-      </c>
-      <c r="G152" t="s">
-        <v>515</v>
-      </c>
       <c r="H152" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="I152" t="s">
         <v>18</v>
       </c>
       <c r="J152" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="K152" t="s">
-        <v>20</v>
-      </c>
-      <c r="L152" t="s">
-        <v>516</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L152" t="s"/>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" t="s">
         <v>12</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>44154.66935013889</v>
+        <v>44154.71972351852</v>
       </c>
       <c r="C153" t="n">
-        <v>3641</v>
+        <v>3034</v>
       </c>
       <c r="D153" t="s">
+        <v>514</v>
+      </c>
+      <c r="E153" t="s">
+        <v>515</v>
+      </c>
+      <c r="F153" t="s">
+        <v>516</v>
+      </c>
+      <c r="G153" t="s">
         <v>517</v>
       </c>
-      <c r="E153" t="s">
+      <c r="H153" t="s">
+        <v>108</v>
+      </c>
+      <c r="I153" t="s">
+        <v>18</v>
+      </c>
+      <c r="J153" t="s">
+        <v>70</v>
+      </c>
+      <c r="K153" t="s">
+        <v>19</v>
+      </c>
+      <c r="L153" t="s">
         <v>518</v>
-      </c>
-      <c r="F153" t="s">
-        <v>519</v>
-      </c>
-      <c r="G153" t="s">
-        <v>520</v>
-      </c>
-      <c r="H153" t="s">
-        <v>26</v>
-      </c>
-      <c r="I153" t="s">
-        <v>125</v>
-      </c>
-      <c r="J153" t="s">
-        <v>18</v>
-      </c>
-      <c r="K153" t="s">
-        <v>20</v>
-      </c>
-      <c r="L153" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7892,34 +8046,34 @@
         <v>12</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>44154.67044814815</v>
+        <v>44154.72165902777</v>
       </c>
       <c r="C154" t="n">
-        <v>2487</v>
+        <v>986</v>
       </c>
       <c r="D154" t="s">
+        <v>519</v>
+      </c>
+      <c r="E154" t="s">
+        <v>520</v>
+      </c>
+      <c r="F154" t="s">
+        <v>521</v>
+      </c>
+      <c r="G154" t="s">
         <v>522</v>
       </c>
-      <c r="E154" t="s">
-        <v>523</v>
-      </c>
-      <c r="F154" t="s">
-        <v>524</v>
-      </c>
-      <c r="G154" t="s">
-        <v>62</v>
-      </c>
       <c r="H154" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I154" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J154" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K154" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L154" t="s"/>
     </row>
@@ -7928,34 +8082,34 @@
         <v>12</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>44154.67135246528</v>
+        <v>44154.72335130787</v>
       </c>
       <c r="C155" t="n">
-        <v>2638</v>
+        <v>2031</v>
       </c>
       <c r="D155" t="s">
+        <v>523</v>
+      </c>
+      <c r="E155" t="s">
+        <v>524</v>
+      </c>
+      <c r="F155" t="s">
         <v>525</v>
       </c>
-      <c r="E155" t="s">
+      <c r="G155" t="s">
         <v>526</v>
       </c>
-      <c r="F155" t="s">
-        <v>527</v>
-      </c>
-      <c r="G155" t="s">
-        <v>528</v>
-      </c>
       <c r="H155" t="s">
-        <v>529</v>
+        <v>151</v>
       </c>
       <c r="I155" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J155" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K155" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L155" t="s"/>
     </row>
@@ -7964,72 +8118,70 @@
         <v>12</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>44154.67172907407</v>
+        <v>44154.72369152778</v>
       </c>
       <c r="C156" t="n">
-        <v>3209</v>
+        <v>67</v>
       </c>
       <c r="D156" t="s">
+        <v>527</v>
+      </c>
+      <c r="E156" t="s">
+        <v>528</v>
+      </c>
+      <c r="F156" t="s">
+        <v>529</v>
+      </c>
+      <c r="G156" t="s">
         <v>530</v>
       </c>
-      <c r="E156" t="s">
-        <v>531</v>
-      </c>
-      <c r="F156" t="s">
-        <v>532</v>
-      </c>
-      <c r="G156" t="s">
-        <v>533</v>
-      </c>
       <c r="H156" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I156" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="J156" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K156" t="s">
-        <v>20</v>
-      </c>
-      <c r="L156" t="s">
-        <v>534</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L156" t="s"/>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" t="s">
         <v>12</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>44154.67312695602</v>
+        <v>44154.7240471875</v>
       </c>
       <c r="C157" t="n">
-        <v>3711</v>
+        <v>533</v>
       </c>
       <c r="D157" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E157" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="F157" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G157" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H157" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I157" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J157" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K157" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L157" t="s"/>
     </row>
@@ -8038,34 +8190,34 @@
         <v>12</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>44154.6736441088</v>
+        <v>44154.72488017361</v>
       </c>
       <c r="C158" t="n">
-        <v>3312</v>
+        <v>3716</v>
       </c>
       <c r="D158" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E158" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F158" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G158" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H158" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="I158" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J158" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K158" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L158" t="s"/>
     </row>
@@ -8074,34 +8226,34 @@
         <v>12</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>44154.67442511574</v>
+        <v>44154.72557752315</v>
       </c>
       <c r="C159" t="n">
-        <v>78</v>
+        <v>2974</v>
       </c>
       <c r="D159" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E159" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F159" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G159" t="s">
-        <v>546</v>
+        <v>345</v>
       </c>
       <c r="H159" t="s">
+        <v>542</v>
+      </c>
+      <c r="I159" t="s">
+        <v>19</v>
+      </c>
+      <c r="J159" t="s">
         <v>25</v>
       </c>
-      <c r="I159" t="s">
-        <v>31</v>
-      </c>
-      <c r="J159" t="s">
-        <v>26</v>
-      </c>
       <c r="K159" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L159" t="s"/>
     </row>
@@ -8110,72 +8262,70 @@
         <v>12</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>44154.67532738426</v>
+        <v>44154.6643809838</v>
       </c>
       <c r="C160" t="n">
-        <v>3031</v>
+        <v>2555</v>
       </c>
       <c r="D160" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E160" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F160" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G160" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H160" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I160" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="J160" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K160" t="s">
         <v>19</v>
       </c>
-      <c r="L160" t="s">
-        <v>551</v>
-      </c>
+      <c r="L160" t="s"/>
     </row>
     <row r="161" spans="1:12">
       <c r="A161" t="s">
         <v>12</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>44154.67696158565</v>
+        <v>44154.66514181713</v>
       </c>
       <c r="C161" t="n">
-        <v>2035</v>
+        <v>2501</v>
       </c>
       <c r="D161" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="E161" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F161" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G161" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="H161" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="I161" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J161" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K161" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L161" t="s"/>
     </row>
@@ -8184,72 +8334,70 @@
         <v>12</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>44154.67738247685</v>
+        <v>44154.6655874537</v>
       </c>
       <c r="C162" t="n">
-        <v>1784</v>
+        <v>2825</v>
       </c>
       <c r="D162" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E162" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F162" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G162" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H162" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I162" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J162" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K162" t="s">
-        <v>20</v>
-      </c>
-      <c r="L162" t="s">
-        <v>560</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L162" t="s"/>
     </row>
     <row r="163" spans="1:12">
       <c r="A163" t="s">
         <v>12</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>44154.67845166667</v>
+        <v>44154.66637526621</v>
       </c>
       <c r="C163" t="n">
-        <v>116</v>
+        <v>3460</v>
       </c>
       <c r="D163" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E163" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="F163" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="G163" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="H163" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="I163" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J163" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="K163" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L163" t="s"/>
     </row>
@@ -8258,37 +8406,37 @@
         <v>12</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>44154.68068962963</v>
+        <v>44154.66675946759</v>
       </c>
       <c r="C164" t="n">
-        <v>1882</v>
+        <v>1777</v>
       </c>
       <c r="D164" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E164" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F164" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="G164" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="H164" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="I164" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J164" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K164" t="s">
         <v>19</v>
       </c>
       <c r="L164" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8296,73 +8444,75 @@
         <v>12</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>44154.68186581018</v>
+        <v>44154.66788681713</v>
       </c>
       <c r="C165" t="n">
-        <v>1175</v>
+        <v>2772</v>
       </c>
       <c r="D165" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="E165" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F165" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G165" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="H165" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="I165" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J165" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K165" t="s">
-        <v>32</v>
-      </c>
-      <c r="L165" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L165" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="166" spans="1:12">
       <c r="A166" t="s">
         <v>12</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>44154.68270211806</v>
+        <v>44154.66935013889</v>
       </c>
       <c r="C166" t="n">
-        <v>1528</v>
+        <v>3641</v>
       </c>
       <c r="D166" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E166" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F166" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G166" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="H166" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="I166" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="J166" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K166" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L166" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8370,72 +8520,70 @@
         <v>12</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>44154.68296275463</v>
+        <v>44154.67044814815</v>
       </c>
       <c r="C167" t="n">
-        <v>1838</v>
+        <v>2487</v>
       </c>
       <c r="D167" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E167" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F167" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G167" t="s">
-        <v>581</v>
+        <v>117</v>
       </c>
       <c r="H167" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="I167" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J167" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K167" t="s">
-        <v>20</v>
-      </c>
-      <c r="L167" t="s">
-        <v>582</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L167" t="s"/>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" t="s">
         <v>12</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>44154.68356502315</v>
+        <v>44154.67135246528</v>
       </c>
       <c r="C168" t="n">
-        <v>1924</v>
+        <v>2638</v>
       </c>
       <c r="D168" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E168" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="F168" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="G168" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="H168" t="s">
-        <v>25</v>
+        <v>581</v>
       </c>
       <c r="I168" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J168" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K168" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L168" t="s"/>
     </row>
@@ -8444,70 +8592,72 @@
         <v>12</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>44154.6841640625</v>
+        <v>44154.67172907407</v>
       </c>
       <c r="C169" t="n">
-        <v>3611</v>
+        <v>3209</v>
       </c>
       <c r="D169" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E169" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F169" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G169" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="H169" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="I169" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J169" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="K169" t="s">
-        <v>20</v>
-      </c>
-      <c r="L169" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="L169" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="170" spans="1:12">
       <c r="A170" t="s">
         <v>12</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>44154.68457054398</v>
+        <v>44154.67312695602</v>
       </c>
       <c r="C170" t="n">
-        <v>1065</v>
+        <v>3711</v>
       </c>
       <c r="D170" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E170" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F170" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G170" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="H170" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="I170" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J170" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K170" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L170" t="s"/>
     </row>
@@ -8516,34 +8666,34 @@
         <v>12</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>44154.68556002315</v>
+        <v>44154.6736441088</v>
       </c>
       <c r="C171" t="n">
-        <v>2475</v>
+        <v>3312</v>
       </c>
       <c r="D171" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E171" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F171" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G171" t="s">
-        <v>100</v>
+        <v>594</v>
       </c>
       <c r="H171" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="I171" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J171" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K171" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L171" t="s"/>
     </row>
@@ -8552,34 +8702,34 @@
         <v>12</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>44154.68630527778</v>
+        <v>44154.67442511574</v>
       </c>
       <c r="C172" t="n">
-        <v>3042</v>
+        <v>78</v>
       </c>
       <c r="D172" t="s">
+        <v>595</v>
+      </c>
+      <c r="E172" t="s">
+        <v>596</v>
+      </c>
+      <c r="F172" t="s">
+        <v>597</v>
+      </c>
+      <c r="G172" t="s">
         <v>598</v>
       </c>
-      <c r="E172" t="s">
-        <v>599</v>
-      </c>
-      <c r="F172" t="s">
-        <v>600</v>
-      </c>
-      <c r="G172" t="s">
-        <v>601</v>
-      </c>
       <c r="H172" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I172" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J172" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K172" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L172" t="s"/>
     </row>
@@ -8588,70 +8738,72 @@
         <v>12</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>44154.68673292824</v>
+        <v>44154.67532738426</v>
       </c>
       <c r="C173" t="n">
-        <v>1903</v>
+        <v>3031</v>
       </c>
       <c r="D173" t="s">
+        <v>599</v>
+      </c>
+      <c r="E173" t="s">
+        <v>600</v>
+      </c>
+      <c r="F173" t="s">
+        <v>601</v>
+      </c>
+      <c r="G173" t="s">
         <v>602</v>
       </c>
-      <c r="E173" t="s">
+      <c r="H173" t="s">
+        <v>24</v>
+      </c>
+      <c r="I173" t="s">
+        <v>17</v>
+      </c>
+      <c r="J173" t="s">
+        <v>25</v>
+      </c>
+      <c r="K173" t="s">
+        <v>25</v>
+      </c>
+      <c r="L173" t="s">
         <v>603</v>
       </c>
-      <c r="F173" t="s">
-        <v>604</v>
-      </c>
-      <c r="G173" t="s">
-        <v>605</v>
-      </c>
-      <c r="H173" t="s">
-        <v>37</v>
-      </c>
-      <c r="I173" t="s">
-        <v>32</v>
-      </c>
-      <c r="J173" t="s">
-        <v>19</v>
-      </c>
-      <c r="K173" t="s">
-        <v>32</v>
-      </c>
-      <c r="L173" t="s"/>
     </row>
     <row r="174" spans="1:12">
       <c r="A174" t="s">
         <v>12</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>44154.6878003588</v>
+        <v>44154.67696158565</v>
       </c>
       <c r="C174" t="n">
-        <v>615</v>
+        <v>2035</v>
       </c>
       <c r="D174" t="s">
+        <v>604</v>
+      </c>
+      <c r="E174" t="s">
+        <v>605</v>
+      </c>
+      <c r="F174" t="s">
         <v>606</v>
       </c>
-      <c r="E174" t="s">
+      <c r="G174" t="s">
         <v>607</v>
       </c>
-      <c r="F174" t="s">
-        <v>608</v>
-      </c>
-      <c r="G174" t="s">
-        <v>609</v>
-      </c>
       <c r="H174" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="I174" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J174" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K174" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L174" t="s"/>
     </row>
@@ -8660,70 +8812,72 @@
         <v>12</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>44154.68797761574</v>
+        <v>44154.67738247685</v>
       </c>
       <c r="C175" t="n">
-        <v>3195</v>
+        <v>1784</v>
       </c>
       <c r="D175" t="s">
+        <v>608</v>
+      </c>
+      <c r="E175" t="s">
+        <v>609</v>
+      </c>
+      <c r="F175" t="s">
         <v>610</v>
       </c>
-      <c r="E175" t="s">
+      <c r="G175" t="s">
         <v>611</v>
       </c>
-      <c r="F175" t="s">
+      <c r="H175" t="s">
+        <v>108</v>
+      </c>
+      <c r="I175" t="s">
+        <v>18</v>
+      </c>
+      <c r="J175" t="s">
+        <v>30</v>
+      </c>
+      <c r="K175" t="s">
+        <v>19</v>
+      </c>
+      <c r="L175" t="s">
         <v>612</v>
       </c>
-      <c r="G175" t="s">
-        <v>613</v>
-      </c>
-      <c r="H175" t="s">
-        <v>53</v>
-      </c>
-      <c r="I175" t="s">
-        <v>47</v>
-      </c>
-      <c r="J175" t="s">
-        <v>26</v>
-      </c>
-      <c r="K175" t="s">
-        <v>20</v>
-      </c>
-      <c r="L175" t="s"/>
     </row>
     <row r="176" spans="1:12">
       <c r="A176" t="s">
         <v>12</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>44154.68839364583</v>
+        <v>44154.67845166667</v>
       </c>
       <c r="C176" t="n">
-        <v>3134</v>
+        <v>116</v>
       </c>
       <c r="D176" t="s">
+        <v>613</v>
+      </c>
+      <c r="E176" t="s">
         <v>614</v>
       </c>
-      <c r="E176" t="s">
+      <c r="F176" t="s">
         <v>615</v>
       </c>
-      <c r="F176" t="s">
+      <c r="G176" t="s">
         <v>616</v>
       </c>
-      <c r="G176" t="s">
-        <v>617</v>
-      </c>
       <c r="H176" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="I176" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J176" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="K176" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L176" t="s"/>
     </row>
@@ -8732,46 +8886,48 @@
         <v>12</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>44154.68914657408</v>
+        <v>44154.68068962963</v>
       </c>
       <c r="C177" t="n">
-        <v>1023</v>
+        <v>1882</v>
       </c>
       <c r="D177" t="s">
+        <v>617</v>
+      </c>
+      <c r="E177" t="s">
         <v>618</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
         <v>619</v>
       </c>
-      <c r="F177" t="s">
+      <c r="G177" t="s">
         <v>620</v>
       </c>
-      <c r="G177" t="s">
+      <c r="H177" t="s">
+        <v>18</v>
+      </c>
+      <c r="I177" t="s">
+        <v>18</v>
+      </c>
+      <c r="J177" t="s">
+        <v>56</v>
+      </c>
+      <c r="K177" t="s">
+        <v>25</v>
+      </c>
+      <c r="L177" t="s">
         <v>621</v>
       </c>
-      <c r="H177" t="s">
-        <v>25</v>
-      </c>
-      <c r="I177" t="s">
-        <v>20</v>
-      </c>
-      <c r="J177" t="s">
-        <v>19</v>
-      </c>
-      <c r="K177" t="s">
-        <v>20</v>
-      </c>
-      <c r="L177" t="s"/>
     </row>
     <row r="178" spans="1:12">
       <c r="A178" t="s">
         <v>12</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>44154.68949501157</v>
+        <v>44154.68186581018</v>
       </c>
       <c r="C178" t="n">
-        <v>3395</v>
+        <v>1175</v>
       </c>
       <c r="D178" t="s">
         <v>622</v>
@@ -8786,57 +8942,55 @@
         <v>625</v>
       </c>
       <c r="H178" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I178" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J178" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="K178" t="s">
-        <v>20</v>
-      </c>
-      <c r="L178" t="s">
-        <v>626</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L178" t="s"/>
     </row>
     <row r="179" spans="1:12">
       <c r="A179" t="s">
         <v>12</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>44154.68986456018</v>
+        <v>44154.68270211806</v>
       </c>
       <c r="C179" t="n">
-        <v>1760</v>
+        <v>1528</v>
       </c>
       <c r="D179" t="s">
+        <v>626</v>
+      </c>
+      <c r="E179" t="s">
         <v>627</v>
       </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
         <v>628</v>
       </c>
-      <c r="F179" t="s">
+      <c r="G179" t="s">
+        <v>567</v>
+      </c>
+      <c r="H179" t="s">
+        <v>151</v>
+      </c>
+      <c r="I179" t="s">
+        <v>30</v>
+      </c>
+      <c r="J179" t="s">
+        <v>30</v>
+      </c>
+      <c r="K179" t="s">
+        <v>19</v>
+      </c>
+      <c r="L179" t="s">
         <v>629</v>
-      </c>
-      <c r="G179" t="s">
-        <v>630</v>
-      </c>
-      <c r="H179" t="s">
-        <v>53</v>
-      </c>
-      <c r="I179" t="s">
-        <v>47</v>
-      </c>
-      <c r="J179" t="s">
-        <v>26</v>
-      </c>
-      <c r="K179" t="s">
-        <v>20</v>
-      </c>
-      <c r="L179" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8844,46 +8998,48 @@
         <v>12</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>44154.69036902778</v>
+        <v>44154.68296275463</v>
       </c>
       <c r="C180" t="n">
-        <v>1995</v>
+        <v>1838</v>
       </c>
       <c r="D180" t="s">
+        <v>630</v>
+      </c>
+      <c r="E180" t="s">
+        <v>631</v>
+      </c>
+      <c r="F180" t="s">
         <v>632</v>
       </c>
-      <c r="E180" t="s">
+      <c r="G180" t="s">
         <v>633</v>
       </c>
-      <c r="F180" t="s">
+      <c r="H180" t="s">
+        <v>108</v>
+      </c>
+      <c r="I180" t="s">
+        <v>18</v>
+      </c>
+      <c r="J180" t="s">
+        <v>70</v>
+      </c>
+      <c r="K180" t="s">
+        <v>19</v>
+      </c>
+      <c r="L180" t="s">
         <v>634</v>
       </c>
-      <c r="G180" t="s">
-        <v>231</v>
-      </c>
-      <c r="H180" t="s">
-        <v>37</v>
-      </c>
-      <c r="I180" t="s">
-        <v>20</v>
-      </c>
-      <c r="J180" t="s">
-        <v>32</v>
-      </c>
-      <c r="K180" t="s">
-        <v>32</v>
-      </c>
-      <c r="L180" t="s"/>
     </row>
     <row r="181" spans="1:12">
       <c r="A181" t="s">
         <v>12</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>44154.69077488426</v>
+        <v>44154.68356502315</v>
       </c>
       <c r="C181" t="n">
-        <v>440</v>
+        <v>1924</v>
       </c>
       <c r="D181" t="s">
         <v>635</v>
@@ -8895,21 +9051,493 @@
         <v>637</v>
       </c>
       <c r="G181" t="s">
-        <v>428</v>
+        <v>638</v>
       </c>
       <c r="H181" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I181" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J181" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K181" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L181" t="s"/>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>44154.6841640625</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3611</v>
+      </c>
+      <c r="D182" t="s">
+        <v>639</v>
+      </c>
+      <c r="E182" t="s">
+        <v>640</v>
+      </c>
+      <c r="F182" t="s">
+        <v>641</v>
+      </c>
+      <c r="G182" t="s">
+        <v>642</v>
+      </c>
+      <c r="H182" t="s">
+        <v>24</v>
+      </c>
+      <c r="I182" t="s">
+        <v>24</v>
+      </c>
+      <c r="J182" t="s">
+        <v>70</v>
+      </c>
+      <c r="K182" t="s">
+        <v>19</v>
+      </c>
+      <c r="L182" t="s"/>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183" t="s">
+        <v>12</v>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>44154.68457054398</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1065</v>
+      </c>
+      <c r="D183" t="s">
+        <v>643</v>
+      </c>
+      <c r="E183" t="s">
+        <v>644</v>
+      </c>
+      <c r="F183" t="s">
+        <v>645</v>
+      </c>
+      <c r="G183" t="s">
+        <v>646</v>
+      </c>
+      <c r="H183" t="s">
+        <v>24</v>
+      </c>
+      <c r="I183" t="s">
+        <v>19</v>
+      </c>
+      <c r="J183" t="s">
+        <v>25</v>
+      </c>
+      <c r="K183" t="s">
+        <v>17</v>
+      </c>
+      <c r="L183" t="s"/>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184" t="s">
+        <v>12</v>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>44154.68556002315</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2475</v>
+      </c>
+      <c r="D184" t="s">
+        <v>647</v>
+      </c>
+      <c r="E184" t="s">
+        <v>648</v>
+      </c>
+      <c r="F184" t="s">
+        <v>649</v>
+      </c>
+      <c r="G184" t="s">
+        <v>155</v>
+      </c>
+      <c r="H184" t="s">
+        <v>180</v>
+      </c>
+      <c r="I184" t="s">
+        <v>18</v>
+      </c>
+      <c r="J184" t="s">
+        <v>17</v>
+      </c>
+      <c r="K184" t="s">
+        <v>17</v>
+      </c>
+      <c r="L184" t="s"/>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>44154.68630527778</v>
+      </c>
+      <c r="C185" t="n">
+        <v>3042</v>
+      </c>
+      <c r="D185" t="s">
+        <v>650</v>
+      </c>
+      <c r="E185" t="s">
+        <v>651</v>
+      </c>
+      <c r="F185" t="s">
+        <v>652</v>
+      </c>
+      <c r="G185" t="s">
+        <v>653</v>
+      </c>
+      <c r="H185" t="s">
+        <v>17</v>
+      </c>
+      <c r="I185" t="s">
+        <v>18</v>
+      </c>
+      <c r="J185" t="s">
+        <v>19</v>
+      </c>
+      <c r="K185" t="s">
+        <v>19</v>
+      </c>
+      <c r="L185" t="s"/>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>44154.68673292824</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1903</v>
+      </c>
+      <c r="D186" t="s">
+        <v>654</v>
+      </c>
+      <c r="E186" t="s">
+        <v>655</v>
+      </c>
+      <c r="F186" t="s">
+        <v>656</v>
+      </c>
+      <c r="G186" t="s">
+        <v>657</v>
+      </c>
+      <c r="H186" t="s">
+        <v>46</v>
+      </c>
+      <c r="I186" t="s">
+        <v>17</v>
+      </c>
+      <c r="J186" t="s">
+        <v>25</v>
+      </c>
+      <c r="K186" t="s">
+        <v>17</v>
+      </c>
+      <c r="L186" t="s"/>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187" t="s">
+        <v>12</v>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>44154.6878003588</v>
+      </c>
+      <c r="C187" t="n">
+        <v>615</v>
+      </c>
+      <c r="D187" t="s">
+        <v>658</v>
+      </c>
+      <c r="E187" t="s">
+        <v>659</v>
+      </c>
+      <c r="F187" t="s">
+        <v>660</v>
+      </c>
+      <c r="G187" t="s">
+        <v>661</v>
+      </c>
+      <c r="H187" t="s">
+        <v>151</v>
+      </c>
+      <c r="I187" t="s">
+        <v>40</v>
+      </c>
+      <c r="J187" t="s">
+        <v>25</v>
+      </c>
+      <c r="K187" t="s">
+        <v>19</v>
+      </c>
+      <c r="L187" t="s"/>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188" t="s">
+        <v>12</v>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>44154.68797761574</v>
+      </c>
+      <c r="C188" t="n">
+        <v>3195</v>
+      </c>
+      <c r="D188" t="s">
+        <v>662</v>
+      </c>
+      <c r="E188" t="s">
+        <v>663</v>
+      </c>
+      <c r="F188" t="s">
+        <v>664</v>
+      </c>
+      <c r="G188" t="s">
+        <v>665</v>
+      </c>
+      <c r="H188" t="s">
+        <v>108</v>
+      </c>
+      <c r="I188" t="s">
+        <v>18</v>
+      </c>
+      <c r="J188" t="s">
+        <v>70</v>
+      </c>
+      <c r="K188" t="s">
+        <v>19</v>
+      </c>
+      <c r="L188" t="s"/>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>44154.68839364583</v>
+      </c>
+      <c r="C189" t="n">
+        <v>3134</v>
+      </c>
+      <c r="D189" t="s">
+        <v>666</v>
+      </c>
+      <c r="E189" t="s">
+        <v>667</v>
+      </c>
+      <c r="F189" t="s">
+        <v>668</v>
+      </c>
+      <c r="G189" t="s">
+        <v>669</v>
+      </c>
+      <c r="H189" t="s">
+        <v>25</v>
+      </c>
+      <c r="I189" t="s">
+        <v>18</v>
+      </c>
+      <c r="J189" t="s">
+        <v>40</v>
+      </c>
+      <c r="K189" t="s">
+        <v>19</v>
+      </c>
+      <c r="L189" t="s"/>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>44154.68914657408</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D190" t="s">
+        <v>670</v>
+      </c>
+      <c r="E190" t="s">
+        <v>671</v>
+      </c>
+      <c r="F190" t="s">
+        <v>672</v>
+      </c>
+      <c r="G190" t="s">
+        <v>673</v>
+      </c>
+      <c r="H190" t="s">
+        <v>24</v>
+      </c>
+      <c r="I190" t="s">
+        <v>19</v>
+      </c>
+      <c r="J190" t="s">
+        <v>25</v>
+      </c>
+      <c r="K190" t="s">
+        <v>19</v>
+      </c>
+      <c r="L190" t="s"/>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>44154.68949501157</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3395</v>
+      </c>
+      <c r="D191" t="s">
+        <v>674</v>
+      </c>
+      <c r="E191" t="s">
+        <v>675</v>
+      </c>
+      <c r="F191" t="s">
+        <v>676</v>
+      </c>
+      <c r="G191" t="s">
+        <v>677</v>
+      </c>
+      <c r="H191" t="s">
+        <v>108</v>
+      </c>
+      <c r="I191" t="s">
+        <v>18</v>
+      </c>
+      <c r="J191" t="s">
+        <v>70</v>
+      </c>
+      <c r="K191" t="s">
+        <v>19</v>
+      </c>
+      <c r="L191" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192" t="s">
+        <v>12</v>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>44154.68986456018</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1760</v>
+      </c>
+      <c r="D192" t="s">
+        <v>679</v>
+      </c>
+      <c r="E192" t="s">
+        <v>680</v>
+      </c>
+      <c r="F192" t="s">
+        <v>681</v>
+      </c>
+      <c r="G192" t="s">
+        <v>682</v>
+      </c>
+      <c r="H192" t="s">
+        <v>108</v>
+      </c>
+      <c r="I192" t="s">
+        <v>18</v>
+      </c>
+      <c r="J192" t="s">
+        <v>70</v>
+      </c>
+      <c r="K192" t="s">
+        <v>19</v>
+      </c>
+      <c r="L192" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193" t="s">
+        <v>12</v>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>44154.69036902778</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D193" t="s">
+        <v>684</v>
+      </c>
+      <c r="E193" t="s">
+        <v>685</v>
+      </c>
+      <c r="F193" t="s">
+        <v>686</v>
+      </c>
+      <c r="G193" t="s">
+        <v>286</v>
+      </c>
+      <c r="H193" t="s">
+        <v>46</v>
+      </c>
+      <c r="I193" t="s">
+        <v>19</v>
+      </c>
+      <c r="J193" t="s">
+        <v>17</v>
+      </c>
+      <c r="K193" t="s">
+        <v>17</v>
+      </c>
+      <c r="L193" t="s"/>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194" t="s">
+        <v>12</v>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>44154.69077488426</v>
+      </c>
+      <c r="C194" t="n">
+        <v>440</v>
+      </c>
+      <c r="D194" t="s">
+        <v>687</v>
+      </c>
+      <c r="E194" t="s">
+        <v>688</v>
+      </c>
+      <c r="F194" t="s">
+        <v>689</v>
+      </c>
+      <c r="G194" t="s">
+        <v>480</v>
+      </c>
+      <c r="H194" t="s">
+        <v>17</v>
+      </c>
+      <c r="I194" t="s">
+        <v>18</v>
+      </c>
+      <c r="J194" t="s">
+        <v>40</v>
+      </c>
+      <c r="K194" t="s">
+        <v>19</v>
+      </c>
+      <c r="L194" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
